--- a/Dグループ_スケジュール.xlsx
+++ b/Dグループ_スケジュール.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Dグループ_エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GIT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CAE721-E3BB-41C0-BAB6-DD8355C844D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96910EA5-3C4E-419F-B021-AA17486FCB83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="2" r:id="rId1"/>
@@ -313,10 +313,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1. ログイン</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>全員</t>
     <rPh sb="0" eb="2">
       <t>ゼンイン</t>
@@ -354,41 +350,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>4. 購入</t>
-    <rPh sb="3" eb="5">
-      <t>コウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5. アイテム</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>6. 必殺技</t>
-    <rPh sb="3" eb="6">
-      <t>ヒッサツワザ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>7. ランク</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>8.ブラックジャック</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>　8.ブラックジャック</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>10. コイン</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>　9.ポーカー</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -608,9 +570,6 @@
     <t>1. ログイン</t>
   </si>
   <si>
-    <t>4. ポーカー</t>
-  </si>
-  <si>
     <t>天願大河</t>
     <rPh sb="0" eb="2">
       <t>テンガン</t>
@@ -622,9 +581,6 @@
   </si>
   <si>
     <t>5.ブラックジャック</t>
-  </si>
-  <si>
-    <t>6. ランク</t>
   </si>
   <si>
     <t>7. 必殺技</t>
@@ -663,6 +619,67 @@
   </si>
   <si>
     <t>1. レビュー</t>
+  </si>
+  <si>
+    <t>6. ランク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4. ポーカー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10. ランキング</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　4.ブラックジャック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　5.ポーカー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7. 必殺技</t>
+    <rPh sb="3" eb="6">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8. 購入</t>
+    <rPh sb="3" eb="5">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9. アイテム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>天願大河</t>
+    <rPh sb="0" eb="4">
+      <t>テンガンタイガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>天願陽聖</t>
+    <rPh sb="0" eb="1">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ネガイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1879,7 +1896,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2523,33 +2540,277 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2655,248 +2916,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3682,7 +3705,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s3089"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s3101"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4350,7 +4373,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s6159"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s6171"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4734,7 +4757,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s7181"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s7193"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5118,7 +5141,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s8205"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s8217"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5766,7 +5789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C3AED9-FED9-43A3-BF4F-D0851E0C8988}">
   <dimension ref="B2:AB15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="15.75"/>
   <cols>
@@ -5791,26 +5814,26 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="215">
+      <c r="K4" s="297">
         <v>2020</v>
       </c>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="215"/>
-      <c r="Y4" s="215"/>
-      <c r="Z4" s="215"/>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="215"/>
+      <c r="L4" s="297"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="297"/>
+      <c r="O4" s="297"/>
+      <c r="P4" s="297"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="297"/>
+      <c r="S4" s="297"/>
+      <c r="T4" s="297"/>
+      <c r="U4" s="297"/>
+      <c r="V4" s="297"/>
+      <c r="W4" s="297"/>
+      <c r="X4" s="297"/>
+      <c r="Y4" s="297"/>
+      <c r="Z4" s="297"/>
+      <c r="AA4" s="297"/>
+      <c r="AB4" s="297"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="6"/>
@@ -5822,26 +5845,26 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="215">
+      <c r="K5" s="297">
         <v>6</v>
       </c>
-      <c r="L5" s="215"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="215"/>
-      <c r="R5" s="215"/>
-      <c r="S5" s="215"/>
-      <c r="T5" s="215"/>
-      <c r="U5" s="215"/>
-      <c r="V5" s="215"/>
-      <c r="W5" s="215"/>
-      <c r="X5" s="215"/>
-      <c r="Y5" s="215"/>
-      <c r="Z5" s="215"/>
-      <c r="AA5" s="215"/>
-      <c r="AB5" s="215"/>
+      <c r="L5" s="297"/>
+      <c r="M5" s="297"/>
+      <c r="N5" s="297"/>
+      <c r="O5" s="297"/>
+      <c r="P5" s="297"/>
+      <c r="Q5" s="297"/>
+      <c r="R5" s="297"/>
+      <c r="S5" s="297"/>
+      <c r="T5" s="297"/>
+      <c r="U5" s="297"/>
+      <c r="V5" s="297"/>
+      <c r="W5" s="297"/>
+      <c r="X5" s="297"/>
+      <c r="Y5" s="297"/>
+      <c r="Z5" s="297"/>
+      <c r="AA5" s="297"/>
+      <c r="AB5" s="297"/>
     </row>
     <row r="6" spans="2:28">
       <c r="B6" s="9"/>
@@ -6175,10 +6198,10 @@
     <row r="15" spans="2:28" ht="13.5" customHeight="1">
       <c r="B15" s="22"/>
       <c r="C15" s="19" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -6531,8 +6554,8 @@
       <c r="J34" s="82"/>
       <c r="K34" s="82"/>
       <c r="L34" s="83"/>
-      <c r="M34" s="216" t="s">
-        <v>81</v>
+      <c r="M34" s="304" t="s">
+        <v>73</v>
       </c>
       <c r="N34" s="80"/>
       <c r="O34" s="62" t="s">
@@ -6566,7 +6589,7 @@
       <c r="J35" s="85"/>
       <c r="K35" s="85"/>
       <c r="L35" s="86"/>
-      <c r="M35" s="217"/>
+      <c r="M35" s="305"/>
       <c r="N35" s="87"/>
       <c r="O35" s="66" t="s">
         <v>27</v>
@@ -6601,8 +6624,8 @@
       <c r="J36" s="82"/>
       <c r="K36" s="82"/>
       <c r="L36" s="83"/>
-      <c r="M36" s="216" t="s">
-        <v>82</v>
+      <c r="M36" s="304" t="s">
+        <v>74</v>
       </c>
       <c r="N36" s="80"/>
       <c r="O36" s="62" t="s">
@@ -6636,7 +6659,7 @@
       <c r="J37" s="85"/>
       <c r="K37" s="85"/>
       <c r="L37" s="86"/>
-      <c r="M37" s="217"/>
+      <c r="M37" s="305"/>
       <c r="N37" s="87"/>
       <c r="O37" s="66" t="s">
         <v>27</v>
@@ -6671,8 +6694,8 @@
       <c r="J38" s="82"/>
       <c r="K38" s="82"/>
       <c r="L38" s="83"/>
-      <c r="M38" s="216" t="s">
-        <v>84</v>
+      <c r="M38" s="304" t="s">
+        <v>76</v>
       </c>
       <c r="N38" s="80"/>
       <c r="O38" s="62" t="s">
@@ -6706,7 +6729,7 @@
       <c r="J39" s="85"/>
       <c r="K39" s="85"/>
       <c r="L39" s="86"/>
-      <c r="M39" s="217"/>
+      <c r="M39" s="305"/>
       <c r="N39" s="87"/>
       <c r="O39" s="66" t="s">
         <v>27</v>
@@ -6741,8 +6764,8 @@
       <c r="J40" s="89"/>
       <c r="K40" s="89"/>
       <c r="L40" s="90"/>
-      <c r="M40" s="216" t="s">
-        <v>84</v>
+      <c r="M40" s="304" t="s">
+        <v>76</v>
       </c>
       <c r="N40" s="91"/>
       <c r="O40" s="62" t="s">
@@ -6776,7 +6799,7 @@
       <c r="J41" s="89"/>
       <c r="K41" s="89"/>
       <c r="L41" s="90"/>
-      <c r="M41" s="217"/>
+      <c r="M41" s="305"/>
       <c r="N41" s="91"/>
       <c r="O41" s="66" t="s">
         <v>27</v>
@@ -6811,8 +6834,8 @@
       <c r="J42" s="82"/>
       <c r="K42" s="82"/>
       <c r="L42" s="83"/>
-      <c r="M42" s="216" t="s">
-        <v>85</v>
+      <c r="M42" s="304" t="s">
+        <v>77</v>
       </c>
       <c r="N42" s="80"/>
       <c r="O42" s="62" t="s">
@@ -6846,7 +6869,7 @@
       <c r="J43" s="85"/>
       <c r="K43" s="85"/>
       <c r="L43" s="86"/>
-      <c r="M43" s="217"/>
+      <c r="M43" s="305"/>
       <c r="N43" s="87"/>
       <c r="O43" s="66" t="s">
         <v>27</v>
@@ -6872,7 +6895,7 @@
       <c r="C44" s="25"/>
       <c r="D44" s="55"/>
       <c r="E44" s="81" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F44" s="82"/>
       <c r="G44" s="82"/>
@@ -6881,8 +6904,8 @@
       <c r="J44" s="82"/>
       <c r="K44" s="82"/>
       <c r="L44" s="83"/>
-      <c r="M44" s="216" t="s">
-        <v>83</v>
+      <c r="M44" s="304" t="s">
+        <v>75</v>
       </c>
       <c r="N44" s="80"/>
       <c r="O44" s="62" t="s">
@@ -6916,7 +6939,7 @@
       <c r="J45" s="85"/>
       <c r="K45" s="85"/>
       <c r="L45" s="86"/>
-      <c r="M45" s="217"/>
+      <c r="M45" s="305"/>
       <c r="N45" s="87"/>
       <c r="O45" s="66" t="s">
         <v>27</v>
@@ -6942,7 +6965,7 @@
       <c r="C46" s="25"/>
       <c r="D46" s="55"/>
       <c r="E46" s="81" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F46" s="82"/>
       <c r="G46" s="82"/>
@@ -6951,7 +6974,7 @@
       <c r="J46" s="82"/>
       <c r="K46" s="82"/>
       <c r="L46" s="83"/>
-      <c r="M46" s="216"/>
+      <c r="M46" s="304"/>
       <c r="N46" s="91"/>
       <c r="O46" s="62" t="s">
         <v>26</v>
@@ -6984,7 +7007,7 @@
       <c r="J47" s="85"/>
       <c r="K47" s="85"/>
       <c r="L47" s="86"/>
-      <c r="M47" s="217"/>
+      <c r="M47" s="305"/>
       <c r="N47" s="87"/>
       <c r="O47" s="66" t="s">
         <v>27</v>
@@ -7010,7 +7033,7 @@
       <c r="C48" s="25"/>
       <c r="D48" s="55"/>
       <c r="E48" s="88" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F48" s="89"/>
       <c r="G48" s="89"/>
@@ -7019,7 +7042,7 @@
       <c r="J48" s="89"/>
       <c r="K48" s="89"/>
       <c r="L48" s="90"/>
-      <c r="M48" s="216"/>
+      <c r="M48" s="304"/>
       <c r="N48" s="91"/>
       <c r="O48" s="62" t="s">
         <v>26</v>
@@ -7052,7 +7075,7 @@
       <c r="J49" s="85"/>
       <c r="K49" s="85"/>
       <c r="L49" s="86"/>
-      <c r="M49" s="217"/>
+      <c r="M49" s="305"/>
       <c r="N49" s="91"/>
       <c r="O49" s="66" t="s">
         <v>27</v>
@@ -7078,9 +7101,9 @@
       <c r="C50" s="25"/>
       <c r="D50" s="55"/>
       <c r="E50" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="M50" s="216"/>
+        <v>87</v>
+      </c>
+      <c r="M50" s="304"/>
       <c r="N50" s="80"/>
       <c r="O50" s="62" t="s">
         <v>26</v>
@@ -7105,7 +7128,7 @@
     <row r="51" spans="3:31">
       <c r="C51" s="25"/>
       <c r="D51" s="55"/>
-      <c r="M51" s="217"/>
+      <c r="M51" s="305"/>
       <c r="N51" s="87"/>
       <c r="O51" s="66" t="s">
         <v>27</v>
@@ -7196,20 +7219,20 @@
     <row r="54" spans="3:31">
       <c r="C54" s="25"/>
       <c r="D54" s="55"/>
-      <c r="E54" s="218" t="s">
+      <c r="E54" s="298" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="219"/>
-      <c r="G54" s="219"/>
-      <c r="H54" s="219"/>
-      <c r="I54" s="219"/>
-      <c r="J54" s="219"/>
-      <c r="K54" s="219"/>
-      <c r="L54" s="220"/>
-      <c r="M54" s="216" t="s">
+      <c r="F54" s="299"/>
+      <c r="G54" s="299"/>
+      <c r="H54" s="299"/>
+      <c r="I54" s="299"/>
+      <c r="J54" s="299"/>
+      <c r="K54" s="299"/>
+      <c r="L54" s="300"/>
+      <c r="M54" s="304" t="s">
         <v>33</v>
       </c>
-      <c r="N54" s="224"/>
+      <c r="N54" s="306"/>
       <c r="O54" s="62" t="s">
         <v>26</v>
       </c>
@@ -7233,16 +7256,16 @@
     <row r="55" spans="3:31">
       <c r="C55" s="25"/>
       <c r="D55" s="55"/>
-      <c r="E55" s="221"/>
-      <c r="F55" s="222"/>
-      <c r="G55" s="222"/>
-      <c r="H55" s="222"/>
-      <c r="I55" s="222"/>
-      <c r="J55" s="222"/>
-      <c r="K55" s="222"/>
-      <c r="L55" s="223"/>
-      <c r="M55" s="217"/>
-      <c r="N55" s="225"/>
+      <c r="E55" s="301"/>
+      <c r="F55" s="302"/>
+      <c r="G55" s="302"/>
+      <c r="H55" s="302"/>
+      <c r="I55" s="302"/>
+      <c r="J55" s="302"/>
+      <c r="K55" s="302"/>
+      <c r="L55" s="303"/>
+      <c r="M55" s="305"/>
+      <c r="N55" s="307"/>
       <c r="O55" s="66" t="s">
         <v>27</v>
       </c>
@@ -7266,20 +7289,20 @@
     <row r="56" spans="3:31">
       <c r="C56" s="25"/>
       <c r="D56" s="55"/>
-      <c r="E56" s="218" t="s">
+      <c r="E56" s="298" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="219"/>
-      <c r="G56" s="219"/>
-      <c r="H56" s="219"/>
-      <c r="I56" s="219"/>
-      <c r="J56" s="219"/>
-      <c r="K56" s="219"/>
-      <c r="L56" s="220"/>
-      <c r="M56" s="216" t="s">
+      <c r="F56" s="299"/>
+      <c r="G56" s="299"/>
+      <c r="H56" s="299"/>
+      <c r="I56" s="299"/>
+      <c r="J56" s="299"/>
+      <c r="K56" s="299"/>
+      <c r="L56" s="300"/>
+      <c r="M56" s="304" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="224"/>
+      <c r="N56" s="306"/>
       <c r="O56" s="62" t="s">
         <v>26</v>
       </c>
@@ -7303,16 +7326,16 @@
     <row r="57" spans="3:31">
       <c r="C57" s="25"/>
       <c r="D57" s="55"/>
-      <c r="E57" s="221"/>
-      <c r="F57" s="222"/>
-      <c r="G57" s="222"/>
-      <c r="H57" s="222"/>
-      <c r="I57" s="222"/>
-      <c r="J57" s="222"/>
-      <c r="K57" s="222"/>
-      <c r="L57" s="223"/>
-      <c r="M57" s="217"/>
-      <c r="N57" s="225"/>
+      <c r="E57" s="301"/>
+      <c r="F57" s="302"/>
+      <c r="G57" s="302"/>
+      <c r="H57" s="302"/>
+      <c r="I57" s="302"/>
+      <c r="J57" s="302"/>
+      <c r="K57" s="302"/>
+      <c r="L57" s="303"/>
+      <c r="M57" s="305"/>
+      <c r="N57" s="307"/>
       <c r="O57" s="66" t="s">
         <v>27</v>
       </c>
@@ -7336,17 +7359,17 @@
     <row r="58" spans="3:31">
       <c r="C58" s="25"/>
       <c r="D58" s="55"/>
-      <c r="E58" s="218" t="s">
+      <c r="E58" s="298" t="s">
         <v>35</v>
       </c>
-      <c r="F58" s="219"/>
-      <c r="G58" s="219"/>
-      <c r="H58" s="219"/>
-      <c r="I58" s="219"/>
-      <c r="J58" s="219"/>
-      <c r="K58" s="219"/>
-      <c r="L58" s="220"/>
-      <c r="M58" s="216" t="s">
+      <c r="F58" s="299"/>
+      <c r="G58" s="299"/>
+      <c r="H58" s="299"/>
+      <c r="I58" s="299"/>
+      <c r="J58" s="299"/>
+      <c r="K58" s="299"/>
+      <c r="L58" s="300"/>
+      <c r="M58" s="304" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="51"/>
@@ -7373,15 +7396,15 @@
     <row r="59" spans="3:31">
       <c r="C59" s="25"/>
       <c r="D59" s="55"/>
-      <c r="E59" s="221"/>
-      <c r="F59" s="222"/>
-      <c r="G59" s="222"/>
-      <c r="H59" s="222"/>
-      <c r="I59" s="222"/>
-      <c r="J59" s="222"/>
-      <c r="K59" s="222"/>
-      <c r="L59" s="223"/>
-      <c r="M59" s="217"/>
+      <c r="E59" s="301"/>
+      <c r="F59" s="302"/>
+      <c r="G59" s="302"/>
+      <c r="H59" s="302"/>
+      <c r="I59" s="302"/>
+      <c r="J59" s="302"/>
+      <c r="K59" s="302"/>
+      <c r="L59" s="303"/>
+      <c r="M59" s="305"/>
       <c r="N59" s="76"/>
       <c r="O59" s="66" t="s">
         <v>27</v>
@@ -7406,20 +7429,20 @@
     <row r="60" spans="3:31">
       <c r="C60" s="25"/>
       <c r="D60" s="55"/>
-      <c r="E60" s="218" t="s">
+      <c r="E60" s="298" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="219"/>
-      <c r="G60" s="219"/>
-      <c r="H60" s="219"/>
-      <c r="I60" s="219"/>
-      <c r="J60" s="219"/>
-      <c r="K60" s="219"/>
-      <c r="L60" s="220"/>
-      <c r="M60" s="216" t="s">
+      <c r="F60" s="299"/>
+      <c r="G60" s="299"/>
+      <c r="H60" s="299"/>
+      <c r="I60" s="299"/>
+      <c r="J60" s="299"/>
+      <c r="K60" s="299"/>
+      <c r="L60" s="300"/>
+      <c r="M60" s="304" t="s">
         <v>33</v>
       </c>
-      <c r="N60" s="216"/>
+      <c r="N60" s="304"/>
       <c r="O60" s="62" t="s">
         <v>26</v>
       </c>
@@ -7443,16 +7466,16 @@
     <row r="61" spans="3:31">
       <c r="C61" s="25"/>
       <c r="D61" s="55"/>
-      <c r="E61" s="221"/>
-      <c r="F61" s="222"/>
-      <c r="G61" s="222"/>
-      <c r="H61" s="222"/>
-      <c r="I61" s="222"/>
-      <c r="J61" s="222"/>
-      <c r="K61" s="222"/>
-      <c r="L61" s="223"/>
-      <c r="M61" s="217"/>
-      <c r="N61" s="217"/>
+      <c r="E61" s="301"/>
+      <c r="F61" s="302"/>
+      <c r="G61" s="302"/>
+      <c r="H61" s="302"/>
+      <c r="I61" s="302"/>
+      <c r="J61" s="302"/>
+      <c r="K61" s="302"/>
+      <c r="L61" s="303"/>
+      <c r="M61" s="305"/>
+      <c r="N61" s="305"/>
       <c r="O61" s="66" t="s">
         <v>27</v>
       </c>
@@ -7542,6 +7565,10 @@
     <mergeCell ref="M44:M45"/>
     <mergeCell ref="M46:M47"/>
     <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M36:M37"/>
     <mergeCell ref="E60:L61"/>
     <mergeCell ref="M60:M61"/>
     <mergeCell ref="N60:N61"/>
@@ -7551,10 +7578,6 @@
     <mergeCell ref="E56:L57"/>
     <mergeCell ref="M56:M57"/>
     <mergeCell ref="N56:N57"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M36:M37"/>
     <mergeCell ref="E58:L59"/>
     <mergeCell ref="M58:M59"/>
   </mergeCells>
@@ -7763,20 +7786,20 @@
     </row>
     <row r="29" spans="2:28">
       <c r="B29" s="18"/>
-      <c r="C29" s="226" t="s">
+      <c r="C29" s="308" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="227"/>
-      <c r="E29" s="227"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="227"/>
-      <c r="H29" s="227"/>
-      <c r="I29" s="227"/>
-      <c r="J29" s="228"/>
-      <c r="K29" s="232" t="s">
+      <c r="D29" s="309"/>
+      <c r="E29" s="309"/>
+      <c r="F29" s="309"/>
+      <c r="G29" s="309"/>
+      <c r="H29" s="309"/>
+      <c r="I29" s="309"/>
+      <c r="J29" s="310"/>
+      <c r="K29" s="314" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="234"/>
+      <c r="L29" s="316"/>
       <c r="M29" s="121" t="s">
         <v>26</v>
       </c>
@@ -7798,16 +7821,16 @@
     </row>
     <row r="30" spans="2:28">
       <c r="B30" s="18"/>
-      <c r="C30" s="229"/>
-      <c r="D30" s="230"/>
-      <c r="E30" s="230"/>
-      <c r="F30" s="230"/>
-      <c r="G30" s="230"/>
-      <c r="H30" s="230"/>
-      <c r="I30" s="230"/>
-      <c r="J30" s="231"/>
-      <c r="K30" s="233"/>
-      <c r="L30" s="235"/>
+      <c r="C30" s="311"/>
+      <c r="D30" s="312"/>
+      <c r="E30" s="312"/>
+      <c r="F30" s="312"/>
+      <c r="G30" s="312"/>
+      <c r="H30" s="312"/>
+      <c r="I30" s="312"/>
+      <c r="J30" s="313"/>
+      <c r="K30" s="315"/>
+      <c r="L30" s="317"/>
       <c r="M30" s="123" t="s">
         <v>27</v>
       </c>
@@ -7829,20 +7852,20 @@
     </row>
     <row r="31" spans="2:28">
       <c r="B31" s="18"/>
-      <c r="C31" s="226" t="s">
+      <c r="C31" s="308" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="227"/>
-      <c r="H31" s="227"/>
-      <c r="I31" s="227"/>
-      <c r="J31" s="228"/>
-      <c r="K31" s="232" t="s">
+      <c r="D31" s="309"/>
+      <c r="E31" s="309"/>
+      <c r="F31" s="309"/>
+      <c r="G31" s="309"/>
+      <c r="H31" s="309"/>
+      <c r="I31" s="309"/>
+      <c r="J31" s="310"/>
+      <c r="K31" s="314" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="234"/>
+      <c r="L31" s="316"/>
       <c r="M31" s="121" t="s">
         <v>26</v>
       </c>
@@ -7864,18 +7887,18 @@
     </row>
     <row r="32" spans="2:28">
       <c r="B32" s="18"/>
-      <c r="C32" s="229"/>
-      <c r="D32" s="230"/>
-      <c r="E32" s="230"/>
-      <c r="F32" s="230"/>
-      <c r="G32" s="230"/>
-      <c r="H32" s="230"/>
-      <c r="I32" s="230"/>
-      <c r="J32" s="231"/>
-      <c r="K32" s="233" t="s">
+      <c r="C32" s="311"/>
+      <c r="D32" s="312"/>
+      <c r="E32" s="312"/>
+      <c r="F32" s="312"/>
+      <c r="G32" s="312"/>
+      <c r="H32" s="312"/>
+      <c r="I32" s="312"/>
+      <c r="J32" s="313"/>
+      <c r="K32" s="315" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="235"/>
+      <c r="L32" s="317"/>
       <c r="M32" s="123" t="s">
         <v>27</v>
       </c>
@@ -7897,20 +7920,20 @@
     </row>
     <row r="33" spans="2:28">
       <c r="B33" s="18"/>
-      <c r="C33" s="226" t="s">
+      <c r="C33" s="308" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="227"/>
-      <c r="E33" s="227"/>
-      <c r="F33" s="227"/>
-      <c r="G33" s="227"/>
-      <c r="H33" s="227"/>
-      <c r="I33" s="227"/>
-      <c r="J33" s="228"/>
-      <c r="K33" s="232" t="s">
+      <c r="D33" s="309"/>
+      <c r="E33" s="309"/>
+      <c r="F33" s="309"/>
+      <c r="G33" s="309"/>
+      <c r="H33" s="309"/>
+      <c r="I33" s="309"/>
+      <c r="J33" s="310"/>
+      <c r="K33" s="314" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="234"/>
+      <c r="L33" s="316"/>
       <c r="M33" s="121" t="s">
         <v>26</v>
       </c>
@@ -7932,18 +7955,18 @@
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="18"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="230"/>
-      <c r="F34" s="230"/>
-      <c r="G34" s="230"/>
-      <c r="H34" s="230"/>
-      <c r="I34" s="230"/>
-      <c r="J34" s="231"/>
-      <c r="K34" s="233" t="s">
+      <c r="C34" s="311"/>
+      <c r="D34" s="312"/>
+      <c r="E34" s="312"/>
+      <c r="F34" s="312"/>
+      <c r="G34" s="312"/>
+      <c r="H34" s="312"/>
+      <c r="I34" s="312"/>
+      <c r="J34" s="313"/>
+      <c r="K34" s="315" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="235"/>
+      <c r="L34" s="317"/>
       <c r="M34" s="123" t="s">
         <v>27</v>
       </c>
@@ -7965,20 +7988,20 @@
     </row>
     <row r="35" spans="2:28">
       <c r="B35" s="18"/>
-      <c r="C35" s="226" t="s">
+      <c r="C35" s="308" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="227"/>
-      <c r="E35" s="227"/>
-      <c r="F35" s="227"/>
-      <c r="G35" s="227"/>
-      <c r="H35" s="227"/>
-      <c r="I35" s="227"/>
-      <c r="J35" s="228"/>
-      <c r="K35" s="232" t="s">
+      <c r="D35" s="309"/>
+      <c r="E35" s="309"/>
+      <c r="F35" s="309"/>
+      <c r="G35" s="309"/>
+      <c r="H35" s="309"/>
+      <c r="I35" s="309"/>
+      <c r="J35" s="310"/>
+      <c r="K35" s="314" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="234"/>
+      <c r="L35" s="316"/>
       <c r="M35" s="121" t="s">
         <v>26</v>
       </c>
@@ -8000,18 +8023,18 @@
     </row>
     <row r="36" spans="2:28">
       <c r="B36" s="18"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="230"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="230"/>
-      <c r="G36" s="230"/>
-      <c r="H36" s="230"/>
-      <c r="I36" s="230"/>
-      <c r="J36" s="231"/>
-      <c r="K36" s="233" t="s">
+      <c r="C36" s="311"/>
+      <c r="D36" s="312"/>
+      <c r="E36" s="312"/>
+      <c r="F36" s="312"/>
+      <c r="G36" s="312"/>
+      <c r="H36" s="312"/>
+      <c r="I36" s="312"/>
+      <c r="J36" s="313"/>
+      <c r="K36" s="315" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="235"/>
+      <c r="L36" s="317"/>
       <c r="M36" s="123" t="s">
         <v>27</v>
       </c>
@@ -8033,20 +8056,20 @@
     </row>
     <row r="37" spans="2:28">
       <c r="B37" s="18"/>
-      <c r="C37" s="226" t="s">
+      <c r="C37" s="308" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="227"/>
-      <c r="E37" s="227"/>
-      <c r="F37" s="227"/>
-      <c r="G37" s="227"/>
-      <c r="H37" s="227"/>
-      <c r="I37" s="227"/>
-      <c r="J37" s="228"/>
-      <c r="K37" s="232" t="s">
+      <c r="D37" s="309"/>
+      <c r="E37" s="309"/>
+      <c r="F37" s="309"/>
+      <c r="G37" s="309"/>
+      <c r="H37" s="309"/>
+      <c r="I37" s="309"/>
+      <c r="J37" s="310"/>
+      <c r="K37" s="314" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="234"/>
+      <c r="L37" s="316"/>
       <c r="M37" s="121" t="s">
         <v>26</v>
       </c>
@@ -8068,18 +8091,18 @@
     </row>
     <row r="38" spans="2:28">
       <c r="B38" s="18"/>
-      <c r="C38" s="229"/>
-      <c r="D38" s="230"/>
-      <c r="E38" s="230"/>
-      <c r="F38" s="230"/>
-      <c r="G38" s="230"/>
-      <c r="H38" s="230"/>
-      <c r="I38" s="230"/>
-      <c r="J38" s="231"/>
-      <c r="K38" s="233" t="s">
+      <c r="C38" s="311"/>
+      <c r="D38" s="312"/>
+      <c r="E38" s="312"/>
+      <c r="F38" s="312"/>
+      <c r="G38" s="312"/>
+      <c r="H38" s="312"/>
+      <c r="I38" s="312"/>
+      <c r="J38" s="313"/>
+      <c r="K38" s="315" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="235"/>
+      <c r="L38" s="317"/>
       <c r="M38" s="123" t="s">
         <v>27</v>
       </c>
@@ -8163,7 +8186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40C8471-899E-4678-A7F2-CEE3CFECD3C8}">
   <dimension ref="B23:V54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
   <cols>
@@ -8189,838 +8212,833 @@
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="260"/>
-      <c r="C25" s="261"/>
-      <c r="D25" s="262"/>
-      <c r="E25" s="262"/>
-      <c r="F25" s="262"/>
-      <c r="G25" s="262"/>
-      <c r="H25" s="262"/>
-      <c r="I25" s="262"/>
-      <c r="J25" s="262"/>
-      <c r="K25" s="236" t="s">
+      <c r="B25" s="216"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="218"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="318" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="238" t="s">
+      <c r="L25" s="320" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="238" t="s">
+      <c r="M25" s="320" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="278">
+      <c r="N25" s="234">
         <v>2020</v>
       </c>
-      <c r="O25" s="279"/>
-      <c r="P25" s="279"/>
-      <c r="Q25" s="279"/>
-      <c r="R25" s="279"/>
-      <c r="S25" s="279"/>
-      <c r="T25" s="279"/>
-      <c r="U25" s="279"/>
-      <c r="V25" s="280"/>
+      <c r="O25" s="235"/>
+      <c r="P25" s="235"/>
+      <c r="Q25" s="235"/>
+      <c r="R25" s="235"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="235"/>
+      <c r="U25" s="235"/>
+      <c r="V25" s="236"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="263"/>
-      <c r="C26" s="264"/>
-      <c r="D26" s="265"/>
-      <c r="E26" s="265"/>
-      <c r="F26" s="265"/>
-      <c r="G26" s="265"/>
-      <c r="H26" s="265"/>
-      <c r="I26" s="265"/>
-      <c r="J26" s="265"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="239"/>
-      <c r="M26" s="239"/>
-      <c r="N26" s="281">
+      <c r="B26" s="219"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="319"/>
+      <c r="L26" s="321"/>
+      <c r="M26" s="321"/>
+      <c r="N26" s="237">
         <v>43994</v>
       </c>
-      <c r="O26" s="281">
+      <c r="O26" s="237">
         <v>43995</v>
       </c>
-      <c r="P26" s="281">
+      <c r="P26" s="237">
         <v>43996</v>
       </c>
-      <c r="Q26" s="281">
+      <c r="Q26" s="237">
         <v>43997</v>
       </c>
-      <c r="R26" s="281">
+      <c r="R26" s="237">
         <v>43998</v>
       </c>
-      <c r="S26" s="281">
+      <c r="S26" s="237">
         <v>43999</v>
       </c>
-      <c r="T26" s="281">
+      <c r="T26" s="237">
         <v>44000</v>
       </c>
-      <c r="U26" s="281">
+      <c r="U26" s="237">
         <v>44001</v>
       </c>
-      <c r="V26" s="281">
+      <c r="V26" s="237">
         <v>44002</v>
       </c>
     </row>
     <row r="27" spans="2:22">
-      <c r="B27" s="282">
+      <c r="B27" s="238">
         <v>5</v>
       </c>
-      <c r="C27" s="283" t="s">
+      <c r="C27" s="239" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="284"/>
-      <c r="E27" s="284"/>
-      <c r="F27" s="284"/>
-      <c r="G27" s="284"/>
-      <c r="H27" s="284"/>
-      <c r="I27" s="284"/>
-      <c r="J27" s="284"/>
-      <c r="K27" s="285"/>
-      <c r="L27" s="286"/>
-      <c r="M27" s="285"/>
-      <c r="N27" s="287"/>
-      <c r="O27" s="320"/>
-      <c r="P27" s="321"/>
-      <c r="Q27" s="311"/>
-      <c r="R27" s="311"/>
-      <c r="S27" s="288"/>
-      <c r="T27" s="288"/>
-      <c r="U27" s="288"/>
-      <c r="V27" s="289"/>
+      <c r="D27" s="240"/>
+      <c r="E27" s="240"/>
+      <c r="F27" s="240"/>
+      <c r="G27" s="240"/>
+      <c r="H27" s="240"/>
+      <c r="I27" s="240"/>
+      <c r="J27" s="240"/>
+      <c r="K27" s="241"/>
+      <c r="L27" s="242"/>
+      <c r="M27" s="241"/>
+      <c r="N27" s="243"/>
+      <c r="O27" s="276"/>
+      <c r="P27" s="277"/>
+      <c r="Q27" s="267"/>
+      <c r="R27" s="267"/>
+      <c r="S27" s="244"/>
+      <c r="T27" s="244"/>
+      <c r="U27" s="244"/>
+      <c r="V27" s="245"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="290"/>
-      <c r="C28" s="283" t="s">
+      <c r="B28" s="246"/>
+      <c r="C28" s="239" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="284"/>
-      <c r="E28" s="284"/>
-      <c r="F28" s="284"/>
-      <c r="G28" s="284"/>
-      <c r="H28" s="284"/>
-      <c r="I28" s="284"/>
-      <c r="J28" s="284"/>
-      <c r="K28" s="285"/>
-      <c r="L28" s="286"/>
-      <c r="M28" s="291"/>
-      <c r="N28" s="292"/>
-      <c r="O28" s="322"/>
-      <c r="P28" s="323"/>
-      <c r="Q28" s="311"/>
-      <c r="R28" s="311"/>
-      <c r="S28" s="288"/>
-      <c r="T28" s="288"/>
-      <c r="U28" s="288"/>
-      <c r="V28" s="289"/>
+      <c r="D28" s="240"/>
+      <c r="E28" s="240"/>
+      <c r="F28" s="240"/>
+      <c r="G28" s="240"/>
+      <c r="H28" s="240"/>
+      <c r="I28" s="240"/>
+      <c r="J28" s="240"/>
+      <c r="K28" s="241"/>
+      <c r="L28" s="242"/>
+      <c r="M28" s="247"/>
+      <c r="N28" s="248"/>
+      <c r="O28" s="278"/>
+      <c r="P28" s="279"/>
+      <c r="Q28" s="267"/>
+      <c r="R28" s="267"/>
+      <c r="S28" s="244"/>
+      <c r="T28" s="244"/>
+      <c r="U28" s="244"/>
+      <c r="V28" s="245"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="290"/>
-      <c r="C29" s="240" t="s">
+      <c r="B29" s="246"/>
+      <c r="C29" s="322" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="309"/>
+      <c r="E29" s="309"/>
+      <c r="F29" s="309"/>
+      <c r="G29" s="309"/>
+      <c r="H29" s="309"/>
+      <c r="I29" s="309"/>
+      <c r="J29" s="310"/>
+      <c r="K29" s="314" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="323"/>
+      <c r="M29" s="250" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="273"/>
+      <c r="O29" s="230"/>
+      <c r="P29" s="280"/>
+      <c r="Q29" s="227"/>
+      <c r="R29" s="233"/>
+      <c r="S29" s="233"/>
+      <c r="T29" s="222"/>
+      <c r="U29" s="222"/>
+      <c r="V29" s="251"/>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="246"/>
+      <c r="C30" s="312"/>
+      <c r="D30" s="312"/>
+      <c r="E30" s="312"/>
+      <c r="F30" s="312"/>
+      <c r="G30" s="312"/>
+      <c r="H30" s="312"/>
+      <c r="I30" s="312"/>
+      <c r="J30" s="313"/>
+      <c r="K30" s="315"/>
+      <c r="L30" s="315"/>
+      <c r="M30" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="275"/>
+      <c r="O30" s="231"/>
+      <c r="P30" s="281"/>
+      <c r="Q30" s="228"/>
+      <c r="R30" s="228"/>
+      <c r="S30" s="223"/>
+      <c r="T30" s="223"/>
+      <c r="U30" s="223"/>
+      <c r="V30" s="253"/>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="246"/>
+      <c r="C31" s="322" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="309"/>
+      <c r="E31" s="309"/>
+      <c r="F31" s="309"/>
+      <c r="G31" s="309"/>
+      <c r="H31" s="309"/>
+      <c r="I31" s="309"/>
+      <c r="J31" s="310"/>
+      <c r="K31" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="323"/>
+      <c r="M31" s="250" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="274"/>
+      <c r="O31" s="230"/>
+      <c r="P31" s="280"/>
+      <c r="Q31" s="227"/>
+      <c r="R31" s="233"/>
+      <c r="S31" s="233"/>
+      <c r="T31" s="222"/>
+      <c r="U31" s="222"/>
+      <c r="V31" s="251"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="246"/>
+      <c r="C32" s="312"/>
+      <c r="D32" s="312"/>
+      <c r="E32" s="312"/>
+      <c r="F32" s="312"/>
+      <c r="G32" s="312"/>
+      <c r="H32" s="312"/>
+      <c r="I32" s="312"/>
+      <c r="J32" s="313"/>
+      <c r="K32" s="315"/>
+      <c r="L32" s="315"/>
+      <c r="M32" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="270"/>
+      <c r="O32" s="231"/>
+      <c r="P32" s="281"/>
+      <c r="Q32" s="228"/>
+      <c r="R32" s="228"/>
+      <c r="S32" s="223"/>
+      <c r="T32" s="223"/>
+      <c r="U32" s="223"/>
+      <c r="V32" s="253"/>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="246"/>
+      <c r="C33" s="322" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="309"/>
+      <c r="E33" s="309"/>
+      <c r="F33" s="309"/>
+      <c r="G33" s="309"/>
+      <c r="H33" s="309"/>
+      <c r="I33" s="309"/>
+      <c r="J33" s="310"/>
+      <c r="K33" s="314" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="323"/>
+      <c r="M33" s="250" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="271"/>
+      <c r="O33" s="282"/>
+      <c r="P33" s="280"/>
+      <c r="Q33" s="227"/>
+      <c r="R33" s="233"/>
+      <c r="S33" s="233"/>
+      <c r="T33" s="222"/>
+      <c r="U33" s="222"/>
+      <c r="V33" s="251"/>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="246"/>
+      <c r="C34" s="312"/>
+      <c r="D34" s="312"/>
+      <c r="E34" s="312"/>
+      <c r="F34" s="312"/>
+      <c r="G34" s="312"/>
+      <c r="H34" s="312"/>
+      <c r="I34" s="312"/>
+      <c r="J34" s="313"/>
+      <c r="K34" s="315"/>
+      <c r="L34" s="315"/>
+      <c r="M34" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="272"/>
+      <c r="O34" s="283"/>
+      <c r="P34" s="281"/>
+      <c r="Q34" s="228"/>
+      <c r="R34" s="228"/>
+      <c r="S34" s="223"/>
+      <c r="T34" s="223"/>
+      <c r="U34" s="223"/>
+      <c r="V34" s="253"/>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="246"/>
+      <c r="C35" s="322" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="309"/>
+      <c r="E35" s="309"/>
+      <c r="F35" s="309"/>
+      <c r="G35" s="309"/>
+      <c r="H35" s="309"/>
+      <c r="I35" s="309"/>
+      <c r="J35" s="310"/>
+      <c r="K35" s="314" t="s">
+        <v>89</v>
+      </c>
+      <c r="L35" s="323"/>
+      <c r="M35" s="250" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="271"/>
+      <c r="O35" s="230"/>
+      <c r="P35" s="280"/>
+      <c r="Q35" s="227"/>
+      <c r="R35" s="233"/>
+      <c r="S35" s="233"/>
+      <c r="T35" s="222"/>
+      <c r="U35" s="222"/>
+      <c r="V35" s="251"/>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="246"/>
+      <c r="C36" s="312"/>
+      <c r="D36" s="312"/>
+      <c r="E36" s="312"/>
+      <c r="F36" s="312"/>
+      <c r="G36" s="312"/>
+      <c r="H36" s="312"/>
+      <c r="I36" s="312"/>
+      <c r="J36" s="313"/>
+      <c r="K36" s="315"/>
+      <c r="L36" s="315"/>
+      <c r="M36" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="272"/>
+      <c r="O36" s="232"/>
+      <c r="P36" s="281"/>
+      <c r="Q36" s="228"/>
+      <c r="R36" s="228"/>
+      <c r="S36" s="223"/>
+      <c r="T36" s="223"/>
+      <c r="U36" s="223"/>
+      <c r="V36" s="253"/>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" s="246"/>
+      <c r="C37" s="322" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="309"/>
+      <c r="E37" s="309"/>
+      <c r="F37" s="309"/>
+      <c r="G37" s="309"/>
+      <c r="H37" s="309"/>
+      <c r="I37" s="309"/>
+      <c r="J37" s="310"/>
+      <c r="K37" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" s="323"/>
+      <c r="M37" s="250" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="274"/>
+      <c r="O37" s="230"/>
+      <c r="P37" s="280"/>
+      <c r="Q37" s="227"/>
+      <c r="R37" s="233"/>
+      <c r="S37" s="233"/>
+      <c r="T37" s="222"/>
+      <c r="U37" s="222"/>
+      <c r="V37" s="251"/>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="B38" s="246"/>
+      <c r="C38" s="312"/>
+      <c r="D38" s="312"/>
+      <c r="E38" s="312"/>
+      <c r="F38" s="312"/>
+      <c r="G38" s="312"/>
+      <c r="H38" s="312"/>
+      <c r="I38" s="312"/>
+      <c r="J38" s="313"/>
+      <c r="K38" s="315"/>
+      <c r="L38" s="315"/>
+      <c r="M38" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="275"/>
+      <c r="O38" s="231"/>
+      <c r="P38" s="281"/>
+      <c r="Q38" s="228"/>
+      <c r="R38" s="228"/>
+      <c r="S38" s="223"/>
+      <c r="T38" s="223"/>
+      <c r="U38" s="223"/>
+      <c r="V38" s="253"/>
+    </row>
+    <row r="39" spans="2:22">
+      <c r="B39" s="246"/>
+      <c r="C39" s="322" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="309"/>
+      <c r="E39" s="309"/>
+      <c r="F39" s="309"/>
+      <c r="G39" s="309"/>
+      <c r="H39" s="309"/>
+      <c r="I39" s="309"/>
+      <c r="J39" s="310"/>
+      <c r="K39" s="314" t="s">
+        <v>77</v>
+      </c>
+      <c r="L39" s="323"/>
+      <c r="M39" s="250" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="274"/>
+      <c r="O39" s="230"/>
+      <c r="P39" s="280"/>
+      <c r="Q39" s="227"/>
+      <c r="R39" s="233"/>
+      <c r="S39" s="233"/>
+      <c r="T39" s="222"/>
+      <c r="U39" s="222"/>
+      <c r="V39" s="251"/>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="B40" s="246"/>
+      <c r="C40" s="312"/>
+      <c r="D40" s="312"/>
+      <c r="E40" s="312"/>
+      <c r="F40" s="312"/>
+      <c r="G40" s="312"/>
+      <c r="H40" s="312"/>
+      <c r="I40" s="312"/>
+      <c r="J40" s="313"/>
+      <c r="K40" s="315"/>
+      <c r="L40" s="315"/>
+      <c r="M40" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="275"/>
+      <c r="O40" s="231"/>
+      <c r="P40" s="281"/>
+      <c r="Q40" s="228"/>
+      <c r="R40" s="228"/>
+      <c r="S40" s="223"/>
+      <c r="T40" s="223"/>
+      <c r="U40" s="223"/>
+      <c r="V40" s="253"/>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="B41" s="246"/>
+      <c r="C41" s="322" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="309"/>
+      <c r="E41" s="309"/>
+      <c r="F41" s="309"/>
+      <c r="G41" s="309"/>
+      <c r="H41" s="309"/>
+      <c r="I41" s="309"/>
+      <c r="J41" s="310"/>
+      <c r="K41" s="314" t="s">
+        <v>73</v>
+      </c>
+      <c r="L41" s="323"/>
+      <c r="M41" s="250" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" s="274"/>
+      <c r="O41" s="230"/>
+      <c r="P41" s="280"/>
+      <c r="Q41" s="227"/>
+      <c r="R41" s="233"/>
+      <c r="S41" s="233"/>
+      <c r="T41" s="222"/>
+      <c r="U41" s="222"/>
+      <c r="V41" s="251"/>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="B42" s="246"/>
+      <c r="C42" s="312"/>
+      <c r="D42" s="312"/>
+      <c r="E42" s="312"/>
+      <c r="F42" s="312"/>
+      <c r="G42" s="312"/>
+      <c r="H42" s="312"/>
+      <c r="I42" s="312"/>
+      <c r="J42" s="313"/>
+      <c r="K42" s="315"/>
+      <c r="L42" s="315"/>
+      <c r="M42" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="270"/>
+      <c r="O42" s="231"/>
+      <c r="P42" s="281"/>
+      <c r="Q42" s="228"/>
+      <c r="R42" s="228"/>
+      <c r="S42" s="223"/>
+      <c r="T42" s="223"/>
+      <c r="U42" s="223"/>
+      <c r="V42" s="253"/>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="B43" s="246"/>
+      <c r="C43" s="324" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="325"/>
+      <c r="E43" s="325"/>
+      <c r="F43" s="325"/>
+      <c r="G43" s="325"/>
+      <c r="H43" s="325"/>
+      <c r="I43" s="325"/>
+      <c r="J43" s="326"/>
+      <c r="K43" s="314" t="s">
+        <v>93</v>
+      </c>
+      <c r="L43" s="262"/>
+      <c r="M43" s="250" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="291"/>
+      <c r="O43" s="292"/>
+      <c r="P43" s="293"/>
+      <c r="Q43" s="294"/>
+      <c r="R43" s="233"/>
+      <c r="S43" s="233"/>
+      <c r="T43" s="295"/>
+      <c r="U43" s="295"/>
+      <c r="V43" s="296"/>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="B44" s="246"/>
+      <c r="C44" s="327"/>
+      <c r="D44" s="328"/>
+      <c r="E44" s="328"/>
+      <c r="F44" s="328"/>
+      <c r="G44" s="328"/>
+      <c r="H44" s="328"/>
+      <c r="I44" s="328"/>
+      <c r="J44" s="329"/>
+      <c r="K44" s="331"/>
+      <c r="L44" s="262"/>
+      <c r="M44" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="270"/>
+      <c r="O44" s="286"/>
+      <c r="P44" s="283"/>
+      <c r="Q44" s="229"/>
+      <c r="R44" s="229"/>
+      <c r="S44" s="226"/>
+      <c r="T44" s="226"/>
+      <c r="U44" s="226"/>
+      <c r="V44" s="259"/>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="B45" s="246"/>
+      <c r="C45" s="324" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="325"/>
+      <c r="E45" s="325"/>
+      <c r="F45" s="325"/>
+      <c r="G45" s="325"/>
+      <c r="H45" s="325"/>
+      <c r="I45" s="325"/>
+      <c r="J45" s="326"/>
+      <c r="K45" s="330" t="s">
+        <v>77</v>
+      </c>
+      <c r="L45" s="289"/>
+      <c r="M45" s="250" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="291"/>
+      <c r="O45" s="292"/>
+      <c r="P45" s="293"/>
+      <c r="Q45" s="294"/>
+      <c r="R45" s="233"/>
+      <c r="S45" s="233"/>
+      <c r="T45" s="295"/>
+      <c r="U45" s="295"/>
+      <c r="V45" s="296"/>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46" s="246"/>
+      <c r="C46" s="327"/>
+      <c r="D46" s="328"/>
+      <c r="E46" s="328"/>
+      <c r="F46" s="328"/>
+      <c r="G46" s="328"/>
+      <c r="H46" s="328"/>
+      <c r="I46" s="328"/>
+      <c r="J46" s="329"/>
+      <c r="K46" s="315"/>
+      <c r="L46" s="262"/>
+      <c r="M46" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="270"/>
+      <c r="O46" s="278"/>
+      <c r="P46" s="279"/>
+      <c r="Q46" s="268"/>
+      <c r="R46" s="268"/>
+      <c r="S46" s="249"/>
+      <c r="T46" s="249"/>
+      <c r="U46" s="249"/>
+      <c r="V46" s="264"/>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="B47" s="246"/>
+      <c r="C47" s="322" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="309"/>
+      <c r="E47" s="309"/>
+      <c r="F47" s="309"/>
+      <c r="G47" s="309"/>
+      <c r="H47" s="309"/>
+      <c r="I47" s="309"/>
+      <c r="J47" s="310"/>
+      <c r="K47" s="314" t="s">
+        <v>79</v>
+      </c>
+      <c r="L47" s="323"/>
+      <c r="M47" s="250" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" s="254"/>
+      <c r="O47" s="290"/>
+      <c r="P47" s="280"/>
+      <c r="Q47" s="227"/>
+      <c r="R47" s="233"/>
+      <c r="S47" s="233"/>
+      <c r="T47" s="222"/>
+      <c r="U47" s="222"/>
+      <c r="V47" s="251"/>
+    </row>
+    <row r="48" spans="2:22">
+      <c r="B48" s="246"/>
+      <c r="C48" s="312"/>
+      <c r="D48" s="312"/>
+      <c r="E48" s="312"/>
+      <c r="F48" s="312"/>
+      <c r="G48" s="312"/>
+      <c r="H48" s="312"/>
+      <c r="I48" s="312"/>
+      <c r="J48" s="313"/>
+      <c r="K48" s="315"/>
+      <c r="L48" s="315"/>
+      <c r="M48" s="252" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="255"/>
+      <c r="O48" s="284"/>
+      <c r="P48" s="285"/>
+      <c r="Q48" s="228"/>
+      <c r="R48" s="228"/>
+      <c r="S48" s="223"/>
+      <c r="T48" s="223"/>
+      <c r="U48" s="223"/>
+      <c r="V48" s="253"/>
+    </row>
+    <row r="49" spans="2:22">
+      <c r="B49" s="246"/>
+      <c r="C49" s="256"/>
+      <c r="D49" s="224"/>
+      <c r="E49" s="224"/>
+      <c r="F49" s="224"/>
+      <c r="G49" s="224"/>
+      <c r="H49" s="224"/>
+      <c r="I49" s="224"/>
+      <c r="J49" s="224"/>
+      <c r="K49" s="257"/>
+      <c r="L49" s="225"/>
+      <c r="M49" s="257"/>
+      <c r="N49" s="258"/>
+      <c r="O49" s="286"/>
+      <c r="P49" s="283"/>
+      <c r="Q49" s="229"/>
+      <c r="R49" s="229"/>
+      <c r="S49" s="226"/>
+      <c r="T49" s="226"/>
+      <c r="U49" s="226"/>
+      <c r="V49" s="259"/>
+    </row>
+    <row r="50" spans="2:22" ht="18.75">
+      <c r="B50" s="246"/>
+      <c r="C50" s="260" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="227"/>
-      <c r="E29" s="227"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="227"/>
-      <c r="H29" s="227"/>
-      <c r="I29" s="227"/>
-      <c r="J29" s="228"/>
-      <c r="K29" s="232" t="s">
-        <v>81</v>
-      </c>
-      <c r="L29" s="241"/>
-      <c r="M29" s="294" t="s">
+      <c r="D50" s="215"/>
+      <c r="E50" s="215"/>
+      <c r="F50" s="215"/>
+      <c r="G50" s="215"/>
+      <c r="H50" s="215"/>
+      <c r="I50" s="215"/>
+      <c r="J50" s="215"/>
+      <c r="K50" s="261"/>
+      <c r="L50" s="262"/>
+      <c r="M50" s="263"/>
+      <c r="N50" s="269"/>
+      <c r="O50" s="287"/>
+      <c r="P50" s="288"/>
+      <c r="Q50" s="268"/>
+      <c r="R50" s="268"/>
+      <c r="S50" s="249"/>
+      <c r="T50" s="249"/>
+      <c r="U50" s="249"/>
+      <c r="V50" s="264"/>
+    </row>
+    <row r="51" spans="2:22">
+      <c r="B51" s="246"/>
+      <c r="C51" s="322" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="309"/>
+      <c r="E51" s="309"/>
+      <c r="F51" s="309"/>
+      <c r="G51" s="309"/>
+      <c r="H51" s="309"/>
+      <c r="I51" s="309"/>
+      <c r="J51" s="310"/>
+      <c r="K51" s="314" t="s">
+        <v>52</v>
+      </c>
+      <c r="L51" s="323"/>
+      <c r="M51" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="317"/>
-      <c r="O29" s="274"/>
-      <c r="P29" s="324"/>
-      <c r="Q29" s="271"/>
-      <c r="R29" s="277"/>
-      <c r="S29" s="277"/>
-      <c r="T29" s="266"/>
-      <c r="U29" s="266"/>
-      <c r="V29" s="295"/>
-    </row>
-    <row r="30" spans="2:22">
-      <c r="B30" s="290"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="230"/>
-      <c r="E30" s="230"/>
-      <c r="F30" s="230"/>
-      <c r="G30" s="230"/>
-      <c r="H30" s="230"/>
-      <c r="I30" s="230"/>
-      <c r="J30" s="231"/>
-      <c r="K30" s="233"/>
-      <c r="L30" s="233"/>
-      <c r="M30" s="296" t="s">
+      <c r="N51" s="254"/>
+      <c r="O51" s="282"/>
+      <c r="P51" s="280"/>
+      <c r="Q51" s="227"/>
+      <c r="R51" s="227"/>
+      <c r="S51" s="233"/>
+      <c r="T51" s="233"/>
+      <c r="U51" s="222"/>
+      <c r="V51" s="251"/>
+    </row>
+    <row r="52" spans="2:22">
+      <c r="B52" s="246"/>
+      <c r="C52" s="312"/>
+      <c r="D52" s="312"/>
+      <c r="E52" s="312"/>
+      <c r="F52" s="312"/>
+      <c r="G52" s="312"/>
+      <c r="H52" s="312"/>
+      <c r="I52" s="312"/>
+      <c r="J52" s="313"/>
+      <c r="K52" s="315" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="315"/>
+      <c r="M52" s="252" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="319"/>
-      <c r="O30" s="275"/>
-      <c r="P30" s="325"/>
-      <c r="Q30" s="272"/>
-      <c r="R30" s="272"/>
-      <c r="S30" s="267"/>
-      <c r="T30" s="267"/>
-      <c r="U30" s="267"/>
-      <c r="V30" s="297"/>
-    </row>
-    <row r="31" spans="2:22">
-      <c r="B31" s="290"/>
-      <c r="C31" s="240" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="227"/>
-      <c r="H31" s="227"/>
-      <c r="I31" s="227"/>
-      <c r="J31" s="228"/>
-      <c r="K31" s="232" t="s">
-        <v>82</v>
-      </c>
-      <c r="L31" s="241"/>
-      <c r="M31" s="294" t="s">
+      <c r="N52" s="265"/>
+      <c r="O52" s="285"/>
+      <c r="P52" s="281"/>
+      <c r="Q52" s="228"/>
+      <c r="R52" s="228"/>
+      <c r="S52" s="223"/>
+      <c r="T52" s="223"/>
+      <c r="U52" s="223"/>
+      <c r="V52" s="253"/>
+    </row>
+    <row r="53" spans="2:22">
+      <c r="B53" s="246"/>
+      <c r="C53" s="322" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="309"/>
+      <c r="E53" s="309"/>
+      <c r="F53" s="309"/>
+      <c r="G53" s="309"/>
+      <c r="H53" s="309"/>
+      <c r="I53" s="309"/>
+      <c r="J53" s="310"/>
+      <c r="K53" s="314" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53" s="323"/>
+      <c r="M53" s="250" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="318"/>
-      <c r="O31" s="274"/>
-      <c r="P31" s="324"/>
-      <c r="Q31" s="271"/>
-      <c r="R31" s="277"/>
-      <c r="S31" s="277"/>
-      <c r="T31" s="266"/>
-      <c r="U31" s="266"/>
-      <c r="V31" s="295"/>
-    </row>
-    <row r="32" spans="2:22">
-      <c r="B32" s="290"/>
-      <c r="C32" s="230"/>
-      <c r="D32" s="230"/>
-      <c r="E32" s="230"/>
-      <c r="F32" s="230"/>
-      <c r="G32" s="230"/>
-      <c r="H32" s="230"/>
-      <c r="I32" s="230"/>
-      <c r="J32" s="231"/>
-      <c r="K32" s="233"/>
-      <c r="L32" s="233"/>
-      <c r="M32" s="296" t="s">
+      <c r="N53" s="254"/>
+      <c r="O53" s="282"/>
+      <c r="P53" s="280"/>
+      <c r="Q53" s="227"/>
+      <c r="R53" s="227"/>
+      <c r="S53" s="233"/>
+      <c r="T53" s="233"/>
+      <c r="U53" s="222"/>
+      <c r="V53" s="251"/>
+    </row>
+    <row r="54" spans="2:22">
+      <c r="B54" s="266"/>
+      <c r="C54" s="312"/>
+      <c r="D54" s="312"/>
+      <c r="E54" s="312"/>
+      <c r="F54" s="312"/>
+      <c r="G54" s="312"/>
+      <c r="H54" s="312"/>
+      <c r="I54" s="312"/>
+      <c r="J54" s="313"/>
+      <c r="K54" s="315" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" s="315"/>
+      <c r="M54" s="252" t="s">
         <v>27</v>
       </c>
-      <c r="N32" s="314"/>
-      <c r="O32" s="275"/>
-      <c r="P32" s="325"/>
-      <c r="Q32" s="272"/>
-      <c r="R32" s="272"/>
-      <c r="S32" s="267"/>
-      <c r="T32" s="267"/>
-      <c r="U32" s="267"/>
-      <c r="V32" s="297"/>
-    </row>
-    <row r="33" spans="2:22">
-      <c r="B33" s="290"/>
-      <c r="C33" s="240" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="227"/>
-      <c r="E33" s="227"/>
-      <c r="F33" s="227"/>
-      <c r="G33" s="227"/>
-      <c r="H33" s="227"/>
-      <c r="I33" s="227"/>
-      <c r="J33" s="228"/>
-      <c r="K33" s="232" t="s">
-        <v>86</v>
-      </c>
-      <c r="L33" s="241"/>
-      <c r="M33" s="294" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="315"/>
-      <c r="O33" s="326"/>
-      <c r="P33" s="324"/>
-      <c r="Q33" s="271"/>
-      <c r="R33" s="277"/>
-      <c r="S33" s="277"/>
-      <c r="T33" s="266"/>
-      <c r="U33" s="266"/>
-      <c r="V33" s="295"/>
-    </row>
-    <row r="34" spans="2:22">
-      <c r="B34" s="290"/>
-      <c r="C34" s="230"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="230"/>
-      <c r="F34" s="230"/>
-      <c r="G34" s="230"/>
-      <c r="H34" s="230"/>
-      <c r="I34" s="230"/>
-      <c r="J34" s="231"/>
-      <c r="K34" s="233"/>
-      <c r="L34" s="233"/>
-      <c r="M34" s="296" t="s">
-        <v>27</v>
-      </c>
-      <c r="N34" s="316"/>
-      <c r="O34" s="327"/>
-      <c r="P34" s="325"/>
-      <c r="Q34" s="272"/>
-      <c r="R34" s="272"/>
-      <c r="S34" s="267"/>
-      <c r="T34" s="267"/>
-      <c r="U34" s="267"/>
-      <c r="V34" s="297"/>
-    </row>
-    <row r="35" spans="2:22">
-      <c r="B35" s="290"/>
-      <c r="C35" s="240" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="227"/>
-      <c r="E35" s="227"/>
-      <c r="F35" s="227"/>
-      <c r="G35" s="227"/>
-      <c r="H35" s="227"/>
-      <c r="I35" s="227"/>
-      <c r="J35" s="228"/>
-      <c r="K35" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="L35" s="241"/>
-      <c r="M35" s="294" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" s="315"/>
-      <c r="O35" s="274"/>
-      <c r="P35" s="324"/>
-      <c r="Q35" s="271"/>
-      <c r="R35" s="277"/>
-      <c r="S35" s="277"/>
-      <c r="T35" s="266"/>
-      <c r="U35" s="266"/>
-      <c r="V35" s="295"/>
-    </row>
-    <row r="36" spans="2:22">
-      <c r="B36" s="290"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="230"/>
-      <c r="E36" s="230"/>
-      <c r="F36" s="230"/>
-      <c r="G36" s="230"/>
-      <c r="H36" s="230"/>
-      <c r="I36" s="230"/>
-      <c r="J36" s="231"/>
-      <c r="K36" s="233"/>
-      <c r="L36" s="233"/>
-      <c r="M36" s="296" t="s">
-        <v>27</v>
-      </c>
-      <c r="N36" s="316"/>
-      <c r="O36" s="276"/>
-      <c r="P36" s="325"/>
-      <c r="Q36" s="272"/>
-      <c r="R36" s="272"/>
-      <c r="S36" s="267"/>
-      <c r="T36" s="267"/>
-      <c r="U36" s="267"/>
-      <c r="V36" s="297"/>
-    </row>
-    <row r="37" spans="2:22">
-      <c r="B37" s="290"/>
-      <c r="C37" s="240" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="227"/>
-      <c r="E37" s="227"/>
-      <c r="F37" s="227"/>
-      <c r="G37" s="227"/>
-      <c r="H37" s="227"/>
-      <c r="I37" s="227"/>
-      <c r="J37" s="228"/>
-      <c r="K37" s="232" t="s">
-        <v>82</v>
-      </c>
-      <c r="L37" s="241"/>
-      <c r="M37" s="294" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" s="318"/>
-      <c r="O37" s="274"/>
-      <c r="P37" s="324"/>
-      <c r="Q37" s="271"/>
-      <c r="R37" s="277"/>
-      <c r="S37" s="277"/>
-      <c r="T37" s="266"/>
-      <c r="U37" s="266"/>
-      <c r="V37" s="295"/>
-    </row>
-    <row r="38" spans="2:22">
-      <c r="B38" s="290"/>
-      <c r="C38" s="230"/>
-      <c r="D38" s="230"/>
-      <c r="E38" s="230"/>
-      <c r="F38" s="230"/>
-      <c r="G38" s="230"/>
-      <c r="H38" s="230"/>
-      <c r="I38" s="230"/>
-      <c r="J38" s="231"/>
-      <c r="K38" s="233"/>
-      <c r="L38" s="233"/>
-      <c r="M38" s="296" t="s">
-        <v>27</v>
-      </c>
-      <c r="N38" s="319"/>
-      <c r="O38" s="275"/>
-      <c r="P38" s="325"/>
-      <c r="Q38" s="272"/>
-      <c r="R38" s="272"/>
-      <c r="S38" s="267"/>
-      <c r="T38" s="267"/>
-      <c r="U38" s="267"/>
-      <c r="V38" s="297"/>
-    </row>
-    <row r="39" spans="2:22">
-      <c r="B39" s="290"/>
-      <c r="C39" s="240" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="227"/>
-      <c r="E39" s="227"/>
-      <c r="F39" s="227"/>
-      <c r="G39" s="227"/>
-      <c r="H39" s="227"/>
-      <c r="I39" s="227"/>
-      <c r="J39" s="228"/>
-      <c r="K39" s="232" t="s">
-        <v>85</v>
-      </c>
-      <c r="L39" s="241"/>
-      <c r="M39" s="294" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" s="318"/>
-      <c r="O39" s="274"/>
-      <c r="P39" s="324"/>
-      <c r="Q39" s="271"/>
-      <c r="R39" s="277"/>
-      <c r="S39" s="277"/>
-      <c r="T39" s="266"/>
-      <c r="U39" s="266"/>
-      <c r="V39" s="295"/>
-    </row>
-    <row r="40" spans="2:22">
-      <c r="B40" s="290"/>
-      <c r="C40" s="230"/>
-      <c r="D40" s="230"/>
-      <c r="E40" s="230"/>
-      <c r="F40" s="230"/>
-      <c r="G40" s="230"/>
-      <c r="H40" s="230"/>
-      <c r="I40" s="230"/>
-      <c r="J40" s="231"/>
-      <c r="K40" s="233"/>
-      <c r="L40" s="233"/>
-      <c r="M40" s="296" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" s="319"/>
-      <c r="O40" s="275"/>
-      <c r="P40" s="325"/>
-      <c r="Q40" s="272"/>
-      <c r="R40" s="272"/>
-      <c r="S40" s="267"/>
-      <c r="T40" s="267"/>
-      <c r="U40" s="267"/>
-      <c r="V40" s="297"/>
-    </row>
-    <row r="41" spans="2:22">
-      <c r="B41" s="290"/>
-      <c r="C41" s="240" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="227"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="227"/>
-      <c r="G41" s="227"/>
-      <c r="H41" s="227"/>
-      <c r="I41" s="227"/>
-      <c r="J41" s="228"/>
-      <c r="K41" s="232" t="s">
-        <v>81</v>
-      </c>
-      <c r="L41" s="241"/>
-      <c r="M41" s="294" t="s">
-        <v>26</v>
-      </c>
-      <c r="N41" s="318"/>
-      <c r="O41" s="274"/>
-      <c r="P41" s="324"/>
-      <c r="Q41" s="271"/>
-      <c r="R41" s="277"/>
-      <c r="S41" s="277"/>
-      <c r="T41" s="266"/>
-      <c r="U41" s="266"/>
-      <c r="V41" s="295"/>
-    </row>
-    <row r="42" spans="2:22">
-      <c r="B42" s="290"/>
-      <c r="C42" s="230"/>
-      <c r="D42" s="230"/>
-      <c r="E42" s="230"/>
-      <c r="F42" s="230"/>
-      <c r="G42" s="230"/>
-      <c r="H42" s="230"/>
-      <c r="I42" s="230"/>
-      <c r="J42" s="231"/>
-      <c r="K42" s="233"/>
-      <c r="L42" s="233"/>
-      <c r="M42" s="296" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" s="314"/>
-      <c r="O42" s="275"/>
-      <c r="P42" s="325"/>
-      <c r="Q42" s="272"/>
-      <c r="R42" s="272"/>
-      <c r="S42" s="267"/>
-      <c r="T42" s="267"/>
-      <c r="U42" s="267"/>
-      <c r="V42" s="297"/>
-    </row>
-    <row r="43" spans="2:22">
-      <c r="B43" s="290"/>
-      <c r="C43" s="242" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="243"/>
-      <c r="E43" s="243"/>
-      <c r="F43" s="243"/>
-      <c r="G43" s="243"/>
-      <c r="H43" s="243"/>
-      <c r="I43" s="243"/>
-      <c r="J43" s="244"/>
-      <c r="K43" s="232" t="s">
-        <v>103</v>
-      </c>
-      <c r="L43" s="306"/>
-      <c r="M43" s="294" t="s">
-        <v>26</v>
-      </c>
-      <c r="N43" s="335"/>
-      <c r="O43" s="336"/>
-      <c r="P43" s="337"/>
-      <c r="Q43" s="338"/>
-      <c r="R43" s="277"/>
-      <c r="S43" s="277"/>
-      <c r="T43" s="339"/>
-      <c r="U43" s="339"/>
-      <c r="V43" s="340"/>
-    </row>
-    <row r="44" spans="2:22">
-      <c r="B44" s="290"/>
-      <c r="C44" s="245"/>
-      <c r="D44" s="246"/>
-      <c r="E44" s="246"/>
-      <c r="F44" s="246"/>
-      <c r="G44" s="246"/>
-      <c r="H44" s="246"/>
-      <c r="I44" s="246"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="249"/>
-      <c r="L44" s="306"/>
-      <c r="M44" s="296" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="314"/>
-      <c r="O44" s="330"/>
-      <c r="P44" s="327"/>
-      <c r="Q44" s="273"/>
-      <c r="R44" s="273"/>
-      <c r="S44" s="270"/>
-      <c r="T44" s="270"/>
-      <c r="U44" s="270"/>
-      <c r="V44" s="303"/>
-    </row>
-    <row r="45" spans="2:22">
-      <c r="B45" s="290"/>
-      <c r="C45" s="242" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="243"/>
-      <c r="E45" s="243"/>
-      <c r="F45" s="243"/>
-      <c r="G45" s="243"/>
-      <c r="H45" s="243"/>
-      <c r="I45" s="243"/>
-      <c r="J45" s="244"/>
-      <c r="K45" s="248" t="s">
-        <v>85</v>
-      </c>
-      <c r="L45" s="333"/>
-      <c r="M45" s="294" t="s">
-        <v>26</v>
-      </c>
-      <c r="N45" s="335"/>
-      <c r="O45" s="336"/>
-      <c r="P45" s="337"/>
-      <c r="Q45" s="338"/>
-      <c r="R45" s="277"/>
-      <c r="S45" s="277"/>
-      <c r="T45" s="339"/>
-      <c r="U45" s="339"/>
-      <c r="V45" s="340"/>
-    </row>
-    <row r="46" spans="2:22">
-      <c r="B46" s="290"/>
-      <c r="C46" s="245"/>
-      <c r="D46" s="246"/>
-      <c r="E46" s="246"/>
-      <c r="F46" s="246"/>
-      <c r="G46" s="246"/>
-      <c r="H46" s="246"/>
-      <c r="I46" s="246"/>
-      <c r="J46" s="247"/>
-      <c r="K46" s="233"/>
-      <c r="L46" s="306"/>
-      <c r="M46" s="296" t="s">
-        <v>27</v>
-      </c>
-      <c r="N46" s="314"/>
-      <c r="O46" s="322"/>
-      <c r="P46" s="323"/>
-      <c r="Q46" s="312"/>
-      <c r="R46" s="312"/>
-      <c r="S46" s="293"/>
-      <c r="T46" s="293"/>
-      <c r="U46" s="293"/>
-      <c r="V46" s="308"/>
-    </row>
-    <row r="47" spans="2:22">
-      <c r="B47" s="290"/>
-      <c r="C47" s="240" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="227"/>
-      <c r="E47" s="227"/>
-      <c r="F47" s="227"/>
-      <c r="G47" s="227"/>
-      <c r="H47" s="227"/>
-      <c r="I47" s="227"/>
-      <c r="J47" s="228"/>
-      <c r="K47" s="232" t="s">
-        <v>87</v>
-      </c>
-      <c r="L47" s="241"/>
-      <c r="M47" s="294" t="s">
-        <v>26</v>
-      </c>
-      <c r="N47" s="298"/>
-      <c r="O47" s="334"/>
-      <c r="P47" s="324"/>
-      <c r="Q47" s="271"/>
-      <c r="R47" s="277"/>
-      <c r="S47" s="277"/>
-      <c r="T47" s="266"/>
-      <c r="U47" s="266"/>
-      <c r="V47" s="295"/>
-    </row>
-    <row r="48" spans="2:22">
-      <c r="B48" s="290"/>
-      <c r="C48" s="230"/>
-      <c r="D48" s="230"/>
-      <c r="E48" s="230"/>
-      <c r="F48" s="230"/>
-      <c r="G48" s="230"/>
-      <c r="H48" s="230"/>
-      <c r="I48" s="230"/>
-      <c r="J48" s="231"/>
-      <c r="K48" s="233"/>
-      <c r="L48" s="233"/>
-      <c r="M48" s="296" t="s">
-        <v>27</v>
-      </c>
-      <c r="N48" s="299"/>
-      <c r="O48" s="328"/>
-      <c r="P48" s="329"/>
-      <c r="Q48" s="272"/>
-      <c r="R48" s="272"/>
-      <c r="S48" s="267"/>
-      <c r="T48" s="267"/>
-      <c r="U48" s="267"/>
-      <c r="V48" s="297"/>
-    </row>
-    <row r="49" spans="2:22">
-      <c r="B49" s="290"/>
-      <c r="C49" s="300"/>
-      <c r="D49" s="268"/>
-      <c r="E49" s="268"/>
-      <c r="F49" s="268"/>
-      <c r="G49" s="268"/>
-      <c r="H49" s="268"/>
-      <c r="I49" s="268"/>
-      <c r="J49" s="268"/>
-      <c r="K49" s="301"/>
-      <c r="L49" s="269"/>
-      <c r="M49" s="301"/>
-      <c r="N49" s="302"/>
-      <c r="O49" s="330"/>
-      <c r="P49" s="327"/>
-      <c r="Q49" s="273"/>
-      <c r="R49" s="273"/>
-      <c r="S49" s="270"/>
-      <c r="T49" s="270"/>
-      <c r="U49" s="270"/>
-      <c r="V49" s="303"/>
-    </row>
-    <row r="50" spans="2:22" ht="18.75">
-      <c r="B50" s="290"/>
-      <c r="C50" s="304" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="259"/>
-      <c r="E50" s="259"/>
-      <c r="F50" s="259"/>
-      <c r="G50" s="259"/>
-      <c r="H50" s="259"/>
-      <c r="I50" s="259"/>
-      <c r="J50" s="259"/>
-      <c r="K50" s="305"/>
-      <c r="L50" s="306"/>
-      <c r="M50" s="307"/>
-      <c r="N50" s="313"/>
-      <c r="O50" s="331"/>
-      <c r="P50" s="332"/>
-      <c r="Q50" s="312"/>
-      <c r="R50" s="312"/>
-      <c r="S50" s="293"/>
-      <c r="T50" s="293"/>
-      <c r="U50" s="293"/>
-      <c r="V50" s="308"/>
-    </row>
-    <row r="51" spans="2:22">
-      <c r="B51" s="290"/>
-      <c r="C51" s="240" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="227"/>
-      <c r="E51" s="227"/>
-      <c r="F51" s="227"/>
-      <c r="G51" s="227"/>
-      <c r="H51" s="227"/>
-      <c r="I51" s="227"/>
-      <c r="J51" s="228"/>
-      <c r="K51" s="232" t="s">
-        <v>53</v>
-      </c>
-      <c r="L51" s="241"/>
-      <c r="M51" s="294" t="s">
-        <v>26</v>
-      </c>
-      <c r="N51" s="298"/>
-      <c r="O51" s="326"/>
-      <c r="P51" s="324"/>
-      <c r="Q51" s="271"/>
-      <c r="R51" s="271"/>
-      <c r="S51" s="277"/>
-      <c r="T51" s="277"/>
-      <c r="U51" s="266"/>
-      <c r="V51" s="295"/>
-    </row>
-    <row r="52" spans="2:22">
-      <c r="B52" s="290"/>
-      <c r="C52" s="230"/>
-      <c r="D52" s="230"/>
-      <c r="E52" s="230"/>
-      <c r="F52" s="230"/>
-      <c r="G52" s="230"/>
-      <c r="H52" s="230"/>
-      <c r="I52" s="230"/>
-      <c r="J52" s="231"/>
-      <c r="K52" s="233" t="s">
-        <v>29</v>
-      </c>
-      <c r="L52" s="233"/>
-      <c r="M52" s="296" t="s">
-        <v>27</v>
-      </c>
-      <c r="N52" s="309"/>
-      <c r="O52" s="329"/>
-      <c r="P52" s="325"/>
-      <c r="Q52" s="272"/>
-      <c r="R52" s="272"/>
-      <c r="S52" s="267"/>
-      <c r="T52" s="267"/>
-      <c r="U52" s="267"/>
-      <c r="V52" s="297"/>
-    </row>
-    <row r="53" spans="2:22">
-      <c r="B53" s="290"/>
-      <c r="C53" s="240" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="227"/>
-      <c r="E53" s="227"/>
-      <c r="F53" s="227"/>
-      <c r="G53" s="227"/>
-      <c r="H53" s="227"/>
-      <c r="I53" s="227"/>
-      <c r="J53" s="228"/>
-      <c r="K53" s="232" t="s">
-        <v>53</v>
-      </c>
-      <c r="L53" s="241"/>
-      <c r="M53" s="294" t="s">
-        <v>26</v>
-      </c>
-      <c r="N53" s="298"/>
-      <c r="O53" s="326"/>
-      <c r="P53" s="324"/>
-      <c r="Q53" s="271"/>
-      <c r="R53" s="271"/>
-      <c r="S53" s="277"/>
-      <c r="T53" s="277"/>
-      <c r="U53" s="266"/>
-      <c r="V53" s="295"/>
-    </row>
-    <row r="54" spans="2:22">
-      <c r="B54" s="310"/>
-      <c r="C54" s="230"/>
-      <c r="D54" s="230"/>
-      <c r="E54" s="230"/>
-      <c r="F54" s="230"/>
-      <c r="G54" s="230"/>
-      <c r="H54" s="230"/>
-      <c r="I54" s="230"/>
-      <c r="J54" s="231"/>
-      <c r="K54" s="233" t="s">
-        <v>29</v>
-      </c>
-      <c r="L54" s="233"/>
-      <c r="M54" s="296" t="s">
-        <v>27</v>
-      </c>
-      <c r="N54" s="299"/>
-      <c r="O54" s="328"/>
-      <c r="P54" s="329"/>
-      <c r="Q54" s="272"/>
-      <c r="R54" s="272"/>
-      <c r="S54" s="267"/>
-      <c r="T54" s="267"/>
-      <c r="U54" s="267"/>
-      <c r="V54" s="297"/>
+      <c r="N54" s="255"/>
+      <c r="O54" s="284"/>
+      <c r="P54" s="285"/>
+      <c r="Q54" s="228"/>
+      <c r="R54" s="228"/>
+      <c r="S54" s="223"/>
+      <c r="T54" s="223"/>
+      <c r="U54" s="223"/>
+      <c r="V54" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="C51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="C39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="C47:J48"/>
+    <mergeCell ref="K47:K48"/>
     <mergeCell ref="C41:J42"/>
     <mergeCell ref="K41:K42"/>
     <mergeCell ref="L41:L42"/>
@@ -9028,8 +9046,6 @@
     <mergeCell ref="C45:J46"/>
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="K43:K44"/>
-    <mergeCell ref="C47:J48"/>
-    <mergeCell ref="K47:K48"/>
     <mergeCell ref="C53:J54"/>
     <mergeCell ref="K53:K54"/>
     <mergeCell ref="L53:L54"/>
@@ -9039,6 +9055,13 @@
     <mergeCell ref="C37:J38"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="C51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="C39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
     <mergeCell ref="C31:J32"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="L31:L32"/>
@@ -9080,7 +9103,7 @@
   <sheetData>
     <row r="23" spans="2:22" ht="24">
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:22">
@@ -9103,13 +9126,13 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="236" t="s">
+      <c r="K25" s="318" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="238" t="s">
+      <c r="L25" s="320" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="238" t="s">
+      <c r="M25" s="320" t="s">
         <v>22</v>
       </c>
       <c r="N25" s="146">
@@ -9134,9 +9157,9 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="239"/>
-      <c r="M26" s="239"/>
+      <c r="K26" s="319"/>
+      <c r="L26" s="321"/>
+      <c r="M26" s="321"/>
       <c r="N26" s="149">
         <v>44002</v>
       </c>
@@ -9170,7 +9193,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="164" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D27" s="150"/>
       <c r="E27" s="150"/>
@@ -9194,20 +9217,20 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="18"/>
-      <c r="C28" s="240" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="227"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="227"/>
-      <c r="G28" s="227"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="227"/>
-      <c r="J28" s="228"/>
-      <c r="K28" s="232" t="s">
-        <v>86</v>
-      </c>
-      <c r="L28" s="241">
+      <c r="C28" s="322" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="309"/>
+      <c r="E28" s="309"/>
+      <c r="F28" s="309"/>
+      <c r="G28" s="309"/>
+      <c r="H28" s="309"/>
+      <c r="I28" s="309"/>
+      <c r="J28" s="310"/>
+      <c r="K28" s="314" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="323">
         <v>0</v>
       </c>
       <c r="M28" s="155" t="s">
@@ -9225,16 +9248,16 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="18"/>
-      <c r="C29" s="230"/>
-      <c r="D29" s="230"/>
-      <c r="E29" s="230"/>
-      <c r="F29" s="230"/>
-      <c r="G29" s="230"/>
-      <c r="H29" s="230"/>
-      <c r="I29" s="230"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="233"/>
-      <c r="L29" s="233"/>
+      <c r="C29" s="312"/>
+      <c r="D29" s="312"/>
+      <c r="E29" s="312"/>
+      <c r="F29" s="312"/>
+      <c r="G29" s="312"/>
+      <c r="H29" s="312"/>
+      <c r="I29" s="312"/>
+      <c r="J29" s="313"/>
+      <c r="K29" s="315"/>
+      <c r="L29" s="315"/>
       <c r="M29" s="156" t="s">
         <v>27</v>
       </c>
@@ -9250,20 +9273,20 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="18"/>
-      <c r="C30" s="240" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="227"/>
-      <c r="E30" s="227"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="227"/>
-      <c r="J30" s="228"/>
-      <c r="K30" s="232" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30" s="241">
+      <c r="C30" s="322" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="309"/>
+      <c r="E30" s="309"/>
+      <c r="F30" s="309"/>
+      <c r="G30" s="309"/>
+      <c r="H30" s="309"/>
+      <c r="I30" s="309"/>
+      <c r="J30" s="310"/>
+      <c r="K30" s="314" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="323">
         <v>0</v>
       </c>
       <c r="M30" s="155" t="s">
@@ -9280,16 +9303,16 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="18"/>
-      <c r="C31" s="230"/>
-      <c r="D31" s="230"/>
-      <c r="E31" s="230"/>
-      <c r="F31" s="230"/>
-      <c r="G31" s="230"/>
-      <c r="H31" s="230"/>
-      <c r="I31" s="230"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="233"/>
-      <c r="L31" s="233"/>
+      <c r="C31" s="312"/>
+      <c r="D31" s="312"/>
+      <c r="E31" s="312"/>
+      <c r="F31" s="312"/>
+      <c r="G31" s="312"/>
+      <c r="H31" s="312"/>
+      <c r="I31" s="312"/>
+      <c r="J31" s="313"/>
+      <c r="K31" s="315"/>
+      <c r="L31" s="315"/>
       <c r="M31" s="156" t="s">
         <v>27</v>
       </c>
@@ -9305,20 +9328,20 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="18"/>
-      <c r="C32" s="240" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="227"/>
-      <c r="E32" s="227"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="227"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="228"/>
-      <c r="K32" s="232" t="s">
-        <v>85</v>
-      </c>
-      <c r="L32" s="241">
+      <c r="C32" s="322" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="309"/>
+      <c r="E32" s="309"/>
+      <c r="F32" s="309"/>
+      <c r="G32" s="309"/>
+      <c r="H32" s="309"/>
+      <c r="I32" s="309"/>
+      <c r="J32" s="310"/>
+      <c r="K32" s="314" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" s="323">
         <v>0</v>
       </c>
       <c r="M32" s="155" t="s">
@@ -9335,16 +9358,16 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="18"/>
-      <c r="C33" s="230"/>
-      <c r="D33" s="230"/>
-      <c r="E33" s="230"/>
-      <c r="F33" s="230"/>
-      <c r="G33" s="230"/>
-      <c r="H33" s="230"/>
-      <c r="I33" s="230"/>
-      <c r="J33" s="231"/>
-      <c r="K33" s="233"/>
-      <c r="L33" s="233"/>
+      <c r="C33" s="312"/>
+      <c r="D33" s="312"/>
+      <c r="E33" s="312"/>
+      <c r="F33" s="312"/>
+      <c r="G33" s="312"/>
+      <c r="H33" s="312"/>
+      <c r="I33" s="312"/>
+      <c r="J33" s="313"/>
+      <c r="K33" s="315"/>
+      <c r="L33" s="315"/>
       <c r="M33" s="156" t="s">
         <v>27</v>
       </c>
@@ -9360,20 +9383,20 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="18"/>
-      <c r="C34" s="240" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="227"/>
-      <c r="E34" s="227"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
-      <c r="H34" s="227"/>
-      <c r="I34" s="227"/>
-      <c r="J34" s="228"/>
-      <c r="K34" s="232" t="s">
-        <v>81</v>
-      </c>
-      <c r="L34" s="241">
+      <c r="C34" s="324" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="325"/>
+      <c r="E34" s="325"/>
+      <c r="F34" s="325"/>
+      <c r="G34" s="325"/>
+      <c r="H34" s="325"/>
+      <c r="I34" s="325"/>
+      <c r="J34" s="326"/>
+      <c r="K34" s="314" t="s">
+        <v>79</v>
+      </c>
+      <c r="L34" s="323">
         <v>0</v>
       </c>
       <c r="M34" s="155" t="s">
@@ -9391,16 +9414,16 @@
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="18"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="230"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="230"/>
-      <c r="G35" s="230"/>
-      <c r="H35" s="230"/>
-      <c r="I35" s="230"/>
-      <c r="J35" s="231"/>
-      <c r="K35" s="233"/>
-      <c r="L35" s="233"/>
+      <c r="C35" s="327"/>
+      <c r="D35" s="328"/>
+      <c r="E35" s="328"/>
+      <c r="F35" s="328"/>
+      <c r="G35" s="328"/>
+      <c r="H35" s="328"/>
+      <c r="I35" s="328"/>
+      <c r="J35" s="329"/>
+      <c r="K35" s="315"/>
+      <c r="L35" s="332"/>
       <c r="M35" s="156" t="s">
         <v>27</v>
       </c>
@@ -9416,20 +9439,20 @@
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="18"/>
-      <c r="C36" s="240" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="227"/>
-      <c r="E36" s="227"/>
-      <c r="F36" s="227"/>
-      <c r="G36" s="227"/>
-      <c r="H36" s="227"/>
-      <c r="I36" s="227"/>
-      <c r="J36" s="228"/>
-      <c r="K36" s="232" t="s">
-        <v>85</v>
-      </c>
-      <c r="L36" s="241">
+      <c r="C36" s="324" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="325"/>
+      <c r="E36" s="325"/>
+      <c r="F36" s="325"/>
+      <c r="G36" s="325"/>
+      <c r="H36" s="325"/>
+      <c r="I36" s="325"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="314" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="323">
         <v>0</v>
       </c>
       <c r="M36" s="155" t="s">
@@ -9447,16 +9470,16 @@
     </row>
     <row r="37" spans="2:22">
       <c r="B37" s="18"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="230"/>
-      <c r="E37" s="230"/>
-      <c r="F37" s="230"/>
-      <c r="G37" s="230"/>
-      <c r="H37" s="230"/>
-      <c r="I37" s="230"/>
-      <c r="J37" s="231"/>
-      <c r="K37" s="233"/>
-      <c r="L37" s="233"/>
+      <c r="C37" s="327"/>
+      <c r="D37" s="328"/>
+      <c r="E37" s="328"/>
+      <c r="F37" s="328"/>
+      <c r="G37" s="328"/>
+      <c r="H37" s="328"/>
+      <c r="I37" s="328"/>
+      <c r="J37" s="329"/>
+      <c r="K37" s="315"/>
+      <c r="L37" s="332"/>
       <c r="M37" s="156" t="s">
         <v>27</v>
       </c>
@@ -9472,20 +9495,20 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="18"/>
-      <c r="C38" s="240" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="227"/>
-      <c r="E38" s="227"/>
-      <c r="F38" s="227"/>
-      <c r="G38" s="227"/>
-      <c r="H38" s="227"/>
-      <c r="I38" s="227"/>
-      <c r="J38" s="228"/>
-      <c r="K38" s="232" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38" s="241">
+      <c r="C38" s="322" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="309"/>
+      <c r="E38" s="309"/>
+      <c r="F38" s="309"/>
+      <c r="G38" s="309"/>
+      <c r="H38" s="309"/>
+      <c r="I38" s="309"/>
+      <c r="J38" s="310"/>
+      <c r="K38" s="330" t="s">
+        <v>80</v>
+      </c>
+      <c r="L38" s="323">
         <v>0</v>
       </c>
       <c r="M38" s="155" t="s">
@@ -9503,16 +9526,16 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="18"/>
-      <c r="C39" s="230"/>
-      <c r="D39" s="230"/>
-      <c r="E39" s="230"/>
-      <c r="F39" s="230"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="230"/>
-      <c r="I39" s="230"/>
-      <c r="J39" s="231"/>
-      <c r="K39" s="249"/>
-      <c r="L39" s="233"/>
+      <c r="C39" s="312"/>
+      <c r="D39" s="312"/>
+      <c r="E39" s="312"/>
+      <c r="F39" s="312"/>
+      <c r="G39" s="312"/>
+      <c r="H39" s="312"/>
+      <c r="I39" s="312"/>
+      <c r="J39" s="313"/>
+      <c r="K39" s="315"/>
+      <c r="L39" s="315"/>
       <c r="M39" s="156" t="s">
         <v>27</v>
       </c>
@@ -9528,20 +9551,20 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" s="18"/>
-      <c r="C40" s="240" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="227"/>
-      <c r="E40" s="227"/>
-      <c r="F40" s="227"/>
-      <c r="G40" s="227"/>
-      <c r="H40" s="227"/>
-      <c r="I40" s="227"/>
-      <c r="J40" s="228"/>
-      <c r="K40" s="248" t="s">
-        <v>88</v>
-      </c>
-      <c r="L40" s="241">
+      <c r="C40" s="322" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="309"/>
+      <c r="E40" s="309"/>
+      <c r="F40" s="309"/>
+      <c r="G40" s="309"/>
+      <c r="H40" s="309"/>
+      <c r="I40" s="309"/>
+      <c r="J40" s="310"/>
+      <c r="K40" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" s="323">
         <v>0</v>
       </c>
       <c r="M40" s="155" t="s">
@@ -9558,16 +9581,16 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="18"/>
-      <c r="C41" s="230"/>
-      <c r="D41" s="230"/>
-      <c r="E41" s="230"/>
-      <c r="F41" s="230"/>
-      <c r="G41" s="230"/>
-      <c r="H41" s="230"/>
-      <c r="I41" s="230"/>
-      <c r="J41" s="231"/>
-      <c r="K41" s="233"/>
-      <c r="L41" s="233"/>
+      <c r="C41" s="312"/>
+      <c r="D41" s="312"/>
+      <c r="E41" s="312"/>
+      <c r="F41" s="312"/>
+      <c r="G41" s="312"/>
+      <c r="H41" s="312"/>
+      <c r="I41" s="312"/>
+      <c r="J41" s="313"/>
+      <c r="K41" s="331"/>
+      <c r="L41" s="315"/>
       <c r="M41" s="156" t="s">
         <v>27</v>
       </c>
@@ -9583,20 +9606,20 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="18"/>
-      <c r="C42" s="242" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="243"/>
-      <c r="E42" s="243"/>
-      <c r="F42" s="243"/>
-      <c r="G42" s="243"/>
-      <c r="H42" s="243"/>
-      <c r="I42" s="243"/>
-      <c r="J42" s="244"/>
-      <c r="K42" s="232" t="s">
-        <v>87</v>
-      </c>
-      <c r="L42" s="241">
+      <c r="C42" s="322" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="309"/>
+      <c r="E42" s="309"/>
+      <c r="F42" s="309"/>
+      <c r="G42" s="309"/>
+      <c r="H42" s="309"/>
+      <c r="I42" s="309"/>
+      <c r="J42" s="310"/>
+      <c r="K42" s="314" t="s">
+        <v>73</v>
+      </c>
+      <c r="L42" s="323">
         <v>0</v>
       </c>
       <c r="M42" s="155" t="s">
@@ -9614,16 +9637,16 @@
     </row>
     <row r="43" spans="2:22">
       <c r="B43" s="18"/>
-      <c r="C43" s="245"/>
-      <c r="D43" s="246"/>
-      <c r="E43" s="246"/>
-      <c r="F43" s="246"/>
-      <c r="G43" s="246"/>
-      <c r="H43" s="246"/>
-      <c r="I43" s="246"/>
-      <c r="J43" s="247"/>
-      <c r="K43" s="233"/>
-      <c r="L43" s="250"/>
+      <c r="C43" s="312"/>
+      <c r="D43" s="312"/>
+      <c r="E43" s="312"/>
+      <c r="F43" s="312"/>
+      <c r="G43" s="312"/>
+      <c r="H43" s="312"/>
+      <c r="I43" s="312"/>
+      <c r="J43" s="313"/>
+      <c r="K43" s="315"/>
+      <c r="L43" s="315"/>
       <c r="M43" s="156" t="s">
         <v>27</v>
       </c>
@@ -9639,26 +9662,26 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" s="18"/>
-      <c r="C44" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="243"/>
-      <c r="E44" s="243"/>
-      <c r="F44" s="243"/>
-      <c r="G44" s="243"/>
-      <c r="H44" s="243"/>
-      <c r="I44" s="243"/>
-      <c r="J44" s="244"/>
-      <c r="K44" s="232" t="s">
-        <v>81</v>
-      </c>
-      <c r="L44" s="241">
+      <c r="C44" s="322" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="309"/>
+      <c r="E44" s="309"/>
+      <c r="F44" s="309"/>
+      <c r="G44" s="309"/>
+      <c r="H44" s="309"/>
+      <c r="I44" s="309"/>
+      <c r="J44" s="310"/>
+      <c r="K44" s="314" t="s">
+        <v>77</v>
+      </c>
+      <c r="L44" s="323">
         <v>0</v>
       </c>
       <c r="M44" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="N44" s="132"/>
+      <c r="N44" s="144"/>
       <c r="O44" s="179"/>
       <c r="P44" s="179"/>
       <c r="Q44" s="180"/>
@@ -9670,20 +9693,20 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="18"/>
-      <c r="C45" s="245"/>
-      <c r="D45" s="246"/>
-      <c r="E45" s="246"/>
-      <c r="F45" s="246"/>
-      <c r="G45" s="246"/>
-      <c r="H45" s="246"/>
-      <c r="I45" s="246"/>
-      <c r="J45" s="247"/>
-      <c r="K45" s="233"/>
-      <c r="L45" s="250"/>
+      <c r="C45" s="312"/>
+      <c r="D45" s="312"/>
+      <c r="E45" s="312"/>
+      <c r="F45" s="312"/>
+      <c r="G45" s="312"/>
+      <c r="H45" s="312"/>
+      <c r="I45" s="312"/>
+      <c r="J45" s="313"/>
+      <c r="K45" s="315"/>
+      <c r="L45" s="315"/>
       <c r="M45" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="N45" s="158"/>
+      <c r="N45" s="258"/>
       <c r="O45" s="177"/>
       <c r="P45" s="177"/>
       <c r="Q45" s="154"/>
@@ -9695,26 +9718,26 @@
     </row>
     <row r="46" spans="2:22">
       <c r="B46" s="18"/>
-      <c r="C46" s="240" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="227"/>
-      <c r="E46" s="227"/>
-      <c r="F46" s="227"/>
-      <c r="G46" s="227"/>
-      <c r="H46" s="227"/>
-      <c r="I46" s="227"/>
-      <c r="J46" s="228"/>
-      <c r="K46" s="232" t="s">
-        <v>82</v>
-      </c>
-      <c r="L46" s="241">
+      <c r="C46" s="322" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="309"/>
+      <c r="E46" s="309"/>
+      <c r="F46" s="309"/>
+      <c r="G46" s="309"/>
+      <c r="H46" s="309"/>
+      <c r="I46" s="309"/>
+      <c r="J46" s="310"/>
+      <c r="K46" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" s="323">
         <v>0</v>
       </c>
       <c r="M46" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="169"/>
+      <c r="N46" s="166"/>
       <c r="O46" s="172"/>
       <c r="P46" s="172"/>
       <c r="Q46" s="122"/>
@@ -9726,16 +9749,16 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" s="18"/>
-      <c r="C47" s="230"/>
-      <c r="D47" s="230"/>
-      <c r="E47" s="230"/>
-      <c r="F47" s="230"/>
-      <c r="G47" s="230"/>
-      <c r="H47" s="230"/>
-      <c r="I47" s="230"/>
-      <c r="J47" s="231"/>
-      <c r="K47" s="233"/>
-      <c r="L47" s="250"/>
+      <c r="C47" s="312"/>
+      <c r="D47" s="312"/>
+      <c r="E47" s="312"/>
+      <c r="F47" s="312"/>
+      <c r="G47" s="312"/>
+      <c r="H47" s="312"/>
+      <c r="I47" s="312"/>
+      <c r="J47" s="313"/>
+      <c r="K47" s="315"/>
+      <c r="L47" s="332"/>
       <c r="M47" s="156" t="s">
         <v>27</v>
       </c>
@@ -9777,24 +9800,24 @@
     <mergeCell ref="C46:J47"/>
     <mergeCell ref="K46:K47"/>
     <mergeCell ref="L46:L47"/>
-    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="C36:J37"/>
+    <mergeCell ref="C34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L40:L41"/>
     <mergeCell ref="C42:J43"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C44:J45"/>
     <mergeCell ref="K44:K45"/>
-    <mergeCell ref="C38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
     <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="C36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
     <mergeCell ref="C30:J31"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="L30:L31"/>
@@ -9822,7 +9845,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8602A3-DB5D-4C4B-AC21-CA5EC153D48D}">
-  <dimension ref="B23:T72"/>
+  <dimension ref="B23:AI76"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -9836,7 +9859,7 @@
   <sheetData>
     <row r="23" spans="2:20" ht="24">
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:20">
@@ -9894,7 +9917,7 @@
         <v>22</v>
       </c>
       <c r="N26" s="183" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O26" s="112"/>
       <c r="P26" s="112"/>
@@ -9969,7 +9992,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="117" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E29" s="117"/>
       <c r="F29" s="117"/>
@@ -9990,20 +10013,20 @@
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="18"/>
-      <c r="C30" s="240" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="227"/>
-      <c r="E30" s="227"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="227"/>
-      <c r="J30" s="228"/>
-      <c r="K30" s="232" t="s">
-        <v>81</v>
-      </c>
-      <c r="L30" s="234">
+      <c r="C30" s="322" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="309"/>
+      <c r="E30" s="309"/>
+      <c r="F30" s="309"/>
+      <c r="G30" s="309"/>
+      <c r="H30" s="309"/>
+      <c r="I30" s="309"/>
+      <c r="J30" s="310"/>
+      <c r="K30" s="314" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30" s="316">
         <v>0</v>
       </c>
       <c r="M30" s="121" t="s">
@@ -10019,16 +10042,16 @@
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="18"/>
-      <c r="C31" s="230"/>
-      <c r="D31" s="230"/>
-      <c r="E31" s="230"/>
-      <c r="F31" s="230"/>
-      <c r="G31" s="230"/>
-      <c r="H31" s="230"/>
-      <c r="I31" s="230"/>
-      <c r="J31" s="231"/>
-      <c r="K31" s="233"/>
-      <c r="L31" s="235"/>
+      <c r="C31" s="312"/>
+      <c r="D31" s="312"/>
+      <c r="E31" s="312"/>
+      <c r="F31" s="312"/>
+      <c r="G31" s="312"/>
+      <c r="H31" s="312"/>
+      <c r="I31" s="312"/>
+      <c r="J31" s="313"/>
+      <c r="K31" s="315"/>
+      <c r="L31" s="317"/>
       <c r="M31" s="123" t="s">
         <v>27</v>
       </c>
@@ -10042,20 +10065,20 @@
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="18"/>
-      <c r="C32" s="240" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="227"/>
-      <c r="E32" s="227"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="227"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="228"/>
-      <c r="K32" s="232" t="s">
-        <v>82</v>
-      </c>
-      <c r="L32" s="234">
+      <c r="C32" s="322" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="309"/>
+      <c r="E32" s="309"/>
+      <c r="F32" s="309"/>
+      <c r="G32" s="309"/>
+      <c r="H32" s="309"/>
+      <c r="I32" s="309"/>
+      <c r="J32" s="310"/>
+      <c r="K32" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="316">
         <v>0</v>
       </c>
       <c r="M32" s="121" t="s">
@@ -10071,16 +10094,16 @@
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="18"/>
-      <c r="C33" s="230"/>
-      <c r="D33" s="230"/>
-      <c r="E33" s="230"/>
-      <c r="F33" s="230"/>
-      <c r="G33" s="230"/>
-      <c r="H33" s="230"/>
-      <c r="I33" s="230"/>
-      <c r="J33" s="231"/>
-      <c r="K33" s="233"/>
-      <c r="L33" s="235"/>
+      <c r="C33" s="312"/>
+      <c r="D33" s="312"/>
+      <c r="E33" s="312"/>
+      <c r="F33" s="312"/>
+      <c r="G33" s="312"/>
+      <c r="H33" s="312"/>
+      <c r="I33" s="312"/>
+      <c r="J33" s="313"/>
+      <c r="K33" s="315"/>
+      <c r="L33" s="317"/>
       <c r="M33" s="123" t="s">
         <v>27</v>
       </c>
@@ -10094,20 +10117,20 @@
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="18"/>
-      <c r="C34" s="240" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="227"/>
-      <c r="E34" s="227"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
-      <c r="H34" s="227"/>
-      <c r="I34" s="227"/>
-      <c r="J34" s="228"/>
-      <c r="K34" s="232" t="s">
-        <v>86</v>
-      </c>
-      <c r="L34" s="234">
+      <c r="C34" s="322" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="309"/>
+      <c r="E34" s="309"/>
+      <c r="F34" s="309"/>
+      <c r="G34" s="309"/>
+      <c r="H34" s="309"/>
+      <c r="I34" s="309"/>
+      <c r="J34" s="310"/>
+      <c r="K34" s="314" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34" s="316">
         <v>0</v>
       </c>
       <c r="M34" s="121" t="s">
@@ -10123,16 +10146,16 @@
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="18"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="230"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="230"/>
-      <c r="G35" s="230"/>
-      <c r="H35" s="230"/>
-      <c r="I35" s="230"/>
-      <c r="J35" s="231"/>
-      <c r="K35" s="233"/>
-      <c r="L35" s="235"/>
+      <c r="C35" s="312"/>
+      <c r="D35" s="312"/>
+      <c r="E35" s="312"/>
+      <c r="F35" s="312"/>
+      <c r="G35" s="312"/>
+      <c r="H35" s="312"/>
+      <c r="I35" s="312"/>
+      <c r="J35" s="313"/>
+      <c r="K35" s="315"/>
+      <c r="L35" s="317"/>
       <c r="M35" s="123" t="s">
         <v>27</v>
       </c>
@@ -10146,20 +10169,20 @@
     </row>
     <row r="36" spans="2:20" ht="15.75" customHeight="1">
       <c r="B36" s="18"/>
-      <c r="C36" s="240" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="227"/>
-      <c r="E36" s="227"/>
-      <c r="F36" s="227"/>
-      <c r="G36" s="227"/>
-      <c r="H36" s="227"/>
-      <c r="I36" s="227"/>
-      <c r="J36" s="228"/>
-      <c r="K36" s="232" t="s">
-        <v>87</v>
-      </c>
-      <c r="L36" s="234">
+      <c r="C36" s="324" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="325"/>
+      <c r="E36" s="325"/>
+      <c r="F36" s="325"/>
+      <c r="G36" s="325"/>
+      <c r="H36" s="325"/>
+      <c r="I36" s="325"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="L36" s="316">
         <v>0</v>
       </c>
       <c r="M36" s="121" t="s">
@@ -10175,16 +10198,16 @@
     </row>
     <row r="37" spans="2:20">
       <c r="B37" s="18"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="230"/>
-      <c r="E37" s="230"/>
-      <c r="F37" s="230"/>
-      <c r="G37" s="230"/>
-      <c r="H37" s="230"/>
-      <c r="I37" s="230"/>
-      <c r="J37" s="231"/>
-      <c r="K37" s="233"/>
-      <c r="L37" s="235"/>
+      <c r="C37" s="327"/>
+      <c r="D37" s="328"/>
+      <c r="E37" s="328"/>
+      <c r="F37" s="328"/>
+      <c r="G37" s="328"/>
+      <c r="H37" s="328"/>
+      <c r="I37" s="328"/>
+      <c r="J37" s="329"/>
+      <c r="K37" s="315"/>
+      <c r="L37" s="317"/>
       <c r="M37" s="123" t="s">
         <v>27</v>
       </c>
@@ -10198,20 +10221,20 @@
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="18"/>
-      <c r="C38" s="240" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="227"/>
-      <c r="E38" s="227"/>
-      <c r="F38" s="227"/>
-      <c r="G38" s="227"/>
-      <c r="H38" s="227"/>
-      <c r="I38" s="227"/>
-      <c r="J38" s="228"/>
-      <c r="K38" s="232" t="s">
-        <v>85</v>
-      </c>
-      <c r="L38" s="234">
+      <c r="C38" s="324" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="325"/>
+      <c r="E38" s="325"/>
+      <c r="F38" s="325"/>
+      <c r="G38" s="325"/>
+      <c r="H38" s="325"/>
+      <c r="I38" s="325"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="314" t="s">
+        <v>89</v>
+      </c>
+      <c r="L38" s="316">
         <v>0</v>
       </c>
       <c r="M38" s="121" t="s">
@@ -10227,16 +10250,16 @@
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="18"/>
-      <c r="C39" s="230"/>
-      <c r="D39" s="230"/>
-      <c r="E39" s="230"/>
-      <c r="F39" s="230"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="230"/>
-      <c r="I39" s="230"/>
-      <c r="J39" s="231"/>
-      <c r="K39" s="233"/>
-      <c r="L39" s="235"/>
+      <c r="C39" s="327"/>
+      <c r="D39" s="328"/>
+      <c r="E39" s="328"/>
+      <c r="F39" s="328"/>
+      <c r="G39" s="328"/>
+      <c r="H39" s="328"/>
+      <c r="I39" s="328"/>
+      <c r="J39" s="329"/>
+      <c r="K39" s="315"/>
+      <c r="L39" s="317"/>
       <c r="M39" s="123" t="s">
         <v>27</v>
       </c>
@@ -10250,20 +10273,20 @@
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="18"/>
-      <c r="C40" s="240" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="227"/>
-      <c r="E40" s="227"/>
-      <c r="F40" s="227"/>
-      <c r="G40" s="227"/>
-      <c r="H40" s="227"/>
-      <c r="I40" s="227"/>
-      <c r="J40" s="228"/>
-      <c r="K40" s="232" t="s">
-        <v>81</v>
-      </c>
-      <c r="L40" s="234">
+      <c r="C40" s="322" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="309"/>
+      <c r="E40" s="309"/>
+      <c r="F40" s="309"/>
+      <c r="G40" s="309"/>
+      <c r="H40" s="309"/>
+      <c r="I40" s="309"/>
+      <c r="J40" s="310"/>
+      <c r="K40" s="314" t="s">
+        <v>77</v>
+      </c>
+      <c r="L40" s="316">
         <v>0</v>
       </c>
       <c r="M40" s="121" t="s">
@@ -10279,16 +10302,16 @@
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="18"/>
-      <c r="C41" s="230"/>
-      <c r="D41" s="230"/>
-      <c r="E41" s="230"/>
-      <c r="F41" s="230"/>
-      <c r="G41" s="230"/>
-      <c r="H41" s="230"/>
-      <c r="I41" s="230"/>
-      <c r="J41" s="231"/>
-      <c r="K41" s="233"/>
-      <c r="L41" s="235"/>
+      <c r="C41" s="312"/>
+      <c r="D41" s="312"/>
+      <c r="E41" s="312"/>
+      <c r="F41" s="312"/>
+      <c r="G41" s="312"/>
+      <c r="H41" s="312"/>
+      <c r="I41" s="312"/>
+      <c r="J41" s="313"/>
+      <c r="K41" s="315"/>
+      <c r="L41" s="317"/>
       <c r="M41" s="123" t="s">
         <v>27</v>
       </c>
@@ -10302,20 +10325,20 @@
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="18"/>
-      <c r="C42" s="240" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="227"/>
-      <c r="E42" s="227"/>
-      <c r="F42" s="227"/>
-      <c r="G42" s="227"/>
-      <c r="H42" s="227"/>
-      <c r="I42" s="227"/>
-      <c r="J42" s="228"/>
-      <c r="K42" s="232" t="s">
-        <v>85</v>
-      </c>
-      <c r="L42" s="234">
+      <c r="C42" s="322" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="309"/>
+      <c r="E42" s="309"/>
+      <c r="F42" s="309"/>
+      <c r="G42" s="309"/>
+      <c r="H42" s="309"/>
+      <c r="I42" s="309"/>
+      <c r="J42" s="310"/>
+      <c r="K42" s="314" t="s">
+        <v>73</v>
+      </c>
+      <c r="L42" s="316">
         <v>0</v>
       </c>
       <c r="M42" s="121" t="s">
@@ -10331,16 +10354,16 @@
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="18"/>
-      <c r="C43" s="230"/>
-      <c r="D43" s="230"/>
-      <c r="E43" s="230"/>
-      <c r="F43" s="230"/>
-      <c r="G43" s="230"/>
-      <c r="H43" s="230"/>
-      <c r="I43" s="230"/>
-      <c r="J43" s="231"/>
-      <c r="K43" s="233"/>
-      <c r="L43" s="235"/>
+      <c r="C43" s="312"/>
+      <c r="D43" s="312"/>
+      <c r="E43" s="312"/>
+      <c r="F43" s="312"/>
+      <c r="G43" s="312"/>
+      <c r="H43" s="312"/>
+      <c r="I43" s="312"/>
+      <c r="J43" s="313"/>
+      <c r="K43" s="315"/>
+      <c r="L43" s="317"/>
       <c r="M43" s="123" t="s">
         <v>27</v>
       </c>
@@ -10354,20 +10377,20 @@
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="18"/>
-      <c r="C44" s="242" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="243"/>
-      <c r="E44" s="243"/>
-      <c r="F44" s="243"/>
-      <c r="G44" s="243"/>
-      <c r="H44" s="243"/>
-      <c r="I44" s="243"/>
-      <c r="J44" s="244"/>
-      <c r="K44" s="232" t="s">
-        <v>82</v>
-      </c>
-      <c r="L44" s="234">
+      <c r="C44" s="322" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="309"/>
+      <c r="E44" s="309"/>
+      <c r="F44" s="309"/>
+      <c r="G44" s="309"/>
+      <c r="H44" s="309"/>
+      <c r="I44" s="309"/>
+      <c r="J44" s="310"/>
+      <c r="K44" s="314" t="s">
+        <v>93</v>
+      </c>
+      <c r="L44" s="316">
         <v>0</v>
       </c>
       <c r="M44" s="121" t="s">
@@ -10383,16 +10406,16 @@
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="18"/>
-      <c r="C45" s="245"/>
-      <c r="D45" s="246"/>
-      <c r="E45" s="246"/>
-      <c r="F45" s="246"/>
-      <c r="G45" s="246"/>
-      <c r="H45" s="246"/>
-      <c r="I45" s="246"/>
-      <c r="J45" s="247"/>
-      <c r="K45" s="249"/>
-      <c r="L45" s="235"/>
+      <c r="C45" s="312"/>
+      <c r="D45" s="312"/>
+      <c r="E45" s="312"/>
+      <c r="F45" s="312"/>
+      <c r="G45" s="312"/>
+      <c r="H45" s="312"/>
+      <c r="I45" s="312"/>
+      <c r="J45" s="313"/>
+      <c r="K45" s="331"/>
+      <c r="L45" s="317"/>
       <c r="M45" s="123" t="s">
         <v>27</v>
       </c>
@@ -10406,20 +10429,20 @@
     </row>
     <row r="46" spans="2:20">
       <c r="B46" s="18"/>
-      <c r="C46" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="243"/>
-      <c r="E46" s="243"/>
-      <c r="F46" s="243"/>
-      <c r="G46" s="243"/>
-      <c r="H46" s="243"/>
-      <c r="I46" s="243"/>
-      <c r="J46" s="244"/>
-      <c r="K46" s="248" t="s">
-        <v>88</v>
-      </c>
-      <c r="L46" s="234">
+      <c r="C46" s="322" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="309"/>
+      <c r="E46" s="309"/>
+      <c r="F46" s="309"/>
+      <c r="G46" s="309"/>
+      <c r="H46" s="309"/>
+      <c r="I46" s="309"/>
+      <c r="J46" s="310"/>
+      <c r="K46" s="330" t="s">
+        <v>77</v>
+      </c>
+      <c r="L46" s="316">
         <v>0</v>
       </c>
       <c r="M46" s="121" t="s">
@@ -10435,16 +10458,16 @@
     </row>
     <row r="47" spans="2:20">
       <c r="B47" s="18"/>
-      <c r="C47" s="245"/>
-      <c r="D47" s="246"/>
-      <c r="E47" s="246"/>
-      <c r="F47" s="246"/>
-      <c r="G47" s="246"/>
-      <c r="H47" s="246"/>
-      <c r="I47" s="246"/>
-      <c r="J47" s="247"/>
-      <c r="K47" s="233"/>
-      <c r="L47" s="235"/>
+      <c r="C47" s="312"/>
+      <c r="D47" s="312"/>
+      <c r="E47" s="312"/>
+      <c r="F47" s="312"/>
+      <c r="G47" s="312"/>
+      <c r="H47" s="312"/>
+      <c r="I47" s="312"/>
+      <c r="J47" s="313"/>
+      <c r="K47" s="315"/>
+      <c r="L47" s="317"/>
       <c r="M47" s="123" t="s">
         <v>27</v>
       </c>
@@ -10458,20 +10481,20 @@
     </row>
     <row r="48" spans="2:20">
       <c r="B48" s="18"/>
-      <c r="C48" s="240" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="227"/>
-      <c r="E48" s="227"/>
-      <c r="F48" s="227"/>
-      <c r="G48" s="227"/>
-      <c r="H48" s="227"/>
-      <c r="I48" s="227"/>
-      <c r="J48" s="228"/>
-      <c r="K48" s="232" t="s">
-        <v>87</v>
-      </c>
-      <c r="L48" s="234">
+      <c r="C48" s="322" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="309"/>
+      <c r="E48" s="309"/>
+      <c r="F48" s="309"/>
+      <c r="G48" s="309"/>
+      <c r="H48" s="309"/>
+      <c r="I48" s="309"/>
+      <c r="J48" s="310"/>
+      <c r="K48" s="314" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48" s="316">
         <v>0</v>
       </c>
       <c r="M48" s="121" t="s">
@@ -10485,18 +10508,18 @@
       <c r="S48" s="172"/>
       <c r="T48" s="195"/>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:35">
       <c r="B49" s="18"/>
-      <c r="C49" s="230"/>
-      <c r="D49" s="230"/>
-      <c r="E49" s="230"/>
-      <c r="F49" s="230"/>
-      <c r="G49" s="230"/>
-      <c r="H49" s="230"/>
-      <c r="I49" s="230"/>
-      <c r="J49" s="231"/>
-      <c r="K49" s="233"/>
-      <c r="L49" s="235"/>
+      <c r="C49" s="312"/>
+      <c r="D49" s="312"/>
+      <c r="E49" s="312"/>
+      <c r="F49" s="312"/>
+      <c r="G49" s="312"/>
+      <c r="H49" s="312"/>
+      <c r="I49" s="312"/>
+      <c r="J49" s="313"/>
+      <c r="K49" s="315"/>
+      <c r="L49" s="317"/>
       <c r="M49" s="123" t="s">
         <v>27</v>
       </c>
@@ -10508,7 +10531,7 @@
       <c r="S49" s="173"/>
       <c r="T49" s="196"/>
     </row>
-    <row r="50" spans="2:20">
+    <row r="50" spans="2:35">
       <c r="B50" s="18"/>
       <c r="C50" s="176"/>
       <c r="D50" s="176"/>
@@ -10529,13 +10552,13 @@
       <c r="S50" s="174"/>
       <c r="T50" s="197"/>
     </row>
-    <row r="51" spans="2:20">
+    <row r="51" spans="2:35">
       <c r="B51" s="18"/>
       <c r="C51" s="185" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="188" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E51" s="117"/>
       <c r="F51" s="117"/>
@@ -10554,22 +10577,22 @@
       <c r="S51" s="193"/>
       <c r="T51" s="194"/>
     </row>
-    <row r="52" spans="2:20">
+    <row r="52" spans="2:35">
       <c r="B52" s="18"/>
-      <c r="C52" s="240" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="227"/>
-      <c r="E52" s="227"/>
-      <c r="F52" s="227"/>
-      <c r="G52" s="227"/>
-      <c r="H52" s="227"/>
-      <c r="I52" s="227"/>
-      <c r="J52" s="228"/>
-      <c r="K52" s="232" t="s">
-        <v>82</v>
-      </c>
-      <c r="L52" s="234">
+      <c r="C52" s="322" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="309"/>
+      <c r="E52" s="309"/>
+      <c r="F52" s="309"/>
+      <c r="G52" s="309"/>
+      <c r="H52" s="309"/>
+      <c r="I52" s="309"/>
+      <c r="J52" s="310"/>
+      <c r="K52" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="L52" s="316">
         <v>0</v>
       </c>
       <c r="M52" s="121" t="s">
@@ -10583,18 +10606,18 @@
       <c r="S52" s="172"/>
       <c r="T52" s="195"/>
     </row>
-    <row r="53" spans="2:20">
+    <row r="53" spans="2:35">
       <c r="B53" s="18"/>
-      <c r="C53" s="230"/>
-      <c r="D53" s="230"/>
-      <c r="E53" s="230"/>
-      <c r="F53" s="230"/>
-      <c r="G53" s="230"/>
-      <c r="H53" s="230"/>
-      <c r="I53" s="230"/>
-      <c r="J53" s="231"/>
-      <c r="K53" s="233"/>
-      <c r="L53" s="235"/>
+      <c r="C53" s="312"/>
+      <c r="D53" s="312"/>
+      <c r="E53" s="312"/>
+      <c r="F53" s="312"/>
+      <c r="G53" s="312"/>
+      <c r="H53" s="312"/>
+      <c r="I53" s="312"/>
+      <c r="J53" s="313"/>
+      <c r="K53" s="315"/>
+      <c r="L53" s="317"/>
       <c r="M53" s="123" t="s">
         <v>27</v>
       </c>
@@ -10606,22 +10629,22 @@
       <c r="S53" s="173"/>
       <c r="T53" s="196"/>
     </row>
-    <row r="54" spans="2:20">
+    <row r="54" spans="2:35">
       <c r="B54" s="18"/>
-      <c r="C54" s="240" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="227"/>
-      <c r="E54" s="227"/>
-      <c r="F54" s="227"/>
-      <c r="G54" s="227"/>
-      <c r="H54" s="227"/>
-      <c r="I54" s="227"/>
-      <c r="J54" s="228"/>
-      <c r="K54" s="232" t="s">
-        <v>86</v>
-      </c>
-      <c r="L54" s="234">
+      <c r="C54" s="322" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="309"/>
+      <c r="E54" s="309"/>
+      <c r="F54" s="309"/>
+      <c r="G54" s="309"/>
+      <c r="H54" s="309"/>
+      <c r="I54" s="309"/>
+      <c r="J54" s="310"/>
+      <c r="K54" s="314" t="s">
+        <v>78</v>
+      </c>
+      <c r="L54" s="316">
         <v>0</v>
       </c>
       <c r="M54" s="121" t="s">
@@ -10635,18 +10658,18 @@
       <c r="S54" s="172"/>
       <c r="T54" s="195"/>
     </row>
-    <row r="55" spans="2:20">
+    <row r="55" spans="2:35">
       <c r="B55" s="18"/>
-      <c r="C55" s="230"/>
-      <c r="D55" s="230"/>
-      <c r="E55" s="230"/>
-      <c r="F55" s="230"/>
-      <c r="G55" s="230"/>
-      <c r="H55" s="230"/>
-      <c r="I55" s="230"/>
-      <c r="J55" s="231"/>
-      <c r="K55" s="233"/>
-      <c r="L55" s="235"/>
+      <c r="C55" s="312"/>
+      <c r="D55" s="312"/>
+      <c r="E55" s="312"/>
+      <c r="F55" s="312"/>
+      <c r="G55" s="312"/>
+      <c r="H55" s="312"/>
+      <c r="I55" s="312"/>
+      <c r="J55" s="313"/>
+      <c r="K55" s="315"/>
+      <c r="L55" s="317"/>
       <c r="M55" s="123" t="s">
         <v>27</v>
       </c>
@@ -10658,22 +10681,22 @@
       <c r="S55" s="173"/>
       <c r="T55" s="196"/>
     </row>
-    <row r="56" spans="2:20">
+    <row r="56" spans="2:35">
       <c r="B56" s="18"/>
-      <c r="C56" s="240" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="227"/>
-      <c r="E56" s="227"/>
-      <c r="F56" s="227"/>
-      <c r="G56" s="227"/>
-      <c r="H56" s="227"/>
-      <c r="I56" s="227"/>
-      <c r="J56" s="228"/>
-      <c r="K56" s="232" t="s">
-        <v>87</v>
-      </c>
-      <c r="L56" s="234">
+      <c r="C56" s="322" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="309"/>
+      <c r="E56" s="309"/>
+      <c r="F56" s="309"/>
+      <c r="G56" s="309"/>
+      <c r="H56" s="309"/>
+      <c r="I56" s="309"/>
+      <c r="J56" s="310"/>
+      <c r="K56" s="314" t="s">
+        <v>79</v>
+      </c>
+      <c r="L56" s="316">
         <v>0</v>
       </c>
       <c r="M56" s="121" t="s">
@@ -10687,18 +10710,18 @@
       <c r="S56" s="172"/>
       <c r="T56" s="195"/>
     </row>
-    <row r="57" spans="2:20">
+    <row r="57" spans="2:35">
       <c r="B57" s="18"/>
-      <c r="C57" s="230"/>
-      <c r="D57" s="230"/>
-      <c r="E57" s="230"/>
-      <c r="F57" s="230"/>
-      <c r="G57" s="230"/>
-      <c r="H57" s="230"/>
-      <c r="I57" s="230"/>
-      <c r="J57" s="231"/>
-      <c r="K57" s="233"/>
-      <c r="L57" s="235"/>
+      <c r="C57" s="312"/>
+      <c r="D57" s="312"/>
+      <c r="E57" s="312"/>
+      <c r="F57" s="312"/>
+      <c r="G57" s="312"/>
+      <c r="H57" s="312"/>
+      <c r="I57" s="312"/>
+      <c r="J57" s="313"/>
+      <c r="K57" s="315"/>
+      <c r="L57" s="317"/>
       <c r="M57" s="123" t="s">
         <v>27</v>
       </c>
@@ -10709,23 +10732,33 @@
       <c r="R57" s="173"/>
       <c r="S57" s="173"/>
       <c r="T57" s="196"/>
-    </row>
-    <row r="58" spans="2:20" ht="15.75" customHeight="1">
+      <c r="Z57" s="341"/>
+      <c r="AA57" s="342"/>
+      <c r="AB57" s="342"/>
+      <c r="AC57" s="342"/>
+      <c r="AD57" s="342"/>
+      <c r="AE57" s="342"/>
+      <c r="AF57" s="342"/>
+      <c r="AG57" s="342"/>
+      <c r="AH57" s="341"/>
+      <c r="AI57" s="341"/>
+    </row>
+    <row r="58" spans="2:35" ht="15.75" customHeight="1">
       <c r="B58" s="18"/>
-      <c r="C58" s="240" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="227"/>
-      <c r="E58" s="227"/>
-      <c r="F58" s="227"/>
-      <c r="G58" s="227"/>
-      <c r="H58" s="227"/>
-      <c r="I58" s="227"/>
-      <c r="J58" s="228"/>
-      <c r="K58" s="232" t="s">
-        <v>85</v>
-      </c>
-      <c r="L58" s="234">
+      <c r="C58" s="324" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="325"/>
+      <c r="E58" s="325"/>
+      <c r="F58" s="325"/>
+      <c r="G58" s="325"/>
+      <c r="H58" s="325"/>
+      <c r="I58" s="325"/>
+      <c r="J58" s="326"/>
+      <c r="K58" s="314" t="s">
+        <v>106</v>
+      </c>
+      <c r="L58" s="316">
         <v>0</v>
       </c>
       <c r="M58" s="121" t="s">
@@ -10738,19 +10771,29 @@
       <c r="R58" s="172"/>
       <c r="S58" s="172"/>
       <c r="T58" s="195"/>
-    </row>
-    <row r="59" spans="2:20">
+      <c r="Z58" s="342"/>
+      <c r="AA58" s="342"/>
+      <c r="AB58" s="342"/>
+      <c r="AC58" s="342"/>
+      <c r="AD58" s="342"/>
+      <c r="AE58" s="342"/>
+      <c r="AF58" s="342"/>
+      <c r="AG58" s="342"/>
+      <c r="AH58" s="341"/>
+      <c r="AI58" s="341"/>
+    </row>
+    <row r="59" spans="2:35">
       <c r="B59" s="18"/>
-      <c r="C59" s="230"/>
-      <c r="D59" s="230"/>
-      <c r="E59" s="230"/>
-      <c r="F59" s="230"/>
-      <c r="G59" s="230"/>
-      <c r="H59" s="230"/>
-      <c r="I59" s="230"/>
-      <c r="J59" s="231"/>
-      <c r="K59" s="233"/>
-      <c r="L59" s="235"/>
+      <c r="C59" s="327"/>
+      <c r="D59" s="328"/>
+      <c r="E59" s="328"/>
+      <c r="F59" s="328"/>
+      <c r="G59" s="328"/>
+      <c r="H59" s="328"/>
+      <c r="I59" s="328"/>
+      <c r="J59" s="329"/>
+      <c r="K59" s="315"/>
+      <c r="L59" s="317"/>
       <c r="M59" s="123" t="s">
         <v>27</v>
       </c>
@@ -10761,23 +10804,33 @@
       <c r="R59" s="173"/>
       <c r="S59" s="173"/>
       <c r="T59" s="196"/>
-    </row>
-    <row r="60" spans="2:20">
+      <c r="Z59" s="341"/>
+      <c r="AA59" s="342"/>
+      <c r="AB59" s="342"/>
+      <c r="AC59" s="342"/>
+      <c r="AD59" s="342"/>
+      <c r="AE59" s="342"/>
+      <c r="AF59" s="342"/>
+      <c r="AG59" s="342"/>
+      <c r="AH59" s="341"/>
+      <c r="AI59" s="341"/>
+    </row>
+    <row r="60" spans="2:35">
       <c r="B60" s="18"/>
-      <c r="C60" s="240" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="227"/>
-      <c r="E60" s="227"/>
-      <c r="F60" s="227"/>
-      <c r="G60" s="227"/>
-      <c r="H60" s="227"/>
-      <c r="I60" s="227"/>
-      <c r="J60" s="228"/>
-      <c r="K60" s="232" t="s">
-        <v>81</v>
-      </c>
-      <c r="L60" s="234">
+      <c r="C60" s="324" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="325"/>
+      <c r="E60" s="325"/>
+      <c r="F60" s="325"/>
+      <c r="G60" s="325"/>
+      <c r="H60" s="325"/>
+      <c r="I60" s="325"/>
+      <c r="J60" s="326"/>
+      <c r="K60" s="314" t="s">
+        <v>107</v>
+      </c>
+      <c r="L60" s="316">
         <v>0</v>
       </c>
       <c r="M60" s="121" t="s">
@@ -10790,19 +10843,29 @@
       <c r="R60" s="172"/>
       <c r="S60" s="172"/>
       <c r="T60" s="195"/>
-    </row>
-    <row r="61" spans="2:20">
+      <c r="Z60" s="342"/>
+      <c r="AA60" s="342"/>
+      <c r="AB60" s="342"/>
+      <c r="AC60" s="342"/>
+      <c r="AD60" s="342"/>
+      <c r="AE60" s="342"/>
+      <c r="AF60" s="342"/>
+      <c r="AG60" s="342"/>
+      <c r="AH60" s="341"/>
+      <c r="AI60" s="341"/>
+    </row>
+    <row r="61" spans="2:35">
       <c r="B61" s="18"/>
-      <c r="C61" s="230"/>
-      <c r="D61" s="230"/>
-      <c r="E61" s="230"/>
-      <c r="F61" s="230"/>
-      <c r="G61" s="230"/>
-      <c r="H61" s="230"/>
-      <c r="I61" s="230"/>
-      <c r="J61" s="231"/>
-      <c r="K61" s="233"/>
-      <c r="L61" s="235"/>
+      <c r="C61" s="327"/>
+      <c r="D61" s="328"/>
+      <c r="E61" s="328"/>
+      <c r="F61" s="328"/>
+      <c r="G61" s="328"/>
+      <c r="H61" s="328"/>
+      <c r="I61" s="328"/>
+      <c r="J61" s="329"/>
+      <c r="K61" s="315"/>
+      <c r="L61" s="317"/>
       <c r="M61" s="123" t="s">
         <v>27</v>
       </c>
@@ -10813,23 +10876,33 @@
       <c r="R61" s="173"/>
       <c r="S61" s="173"/>
       <c r="T61" s="196"/>
-    </row>
-    <row r="62" spans="2:20">
+      <c r="Z61" s="341"/>
+      <c r="AA61" s="342"/>
+      <c r="AB61" s="342"/>
+      <c r="AC61" s="342"/>
+      <c r="AD61" s="342"/>
+      <c r="AE61" s="342"/>
+      <c r="AF61" s="342"/>
+      <c r="AG61" s="342"/>
+      <c r="AH61" s="341"/>
+      <c r="AI61" s="341"/>
+    </row>
+    <row r="62" spans="2:35">
       <c r="B62" s="18"/>
-      <c r="C62" s="240" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="227"/>
-      <c r="E62" s="227"/>
-      <c r="F62" s="227"/>
-      <c r="G62" s="227"/>
-      <c r="H62" s="227"/>
-      <c r="I62" s="227"/>
-      <c r="J62" s="228"/>
-      <c r="K62" s="232" t="s">
-        <v>85</v>
-      </c>
-      <c r="L62" s="234">
+      <c r="C62" s="322" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="309"/>
+      <c r="E62" s="309"/>
+      <c r="F62" s="309"/>
+      <c r="G62" s="309"/>
+      <c r="H62" s="309"/>
+      <c r="I62" s="309"/>
+      <c r="J62" s="310"/>
+      <c r="K62" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="L62" s="316">
         <v>0</v>
       </c>
       <c r="M62" s="121" t="s">
@@ -10842,19 +10915,29 @@
       <c r="R62" s="172"/>
       <c r="S62" s="172"/>
       <c r="T62" s="195"/>
-    </row>
-    <row r="63" spans="2:20">
+      <c r="Z62" s="342"/>
+      <c r="AA62" s="342"/>
+      <c r="AB62" s="342"/>
+      <c r="AC62" s="342"/>
+      <c r="AD62" s="342"/>
+      <c r="AE62" s="342"/>
+      <c r="AF62" s="342"/>
+      <c r="AG62" s="342"/>
+      <c r="AH62" s="341"/>
+      <c r="AI62" s="341"/>
+    </row>
+    <row r="63" spans="2:35">
       <c r="B63" s="18"/>
-      <c r="C63" s="230"/>
-      <c r="D63" s="230"/>
-      <c r="E63" s="230"/>
-      <c r="F63" s="230"/>
-      <c r="G63" s="230"/>
-      <c r="H63" s="230"/>
-      <c r="I63" s="230"/>
-      <c r="J63" s="231"/>
-      <c r="K63" s="233"/>
-      <c r="L63" s="235"/>
+      <c r="C63" s="312"/>
+      <c r="D63" s="312"/>
+      <c r="E63" s="312"/>
+      <c r="F63" s="312"/>
+      <c r="G63" s="312"/>
+      <c r="H63" s="312"/>
+      <c r="I63" s="312"/>
+      <c r="J63" s="313"/>
+      <c r="K63" s="315"/>
+      <c r="L63" s="317"/>
       <c r="M63" s="123" t="s">
         <v>27</v>
       </c>
@@ -10865,23 +10948,33 @@
       <c r="R63" s="173"/>
       <c r="S63" s="173"/>
       <c r="T63" s="196"/>
-    </row>
-    <row r="64" spans="2:20">
+      <c r="Z63" s="341"/>
+      <c r="AA63" s="342"/>
+      <c r="AB63" s="342"/>
+      <c r="AC63" s="342"/>
+      <c r="AD63" s="342"/>
+      <c r="AE63" s="342"/>
+      <c r="AF63" s="342"/>
+      <c r="AG63" s="342"/>
+      <c r="AH63" s="341"/>
+      <c r="AI63" s="341"/>
+    </row>
+    <row r="64" spans="2:35">
       <c r="B64" s="18"/>
-      <c r="C64" s="240" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="227"/>
-      <c r="E64" s="227"/>
-      <c r="F64" s="227"/>
-      <c r="G64" s="227"/>
-      <c r="H64" s="227"/>
-      <c r="I64" s="227"/>
-      <c r="J64" s="228"/>
-      <c r="K64" s="232" t="s">
-        <v>82</v>
-      </c>
-      <c r="L64" s="234">
+      <c r="C64" s="322" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="309"/>
+      <c r="E64" s="309"/>
+      <c r="F64" s="309"/>
+      <c r="G64" s="309"/>
+      <c r="H64" s="309"/>
+      <c r="I64" s="309"/>
+      <c r="J64" s="310"/>
+      <c r="K64" s="314" t="s">
+        <v>77</v>
+      </c>
+      <c r="L64" s="316">
         <v>0</v>
       </c>
       <c r="M64" s="121" t="s">
@@ -10894,19 +10987,29 @@
       <c r="R64" s="172"/>
       <c r="S64" s="172"/>
       <c r="T64" s="195"/>
-    </row>
-    <row r="65" spans="2:20">
+      <c r="Z64" s="342"/>
+      <c r="AA64" s="342"/>
+      <c r="AB64" s="342"/>
+      <c r="AC64" s="342"/>
+      <c r="AD64" s="342"/>
+      <c r="AE64" s="342"/>
+      <c r="AF64" s="342"/>
+      <c r="AG64" s="342"/>
+      <c r="AH64" s="341"/>
+      <c r="AI64" s="341"/>
+    </row>
+    <row r="65" spans="2:35">
       <c r="B65" s="18"/>
-      <c r="C65" s="230"/>
-      <c r="D65" s="230"/>
-      <c r="E65" s="230"/>
-      <c r="F65" s="230"/>
-      <c r="G65" s="230"/>
-      <c r="H65" s="230"/>
-      <c r="I65" s="230"/>
-      <c r="J65" s="231"/>
-      <c r="K65" s="249"/>
-      <c r="L65" s="235"/>
+      <c r="C65" s="312"/>
+      <c r="D65" s="312"/>
+      <c r="E65" s="312"/>
+      <c r="F65" s="312"/>
+      <c r="G65" s="312"/>
+      <c r="H65" s="312"/>
+      <c r="I65" s="312"/>
+      <c r="J65" s="313"/>
+      <c r="K65" s="331"/>
+      <c r="L65" s="317"/>
       <c r="M65" s="123" t="s">
         <v>27</v>
       </c>
@@ -10917,23 +11020,33 @@
       <c r="R65" s="173"/>
       <c r="S65" s="173"/>
       <c r="T65" s="196"/>
-    </row>
-    <row r="66" spans="2:20">
+      <c r="Z65" s="341"/>
+      <c r="AA65" s="342"/>
+      <c r="AB65" s="342"/>
+      <c r="AC65" s="342"/>
+      <c r="AD65" s="342"/>
+      <c r="AE65" s="342"/>
+      <c r="AF65" s="342"/>
+      <c r="AG65" s="342"/>
+      <c r="AH65" s="341"/>
+      <c r="AI65" s="341"/>
+    </row>
+    <row r="66" spans="2:35">
       <c r="B66" s="18"/>
-      <c r="C66" s="242" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="243"/>
-      <c r="E66" s="243"/>
-      <c r="F66" s="243"/>
-      <c r="G66" s="243"/>
-      <c r="H66" s="243"/>
-      <c r="I66" s="243"/>
-      <c r="J66" s="244"/>
-      <c r="K66" s="248" t="s">
-        <v>88</v>
-      </c>
-      <c r="L66" s="234">
+      <c r="C66" s="322" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="309"/>
+      <c r="E66" s="309"/>
+      <c r="F66" s="309"/>
+      <c r="G66" s="309"/>
+      <c r="H66" s="309"/>
+      <c r="I66" s="309"/>
+      <c r="J66" s="310"/>
+      <c r="K66" s="330" t="s">
+        <v>77</v>
+      </c>
+      <c r="L66" s="316">
         <v>0</v>
       </c>
       <c r="M66" s="121" t="s">
@@ -10946,19 +11059,29 @@
       <c r="R66" s="172"/>
       <c r="S66" s="172"/>
       <c r="T66" s="195"/>
-    </row>
-    <row r="67" spans="2:20">
+      <c r="Z66" s="342"/>
+      <c r="AA66" s="342"/>
+      <c r="AB66" s="342"/>
+      <c r="AC66" s="342"/>
+      <c r="AD66" s="342"/>
+      <c r="AE66" s="342"/>
+      <c r="AF66" s="342"/>
+      <c r="AG66" s="342"/>
+      <c r="AH66" s="341"/>
+      <c r="AI66" s="341"/>
+    </row>
+    <row r="67" spans="2:35">
       <c r="B67" s="18"/>
-      <c r="C67" s="245"/>
-      <c r="D67" s="246"/>
-      <c r="E67" s="246"/>
-      <c r="F67" s="246"/>
-      <c r="G67" s="246"/>
-      <c r="H67" s="246"/>
-      <c r="I67" s="246"/>
-      <c r="J67" s="247"/>
-      <c r="K67" s="233"/>
-      <c r="L67" s="235"/>
+      <c r="C67" s="312"/>
+      <c r="D67" s="312"/>
+      <c r="E67" s="312"/>
+      <c r="F67" s="312"/>
+      <c r="G67" s="312"/>
+      <c r="H67" s="312"/>
+      <c r="I67" s="312"/>
+      <c r="J67" s="313"/>
+      <c r="K67" s="315"/>
+      <c r="L67" s="317"/>
       <c r="M67" s="123" t="s">
         <v>27</v>
       </c>
@@ -10969,23 +11092,33 @@
       <c r="R67" s="174"/>
       <c r="S67" s="174"/>
       <c r="T67" s="197"/>
-    </row>
-    <row r="68" spans="2:20">
+      <c r="Z67" s="341"/>
+      <c r="AA67" s="342"/>
+      <c r="AB67" s="342"/>
+      <c r="AC67" s="342"/>
+      <c r="AD67" s="342"/>
+      <c r="AE67" s="342"/>
+      <c r="AF67" s="342"/>
+      <c r="AG67" s="342"/>
+      <c r="AH67" s="341"/>
+      <c r="AI67" s="341"/>
+    </row>
+    <row r="68" spans="2:35">
       <c r="B68" s="18"/>
-      <c r="C68" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="243"/>
-      <c r="E68" s="243"/>
-      <c r="F68" s="243"/>
-      <c r="G68" s="243"/>
-      <c r="H68" s="243"/>
-      <c r="I68" s="243"/>
-      <c r="J68" s="244"/>
-      <c r="K68" s="232" t="s">
-        <v>87</v>
-      </c>
-      <c r="L68" s="234">
+      <c r="C68" s="322" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="309"/>
+      <c r="E68" s="309"/>
+      <c r="F68" s="309"/>
+      <c r="G68" s="309"/>
+      <c r="H68" s="309"/>
+      <c r="I68" s="309"/>
+      <c r="J68" s="310"/>
+      <c r="K68" s="314" t="s">
+        <v>73</v>
+      </c>
+      <c r="L68" s="316">
         <v>0</v>
       </c>
       <c r="M68" s="121" t="s">
@@ -10998,19 +11131,29 @@
       <c r="R68" s="172"/>
       <c r="S68" s="172"/>
       <c r="T68" s="195"/>
-    </row>
-    <row r="69" spans="2:20">
+      <c r="Z68" s="342"/>
+      <c r="AA68" s="342"/>
+      <c r="AB68" s="342"/>
+      <c r="AC68" s="342"/>
+      <c r="AD68" s="342"/>
+      <c r="AE68" s="342"/>
+      <c r="AF68" s="342"/>
+      <c r="AG68" s="342"/>
+      <c r="AH68" s="341"/>
+      <c r="AI68" s="341"/>
+    </row>
+    <row r="69" spans="2:35">
       <c r="B69" s="18"/>
-      <c r="C69" s="245"/>
-      <c r="D69" s="246"/>
-      <c r="E69" s="246"/>
-      <c r="F69" s="246"/>
-      <c r="G69" s="246"/>
-      <c r="H69" s="246"/>
-      <c r="I69" s="246"/>
-      <c r="J69" s="247"/>
-      <c r="K69" s="233"/>
-      <c r="L69" s="235"/>
+      <c r="C69" s="312"/>
+      <c r="D69" s="312"/>
+      <c r="E69" s="312"/>
+      <c r="F69" s="312"/>
+      <c r="G69" s="312"/>
+      <c r="H69" s="312"/>
+      <c r="I69" s="312"/>
+      <c r="J69" s="313"/>
+      <c r="K69" s="315"/>
+      <c r="L69" s="317"/>
       <c r="M69" s="123" t="s">
         <v>27</v>
       </c>
@@ -11021,23 +11164,33 @@
       <c r="R69" s="177"/>
       <c r="S69" s="177"/>
       <c r="T69" s="199"/>
-    </row>
-    <row r="70" spans="2:20">
+      <c r="Z69" s="341"/>
+      <c r="AA69" s="342"/>
+      <c r="AB69" s="342"/>
+      <c r="AC69" s="342"/>
+      <c r="AD69" s="342"/>
+      <c r="AE69" s="342"/>
+      <c r="AF69" s="342"/>
+      <c r="AG69" s="342"/>
+      <c r="AH69" s="341"/>
+      <c r="AI69" s="341"/>
+    </row>
+    <row r="70" spans="2:35">
       <c r="B70" s="18"/>
-      <c r="C70" s="240" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="227"/>
-      <c r="E70" s="227"/>
-      <c r="F70" s="227"/>
-      <c r="G70" s="227"/>
-      <c r="H70" s="227"/>
-      <c r="I70" s="227"/>
-      <c r="J70" s="228"/>
-      <c r="K70" s="232" t="s">
-        <v>81</v>
-      </c>
-      <c r="L70" s="234">
+      <c r="C70" s="322" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="309"/>
+      <c r="E70" s="309"/>
+      <c r="F70" s="309"/>
+      <c r="G70" s="309"/>
+      <c r="H70" s="309"/>
+      <c r="I70" s="309"/>
+      <c r="J70" s="310"/>
+      <c r="K70" s="314" t="s">
+        <v>73</v>
+      </c>
+      <c r="L70" s="316">
         <v>0</v>
       </c>
       <c r="M70" s="121" t="s">
@@ -11050,19 +11203,29 @@
       <c r="R70" s="172"/>
       <c r="S70" s="172"/>
       <c r="T70" s="195"/>
-    </row>
-    <row r="71" spans="2:20">
+      <c r="Z70" s="342"/>
+      <c r="AA70" s="342"/>
+      <c r="AB70" s="342"/>
+      <c r="AC70" s="342"/>
+      <c r="AD70" s="342"/>
+      <c r="AE70" s="342"/>
+      <c r="AF70" s="342"/>
+      <c r="AG70" s="342"/>
+      <c r="AH70" s="341"/>
+      <c r="AI70" s="341"/>
+    </row>
+    <row r="71" spans="2:35">
       <c r="B71" s="18"/>
-      <c r="C71" s="230"/>
-      <c r="D71" s="230"/>
-      <c r="E71" s="230"/>
-      <c r="F71" s="230"/>
-      <c r="G71" s="230"/>
-      <c r="H71" s="230"/>
-      <c r="I71" s="230"/>
-      <c r="J71" s="231"/>
-      <c r="K71" s="233"/>
-      <c r="L71" s="235"/>
+      <c r="C71" s="312"/>
+      <c r="D71" s="312"/>
+      <c r="E71" s="312"/>
+      <c r="F71" s="312"/>
+      <c r="G71" s="312"/>
+      <c r="H71" s="312"/>
+      <c r="I71" s="312"/>
+      <c r="J71" s="313"/>
+      <c r="K71" s="315"/>
+      <c r="L71" s="317"/>
       <c r="M71" s="123" t="s">
         <v>27</v>
       </c>
@@ -11073,8 +11236,18 @@
       <c r="R71" s="173"/>
       <c r="S71" s="173"/>
       <c r="T71" s="196"/>
-    </row>
-    <row r="72" spans="2:20">
+      <c r="Z71" s="342"/>
+      <c r="AA71" s="342"/>
+      <c r="AB71" s="342"/>
+      <c r="AC71" s="342"/>
+      <c r="AD71" s="342"/>
+      <c r="AE71" s="342"/>
+      <c r="AF71" s="342"/>
+      <c r="AG71" s="342"/>
+      <c r="AH71" s="341"/>
+      <c r="AI71" s="341"/>
+    </row>
+    <row r="72" spans="2:35">
       <c r="B72" s="22"/>
       <c r="C72" s="126"/>
       <c r="D72" s="127"/>
@@ -11094,6 +11267,64 @@
       <c r="R72" s="174"/>
       <c r="S72" s="174"/>
       <c r="T72" s="197"/>
+      <c r="Z72" s="342"/>
+      <c r="AA72" s="342"/>
+      <c r="AB72" s="342"/>
+      <c r="AC72" s="342"/>
+      <c r="AD72" s="342"/>
+      <c r="AE72" s="342"/>
+      <c r="AF72" s="342"/>
+      <c r="AG72" s="342"/>
+      <c r="AH72" s="341"/>
+      <c r="AI72" s="341"/>
+    </row>
+    <row r="73" spans="2:35">
+      <c r="Z73" s="342"/>
+      <c r="AA73" s="342"/>
+      <c r="AB73" s="342"/>
+      <c r="AC73" s="342"/>
+      <c r="AD73" s="342"/>
+      <c r="AE73" s="342"/>
+      <c r="AF73" s="342"/>
+      <c r="AG73" s="342"/>
+      <c r="AH73" s="341"/>
+      <c r="AI73" s="341"/>
+    </row>
+    <row r="74" spans="2:35">
+      <c r="Z74" s="342"/>
+      <c r="AA74" s="342"/>
+      <c r="AB74" s="342"/>
+      <c r="AC74" s="342"/>
+      <c r="AD74" s="342"/>
+      <c r="AE74" s="342"/>
+      <c r="AF74" s="342"/>
+      <c r="AG74" s="342"/>
+      <c r="AH74" s="341"/>
+      <c r="AI74" s="341"/>
+    </row>
+    <row r="75" spans="2:35">
+      <c r="Z75" s="341"/>
+      <c r="AA75" s="342"/>
+      <c r="AB75" s="342"/>
+      <c r="AC75" s="342"/>
+      <c r="AD75" s="342"/>
+      <c r="AE75" s="342"/>
+      <c r="AF75" s="342"/>
+      <c r="AG75" s="342"/>
+      <c r="AH75" s="341"/>
+      <c r="AI75" s="341"/>
+    </row>
+    <row r="76" spans="2:35">
+      <c r="Z76" s="342"/>
+      <c r="AA76" s="342"/>
+      <c r="AB76" s="342"/>
+      <c r="AC76" s="342"/>
+      <c r="AD76" s="342"/>
+      <c r="AE76" s="342"/>
+      <c r="AF76" s="342"/>
+      <c r="AG76" s="342"/>
+      <c r="AH76" s="341"/>
+      <c r="AI76" s="341"/>
     </row>
   </sheetData>
   <mergeCells count="60">
@@ -11187,7 +11418,7 @@
   <sheetData>
     <row r="23" spans="2:17" ht="24">
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:17">
@@ -11216,7 +11447,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="3"/>
       <c r="N25" s="182" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -11279,7 +11510,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="116" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D28" s="117"/>
       <c r="E28" s="117"/>
@@ -11302,7 +11533,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="188" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E29" s="117"/>
       <c r="F29" s="117"/>
@@ -11320,20 +11551,20 @@
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="18"/>
-      <c r="C30" s="257" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="252"/>
-      <c r="E30" s="252"/>
-      <c r="F30" s="252"/>
-      <c r="G30" s="252"/>
-      <c r="H30" s="252"/>
-      <c r="I30" s="252"/>
-      <c r="J30" s="253"/>
-      <c r="K30" s="232" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="241">
+      <c r="C30" s="339" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="334"/>
+      <c r="E30" s="334"/>
+      <c r="F30" s="334"/>
+      <c r="G30" s="334"/>
+      <c r="H30" s="334"/>
+      <c r="I30" s="334"/>
+      <c r="J30" s="335"/>
+      <c r="K30" s="314" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="323">
         <v>0</v>
       </c>
       <c r="M30" s="121" t="s">
@@ -11346,16 +11577,16 @@
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="18"/>
-      <c r="C31" s="254"/>
-      <c r="D31" s="255"/>
-      <c r="E31" s="255"/>
-      <c r="F31" s="255"/>
-      <c r="G31" s="255"/>
-      <c r="H31" s="255"/>
-      <c r="I31" s="255"/>
-      <c r="J31" s="256"/>
-      <c r="K31" s="233"/>
-      <c r="L31" s="233"/>
+      <c r="C31" s="336"/>
+      <c r="D31" s="337"/>
+      <c r="E31" s="337"/>
+      <c r="F31" s="337"/>
+      <c r="G31" s="337"/>
+      <c r="H31" s="337"/>
+      <c r="I31" s="337"/>
+      <c r="J31" s="338"/>
+      <c r="K31" s="315"/>
+      <c r="L31" s="315"/>
       <c r="M31" s="123" t="s">
         <v>27</v>
       </c>
@@ -11370,7 +11601,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="188" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E32" s="117"/>
       <c r="F32" s="117"/>
@@ -11388,20 +11619,20 @@
     </row>
     <row r="33" spans="2:17">
       <c r="B33" s="18"/>
-      <c r="C33" s="257" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="252"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="252"/>
-      <c r="G33" s="252"/>
-      <c r="H33" s="252"/>
-      <c r="I33" s="252"/>
-      <c r="J33" s="253"/>
-      <c r="K33" s="232" t="s">
-        <v>53</v>
-      </c>
-      <c r="L33" s="241">
+      <c r="C33" s="339" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="334"/>
+      <c r="E33" s="334"/>
+      <c r="F33" s="334"/>
+      <c r="G33" s="334"/>
+      <c r="H33" s="334"/>
+      <c r="I33" s="334"/>
+      <c r="J33" s="335"/>
+      <c r="K33" s="314" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="323">
         <v>0</v>
       </c>
       <c r="M33" s="121" t="s">
@@ -11414,16 +11645,16 @@
     </row>
     <row r="34" spans="2:17">
       <c r="B34" s="18"/>
-      <c r="C34" s="254"/>
-      <c r="D34" s="255"/>
-      <c r="E34" s="255"/>
-      <c r="F34" s="255"/>
-      <c r="G34" s="255"/>
-      <c r="H34" s="255"/>
-      <c r="I34" s="255"/>
-      <c r="J34" s="256"/>
-      <c r="K34" s="233"/>
-      <c r="L34" s="233"/>
+      <c r="C34" s="336"/>
+      <c r="D34" s="337"/>
+      <c r="E34" s="337"/>
+      <c r="F34" s="337"/>
+      <c r="G34" s="337"/>
+      <c r="H34" s="337"/>
+      <c r="I34" s="337"/>
+      <c r="J34" s="338"/>
+      <c r="K34" s="315"/>
+      <c r="L34" s="315"/>
       <c r="M34" s="123" t="s">
         <v>27</v>
       </c>
@@ -11434,20 +11665,20 @@
     </row>
     <row r="35" spans="2:17">
       <c r="B35" s="18"/>
-      <c r="C35" s="251" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="252"/>
-      <c r="E35" s="252"/>
-      <c r="F35" s="252"/>
-      <c r="G35" s="252"/>
-      <c r="H35" s="252"/>
-      <c r="I35" s="252"/>
-      <c r="J35" s="253"/>
-      <c r="K35" s="232" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="241">
+      <c r="C35" s="333" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="334"/>
+      <c r="E35" s="334"/>
+      <c r="F35" s="334"/>
+      <c r="G35" s="334"/>
+      <c r="H35" s="334"/>
+      <c r="I35" s="334"/>
+      <c r="J35" s="335"/>
+      <c r="K35" s="314" t="s">
+        <v>52</v>
+      </c>
+      <c r="L35" s="323">
         <v>0</v>
       </c>
       <c r="M35" s="121" t="s">
@@ -11460,16 +11691,16 @@
     </row>
     <row r="36" spans="2:17">
       <c r="B36" s="18"/>
-      <c r="C36" s="254"/>
-      <c r="D36" s="255"/>
-      <c r="E36" s="255"/>
-      <c r="F36" s="255"/>
-      <c r="G36" s="255"/>
-      <c r="H36" s="255"/>
-      <c r="I36" s="255"/>
-      <c r="J36" s="256"/>
-      <c r="K36" s="233"/>
-      <c r="L36" s="233"/>
+      <c r="C36" s="336"/>
+      <c r="D36" s="337"/>
+      <c r="E36" s="337"/>
+      <c r="F36" s="337"/>
+      <c r="G36" s="337"/>
+      <c r="H36" s="337"/>
+      <c r="I36" s="337"/>
+      <c r="J36" s="338"/>
+      <c r="K36" s="315"/>
+      <c r="L36" s="315"/>
       <c r="M36" s="123" t="s">
         <v>27</v>
       </c>
@@ -11537,7 +11768,7 @@
   <sheetData>
     <row r="23" spans="2:28" ht="24">
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:28">
@@ -11566,7 +11797,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="3"/>
       <c r="N25" s="211" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O25" s="209"/>
       <c r="P25" s="209"/>
@@ -11656,7 +11887,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="116" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D28" s="117"/>
       <c r="E28" s="117"/>
@@ -11686,20 +11917,20 @@
     </row>
     <row r="29" spans="2:28">
       <c r="B29" s="18"/>
-      <c r="C29" s="258" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="227"/>
-      <c r="E29" s="227"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="227"/>
-      <c r="H29" s="227"/>
-      <c r="I29" s="227"/>
-      <c r="J29" s="228"/>
-      <c r="K29" s="232" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="241">
+      <c r="C29" s="340" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="309"/>
+      <c r="E29" s="309"/>
+      <c r="F29" s="309"/>
+      <c r="G29" s="309"/>
+      <c r="H29" s="309"/>
+      <c r="I29" s="309"/>
+      <c r="J29" s="310"/>
+      <c r="K29" s="314" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="323">
         <v>0</v>
       </c>
       <c r="M29" s="121" t="s">
@@ -11723,16 +11954,16 @@
     </row>
     <row r="30" spans="2:28">
       <c r="B30" s="18"/>
-      <c r="C30" s="229"/>
-      <c r="D30" s="230"/>
-      <c r="E30" s="230"/>
-      <c r="F30" s="230"/>
-      <c r="G30" s="230"/>
-      <c r="H30" s="230"/>
-      <c r="I30" s="230"/>
-      <c r="J30" s="231"/>
-      <c r="K30" s="233"/>
-      <c r="L30" s="233"/>
+      <c r="C30" s="311"/>
+      <c r="D30" s="312"/>
+      <c r="E30" s="312"/>
+      <c r="F30" s="312"/>
+      <c r="G30" s="312"/>
+      <c r="H30" s="312"/>
+      <c r="I30" s="312"/>
+      <c r="J30" s="313"/>
+      <c r="K30" s="315"/>
+      <c r="L30" s="315"/>
       <c r="M30" s="123" t="s">
         <v>27</v>
       </c>
@@ -11754,20 +11985,20 @@
     </row>
     <row r="31" spans="2:28">
       <c r="B31" s="18"/>
-      <c r="C31" s="226" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="227"/>
-      <c r="H31" s="227"/>
-      <c r="I31" s="227"/>
-      <c r="J31" s="228"/>
-      <c r="K31" s="232" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="241">
+      <c r="C31" s="308" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="309"/>
+      <c r="E31" s="309"/>
+      <c r="F31" s="309"/>
+      <c r="G31" s="309"/>
+      <c r="H31" s="309"/>
+      <c r="I31" s="309"/>
+      <c r="J31" s="310"/>
+      <c r="K31" s="314" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="323">
         <v>0</v>
       </c>
       <c r="M31" s="121" t="s">
@@ -11791,16 +12022,16 @@
     </row>
     <row r="32" spans="2:28">
       <c r="B32" s="18"/>
-      <c r="C32" s="229"/>
-      <c r="D32" s="230"/>
-      <c r="E32" s="230"/>
-      <c r="F32" s="230"/>
-      <c r="G32" s="230"/>
-      <c r="H32" s="230"/>
-      <c r="I32" s="230"/>
-      <c r="J32" s="231"/>
-      <c r="K32" s="233"/>
-      <c r="L32" s="233"/>
+      <c r="C32" s="311"/>
+      <c r="D32" s="312"/>
+      <c r="E32" s="312"/>
+      <c r="F32" s="312"/>
+      <c r="G32" s="312"/>
+      <c r="H32" s="312"/>
+      <c r="I32" s="312"/>
+      <c r="J32" s="313"/>
+      <c r="K32" s="315"/>
+      <c r="L32" s="315"/>
       <c r="M32" s="123" t="s">
         <v>27</v>
       </c>
@@ -11822,20 +12053,20 @@
     </row>
     <row r="33" spans="2:28">
       <c r="B33" s="18"/>
-      <c r="C33" s="226" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="227"/>
-      <c r="E33" s="227"/>
-      <c r="F33" s="227"/>
-      <c r="G33" s="227"/>
-      <c r="H33" s="227"/>
-      <c r="I33" s="227"/>
-      <c r="J33" s="228"/>
-      <c r="K33" s="232" t="s">
-        <v>53</v>
-      </c>
-      <c r="L33" s="241">
+      <c r="C33" s="308" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="309"/>
+      <c r="E33" s="309"/>
+      <c r="F33" s="309"/>
+      <c r="G33" s="309"/>
+      <c r="H33" s="309"/>
+      <c r="I33" s="309"/>
+      <c r="J33" s="310"/>
+      <c r="K33" s="314" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="323">
         <v>0</v>
       </c>
       <c r="M33" s="121" t="s">
@@ -11859,16 +12090,16 @@
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="18"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="230"/>
-      <c r="F34" s="230"/>
-      <c r="G34" s="230"/>
-      <c r="H34" s="230"/>
-      <c r="I34" s="230"/>
-      <c r="J34" s="231"/>
-      <c r="K34" s="233"/>
-      <c r="L34" s="233"/>
+      <c r="C34" s="311"/>
+      <c r="D34" s="312"/>
+      <c r="E34" s="312"/>
+      <c r="F34" s="312"/>
+      <c r="G34" s="312"/>
+      <c r="H34" s="312"/>
+      <c r="I34" s="312"/>
+      <c r="J34" s="313"/>
+      <c r="K34" s="315"/>
+      <c r="L34" s="315"/>
       <c r="M34" s="123" t="s">
         <v>27</v>
       </c>

--- a/Dグループ_スケジュール.xlsx
+++ b/Dグループ_スケジュール.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GIT\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\グループ開発　クローン\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96910EA5-3C4E-419F-B021-AA17486FCB83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5657AB-BD2D-4B53-A8B7-2FFC15C17F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="108">
   <si>
     <t>【グループ開発（マイルストーン）】</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -741,7 +741,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,6 +790,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="87">
     <border>
@@ -1896,7 +1908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2378,15 +2390,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2418,9 +2421,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2429,16 +2429,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2465,61 +2456,10 @@
     <xf numFmtId="179" fontId="5" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="2" borderId="12" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2784,9 +2724,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="81" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2805,12 +2757,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2847,6 +2793,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="74" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2859,36 +2835,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="74" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2916,10 +2862,109 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2947,13 +2992,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>8035</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
+      <xdr:rowOff>21980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>263768</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>307730</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:rowOff>146537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2970,8 +3015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3085343" y="1824404"/>
-          <a:ext cx="1178925" cy="117084"/>
+          <a:off x="3085343" y="1655884"/>
+          <a:ext cx="299695" cy="124557"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3027,16 +3072,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>14188</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6860</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>36634</xdr:rowOff>
+      <xdr:rowOff>21980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>295602</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>300404</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>137950</xdr:rowOff>
+      <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3053,8 +3098,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5245611" y="2344615"/>
-          <a:ext cx="1820068" cy="101316"/>
+          <a:off x="4622822" y="2161442"/>
+          <a:ext cx="909005" cy="139212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3205,15 +3250,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>14655</xdr:colOff>
+      <xdr:colOff>14656</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>36072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9096</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>300404</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>145927</xdr:rowOff>
+      <xdr:rowOff>153865</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3230,8 +3275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4322886" y="2175534"/>
-          <a:ext cx="917633" cy="109855"/>
+          <a:off x="4322887" y="2007014"/>
+          <a:ext cx="285748" cy="117793"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3287,16 +3332,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>36634</xdr:rowOff>
+      <xdr:rowOff>21980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>300404</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>307730</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
+      <xdr:rowOff>161191</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3313,8 +3358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7392865" y="2681653"/>
-          <a:ext cx="908539" cy="110051"/>
+          <a:off x="6161941" y="2498480"/>
+          <a:ext cx="1531327" cy="139211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3370,16 +3415,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>7328</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14655</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>36830</xdr:rowOff>
+      <xdr:rowOff>58810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>7328</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3396,8 +3441,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6469674" y="2513330"/>
-          <a:ext cx="923192" cy="109855"/>
+          <a:off x="4938347" y="2366791"/>
+          <a:ext cx="600807" cy="117036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3453,16 +3498,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>14654</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>14653</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>29309</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>7326</xdr:colOff>
+      <xdr:colOff>7325</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>146783</xdr:rowOff>
+      <xdr:rowOff>161193</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3479,8 +3524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8015654" y="2674328"/>
-          <a:ext cx="608134" cy="117474"/>
+          <a:off x="8323384" y="2674328"/>
+          <a:ext cx="300403" cy="131884"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3617,6 +3662,432 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>299695</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649711BD-C601-42CA-A823-A8432CD7DDBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="1633904"/>
+          <a:ext cx="299695" cy="124557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1003">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9390C24B-A088-43D5-8431-258DABB59379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6154615" y="2161442"/>
+          <a:ext cx="1516673" cy="124558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1003">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>306265</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EFB41D9-F3A9-4EBE-981D-11FC25D659D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="2674326"/>
+          <a:ext cx="300403" cy="115766"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1003">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDDED80-0D1E-4D2E-8F71-4C2286CB9FA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6161942" y="2344615"/>
+          <a:ext cx="923193" cy="124558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1003">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D0EAFF-60A0-4B66-8A59-11477CEAA81D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5231423" y="2513134"/>
+          <a:ext cx="315058" cy="109904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1003">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3624,28 +4095,28 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>82257</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB2C1D5C-C207-4AD1-8128-4B25541339BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0827ECF4-A86B-46FB-B32B-62FBDD21EAE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3656,18 +4127,29 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="704850" y="714375"/>
-          <a:ext cx="10058400" cy="3282657"/>
+          <a:off x="990600" y="561975"/>
+          <a:ext cx="9839325" cy="3362325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3705,7 +4187,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s3101"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s3109"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3956,28 +4438,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>177507</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687BF652-3625-4626-913E-A847F51EB5E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4126E86-6CBB-44A7-9F51-A1135DE6841F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3988,18 +4470,29 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="219075" y="495300"/>
-          <a:ext cx="10058400" cy="3282657"/>
+          <a:off x="361950" y="390525"/>
+          <a:ext cx="9839325" cy="3362325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4125,27 +4618,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
+      <xdr:colOff>235323</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>51547</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66568</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>322169</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>94690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C755AB-FAA0-4813-B9D6-04057D1D8CE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E64ACB8-1ADC-41B7-9CF7-CDEDCAD5EEEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4156,18 +4649,29 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="324971" y="414617"/>
-          <a:ext cx="10058400" cy="3282657"/>
+          <a:off x="537882" y="537883"/>
+          <a:ext cx="9757522" cy="3389219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4292,28 +4796,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>82257</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51CA02B-A4AC-4426-A819-8D7F4DF517BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756013F0-A817-4F76-9DBA-3D54ECCF99AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4324,18 +4828,29 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="180975" y="400050"/>
-          <a:ext cx="10058400" cy="3282657"/>
+          <a:off x="533400" y="333375"/>
+          <a:ext cx="9839325" cy="3362325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4373,7 +4888,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s6171"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s6179"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4676,28 +5191,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>129882</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B04970-575C-48A1-B4CB-7BD61AE81F17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95089152-1E13-4D7C-AE42-D793D82B4CAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4708,18 +5223,29 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="133350" y="447675"/>
-          <a:ext cx="10058400" cy="3282657"/>
+          <a:off x="666750" y="361950"/>
+          <a:ext cx="9839325" cy="3362325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4757,7 +5283,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s7193"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s7201"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5060,28 +5586,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>25107</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B786CE9B-527F-4ACC-9349-821E09FB7380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A61E7B-41DD-47FF-BDAA-C6151441CFAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5092,18 +5618,29 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="542925" y="342900"/>
-          <a:ext cx="10058400" cy="3282657"/>
+          <a:off x="723900" y="323850"/>
+          <a:ext cx="9839325" cy="3362325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5141,7 +5678,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s8217"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s8225"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5445,27 +5982,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>72732</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698F22CA-0DA0-43EE-AA88-A61CAA4A32FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5C7638-5883-4363-BCCF-A513AE66F1A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5476,18 +6013,29 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="371475" y="390525"/>
-          <a:ext cx="10058400" cy="3282657"/>
+          <a:off x="542925" y="552450"/>
+          <a:ext cx="9839325" cy="3362325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5789,7 +6337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C3AED9-FED9-43A3-BF4F-D0851E0C8988}">
   <dimension ref="B2:AB15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="15.75"/>
   <cols>
@@ -5814,26 +6362,26 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="297">
+      <c r="K4" s="275">
         <v>2020</v>
       </c>
-      <c r="L4" s="297"/>
-      <c r="M4" s="297"/>
-      <c r="N4" s="297"/>
-      <c r="O4" s="297"/>
-      <c r="P4" s="297"/>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="297"/>
-      <c r="S4" s="297"/>
-      <c r="T4" s="297"/>
-      <c r="U4" s="297"/>
-      <c r="V4" s="297"/>
-      <c r="W4" s="297"/>
-      <c r="X4" s="297"/>
-      <c r="Y4" s="297"/>
-      <c r="Z4" s="297"/>
-      <c r="AA4" s="297"/>
-      <c r="AB4" s="297"/>
+      <c r="L4" s="275"/>
+      <c r="M4" s="275"/>
+      <c r="N4" s="275"/>
+      <c r="O4" s="275"/>
+      <c r="P4" s="275"/>
+      <c r="Q4" s="275"/>
+      <c r="R4" s="275"/>
+      <c r="S4" s="275"/>
+      <c r="T4" s="275"/>
+      <c r="U4" s="275"/>
+      <c r="V4" s="275"/>
+      <c r="W4" s="275"/>
+      <c r="X4" s="275"/>
+      <c r="Y4" s="275"/>
+      <c r="Z4" s="275"/>
+      <c r="AA4" s="275"/>
+      <c r="AB4" s="275"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="6"/>
@@ -5845,26 +6393,26 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="297">
+      <c r="K5" s="275">
         <v>6</v>
       </c>
-      <c r="L5" s="297"/>
-      <c r="M5" s="297"/>
-      <c r="N5" s="297"/>
-      <c r="O5" s="297"/>
-      <c r="P5" s="297"/>
-      <c r="Q5" s="297"/>
-      <c r="R5" s="297"/>
-      <c r="S5" s="297"/>
-      <c r="T5" s="297"/>
-      <c r="U5" s="297"/>
-      <c r="V5" s="297"/>
-      <c r="W5" s="297"/>
-      <c r="X5" s="297"/>
-      <c r="Y5" s="297"/>
-      <c r="Z5" s="297"/>
-      <c r="AA5" s="297"/>
-      <c r="AB5" s="297"/>
+      <c r="L5" s="275"/>
+      <c r="M5" s="275"/>
+      <c r="N5" s="275"/>
+      <c r="O5" s="275"/>
+      <c r="P5" s="275"/>
+      <c r="Q5" s="275"/>
+      <c r="R5" s="275"/>
+      <c r="S5" s="275"/>
+      <c r="T5" s="275"/>
+      <c r="U5" s="275"/>
+      <c r="V5" s="275"/>
+      <c r="W5" s="275"/>
+      <c r="X5" s="275"/>
+      <c r="Y5" s="275"/>
+      <c r="Z5" s="275"/>
+      <c r="AA5" s="275"/>
+      <c r="AB5" s="275"/>
     </row>
     <row r="6" spans="2:28">
       <c r="B6" s="9"/>
@@ -6244,7 +6792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D88AC82-2031-4E69-AB30-833C3B0C9F32}">
   <dimension ref="C7:AE63"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="15.75"/>
   <cols>
@@ -6554,7 +7104,7 @@
       <c r="J34" s="82"/>
       <c r="K34" s="82"/>
       <c r="L34" s="83"/>
-      <c r="M34" s="304" t="s">
+      <c r="M34" s="276" t="s">
         <v>73</v>
       </c>
       <c r="N34" s="80"/>
@@ -6589,7 +7139,7 @@
       <c r="J35" s="85"/>
       <c r="K35" s="85"/>
       <c r="L35" s="86"/>
-      <c r="M35" s="305"/>
+      <c r="M35" s="277"/>
       <c r="N35" s="87"/>
       <c r="O35" s="66" t="s">
         <v>27</v>
@@ -6624,7 +7174,7 @@
       <c r="J36" s="82"/>
       <c r="K36" s="82"/>
       <c r="L36" s="83"/>
-      <c r="M36" s="304" t="s">
+      <c r="M36" s="276" t="s">
         <v>74</v>
       </c>
       <c r="N36" s="80"/>
@@ -6659,7 +7209,7 @@
       <c r="J37" s="85"/>
       <c r="K37" s="85"/>
       <c r="L37" s="86"/>
-      <c r="M37" s="305"/>
+      <c r="M37" s="277"/>
       <c r="N37" s="87"/>
       <c r="O37" s="66" t="s">
         <v>27</v>
@@ -6694,7 +7244,7 @@
       <c r="J38" s="82"/>
       <c r="K38" s="82"/>
       <c r="L38" s="83"/>
-      <c r="M38" s="304" t="s">
+      <c r="M38" s="276" t="s">
         <v>76</v>
       </c>
       <c r="N38" s="80"/>
@@ -6729,7 +7279,7 @@
       <c r="J39" s="85"/>
       <c r="K39" s="85"/>
       <c r="L39" s="86"/>
-      <c r="M39" s="305"/>
+      <c r="M39" s="277"/>
       <c r="N39" s="87"/>
       <c r="O39" s="66" t="s">
         <v>27</v>
@@ -6764,7 +7314,7 @@
       <c r="J40" s="89"/>
       <c r="K40" s="89"/>
       <c r="L40" s="90"/>
-      <c r="M40" s="304" t="s">
+      <c r="M40" s="276" t="s">
         <v>76</v>
       </c>
       <c r="N40" s="91"/>
@@ -6799,7 +7349,7 @@
       <c r="J41" s="89"/>
       <c r="K41" s="89"/>
       <c r="L41" s="90"/>
-      <c r="M41" s="305"/>
+      <c r="M41" s="277"/>
       <c r="N41" s="91"/>
       <c r="O41" s="66" t="s">
         <v>27</v>
@@ -6834,7 +7384,7 @@
       <c r="J42" s="82"/>
       <c r="K42" s="82"/>
       <c r="L42" s="83"/>
-      <c r="M42" s="304" t="s">
+      <c r="M42" s="276" t="s">
         <v>77</v>
       </c>
       <c r="N42" s="80"/>
@@ -6869,7 +7419,7 @@
       <c r="J43" s="85"/>
       <c r="K43" s="85"/>
       <c r="L43" s="86"/>
-      <c r="M43" s="305"/>
+      <c r="M43" s="277"/>
       <c r="N43" s="87"/>
       <c r="O43" s="66" t="s">
         <v>27</v>
@@ -6904,7 +7454,7 @@
       <c r="J44" s="82"/>
       <c r="K44" s="82"/>
       <c r="L44" s="83"/>
-      <c r="M44" s="304" t="s">
+      <c r="M44" s="276" t="s">
         <v>75</v>
       </c>
       <c r="N44" s="80"/>
@@ -6939,7 +7489,7 @@
       <c r="J45" s="85"/>
       <c r="K45" s="85"/>
       <c r="L45" s="86"/>
-      <c r="M45" s="305"/>
+      <c r="M45" s="277"/>
       <c r="N45" s="87"/>
       <c r="O45" s="66" t="s">
         <v>27</v>
@@ -6974,7 +7524,7 @@
       <c r="J46" s="82"/>
       <c r="K46" s="82"/>
       <c r="L46" s="83"/>
-      <c r="M46" s="304"/>
+      <c r="M46" s="276"/>
       <c r="N46" s="91"/>
       <c r="O46" s="62" t="s">
         <v>26</v>
@@ -7007,7 +7557,7 @@
       <c r="J47" s="85"/>
       <c r="K47" s="85"/>
       <c r="L47" s="86"/>
-      <c r="M47" s="305"/>
+      <c r="M47" s="277"/>
       <c r="N47" s="87"/>
       <c r="O47" s="66" t="s">
         <v>27</v>
@@ -7042,7 +7592,7 @@
       <c r="J48" s="89"/>
       <c r="K48" s="89"/>
       <c r="L48" s="90"/>
-      <c r="M48" s="304"/>
+      <c r="M48" s="276"/>
       <c r="N48" s="91"/>
       <c r="O48" s="62" t="s">
         <v>26</v>
@@ -7075,7 +7625,7 @@
       <c r="J49" s="85"/>
       <c r="K49" s="85"/>
       <c r="L49" s="86"/>
-      <c r="M49" s="305"/>
+      <c r="M49" s="277"/>
       <c r="N49" s="91"/>
       <c r="O49" s="66" t="s">
         <v>27</v>
@@ -7103,7 +7653,7 @@
       <c r="E50" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="M50" s="304"/>
+      <c r="M50" s="276"/>
       <c r="N50" s="80"/>
       <c r="O50" s="62" t="s">
         <v>26</v>
@@ -7128,7 +7678,7 @@
     <row r="51" spans="3:31">
       <c r="C51" s="25"/>
       <c r="D51" s="55"/>
-      <c r="M51" s="305"/>
+      <c r="M51" s="277"/>
       <c r="N51" s="87"/>
       <c r="O51" s="66" t="s">
         <v>27</v>
@@ -7219,20 +7769,20 @@
     <row r="54" spans="3:31">
       <c r="C54" s="25"/>
       <c r="D54" s="55"/>
-      <c r="E54" s="298" t="s">
+      <c r="E54" s="278" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="299"/>
-      <c r="G54" s="299"/>
-      <c r="H54" s="299"/>
-      <c r="I54" s="299"/>
-      <c r="J54" s="299"/>
-      <c r="K54" s="299"/>
-      <c r="L54" s="300"/>
-      <c r="M54" s="304" t="s">
+      <c r="F54" s="279"/>
+      <c r="G54" s="279"/>
+      <c r="H54" s="279"/>
+      <c r="I54" s="279"/>
+      <c r="J54" s="279"/>
+      <c r="K54" s="279"/>
+      <c r="L54" s="280"/>
+      <c r="M54" s="276" t="s">
         <v>33</v>
       </c>
-      <c r="N54" s="306"/>
+      <c r="N54" s="284"/>
       <c r="O54" s="62" t="s">
         <v>26</v>
       </c>
@@ -7256,16 +7806,16 @@
     <row r="55" spans="3:31">
       <c r="C55" s="25"/>
       <c r="D55" s="55"/>
-      <c r="E55" s="301"/>
-      <c r="F55" s="302"/>
-      <c r="G55" s="302"/>
-      <c r="H55" s="302"/>
-      <c r="I55" s="302"/>
-      <c r="J55" s="302"/>
-      <c r="K55" s="302"/>
-      <c r="L55" s="303"/>
-      <c r="M55" s="305"/>
-      <c r="N55" s="307"/>
+      <c r="E55" s="281"/>
+      <c r="F55" s="282"/>
+      <c r="G55" s="282"/>
+      <c r="H55" s="282"/>
+      <c r="I55" s="282"/>
+      <c r="J55" s="282"/>
+      <c r="K55" s="282"/>
+      <c r="L55" s="283"/>
+      <c r="M55" s="277"/>
+      <c r="N55" s="285"/>
       <c r="O55" s="66" t="s">
         <v>27</v>
       </c>
@@ -7289,20 +7839,20 @@
     <row r="56" spans="3:31">
       <c r="C56" s="25"/>
       <c r="D56" s="55"/>
-      <c r="E56" s="298" t="s">
+      <c r="E56" s="278" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="299"/>
-      <c r="G56" s="299"/>
-      <c r="H56" s="299"/>
-      <c r="I56" s="299"/>
-      <c r="J56" s="299"/>
-      <c r="K56" s="299"/>
-      <c r="L56" s="300"/>
-      <c r="M56" s="304" t="s">
+      <c r="F56" s="279"/>
+      <c r="G56" s="279"/>
+      <c r="H56" s="279"/>
+      <c r="I56" s="279"/>
+      <c r="J56" s="279"/>
+      <c r="K56" s="279"/>
+      <c r="L56" s="280"/>
+      <c r="M56" s="276" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="306"/>
+      <c r="N56" s="284"/>
       <c r="O56" s="62" t="s">
         <v>26</v>
       </c>
@@ -7326,16 +7876,16 @@
     <row r="57" spans="3:31">
       <c r="C57" s="25"/>
       <c r="D57" s="55"/>
-      <c r="E57" s="301"/>
-      <c r="F57" s="302"/>
-      <c r="G57" s="302"/>
-      <c r="H57" s="302"/>
-      <c r="I57" s="302"/>
-      <c r="J57" s="302"/>
-      <c r="K57" s="302"/>
-      <c r="L57" s="303"/>
-      <c r="M57" s="305"/>
-      <c r="N57" s="307"/>
+      <c r="E57" s="281"/>
+      <c r="F57" s="282"/>
+      <c r="G57" s="282"/>
+      <c r="H57" s="282"/>
+      <c r="I57" s="282"/>
+      <c r="J57" s="282"/>
+      <c r="K57" s="282"/>
+      <c r="L57" s="283"/>
+      <c r="M57" s="277"/>
+      <c r="N57" s="285"/>
       <c r="O57" s="66" t="s">
         <v>27</v>
       </c>
@@ -7359,17 +7909,17 @@
     <row r="58" spans="3:31">
       <c r="C58" s="25"/>
       <c r="D58" s="55"/>
-      <c r="E58" s="298" t="s">
+      <c r="E58" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="F58" s="299"/>
-      <c r="G58" s="299"/>
-      <c r="H58" s="299"/>
-      <c r="I58" s="299"/>
-      <c r="J58" s="299"/>
-      <c r="K58" s="299"/>
-      <c r="L58" s="300"/>
-      <c r="M58" s="304" t="s">
+      <c r="F58" s="279"/>
+      <c r="G58" s="279"/>
+      <c r="H58" s="279"/>
+      <c r="I58" s="279"/>
+      <c r="J58" s="279"/>
+      <c r="K58" s="279"/>
+      <c r="L58" s="280"/>
+      <c r="M58" s="276" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="51"/>
@@ -7396,15 +7946,15 @@
     <row r="59" spans="3:31">
       <c r="C59" s="25"/>
       <c r="D59" s="55"/>
-      <c r="E59" s="301"/>
-      <c r="F59" s="302"/>
-      <c r="G59" s="302"/>
-      <c r="H59" s="302"/>
-      <c r="I59" s="302"/>
-      <c r="J59" s="302"/>
-      <c r="K59" s="302"/>
-      <c r="L59" s="303"/>
-      <c r="M59" s="305"/>
+      <c r="E59" s="281"/>
+      <c r="F59" s="282"/>
+      <c r="G59" s="282"/>
+      <c r="H59" s="282"/>
+      <c r="I59" s="282"/>
+      <c r="J59" s="282"/>
+      <c r="K59" s="282"/>
+      <c r="L59" s="283"/>
+      <c r="M59" s="277"/>
       <c r="N59" s="76"/>
       <c r="O59" s="66" t="s">
         <v>27</v>
@@ -7429,20 +7979,20 @@
     <row r="60" spans="3:31">
       <c r="C60" s="25"/>
       <c r="D60" s="55"/>
-      <c r="E60" s="298" t="s">
+      <c r="E60" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="299"/>
-      <c r="G60" s="299"/>
-      <c r="H60" s="299"/>
-      <c r="I60" s="299"/>
-      <c r="J60" s="299"/>
-      <c r="K60" s="299"/>
-      <c r="L60" s="300"/>
-      <c r="M60" s="304" t="s">
+      <c r="F60" s="279"/>
+      <c r="G60" s="279"/>
+      <c r="H60" s="279"/>
+      <c r="I60" s="279"/>
+      <c r="J60" s="279"/>
+      <c r="K60" s="279"/>
+      <c r="L60" s="280"/>
+      <c r="M60" s="276" t="s">
         <v>33</v>
       </c>
-      <c r="N60" s="304"/>
+      <c r="N60" s="276"/>
       <c r="O60" s="62" t="s">
         <v>26</v>
       </c>
@@ -7466,16 +8016,16 @@
     <row r="61" spans="3:31">
       <c r="C61" s="25"/>
       <c r="D61" s="55"/>
-      <c r="E61" s="301"/>
-      <c r="F61" s="302"/>
-      <c r="G61" s="302"/>
-      <c r="H61" s="302"/>
-      <c r="I61" s="302"/>
-      <c r="J61" s="302"/>
-      <c r="K61" s="302"/>
-      <c r="L61" s="303"/>
-      <c r="M61" s="305"/>
-      <c r="N61" s="305"/>
+      <c r="E61" s="281"/>
+      <c r="F61" s="282"/>
+      <c r="G61" s="282"/>
+      <c r="H61" s="282"/>
+      <c r="I61" s="282"/>
+      <c r="J61" s="282"/>
+      <c r="K61" s="282"/>
+      <c r="L61" s="283"/>
+      <c r="M61" s="277"/>
+      <c r="N61" s="277"/>
       <c r="O61" s="66" t="s">
         <v>27</v>
       </c>
@@ -7560,15 +8110,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M36:M37"/>
     <mergeCell ref="E60:L61"/>
     <mergeCell ref="M60:M61"/>
     <mergeCell ref="N60:N61"/>
@@ -7580,6 +8121,15 @@
     <mergeCell ref="N56:N57"/>
     <mergeCell ref="E58:L59"/>
     <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M36:M37"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -7786,20 +8336,20 @@
     </row>
     <row r="29" spans="2:28">
       <c r="B29" s="18"/>
-      <c r="C29" s="308" t="s">
+      <c r="C29" s="286" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="309"/>
-      <c r="E29" s="309"/>
-      <c r="F29" s="309"/>
-      <c r="G29" s="309"/>
-      <c r="H29" s="309"/>
-      <c r="I29" s="309"/>
-      <c r="J29" s="310"/>
-      <c r="K29" s="314" t="s">
+      <c r="D29" s="287"/>
+      <c r="E29" s="287"/>
+      <c r="F29" s="287"/>
+      <c r="G29" s="287"/>
+      <c r="H29" s="287"/>
+      <c r="I29" s="287"/>
+      <c r="J29" s="288"/>
+      <c r="K29" s="292" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="316"/>
+      <c r="L29" s="294"/>
       <c r="M29" s="121" t="s">
         <v>26</v>
       </c>
@@ -7821,16 +8371,16 @@
     </row>
     <row r="30" spans="2:28">
       <c r="B30" s="18"/>
-      <c r="C30" s="311"/>
-      <c r="D30" s="312"/>
-      <c r="E30" s="312"/>
-      <c r="F30" s="312"/>
-      <c r="G30" s="312"/>
-      <c r="H30" s="312"/>
-      <c r="I30" s="312"/>
-      <c r="J30" s="313"/>
-      <c r="K30" s="315"/>
-      <c r="L30" s="317"/>
+      <c r="C30" s="289"/>
+      <c r="D30" s="290"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="290"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="290"/>
+      <c r="J30" s="291"/>
+      <c r="K30" s="293"/>
+      <c r="L30" s="295"/>
       <c r="M30" s="123" t="s">
         <v>27</v>
       </c>
@@ -7852,20 +8402,20 @@
     </row>
     <row r="31" spans="2:28">
       <c r="B31" s="18"/>
-      <c r="C31" s="308" t="s">
+      <c r="C31" s="286" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="309"/>
-      <c r="E31" s="309"/>
-      <c r="F31" s="309"/>
-      <c r="G31" s="309"/>
-      <c r="H31" s="309"/>
-      <c r="I31" s="309"/>
-      <c r="J31" s="310"/>
-      <c r="K31" s="314" t="s">
+      <c r="D31" s="287"/>
+      <c r="E31" s="287"/>
+      <c r="F31" s="287"/>
+      <c r="G31" s="287"/>
+      <c r="H31" s="287"/>
+      <c r="I31" s="287"/>
+      <c r="J31" s="288"/>
+      <c r="K31" s="292" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="316"/>
+      <c r="L31" s="294"/>
       <c r="M31" s="121" t="s">
         <v>26</v>
       </c>
@@ -7887,18 +8437,18 @@
     </row>
     <row r="32" spans="2:28">
       <c r="B32" s="18"/>
-      <c r="C32" s="311"/>
-      <c r="D32" s="312"/>
-      <c r="E32" s="312"/>
-      <c r="F32" s="312"/>
-      <c r="G32" s="312"/>
-      <c r="H32" s="312"/>
-      <c r="I32" s="312"/>
-      <c r="J32" s="313"/>
-      <c r="K32" s="315" t="s">
+      <c r="C32" s="289"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="290"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="290"/>
+      <c r="J32" s="291"/>
+      <c r="K32" s="293" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="317"/>
+      <c r="L32" s="295"/>
       <c r="M32" s="123" t="s">
         <v>27</v>
       </c>
@@ -7920,28 +8470,28 @@
     </row>
     <row r="33" spans="2:28">
       <c r="B33" s="18"/>
-      <c r="C33" s="308" t="s">
+      <c r="C33" s="286" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="309"/>
-      <c r="E33" s="309"/>
-      <c r="F33" s="309"/>
-      <c r="G33" s="309"/>
-      <c r="H33" s="309"/>
-      <c r="I33" s="309"/>
-      <c r="J33" s="310"/>
-      <c r="K33" s="314" t="s">
+      <c r="D33" s="287"/>
+      <c r="E33" s="287"/>
+      <c r="F33" s="287"/>
+      <c r="G33" s="287"/>
+      <c r="H33" s="287"/>
+      <c r="I33" s="287"/>
+      <c r="J33" s="288"/>
+      <c r="K33" s="292" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="316"/>
+      <c r="L33" s="294"/>
       <c r="M33" s="121" t="s">
         <v>26</v>
       </c>
       <c r="N33" s="144"/>
       <c r="O33" s="137"/>
       <c r="P33" s="137"/>
-      <c r="Q33" s="132"/>
-      <c r="R33" s="145"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="132"/>
       <c r="S33" s="132"/>
       <c r="T33" s="132"/>
       <c r="U33" s="122"/>
@@ -7955,26 +8505,26 @@
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="18"/>
-      <c r="C34" s="311"/>
-      <c r="D34" s="312"/>
-      <c r="E34" s="312"/>
-      <c r="F34" s="312"/>
-      <c r="G34" s="312"/>
-      <c r="H34" s="312"/>
-      <c r="I34" s="312"/>
-      <c r="J34" s="313"/>
-      <c r="K34" s="315" t="s">
+      <c r="C34" s="289"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="290"/>
+      <c r="G34" s="290"/>
+      <c r="H34" s="290"/>
+      <c r="I34" s="290"/>
+      <c r="J34" s="291"/>
+      <c r="K34" s="293" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="317"/>
+      <c r="L34" s="295"/>
       <c r="M34" s="123" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="143"/>
       <c r="O34" s="138"/>
       <c r="P34" s="138"/>
-      <c r="Q34" s="124"/>
-      <c r="R34" s="106"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="124"/>
       <c r="S34" s="133"/>
       <c r="T34" s="133"/>
       <c r="U34" s="124"/>
@@ -7988,28 +8538,28 @@
     </row>
     <row r="35" spans="2:28">
       <c r="B35" s="18"/>
-      <c r="C35" s="308" t="s">
+      <c r="C35" s="286" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="309"/>
-      <c r="E35" s="309"/>
-      <c r="F35" s="309"/>
-      <c r="G35" s="309"/>
-      <c r="H35" s="309"/>
-      <c r="I35" s="309"/>
-      <c r="J35" s="310"/>
-      <c r="K35" s="314" t="s">
+      <c r="D35" s="287"/>
+      <c r="E35" s="287"/>
+      <c r="F35" s="287"/>
+      <c r="G35" s="287"/>
+      <c r="H35" s="287"/>
+      <c r="I35" s="287"/>
+      <c r="J35" s="288"/>
+      <c r="K35" s="292" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="316"/>
+      <c r="L35" s="294"/>
       <c r="M35" s="121" t="s">
         <v>26</v>
       </c>
       <c r="N35" s="135"/>
       <c r="O35" s="137"/>
       <c r="P35" s="137"/>
-      <c r="Q35" s="132"/>
-      <c r="R35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="132"/>
       <c r="S35" s="132"/>
       <c r="T35" s="132"/>
       <c r="U35" s="122"/>
@@ -8023,26 +8573,26 @@
     </row>
     <row r="36" spans="2:28">
       <c r="B36" s="18"/>
-      <c r="C36" s="311"/>
-      <c r="D36" s="312"/>
-      <c r="E36" s="312"/>
-      <c r="F36" s="312"/>
-      <c r="G36" s="312"/>
-      <c r="H36" s="312"/>
-      <c r="I36" s="312"/>
-      <c r="J36" s="313"/>
-      <c r="K36" s="315" t="s">
+      <c r="C36" s="289"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
+      <c r="G36" s="290"/>
+      <c r="H36" s="290"/>
+      <c r="I36" s="290"/>
+      <c r="J36" s="291"/>
+      <c r="K36" s="293" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="317"/>
+      <c r="L36" s="295"/>
       <c r="M36" s="123" t="s">
         <v>27</v>
       </c>
       <c r="N36" s="142"/>
       <c r="O36" s="138"/>
       <c r="P36" s="139"/>
-      <c r="Q36" s="124"/>
-      <c r="R36" s="106"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="124"/>
       <c r="S36" s="133"/>
       <c r="T36" s="133"/>
       <c r="U36" s="124"/>
@@ -8056,28 +8606,28 @@
     </row>
     <row r="37" spans="2:28">
       <c r="B37" s="18"/>
-      <c r="C37" s="308" t="s">
+      <c r="C37" s="286" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="309"/>
-      <c r="E37" s="309"/>
-      <c r="F37" s="309"/>
-      <c r="G37" s="309"/>
-      <c r="H37" s="309"/>
-      <c r="I37" s="309"/>
-      <c r="J37" s="310"/>
-      <c r="K37" s="314" t="s">
+      <c r="D37" s="287"/>
+      <c r="E37" s="287"/>
+      <c r="F37" s="287"/>
+      <c r="G37" s="287"/>
+      <c r="H37" s="287"/>
+      <c r="I37" s="287"/>
+      <c r="J37" s="288"/>
+      <c r="K37" s="292" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="316"/>
+      <c r="L37" s="294"/>
       <c r="M37" s="121" t="s">
         <v>26</v>
       </c>
       <c r="N37" s="135"/>
       <c r="O37" s="137"/>
       <c r="P37" s="137"/>
-      <c r="Q37" s="132"/>
-      <c r="R37" s="145"/>
+      <c r="Q37" s="145"/>
+      <c r="R37" s="132"/>
       <c r="S37" s="132"/>
       <c r="T37" s="132"/>
       <c r="U37" s="122"/>
@@ -8091,26 +8641,26 @@
     </row>
     <row r="38" spans="2:28">
       <c r="B38" s="18"/>
-      <c r="C38" s="311"/>
-      <c r="D38" s="312"/>
-      <c r="E38" s="312"/>
-      <c r="F38" s="312"/>
-      <c r="G38" s="312"/>
-      <c r="H38" s="312"/>
-      <c r="I38" s="312"/>
-      <c r="J38" s="313"/>
-      <c r="K38" s="315" t="s">
+      <c r="C38" s="289"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="290"/>
+      <c r="F38" s="290"/>
+      <c r="G38" s="290"/>
+      <c r="H38" s="290"/>
+      <c r="I38" s="290"/>
+      <c r="J38" s="291"/>
+      <c r="K38" s="293" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="317"/>
+      <c r="L38" s="295"/>
       <c r="M38" s="123" t="s">
         <v>27</v>
       </c>
       <c r="N38" s="125"/>
       <c r="O38" s="138"/>
       <c r="P38" s="138"/>
-      <c r="Q38" s="124"/>
-      <c r="R38" s="106"/>
+      <c r="Q38" s="106"/>
+      <c r="R38" s="124"/>
       <c r="S38" s="133"/>
       <c r="T38" s="133"/>
       <c r="U38" s="124"/>
@@ -8153,6 +8703,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
     <mergeCell ref="C37:J38"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="L37:L38"/>
@@ -8162,12 +8718,6 @@
     <mergeCell ref="C35:J36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
-    <mergeCell ref="C29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -8212,840 +8762,843 @@
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="216"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="218"/>
-      <c r="F25" s="218"/>
-      <c r="G25" s="218"/>
-      <c r="H25" s="218"/>
-      <c r="I25" s="218"/>
-      <c r="J25" s="218"/>
-      <c r="K25" s="318" t="s">
+      <c r="B25" s="192"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="320" t="s">
+      <c r="L25" s="308" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="320" t="s">
+      <c r="M25" s="308" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="234">
+      <c r="N25" s="210">
         <v>2020</v>
       </c>
-      <c r="O25" s="235"/>
-      <c r="P25" s="235"/>
-      <c r="Q25" s="235"/>
-      <c r="R25" s="235"/>
-      <c r="S25" s="235"/>
-      <c r="T25" s="235"/>
-      <c r="U25" s="235"/>
-      <c r="V25" s="236"/>
+      <c r="O25" s="211"/>
+      <c r="P25" s="211"/>
+      <c r="Q25" s="211"/>
+      <c r="R25" s="211"/>
+      <c r="S25" s="211"/>
+      <c r="T25" s="211"/>
+      <c r="U25" s="211"/>
+      <c r="V25" s="212"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="219"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="221"/>
-      <c r="E26" s="221"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="221"/>
-      <c r="K26" s="319"/>
-      <c r="L26" s="321"/>
-      <c r="M26" s="321"/>
-      <c r="N26" s="237">
+      <c r="B26" s="195"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="197"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="307"/>
+      <c r="L26" s="309"/>
+      <c r="M26" s="309"/>
+      <c r="N26" s="213">
         <v>43994</v>
       </c>
-      <c r="O26" s="237">
+      <c r="O26" s="213">
         <v>43995</v>
       </c>
-      <c r="P26" s="237">
+      <c r="P26" s="213">
         <v>43996</v>
       </c>
-      <c r="Q26" s="237">
+      <c r="Q26" s="213">
         <v>43997</v>
       </c>
-      <c r="R26" s="237">
+      <c r="R26" s="213">
         <v>43998</v>
       </c>
-      <c r="S26" s="237">
+      <c r="S26" s="213">
         <v>43999</v>
       </c>
-      <c r="T26" s="237">
+      <c r="T26" s="213">
         <v>44000</v>
       </c>
-      <c r="U26" s="237">
+      <c r="U26" s="213">
         <v>44001</v>
       </c>
-      <c r="V26" s="237">
+      <c r="V26" s="213">
         <v>44002</v>
       </c>
     </row>
     <row r="27" spans="2:22">
-      <c r="B27" s="238">
+      <c r="B27" s="214">
         <v>5</v>
       </c>
-      <c r="C27" s="239" t="s">
+      <c r="C27" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="240"/>
-      <c r="E27" s="240"/>
-      <c r="F27" s="240"/>
-      <c r="G27" s="240"/>
-      <c r="H27" s="240"/>
-      <c r="I27" s="240"/>
-      <c r="J27" s="240"/>
-      <c r="K27" s="241"/>
-      <c r="L27" s="242"/>
-      <c r="M27" s="241"/>
-      <c r="N27" s="243"/>
-      <c r="O27" s="276"/>
-      <c r="P27" s="277"/>
-      <c r="Q27" s="267"/>
-      <c r="R27" s="267"/>
-      <c r="S27" s="244"/>
-      <c r="T27" s="244"/>
-      <c r="U27" s="244"/>
-      <c r="V27" s="245"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="217"/>
+      <c r="L27" s="218"/>
+      <c r="M27" s="217"/>
+      <c r="N27" s="219"/>
+      <c r="O27" s="252"/>
+      <c r="P27" s="253"/>
+      <c r="Q27" s="243"/>
+      <c r="R27" s="243"/>
+      <c r="S27" s="220"/>
+      <c r="T27" s="220"/>
+      <c r="U27" s="220"/>
+      <c r="V27" s="221"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="246"/>
-      <c r="C28" s="239" t="s">
+      <c r="B28" s="222"/>
+      <c r="C28" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="240"/>
-      <c r="E28" s="240"/>
-      <c r="F28" s="240"/>
-      <c r="G28" s="240"/>
-      <c r="H28" s="240"/>
-      <c r="I28" s="240"/>
-      <c r="J28" s="240"/>
-      <c r="K28" s="241"/>
-      <c r="L28" s="242"/>
-      <c r="M28" s="247"/>
-      <c r="N28" s="248"/>
-      <c r="O28" s="278"/>
-      <c r="P28" s="279"/>
-      <c r="Q28" s="267"/>
-      <c r="R28" s="267"/>
-      <c r="S28" s="244"/>
-      <c r="T28" s="244"/>
-      <c r="U28" s="244"/>
-      <c r="V28" s="245"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="217"/>
+      <c r="L28" s="218"/>
+      <c r="M28" s="223"/>
+      <c r="N28" s="224"/>
+      <c r="O28" s="254"/>
+      <c r="P28" s="255"/>
+      <c r="Q28" s="243"/>
+      <c r="R28" s="243"/>
+      <c r="S28" s="220"/>
+      <c r="T28" s="220"/>
+      <c r="U28" s="220"/>
+      <c r="V28" s="221"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="246"/>
-      <c r="C29" s="322" t="s">
+      <c r="B29" s="222"/>
+      <c r="C29" s="296" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="309"/>
-      <c r="E29" s="309"/>
-      <c r="F29" s="309"/>
-      <c r="G29" s="309"/>
-      <c r="H29" s="309"/>
-      <c r="I29" s="309"/>
-      <c r="J29" s="310"/>
-      <c r="K29" s="314" t="s">
+      <c r="D29" s="287"/>
+      <c r="E29" s="287"/>
+      <c r="F29" s="287"/>
+      <c r="G29" s="287"/>
+      <c r="H29" s="287"/>
+      <c r="I29" s="287"/>
+      <c r="J29" s="288"/>
+      <c r="K29" s="292" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="323"/>
-      <c r="M29" s="250" t="s">
+      <c r="L29" s="297"/>
+      <c r="M29" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="273"/>
-      <c r="O29" s="230"/>
-      <c r="P29" s="280"/>
-      <c r="Q29" s="227"/>
-      <c r="R29" s="233"/>
-      <c r="S29" s="233"/>
-      <c r="T29" s="222"/>
-      <c r="U29" s="222"/>
-      <c r="V29" s="251"/>
+      <c r="N29" s="249"/>
+      <c r="O29" s="206"/>
+      <c r="P29" s="256"/>
+      <c r="Q29" s="203"/>
+      <c r="R29" s="209"/>
+      <c r="S29" s="203"/>
+      <c r="T29" s="198"/>
+      <c r="U29" s="198"/>
+      <c r="V29" s="227"/>
     </row>
     <row r="30" spans="2:22">
-      <c r="B30" s="246"/>
-      <c r="C30" s="312"/>
-      <c r="D30" s="312"/>
-      <c r="E30" s="312"/>
-      <c r="F30" s="312"/>
-      <c r="G30" s="312"/>
-      <c r="H30" s="312"/>
-      <c r="I30" s="312"/>
-      <c r="J30" s="313"/>
-      <c r="K30" s="315"/>
-      <c r="L30" s="315"/>
-      <c r="M30" s="252" t="s">
+      <c r="B30" s="222"/>
+      <c r="C30" s="290"/>
+      <c r="D30" s="290"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="290"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="290"/>
+      <c r="J30" s="291"/>
+      <c r="K30" s="293"/>
+      <c r="L30" s="293"/>
+      <c r="M30" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="275"/>
-      <c r="O30" s="231"/>
-      <c r="P30" s="281"/>
-      <c r="Q30" s="228"/>
-      <c r="R30" s="228"/>
-      <c r="S30" s="223"/>
-      <c r="T30" s="223"/>
-      <c r="U30" s="223"/>
-      <c r="V30" s="253"/>
+      <c r="N30" s="251"/>
+      <c r="O30" s="207"/>
+      <c r="P30" s="257"/>
+      <c r="Q30" s="204"/>
+      <c r="R30" s="204"/>
+      <c r="S30" s="199"/>
+      <c r="T30" s="199"/>
+      <c r="U30" s="199"/>
+      <c r="V30" s="229"/>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="246"/>
-      <c r="C31" s="322" t="s">
+      <c r="B31" s="222"/>
+      <c r="C31" s="296" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="309"/>
-      <c r="E31" s="309"/>
-      <c r="F31" s="309"/>
-      <c r="G31" s="309"/>
-      <c r="H31" s="309"/>
-      <c r="I31" s="309"/>
-      <c r="J31" s="310"/>
-      <c r="K31" s="314" t="s">
+      <c r="D31" s="287"/>
+      <c r="E31" s="287"/>
+      <c r="F31" s="287"/>
+      <c r="G31" s="287"/>
+      <c r="H31" s="287"/>
+      <c r="I31" s="287"/>
+      <c r="J31" s="288"/>
+      <c r="K31" s="292" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="323"/>
-      <c r="M31" s="250" t="s">
+      <c r="L31" s="297"/>
+      <c r="M31" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="274"/>
-      <c r="O31" s="230"/>
-      <c r="P31" s="280"/>
-      <c r="Q31" s="227"/>
-      <c r="R31" s="233"/>
-      <c r="S31" s="233"/>
-      <c r="T31" s="222"/>
-      <c r="U31" s="222"/>
-      <c r="V31" s="251"/>
+      <c r="N31" s="250"/>
+      <c r="O31" s="206"/>
+      <c r="P31" s="256"/>
+      <c r="Q31" s="203"/>
+      <c r="R31" s="209"/>
+      <c r="S31" s="203"/>
+      <c r="T31" s="198"/>
+      <c r="U31" s="198"/>
+      <c r="V31" s="227"/>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="246"/>
-      <c r="C32" s="312"/>
-      <c r="D32" s="312"/>
-      <c r="E32" s="312"/>
-      <c r="F32" s="312"/>
-      <c r="G32" s="312"/>
-      <c r="H32" s="312"/>
-      <c r="I32" s="312"/>
-      <c r="J32" s="313"/>
-      <c r="K32" s="315"/>
-      <c r="L32" s="315"/>
-      <c r="M32" s="252" t="s">
+      <c r="B32" s="222"/>
+      <c r="C32" s="290"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="290"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="290"/>
+      <c r="J32" s="291"/>
+      <c r="K32" s="293"/>
+      <c r="L32" s="293"/>
+      <c r="M32" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="N32" s="270"/>
-      <c r="O32" s="231"/>
-      <c r="P32" s="281"/>
-      <c r="Q32" s="228"/>
-      <c r="R32" s="228"/>
-      <c r="S32" s="223"/>
-      <c r="T32" s="223"/>
-      <c r="U32" s="223"/>
-      <c r="V32" s="253"/>
+      <c r="N32" s="246"/>
+      <c r="O32" s="207"/>
+      <c r="P32" s="257"/>
+      <c r="Q32" s="204"/>
+      <c r="R32" s="204"/>
+      <c r="S32" s="204"/>
+      <c r="T32" s="199"/>
+      <c r="U32" s="199"/>
+      <c r="V32" s="229"/>
     </row>
     <row r="33" spans="2:22">
-      <c r="B33" s="246"/>
-      <c r="C33" s="322" t="s">
+      <c r="B33" s="222"/>
+      <c r="C33" s="296" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="309"/>
-      <c r="E33" s="309"/>
-      <c r="F33" s="309"/>
-      <c r="G33" s="309"/>
-      <c r="H33" s="309"/>
-      <c r="I33" s="309"/>
-      <c r="J33" s="310"/>
-      <c r="K33" s="314" t="s">
+      <c r="D33" s="287"/>
+      <c r="E33" s="287"/>
+      <c r="F33" s="287"/>
+      <c r="G33" s="287"/>
+      <c r="H33" s="287"/>
+      <c r="I33" s="287"/>
+      <c r="J33" s="288"/>
+      <c r="K33" s="292" t="s">
         <v>78</v>
       </c>
-      <c r="L33" s="323"/>
-      <c r="M33" s="250" t="s">
+      <c r="L33" s="297"/>
+      <c r="M33" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="N33" s="271"/>
-      <c r="O33" s="282"/>
-      <c r="P33" s="280"/>
-      <c r="Q33" s="227"/>
-      <c r="R33" s="233"/>
-      <c r="S33" s="233"/>
-      <c r="T33" s="222"/>
-      <c r="U33" s="222"/>
-      <c r="V33" s="251"/>
+      <c r="N33" s="247"/>
+      <c r="O33" s="258"/>
+      <c r="P33" s="256"/>
+      <c r="Q33" s="203"/>
+      <c r="R33" s="209"/>
+      <c r="S33" s="203"/>
+      <c r="T33" s="198"/>
+      <c r="U33" s="198"/>
+      <c r="V33" s="227"/>
     </row>
     <row r="34" spans="2:22">
-      <c r="B34" s="246"/>
-      <c r="C34" s="312"/>
-      <c r="D34" s="312"/>
-      <c r="E34" s="312"/>
-      <c r="F34" s="312"/>
-      <c r="G34" s="312"/>
-      <c r="H34" s="312"/>
-      <c r="I34" s="312"/>
-      <c r="J34" s="313"/>
-      <c r="K34" s="315"/>
-      <c r="L34" s="315"/>
-      <c r="M34" s="252" t="s">
+      <c r="B34" s="222"/>
+      <c r="C34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="290"/>
+      <c r="G34" s="290"/>
+      <c r="H34" s="290"/>
+      <c r="I34" s="290"/>
+      <c r="J34" s="291"/>
+      <c r="K34" s="293"/>
+      <c r="L34" s="293"/>
+      <c r="M34" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="N34" s="272"/>
-      <c r="O34" s="283"/>
-      <c r="P34" s="281"/>
-      <c r="Q34" s="228"/>
-      <c r="R34" s="228"/>
-      <c r="S34" s="223"/>
-      <c r="T34" s="223"/>
-      <c r="U34" s="223"/>
-      <c r="V34" s="253"/>
+      <c r="N34" s="248"/>
+      <c r="O34" s="259"/>
+      <c r="P34" s="257"/>
+      <c r="Q34" s="204"/>
+      <c r="R34" s="204"/>
+      <c r="S34" s="204"/>
+      <c r="T34" s="199"/>
+      <c r="U34" s="199"/>
+      <c r="V34" s="229"/>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="246"/>
-      <c r="C35" s="322" t="s">
+      <c r="B35" s="222"/>
+      <c r="C35" s="296" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="309"/>
-      <c r="E35" s="309"/>
-      <c r="F35" s="309"/>
-      <c r="G35" s="309"/>
-      <c r="H35" s="309"/>
-      <c r="I35" s="309"/>
-      <c r="J35" s="310"/>
-      <c r="K35" s="314" t="s">
+      <c r="D35" s="287"/>
+      <c r="E35" s="287"/>
+      <c r="F35" s="287"/>
+      <c r="G35" s="287"/>
+      <c r="H35" s="287"/>
+      <c r="I35" s="287"/>
+      <c r="J35" s="288"/>
+      <c r="K35" s="292" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="323"/>
-      <c r="M35" s="250" t="s">
+      <c r="L35" s="297"/>
+      <c r="M35" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="N35" s="271"/>
-      <c r="O35" s="230"/>
-      <c r="P35" s="280"/>
-      <c r="Q35" s="227"/>
-      <c r="R35" s="233"/>
-      <c r="S35" s="233"/>
-      <c r="T35" s="222"/>
-      <c r="U35" s="222"/>
-      <c r="V35" s="251"/>
+      <c r="N35" s="247"/>
+      <c r="O35" s="206"/>
+      <c r="P35" s="256"/>
+      <c r="Q35" s="203"/>
+      <c r="R35" s="209"/>
+      <c r="S35" s="203"/>
+      <c r="T35" s="198"/>
+      <c r="U35" s="198"/>
+      <c r="V35" s="227"/>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="246"/>
-      <c r="C36" s="312"/>
-      <c r="D36" s="312"/>
-      <c r="E36" s="312"/>
-      <c r="F36" s="312"/>
-      <c r="G36" s="312"/>
-      <c r="H36" s="312"/>
-      <c r="I36" s="312"/>
-      <c r="J36" s="313"/>
-      <c r="K36" s="315"/>
-      <c r="L36" s="315"/>
-      <c r="M36" s="252" t="s">
+      <c r="B36" s="222"/>
+      <c r="C36" s="290"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
+      <c r="G36" s="290"/>
+      <c r="H36" s="290"/>
+      <c r="I36" s="290"/>
+      <c r="J36" s="291"/>
+      <c r="K36" s="293"/>
+      <c r="L36" s="293"/>
+      <c r="M36" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="N36" s="272"/>
-      <c r="O36" s="232"/>
-      <c r="P36" s="281"/>
-      <c r="Q36" s="228"/>
-      <c r="R36" s="228"/>
-      <c r="S36" s="223"/>
-      <c r="T36" s="223"/>
-      <c r="U36" s="223"/>
-      <c r="V36" s="253"/>
+      <c r="N36" s="248"/>
+      <c r="O36" s="208"/>
+      <c r="P36" s="257"/>
+      <c r="Q36" s="204"/>
+      <c r="R36" s="204"/>
+      <c r="S36" s="204"/>
+      <c r="T36" s="199"/>
+      <c r="U36" s="199"/>
+      <c r="V36" s="229"/>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="246"/>
-      <c r="C37" s="322" t="s">
+      <c r="B37" s="222"/>
+      <c r="C37" s="296" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="309"/>
-      <c r="E37" s="309"/>
-      <c r="F37" s="309"/>
-      <c r="G37" s="309"/>
-      <c r="H37" s="309"/>
-      <c r="I37" s="309"/>
-      <c r="J37" s="310"/>
-      <c r="K37" s="314" t="s">
+      <c r="D37" s="287"/>
+      <c r="E37" s="287"/>
+      <c r="F37" s="287"/>
+      <c r="G37" s="287"/>
+      <c r="H37" s="287"/>
+      <c r="I37" s="287"/>
+      <c r="J37" s="288"/>
+      <c r="K37" s="292" t="s">
         <v>74</v>
       </c>
-      <c r="L37" s="323"/>
-      <c r="M37" s="250" t="s">
+      <c r="L37" s="297"/>
+      <c r="M37" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="274"/>
-      <c r="O37" s="230"/>
-      <c r="P37" s="280"/>
-      <c r="Q37" s="227"/>
-      <c r="R37" s="233"/>
-      <c r="S37" s="233"/>
-      <c r="T37" s="222"/>
-      <c r="U37" s="222"/>
-      <c r="V37" s="251"/>
+      <c r="N37" s="250"/>
+      <c r="O37" s="206"/>
+      <c r="P37" s="256"/>
+      <c r="Q37" s="203"/>
+      <c r="R37" s="209"/>
+      <c r="S37" s="203"/>
+      <c r="T37" s="198"/>
+      <c r="U37" s="198"/>
+      <c r="V37" s="227"/>
     </row>
     <row r="38" spans="2:22">
-      <c r="B38" s="246"/>
-      <c r="C38" s="312"/>
-      <c r="D38" s="312"/>
-      <c r="E38" s="312"/>
-      <c r="F38" s="312"/>
-      <c r="G38" s="312"/>
-      <c r="H38" s="312"/>
-      <c r="I38" s="312"/>
-      <c r="J38" s="313"/>
-      <c r="K38" s="315"/>
-      <c r="L38" s="315"/>
-      <c r="M38" s="252" t="s">
+      <c r="B38" s="222"/>
+      <c r="C38" s="290"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="290"/>
+      <c r="F38" s="290"/>
+      <c r="G38" s="290"/>
+      <c r="H38" s="290"/>
+      <c r="I38" s="290"/>
+      <c r="J38" s="291"/>
+      <c r="K38" s="293"/>
+      <c r="L38" s="293"/>
+      <c r="M38" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="N38" s="275"/>
-      <c r="O38" s="231"/>
-      <c r="P38" s="281"/>
-      <c r="Q38" s="228"/>
-      <c r="R38" s="228"/>
-      <c r="S38" s="223"/>
-      <c r="T38" s="223"/>
-      <c r="U38" s="223"/>
-      <c r="V38" s="253"/>
+      <c r="N38" s="251"/>
+      <c r="O38" s="207"/>
+      <c r="P38" s="257"/>
+      <c r="Q38" s="204"/>
+      <c r="R38" s="204"/>
+      <c r="S38" s="204"/>
+      <c r="T38" s="199"/>
+      <c r="U38" s="199"/>
+      <c r="V38" s="229"/>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="246"/>
-      <c r="C39" s="322" t="s">
+      <c r="B39" s="222"/>
+      <c r="C39" s="296" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="309"/>
-      <c r="E39" s="309"/>
-      <c r="F39" s="309"/>
-      <c r="G39" s="309"/>
-      <c r="H39" s="309"/>
-      <c r="I39" s="309"/>
-      <c r="J39" s="310"/>
-      <c r="K39" s="314" t="s">
+      <c r="D39" s="287"/>
+      <c r="E39" s="287"/>
+      <c r="F39" s="287"/>
+      <c r="G39" s="287"/>
+      <c r="H39" s="287"/>
+      <c r="I39" s="287"/>
+      <c r="J39" s="288"/>
+      <c r="K39" s="292" t="s">
         <v>77</v>
       </c>
-      <c r="L39" s="323"/>
-      <c r="M39" s="250" t="s">
+      <c r="L39" s="297"/>
+      <c r="M39" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="274"/>
-      <c r="O39" s="230"/>
-      <c r="P39" s="280"/>
-      <c r="Q39" s="227"/>
-      <c r="R39" s="233"/>
-      <c r="S39" s="233"/>
-      <c r="T39" s="222"/>
-      <c r="U39" s="222"/>
-      <c r="V39" s="251"/>
+      <c r="N39" s="250"/>
+      <c r="O39" s="206"/>
+      <c r="P39" s="256"/>
+      <c r="Q39" s="203"/>
+      <c r="R39" s="209"/>
+      <c r="S39" s="203"/>
+      <c r="T39" s="198"/>
+      <c r="U39" s="198"/>
+      <c r="V39" s="227"/>
     </row>
     <row r="40" spans="2:22">
-      <c r="B40" s="246"/>
-      <c r="C40" s="312"/>
-      <c r="D40" s="312"/>
-      <c r="E40" s="312"/>
-      <c r="F40" s="312"/>
-      <c r="G40" s="312"/>
-      <c r="H40" s="312"/>
-      <c r="I40" s="312"/>
-      <c r="J40" s="313"/>
-      <c r="K40" s="315"/>
-      <c r="L40" s="315"/>
-      <c r="M40" s="252" t="s">
+      <c r="B40" s="222"/>
+      <c r="C40" s="290"/>
+      <c r="D40" s="290"/>
+      <c r="E40" s="290"/>
+      <c r="F40" s="290"/>
+      <c r="G40" s="290"/>
+      <c r="H40" s="290"/>
+      <c r="I40" s="290"/>
+      <c r="J40" s="291"/>
+      <c r="K40" s="293"/>
+      <c r="L40" s="293"/>
+      <c r="M40" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="N40" s="275"/>
-      <c r="O40" s="231"/>
-      <c r="P40" s="281"/>
-      <c r="Q40" s="228"/>
-      <c r="R40" s="228"/>
-      <c r="S40" s="223"/>
-      <c r="T40" s="223"/>
-      <c r="U40" s="223"/>
-      <c r="V40" s="253"/>
+      <c r="N40" s="251"/>
+      <c r="O40" s="207"/>
+      <c r="P40" s="257"/>
+      <c r="Q40" s="204"/>
+      <c r="R40" s="204"/>
+      <c r="S40" s="204"/>
+      <c r="T40" s="199"/>
+      <c r="U40" s="199"/>
+      <c r="V40" s="229"/>
     </row>
     <row r="41" spans="2:22">
-      <c r="B41" s="246"/>
-      <c r="C41" s="322" t="s">
+      <c r="B41" s="222"/>
+      <c r="C41" s="296" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="309"/>
-      <c r="E41" s="309"/>
-      <c r="F41" s="309"/>
-      <c r="G41" s="309"/>
-      <c r="H41" s="309"/>
-      <c r="I41" s="309"/>
-      <c r="J41" s="310"/>
-      <c r="K41" s="314" t="s">
+      <c r="D41" s="287"/>
+      <c r="E41" s="287"/>
+      <c r="F41" s="287"/>
+      <c r="G41" s="287"/>
+      <c r="H41" s="287"/>
+      <c r="I41" s="287"/>
+      <c r="J41" s="288"/>
+      <c r="K41" s="292" t="s">
         <v>73</v>
       </c>
-      <c r="L41" s="323"/>
-      <c r="M41" s="250" t="s">
+      <c r="L41" s="297"/>
+      <c r="M41" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="274"/>
-      <c r="O41" s="230"/>
-      <c r="P41" s="280"/>
-      <c r="Q41" s="227"/>
-      <c r="R41" s="233"/>
-      <c r="S41" s="233"/>
-      <c r="T41" s="222"/>
-      <c r="U41" s="222"/>
-      <c r="V41" s="251"/>
+      <c r="N41" s="250"/>
+      <c r="O41" s="206"/>
+      <c r="P41" s="256"/>
+      <c r="Q41" s="203"/>
+      <c r="R41" s="209"/>
+      <c r="S41" s="203"/>
+      <c r="T41" s="198"/>
+      <c r="U41" s="198"/>
+      <c r="V41" s="227"/>
     </row>
     <row r="42" spans="2:22">
-      <c r="B42" s="246"/>
-      <c r="C42" s="312"/>
-      <c r="D42" s="312"/>
-      <c r="E42" s="312"/>
-      <c r="F42" s="312"/>
-      <c r="G42" s="312"/>
-      <c r="H42" s="312"/>
-      <c r="I42" s="312"/>
-      <c r="J42" s="313"/>
-      <c r="K42" s="315"/>
-      <c r="L42" s="315"/>
-      <c r="M42" s="252" t="s">
+      <c r="B42" s="222"/>
+      <c r="C42" s="290"/>
+      <c r="D42" s="290"/>
+      <c r="E42" s="290"/>
+      <c r="F42" s="290"/>
+      <c r="G42" s="290"/>
+      <c r="H42" s="290"/>
+      <c r="I42" s="290"/>
+      <c r="J42" s="291"/>
+      <c r="K42" s="293"/>
+      <c r="L42" s="293"/>
+      <c r="M42" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="N42" s="270"/>
-      <c r="O42" s="231"/>
-      <c r="P42" s="281"/>
-      <c r="Q42" s="228"/>
-      <c r="R42" s="228"/>
-      <c r="S42" s="223"/>
-      <c r="T42" s="223"/>
-      <c r="U42" s="223"/>
-      <c r="V42" s="253"/>
+      <c r="N42" s="246"/>
+      <c r="O42" s="207"/>
+      <c r="P42" s="257"/>
+      <c r="Q42" s="204"/>
+      <c r="R42" s="204"/>
+      <c r="S42" s="204"/>
+      <c r="T42" s="199"/>
+      <c r="U42" s="199"/>
+      <c r="V42" s="229"/>
     </row>
     <row r="43" spans="2:22">
-      <c r="B43" s="246"/>
-      <c r="C43" s="324" t="s">
+      <c r="B43" s="222"/>
+      <c r="C43" s="298" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="325"/>
-      <c r="E43" s="325"/>
-      <c r="F43" s="325"/>
-      <c r="G43" s="325"/>
-      <c r="H43" s="325"/>
-      <c r="I43" s="325"/>
-      <c r="J43" s="326"/>
-      <c r="K43" s="314" t="s">
+      <c r="D43" s="299"/>
+      <c r="E43" s="299"/>
+      <c r="F43" s="299"/>
+      <c r="G43" s="299"/>
+      <c r="H43" s="299"/>
+      <c r="I43" s="299"/>
+      <c r="J43" s="300"/>
+      <c r="K43" s="292" t="s">
         <v>93</v>
       </c>
-      <c r="L43" s="262"/>
-      <c r="M43" s="250" t="s">
+      <c r="L43" s="238"/>
+      <c r="M43" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="291"/>
-      <c r="O43" s="292"/>
-      <c r="P43" s="293"/>
-      <c r="Q43" s="294"/>
-      <c r="R43" s="233"/>
-      <c r="S43" s="233"/>
-      <c r="T43" s="295"/>
-      <c r="U43" s="295"/>
-      <c r="V43" s="296"/>
+      <c r="N43" s="267"/>
+      <c r="O43" s="268"/>
+      <c r="P43" s="269"/>
+      <c r="Q43" s="270"/>
+      <c r="R43" s="209"/>
+      <c r="S43" s="203"/>
+      <c r="T43" s="271"/>
+      <c r="U43" s="271"/>
+      <c r="V43" s="272"/>
     </row>
     <row r="44" spans="2:22">
-      <c r="B44" s="246"/>
-      <c r="C44" s="327"/>
-      <c r="D44" s="328"/>
-      <c r="E44" s="328"/>
-      <c r="F44" s="328"/>
-      <c r="G44" s="328"/>
-      <c r="H44" s="328"/>
-      <c r="I44" s="328"/>
-      <c r="J44" s="329"/>
-      <c r="K44" s="331"/>
-      <c r="L44" s="262"/>
-      <c r="M44" s="252" t="s">
+      <c r="B44" s="222"/>
+      <c r="C44" s="301"/>
+      <c r="D44" s="302"/>
+      <c r="E44" s="302"/>
+      <c r="F44" s="302"/>
+      <c r="G44" s="302"/>
+      <c r="H44" s="302"/>
+      <c r="I44" s="302"/>
+      <c r="J44" s="303"/>
+      <c r="K44" s="305"/>
+      <c r="L44" s="238"/>
+      <c r="M44" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="N44" s="270"/>
-      <c r="O44" s="286"/>
-      <c r="P44" s="283"/>
-      <c r="Q44" s="229"/>
-      <c r="R44" s="229"/>
-      <c r="S44" s="226"/>
-      <c r="T44" s="226"/>
-      <c r="U44" s="226"/>
-      <c r="V44" s="259"/>
+      <c r="N44" s="246"/>
+      <c r="O44" s="262"/>
+      <c r="P44" s="259"/>
+      <c r="Q44" s="205"/>
+      <c r="R44" s="205"/>
+      <c r="S44" s="205"/>
+      <c r="T44" s="202"/>
+      <c r="U44" s="202"/>
+      <c r="V44" s="235"/>
     </row>
     <row r="45" spans="2:22">
-      <c r="B45" s="246"/>
-      <c r="C45" s="324" t="s">
+      <c r="B45" s="222"/>
+      <c r="C45" s="298" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="325"/>
-      <c r="E45" s="325"/>
-      <c r="F45" s="325"/>
-      <c r="G45" s="325"/>
-      <c r="H45" s="325"/>
-      <c r="I45" s="325"/>
-      <c r="J45" s="326"/>
-      <c r="K45" s="330" t="s">
+      <c r="D45" s="299"/>
+      <c r="E45" s="299"/>
+      <c r="F45" s="299"/>
+      <c r="G45" s="299"/>
+      <c r="H45" s="299"/>
+      <c r="I45" s="299"/>
+      <c r="J45" s="300"/>
+      <c r="K45" s="304" t="s">
         <v>77</v>
       </c>
-      <c r="L45" s="289"/>
-      <c r="M45" s="250" t="s">
+      <c r="L45" s="265"/>
+      <c r="M45" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="N45" s="291"/>
-      <c r="O45" s="292"/>
-      <c r="P45" s="293"/>
-      <c r="Q45" s="294"/>
-      <c r="R45" s="233"/>
-      <c r="S45" s="233"/>
-      <c r="T45" s="295"/>
-      <c r="U45" s="295"/>
-      <c r="V45" s="296"/>
+      <c r="N45" s="267"/>
+      <c r="O45" s="268"/>
+      <c r="P45" s="269"/>
+      <c r="Q45" s="270"/>
+      <c r="R45" s="209"/>
+      <c r="S45" s="203"/>
+      <c r="T45" s="271"/>
+      <c r="U45" s="271"/>
+      <c r="V45" s="272"/>
     </row>
     <row r="46" spans="2:22">
-      <c r="B46" s="246"/>
-      <c r="C46" s="327"/>
-      <c r="D46" s="328"/>
-      <c r="E46" s="328"/>
-      <c r="F46" s="328"/>
-      <c r="G46" s="328"/>
-      <c r="H46" s="328"/>
-      <c r="I46" s="328"/>
-      <c r="J46" s="329"/>
-      <c r="K46" s="315"/>
-      <c r="L46" s="262"/>
-      <c r="M46" s="252" t="s">
+      <c r="B46" s="222"/>
+      <c r="C46" s="301"/>
+      <c r="D46" s="302"/>
+      <c r="E46" s="302"/>
+      <c r="F46" s="302"/>
+      <c r="G46" s="302"/>
+      <c r="H46" s="302"/>
+      <c r="I46" s="302"/>
+      <c r="J46" s="303"/>
+      <c r="K46" s="293"/>
+      <c r="L46" s="238"/>
+      <c r="M46" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="N46" s="270"/>
-      <c r="O46" s="278"/>
-      <c r="P46" s="279"/>
-      <c r="Q46" s="268"/>
-      <c r="R46" s="268"/>
-      <c r="S46" s="249"/>
-      <c r="T46" s="249"/>
-      <c r="U46" s="249"/>
-      <c r="V46" s="264"/>
+      <c r="N46" s="246"/>
+      <c r="O46" s="254"/>
+      <c r="P46" s="255"/>
+      <c r="Q46" s="244"/>
+      <c r="R46" s="244"/>
+      <c r="S46" s="244"/>
+      <c r="T46" s="225"/>
+      <c r="U46" s="225"/>
+      <c r="V46" s="240"/>
     </row>
     <row r="47" spans="2:22">
-      <c r="B47" s="246"/>
-      <c r="C47" s="322" t="s">
+      <c r="B47" s="222"/>
+      <c r="C47" s="296" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="309"/>
-      <c r="E47" s="309"/>
-      <c r="F47" s="309"/>
-      <c r="G47" s="309"/>
-      <c r="H47" s="309"/>
-      <c r="I47" s="309"/>
-      <c r="J47" s="310"/>
-      <c r="K47" s="314" t="s">
+      <c r="D47" s="287"/>
+      <c r="E47" s="287"/>
+      <c r="F47" s="287"/>
+      <c r="G47" s="287"/>
+      <c r="H47" s="287"/>
+      <c r="I47" s="287"/>
+      <c r="J47" s="288"/>
+      <c r="K47" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="L47" s="323"/>
-      <c r="M47" s="250" t="s">
+      <c r="L47" s="297"/>
+      <c r="M47" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="254"/>
-      <c r="O47" s="290"/>
-      <c r="P47" s="280"/>
-      <c r="Q47" s="227"/>
-      <c r="R47" s="233"/>
-      <c r="S47" s="233"/>
-      <c r="T47" s="222"/>
-      <c r="U47" s="222"/>
-      <c r="V47" s="251"/>
+      <c r="N47" s="230"/>
+      <c r="O47" s="266"/>
+      <c r="P47" s="256"/>
+      <c r="Q47" s="203"/>
+      <c r="R47" s="209"/>
+      <c r="S47" s="203"/>
+      <c r="T47" s="198"/>
+      <c r="U47" s="198"/>
+      <c r="V47" s="227"/>
     </row>
     <row r="48" spans="2:22">
-      <c r="B48" s="246"/>
-      <c r="C48" s="312"/>
-      <c r="D48" s="312"/>
-      <c r="E48" s="312"/>
-      <c r="F48" s="312"/>
-      <c r="G48" s="312"/>
-      <c r="H48" s="312"/>
-      <c r="I48" s="312"/>
-      <c r="J48" s="313"/>
-      <c r="K48" s="315"/>
-      <c r="L48" s="315"/>
-      <c r="M48" s="252" t="s">
+      <c r="B48" s="222"/>
+      <c r="C48" s="290"/>
+      <c r="D48" s="290"/>
+      <c r="E48" s="290"/>
+      <c r="F48" s="290"/>
+      <c r="G48" s="290"/>
+      <c r="H48" s="290"/>
+      <c r="I48" s="290"/>
+      <c r="J48" s="291"/>
+      <c r="K48" s="293"/>
+      <c r="L48" s="293"/>
+      <c r="M48" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="N48" s="255"/>
-      <c r="O48" s="284"/>
-      <c r="P48" s="285"/>
-      <c r="Q48" s="228"/>
-      <c r="R48" s="228"/>
-      <c r="S48" s="223"/>
-      <c r="T48" s="223"/>
-      <c r="U48" s="223"/>
-      <c r="V48" s="253"/>
+      <c r="N48" s="231"/>
+      <c r="O48" s="260"/>
+      <c r="P48" s="261"/>
+      <c r="Q48" s="204"/>
+      <c r="R48" s="204"/>
+      <c r="S48" s="204"/>
+      <c r="T48" s="199"/>
+      <c r="U48" s="199"/>
+      <c r="V48" s="229"/>
     </row>
     <row r="49" spans="2:22">
-      <c r="B49" s="246"/>
-      <c r="C49" s="256"/>
-      <c r="D49" s="224"/>
-      <c r="E49" s="224"/>
-      <c r="F49" s="224"/>
-      <c r="G49" s="224"/>
-      <c r="H49" s="224"/>
-      <c r="I49" s="224"/>
-      <c r="J49" s="224"/>
-      <c r="K49" s="257"/>
-      <c r="L49" s="225"/>
-      <c r="M49" s="257"/>
-      <c r="N49" s="258"/>
-      <c r="O49" s="286"/>
-      <c r="P49" s="283"/>
-      <c r="Q49" s="229"/>
-      <c r="R49" s="229"/>
-      <c r="S49" s="226"/>
-      <c r="T49" s="226"/>
-      <c r="U49" s="226"/>
-      <c r="V49" s="259"/>
+      <c r="B49" s="222"/>
+      <c r="C49" s="232"/>
+      <c r="D49" s="200"/>
+      <c r="E49" s="200"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
+      <c r="H49" s="200"/>
+      <c r="I49" s="200"/>
+      <c r="J49" s="200"/>
+      <c r="K49" s="233"/>
+      <c r="L49" s="201"/>
+      <c r="M49" s="233"/>
+      <c r="N49" s="234"/>
+      <c r="O49" s="262"/>
+      <c r="P49" s="259"/>
+      <c r="Q49" s="205"/>
+      <c r="R49" s="205"/>
+      <c r="S49" s="205"/>
+      <c r="T49" s="202"/>
+      <c r="U49" s="202"/>
+      <c r="V49" s="235"/>
     </row>
     <row r="50" spans="2:22" ht="18.75">
-      <c r="B50" s="246"/>
-      <c r="C50" s="260" t="s">
+      <c r="B50" s="222"/>
+      <c r="C50" s="236" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="215"/>
-      <c r="E50" s="215"/>
-      <c r="F50" s="215"/>
-      <c r="G50" s="215"/>
-      <c r="H50" s="215"/>
-      <c r="I50" s="215"/>
-      <c r="J50" s="215"/>
-      <c r="K50" s="261"/>
-      <c r="L50" s="262"/>
-      <c r="M50" s="263"/>
-      <c r="N50" s="269"/>
-      <c r="O50" s="287"/>
-      <c r="P50" s="288"/>
-      <c r="Q50" s="268"/>
-      <c r="R50" s="268"/>
-      <c r="S50" s="249"/>
-      <c r="T50" s="249"/>
-      <c r="U50" s="249"/>
-      <c r="V50" s="264"/>
+      <c r="D50" s="191"/>
+      <c r="E50" s="191"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="191"/>
+      <c r="H50" s="191"/>
+      <c r="I50" s="191"/>
+      <c r="J50" s="191"/>
+      <c r="K50" s="237"/>
+      <c r="L50" s="238"/>
+      <c r="M50" s="239"/>
+      <c r="N50" s="245"/>
+      <c r="O50" s="263"/>
+      <c r="P50" s="264"/>
+      <c r="Q50" s="244"/>
+      <c r="R50" s="244"/>
+      <c r="S50" s="225"/>
+      <c r="T50" s="225"/>
+      <c r="U50" s="225"/>
+      <c r="V50" s="240"/>
     </row>
     <row r="51" spans="2:22">
-      <c r="B51" s="246"/>
-      <c r="C51" s="322" t="s">
+      <c r="B51" s="222"/>
+      <c r="C51" s="296" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="309"/>
-      <c r="E51" s="309"/>
-      <c r="F51" s="309"/>
-      <c r="G51" s="309"/>
-      <c r="H51" s="309"/>
-      <c r="I51" s="309"/>
-      <c r="J51" s="310"/>
-      <c r="K51" s="314" t="s">
+      <c r="D51" s="287"/>
+      <c r="E51" s="287"/>
+      <c r="F51" s="287"/>
+      <c r="G51" s="287"/>
+      <c r="H51" s="287"/>
+      <c r="I51" s="287"/>
+      <c r="J51" s="288"/>
+      <c r="K51" s="292" t="s">
         <v>52</v>
       </c>
-      <c r="L51" s="323"/>
-      <c r="M51" s="250" t="s">
+      <c r="L51" s="297"/>
+      <c r="M51" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="N51" s="254"/>
-      <c r="O51" s="282"/>
-      <c r="P51" s="280"/>
-      <c r="Q51" s="227"/>
-      <c r="R51" s="227"/>
-      <c r="S51" s="233"/>
-      <c r="T51" s="233"/>
-      <c r="U51" s="222"/>
-      <c r="V51" s="251"/>
+      <c r="N51" s="230"/>
+      <c r="O51" s="258"/>
+      <c r="P51" s="256"/>
+      <c r="Q51" s="203"/>
+      <c r="R51" s="209"/>
+      <c r="S51" s="203"/>
+      <c r="T51" s="203"/>
+      <c r="U51" s="198"/>
+      <c r="V51" s="227"/>
     </row>
     <row r="52" spans="2:22">
-      <c r="B52" s="246"/>
-      <c r="C52" s="312"/>
-      <c r="D52" s="312"/>
-      <c r="E52" s="312"/>
-      <c r="F52" s="312"/>
-      <c r="G52" s="312"/>
-      <c r="H52" s="312"/>
-      <c r="I52" s="312"/>
-      <c r="J52" s="313"/>
-      <c r="K52" s="315" t="s">
+      <c r="B52" s="222"/>
+      <c r="C52" s="290"/>
+      <c r="D52" s="290"/>
+      <c r="E52" s="290"/>
+      <c r="F52" s="290"/>
+      <c r="G52" s="290"/>
+      <c r="H52" s="290"/>
+      <c r="I52" s="290"/>
+      <c r="J52" s="291"/>
+      <c r="K52" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="L52" s="315"/>
-      <c r="M52" s="252" t="s">
+      <c r="L52" s="293"/>
+      <c r="M52" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="N52" s="265"/>
-      <c r="O52" s="285"/>
-      <c r="P52" s="281"/>
-      <c r="Q52" s="228"/>
-      <c r="R52" s="228"/>
-      <c r="S52" s="223"/>
-      <c r="T52" s="223"/>
-      <c r="U52" s="223"/>
-      <c r="V52" s="253"/>
+      <c r="N52" s="241"/>
+      <c r="O52" s="261"/>
+      <c r="P52" s="257"/>
+      <c r="Q52" s="204"/>
+      <c r="R52" s="204"/>
+      <c r="S52" s="199"/>
+      <c r="T52" s="199"/>
+      <c r="U52" s="199"/>
+      <c r="V52" s="229"/>
     </row>
     <row r="53" spans="2:22">
-      <c r="B53" s="246"/>
-      <c r="C53" s="322" t="s">
+      <c r="B53" s="222"/>
+      <c r="C53" s="296" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="309"/>
-      <c r="E53" s="309"/>
-      <c r="F53" s="309"/>
-      <c r="G53" s="309"/>
-      <c r="H53" s="309"/>
-      <c r="I53" s="309"/>
-      <c r="J53" s="310"/>
-      <c r="K53" s="314" t="s">
+      <c r="D53" s="287"/>
+      <c r="E53" s="287"/>
+      <c r="F53" s="287"/>
+      <c r="G53" s="287"/>
+      <c r="H53" s="287"/>
+      <c r="I53" s="287"/>
+      <c r="J53" s="288"/>
+      <c r="K53" s="292" t="s">
         <v>52</v>
       </c>
-      <c r="L53" s="323"/>
-      <c r="M53" s="250" t="s">
+      <c r="L53" s="297"/>
+      <c r="M53" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="N53" s="254"/>
-      <c r="O53" s="282"/>
-      <c r="P53" s="280"/>
-      <c r="Q53" s="227"/>
-      <c r="R53" s="227"/>
-      <c r="S53" s="233"/>
-      <c r="T53" s="233"/>
-      <c r="U53" s="222"/>
-      <c r="V53" s="251"/>
+      <c r="N53" s="230"/>
+      <c r="O53" s="258"/>
+      <c r="P53" s="256"/>
+      <c r="Q53" s="203"/>
+      <c r="R53" s="209"/>
+      <c r="S53" s="203"/>
+      <c r="T53" s="203"/>
+      <c r="U53" s="198"/>
+      <c r="V53" s="227"/>
     </row>
     <row r="54" spans="2:22">
-      <c r="B54" s="266"/>
-      <c r="C54" s="312"/>
-      <c r="D54" s="312"/>
-      <c r="E54" s="312"/>
-      <c r="F54" s="312"/>
-      <c r="G54" s="312"/>
-      <c r="H54" s="312"/>
-      <c r="I54" s="312"/>
-      <c r="J54" s="313"/>
-      <c r="K54" s="315" t="s">
+      <c r="B54" s="242"/>
+      <c r="C54" s="290"/>
+      <c r="D54" s="290"/>
+      <c r="E54" s="290"/>
+      <c r="F54" s="290"/>
+      <c r="G54" s="290"/>
+      <c r="H54" s="290"/>
+      <c r="I54" s="290"/>
+      <c r="J54" s="291"/>
+      <c r="K54" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="L54" s="315"/>
-      <c r="M54" s="252" t="s">
+      <c r="L54" s="293"/>
+      <c r="M54" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="N54" s="255"/>
-      <c r="O54" s="284"/>
-      <c r="P54" s="285"/>
-      <c r="Q54" s="228"/>
-      <c r="R54" s="228"/>
-      <c r="S54" s="223"/>
-      <c r="T54" s="223"/>
-      <c r="U54" s="223"/>
-      <c r="V54" s="253"/>
+      <c r="N54" s="231"/>
+      <c r="O54" s="260"/>
+      <c r="P54" s="261"/>
+      <c r="Q54" s="204"/>
+      <c r="R54" s="204"/>
+      <c r="S54" s="199"/>
+      <c r="T54" s="199"/>
+      <c r="U54" s="199"/>
+      <c r="V54" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="C41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="C43:J44"/>
-    <mergeCell ref="C45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="C33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
     <mergeCell ref="C53:J54"/>
     <mergeCell ref="K53:K54"/>
     <mergeCell ref="L53:L54"/>
@@ -9062,18 +9615,15 @@
     <mergeCell ref="C39:J40"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="L39:L40"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="C33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="C41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="C43:J44"/>
+    <mergeCell ref="C45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="K43:K44"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -9089,9 +9639,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F374A825-0ACA-4ABA-B702-C96B0AEE07F8}">
-  <dimension ref="B23:V48"/>
+  <dimension ref="B23:AG48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
   <cols>
@@ -9101,12 +9651,12 @@
     <col min="16" max="16384" width="4.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="23" spans="2:22" ht="24">
+    <row r="23" spans="2:33" ht="24">
       <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:33">
       <c r="N24" s="105"/>
       <c r="O24" s="2" t="s">
         <v>18</v>
@@ -9116,7 +9666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:33">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
@@ -9126,13 +9676,13 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="318" t="s">
+      <c r="K25" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="320" t="s">
+      <c r="L25" s="308" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="320" t="s">
+      <c r="M25" s="308" t="s">
         <v>22</v>
       </c>
       <c r="N25" s="146">
@@ -9146,8 +9696,12 @@
       <c r="T25" s="147"/>
       <c r="U25" s="147"/>
       <c r="V25" s="148"/>
-    </row>
-    <row r="26" spans="2:22">
+      <c r="W25" s="212"/>
+      <c r="X25" s="212"/>
+      <c r="Y25" s="212"/>
+      <c r="Z25" s="212"/>
+    </row>
+    <row r="26" spans="2:33">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
@@ -9157,42 +9711,54 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="319"/>
-      <c r="L26" s="321"/>
-      <c r="M26" s="321"/>
+      <c r="K26" s="307"/>
+      <c r="L26" s="309"/>
+      <c r="M26" s="309"/>
       <c r="N26" s="149">
+        <v>43999</v>
+      </c>
+      <c r="O26" s="149">
+        <v>44000</v>
+      </c>
+      <c r="P26" s="149">
+        <v>44001</v>
+      </c>
+      <c r="Q26" s="149">
         <v>44002</v>
       </c>
-      <c r="O26" s="149">
+      <c r="R26" s="149">
         <v>44003</v>
       </c>
-      <c r="P26" s="149">
+      <c r="S26" s="149">
         <v>44004</v>
       </c>
-      <c r="Q26" s="149">
+      <c r="T26" s="149">
         <v>44005</v>
       </c>
-      <c r="R26" s="149">
+      <c r="U26" s="149">
         <v>44006</v>
       </c>
-      <c r="S26" s="149">
+      <c r="V26" s="149">
         <v>44007</v>
       </c>
-      <c r="T26" s="149">
+      <c r="W26" s="149">
         <v>44008</v>
       </c>
-      <c r="U26" s="149">
+      <c r="X26" s="149">
         <v>44009</v>
       </c>
-      <c r="V26" s="149">
+      <c r="Y26" s="149">
         <v>44010</v>
       </c>
-    </row>
-    <row r="27" spans="2:22">
+      <c r="Z26" s="149">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33">
       <c r="B27" s="13">
         <v>6</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="161" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="150"/>
@@ -9205,574 +9771,665 @@
       <c r="K27" s="151"/>
       <c r="L27" s="152"/>
       <c r="M27" s="151"/>
-      <c r="N27" s="165"/>
-      <c r="O27" s="171"/>
-      <c r="P27" s="171"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="243"/>
+      <c r="P27" s="243"/>
+      <c r="Q27" s="322"/>
+      <c r="R27" s="322"/>
       <c r="S27" s="153"/>
       <c r="T27" s="153"/>
-      <c r="U27" s="175"/>
-      <c r="V27" s="171"/>
-    </row>
-    <row r="28" spans="2:22">
+      <c r="U27" s="243"/>
+      <c r="V27" s="243"/>
+      <c r="W27" s="243"/>
+      <c r="X27" s="168"/>
+      <c r="Y27" s="168"/>
+      <c r="Z27" s="243"/>
+    </row>
+    <row r="28" spans="2:33">
       <c r="B28" s="18"/>
-      <c r="C28" s="322" t="s">
+      <c r="C28" s="296" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="309"/>
-      <c r="E28" s="309"/>
-      <c r="F28" s="309"/>
-      <c r="G28" s="309"/>
-      <c r="H28" s="309"/>
-      <c r="I28" s="309"/>
-      <c r="J28" s="310"/>
-      <c r="K28" s="314" t="s">
+      <c r="D28" s="287"/>
+      <c r="E28" s="287"/>
+      <c r="F28" s="287"/>
+      <c r="G28" s="287"/>
+      <c r="H28" s="287"/>
+      <c r="I28" s="287"/>
+      <c r="J28" s="288"/>
+      <c r="K28" s="292" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="323">
+      <c r="L28" s="297">
         <v>0</v>
       </c>
       <c r="M28" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="166"/>
-      <c r="O28" s="172"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="122"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="209"/>
+      <c r="P28" s="209"/>
+      <c r="Q28" s="323"/>
+      <c r="R28" s="323"/>
+      <c r="S28" s="209"/>
       <c r="T28" s="122"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="172"/>
-    </row>
-    <row r="29" spans="2:22">
+      <c r="U28" s="203"/>
+      <c r="V28" s="203"/>
+      <c r="W28" s="203"/>
+      <c r="X28" s="169"/>
+      <c r="Y28" s="169"/>
+      <c r="Z28" s="203"/>
+      <c r="AG28" s="135"/>
+    </row>
+    <row r="29" spans="2:33">
       <c r="B29" s="18"/>
-      <c r="C29" s="312"/>
-      <c r="D29" s="312"/>
-      <c r="E29" s="312"/>
-      <c r="F29" s="312"/>
-      <c r="G29" s="312"/>
-      <c r="H29" s="312"/>
-      <c r="I29" s="312"/>
-      <c r="J29" s="313"/>
-      <c r="K29" s="315"/>
-      <c r="L29" s="315"/>
+      <c r="C29" s="290"/>
+      <c r="D29" s="290"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="290"/>
+      <c r="G29" s="290"/>
+      <c r="H29" s="290"/>
+      <c r="I29" s="290"/>
+      <c r="J29" s="291"/>
+      <c r="K29" s="293"/>
+      <c r="L29" s="293"/>
       <c r="M29" s="156" t="s">
         <v>27</v>
       </c>
       <c r="N29" s="159"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="173"/>
-      <c r="Q29" s="124"/>
-      <c r="R29" s="124"/>
+      <c r="O29" s="204"/>
+      <c r="P29" s="204"/>
+      <c r="Q29" s="324"/>
+      <c r="R29" s="324"/>
       <c r="S29" s="124"/>
       <c r="T29" s="124"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="173"/>
-    </row>
-    <row r="30" spans="2:22">
+      <c r="U29" s="204"/>
+      <c r="V29" s="204"/>
+      <c r="W29" s="204"/>
+      <c r="X29" s="170"/>
+      <c r="Y29" s="170"/>
+      <c r="Z29" s="204"/>
+    </row>
+    <row r="30" spans="2:33">
       <c r="B30" s="18"/>
-      <c r="C30" s="322" t="s">
+      <c r="C30" s="296" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="309"/>
-      <c r="E30" s="309"/>
-      <c r="F30" s="309"/>
-      <c r="G30" s="309"/>
-      <c r="H30" s="309"/>
-      <c r="I30" s="309"/>
-      <c r="J30" s="310"/>
-      <c r="K30" s="314" t="s">
+      <c r="D30" s="287"/>
+      <c r="E30" s="287"/>
+      <c r="F30" s="287"/>
+      <c r="G30" s="287"/>
+      <c r="H30" s="287"/>
+      <c r="I30" s="287"/>
+      <c r="J30" s="288"/>
+      <c r="K30" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="323">
+      <c r="L30" s="297">
         <v>0</v>
       </c>
       <c r="M30" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="166"/>
-      <c r="O30" s="172"/>
-      <c r="P30" s="172"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="209"/>
+      <c r="P30" s="209"/>
+      <c r="Q30" s="325"/>
+      <c r="R30" s="323"/>
+      <c r="S30" s="209"/>
       <c r="T30" s="122"/>
-      <c r="U30" s="137"/>
-      <c r="V30" s="172"/>
-    </row>
-    <row r="31" spans="2:22">
+      <c r="U30" s="203"/>
+      <c r="V30" s="203"/>
+      <c r="W30" s="203"/>
+      <c r="X30" s="169"/>
+      <c r="Y30" s="169"/>
+      <c r="Z30" s="203"/>
+    </row>
+    <row r="31" spans="2:33">
       <c r="B31" s="18"/>
-      <c r="C31" s="312"/>
-      <c r="D31" s="312"/>
-      <c r="E31" s="312"/>
-      <c r="F31" s="312"/>
-      <c r="G31" s="312"/>
-      <c r="H31" s="312"/>
-      <c r="I31" s="312"/>
-      <c r="J31" s="313"/>
-      <c r="K31" s="315"/>
-      <c r="L31" s="315"/>
+      <c r="C31" s="290"/>
+      <c r="D31" s="290"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="290"/>
+      <c r="G31" s="290"/>
+      <c r="H31" s="290"/>
+      <c r="I31" s="290"/>
+      <c r="J31" s="291"/>
+      <c r="K31" s="293"/>
+      <c r="L31" s="293"/>
       <c r="M31" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="N31" s="168"/>
-      <c r="O31" s="173"/>
-      <c r="P31" s="173"/>
-      <c r="Q31" s="133"/>
-      <c r="R31" s="124"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="204"/>
+      <c r="P31" s="204"/>
+      <c r="Q31" s="324"/>
+      <c r="R31" s="324"/>
       <c r="S31" s="124"/>
       <c r="T31" s="124"/>
-      <c r="U31" s="138"/>
-      <c r="V31" s="173"/>
-    </row>
-    <row r="32" spans="2:22">
+      <c r="U31" s="204"/>
+      <c r="V31" s="204"/>
+      <c r="W31" s="204"/>
+      <c r="X31" s="170"/>
+      <c r="Y31" s="170"/>
+      <c r="Z31" s="204"/>
+    </row>
+    <row r="32" spans="2:33">
       <c r="B32" s="18"/>
-      <c r="C32" s="322" t="s">
+      <c r="C32" s="296" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="309"/>
-      <c r="E32" s="309"/>
-      <c r="F32" s="309"/>
-      <c r="G32" s="309"/>
-      <c r="H32" s="309"/>
-      <c r="I32" s="309"/>
-      <c r="J32" s="310"/>
-      <c r="K32" s="314" t="s">
+      <c r="D32" s="287"/>
+      <c r="E32" s="287"/>
+      <c r="F32" s="287"/>
+      <c r="G32" s="287"/>
+      <c r="H32" s="287"/>
+      <c r="I32" s="287"/>
+      <c r="J32" s="288"/>
+      <c r="K32" s="292" t="s">
         <v>77</v>
       </c>
-      <c r="L32" s="323">
+      <c r="L32" s="297">
         <v>0</v>
       </c>
       <c r="M32" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="166"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="172"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="209"/>
+      <c r="P32" s="209"/>
+      <c r="Q32" s="325"/>
+      <c r="R32" s="323"/>
+      <c r="S32" s="209"/>
       <c r="T32" s="122"/>
-      <c r="U32" s="137"/>
-      <c r="V32" s="172"/>
-    </row>
-    <row r="33" spans="2:22">
+      <c r="U32" s="203"/>
+      <c r="V32" s="203"/>
+      <c r="W32" s="203"/>
+      <c r="X32" s="169"/>
+      <c r="Y32" s="169"/>
+      <c r="Z32" s="203"/>
+      <c r="AE32" s="135"/>
+    </row>
+    <row r="33" spans="2:30">
       <c r="B33" s="18"/>
-      <c r="C33" s="312"/>
-      <c r="D33" s="312"/>
-      <c r="E33" s="312"/>
-      <c r="F33" s="312"/>
-      <c r="G33" s="312"/>
-      <c r="H33" s="312"/>
-      <c r="I33" s="312"/>
-      <c r="J33" s="313"/>
-      <c r="K33" s="315"/>
-      <c r="L33" s="315"/>
+      <c r="C33" s="290"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="290"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="290"/>
+      <c r="J33" s="291"/>
+      <c r="K33" s="293"/>
+      <c r="L33" s="293"/>
       <c r="M33" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="N33" s="168"/>
-      <c r="O33" s="173"/>
-      <c r="P33" s="173"/>
-      <c r="Q33" s="133"/>
-      <c r="R33" s="124"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="204"/>
+      <c r="P33" s="204"/>
+      <c r="Q33" s="324"/>
+      <c r="R33" s="324"/>
       <c r="S33" s="124"/>
       <c r="T33" s="124"/>
-      <c r="U33" s="138"/>
-      <c r="V33" s="173"/>
-    </row>
-    <row r="34" spans="2:22">
+      <c r="U33" s="204"/>
+      <c r="V33" s="204"/>
+      <c r="W33" s="204"/>
+      <c r="X33" s="170"/>
+      <c r="Y33" s="170"/>
+      <c r="Z33" s="204"/>
+    </row>
+    <row r="34" spans="2:30">
       <c r="B34" s="18"/>
-      <c r="C34" s="324" t="s">
+      <c r="C34" s="298" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="325"/>
-      <c r="E34" s="325"/>
-      <c r="F34" s="325"/>
-      <c r="G34" s="325"/>
-      <c r="H34" s="325"/>
-      <c r="I34" s="325"/>
-      <c r="J34" s="326"/>
-      <c r="K34" s="314" t="s">
-        <v>79</v>
-      </c>
-      <c r="L34" s="323">
+      <c r="D34" s="299"/>
+      <c r="E34" s="299"/>
+      <c r="F34" s="299"/>
+      <c r="G34" s="299"/>
+      <c r="H34" s="299"/>
+      <c r="I34" s="299"/>
+      <c r="J34" s="300"/>
+      <c r="K34" s="292" t="s">
+        <v>73</v>
+      </c>
+      <c r="L34" s="297">
         <v>0</v>
       </c>
       <c r="M34" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="167"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="166"/>
-      <c r="S34" s="122"/>
-      <c r="T34" s="122"/>
-      <c r="U34" s="137"/>
-      <c r="V34" s="172"/>
-    </row>
-    <row r="35" spans="2:22">
+      <c r="N34" s="183"/>
+      <c r="O34" s="209"/>
+      <c r="P34" s="209"/>
+      <c r="Q34" s="323"/>
+      <c r="R34" s="326"/>
+      <c r="S34" s="209"/>
+      <c r="T34" s="209"/>
+      <c r="U34" s="209"/>
+      <c r="V34" s="209"/>
+      <c r="W34" s="209"/>
+      <c r="X34" s="169"/>
+      <c r="Y34" s="169"/>
+      <c r="Z34" s="203"/>
+    </row>
+    <row r="35" spans="2:30">
       <c r="B35" s="18"/>
-      <c r="C35" s="327"/>
-      <c r="D35" s="328"/>
-      <c r="E35" s="328"/>
-      <c r="F35" s="328"/>
-      <c r="G35" s="328"/>
-      <c r="H35" s="328"/>
-      <c r="I35" s="328"/>
-      <c r="J35" s="329"/>
-      <c r="K35" s="315"/>
-      <c r="L35" s="332"/>
+      <c r="C35" s="301"/>
+      <c r="D35" s="302"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="302"/>
+      <c r="G35" s="302"/>
+      <c r="H35" s="302"/>
+      <c r="I35" s="302"/>
+      <c r="J35" s="303"/>
+      <c r="K35" s="293"/>
+      <c r="L35" s="310"/>
       <c r="M35" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="N35" s="168"/>
-      <c r="O35" s="173"/>
-      <c r="P35" s="173"/>
-      <c r="Q35" s="135"/>
-      <c r="R35" s="124"/>
+      <c r="N35" s="165"/>
+      <c r="O35" s="204"/>
+      <c r="P35" s="204"/>
+      <c r="Q35" s="325"/>
+      <c r="R35" s="324"/>
       <c r="S35" s="124"/>
       <c r="T35" s="124"/>
-      <c r="U35" s="138"/>
-      <c r="V35" s="173"/>
-    </row>
-    <row r="36" spans="2:22">
+      <c r="U35" s="204"/>
+      <c r="V35" s="204"/>
+      <c r="W35" s="204"/>
+      <c r="X35" s="170"/>
+      <c r="Y35" s="170"/>
+      <c r="Z35" s="204"/>
+    </row>
+    <row r="36" spans="2:30">
       <c r="B36" s="18"/>
-      <c r="C36" s="324" t="s">
+      <c r="C36" s="298" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="325"/>
-      <c r="E36" s="325"/>
-      <c r="F36" s="325"/>
-      <c r="G36" s="325"/>
-      <c r="H36" s="325"/>
-      <c r="I36" s="325"/>
-      <c r="J36" s="326"/>
-      <c r="K36" s="314" t="s">
+      <c r="D36" s="299"/>
+      <c r="E36" s="299"/>
+      <c r="F36" s="299"/>
+      <c r="G36" s="299"/>
+      <c r="H36" s="299"/>
+      <c r="I36" s="299"/>
+      <c r="J36" s="300"/>
+      <c r="K36" s="292" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="323">
+      <c r="L36" s="297">
         <v>0</v>
       </c>
       <c r="M36" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="167"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="172"/>
-      <c r="Q36" s="169"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="122"/>
-      <c r="U36" s="137"/>
-      <c r="V36" s="172"/>
-    </row>
-    <row r="37" spans="2:22">
+      <c r="N36" s="183"/>
+      <c r="O36" s="209"/>
+      <c r="P36" s="209"/>
+      <c r="Q36" s="327"/>
+      <c r="R36" s="323"/>
+      <c r="S36" s="209"/>
+      <c r="T36" s="209"/>
+      <c r="U36" s="209"/>
+      <c r="V36" s="209"/>
+      <c r="W36" s="209"/>
+      <c r="X36" s="169"/>
+      <c r="Y36" s="169"/>
+      <c r="Z36" s="203"/>
+    </row>
+    <row r="37" spans="2:30">
       <c r="B37" s="18"/>
-      <c r="C37" s="327"/>
-      <c r="D37" s="328"/>
-      <c r="E37" s="328"/>
-      <c r="F37" s="328"/>
-      <c r="G37" s="328"/>
-      <c r="H37" s="328"/>
-      <c r="I37" s="328"/>
-      <c r="J37" s="329"/>
-      <c r="K37" s="315"/>
-      <c r="L37" s="332"/>
+      <c r="C37" s="301"/>
+      <c r="D37" s="302"/>
+      <c r="E37" s="302"/>
+      <c r="F37" s="302"/>
+      <c r="G37" s="302"/>
+      <c r="H37" s="302"/>
+      <c r="I37" s="302"/>
+      <c r="J37" s="303"/>
+      <c r="K37" s="293"/>
+      <c r="L37" s="310"/>
       <c r="M37" s="156" t="s">
         <v>27</v>
       </c>
       <c r="N37" s="159"/>
-      <c r="O37" s="173"/>
-      <c r="P37" s="173"/>
-      <c r="Q37" s="135"/>
-      <c r="R37" s="135"/>
+      <c r="O37" s="204"/>
+      <c r="P37" s="204"/>
+      <c r="Q37" s="325"/>
+      <c r="R37" s="325"/>
       <c r="S37" s="124"/>
       <c r="T37" s="124"/>
-      <c r="U37" s="138"/>
-      <c r="V37" s="173"/>
-    </row>
-    <row r="38" spans="2:22">
+      <c r="U37" s="204"/>
+      <c r="V37" s="204"/>
+      <c r="W37" s="204"/>
+      <c r="X37" s="170"/>
+      <c r="Y37" s="170"/>
+      <c r="Z37" s="204"/>
+    </row>
+    <row r="38" spans="2:30">
       <c r="B38" s="18"/>
-      <c r="C38" s="322" t="s">
+      <c r="C38" s="296" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="309"/>
-      <c r="E38" s="309"/>
-      <c r="F38" s="309"/>
-      <c r="G38" s="309"/>
-      <c r="H38" s="309"/>
-      <c r="I38" s="309"/>
-      <c r="J38" s="310"/>
-      <c r="K38" s="330" t="s">
+      <c r="D38" s="287"/>
+      <c r="E38" s="287"/>
+      <c r="F38" s="287"/>
+      <c r="G38" s="287"/>
+      <c r="H38" s="287"/>
+      <c r="I38" s="287"/>
+      <c r="J38" s="288"/>
+      <c r="K38" s="304" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="323">
+      <c r="L38" s="297">
         <v>0</v>
       </c>
       <c r="M38" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="167"/>
-      <c r="O38" s="172"/>
-      <c r="P38" s="172"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="169"/>
-      <c r="S38" s="122"/>
-      <c r="T38" s="122"/>
-      <c r="U38" s="137"/>
-      <c r="V38" s="172"/>
-    </row>
-    <row r="39" spans="2:22">
+      <c r="N38" s="183"/>
+      <c r="O38" s="209"/>
+      <c r="P38" s="209"/>
+      <c r="Q38" s="323"/>
+      <c r="R38" s="327"/>
+      <c r="S38" s="209"/>
+      <c r="T38" s="209"/>
+      <c r="U38" s="209"/>
+      <c r="V38" s="209"/>
+      <c r="W38" s="209"/>
+      <c r="X38" s="169"/>
+      <c r="Y38" s="169"/>
+      <c r="Z38" s="203"/>
+      <c r="AB38" s="135"/>
+    </row>
+    <row r="39" spans="2:30">
       <c r="B39" s="18"/>
-      <c r="C39" s="312"/>
-      <c r="D39" s="312"/>
-      <c r="E39" s="312"/>
-      <c r="F39" s="312"/>
-      <c r="G39" s="312"/>
-      <c r="H39" s="312"/>
-      <c r="I39" s="312"/>
-      <c r="J39" s="313"/>
-      <c r="K39" s="315"/>
-      <c r="L39" s="315"/>
+      <c r="C39" s="290"/>
+      <c r="D39" s="290"/>
+      <c r="E39" s="290"/>
+      <c r="F39" s="290"/>
+      <c r="G39" s="290"/>
+      <c r="H39" s="290"/>
+      <c r="I39" s="290"/>
+      <c r="J39" s="291"/>
+      <c r="K39" s="293"/>
+      <c r="L39" s="293"/>
       <c r="M39" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="N39" s="168"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="133"/>
+      <c r="N39" s="165"/>
+      <c r="O39" s="204"/>
+      <c r="P39" s="204"/>
+      <c r="Q39" s="324"/>
+      <c r="R39" s="324"/>
       <c r="S39" s="124"/>
       <c r="T39" s="124"/>
-      <c r="U39" s="138"/>
-      <c r="V39" s="173"/>
-    </row>
-    <row r="40" spans="2:22">
+      <c r="U39" s="204"/>
+      <c r="V39" s="204"/>
+      <c r="W39" s="204"/>
+      <c r="X39" s="170"/>
+      <c r="Y39" s="170"/>
+      <c r="Z39" s="204"/>
+    </row>
+    <row r="40" spans="2:30">
       <c r="B40" s="18"/>
-      <c r="C40" s="322" t="s">
+      <c r="C40" s="296" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="309"/>
-      <c r="E40" s="309"/>
-      <c r="F40" s="309"/>
-      <c r="G40" s="309"/>
-      <c r="H40" s="309"/>
-      <c r="I40" s="309"/>
-      <c r="J40" s="310"/>
-      <c r="K40" s="314" t="s">
+      <c r="D40" s="287"/>
+      <c r="E40" s="287"/>
+      <c r="F40" s="287"/>
+      <c r="G40" s="287"/>
+      <c r="H40" s="287"/>
+      <c r="I40" s="287"/>
+      <c r="J40" s="288"/>
+      <c r="K40" s="292" t="s">
         <v>74</v>
       </c>
-      <c r="L40" s="323">
+      <c r="L40" s="297">
         <v>0</v>
       </c>
       <c r="M40" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="167"/>
-      <c r="O40" s="172"/>
-      <c r="P40" s="172"/>
-      <c r="Q40" s="166"/>
-      <c r="S40" s="122"/>
-      <c r="T40" s="122"/>
-      <c r="U40" s="137"/>
-      <c r="V40" s="172"/>
-    </row>
-    <row r="41" spans="2:22">
+      <c r="N40" s="183"/>
+      <c r="O40" s="209"/>
+      <c r="P40" s="209"/>
+      <c r="Q40" s="326"/>
+      <c r="R40" s="325"/>
+      <c r="S40" s="209"/>
+      <c r="T40" s="209"/>
+      <c r="U40" s="209"/>
+      <c r="V40" s="209"/>
+      <c r="W40" s="209"/>
+      <c r="X40" s="169"/>
+      <c r="Y40" s="169"/>
+      <c r="Z40" s="203"/>
+    </row>
+    <row r="41" spans="2:30">
       <c r="B41" s="18"/>
-      <c r="C41" s="312"/>
-      <c r="D41" s="312"/>
-      <c r="E41" s="312"/>
-      <c r="F41" s="312"/>
-      <c r="G41" s="312"/>
-      <c r="H41" s="312"/>
-      <c r="I41" s="312"/>
-      <c r="J41" s="313"/>
-      <c r="K41" s="331"/>
-      <c r="L41" s="315"/>
+      <c r="C41" s="290"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="290"/>
+      <c r="F41" s="290"/>
+      <c r="G41" s="290"/>
+      <c r="H41" s="290"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="291"/>
+      <c r="K41" s="305"/>
+      <c r="L41" s="293"/>
       <c r="M41" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="N41" s="168"/>
-      <c r="O41" s="173"/>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="124"/>
-      <c r="R41" s="133"/>
+      <c r="N41" s="165"/>
+      <c r="O41" s="204"/>
+      <c r="P41" s="204"/>
+      <c r="Q41" s="324"/>
+      <c r="R41" s="324"/>
       <c r="S41" s="124"/>
       <c r="T41" s="124"/>
-      <c r="U41" s="138"/>
-      <c r="V41" s="173"/>
-    </row>
-    <row r="42" spans="2:22">
+      <c r="U41" s="204"/>
+      <c r="V41" s="204"/>
+      <c r="W41" s="204"/>
+      <c r="X41" s="170"/>
+      <c r="Y41" s="170"/>
+      <c r="Z41" s="204"/>
+    </row>
+    <row r="42" spans="2:30">
       <c r="B42" s="18"/>
-      <c r="C42" s="322" t="s">
+      <c r="C42" s="296" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="309"/>
-      <c r="E42" s="309"/>
-      <c r="F42" s="309"/>
-      <c r="G42" s="309"/>
-      <c r="H42" s="309"/>
-      <c r="I42" s="309"/>
-      <c r="J42" s="310"/>
-      <c r="K42" s="314" t="s">
-        <v>73</v>
-      </c>
-      <c r="L42" s="323">
+      <c r="D42" s="287"/>
+      <c r="E42" s="287"/>
+      <c r="F42" s="287"/>
+      <c r="G42" s="287"/>
+      <c r="H42" s="287"/>
+      <c r="I42" s="287"/>
+      <c r="J42" s="288"/>
+      <c r="K42" s="292" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" s="297">
         <v>0</v>
       </c>
       <c r="M42" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="158"/>
-      <c r="O42" s="179"/>
-      <c r="P42" s="179"/>
-      <c r="Q42" s="180"/>
-      <c r="R42" s="181"/>
-      <c r="S42" s="180"/>
-      <c r="T42" s="169"/>
-      <c r="U42" s="162"/>
-      <c r="V42" s="179"/>
-    </row>
-    <row r="43" spans="2:22">
+      <c r="N42" s="319"/>
+      <c r="O42" s="333"/>
+      <c r="P42" s="333"/>
+      <c r="Q42" s="328"/>
+      <c r="R42" s="329"/>
+      <c r="S42" s="333"/>
+      <c r="T42" s="166"/>
+      <c r="U42" s="333"/>
+      <c r="V42" s="333"/>
+      <c r="W42" s="333"/>
+      <c r="X42" s="174"/>
+      <c r="Y42" s="174"/>
+      <c r="Z42" s="321"/>
+      <c r="AD42" s="135"/>
+    </row>
+    <row r="43" spans="2:30">
       <c r="B43" s="18"/>
-      <c r="C43" s="312"/>
-      <c r="D43" s="312"/>
-      <c r="E43" s="312"/>
-      <c r="F43" s="312"/>
-      <c r="G43" s="312"/>
-      <c r="H43" s="312"/>
-      <c r="I43" s="312"/>
-      <c r="J43" s="313"/>
-      <c r="K43" s="315"/>
-      <c r="L43" s="315"/>
+      <c r="C43" s="290"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="290"/>
+      <c r="F43" s="290"/>
+      <c r="G43" s="290"/>
+      <c r="H43" s="290"/>
+      <c r="I43" s="290"/>
+      <c r="J43" s="291"/>
+      <c r="K43" s="293"/>
+      <c r="L43" s="293"/>
       <c r="M43" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="N43" s="168"/>
-      <c r="O43" s="174"/>
-      <c r="P43" s="174"/>
-      <c r="Q43" s="130"/>
-      <c r="R43" s="178"/>
+      <c r="N43" s="165"/>
+      <c r="O43" s="205"/>
+      <c r="P43" s="205"/>
+      <c r="Q43" s="330"/>
+      <c r="R43" s="331"/>
       <c r="S43" s="130"/>
       <c r="T43" s="130"/>
-      <c r="U43" s="163"/>
-      <c r="V43" s="174"/>
-    </row>
-    <row r="44" spans="2:22">
+      <c r="U43" s="205"/>
+      <c r="V43" s="205"/>
+      <c r="W43" s="205"/>
+      <c r="X43" s="171"/>
+      <c r="Y43" s="171"/>
+      <c r="Z43" s="205"/>
+    </row>
+    <row r="44" spans="2:30">
       <c r="B44" s="18"/>
-      <c r="C44" s="322" t="s">
+      <c r="C44" s="296" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="309"/>
-      <c r="E44" s="309"/>
-      <c r="F44" s="309"/>
-      <c r="G44" s="309"/>
-      <c r="H44" s="309"/>
-      <c r="I44" s="309"/>
-      <c r="J44" s="310"/>
-      <c r="K44" s="314" t="s">
+      <c r="D44" s="287"/>
+      <c r="E44" s="287"/>
+      <c r="F44" s="287"/>
+      <c r="G44" s="287"/>
+      <c r="H44" s="287"/>
+      <c r="I44" s="287"/>
+      <c r="J44" s="288"/>
+      <c r="K44" s="292" t="s">
         <v>77</v>
       </c>
-      <c r="L44" s="323">
+      <c r="L44" s="297">
         <v>0</v>
       </c>
       <c r="M44" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="N44" s="144"/>
-      <c r="O44" s="179"/>
-      <c r="P44" s="179"/>
-      <c r="Q44" s="180"/>
-      <c r="R44" s="181"/>
-      <c r="S44" s="169"/>
-      <c r="T44" s="180"/>
-      <c r="U44" s="162"/>
-      <c r="V44" s="179"/>
-    </row>
-    <row r="45" spans="2:22">
+      <c r="N44" s="183"/>
+      <c r="O44" s="333"/>
+      <c r="P44" s="333"/>
+      <c r="Q44" s="328"/>
+      <c r="R44" s="329"/>
+      <c r="S44" s="166"/>
+      <c r="T44" s="333"/>
+      <c r="U44" s="333"/>
+      <c r="V44" s="333"/>
+      <c r="W44" s="333"/>
+      <c r="X44" s="174"/>
+      <c r="Y44" s="174"/>
+      <c r="Z44" s="321"/>
+    </row>
+    <row r="45" spans="2:30">
       <c r="B45" s="18"/>
-      <c r="C45" s="312"/>
-      <c r="D45" s="312"/>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="313"/>
-      <c r="K45" s="315"/>
-      <c r="L45" s="315"/>
+      <c r="C45" s="290"/>
+      <c r="D45" s="290"/>
+      <c r="E45" s="290"/>
+      <c r="F45" s="290"/>
+      <c r="G45" s="290"/>
+      <c r="H45" s="290"/>
+      <c r="I45" s="290"/>
+      <c r="J45" s="291"/>
+      <c r="K45" s="293"/>
+      <c r="L45" s="293"/>
       <c r="M45" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="N45" s="258"/>
-      <c r="O45" s="177"/>
-      <c r="P45" s="177"/>
-      <c r="Q45" s="154"/>
-      <c r="R45" s="135"/>
+      <c r="N45" s="234"/>
+      <c r="O45" s="244"/>
+      <c r="P45" s="244"/>
+      <c r="Q45" s="332"/>
+      <c r="R45" s="325"/>
       <c r="S45" s="154"/>
       <c r="T45" s="154"/>
-      <c r="U45" s="161"/>
-      <c r="V45" s="177"/>
-    </row>
-    <row r="46" spans="2:22">
+      <c r="U45" s="244"/>
+      <c r="V45" s="244"/>
+      <c r="W45" s="244"/>
+      <c r="X45" s="173"/>
+      <c r="Y45" s="173"/>
+      <c r="Z45" s="244"/>
+    </row>
+    <row r="46" spans="2:30">
       <c r="B46" s="18"/>
-      <c r="C46" s="322" t="s">
+      <c r="C46" s="296" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="309"/>
-      <c r="E46" s="309"/>
-      <c r="F46" s="309"/>
-      <c r="G46" s="309"/>
-      <c r="H46" s="309"/>
-      <c r="I46" s="309"/>
-      <c r="J46" s="310"/>
-      <c r="K46" s="314" t="s">
+      <c r="D46" s="287"/>
+      <c r="E46" s="287"/>
+      <c r="F46" s="287"/>
+      <c r="G46" s="287"/>
+      <c r="H46" s="287"/>
+      <c r="I46" s="287"/>
+      <c r="J46" s="288"/>
+      <c r="K46" s="292" t="s">
         <v>74</v>
       </c>
-      <c r="L46" s="323">
+      <c r="L46" s="297">
         <v>0</v>
       </c>
       <c r="M46" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="166"/>
-      <c r="O46" s="172"/>
-      <c r="P46" s="172"/>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="122"/>
-      <c r="S46" s="132"/>
+      <c r="N46" s="163"/>
+      <c r="O46" s="209"/>
+      <c r="P46" s="209"/>
+      <c r="Q46" s="323"/>
+      <c r="R46" s="323"/>
+      <c r="S46" s="209"/>
       <c r="T46" s="132"/>
-      <c r="U46" s="137"/>
-      <c r="V46" s="172"/>
-    </row>
-    <row r="47" spans="2:22">
+      <c r="U46" s="203"/>
+      <c r="V46" s="203"/>
+      <c r="W46" s="203"/>
+      <c r="X46" s="169"/>
+      <c r="Y46" s="169"/>
+      <c r="Z46" s="203"/>
+    </row>
+    <row r="47" spans="2:30">
       <c r="B47" s="18"/>
-      <c r="C47" s="312"/>
-      <c r="D47" s="312"/>
-      <c r="E47" s="312"/>
-      <c r="F47" s="312"/>
-      <c r="G47" s="312"/>
-      <c r="H47" s="312"/>
-      <c r="I47" s="312"/>
-      <c r="J47" s="313"/>
-      <c r="K47" s="315"/>
-      <c r="L47" s="332"/>
+      <c r="C47" s="290"/>
+      <c r="D47" s="290"/>
+      <c r="E47" s="290"/>
+      <c r="F47" s="290"/>
+      <c r="G47" s="290"/>
+      <c r="H47" s="290"/>
+      <c r="I47" s="290"/>
+      <c r="J47" s="291"/>
+      <c r="K47" s="293"/>
+      <c r="L47" s="310"/>
       <c r="M47" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="N47" s="168"/>
-      <c r="O47" s="173"/>
-      <c r="P47" s="173"/>
-      <c r="Q47" s="124"/>
-      <c r="R47" s="178"/>
+      <c r="N47" s="165"/>
+      <c r="O47" s="204"/>
+      <c r="P47" s="204"/>
+      <c r="Q47" s="324"/>
+      <c r="R47" s="331"/>
       <c r="S47" s="160"/>
       <c r="T47" s="160"/>
-      <c r="U47" s="138"/>
-      <c r="V47" s="173"/>
-    </row>
-    <row r="48" spans="2:22">
+      <c r="U47" s="204"/>
+      <c r="V47" s="204"/>
+      <c r="W47" s="204"/>
+      <c r="X47" s="170"/>
+      <c r="Y47" s="170"/>
+      <c r="Z47" s="204"/>
+    </row>
+    <row r="48" spans="2:30">
       <c r="B48" s="22"/>
       <c r="C48" s="126"/>
       <c r="D48" s="127"/>
@@ -9785,24 +10442,45 @@
       <c r="K48" s="157"/>
       <c r="L48" s="128"/>
       <c r="M48" s="157"/>
-      <c r="N48" s="170"/>
-      <c r="O48" s="174"/>
-      <c r="P48" s="174"/>
-      <c r="Q48" s="130"/>
-      <c r="R48" s="130"/>
+      <c r="N48" s="167"/>
+      <c r="O48" s="205"/>
+      <c r="P48" s="205"/>
+      <c r="Q48" s="330"/>
+      <c r="R48" s="330"/>
       <c r="S48" s="130"/>
       <c r="T48" s="130"/>
-      <c r="U48" s="163"/>
-      <c r="V48" s="174"/>
+      <c r="U48" s="205"/>
+      <c r="V48" s="205"/>
+      <c r="W48" s="205"/>
+      <c r="X48" s="171"/>
+      <c r="Y48" s="171"/>
+      <c r="Z48" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
     <mergeCell ref="C46:J47"/>
     <mergeCell ref="K46:K47"/>
     <mergeCell ref="L46:L47"/>
     <mergeCell ref="C36:J37"/>
     <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K42:K43"/>
     <mergeCell ref="L34:L35"/>
     <mergeCell ref="K36:K37"/>
     <mergeCell ref="L36:L37"/>
@@ -9813,23 +10491,6 @@
     <mergeCell ref="K38:K39"/>
     <mergeCell ref="L40:L41"/>
     <mergeCell ref="C42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -9838,8 +10499,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9887,7 +10548,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="182">
+      <c r="N25" s="175">
         <v>2020</v>
       </c>
       <c r="O25" s="5"/>
@@ -9916,7 +10577,7 @@
       <c r="M26" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="183" t="s">
+      <c r="N26" s="176" t="s">
         <v>62</v>
       </c>
       <c r="O26" s="112"/>
@@ -9939,33 +10600,33 @@
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="189">
+      <c r="N27" s="182">
+        <v>18</v>
+      </c>
+      <c r="O27" s="182">
+        <v>19</v>
+      </c>
+      <c r="P27" s="182">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="182">
+        <v>21</v>
+      </c>
+      <c r="R27" s="182">
+        <v>22</v>
+      </c>
+      <c r="S27" s="182">
+        <v>23</v>
+      </c>
+      <c r="T27" s="182">
         <v>24</v>
-      </c>
-      <c r="O27" s="190">
-        <v>25</v>
-      </c>
-      <c r="P27" s="189">
-        <v>26</v>
-      </c>
-      <c r="Q27" s="190">
-        <v>27</v>
-      </c>
-      <c r="R27" s="189">
-        <v>28</v>
-      </c>
-      <c r="S27" s="190">
-        <v>29</v>
-      </c>
-      <c r="T27" s="191">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="13">
         <v>7</v>
       </c>
-      <c r="C28" s="164" t="s">
+      <c r="C28" s="161" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="150"/>
@@ -9978,17 +10639,17 @@
       <c r="K28" s="151"/>
       <c r="L28" s="151"/>
       <c r="M28" s="151"/>
-      <c r="N28" s="165"/>
+      <c r="N28" s="162"/>
       <c r="O28" s="153"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="171"/>
-      <c r="S28" s="171"/>
-      <c r="T28" s="192"/>
+      <c r="P28" s="322"/>
+      <c r="Q28" s="322"/>
+      <c r="R28" s="243"/>
+      <c r="S28" s="243"/>
+      <c r="T28" s="334"/>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="18"/>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="178" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="117" t="s">
@@ -10000,564 +10661,564 @@
       <c r="H29" s="117"/>
       <c r="I29" s="117"/>
       <c r="J29" s="117"/>
-      <c r="K29" s="186"/>
-      <c r="L29" s="186"/>
-      <c r="M29" s="186"/>
-      <c r="N29" s="187"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="179"/>
+      <c r="M29" s="179"/>
+      <c r="N29" s="180"/>
       <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="193"/>
-      <c r="T29" s="194"/>
+      <c r="P29" s="340"/>
+      <c r="Q29" s="340"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="335"/>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="18"/>
-      <c r="C30" s="322" t="s">
+      <c r="C30" s="296" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="309"/>
-      <c r="E30" s="309"/>
-      <c r="F30" s="309"/>
-      <c r="G30" s="309"/>
-      <c r="H30" s="309"/>
-      <c r="I30" s="309"/>
-      <c r="J30" s="310"/>
-      <c r="K30" s="314" t="s">
+      <c r="D30" s="287"/>
+      <c r="E30" s="287"/>
+      <c r="F30" s="287"/>
+      <c r="G30" s="287"/>
+      <c r="H30" s="287"/>
+      <c r="I30" s="287"/>
+      <c r="J30" s="288"/>
+      <c r="K30" s="292" t="s">
         <v>73</v>
       </c>
-      <c r="L30" s="316">
+      <c r="L30" s="294">
         <v>0</v>
       </c>
       <c r="M30" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="198"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="172"/>
-      <c r="S30" s="172"/>
-      <c r="T30" s="195"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="209"/>
+      <c r="P30" s="323"/>
+      <c r="Q30" s="323"/>
+      <c r="R30" s="209"/>
+      <c r="S30" s="203"/>
+      <c r="T30" s="336"/>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="18"/>
-      <c r="C31" s="312"/>
-      <c r="D31" s="312"/>
-      <c r="E31" s="312"/>
-      <c r="F31" s="312"/>
-      <c r="G31" s="312"/>
-      <c r="H31" s="312"/>
-      <c r="I31" s="312"/>
-      <c r="J31" s="313"/>
-      <c r="K31" s="315"/>
-      <c r="L31" s="317"/>
+      <c r="C31" s="290"/>
+      <c r="D31" s="290"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="290"/>
+      <c r="G31" s="290"/>
+      <c r="H31" s="290"/>
+      <c r="I31" s="290"/>
+      <c r="J31" s="291"/>
+      <c r="K31" s="293"/>
+      <c r="L31" s="295"/>
       <c r="M31" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N31" s="168"/>
+      <c r="N31" s="165"/>
       <c r="O31" s="124"/>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="124"/>
-      <c r="R31" s="173"/>
-      <c r="S31" s="173"/>
-      <c r="T31" s="196"/>
+      <c r="P31" s="324"/>
+      <c r="Q31" s="324"/>
+      <c r="R31" s="204"/>
+      <c r="S31" s="204"/>
+      <c r="T31" s="337"/>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="18"/>
-      <c r="C32" s="322" t="s">
+      <c r="C32" s="296" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="309"/>
-      <c r="E32" s="309"/>
-      <c r="F32" s="309"/>
-      <c r="G32" s="309"/>
-      <c r="H32" s="309"/>
-      <c r="I32" s="309"/>
-      <c r="J32" s="310"/>
-      <c r="K32" s="314" t="s">
+      <c r="D32" s="287"/>
+      <c r="E32" s="287"/>
+      <c r="F32" s="287"/>
+      <c r="G32" s="287"/>
+      <c r="H32" s="287"/>
+      <c r="I32" s="287"/>
+      <c r="J32" s="288"/>
+      <c r="K32" s="292" t="s">
         <v>74</v>
       </c>
-      <c r="L32" s="316">
+      <c r="L32" s="294">
         <v>0</v>
       </c>
       <c r="M32" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="198"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="172"/>
-      <c r="S32" s="172"/>
-      <c r="T32" s="195"/>
+      <c r="N32" s="183"/>
+      <c r="O32" s="209"/>
+      <c r="P32" s="323"/>
+      <c r="Q32" s="323"/>
+      <c r="R32" s="209"/>
+      <c r="S32" s="203"/>
+      <c r="T32" s="336"/>
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="18"/>
-      <c r="C33" s="312"/>
-      <c r="D33" s="312"/>
-      <c r="E33" s="312"/>
-      <c r="F33" s="312"/>
-      <c r="G33" s="312"/>
-      <c r="H33" s="312"/>
-      <c r="I33" s="312"/>
-      <c r="J33" s="313"/>
-      <c r="K33" s="315"/>
-      <c r="L33" s="317"/>
+      <c r="C33" s="290"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="290"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="290"/>
+      <c r="J33" s="291"/>
+      <c r="K33" s="293"/>
+      <c r="L33" s="295"/>
       <c r="M33" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N33" s="168"/>
+      <c r="N33" s="165"/>
       <c r="O33" s="124"/>
-      <c r="P33" s="124"/>
-      <c r="Q33" s="124"/>
-      <c r="R33" s="173"/>
-      <c r="S33" s="173"/>
-      <c r="T33" s="196"/>
+      <c r="P33" s="324"/>
+      <c r="Q33" s="324"/>
+      <c r="R33" s="204"/>
+      <c r="S33" s="204"/>
+      <c r="T33" s="337"/>
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="18"/>
-      <c r="C34" s="322" t="s">
+      <c r="C34" s="296" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="309"/>
-      <c r="E34" s="309"/>
-      <c r="F34" s="309"/>
-      <c r="G34" s="309"/>
-      <c r="H34" s="309"/>
-      <c r="I34" s="309"/>
-      <c r="J34" s="310"/>
-      <c r="K34" s="314" t="s">
+      <c r="D34" s="287"/>
+      <c r="E34" s="287"/>
+      <c r="F34" s="287"/>
+      <c r="G34" s="287"/>
+      <c r="H34" s="287"/>
+      <c r="I34" s="287"/>
+      <c r="J34" s="288"/>
+      <c r="K34" s="292" t="s">
         <v>78</v>
       </c>
-      <c r="L34" s="316">
+      <c r="L34" s="294">
         <v>0</v>
       </c>
       <c r="M34" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="198"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="172"/>
-      <c r="S34" s="172"/>
-      <c r="T34" s="195"/>
+      <c r="N34" s="183"/>
+      <c r="O34" s="209"/>
+      <c r="P34" s="323"/>
+      <c r="Q34" s="323"/>
+      <c r="R34" s="209"/>
+      <c r="S34" s="203"/>
+      <c r="T34" s="336"/>
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="18"/>
-      <c r="C35" s="312"/>
-      <c r="D35" s="312"/>
-      <c r="E35" s="312"/>
-      <c r="F35" s="312"/>
-      <c r="G35" s="312"/>
-      <c r="H35" s="312"/>
-      <c r="I35" s="312"/>
-      <c r="J35" s="313"/>
-      <c r="K35" s="315"/>
-      <c r="L35" s="317"/>
+      <c r="C35" s="290"/>
+      <c r="D35" s="290"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
+      <c r="G35" s="290"/>
+      <c r="H35" s="290"/>
+      <c r="I35" s="290"/>
+      <c r="J35" s="291"/>
+      <c r="K35" s="293"/>
+      <c r="L35" s="295"/>
       <c r="M35" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N35" s="168"/>
+      <c r="N35" s="165"/>
       <c r="O35" s="124"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="124"/>
-      <c r="R35" s="173"/>
-      <c r="S35" s="173"/>
-      <c r="T35" s="196"/>
+      <c r="P35" s="324"/>
+      <c r="Q35" s="324"/>
+      <c r="R35" s="204"/>
+      <c r="S35" s="204"/>
+      <c r="T35" s="337"/>
     </row>
     <row r="36" spans="2:20" ht="15.75" customHeight="1">
       <c r="B36" s="18"/>
-      <c r="C36" s="324" t="s">
+      <c r="C36" s="298" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="325"/>
-      <c r="E36" s="325"/>
-      <c r="F36" s="325"/>
-      <c r="G36" s="325"/>
-      <c r="H36" s="325"/>
-      <c r="I36" s="325"/>
-      <c r="J36" s="326"/>
-      <c r="K36" s="314" t="s">
+      <c r="D36" s="299"/>
+      <c r="E36" s="299"/>
+      <c r="F36" s="299"/>
+      <c r="G36" s="299"/>
+      <c r="H36" s="299"/>
+      <c r="I36" s="299"/>
+      <c r="J36" s="300"/>
+      <c r="K36" s="292" t="s">
         <v>74</v>
       </c>
-      <c r="L36" s="316">
+      <c r="L36" s="294">
         <v>0</v>
       </c>
       <c r="M36" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="198"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="172"/>
-      <c r="S36" s="172"/>
-      <c r="T36" s="195"/>
+      <c r="N36" s="183"/>
+      <c r="O36" s="209"/>
+      <c r="P36" s="323"/>
+      <c r="Q36" s="323"/>
+      <c r="R36" s="209"/>
+      <c r="S36" s="203"/>
+      <c r="T36" s="336"/>
     </row>
     <row r="37" spans="2:20">
       <c r="B37" s="18"/>
-      <c r="C37" s="327"/>
-      <c r="D37" s="328"/>
-      <c r="E37" s="328"/>
-      <c r="F37" s="328"/>
-      <c r="G37" s="328"/>
-      <c r="H37" s="328"/>
-      <c r="I37" s="328"/>
-      <c r="J37" s="329"/>
-      <c r="K37" s="315"/>
-      <c r="L37" s="317"/>
+      <c r="C37" s="301"/>
+      <c r="D37" s="302"/>
+      <c r="E37" s="302"/>
+      <c r="F37" s="302"/>
+      <c r="G37" s="302"/>
+      <c r="H37" s="302"/>
+      <c r="I37" s="302"/>
+      <c r="J37" s="303"/>
+      <c r="K37" s="293"/>
+      <c r="L37" s="295"/>
       <c r="M37" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N37" s="168"/>
+      <c r="N37" s="165"/>
       <c r="O37" s="124"/>
-      <c r="P37" s="124"/>
-      <c r="Q37" s="124"/>
-      <c r="R37" s="173"/>
-      <c r="S37" s="173"/>
-      <c r="T37" s="196"/>
+      <c r="P37" s="324"/>
+      <c r="Q37" s="324"/>
+      <c r="R37" s="204"/>
+      <c r="S37" s="204"/>
+      <c r="T37" s="337"/>
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="18"/>
-      <c r="C38" s="324" t="s">
+      <c r="C38" s="298" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="325"/>
-      <c r="E38" s="325"/>
-      <c r="F38" s="325"/>
-      <c r="G38" s="325"/>
-      <c r="H38" s="325"/>
-      <c r="I38" s="325"/>
-      <c r="J38" s="326"/>
-      <c r="K38" s="314" t="s">
+      <c r="D38" s="299"/>
+      <c r="E38" s="299"/>
+      <c r="F38" s="299"/>
+      <c r="G38" s="299"/>
+      <c r="H38" s="299"/>
+      <c r="I38" s="299"/>
+      <c r="J38" s="300"/>
+      <c r="K38" s="292" t="s">
         <v>89</v>
       </c>
-      <c r="L38" s="316">
+      <c r="L38" s="294">
         <v>0</v>
       </c>
       <c r="M38" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="198"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="172"/>
-      <c r="S38" s="172"/>
-      <c r="T38" s="195"/>
+      <c r="N38" s="183"/>
+      <c r="O38" s="209"/>
+      <c r="P38" s="323"/>
+      <c r="Q38" s="323"/>
+      <c r="R38" s="209"/>
+      <c r="S38" s="203"/>
+      <c r="T38" s="336"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="18"/>
-      <c r="C39" s="327"/>
-      <c r="D39" s="328"/>
-      <c r="E39" s="328"/>
-      <c r="F39" s="328"/>
-      <c r="G39" s="328"/>
-      <c r="H39" s="328"/>
-      <c r="I39" s="328"/>
-      <c r="J39" s="329"/>
-      <c r="K39" s="315"/>
-      <c r="L39" s="317"/>
+      <c r="C39" s="301"/>
+      <c r="D39" s="302"/>
+      <c r="E39" s="302"/>
+      <c r="F39" s="302"/>
+      <c r="G39" s="302"/>
+      <c r="H39" s="302"/>
+      <c r="I39" s="302"/>
+      <c r="J39" s="303"/>
+      <c r="K39" s="293"/>
+      <c r="L39" s="295"/>
       <c r="M39" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N39" s="168"/>
+      <c r="N39" s="165"/>
       <c r="O39" s="124"/>
-      <c r="P39" s="124"/>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="173"/>
-      <c r="S39" s="173"/>
-      <c r="T39" s="196"/>
+      <c r="P39" s="324"/>
+      <c r="Q39" s="324"/>
+      <c r="R39" s="204"/>
+      <c r="S39" s="204"/>
+      <c r="T39" s="337"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="18"/>
-      <c r="C40" s="322" t="s">
+      <c r="C40" s="296" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="309"/>
-      <c r="E40" s="309"/>
-      <c r="F40" s="309"/>
-      <c r="G40" s="309"/>
-      <c r="H40" s="309"/>
-      <c r="I40" s="309"/>
-      <c r="J40" s="310"/>
-      <c r="K40" s="314" t="s">
+      <c r="D40" s="287"/>
+      <c r="E40" s="287"/>
+      <c r="F40" s="287"/>
+      <c r="G40" s="287"/>
+      <c r="H40" s="287"/>
+      <c r="I40" s="287"/>
+      <c r="J40" s="288"/>
+      <c r="K40" s="292" t="s">
         <v>77</v>
       </c>
-      <c r="L40" s="316">
+      <c r="L40" s="294">
         <v>0</v>
       </c>
       <c r="M40" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="198"/>
-      <c r="O40" s="122"/>
-      <c r="P40" s="122"/>
-      <c r="Q40" s="122"/>
-      <c r="R40" s="172"/>
-      <c r="S40" s="172"/>
-      <c r="T40" s="195"/>
+      <c r="N40" s="183"/>
+      <c r="O40" s="209"/>
+      <c r="P40" s="323"/>
+      <c r="Q40" s="323"/>
+      <c r="R40" s="209"/>
+      <c r="S40" s="203"/>
+      <c r="T40" s="336"/>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="18"/>
-      <c r="C41" s="312"/>
-      <c r="D41" s="312"/>
-      <c r="E41" s="312"/>
-      <c r="F41" s="312"/>
-      <c r="G41" s="312"/>
-      <c r="H41" s="312"/>
-      <c r="I41" s="312"/>
-      <c r="J41" s="313"/>
-      <c r="K41" s="315"/>
-      <c r="L41" s="317"/>
+      <c r="C41" s="290"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="290"/>
+      <c r="F41" s="290"/>
+      <c r="G41" s="290"/>
+      <c r="H41" s="290"/>
+      <c r="I41" s="290"/>
+      <c r="J41" s="291"/>
+      <c r="K41" s="293"/>
+      <c r="L41" s="295"/>
       <c r="M41" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N41" s="168"/>
+      <c r="N41" s="165"/>
       <c r="O41" s="124"/>
-      <c r="P41" s="124"/>
-      <c r="Q41" s="124"/>
-      <c r="R41" s="173"/>
-      <c r="S41" s="173"/>
-      <c r="T41" s="196"/>
+      <c r="P41" s="324"/>
+      <c r="Q41" s="324"/>
+      <c r="R41" s="204"/>
+      <c r="S41" s="204"/>
+      <c r="T41" s="337"/>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="18"/>
-      <c r="C42" s="322" t="s">
+      <c r="C42" s="296" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="309"/>
-      <c r="E42" s="309"/>
-      <c r="F42" s="309"/>
-      <c r="G42" s="309"/>
-      <c r="H42" s="309"/>
-      <c r="I42" s="309"/>
-      <c r="J42" s="310"/>
-      <c r="K42" s="314" t="s">
+      <c r="D42" s="287"/>
+      <c r="E42" s="287"/>
+      <c r="F42" s="287"/>
+      <c r="G42" s="287"/>
+      <c r="H42" s="287"/>
+      <c r="I42" s="287"/>
+      <c r="J42" s="288"/>
+      <c r="K42" s="292" t="s">
         <v>73</v>
       </c>
-      <c r="L42" s="316">
+      <c r="L42" s="294">
         <v>0</v>
       </c>
       <c r="M42" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N42" s="198"/>
-      <c r="O42" s="122"/>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="172"/>
-      <c r="S42" s="172"/>
-      <c r="T42" s="195"/>
+      <c r="N42" s="183"/>
+      <c r="O42" s="209"/>
+      <c r="P42" s="323"/>
+      <c r="Q42" s="323"/>
+      <c r="R42" s="209"/>
+      <c r="S42" s="203"/>
+      <c r="T42" s="336"/>
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="18"/>
-      <c r="C43" s="312"/>
-      <c r="D43" s="312"/>
-      <c r="E43" s="312"/>
-      <c r="F43" s="312"/>
-      <c r="G43" s="312"/>
-      <c r="H43" s="312"/>
-      <c r="I43" s="312"/>
-      <c r="J43" s="313"/>
-      <c r="K43" s="315"/>
-      <c r="L43" s="317"/>
+      <c r="C43" s="290"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="290"/>
+      <c r="F43" s="290"/>
+      <c r="G43" s="290"/>
+      <c r="H43" s="290"/>
+      <c r="I43" s="290"/>
+      <c r="J43" s="291"/>
+      <c r="K43" s="293"/>
+      <c r="L43" s="295"/>
       <c r="M43" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N43" s="168"/>
+      <c r="N43" s="165"/>
       <c r="O43" s="124"/>
-      <c r="P43" s="124"/>
-      <c r="Q43" s="124"/>
-      <c r="R43" s="173"/>
-      <c r="S43" s="173"/>
-      <c r="T43" s="196"/>
+      <c r="P43" s="324"/>
+      <c r="Q43" s="324"/>
+      <c r="R43" s="204"/>
+      <c r="S43" s="204"/>
+      <c r="T43" s="337"/>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="18"/>
-      <c r="C44" s="322" t="s">
+      <c r="C44" s="296" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="309"/>
-      <c r="E44" s="309"/>
-      <c r="F44" s="309"/>
-      <c r="G44" s="309"/>
-      <c r="H44" s="309"/>
-      <c r="I44" s="309"/>
-      <c r="J44" s="310"/>
-      <c r="K44" s="314" t="s">
+      <c r="D44" s="287"/>
+      <c r="E44" s="287"/>
+      <c r="F44" s="287"/>
+      <c r="G44" s="287"/>
+      <c r="H44" s="287"/>
+      <c r="I44" s="287"/>
+      <c r="J44" s="288"/>
+      <c r="K44" s="292" t="s">
         <v>93</v>
       </c>
-      <c r="L44" s="316">
+      <c r="L44" s="294">
         <v>0</v>
       </c>
       <c r="M44" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N44" s="198"/>
-      <c r="O44" s="122"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="172"/>
-      <c r="S44" s="172"/>
-      <c r="T44" s="195"/>
+      <c r="N44" s="183"/>
+      <c r="O44" s="209"/>
+      <c r="P44" s="323"/>
+      <c r="Q44" s="323"/>
+      <c r="R44" s="209"/>
+      <c r="S44" s="203"/>
+      <c r="T44" s="336"/>
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="18"/>
-      <c r="C45" s="312"/>
-      <c r="D45" s="312"/>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="313"/>
-      <c r="K45" s="331"/>
-      <c r="L45" s="317"/>
+      <c r="C45" s="290"/>
+      <c r="D45" s="290"/>
+      <c r="E45" s="290"/>
+      <c r="F45" s="290"/>
+      <c r="G45" s="290"/>
+      <c r="H45" s="290"/>
+      <c r="I45" s="290"/>
+      <c r="J45" s="291"/>
+      <c r="K45" s="305"/>
+      <c r="L45" s="295"/>
       <c r="M45" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N45" s="170"/>
+      <c r="N45" s="167"/>
       <c r="O45" s="130"/>
-      <c r="P45" s="130"/>
-      <c r="Q45" s="130"/>
-      <c r="R45" s="174"/>
-      <c r="S45" s="174"/>
-      <c r="T45" s="197"/>
+      <c r="P45" s="330"/>
+      <c r="Q45" s="330"/>
+      <c r="R45" s="205"/>
+      <c r="S45" s="205"/>
+      <c r="T45" s="338"/>
     </row>
     <row r="46" spans="2:20">
       <c r="B46" s="18"/>
-      <c r="C46" s="322" t="s">
+      <c r="C46" s="296" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="309"/>
-      <c r="E46" s="309"/>
-      <c r="F46" s="309"/>
-      <c r="G46" s="309"/>
-      <c r="H46" s="309"/>
-      <c r="I46" s="309"/>
-      <c r="J46" s="310"/>
-      <c r="K46" s="330" t="s">
+      <c r="D46" s="287"/>
+      <c r="E46" s="287"/>
+      <c r="F46" s="287"/>
+      <c r="G46" s="287"/>
+      <c r="H46" s="287"/>
+      <c r="I46" s="287"/>
+      <c r="J46" s="288"/>
+      <c r="K46" s="304" t="s">
         <v>77</v>
       </c>
-      <c r="L46" s="316">
+      <c r="L46" s="294">
         <v>0</v>
       </c>
       <c r="M46" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="198"/>
-      <c r="O46" s="122"/>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="172"/>
-      <c r="S46" s="172"/>
-      <c r="T46" s="195"/>
+      <c r="N46" s="183"/>
+      <c r="O46" s="209"/>
+      <c r="P46" s="323"/>
+      <c r="Q46" s="323"/>
+      <c r="R46" s="209"/>
+      <c r="S46" s="203"/>
+      <c r="T46" s="336"/>
     </row>
     <row r="47" spans="2:20">
       <c r="B47" s="18"/>
-      <c r="C47" s="312"/>
-      <c r="D47" s="312"/>
-      <c r="E47" s="312"/>
-      <c r="F47" s="312"/>
-      <c r="G47" s="312"/>
-      <c r="H47" s="312"/>
-      <c r="I47" s="312"/>
-      <c r="J47" s="313"/>
-      <c r="K47" s="315"/>
-      <c r="L47" s="317"/>
+      <c r="C47" s="290"/>
+      <c r="D47" s="290"/>
+      <c r="E47" s="290"/>
+      <c r="F47" s="290"/>
+      <c r="G47" s="290"/>
+      <c r="H47" s="290"/>
+      <c r="I47" s="290"/>
+      <c r="J47" s="291"/>
+      <c r="K47" s="293"/>
+      <c r="L47" s="295"/>
       <c r="M47" s="123" t="s">
         <v>27</v>
       </c>
       <c r="N47" s="158"/>
       <c r="O47" s="154"/>
-      <c r="P47" s="154"/>
-      <c r="Q47" s="154"/>
-      <c r="R47" s="177"/>
-      <c r="S47" s="177"/>
-      <c r="T47" s="199"/>
+      <c r="P47" s="332"/>
+      <c r="Q47" s="332"/>
+      <c r="R47" s="244"/>
+      <c r="S47" s="244"/>
+      <c r="T47" s="339"/>
     </row>
     <row r="48" spans="2:20">
       <c r="B48" s="18"/>
-      <c r="C48" s="322" t="s">
+      <c r="C48" s="296" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="309"/>
-      <c r="E48" s="309"/>
-      <c r="F48" s="309"/>
-      <c r="G48" s="309"/>
-      <c r="H48" s="309"/>
-      <c r="I48" s="309"/>
-      <c r="J48" s="310"/>
-      <c r="K48" s="314" t="s">
+      <c r="D48" s="287"/>
+      <c r="E48" s="287"/>
+      <c r="F48" s="287"/>
+      <c r="G48" s="287"/>
+      <c r="H48" s="287"/>
+      <c r="I48" s="287"/>
+      <c r="J48" s="288"/>
+      <c r="K48" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="L48" s="316">
+      <c r="L48" s="294">
         <v>0</v>
       </c>
       <c r="M48" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N48" s="198"/>
-      <c r="O48" s="122"/>
-      <c r="P48" s="122"/>
-      <c r="Q48" s="122"/>
-      <c r="R48" s="172"/>
-      <c r="S48" s="172"/>
-      <c r="T48" s="195"/>
-    </row>
-    <row r="49" spans="2:35">
+      <c r="N48" s="183"/>
+      <c r="O48" s="209"/>
+      <c r="P48" s="323"/>
+      <c r="Q48" s="323"/>
+      <c r="R48" s="209"/>
+      <c r="S48" s="203"/>
+      <c r="T48" s="336"/>
+    </row>
+    <row r="49" spans="2:30">
       <c r="B49" s="18"/>
-      <c r="C49" s="312"/>
-      <c r="D49" s="312"/>
-      <c r="E49" s="312"/>
-      <c r="F49" s="312"/>
-      <c r="G49" s="312"/>
-      <c r="H49" s="312"/>
-      <c r="I49" s="312"/>
-      <c r="J49" s="313"/>
-      <c r="K49" s="315"/>
-      <c r="L49" s="317"/>
+      <c r="C49" s="290"/>
+      <c r="D49" s="290"/>
+      <c r="E49" s="290"/>
+      <c r="F49" s="290"/>
+      <c r="G49" s="290"/>
+      <c r="H49" s="290"/>
+      <c r="I49" s="290"/>
+      <c r="J49" s="291"/>
+      <c r="K49" s="293"/>
+      <c r="L49" s="295"/>
       <c r="M49" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N49" s="168"/>
+      <c r="N49" s="165"/>
       <c r="O49" s="124"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="124"/>
-      <c r="R49" s="173"/>
-      <c r="S49" s="173"/>
-      <c r="T49" s="196"/>
-    </row>
-    <row r="50" spans="2:35">
+      <c r="P49" s="324"/>
+      <c r="Q49" s="324"/>
+      <c r="R49" s="204"/>
+      <c r="S49" s="204"/>
+      <c r="T49" s="337"/>
+    </row>
+    <row r="50" spans="2:30">
       <c r="B50" s="18"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="176"/>
-      <c r="E50" s="176"/>
-      <c r="F50" s="176"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="176"/>
+      <c r="C50" s="172"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="172"/>
+      <c r="G50" s="172"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="172"/>
       <c r="K50" s="157"/>
       <c r="L50" s="157"/>
       <c r="M50" s="128"/>
-      <c r="N50" s="170"/>
+      <c r="N50" s="167"/>
       <c r="O50" s="130"/>
-      <c r="P50" s="130"/>
-      <c r="Q50" s="130"/>
-      <c r="R50" s="174"/>
-      <c r="S50" s="174"/>
-      <c r="T50" s="197"/>
-    </row>
-    <row r="51" spans="2:35">
+      <c r="P50" s="330"/>
+      <c r="Q50" s="330"/>
+      <c r="R50" s="205"/>
+      <c r="S50" s="205"/>
+      <c r="T50" s="338"/>
+    </row>
+    <row r="51" spans="2:30">
       <c r="B51" s="18"/>
-      <c r="C51" s="185" t="s">
+      <c r="C51" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="188" t="s">
+      <c r="D51" s="181" t="s">
         <v>61</v>
       </c>
       <c r="E51" s="117"/>
@@ -10566,686 +11227,686 @@
       <c r="H51" s="117"/>
       <c r="I51" s="117"/>
       <c r="J51" s="117"/>
-      <c r="K51" s="186"/>
-      <c r="L51" s="186"/>
+      <c r="K51" s="179"/>
+      <c r="L51" s="179"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="187"/>
+      <c r="N51" s="180"/>
       <c r="O51" s="120"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="193"/>
-      <c r="S51" s="193"/>
-      <c r="T51" s="194"/>
-    </row>
-    <row r="52" spans="2:35">
+      <c r="P51" s="340"/>
+      <c r="Q51" s="340"/>
+      <c r="R51" s="131"/>
+      <c r="S51" s="131"/>
+      <c r="T51" s="335"/>
+    </row>
+    <row r="52" spans="2:30">
       <c r="B52" s="18"/>
-      <c r="C52" s="322" t="s">
+      <c r="C52" s="296" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="309"/>
-      <c r="E52" s="309"/>
-      <c r="F52" s="309"/>
-      <c r="G52" s="309"/>
-      <c r="H52" s="309"/>
-      <c r="I52" s="309"/>
-      <c r="J52" s="310"/>
-      <c r="K52" s="314" t="s">
+      <c r="D52" s="287"/>
+      <c r="E52" s="287"/>
+      <c r="F52" s="287"/>
+      <c r="G52" s="287"/>
+      <c r="H52" s="287"/>
+      <c r="I52" s="287"/>
+      <c r="J52" s="288"/>
+      <c r="K52" s="292" t="s">
         <v>74</v>
       </c>
-      <c r="L52" s="316">
+      <c r="L52" s="294">
         <v>0</v>
       </c>
       <c r="M52" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N52" s="167"/>
-      <c r="O52" s="198"/>
-      <c r="P52" s="122"/>
-      <c r="Q52" s="122"/>
-      <c r="R52" s="172"/>
-      <c r="S52" s="172"/>
-      <c r="T52" s="195"/>
-    </row>
-    <row r="53" spans="2:35">
+      <c r="N52" s="164"/>
+      <c r="O52" s="183"/>
+      <c r="P52" s="323"/>
+      <c r="Q52" s="323"/>
+      <c r="R52" s="209"/>
+      <c r="S52" s="209"/>
+      <c r="T52" s="341"/>
+    </row>
+    <row r="53" spans="2:30">
       <c r="B53" s="18"/>
-      <c r="C53" s="312"/>
-      <c r="D53" s="312"/>
-      <c r="E53" s="312"/>
-      <c r="F53" s="312"/>
-      <c r="G53" s="312"/>
-      <c r="H53" s="312"/>
-      <c r="I53" s="312"/>
-      <c r="J53" s="313"/>
-      <c r="K53" s="315"/>
-      <c r="L53" s="317"/>
+      <c r="C53" s="290"/>
+      <c r="D53" s="290"/>
+      <c r="E53" s="290"/>
+      <c r="F53" s="290"/>
+      <c r="G53" s="290"/>
+      <c r="H53" s="290"/>
+      <c r="I53" s="290"/>
+      <c r="J53" s="291"/>
+      <c r="K53" s="293"/>
+      <c r="L53" s="295"/>
       <c r="M53" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N53" s="168"/>
+      <c r="N53" s="165"/>
       <c r="O53" s="124"/>
-      <c r="P53" s="124"/>
-      <c r="Q53" s="124"/>
-      <c r="R53" s="173"/>
-      <c r="S53" s="173"/>
-      <c r="T53" s="196"/>
-    </row>
-    <row r="54" spans="2:35">
+      <c r="P53" s="324"/>
+      <c r="Q53" s="324"/>
+      <c r="R53" s="204"/>
+      <c r="S53" s="204"/>
+      <c r="T53" s="337"/>
+    </row>
+    <row r="54" spans="2:30">
       <c r="B54" s="18"/>
-      <c r="C54" s="322" t="s">
+      <c r="C54" s="296" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="309"/>
-      <c r="E54" s="309"/>
-      <c r="F54" s="309"/>
-      <c r="G54" s="309"/>
-      <c r="H54" s="309"/>
-      <c r="I54" s="309"/>
-      <c r="J54" s="310"/>
-      <c r="K54" s="314" t="s">
+      <c r="D54" s="287"/>
+      <c r="E54" s="287"/>
+      <c r="F54" s="287"/>
+      <c r="G54" s="287"/>
+      <c r="H54" s="287"/>
+      <c r="I54" s="287"/>
+      <c r="J54" s="288"/>
+      <c r="K54" s="292" t="s">
         <v>78</v>
       </c>
-      <c r="L54" s="316">
+      <c r="L54" s="294">
         <v>0</v>
       </c>
       <c r="M54" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="167"/>
-      <c r="O54" s="198"/>
-      <c r="P54" s="122"/>
-      <c r="Q54" s="122"/>
-      <c r="R54" s="172"/>
-      <c r="S54" s="172"/>
-      <c r="T54" s="195"/>
-    </row>
-    <row r="55" spans="2:35">
+      <c r="N54" s="164"/>
+      <c r="O54" s="183"/>
+      <c r="P54" s="323"/>
+      <c r="Q54" s="323"/>
+      <c r="R54" s="209"/>
+      <c r="S54" s="209"/>
+      <c r="T54" s="341"/>
+    </row>
+    <row r="55" spans="2:30">
       <c r="B55" s="18"/>
-      <c r="C55" s="312"/>
-      <c r="D55" s="312"/>
-      <c r="E55" s="312"/>
-      <c r="F55" s="312"/>
-      <c r="G55" s="312"/>
-      <c r="H55" s="312"/>
-      <c r="I55" s="312"/>
-      <c r="J55" s="313"/>
-      <c r="K55" s="315"/>
-      <c r="L55" s="317"/>
+      <c r="C55" s="290"/>
+      <c r="D55" s="290"/>
+      <c r="E55" s="290"/>
+      <c r="F55" s="290"/>
+      <c r="G55" s="290"/>
+      <c r="H55" s="290"/>
+      <c r="I55" s="290"/>
+      <c r="J55" s="291"/>
+      <c r="K55" s="293"/>
+      <c r="L55" s="295"/>
       <c r="M55" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N55" s="168"/>
+      <c r="N55" s="165"/>
       <c r="O55" s="124"/>
-      <c r="P55" s="124"/>
-      <c r="Q55" s="124"/>
-      <c r="R55" s="173"/>
-      <c r="S55" s="173"/>
-      <c r="T55" s="196"/>
-    </row>
-    <row r="56" spans="2:35">
+      <c r="P55" s="324"/>
+      <c r="Q55" s="324"/>
+      <c r="R55" s="204"/>
+      <c r="S55" s="204"/>
+      <c r="T55" s="337"/>
+    </row>
+    <row r="56" spans="2:30">
       <c r="B56" s="18"/>
-      <c r="C56" s="322" t="s">
+      <c r="C56" s="296" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="309"/>
-      <c r="E56" s="309"/>
-      <c r="F56" s="309"/>
-      <c r="G56" s="309"/>
-      <c r="H56" s="309"/>
-      <c r="I56" s="309"/>
-      <c r="J56" s="310"/>
-      <c r="K56" s="314" t="s">
+      <c r="D56" s="287"/>
+      <c r="E56" s="287"/>
+      <c r="F56" s="287"/>
+      <c r="G56" s="287"/>
+      <c r="H56" s="287"/>
+      <c r="I56" s="287"/>
+      <c r="J56" s="288"/>
+      <c r="K56" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="L56" s="316">
+      <c r="L56" s="294">
         <v>0</v>
       </c>
       <c r="M56" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N56" s="167"/>
-      <c r="O56" s="198"/>
-      <c r="P56" s="122"/>
-      <c r="Q56" s="122"/>
-      <c r="R56" s="172"/>
-      <c r="S56" s="172"/>
-      <c r="T56" s="195"/>
-    </row>
-    <row r="57" spans="2:35">
+      <c r="N56" s="164"/>
+      <c r="O56" s="183"/>
+      <c r="P56" s="323"/>
+      <c r="Q56" s="323"/>
+      <c r="R56" s="209"/>
+      <c r="S56" s="209"/>
+      <c r="T56" s="341"/>
+    </row>
+    <row r="57" spans="2:30">
       <c r="B57" s="18"/>
-      <c r="C57" s="312"/>
-      <c r="D57" s="312"/>
-      <c r="E57" s="312"/>
-      <c r="F57" s="312"/>
-      <c r="G57" s="312"/>
-      <c r="H57" s="312"/>
-      <c r="I57" s="312"/>
-      <c r="J57" s="313"/>
-      <c r="K57" s="315"/>
-      <c r="L57" s="317"/>
+      <c r="C57" s="290"/>
+      <c r="D57" s="290"/>
+      <c r="E57" s="290"/>
+      <c r="F57" s="290"/>
+      <c r="G57" s="290"/>
+      <c r="H57" s="290"/>
+      <c r="I57" s="290"/>
+      <c r="J57" s="291"/>
+      <c r="K57" s="293"/>
+      <c r="L57" s="295"/>
       <c r="M57" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N57" s="168"/>
+      <c r="N57" s="165"/>
       <c r="O57" s="124"/>
-      <c r="P57" s="124"/>
-      <c r="Q57" s="124"/>
-      <c r="R57" s="173"/>
-      <c r="S57" s="173"/>
-      <c r="T57" s="196"/>
-      <c r="Z57" s="341"/>
-      <c r="AA57" s="342"/>
-      <c r="AB57" s="342"/>
-      <c r="AC57" s="342"/>
-      <c r="AD57" s="342"/>
-      <c r="AE57" s="342"/>
-      <c r="AF57" s="342"/>
-      <c r="AG57" s="342"/>
-      <c r="AH57" s="341"/>
-      <c r="AI57" s="341"/>
-    </row>
-    <row r="58" spans="2:35" ht="15.75" customHeight="1">
+      <c r="P57" s="324"/>
+      <c r="Q57" s="324"/>
+      <c r="R57" s="204"/>
+      <c r="S57" s="204"/>
+      <c r="T57" s="337"/>
+      <c r="U57" s="273"/>
+      <c r="V57" s="274"/>
+      <c r="W57" s="274"/>
+      <c r="X57" s="274"/>
+      <c r="Y57" s="274"/>
+      <c r="Z57" s="274"/>
+      <c r="AA57" s="274"/>
+      <c r="AB57" s="274"/>
+      <c r="AC57" s="273"/>
+      <c r="AD57" s="273"/>
+    </row>
+    <row r="58" spans="2:30" ht="15.75" customHeight="1">
       <c r="B58" s="18"/>
-      <c r="C58" s="324" t="s">
+      <c r="C58" s="298" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="325"/>
-      <c r="E58" s="325"/>
-      <c r="F58" s="325"/>
-      <c r="G58" s="325"/>
-      <c r="H58" s="325"/>
-      <c r="I58" s="325"/>
-      <c r="J58" s="326"/>
-      <c r="K58" s="314" t="s">
+      <c r="D58" s="299"/>
+      <c r="E58" s="299"/>
+      <c r="F58" s="299"/>
+      <c r="G58" s="299"/>
+      <c r="H58" s="299"/>
+      <c r="I58" s="299"/>
+      <c r="J58" s="300"/>
+      <c r="K58" s="292" t="s">
         <v>106</v>
       </c>
-      <c r="L58" s="316">
+      <c r="L58" s="294">
         <v>0</v>
       </c>
       <c r="M58" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="167"/>
-      <c r="O58" s="198"/>
-      <c r="P58" s="122"/>
-      <c r="Q58" s="122"/>
-      <c r="R58" s="172"/>
-      <c r="S58" s="172"/>
-      <c r="T58" s="195"/>
-      <c r="Z58" s="342"/>
-      <c r="AA58" s="342"/>
-      <c r="AB58" s="342"/>
-      <c r="AC58" s="342"/>
-      <c r="AD58" s="342"/>
-      <c r="AE58" s="342"/>
-      <c r="AF58" s="342"/>
-      <c r="AG58" s="342"/>
-      <c r="AH58" s="341"/>
-      <c r="AI58" s="341"/>
-    </row>
-    <row r="59" spans="2:35">
+      <c r="N58" s="164"/>
+      <c r="O58" s="183"/>
+      <c r="P58" s="323"/>
+      <c r="Q58" s="323"/>
+      <c r="R58" s="209"/>
+      <c r="S58" s="209"/>
+      <c r="T58" s="341"/>
+      <c r="U58" s="274"/>
+      <c r="V58" s="274"/>
+      <c r="W58" s="274"/>
+      <c r="X58" s="274"/>
+      <c r="Y58" s="274"/>
+      <c r="Z58" s="274"/>
+      <c r="AA58" s="274"/>
+      <c r="AB58" s="274"/>
+      <c r="AC58" s="273"/>
+      <c r="AD58" s="273"/>
+    </row>
+    <row r="59" spans="2:30">
       <c r="B59" s="18"/>
-      <c r="C59" s="327"/>
-      <c r="D59" s="328"/>
-      <c r="E59" s="328"/>
-      <c r="F59" s="328"/>
-      <c r="G59" s="328"/>
-      <c r="H59" s="328"/>
-      <c r="I59" s="328"/>
-      <c r="J59" s="329"/>
-      <c r="K59" s="315"/>
-      <c r="L59" s="317"/>
+      <c r="C59" s="301"/>
+      <c r="D59" s="302"/>
+      <c r="E59" s="302"/>
+      <c r="F59" s="302"/>
+      <c r="G59" s="302"/>
+      <c r="H59" s="302"/>
+      <c r="I59" s="302"/>
+      <c r="J59" s="303"/>
+      <c r="K59" s="293"/>
+      <c r="L59" s="295"/>
       <c r="M59" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="168"/>
+      <c r="N59" s="165"/>
       <c r="O59" s="124"/>
-      <c r="P59" s="124"/>
-      <c r="Q59" s="124"/>
-      <c r="R59" s="173"/>
-      <c r="S59" s="173"/>
-      <c r="T59" s="196"/>
-      <c r="Z59" s="341"/>
-      <c r="AA59" s="342"/>
-      <c r="AB59" s="342"/>
-      <c r="AC59" s="342"/>
-      <c r="AD59" s="342"/>
-      <c r="AE59" s="342"/>
-      <c r="AF59" s="342"/>
-      <c r="AG59" s="342"/>
-      <c r="AH59" s="341"/>
-      <c r="AI59" s="341"/>
-    </row>
-    <row r="60" spans="2:35">
+      <c r="P59" s="324"/>
+      <c r="Q59" s="324"/>
+      <c r="R59" s="204"/>
+      <c r="S59" s="204"/>
+      <c r="T59" s="337"/>
+      <c r="U59" s="273"/>
+      <c r="V59" s="274"/>
+      <c r="W59" s="274"/>
+      <c r="X59" s="274"/>
+      <c r="Y59" s="274"/>
+      <c r="Z59" s="274"/>
+      <c r="AA59" s="274"/>
+      <c r="AB59" s="274"/>
+      <c r="AC59" s="273"/>
+      <c r="AD59" s="273"/>
+    </row>
+    <row r="60" spans="2:30">
       <c r="B60" s="18"/>
-      <c r="C60" s="324" t="s">
+      <c r="C60" s="298" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="325"/>
-      <c r="E60" s="325"/>
-      <c r="F60" s="325"/>
-      <c r="G60" s="325"/>
-      <c r="H60" s="325"/>
-      <c r="I60" s="325"/>
-      <c r="J60" s="326"/>
-      <c r="K60" s="314" t="s">
+      <c r="D60" s="299"/>
+      <c r="E60" s="299"/>
+      <c r="F60" s="299"/>
+      <c r="G60" s="299"/>
+      <c r="H60" s="299"/>
+      <c r="I60" s="299"/>
+      <c r="J60" s="300"/>
+      <c r="K60" s="292" t="s">
         <v>107</v>
       </c>
-      <c r="L60" s="316">
+      <c r="L60" s="294">
         <v>0</v>
       </c>
       <c r="M60" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="167"/>
-      <c r="O60" s="198"/>
-      <c r="P60" s="122"/>
-      <c r="Q60" s="122"/>
-      <c r="R60" s="172"/>
-      <c r="S60" s="172"/>
-      <c r="T60" s="195"/>
-      <c r="Z60" s="342"/>
-      <c r="AA60" s="342"/>
-      <c r="AB60" s="342"/>
-      <c r="AC60" s="342"/>
-      <c r="AD60" s="342"/>
-      <c r="AE60" s="342"/>
-      <c r="AF60" s="342"/>
-      <c r="AG60" s="342"/>
-      <c r="AH60" s="341"/>
-      <c r="AI60" s="341"/>
-    </row>
-    <row r="61" spans="2:35">
+      <c r="N60" s="164"/>
+      <c r="O60" s="183"/>
+      <c r="P60" s="323"/>
+      <c r="Q60" s="323"/>
+      <c r="R60" s="209"/>
+      <c r="S60" s="209"/>
+      <c r="T60" s="341"/>
+      <c r="U60" s="274"/>
+      <c r="V60" s="274"/>
+      <c r="W60" s="274"/>
+      <c r="X60" s="274"/>
+      <c r="Y60" s="274"/>
+      <c r="Z60" s="274"/>
+      <c r="AA60" s="274"/>
+      <c r="AB60" s="274"/>
+      <c r="AC60" s="273"/>
+      <c r="AD60" s="273"/>
+    </row>
+    <row r="61" spans="2:30">
       <c r="B61" s="18"/>
-      <c r="C61" s="327"/>
-      <c r="D61" s="328"/>
-      <c r="E61" s="328"/>
-      <c r="F61" s="328"/>
-      <c r="G61" s="328"/>
-      <c r="H61" s="328"/>
-      <c r="I61" s="328"/>
-      <c r="J61" s="329"/>
-      <c r="K61" s="315"/>
-      <c r="L61" s="317"/>
+      <c r="C61" s="301"/>
+      <c r="D61" s="302"/>
+      <c r="E61" s="302"/>
+      <c r="F61" s="302"/>
+      <c r="G61" s="302"/>
+      <c r="H61" s="302"/>
+      <c r="I61" s="302"/>
+      <c r="J61" s="303"/>
+      <c r="K61" s="293"/>
+      <c r="L61" s="295"/>
       <c r="M61" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N61" s="168"/>
+      <c r="N61" s="165"/>
       <c r="O61" s="124"/>
-      <c r="P61" s="124"/>
-      <c r="Q61" s="124"/>
-      <c r="R61" s="173"/>
-      <c r="S61" s="173"/>
-      <c r="T61" s="196"/>
-      <c r="Z61" s="341"/>
-      <c r="AA61" s="342"/>
-      <c r="AB61" s="342"/>
-      <c r="AC61" s="342"/>
-      <c r="AD61" s="342"/>
-      <c r="AE61" s="342"/>
-      <c r="AF61" s="342"/>
-      <c r="AG61" s="342"/>
-      <c r="AH61" s="341"/>
-      <c r="AI61" s="341"/>
-    </row>
-    <row r="62" spans="2:35">
+      <c r="P61" s="324"/>
+      <c r="Q61" s="324"/>
+      <c r="R61" s="204"/>
+      <c r="S61" s="204"/>
+      <c r="T61" s="337"/>
+      <c r="U61" s="273"/>
+      <c r="V61" s="274"/>
+      <c r="W61" s="274"/>
+      <c r="X61" s="274"/>
+      <c r="Y61" s="274"/>
+      <c r="Z61" s="274"/>
+      <c r="AA61" s="274"/>
+      <c r="AB61" s="274"/>
+      <c r="AC61" s="273"/>
+      <c r="AD61" s="273"/>
+    </row>
+    <row r="62" spans="2:30">
       <c r="B62" s="18"/>
-      <c r="C62" s="322" t="s">
+      <c r="C62" s="296" t="s">
         <v>98</v>
       </c>
-      <c r="D62" s="309"/>
-      <c r="E62" s="309"/>
-      <c r="F62" s="309"/>
-      <c r="G62" s="309"/>
-      <c r="H62" s="309"/>
-      <c r="I62" s="309"/>
-      <c r="J62" s="310"/>
-      <c r="K62" s="314" t="s">
+      <c r="D62" s="287"/>
+      <c r="E62" s="287"/>
+      <c r="F62" s="287"/>
+      <c r="G62" s="287"/>
+      <c r="H62" s="287"/>
+      <c r="I62" s="287"/>
+      <c r="J62" s="288"/>
+      <c r="K62" s="292" t="s">
         <v>74</v>
       </c>
-      <c r="L62" s="316">
+      <c r="L62" s="294">
         <v>0</v>
       </c>
       <c r="M62" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N62" s="167"/>
-      <c r="O62" s="198"/>
-      <c r="P62" s="122"/>
-      <c r="Q62" s="122"/>
-      <c r="R62" s="172"/>
-      <c r="S62" s="172"/>
-      <c r="T62" s="195"/>
-      <c r="Z62" s="342"/>
-      <c r="AA62" s="342"/>
-      <c r="AB62" s="342"/>
-      <c r="AC62" s="342"/>
-      <c r="AD62" s="342"/>
-      <c r="AE62" s="342"/>
-      <c r="AF62" s="342"/>
-      <c r="AG62" s="342"/>
-      <c r="AH62" s="341"/>
-      <c r="AI62" s="341"/>
-    </row>
-    <row r="63" spans="2:35">
+      <c r="N62" s="164"/>
+      <c r="O62" s="183"/>
+      <c r="P62" s="323"/>
+      <c r="Q62" s="323"/>
+      <c r="R62" s="209"/>
+      <c r="S62" s="209"/>
+      <c r="T62" s="341"/>
+      <c r="U62" s="274"/>
+      <c r="V62" s="274"/>
+      <c r="W62" s="274"/>
+      <c r="X62" s="274"/>
+      <c r="Y62" s="274"/>
+      <c r="Z62" s="274"/>
+      <c r="AA62" s="274"/>
+      <c r="AB62" s="274"/>
+      <c r="AC62" s="273"/>
+      <c r="AD62" s="273"/>
+    </row>
+    <row r="63" spans="2:30">
       <c r="B63" s="18"/>
-      <c r="C63" s="312"/>
-      <c r="D63" s="312"/>
-      <c r="E63" s="312"/>
-      <c r="F63" s="312"/>
-      <c r="G63" s="312"/>
-      <c r="H63" s="312"/>
-      <c r="I63" s="312"/>
-      <c r="J63" s="313"/>
-      <c r="K63" s="315"/>
-      <c r="L63" s="317"/>
+      <c r="C63" s="290"/>
+      <c r="D63" s="290"/>
+      <c r="E63" s="290"/>
+      <c r="F63" s="290"/>
+      <c r="G63" s="290"/>
+      <c r="H63" s="290"/>
+      <c r="I63" s="290"/>
+      <c r="J63" s="291"/>
+      <c r="K63" s="293"/>
+      <c r="L63" s="295"/>
       <c r="M63" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N63" s="168"/>
+      <c r="N63" s="165"/>
       <c r="O63" s="124"/>
-      <c r="P63" s="124"/>
-      <c r="Q63" s="124"/>
-      <c r="R63" s="173"/>
-      <c r="S63" s="173"/>
-      <c r="T63" s="196"/>
-      <c r="Z63" s="341"/>
-      <c r="AA63" s="342"/>
-      <c r="AB63" s="342"/>
-      <c r="AC63" s="342"/>
-      <c r="AD63" s="342"/>
-      <c r="AE63" s="342"/>
-      <c r="AF63" s="342"/>
-      <c r="AG63" s="342"/>
-      <c r="AH63" s="341"/>
-      <c r="AI63" s="341"/>
-    </row>
-    <row r="64" spans="2:35">
+      <c r="P63" s="324"/>
+      <c r="Q63" s="324"/>
+      <c r="R63" s="204"/>
+      <c r="S63" s="204"/>
+      <c r="T63" s="337"/>
+      <c r="U63" s="273"/>
+      <c r="V63" s="274"/>
+      <c r="W63" s="274"/>
+      <c r="X63" s="274"/>
+      <c r="Y63" s="274"/>
+      <c r="Z63" s="274"/>
+      <c r="AA63" s="274"/>
+      <c r="AB63" s="274"/>
+      <c r="AC63" s="273"/>
+      <c r="AD63" s="273"/>
+    </row>
+    <row r="64" spans="2:30">
       <c r="B64" s="18"/>
-      <c r="C64" s="322" t="s">
+      <c r="C64" s="296" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="309"/>
-      <c r="E64" s="309"/>
-      <c r="F64" s="309"/>
-      <c r="G64" s="309"/>
-      <c r="H64" s="309"/>
-      <c r="I64" s="309"/>
-      <c r="J64" s="310"/>
-      <c r="K64" s="314" t="s">
+      <c r="D64" s="287"/>
+      <c r="E64" s="287"/>
+      <c r="F64" s="287"/>
+      <c r="G64" s="287"/>
+      <c r="H64" s="287"/>
+      <c r="I64" s="287"/>
+      <c r="J64" s="288"/>
+      <c r="K64" s="292" t="s">
         <v>77</v>
       </c>
-      <c r="L64" s="316">
+      <c r="L64" s="294">
         <v>0</v>
       </c>
       <c r="M64" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N64" s="167"/>
-      <c r="O64" s="198"/>
-      <c r="P64" s="122"/>
-      <c r="Q64" s="122"/>
-      <c r="R64" s="172"/>
-      <c r="S64" s="172"/>
-      <c r="T64" s="195"/>
-      <c r="Z64" s="342"/>
-      <c r="AA64" s="342"/>
-      <c r="AB64" s="342"/>
-      <c r="AC64" s="342"/>
-      <c r="AD64" s="342"/>
-      <c r="AE64" s="342"/>
-      <c r="AF64" s="342"/>
-      <c r="AG64" s="342"/>
-      <c r="AH64" s="341"/>
-      <c r="AI64" s="341"/>
+      <c r="N64" s="164"/>
+      <c r="O64" s="183"/>
+      <c r="P64" s="323"/>
+      <c r="Q64" s="323"/>
+      <c r="R64" s="209"/>
+      <c r="S64" s="209"/>
+      <c r="T64" s="341"/>
+      <c r="U64" s="274"/>
+      <c r="V64" s="274"/>
+      <c r="W64" s="274"/>
+      <c r="X64" s="274"/>
+      <c r="Y64" s="274"/>
+      <c r="Z64" s="274"/>
+      <c r="AA64" s="274"/>
+      <c r="AB64" s="274"/>
+      <c r="AC64" s="273"/>
+      <c r="AD64" s="273"/>
     </row>
     <row r="65" spans="2:35">
       <c r="B65" s="18"/>
-      <c r="C65" s="312"/>
-      <c r="D65" s="312"/>
-      <c r="E65" s="312"/>
-      <c r="F65" s="312"/>
-      <c r="G65" s="312"/>
-      <c r="H65" s="312"/>
-      <c r="I65" s="312"/>
-      <c r="J65" s="313"/>
-      <c r="K65" s="331"/>
-      <c r="L65" s="317"/>
+      <c r="C65" s="290"/>
+      <c r="D65" s="290"/>
+      <c r="E65" s="290"/>
+      <c r="F65" s="290"/>
+      <c r="G65" s="290"/>
+      <c r="H65" s="290"/>
+      <c r="I65" s="290"/>
+      <c r="J65" s="291"/>
+      <c r="K65" s="305"/>
+      <c r="L65" s="295"/>
       <c r="M65" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N65" s="168"/>
+      <c r="N65" s="165"/>
       <c r="O65" s="124"/>
-      <c r="P65" s="124"/>
-      <c r="Q65" s="124"/>
-      <c r="R65" s="173"/>
-      <c r="S65" s="173"/>
-      <c r="T65" s="196"/>
-      <c r="Z65" s="341"/>
-      <c r="AA65" s="342"/>
-      <c r="AB65" s="342"/>
-      <c r="AC65" s="342"/>
-      <c r="AD65" s="342"/>
-      <c r="AE65" s="342"/>
-      <c r="AF65" s="342"/>
-      <c r="AG65" s="342"/>
-      <c r="AH65" s="341"/>
-      <c r="AI65" s="341"/>
+      <c r="P65" s="324"/>
+      <c r="Q65" s="324"/>
+      <c r="R65" s="204"/>
+      <c r="S65" s="204"/>
+      <c r="T65" s="337"/>
+      <c r="U65" s="273"/>
+      <c r="V65" s="274"/>
+      <c r="W65" s="274"/>
+      <c r="X65" s="274"/>
+      <c r="Y65" s="274"/>
+      <c r="Z65" s="274"/>
+      <c r="AA65" s="274"/>
+      <c r="AB65" s="274"/>
+      <c r="AC65" s="273"/>
+      <c r="AD65" s="273"/>
     </row>
     <row r="66" spans="2:35">
       <c r="B66" s="18"/>
-      <c r="C66" s="322" t="s">
+      <c r="C66" s="296" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="309"/>
-      <c r="E66" s="309"/>
-      <c r="F66" s="309"/>
-      <c r="G66" s="309"/>
-      <c r="H66" s="309"/>
-      <c r="I66" s="309"/>
-      <c r="J66" s="310"/>
-      <c r="K66" s="330" t="s">
+      <c r="D66" s="287"/>
+      <c r="E66" s="287"/>
+      <c r="F66" s="287"/>
+      <c r="G66" s="287"/>
+      <c r="H66" s="287"/>
+      <c r="I66" s="287"/>
+      <c r="J66" s="288"/>
+      <c r="K66" s="304" t="s">
         <v>77</v>
       </c>
-      <c r="L66" s="316">
+      <c r="L66" s="294">
         <v>0</v>
       </c>
       <c r="M66" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N66" s="167"/>
-      <c r="O66" s="198"/>
-      <c r="P66" s="122"/>
-      <c r="Q66" s="122"/>
-      <c r="R66" s="172"/>
-      <c r="S66" s="172"/>
-      <c r="T66" s="195"/>
-      <c r="Z66" s="342"/>
-      <c r="AA66" s="342"/>
-      <c r="AB66" s="342"/>
-      <c r="AC66" s="342"/>
-      <c r="AD66" s="342"/>
-      <c r="AE66" s="342"/>
-      <c r="AF66" s="342"/>
-      <c r="AG66" s="342"/>
-      <c r="AH66" s="341"/>
-      <c r="AI66" s="341"/>
+      <c r="N66" s="164"/>
+      <c r="O66" s="183"/>
+      <c r="P66" s="323"/>
+      <c r="Q66" s="323"/>
+      <c r="R66" s="209"/>
+      <c r="S66" s="209"/>
+      <c r="T66" s="341"/>
+      <c r="U66" s="274"/>
+      <c r="V66" s="274"/>
+      <c r="W66" s="274"/>
+      <c r="X66" s="274"/>
+      <c r="Y66" s="274"/>
+      <c r="Z66" s="274"/>
+      <c r="AA66" s="274"/>
+      <c r="AB66" s="274"/>
+      <c r="AC66" s="273"/>
+      <c r="AD66" s="273"/>
     </row>
     <row r="67" spans="2:35">
       <c r="B67" s="18"/>
-      <c r="C67" s="312"/>
-      <c r="D67" s="312"/>
-      <c r="E67" s="312"/>
-      <c r="F67" s="312"/>
-      <c r="G67" s="312"/>
-      <c r="H67" s="312"/>
-      <c r="I67" s="312"/>
-      <c r="J67" s="313"/>
-      <c r="K67" s="315"/>
-      <c r="L67" s="317"/>
+      <c r="C67" s="290"/>
+      <c r="D67" s="290"/>
+      <c r="E67" s="290"/>
+      <c r="F67" s="290"/>
+      <c r="G67" s="290"/>
+      <c r="H67" s="290"/>
+      <c r="I67" s="290"/>
+      <c r="J67" s="291"/>
+      <c r="K67" s="293"/>
+      <c r="L67" s="295"/>
       <c r="M67" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N67" s="170"/>
+      <c r="N67" s="167"/>
       <c r="O67" s="130"/>
-      <c r="P67" s="130"/>
-      <c r="Q67" s="130"/>
-      <c r="R67" s="174"/>
-      <c r="S67" s="174"/>
-      <c r="T67" s="197"/>
-      <c r="Z67" s="341"/>
-      <c r="AA67" s="342"/>
-      <c r="AB67" s="342"/>
-      <c r="AC67" s="342"/>
-      <c r="AD67" s="342"/>
-      <c r="AE67" s="342"/>
-      <c r="AF67" s="342"/>
-      <c r="AG67" s="342"/>
-      <c r="AH67" s="341"/>
-      <c r="AI67" s="341"/>
+      <c r="P67" s="330"/>
+      <c r="Q67" s="330"/>
+      <c r="R67" s="205"/>
+      <c r="S67" s="205"/>
+      <c r="T67" s="338"/>
+      <c r="U67" s="273"/>
+      <c r="V67" s="274"/>
+      <c r="W67" s="274"/>
+      <c r="X67" s="274"/>
+      <c r="Y67" s="274"/>
+      <c r="Z67" s="274"/>
+      <c r="AA67" s="274"/>
+      <c r="AB67" s="274"/>
+      <c r="AC67" s="273"/>
+      <c r="AD67" s="273"/>
     </row>
     <row r="68" spans="2:35">
       <c r="B68" s="18"/>
-      <c r="C68" s="322" t="s">
+      <c r="C68" s="296" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="309"/>
-      <c r="E68" s="309"/>
-      <c r="F68" s="309"/>
-      <c r="G68" s="309"/>
-      <c r="H68" s="309"/>
-      <c r="I68" s="309"/>
-      <c r="J68" s="310"/>
-      <c r="K68" s="314" t="s">
+      <c r="D68" s="287"/>
+      <c r="E68" s="287"/>
+      <c r="F68" s="287"/>
+      <c r="G68" s="287"/>
+      <c r="H68" s="287"/>
+      <c r="I68" s="287"/>
+      <c r="J68" s="288"/>
+      <c r="K68" s="292" t="s">
         <v>73</v>
       </c>
-      <c r="L68" s="316">
+      <c r="L68" s="294">
         <v>0</v>
       </c>
       <c r="M68" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N68" s="167"/>
-      <c r="O68" s="198"/>
-      <c r="P68" s="122"/>
-      <c r="Q68" s="122"/>
-      <c r="R68" s="172"/>
-      <c r="S68" s="172"/>
-      <c r="T68" s="195"/>
-      <c r="Z68" s="342"/>
-      <c r="AA68" s="342"/>
-      <c r="AB68" s="342"/>
-      <c r="AC68" s="342"/>
-      <c r="AD68" s="342"/>
-      <c r="AE68" s="342"/>
-      <c r="AF68" s="342"/>
-      <c r="AG68" s="342"/>
-      <c r="AH68" s="341"/>
-      <c r="AI68" s="341"/>
+      <c r="N68" s="164"/>
+      <c r="O68" s="183"/>
+      <c r="P68" s="323"/>
+      <c r="Q68" s="323"/>
+      <c r="R68" s="209"/>
+      <c r="S68" s="209"/>
+      <c r="T68" s="341"/>
+      <c r="U68" s="274"/>
+      <c r="V68" s="274"/>
+      <c r="W68" s="274"/>
+      <c r="X68" s="274"/>
+      <c r="Y68" s="274"/>
+      <c r="Z68" s="274"/>
+      <c r="AA68" s="274"/>
+      <c r="AB68" s="274"/>
+      <c r="AC68" s="273"/>
+      <c r="AD68" s="273"/>
     </row>
     <row r="69" spans="2:35">
       <c r="B69" s="18"/>
-      <c r="C69" s="312"/>
-      <c r="D69" s="312"/>
-      <c r="E69" s="312"/>
-      <c r="F69" s="312"/>
-      <c r="G69" s="312"/>
-      <c r="H69" s="312"/>
-      <c r="I69" s="312"/>
-      <c r="J69" s="313"/>
-      <c r="K69" s="315"/>
-      <c r="L69" s="317"/>
+      <c r="C69" s="290"/>
+      <c r="D69" s="290"/>
+      <c r="E69" s="290"/>
+      <c r="F69" s="290"/>
+      <c r="G69" s="290"/>
+      <c r="H69" s="290"/>
+      <c r="I69" s="290"/>
+      <c r="J69" s="291"/>
+      <c r="K69" s="293"/>
+      <c r="L69" s="295"/>
       <c r="M69" s="123" t="s">
         <v>27</v>
       </c>
       <c r="N69" s="158"/>
       <c r="O69" s="154"/>
-      <c r="P69" s="154"/>
-      <c r="Q69" s="154"/>
-      <c r="R69" s="177"/>
-      <c r="S69" s="177"/>
-      <c r="T69" s="199"/>
-      <c r="Z69" s="341"/>
-      <c r="AA69" s="342"/>
-      <c r="AB69" s="342"/>
-      <c r="AC69" s="342"/>
-      <c r="AD69" s="342"/>
-      <c r="AE69" s="342"/>
-      <c r="AF69" s="342"/>
-      <c r="AG69" s="342"/>
-      <c r="AH69" s="341"/>
-      <c r="AI69" s="341"/>
+      <c r="P69" s="332"/>
+      <c r="Q69" s="332"/>
+      <c r="R69" s="244"/>
+      <c r="S69" s="244"/>
+      <c r="T69" s="339"/>
+      <c r="U69" s="273"/>
+      <c r="V69" s="274"/>
+      <c r="W69" s="274"/>
+      <c r="X69" s="274"/>
+      <c r="Y69" s="274"/>
+      <c r="Z69" s="274"/>
+      <c r="AA69" s="274"/>
+      <c r="AB69" s="274"/>
+      <c r="AC69" s="273"/>
+      <c r="AD69" s="273"/>
     </row>
     <row r="70" spans="2:35">
       <c r="B70" s="18"/>
-      <c r="C70" s="322" t="s">
+      <c r="C70" s="296" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="309"/>
-      <c r="E70" s="309"/>
-      <c r="F70" s="309"/>
-      <c r="G70" s="309"/>
-      <c r="H70" s="309"/>
-      <c r="I70" s="309"/>
-      <c r="J70" s="310"/>
-      <c r="K70" s="314" t="s">
+      <c r="D70" s="287"/>
+      <c r="E70" s="287"/>
+      <c r="F70" s="287"/>
+      <c r="G70" s="287"/>
+      <c r="H70" s="287"/>
+      <c r="I70" s="287"/>
+      <c r="J70" s="288"/>
+      <c r="K70" s="292" t="s">
         <v>73</v>
       </c>
-      <c r="L70" s="316">
+      <c r="L70" s="294">
         <v>0</v>
       </c>
       <c r="M70" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N70" s="167"/>
-      <c r="O70" s="198"/>
-      <c r="P70" s="122"/>
-      <c r="Q70" s="122"/>
-      <c r="R70" s="172"/>
-      <c r="S70" s="172"/>
-      <c r="T70" s="195"/>
-      <c r="Z70" s="342"/>
-      <c r="AA70" s="342"/>
-      <c r="AB70" s="342"/>
-      <c r="AC70" s="342"/>
-      <c r="AD70" s="342"/>
-      <c r="AE70" s="342"/>
-      <c r="AF70" s="342"/>
-      <c r="AG70" s="342"/>
-      <c r="AH70" s="341"/>
-      <c r="AI70" s="341"/>
+      <c r="N70" s="164"/>
+      <c r="O70" s="183"/>
+      <c r="P70" s="323"/>
+      <c r="Q70" s="323"/>
+      <c r="R70" s="209"/>
+      <c r="S70" s="209"/>
+      <c r="T70" s="341"/>
+      <c r="U70" s="274"/>
+      <c r="V70" s="274"/>
+      <c r="W70" s="274"/>
+      <c r="X70" s="274"/>
+      <c r="Y70" s="274"/>
+      <c r="Z70" s="274"/>
+      <c r="AA70" s="274"/>
+      <c r="AB70" s="274"/>
+      <c r="AC70" s="273"/>
+      <c r="AD70" s="273"/>
     </row>
     <row r="71" spans="2:35">
       <c r="B71" s="18"/>
-      <c r="C71" s="312"/>
-      <c r="D71" s="312"/>
-      <c r="E71" s="312"/>
-      <c r="F71" s="312"/>
-      <c r="G71" s="312"/>
-      <c r="H71" s="312"/>
-      <c r="I71" s="312"/>
-      <c r="J71" s="313"/>
-      <c r="K71" s="315"/>
-      <c r="L71" s="317"/>
+      <c r="C71" s="290"/>
+      <c r="D71" s="290"/>
+      <c r="E71" s="290"/>
+      <c r="F71" s="290"/>
+      <c r="G71" s="290"/>
+      <c r="H71" s="290"/>
+      <c r="I71" s="290"/>
+      <c r="J71" s="291"/>
+      <c r="K71" s="293"/>
+      <c r="L71" s="295"/>
       <c r="M71" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N71" s="168"/>
+      <c r="N71" s="165"/>
       <c r="O71" s="124"/>
-      <c r="P71" s="124"/>
-      <c r="Q71" s="124"/>
-      <c r="R71" s="173"/>
-      <c r="S71" s="173"/>
-      <c r="T71" s="196"/>
-      <c r="Z71" s="342"/>
-      <c r="AA71" s="342"/>
-      <c r="AB71" s="342"/>
-      <c r="AC71" s="342"/>
-      <c r="AD71" s="342"/>
-      <c r="AE71" s="342"/>
-      <c r="AF71" s="342"/>
-      <c r="AG71" s="342"/>
-      <c r="AH71" s="341"/>
-      <c r="AI71" s="341"/>
+      <c r="P71" s="324"/>
+      <c r="Q71" s="324"/>
+      <c r="R71" s="204"/>
+      <c r="S71" s="204"/>
+      <c r="T71" s="337"/>
+      <c r="U71" s="274"/>
+      <c r="V71" s="274"/>
+      <c r="W71" s="274"/>
+      <c r="X71" s="274"/>
+      <c r="Y71" s="274"/>
+      <c r="Z71" s="274"/>
+      <c r="AA71" s="274"/>
+      <c r="AB71" s="274"/>
+      <c r="AC71" s="273"/>
+      <c r="AD71" s="273"/>
     </row>
     <row r="72" spans="2:35">
       <c r="B72" s="22"/>
@@ -11260,74 +11921,118 @@
       <c r="K72" s="157"/>
       <c r="L72" s="157"/>
       <c r="M72" s="22"/>
-      <c r="N72" s="170"/>
+      <c r="N72" s="167"/>
       <c r="O72" s="130"/>
-      <c r="P72" s="130"/>
-      <c r="Q72" s="130"/>
-      <c r="R72" s="174"/>
-      <c r="S72" s="174"/>
-      <c r="T72" s="197"/>
-      <c r="Z72" s="342"/>
-      <c r="AA72" s="342"/>
-      <c r="AB72" s="342"/>
-      <c r="AC72" s="342"/>
-      <c r="AD72" s="342"/>
-      <c r="AE72" s="342"/>
-      <c r="AF72" s="342"/>
-      <c r="AG72" s="342"/>
-      <c r="AH72" s="341"/>
-      <c r="AI72" s="341"/>
+      <c r="P72" s="330"/>
+      <c r="Q72" s="330"/>
+      <c r="R72" s="205"/>
+      <c r="S72" s="205"/>
+      <c r="T72" s="338"/>
+      <c r="U72" s="274"/>
+      <c r="V72" s="274"/>
+      <c r="W72" s="274"/>
+      <c r="X72" s="274"/>
+      <c r="Y72" s="274"/>
+      <c r="Z72" s="274"/>
+      <c r="AA72" s="274"/>
+      <c r="AB72" s="274"/>
+      <c r="AC72" s="273"/>
+      <c r="AD72" s="273"/>
     </row>
     <row r="73" spans="2:35">
-      <c r="Z73" s="342"/>
-      <c r="AA73" s="342"/>
-      <c r="AB73" s="342"/>
-      <c r="AC73" s="342"/>
-      <c r="AD73" s="342"/>
-      <c r="AE73" s="342"/>
-      <c r="AF73" s="342"/>
-      <c r="AG73" s="342"/>
-      <c r="AH73" s="341"/>
-      <c r="AI73" s="341"/>
+      <c r="Z73" s="274"/>
+      <c r="AA73" s="274"/>
+      <c r="AB73" s="274"/>
+      <c r="AC73" s="274"/>
+      <c r="AD73" s="274"/>
+      <c r="AE73" s="274"/>
+      <c r="AF73" s="274"/>
+      <c r="AG73" s="274"/>
+      <c r="AH73" s="273"/>
+      <c r="AI73" s="273"/>
     </row>
     <row r="74" spans="2:35">
-      <c r="Z74" s="342"/>
-      <c r="AA74" s="342"/>
-      <c r="AB74" s="342"/>
-      <c r="AC74" s="342"/>
-      <c r="AD74" s="342"/>
-      <c r="AE74" s="342"/>
-      <c r="AF74" s="342"/>
-      <c r="AG74" s="342"/>
-      <c r="AH74" s="341"/>
-      <c r="AI74" s="341"/>
+      <c r="Z74" s="274"/>
+      <c r="AA74" s="274"/>
+      <c r="AB74" s="274"/>
+      <c r="AC74" s="274"/>
+      <c r="AD74" s="274"/>
+      <c r="AE74" s="274"/>
+      <c r="AF74" s="274"/>
+      <c r="AG74" s="274"/>
+      <c r="AH74" s="273"/>
+      <c r="AI74" s="273"/>
     </row>
     <row r="75" spans="2:35">
-      <c r="Z75" s="341"/>
-      <c r="AA75" s="342"/>
-      <c r="AB75" s="342"/>
-      <c r="AC75" s="342"/>
-      <c r="AD75" s="342"/>
-      <c r="AE75" s="342"/>
-      <c r="AF75" s="342"/>
-      <c r="AG75" s="342"/>
-      <c r="AH75" s="341"/>
-      <c r="AI75" s="341"/>
+      <c r="Z75" s="273"/>
+      <c r="AA75" s="274"/>
+      <c r="AB75" s="274"/>
+      <c r="AC75" s="274"/>
+      <c r="AD75" s="274"/>
+      <c r="AE75" s="274"/>
+      <c r="AF75" s="274"/>
+      <c r="AG75" s="274"/>
+      <c r="AH75" s="273"/>
+      <c r="AI75" s="273"/>
     </row>
     <row r="76" spans="2:35">
-      <c r="Z76" s="342"/>
-      <c r="AA76" s="342"/>
-      <c r="AB76" s="342"/>
-      <c r="AC76" s="342"/>
-      <c r="AD76" s="342"/>
-      <c r="AE76" s="342"/>
-      <c r="AF76" s="342"/>
-      <c r="AG76" s="342"/>
-      <c r="AH76" s="341"/>
-      <c r="AI76" s="341"/>
+      <c r="Z76" s="274"/>
+      <c r="AA76" s="274"/>
+      <c r="AB76" s="274"/>
+      <c r="AC76" s="274"/>
+      <c r="AD76" s="274"/>
+      <c r="AE76" s="274"/>
+      <c r="AF76" s="274"/>
+      <c r="AG76" s="274"/>
+      <c r="AH76" s="273"/>
+      <c r="AI76" s="273"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="C34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="C36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="C38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="C54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="C42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="C46:J47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="C56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="C58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C60:J61"/>
+    <mergeCell ref="K60:K61"/>
     <mergeCell ref="C52:J53"/>
     <mergeCell ref="K52:K53"/>
     <mergeCell ref="L64:L65"/>
@@ -11344,50 +12049,6 @@
     <mergeCell ref="K64:K65"/>
     <mergeCell ref="L60:L61"/>
     <mergeCell ref="C62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="C56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="C58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="C60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="C54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="C42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="C48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="C46:J47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="C38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="C36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -11404,7 +12065,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1E69AA-C7D0-4C51-9F8C-E89B9B560452}">
-  <dimension ref="B23:Q37"/>
+  <dimension ref="B23:U37"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -11416,12 +12077,12 @@
     <col min="16" max="16384" width="4.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="23" spans="2:17" ht="24">
+    <row r="23" spans="2:21" ht="24">
       <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:21">
       <c r="N24" s="105"/>
       <c r="O24" s="2" t="s">
         <v>18</v>
@@ -11431,7 +12092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:21">
       <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
@@ -11446,14 +12107,18 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="182" t="s">
+      <c r="N25" s="175" t="s">
         <v>64</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="108"/>
-    </row>
-    <row r="26" spans="2:17">
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+    </row>
+    <row r="26" spans="2:21">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
@@ -11472,14 +12137,18 @@
       <c r="M26" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="200" t="s">
+      <c r="N26" s="184" t="s">
         <v>38</v>
       </c>
       <c r="O26" s="112"/>
       <c r="P26" s="112"/>
       <c r="Q26" s="113"/>
-    </row>
-    <row r="27" spans="2:17">
+      <c r="R26" s="113"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+    </row>
+    <row r="27" spans="2:21">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
@@ -11492,20 +12161,32 @@
       <c r="K27" s="10"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="184">
-        <v>27</v>
-      </c>
-      <c r="O27" s="115">
-        <v>28</v>
-      </c>
-      <c r="P27" s="184">
-        <v>29</v>
-      </c>
-      <c r="Q27" s="201">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17">
+      <c r="N27" s="177">
+        <v>19</v>
+      </c>
+      <c r="O27" s="177">
+        <v>20</v>
+      </c>
+      <c r="P27" s="177">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="177">
+        <v>22</v>
+      </c>
+      <c r="R27" s="177">
+        <v>23</v>
+      </c>
+      <c r="S27" s="177">
+        <v>24</v>
+      </c>
+      <c r="T27" s="177">
+        <v>25</v>
+      </c>
+      <c r="U27" s="177">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
       <c r="B28" s="13">
         <v>8</v>
       </c>
@@ -11519,20 +12200,24 @@
       <c r="H28" s="117"/>
       <c r="I28" s="117"/>
       <c r="J28" s="117"/>
-      <c r="K28" s="186"/>
+      <c r="K28" s="179"/>
       <c r="L28" s="118"/>
       <c r="M28" s="16"/>
-      <c r="N28" s="206"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="202"/>
-    </row>
-    <row r="29" spans="2:17">
+      <c r="N28" s="342"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="340"/>
+      <c r="Q28" s="345"/>
+      <c r="R28" s="335"/>
+      <c r="S28" s="335"/>
+      <c r="T28" s="335"/>
+      <c r="U28" s="335"/>
+    </row>
+    <row r="29" spans="2:21">
       <c r="B29" s="18"/>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="181" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="117"/>
@@ -11541,66 +12226,78 @@
       <c r="H29" s="117"/>
       <c r="I29" s="117"/>
       <c r="J29" s="117"/>
-      <c r="K29" s="186"/>
+      <c r="K29" s="179"/>
       <c r="L29" s="118"/>
       <c r="M29" s="118"/>
-      <c r="N29" s="206"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="202"/>
-    </row>
-    <row r="30" spans="2:17">
+      <c r="N29" s="342"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="340"/>
+      <c r="Q29" s="345"/>
+      <c r="R29" s="335"/>
+      <c r="S29" s="335"/>
+      <c r="T29" s="335"/>
+      <c r="U29" s="335"/>
+    </row>
+    <row r="30" spans="2:21">
       <c r="B30" s="18"/>
-      <c r="C30" s="339" t="s">
+      <c r="C30" s="317" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="334"/>
-      <c r="E30" s="334"/>
-      <c r="F30" s="334"/>
-      <c r="G30" s="334"/>
-      <c r="H30" s="334"/>
-      <c r="I30" s="334"/>
-      <c r="J30" s="335"/>
-      <c r="K30" s="314" t="s">
+      <c r="D30" s="312"/>
+      <c r="E30" s="312"/>
+      <c r="F30" s="312"/>
+      <c r="G30" s="312"/>
+      <c r="H30" s="312"/>
+      <c r="I30" s="312"/>
+      <c r="J30" s="313"/>
+      <c r="K30" s="292" t="s">
         <v>52</v>
       </c>
-      <c r="L30" s="323">
+      <c r="L30" s="297">
         <v>0</v>
       </c>
       <c r="M30" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="105"/>
-      <c r="O30" s="137"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="203"/>
-    </row>
-    <row r="31" spans="2:17">
+      <c r="N30" s="320"/>
+      <c r="O30" s="209"/>
+      <c r="P30" s="323"/>
+      <c r="Q30" s="346"/>
+      <c r="R30" s="349"/>
+      <c r="S30" s="343"/>
+      <c r="T30" s="343"/>
+      <c r="U30" s="343"/>
+    </row>
+    <row r="31" spans="2:21">
       <c r="B31" s="18"/>
-      <c r="C31" s="336"/>
-      <c r="D31" s="337"/>
-      <c r="E31" s="337"/>
-      <c r="F31" s="337"/>
-      <c r="G31" s="337"/>
-      <c r="H31" s="337"/>
-      <c r="I31" s="337"/>
-      <c r="J31" s="338"/>
-      <c r="K31" s="315"/>
-      <c r="L31" s="315"/>
+      <c r="C31" s="314"/>
+      <c r="D31" s="315"/>
+      <c r="E31" s="315"/>
+      <c r="F31" s="315"/>
+      <c r="G31" s="315"/>
+      <c r="H31" s="315"/>
+      <c r="I31" s="315"/>
+      <c r="J31" s="316"/>
+      <c r="K31" s="293"/>
+      <c r="L31" s="293"/>
       <c r="M31" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N31" s="207"/>
-      <c r="O31" s="138"/>
-      <c r="P31" s="124"/>
-      <c r="Q31" s="204"/>
-    </row>
-    <row r="32" spans="2:17">
+      <c r="N31" s="159"/>
+      <c r="O31" s="204"/>
+      <c r="P31" s="324"/>
+      <c r="Q31" s="347"/>
+      <c r="R31" s="344"/>
+      <c r="S31" s="344"/>
+      <c r="T31" s="344"/>
+      <c r="U31" s="344"/>
+    </row>
+    <row r="32" spans="2:21">
       <c r="B32" s="18"/>
-      <c r="C32" s="185" t="s">
+      <c r="C32" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="181" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="117"/>
@@ -11609,107 +12306,127 @@
       <c r="H32" s="117"/>
       <c r="I32" s="117"/>
       <c r="J32" s="117"/>
-      <c r="K32" s="186"/>
+      <c r="K32" s="179"/>
       <c r="L32" s="118"/>
       <c r="M32" s="118"/>
-      <c r="N32" s="206"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="202"/>
-    </row>
-    <row r="33" spans="2:17">
+      <c r="N32" s="342"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="340"/>
+      <c r="Q32" s="345"/>
+      <c r="R32" s="335"/>
+      <c r="S32" s="335"/>
+      <c r="T32" s="335"/>
+      <c r="U32" s="335"/>
+    </row>
+    <row r="33" spans="2:21">
       <c r="B33" s="18"/>
-      <c r="C33" s="339" t="s">
+      <c r="C33" s="317" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="334"/>
-      <c r="E33" s="334"/>
-      <c r="F33" s="334"/>
-      <c r="G33" s="334"/>
-      <c r="H33" s="334"/>
-      <c r="I33" s="334"/>
-      <c r="J33" s="335"/>
-      <c r="K33" s="314" t="s">
+      <c r="D33" s="312"/>
+      <c r="E33" s="312"/>
+      <c r="F33" s="312"/>
+      <c r="G33" s="312"/>
+      <c r="H33" s="312"/>
+      <c r="I33" s="312"/>
+      <c r="J33" s="313"/>
+      <c r="K33" s="292" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="323">
+      <c r="L33" s="297">
         <v>0</v>
       </c>
       <c r="M33" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N33" s="105"/>
-      <c r="O33" s="137"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="203"/>
-    </row>
-    <row r="34" spans="2:17">
+      <c r="N33" s="135"/>
+      <c r="O33" s="209"/>
+      <c r="P33" s="323"/>
+      <c r="Q33" s="346"/>
+      <c r="R33" s="349"/>
+      <c r="S33" s="349"/>
+      <c r="T33" s="349"/>
+      <c r="U33" s="343"/>
+    </row>
+    <row r="34" spans="2:21">
       <c r="B34" s="18"/>
-      <c r="C34" s="336"/>
-      <c r="D34" s="337"/>
-      <c r="E34" s="337"/>
-      <c r="F34" s="337"/>
-      <c r="G34" s="337"/>
-      <c r="H34" s="337"/>
-      <c r="I34" s="337"/>
-      <c r="J34" s="338"/>
-      <c r="K34" s="315"/>
-      <c r="L34" s="315"/>
+      <c r="C34" s="314"/>
+      <c r="D34" s="315"/>
+      <c r="E34" s="315"/>
+      <c r="F34" s="315"/>
+      <c r="G34" s="315"/>
+      <c r="H34" s="315"/>
+      <c r="I34" s="315"/>
+      <c r="J34" s="316"/>
+      <c r="K34" s="293"/>
+      <c r="L34" s="293"/>
       <c r="M34" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N34" s="207"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="124"/>
-      <c r="Q34" s="204"/>
-    </row>
-    <row r="35" spans="2:17">
+      <c r="N34" s="159"/>
+      <c r="O34" s="204"/>
+      <c r="P34" s="324"/>
+      <c r="Q34" s="347"/>
+      <c r="R34" s="344"/>
+      <c r="S34" s="344"/>
+      <c r="T34" s="344"/>
+      <c r="U34" s="344"/>
+    </row>
+    <row r="35" spans="2:21">
       <c r="B35" s="18"/>
-      <c r="C35" s="333" t="s">
+      <c r="C35" s="311" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="334"/>
-      <c r="E35" s="334"/>
-      <c r="F35" s="334"/>
-      <c r="G35" s="334"/>
-      <c r="H35" s="334"/>
-      <c r="I35" s="334"/>
-      <c r="J35" s="335"/>
-      <c r="K35" s="314" t="s">
+      <c r="D35" s="312"/>
+      <c r="E35" s="312"/>
+      <c r="F35" s="312"/>
+      <c r="G35" s="312"/>
+      <c r="H35" s="312"/>
+      <c r="I35" s="312"/>
+      <c r="J35" s="313"/>
+      <c r="K35" s="292" t="s">
         <v>52</v>
       </c>
-      <c r="L35" s="323">
+      <c r="L35" s="297">
         <v>0</v>
       </c>
       <c r="M35" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="N35" s="105"/>
-      <c r="O35" s="137"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="203"/>
-    </row>
-    <row r="36" spans="2:17">
+      <c r="N35" s="135"/>
+      <c r="O35" s="203"/>
+      <c r="P35" s="323"/>
+      <c r="Q35" s="346"/>
+      <c r="R35" s="343"/>
+      <c r="S35" s="349"/>
+      <c r="T35" s="349"/>
+      <c r="U35" s="349"/>
+    </row>
+    <row r="36" spans="2:21">
       <c r="B36" s="18"/>
-      <c r="C36" s="336"/>
-      <c r="D36" s="337"/>
-      <c r="E36" s="337"/>
-      <c r="F36" s="337"/>
-      <c r="G36" s="337"/>
-      <c r="H36" s="337"/>
-      <c r="I36" s="337"/>
-      <c r="J36" s="338"/>
-      <c r="K36" s="315"/>
-      <c r="L36" s="315"/>
+      <c r="C36" s="314"/>
+      <c r="D36" s="315"/>
+      <c r="E36" s="315"/>
+      <c r="F36" s="315"/>
+      <c r="G36" s="315"/>
+      <c r="H36" s="315"/>
+      <c r="I36" s="315"/>
+      <c r="J36" s="316"/>
+      <c r="K36" s="293"/>
+      <c r="L36" s="293"/>
       <c r="M36" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N36" s="207"/>
-      <c r="O36" s="138"/>
-      <c r="P36" s="124"/>
-      <c r="Q36" s="204"/>
-    </row>
-    <row r="37" spans="2:17">
+      <c r="N36" s="159"/>
+      <c r="O36" s="204"/>
+      <c r="P36" s="324"/>
+      <c r="Q36" s="347"/>
+      <c r="R36" s="344"/>
+      <c r="S36" s="344"/>
+      <c r="T36" s="344"/>
+      <c r="U36" s="344"/>
+    </row>
+    <row r="37" spans="2:21">
       <c r="B37" s="22"/>
       <c r="C37" s="126"/>
       <c r="D37" s="127"/>
@@ -11722,10 +12439,14 @@
       <c r="K37" s="157"/>
       <c r="L37" s="128"/>
       <c r="M37" s="22"/>
-      <c r="N37" s="208"/>
-      <c r="O37" s="163"/>
-      <c r="P37" s="130"/>
-      <c r="Q37" s="205"/>
+      <c r="N37" s="143"/>
+      <c r="O37" s="205"/>
+      <c r="P37" s="330"/>
+      <c r="Q37" s="348"/>
+      <c r="R37" s="338"/>
+      <c r="S37" s="338"/>
+      <c r="T37" s="338"/>
+      <c r="U37" s="338"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11796,23 +12517,29 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="211" t="s">
+      <c r="N25" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="O25" s="209"/>
-      <c r="P25" s="209"/>
-      <c r="Q25" s="209"/>
-      <c r="R25" s="209"/>
-      <c r="S25" s="209"/>
-      <c r="T25" s="209"/>
-      <c r="U25" s="209"/>
-      <c r="V25" s="209"/>
-      <c r="W25" s="209"/>
-      <c r="X25" s="209"/>
-      <c r="Y25" s="209"/>
-      <c r="Z25" s="209"/>
-      <c r="AA25" s="209"/>
-      <c r="AB25" s="209"/>
+      <c r="O25" s="187" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" s="187" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25" s="187" t="s">
+        <v>64</v>
+      </c>
+      <c r="R25" s="185"/>
+      <c r="S25" s="185"/>
+      <c r="T25" s="185"/>
+      <c r="U25" s="185"/>
+      <c r="V25" s="185"/>
+      <c r="W25" s="185"/>
+      <c r="X25" s="185"/>
+      <c r="Y25" s="185"/>
+      <c r="Z25" s="185"/>
+      <c r="AA25" s="185"/>
+      <c r="AB25" s="185"/>
     </row>
     <row r="26" spans="2:28">
       <c r="B26" s="6"/>
@@ -11833,23 +12560,29 @@
       <c r="M26" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="212" t="s">
+      <c r="N26" s="188" t="s">
         <v>38</v>
       </c>
-      <c r="O26" s="209"/>
-      <c r="P26" s="209"/>
-      <c r="Q26" s="209"/>
-      <c r="R26" s="209"/>
-      <c r="S26" s="209"/>
-      <c r="T26" s="209"/>
-      <c r="U26" s="209"/>
-      <c r="V26" s="209"/>
-      <c r="W26" s="209"/>
-      <c r="X26" s="209"/>
-      <c r="Y26" s="209"/>
-      <c r="Z26" s="209"/>
-      <c r="AA26" s="209"/>
-      <c r="AB26" s="209"/>
+      <c r="O26" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" s="185"/>
+      <c r="S26" s="185"/>
+      <c r="T26" s="185"/>
+      <c r="U26" s="185"/>
+      <c r="V26" s="185"/>
+      <c r="W26" s="185"/>
+      <c r="X26" s="185"/>
+      <c r="Y26" s="185"/>
+      <c r="Z26" s="185"/>
+      <c r="AA26" s="185"/>
+      <c r="AB26" s="185"/>
     </row>
     <row r="27" spans="2:28">
       <c r="B27" s="9"/>
@@ -11864,23 +12597,29 @@
       <c r="K27" s="10"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="213">
+      <c r="N27" s="189">
+        <v>26</v>
+      </c>
+      <c r="O27" s="189">
+        <v>27</v>
+      </c>
+      <c r="P27" s="189">
         <v>28</v>
       </c>
-      <c r="O27" s="209"/>
-      <c r="P27" s="209"/>
-      <c r="Q27" s="209"/>
-      <c r="R27" s="209"/>
-      <c r="S27" s="209"/>
-      <c r="T27" s="209"/>
-      <c r="U27" s="209"/>
-      <c r="V27" s="209"/>
-      <c r="W27" s="210"/>
-      <c r="X27" s="210"/>
-      <c r="Y27" s="210"/>
-      <c r="Z27" s="210"/>
-      <c r="AA27" s="210"/>
-      <c r="AB27" s="210"/>
+      <c r="Q27" s="189">
+        <v>29</v>
+      </c>
+      <c r="R27" s="185"/>
+      <c r="S27" s="185"/>
+      <c r="T27" s="185"/>
+      <c r="U27" s="185"/>
+      <c r="V27" s="185"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="186"/>
+      <c r="Y27" s="186"/>
+      <c r="Z27" s="186"/>
+      <c r="AA27" s="186"/>
+      <c r="AB27" s="186"/>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="13">
@@ -11896,228 +12635,228 @@
       <c r="H28" s="117"/>
       <c r="I28" s="117"/>
       <c r="J28" s="117"/>
-      <c r="K28" s="186"/>
+      <c r="K28" s="179"/>
       <c r="L28" s="118"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="209"/>
-      <c r="P28" s="209"/>
-      <c r="Q28" s="209"/>
-      <c r="R28" s="209"/>
-      <c r="S28" s="209"/>
-      <c r="T28" s="209"/>
-      <c r="U28" s="209"/>
-      <c r="V28" s="209"/>
-      <c r="W28" s="209"/>
-      <c r="X28" s="209"/>
-      <c r="Y28" s="209"/>
-      <c r="Z28" s="209"/>
-      <c r="AA28" s="209"/>
-      <c r="AB28" s="209"/>
+      <c r="O28" s="350"/>
+      <c r="P28" s="350"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="185"/>
+      <c r="S28" s="185"/>
+      <c r="T28" s="185"/>
+      <c r="U28" s="185"/>
+      <c r="V28" s="185"/>
+      <c r="W28" s="185"/>
+      <c r="X28" s="185"/>
+      <c r="Y28" s="185"/>
+      <c r="Z28" s="185"/>
+      <c r="AA28" s="185"/>
+      <c r="AB28" s="185"/>
     </row>
     <row r="29" spans="2:28">
       <c r="B29" s="18"/>
-      <c r="C29" s="340" t="s">
+      <c r="C29" s="318" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="309"/>
-      <c r="E29" s="309"/>
-      <c r="F29" s="309"/>
-      <c r="G29" s="309"/>
-      <c r="H29" s="309"/>
-      <c r="I29" s="309"/>
-      <c r="J29" s="310"/>
-      <c r="K29" s="314" t="s">
+      <c r="D29" s="287"/>
+      <c r="E29" s="287"/>
+      <c r="F29" s="287"/>
+      <c r="G29" s="287"/>
+      <c r="H29" s="287"/>
+      <c r="I29" s="287"/>
+      <c r="J29" s="288"/>
+      <c r="K29" s="292" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="323">
+      <c r="L29" s="297">
         <v>0</v>
       </c>
       <c r="M29" s="121" t="s">
         <v>26</v>
       </c>
       <c r="N29" s="105"/>
-      <c r="O29" s="209"/>
-      <c r="P29" s="209"/>
-      <c r="Q29" s="209"/>
-      <c r="R29" s="209"/>
-      <c r="S29" s="209"/>
-      <c r="T29" s="209"/>
-      <c r="U29" s="209"/>
-      <c r="V29" s="209"/>
-      <c r="W29" s="209"/>
-      <c r="X29" s="209"/>
-      <c r="Y29" s="209"/>
-      <c r="Z29" s="209"/>
-      <c r="AA29" s="209"/>
-      <c r="AB29" s="209"/>
+      <c r="O29" s="351"/>
+      <c r="P29" s="351"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="185"/>
+      <c r="S29" s="185"/>
+      <c r="T29" s="185"/>
+      <c r="U29" s="185"/>
+      <c r="V29" s="185"/>
+      <c r="W29" s="185"/>
+      <c r="X29" s="185"/>
+      <c r="Y29" s="185"/>
+      <c r="Z29" s="185"/>
+      <c r="AA29" s="185"/>
+      <c r="AB29" s="185"/>
     </row>
     <row r="30" spans="2:28">
       <c r="B30" s="18"/>
-      <c r="C30" s="311"/>
-      <c r="D30" s="312"/>
-      <c r="E30" s="312"/>
-      <c r="F30" s="312"/>
-      <c r="G30" s="312"/>
-      <c r="H30" s="312"/>
-      <c r="I30" s="312"/>
-      <c r="J30" s="313"/>
-      <c r="K30" s="315"/>
-      <c r="L30" s="315"/>
+      <c r="C30" s="289"/>
+      <c r="D30" s="290"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="290"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="290"/>
+      <c r="J30" s="291"/>
+      <c r="K30" s="293"/>
+      <c r="L30" s="293"/>
       <c r="M30" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="214"/>
-      <c r="O30" s="209"/>
-      <c r="P30" s="209"/>
-      <c r="Q30" s="209"/>
-      <c r="R30" s="209"/>
-      <c r="S30" s="209"/>
-      <c r="T30" s="209"/>
-      <c r="U30" s="209"/>
-      <c r="V30" s="209"/>
-      <c r="W30" s="209"/>
-      <c r="X30" s="209"/>
-      <c r="Y30" s="209"/>
-      <c r="Z30" s="209"/>
-      <c r="AA30" s="209"/>
-      <c r="AB30" s="209"/>
+      <c r="N30" s="190"/>
+      <c r="O30" s="352"/>
+      <c r="P30" s="352"/>
+      <c r="Q30" s="190"/>
+      <c r="R30" s="185"/>
+      <c r="S30" s="185"/>
+      <c r="T30" s="185"/>
+      <c r="U30" s="185"/>
+      <c r="V30" s="185"/>
+      <c r="W30" s="185"/>
+      <c r="X30" s="185"/>
+      <c r="Y30" s="185"/>
+      <c r="Z30" s="185"/>
+      <c r="AA30" s="185"/>
+      <c r="AB30" s="185"/>
     </row>
     <row r="31" spans="2:28">
       <c r="B31" s="18"/>
-      <c r="C31" s="308" t="s">
+      <c r="C31" s="286" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="309"/>
-      <c r="E31" s="309"/>
-      <c r="F31" s="309"/>
-      <c r="G31" s="309"/>
-      <c r="H31" s="309"/>
-      <c r="I31" s="309"/>
-      <c r="J31" s="310"/>
-      <c r="K31" s="314" t="s">
+      <c r="D31" s="287"/>
+      <c r="E31" s="287"/>
+      <c r="F31" s="287"/>
+      <c r="G31" s="287"/>
+      <c r="H31" s="287"/>
+      <c r="I31" s="287"/>
+      <c r="J31" s="288"/>
+      <c r="K31" s="292" t="s">
         <v>52</v>
       </c>
-      <c r="L31" s="323">
+      <c r="L31" s="297">
         <v>0</v>
       </c>
       <c r="M31" s="121" t="s">
         <v>26</v>
       </c>
       <c r="N31" s="105"/>
-      <c r="O31" s="209"/>
-      <c r="P31" s="209"/>
-      <c r="Q31" s="209"/>
-      <c r="R31" s="209"/>
-      <c r="S31" s="209"/>
-      <c r="T31" s="209"/>
-      <c r="U31" s="209"/>
-      <c r="V31" s="209"/>
-      <c r="W31" s="209"/>
-      <c r="X31" s="209"/>
-      <c r="Y31" s="209"/>
-      <c r="Z31" s="209"/>
-      <c r="AA31" s="209"/>
-      <c r="AB31" s="209"/>
+      <c r="O31" s="351"/>
+      <c r="P31" s="351"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="185"/>
+      <c r="S31" s="185"/>
+      <c r="T31" s="185"/>
+      <c r="U31" s="185"/>
+      <c r="V31" s="185"/>
+      <c r="W31" s="185"/>
+      <c r="X31" s="185"/>
+      <c r="Y31" s="185"/>
+      <c r="Z31" s="185"/>
+      <c r="AA31" s="185"/>
+      <c r="AB31" s="185"/>
     </row>
     <row r="32" spans="2:28">
       <c r="B32" s="18"/>
-      <c r="C32" s="311"/>
-      <c r="D32" s="312"/>
-      <c r="E32" s="312"/>
-      <c r="F32" s="312"/>
-      <c r="G32" s="312"/>
-      <c r="H32" s="312"/>
-      <c r="I32" s="312"/>
-      <c r="J32" s="313"/>
-      <c r="K32" s="315"/>
-      <c r="L32" s="315"/>
+      <c r="C32" s="289"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="290"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="290"/>
+      <c r="J32" s="291"/>
+      <c r="K32" s="293"/>
+      <c r="L32" s="293"/>
       <c r="M32" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N32" s="214"/>
-      <c r="O32" s="209"/>
-      <c r="P32" s="209"/>
-      <c r="Q32" s="209"/>
-      <c r="R32" s="209"/>
-      <c r="S32" s="209"/>
-      <c r="T32" s="209"/>
-      <c r="U32" s="209"/>
-      <c r="V32" s="209"/>
-      <c r="W32" s="209"/>
-      <c r="X32" s="209"/>
-      <c r="Y32" s="209"/>
-      <c r="Z32" s="209"/>
-      <c r="AA32" s="209"/>
-      <c r="AB32" s="209"/>
+      <c r="N32" s="190"/>
+      <c r="O32" s="352"/>
+      <c r="P32" s="352"/>
+      <c r="Q32" s="190"/>
+      <c r="R32" s="185"/>
+      <c r="S32" s="185"/>
+      <c r="T32" s="185"/>
+      <c r="U32" s="185"/>
+      <c r="V32" s="185"/>
+      <c r="W32" s="185"/>
+      <c r="X32" s="185"/>
+      <c r="Y32" s="185"/>
+      <c r="Z32" s="185"/>
+      <c r="AA32" s="185"/>
+      <c r="AB32" s="185"/>
     </row>
     <row r="33" spans="2:28">
       <c r="B33" s="18"/>
-      <c r="C33" s="308" t="s">
+      <c r="C33" s="286" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="309"/>
-      <c r="E33" s="309"/>
-      <c r="F33" s="309"/>
-      <c r="G33" s="309"/>
-      <c r="H33" s="309"/>
-      <c r="I33" s="309"/>
-      <c r="J33" s="310"/>
-      <c r="K33" s="314" t="s">
+      <c r="D33" s="287"/>
+      <c r="E33" s="287"/>
+      <c r="F33" s="287"/>
+      <c r="G33" s="287"/>
+      <c r="H33" s="287"/>
+      <c r="I33" s="287"/>
+      <c r="J33" s="288"/>
+      <c r="K33" s="292" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="323">
+      <c r="L33" s="297">
         <v>0</v>
       </c>
       <c r="M33" s="121" t="s">
         <v>26</v>
       </c>
       <c r="N33" s="105"/>
-      <c r="O33" s="209"/>
-      <c r="P33" s="209"/>
-      <c r="Q33" s="209"/>
-      <c r="R33" s="209"/>
-      <c r="S33" s="209"/>
-      <c r="T33" s="209"/>
-      <c r="U33" s="209"/>
-      <c r="V33" s="209"/>
-      <c r="W33" s="209"/>
-      <c r="X33" s="209"/>
-      <c r="Y33" s="209"/>
-      <c r="Z33" s="209"/>
-      <c r="AA33" s="209"/>
-      <c r="AB33" s="209"/>
+      <c r="O33" s="351"/>
+      <c r="P33" s="351"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="185"/>
+      <c r="S33" s="185"/>
+      <c r="T33" s="185"/>
+      <c r="U33" s="185"/>
+      <c r="V33" s="185"/>
+      <c r="W33" s="185"/>
+      <c r="X33" s="185"/>
+      <c r="Y33" s="185"/>
+      <c r="Z33" s="185"/>
+      <c r="AA33" s="185"/>
+      <c r="AB33" s="185"/>
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="18"/>
-      <c r="C34" s="311"/>
-      <c r="D34" s="312"/>
-      <c r="E34" s="312"/>
-      <c r="F34" s="312"/>
-      <c r="G34" s="312"/>
-      <c r="H34" s="312"/>
-      <c r="I34" s="312"/>
-      <c r="J34" s="313"/>
-      <c r="K34" s="315"/>
-      <c r="L34" s="315"/>
+      <c r="C34" s="289"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="290"/>
+      <c r="G34" s="290"/>
+      <c r="H34" s="290"/>
+      <c r="I34" s="290"/>
+      <c r="J34" s="291"/>
+      <c r="K34" s="293"/>
+      <c r="L34" s="293"/>
       <c r="M34" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="N34" s="214"/>
-      <c r="O34" s="209"/>
-      <c r="P34" s="209"/>
-      <c r="Q34" s="209"/>
-      <c r="R34" s="209"/>
-      <c r="S34" s="209"/>
-      <c r="T34" s="209"/>
-      <c r="U34" s="209"/>
-      <c r="V34" s="209"/>
-      <c r="W34" s="209"/>
-      <c r="X34" s="209"/>
-      <c r="Y34" s="209"/>
-      <c r="Z34" s="209"/>
-      <c r="AA34" s="209"/>
-      <c r="AB34" s="209"/>
+      <c r="N34" s="190"/>
+      <c r="O34" s="352"/>
+      <c r="P34" s="352"/>
+      <c r="Q34" s="190"/>
+      <c r="R34" s="185"/>
+      <c r="S34" s="185"/>
+      <c r="T34" s="185"/>
+      <c r="U34" s="185"/>
+      <c r="V34" s="185"/>
+      <c r="W34" s="185"/>
+      <c r="X34" s="185"/>
+      <c r="Y34" s="185"/>
+      <c r="Z34" s="185"/>
+      <c r="AA34" s="185"/>
+      <c r="AB34" s="185"/>
     </row>
     <row r="35" spans="2:28">
       <c r="B35" s="22"/>
@@ -12133,20 +12872,20 @@
       <c r="L35" s="128"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
-      <c r="O35" s="209"/>
-      <c r="P35" s="209"/>
-      <c r="Q35" s="209"/>
-      <c r="R35" s="209"/>
-      <c r="S35" s="209"/>
-      <c r="T35" s="209"/>
-      <c r="U35" s="209"/>
-      <c r="V35" s="209"/>
-      <c r="W35" s="209"/>
-      <c r="X35" s="209"/>
-      <c r="Y35" s="209"/>
-      <c r="Z35" s="209"/>
-      <c r="AA35" s="209"/>
-      <c r="AB35" s="209"/>
+      <c r="O35" s="353"/>
+      <c r="P35" s="353"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="185"/>
+      <c r="S35" s="185"/>
+      <c r="T35" s="185"/>
+      <c r="U35" s="185"/>
+      <c r="V35" s="185"/>
+      <c r="W35" s="185"/>
+      <c r="X35" s="185"/>
+      <c r="Y35" s="185"/>
+      <c r="Z35" s="185"/>
+      <c r="AA35" s="185"/>
+      <c r="AB35" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Dグループ_スケジュール.xlsx
+++ b/Dグループ_スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\グループ開発　クローン\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6312CC-3980-47F4-A5DE-B256A4776FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8F7F7F-E360-4E5B-ACA8-CA0FBFDE94A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="2" r:id="rId1"/>
@@ -3333,38 +3333,80 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="102" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="103" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3378,29 +3420,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="74" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3426,18 +3462,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3464,30 +3488,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="102" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="103" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="106" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="107" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3537,7 +3537,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s3129"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s3131"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4127,7 +4127,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s6198"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s6200"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4583,7 +4583,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s7220"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s7222"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4917,7 +4917,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s8243"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s8245"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5515,7 +5515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C3AED9-FED9-43A3-BF4F-D0851E0C8988}">
   <dimension ref="B2:AB15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="15.75"/>
   <cols>
@@ -5540,26 +5542,26 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="336">
+      <c r="K4" s="344">
         <v>2020</v>
       </c>
-      <c r="L4" s="336"/>
-      <c r="M4" s="336"/>
-      <c r="N4" s="336"/>
-      <c r="O4" s="336"/>
-      <c r="P4" s="336"/>
-      <c r="Q4" s="336"/>
-      <c r="R4" s="336"/>
-      <c r="S4" s="336"/>
-      <c r="T4" s="336"/>
-      <c r="U4" s="336"/>
-      <c r="V4" s="336"/>
-      <c r="W4" s="336"/>
-      <c r="X4" s="336"/>
-      <c r="Y4" s="336"/>
-      <c r="Z4" s="336"/>
-      <c r="AA4" s="336"/>
-      <c r="AB4" s="336"/>
+      <c r="L4" s="344"/>
+      <c r="M4" s="344"/>
+      <c r="N4" s="344"/>
+      <c r="O4" s="344"/>
+      <c r="P4" s="344"/>
+      <c r="Q4" s="344"/>
+      <c r="R4" s="344"/>
+      <c r="S4" s="344"/>
+      <c r="T4" s="344"/>
+      <c r="U4" s="344"/>
+      <c r="V4" s="344"/>
+      <c r="W4" s="344"/>
+      <c r="X4" s="344"/>
+      <c r="Y4" s="344"/>
+      <c r="Z4" s="344"/>
+      <c r="AA4" s="344"/>
+      <c r="AB4" s="344"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="6"/>
@@ -5571,26 +5573,26 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="336">
+      <c r="K5" s="344">
         <v>6</v>
       </c>
-      <c r="L5" s="336"/>
-      <c r="M5" s="336"/>
-      <c r="N5" s="336"/>
-      <c r="O5" s="336"/>
-      <c r="P5" s="336"/>
-      <c r="Q5" s="336"/>
-      <c r="R5" s="336"/>
-      <c r="S5" s="336"/>
-      <c r="T5" s="336"/>
-      <c r="U5" s="336"/>
-      <c r="V5" s="336"/>
-      <c r="W5" s="336"/>
-      <c r="X5" s="336"/>
-      <c r="Y5" s="336"/>
-      <c r="Z5" s="336"/>
-      <c r="AA5" s="336"/>
-      <c r="AB5" s="336"/>
+      <c r="L5" s="344"/>
+      <c r="M5" s="344"/>
+      <c r="N5" s="344"/>
+      <c r="O5" s="344"/>
+      <c r="P5" s="344"/>
+      <c r="Q5" s="344"/>
+      <c r="R5" s="344"/>
+      <c r="S5" s="344"/>
+      <c r="T5" s="344"/>
+      <c r="U5" s="344"/>
+      <c r="V5" s="344"/>
+      <c r="W5" s="344"/>
+      <c r="X5" s="344"/>
+      <c r="Y5" s="344"/>
+      <c r="Z5" s="344"/>
+      <c r="AA5" s="344"/>
+      <c r="AB5" s="344"/>
     </row>
     <row r="6" spans="2:28">
       <c r="B6" s="9"/>
@@ -6000,26 +6002,26 @@
       <c r="J7" s="180"/>
       <c r="K7" s="180"/>
       <c r="L7" s="180"/>
-      <c r="M7" s="336">
+      <c r="M7" s="344">
         <v>2020</v>
       </c>
-      <c r="N7" s="336"/>
-      <c r="O7" s="336"/>
-      <c r="P7" s="336"/>
-      <c r="Q7" s="336"/>
-      <c r="R7" s="336"/>
-      <c r="S7" s="336"/>
-      <c r="T7" s="336"/>
-      <c r="U7" s="336"/>
-      <c r="V7" s="336"/>
-      <c r="W7" s="336"/>
-      <c r="X7" s="336"/>
-      <c r="Y7" s="336"/>
-      <c r="Z7" s="336"/>
-      <c r="AA7" s="336"/>
-      <c r="AB7" s="336"/>
-      <c r="AC7" s="336"/>
-      <c r="AD7" s="336"/>
+      <c r="N7" s="344"/>
+      <c r="O7" s="344"/>
+      <c r="P7" s="344"/>
+      <c r="Q7" s="344"/>
+      <c r="R7" s="344"/>
+      <c r="S7" s="344"/>
+      <c r="T7" s="344"/>
+      <c r="U7" s="344"/>
+      <c r="V7" s="344"/>
+      <c r="W7" s="344"/>
+      <c r="X7" s="344"/>
+      <c r="Y7" s="344"/>
+      <c r="Z7" s="344"/>
+      <c r="AA7" s="344"/>
+      <c r="AB7" s="344"/>
+      <c r="AC7" s="344"/>
+      <c r="AD7" s="344"/>
     </row>
     <row r="8" spans="4:30" ht="13.5" customHeight="1">
       <c r="D8" s="181"/>
@@ -6031,26 +6033,26 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="336">
+      <c r="M8" s="344">
         <v>6</v>
       </c>
-      <c r="N8" s="336"/>
-      <c r="O8" s="336"/>
-      <c r="P8" s="336"/>
-      <c r="Q8" s="336"/>
-      <c r="R8" s="336"/>
-      <c r="S8" s="336"/>
-      <c r="T8" s="336"/>
-      <c r="U8" s="336"/>
-      <c r="V8" s="336"/>
-      <c r="W8" s="336"/>
-      <c r="X8" s="336"/>
-      <c r="Y8" s="336"/>
-      <c r="Z8" s="336"/>
-      <c r="AA8" s="336"/>
-      <c r="AB8" s="336"/>
-      <c r="AC8" s="336"/>
-      <c r="AD8" s="336"/>
+      <c r="N8" s="344"/>
+      <c r="O8" s="344"/>
+      <c r="P8" s="344"/>
+      <c r="Q8" s="344"/>
+      <c r="R8" s="344"/>
+      <c r="S8" s="344"/>
+      <c r="T8" s="344"/>
+      <c r="U8" s="344"/>
+      <c r="V8" s="344"/>
+      <c r="W8" s="344"/>
+      <c r="X8" s="344"/>
+      <c r="Y8" s="344"/>
+      <c r="Z8" s="344"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="344"/>
+      <c r="AC8" s="344"/>
+      <c r="AD8" s="344"/>
     </row>
     <row r="9" spans="4:30" ht="13.5" customHeight="1">
       <c r="D9" s="9"/>
@@ -6700,10 +6702,10 @@
       <c r="J34" s="80"/>
       <c r="K34" s="80"/>
       <c r="L34" s="81"/>
-      <c r="M34" s="339" t="s">
+      <c r="M34" s="351" t="s">
         <v>73</v>
       </c>
-      <c r="N34" s="337">
+      <c r="N34" s="353">
         <v>1</v>
       </c>
       <c r="O34" s="62" t="s">
@@ -6737,8 +6739,8 @@
       <c r="J35" s="83"/>
       <c r="K35" s="83"/>
       <c r="L35" s="84"/>
-      <c r="M35" s="340"/>
-      <c r="N35" s="338"/>
+      <c r="M35" s="352"/>
+      <c r="N35" s="354"/>
       <c r="O35" s="66" t="s">
         <v>27</v>
       </c>
@@ -6772,10 +6774,10 @@
       <c r="J36" s="80"/>
       <c r="K36" s="80"/>
       <c r="L36" s="81"/>
-      <c r="M36" s="339" t="s">
+      <c r="M36" s="351" t="s">
         <v>74</v>
       </c>
-      <c r="N36" s="337">
+      <c r="N36" s="353">
         <v>1</v>
       </c>
       <c r="O36" s="62" t="s">
@@ -6809,8 +6811,8 @@
       <c r="J37" s="83"/>
       <c r="K37" s="83"/>
       <c r="L37" s="84"/>
-      <c r="M37" s="340"/>
-      <c r="N37" s="338"/>
+      <c r="M37" s="352"/>
+      <c r="N37" s="354"/>
       <c r="O37" s="66" t="s">
         <v>27</v>
       </c>
@@ -6844,10 +6846,10 @@
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
       <c r="L38" s="81"/>
-      <c r="M38" s="339" t="s">
+      <c r="M38" s="351" t="s">
         <v>76</v>
       </c>
-      <c r="N38" s="337">
+      <c r="N38" s="353">
         <v>1</v>
       </c>
       <c r="O38" s="62" t="s">
@@ -6881,8 +6883,8 @@
       <c r="J39" s="83"/>
       <c r="K39" s="83"/>
       <c r="L39" s="84"/>
-      <c r="M39" s="340"/>
-      <c r="N39" s="338"/>
+      <c r="M39" s="352"/>
+      <c r="N39" s="354"/>
       <c r="O39" s="66" t="s">
         <v>27</v>
       </c>
@@ -6916,10 +6918,10 @@
       <c r="J40" s="86"/>
       <c r="K40" s="86"/>
       <c r="L40" s="87"/>
-      <c r="M40" s="339" t="s">
+      <c r="M40" s="351" t="s">
         <v>76</v>
       </c>
-      <c r="N40" s="337">
+      <c r="N40" s="353">
         <v>1</v>
       </c>
       <c r="O40" s="62" t="s">
@@ -6953,8 +6955,8 @@
       <c r="J41" s="86"/>
       <c r="K41" s="86"/>
       <c r="L41" s="87"/>
-      <c r="M41" s="340"/>
-      <c r="N41" s="338"/>
+      <c r="M41" s="352"/>
+      <c r="N41" s="354"/>
       <c r="O41" s="66" t="s">
         <v>27</v>
       </c>
@@ -6988,10 +6990,10 @@
       <c r="J42" s="80"/>
       <c r="K42" s="80"/>
       <c r="L42" s="81"/>
-      <c r="M42" s="339" t="s">
+      <c r="M42" s="351" t="s">
         <v>77</v>
       </c>
-      <c r="N42" s="337">
+      <c r="N42" s="353">
         <v>1</v>
       </c>
       <c r="O42" s="62" t="s">
@@ -7025,8 +7027,8 @@
       <c r="J43" s="83"/>
       <c r="K43" s="83"/>
       <c r="L43" s="84"/>
-      <c r="M43" s="340"/>
-      <c r="N43" s="338"/>
+      <c r="M43" s="352"/>
+      <c r="N43" s="354"/>
       <c r="O43" s="66" t="s">
         <v>27</v>
       </c>
@@ -7060,10 +7062,10 @@
       <c r="J44" s="80"/>
       <c r="K44" s="80"/>
       <c r="L44" s="81"/>
-      <c r="M44" s="339" t="s">
+      <c r="M44" s="351" t="s">
         <v>75</v>
       </c>
-      <c r="N44" s="337">
+      <c r="N44" s="353">
         <v>1</v>
       </c>
       <c r="O44" s="62" t="s">
@@ -7097,8 +7099,8 @@
       <c r="J45" s="83"/>
       <c r="K45" s="83"/>
       <c r="L45" s="84"/>
-      <c r="M45" s="340"/>
-      <c r="N45" s="338"/>
+      <c r="M45" s="352"/>
+      <c r="N45" s="354"/>
       <c r="O45" s="66" t="s">
         <v>27</v>
       </c>
@@ -7132,8 +7134,8 @@
       <c r="J46" s="80"/>
       <c r="K46" s="80"/>
       <c r="L46" s="81"/>
-      <c r="M46" s="339"/>
-      <c r="N46" s="337">
+      <c r="M46" s="351"/>
+      <c r="N46" s="353">
         <v>2</v>
       </c>
       <c r="O46" s="62" t="s">
@@ -7167,8 +7169,8 @@
       <c r="J47" s="83"/>
       <c r="K47" s="83"/>
       <c r="L47" s="84"/>
-      <c r="M47" s="340"/>
-      <c r="N47" s="338"/>
+      <c r="M47" s="352"/>
+      <c r="N47" s="354"/>
       <c r="O47" s="66" t="s">
         <v>27</v>
       </c>
@@ -7202,8 +7204,8 @@
       <c r="J48" s="86"/>
       <c r="K48" s="86"/>
       <c r="L48" s="87"/>
-      <c r="M48" s="339"/>
-      <c r="N48" s="337">
+      <c r="M48" s="351"/>
+      <c r="N48" s="353">
         <v>3</v>
       </c>
       <c r="O48" s="62" t="s">
@@ -7237,8 +7239,8 @@
       <c r="J49" s="83"/>
       <c r="K49" s="83"/>
       <c r="L49" s="84"/>
-      <c r="M49" s="340"/>
-      <c r="N49" s="338"/>
+      <c r="M49" s="352"/>
+      <c r="N49" s="354"/>
       <c r="O49" s="66" t="s">
         <v>27</v>
       </c>
@@ -7265,8 +7267,8 @@
       <c r="E50" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="M50" s="339"/>
-      <c r="N50" s="337">
+      <c r="M50" s="351"/>
+      <c r="N50" s="353">
         <v>4</v>
       </c>
       <c r="O50" s="62" t="s">
@@ -7292,8 +7294,8 @@
     <row r="51" spans="3:31">
       <c r="C51" s="25"/>
       <c r="D51" s="55"/>
-      <c r="M51" s="340"/>
-      <c r="N51" s="338"/>
+      <c r="M51" s="352"/>
+      <c r="N51" s="354"/>
       <c r="O51" s="66" t="s">
         <v>27</v>
       </c>
@@ -7383,20 +7385,20 @@
     <row r="54" spans="3:31">
       <c r="C54" s="25"/>
       <c r="D54" s="55"/>
-      <c r="E54" s="341" t="s">
+      <c r="E54" s="345" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="342"/>
-      <c r="G54" s="342"/>
-      <c r="H54" s="342"/>
-      <c r="I54" s="342"/>
-      <c r="J54" s="342"/>
-      <c r="K54" s="342"/>
-      <c r="L54" s="343"/>
-      <c r="M54" s="339" t="s">
+      <c r="F54" s="346"/>
+      <c r="G54" s="346"/>
+      <c r="H54" s="346"/>
+      <c r="I54" s="346"/>
+      <c r="J54" s="346"/>
+      <c r="K54" s="346"/>
+      <c r="L54" s="347"/>
+      <c r="M54" s="351" t="s">
         <v>33</v>
       </c>
-      <c r="N54" s="337">
+      <c r="N54" s="353">
         <v>1</v>
       </c>
       <c r="O54" s="62" t="s">
@@ -7422,16 +7424,16 @@
     <row r="55" spans="3:31">
       <c r="C55" s="25"/>
       <c r="D55" s="55"/>
-      <c r="E55" s="344"/>
-      <c r="F55" s="345"/>
-      <c r="G55" s="345"/>
-      <c r="H55" s="345"/>
-      <c r="I55" s="345"/>
-      <c r="J55" s="345"/>
-      <c r="K55" s="345"/>
-      <c r="L55" s="346"/>
-      <c r="M55" s="340"/>
-      <c r="N55" s="338"/>
+      <c r="E55" s="348"/>
+      <c r="F55" s="349"/>
+      <c r="G55" s="349"/>
+      <c r="H55" s="349"/>
+      <c r="I55" s="349"/>
+      <c r="J55" s="349"/>
+      <c r="K55" s="349"/>
+      <c r="L55" s="350"/>
+      <c r="M55" s="352"/>
+      <c r="N55" s="354"/>
       <c r="O55" s="66" t="s">
         <v>27</v>
       </c>
@@ -7455,20 +7457,20 @@
     <row r="56" spans="3:31">
       <c r="C56" s="25"/>
       <c r="D56" s="55"/>
-      <c r="E56" s="341" t="s">
+      <c r="E56" s="345" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="342"/>
-      <c r="G56" s="342"/>
-      <c r="H56" s="342"/>
-      <c r="I56" s="342"/>
-      <c r="J56" s="342"/>
-      <c r="K56" s="342"/>
-      <c r="L56" s="343"/>
-      <c r="M56" s="339" t="s">
+      <c r="F56" s="346"/>
+      <c r="G56" s="346"/>
+      <c r="H56" s="346"/>
+      <c r="I56" s="346"/>
+      <c r="J56" s="346"/>
+      <c r="K56" s="346"/>
+      <c r="L56" s="347"/>
+      <c r="M56" s="351" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="337">
+      <c r="N56" s="353">
         <v>2</v>
       </c>
       <c r="O56" s="62" t="s">
@@ -7494,16 +7496,16 @@
     <row r="57" spans="3:31">
       <c r="C57" s="25"/>
       <c r="D57" s="55"/>
-      <c r="E57" s="344"/>
-      <c r="F57" s="345"/>
-      <c r="G57" s="345"/>
-      <c r="H57" s="345"/>
-      <c r="I57" s="345"/>
-      <c r="J57" s="345"/>
-      <c r="K57" s="345"/>
-      <c r="L57" s="346"/>
-      <c r="M57" s="340"/>
-      <c r="N57" s="338"/>
+      <c r="E57" s="348"/>
+      <c r="F57" s="349"/>
+      <c r="G57" s="349"/>
+      <c r="H57" s="349"/>
+      <c r="I57" s="349"/>
+      <c r="J57" s="349"/>
+      <c r="K57" s="349"/>
+      <c r="L57" s="350"/>
+      <c r="M57" s="352"/>
+      <c r="N57" s="354"/>
       <c r="O57" s="66" t="s">
         <v>27</v>
       </c>
@@ -7527,20 +7529,20 @@
     <row r="58" spans="3:31">
       <c r="C58" s="25"/>
       <c r="D58" s="55"/>
-      <c r="E58" s="341" t="s">
+      <c r="E58" s="345" t="s">
         <v>35</v>
       </c>
-      <c r="F58" s="342"/>
-      <c r="G58" s="342"/>
-      <c r="H58" s="342"/>
-      <c r="I58" s="342"/>
-      <c r="J58" s="342"/>
-      <c r="K58" s="342"/>
-      <c r="L58" s="343"/>
-      <c r="M58" s="339" t="s">
+      <c r="F58" s="346"/>
+      <c r="G58" s="346"/>
+      <c r="H58" s="346"/>
+      <c r="I58" s="346"/>
+      <c r="J58" s="346"/>
+      <c r="K58" s="346"/>
+      <c r="L58" s="347"/>
+      <c r="M58" s="351" t="s">
         <v>33</v>
       </c>
-      <c r="N58" s="337">
+      <c r="N58" s="353">
         <v>3</v>
       </c>
       <c r="O58" s="62" t="s">
@@ -7566,16 +7568,16 @@
     <row r="59" spans="3:31">
       <c r="C59" s="25"/>
       <c r="D59" s="55"/>
-      <c r="E59" s="344"/>
-      <c r="F59" s="345"/>
-      <c r="G59" s="345"/>
-      <c r="H59" s="345"/>
-      <c r="I59" s="345"/>
-      <c r="J59" s="345"/>
-      <c r="K59" s="345"/>
-      <c r="L59" s="346"/>
-      <c r="M59" s="340"/>
-      <c r="N59" s="338"/>
+      <c r="E59" s="348"/>
+      <c r="F59" s="349"/>
+      <c r="G59" s="349"/>
+      <c r="H59" s="349"/>
+      <c r="I59" s="349"/>
+      <c r="J59" s="349"/>
+      <c r="K59" s="349"/>
+      <c r="L59" s="350"/>
+      <c r="M59" s="352"/>
+      <c r="N59" s="354"/>
       <c r="O59" s="66" t="s">
         <v>27</v>
       </c>
@@ -7599,20 +7601,20 @@
     <row r="60" spans="3:31">
       <c r="C60" s="25"/>
       <c r="D60" s="55"/>
-      <c r="E60" s="341" t="s">
+      <c r="E60" s="345" t="s">
         <v>36</v>
       </c>
-      <c r="F60" s="342"/>
-      <c r="G60" s="342"/>
-      <c r="H60" s="342"/>
-      <c r="I60" s="342"/>
-      <c r="J60" s="342"/>
-      <c r="K60" s="342"/>
-      <c r="L60" s="343"/>
-      <c r="M60" s="339" t="s">
+      <c r="F60" s="346"/>
+      <c r="G60" s="346"/>
+      <c r="H60" s="346"/>
+      <c r="I60" s="346"/>
+      <c r="J60" s="346"/>
+      <c r="K60" s="346"/>
+      <c r="L60" s="347"/>
+      <c r="M60" s="351" t="s">
         <v>33</v>
       </c>
-      <c r="N60" s="337">
+      <c r="N60" s="353">
         <v>4</v>
       </c>
       <c r="O60" s="62" t="s">
@@ -7638,16 +7640,16 @@
     <row r="61" spans="3:31">
       <c r="C61" s="25"/>
       <c r="D61" s="55"/>
-      <c r="E61" s="344"/>
-      <c r="F61" s="345"/>
-      <c r="G61" s="345"/>
-      <c r="H61" s="345"/>
-      <c r="I61" s="345"/>
-      <c r="J61" s="345"/>
-      <c r="K61" s="345"/>
-      <c r="L61" s="346"/>
-      <c r="M61" s="340"/>
-      <c r="N61" s="338"/>
+      <c r="E61" s="348"/>
+      <c r="F61" s="349"/>
+      <c r="G61" s="349"/>
+      <c r="H61" s="349"/>
+      <c r="I61" s="349"/>
+      <c r="J61" s="349"/>
+      <c r="K61" s="349"/>
+      <c r="L61" s="350"/>
+      <c r="M61" s="352"/>
+      <c r="N61" s="354"/>
       <c r="O61" s="66" t="s">
         <v>27</v>
       </c>
@@ -7732,6 +7734,27 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M36:M37"/>
     <mergeCell ref="E60:L61"/>
     <mergeCell ref="M60:M61"/>
     <mergeCell ref="N60:N61"/>
@@ -7743,27 +7766,6 @@
     <mergeCell ref="N56:N57"/>
     <mergeCell ref="E58:L59"/>
     <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="N46:N47"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -7807,26 +7809,26 @@
       <c r="I8" s="180"/>
       <c r="J8" s="180"/>
       <c r="K8" s="180"/>
-      <c r="L8" s="336">
+      <c r="L8" s="344">
         <v>2020</v>
       </c>
-      <c r="M8" s="336"/>
-      <c r="N8" s="336"/>
-      <c r="O8" s="336"/>
-      <c r="P8" s="336"/>
-      <c r="Q8" s="336"/>
-      <c r="R8" s="336"/>
-      <c r="S8" s="336"/>
-      <c r="T8" s="336"/>
-      <c r="U8" s="336"/>
-      <c r="V8" s="336"/>
-      <c r="W8" s="336"/>
-      <c r="X8" s="336"/>
-      <c r="Y8" s="336"/>
-      <c r="Z8" s="336"/>
-      <c r="AA8" s="336"/>
-      <c r="AB8" s="336"/>
-      <c r="AC8" s="336"/>
+      <c r="M8" s="344"/>
+      <c r="N8" s="344"/>
+      <c r="O8" s="344"/>
+      <c r="P8" s="344"/>
+      <c r="Q8" s="344"/>
+      <c r="R8" s="344"/>
+      <c r="S8" s="344"/>
+      <c r="T8" s="344"/>
+      <c r="U8" s="344"/>
+      <c r="V8" s="344"/>
+      <c r="W8" s="344"/>
+      <c r="X8" s="344"/>
+      <c r="Y8" s="344"/>
+      <c r="Z8" s="344"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="344"/>
+      <c r="AC8" s="344"/>
     </row>
     <row r="9" spans="3:29">
       <c r="C9" s="181"/>
@@ -7838,26 +7840,26 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="336">
+      <c r="L9" s="344">
         <v>6</v>
       </c>
-      <c r="M9" s="336"/>
-      <c r="N9" s="336"/>
-      <c r="O9" s="336"/>
-      <c r="P9" s="336"/>
-      <c r="Q9" s="336"/>
-      <c r="R9" s="336"/>
-      <c r="S9" s="336"/>
-      <c r="T9" s="336"/>
-      <c r="U9" s="336"/>
-      <c r="V9" s="336"/>
-      <c r="W9" s="336"/>
-      <c r="X9" s="336"/>
-      <c r="Y9" s="336"/>
-      <c r="Z9" s="336"/>
-      <c r="AA9" s="336"/>
-      <c r="AB9" s="336"/>
-      <c r="AC9" s="336"/>
+      <c r="M9" s="344"/>
+      <c r="N9" s="344"/>
+      <c r="O9" s="344"/>
+      <c r="P9" s="344"/>
+      <c r="Q9" s="344"/>
+      <c r="R9" s="344"/>
+      <c r="S9" s="344"/>
+      <c r="T9" s="344"/>
+      <c r="U9" s="344"/>
+      <c r="V9" s="344"/>
+      <c r="W9" s="344"/>
+      <c r="X9" s="344"/>
+      <c r="Y9" s="344"/>
+      <c r="Z9" s="344"/>
+      <c r="AA9" s="344"/>
+      <c r="AB9" s="344"/>
+      <c r="AC9" s="344"/>
     </row>
     <row r="10" spans="3:29">
       <c r="C10" s="9"/>
@@ -8358,20 +8360,20 @@
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="18"/>
-      <c r="C29" s="351" t="s">
+      <c r="C29" s="355" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="352"/>
-      <c r="E29" s="352"/>
-      <c r="F29" s="352"/>
-      <c r="G29" s="352"/>
-      <c r="H29" s="352"/>
-      <c r="I29" s="352"/>
-      <c r="J29" s="353"/>
-      <c r="K29" s="347" t="s">
+      <c r="D29" s="356"/>
+      <c r="E29" s="356"/>
+      <c r="F29" s="356"/>
+      <c r="G29" s="356"/>
+      <c r="H29" s="356"/>
+      <c r="I29" s="356"/>
+      <c r="J29" s="357"/>
+      <c r="K29" s="361" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="349">
+      <c r="L29" s="363">
         <v>1</v>
       </c>
       <c r="M29" s="115" t="s">
@@ -8388,16 +8390,16 @@
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="18"/>
-      <c r="C30" s="354"/>
-      <c r="D30" s="355"/>
-      <c r="E30" s="355"/>
-      <c r="F30" s="355"/>
-      <c r="G30" s="355"/>
-      <c r="H30" s="355"/>
-      <c r="I30" s="355"/>
-      <c r="J30" s="356"/>
-      <c r="K30" s="348"/>
-      <c r="L30" s="350"/>
+      <c r="C30" s="358"/>
+      <c r="D30" s="359"/>
+      <c r="E30" s="359"/>
+      <c r="F30" s="359"/>
+      <c r="G30" s="359"/>
+      <c r="H30" s="359"/>
+      <c r="I30" s="359"/>
+      <c r="J30" s="360"/>
+      <c r="K30" s="362"/>
+      <c r="L30" s="364"/>
       <c r="M30" s="117" t="s">
         <v>27</v>
       </c>
@@ -8412,20 +8414,20 @@
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="18"/>
-      <c r="C31" s="351" t="s">
+      <c r="C31" s="355" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="352"/>
-      <c r="E31" s="352"/>
-      <c r="F31" s="352"/>
-      <c r="G31" s="352"/>
-      <c r="H31" s="352"/>
-      <c r="I31" s="352"/>
-      <c r="J31" s="353"/>
-      <c r="K31" s="347" t="s">
+      <c r="D31" s="356"/>
+      <c r="E31" s="356"/>
+      <c r="F31" s="356"/>
+      <c r="G31" s="356"/>
+      <c r="H31" s="356"/>
+      <c r="I31" s="356"/>
+      <c r="J31" s="357"/>
+      <c r="K31" s="361" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="349">
+      <c r="L31" s="363">
         <v>1</v>
       </c>
       <c r="M31" s="115" t="s">
@@ -8442,18 +8444,18 @@
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="18"/>
-      <c r="C32" s="354"/>
-      <c r="D32" s="355"/>
-      <c r="E32" s="355"/>
-      <c r="F32" s="355"/>
-      <c r="G32" s="355"/>
-      <c r="H32" s="355"/>
-      <c r="I32" s="355"/>
-      <c r="J32" s="356"/>
-      <c r="K32" s="348" t="s">
+      <c r="C32" s="358"/>
+      <c r="D32" s="359"/>
+      <c r="E32" s="359"/>
+      <c r="F32" s="359"/>
+      <c r="G32" s="359"/>
+      <c r="H32" s="359"/>
+      <c r="I32" s="359"/>
+      <c r="J32" s="360"/>
+      <c r="K32" s="362" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="350"/>
+      <c r="L32" s="364"/>
       <c r="M32" s="117" t="s">
         <v>27</v>
       </c>
@@ -8468,20 +8470,20 @@
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="18"/>
-      <c r="C33" s="351" t="s">
+      <c r="C33" s="355" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="352"/>
-      <c r="E33" s="352"/>
-      <c r="F33" s="352"/>
-      <c r="G33" s="352"/>
-      <c r="H33" s="352"/>
-      <c r="I33" s="352"/>
-      <c r="J33" s="353"/>
-      <c r="K33" s="347" t="s">
+      <c r="D33" s="356"/>
+      <c r="E33" s="356"/>
+      <c r="F33" s="356"/>
+      <c r="G33" s="356"/>
+      <c r="H33" s="356"/>
+      <c r="I33" s="356"/>
+      <c r="J33" s="357"/>
+      <c r="K33" s="361" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="349">
+      <c r="L33" s="363">
         <v>1</v>
       </c>
       <c r="M33" s="115" t="s">
@@ -8498,18 +8500,18 @@
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="18"/>
-      <c r="C34" s="354"/>
-      <c r="D34" s="355"/>
-      <c r="E34" s="355"/>
-      <c r="F34" s="355"/>
-      <c r="G34" s="355"/>
-      <c r="H34" s="355"/>
-      <c r="I34" s="355"/>
-      <c r="J34" s="356"/>
-      <c r="K34" s="348" t="s">
+      <c r="C34" s="358"/>
+      <c r="D34" s="359"/>
+      <c r="E34" s="359"/>
+      <c r="F34" s="359"/>
+      <c r="G34" s="359"/>
+      <c r="H34" s="359"/>
+      <c r="I34" s="359"/>
+      <c r="J34" s="360"/>
+      <c r="K34" s="362" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="350"/>
+      <c r="L34" s="364"/>
       <c r="M34" s="117" t="s">
         <v>27</v>
       </c>
@@ -8524,20 +8526,20 @@
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="18"/>
-      <c r="C35" s="351" t="s">
+      <c r="C35" s="355" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="352"/>
-      <c r="E35" s="352"/>
-      <c r="F35" s="352"/>
-      <c r="G35" s="352"/>
-      <c r="H35" s="352"/>
-      <c r="I35" s="352"/>
-      <c r="J35" s="353"/>
-      <c r="K35" s="347" t="s">
+      <c r="D35" s="356"/>
+      <c r="E35" s="356"/>
+      <c r="F35" s="356"/>
+      <c r="G35" s="356"/>
+      <c r="H35" s="356"/>
+      <c r="I35" s="356"/>
+      <c r="J35" s="357"/>
+      <c r="K35" s="361" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="349">
+      <c r="L35" s="363">
         <v>1</v>
       </c>
       <c r="M35" s="115" t="s">
@@ -8554,18 +8556,18 @@
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="18"/>
-      <c r="C36" s="354"/>
-      <c r="D36" s="355"/>
-      <c r="E36" s="355"/>
-      <c r="F36" s="355"/>
-      <c r="G36" s="355"/>
-      <c r="H36" s="355"/>
-      <c r="I36" s="355"/>
-      <c r="J36" s="356"/>
-      <c r="K36" s="348" t="s">
+      <c r="C36" s="358"/>
+      <c r="D36" s="359"/>
+      <c r="E36" s="359"/>
+      <c r="F36" s="359"/>
+      <c r="G36" s="359"/>
+      <c r="H36" s="359"/>
+      <c r="I36" s="359"/>
+      <c r="J36" s="360"/>
+      <c r="K36" s="362" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="350"/>
+      <c r="L36" s="364"/>
       <c r="M36" s="117" t="s">
         <v>27</v>
       </c>
@@ -8580,20 +8582,20 @@
     </row>
     <row r="37" spans="2:21">
       <c r="B37" s="18"/>
-      <c r="C37" s="351" t="s">
+      <c r="C37" s="355" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="352"/>
-      <c r="E37" s="352"/>
-      <c r="F37" s="352"/>
-      <c r="G37" s="352"/>
-      <c r="H37" s="352"/>
-      <c r="I37" s="352"/>
-      <c r="J37" s="353"/>
-      <c r="K37" s="347" t="s">
+      <c r="D37" s="356"/>
+      <c r="E37" s="356"/>
+      <c r="F37" s="356"/>
+      <c r="G37" s="356"/>
+      <c r="H37" s="356"/>
+      <c r="I37" s="356"/>
+      <c r="J37" s="357"/>
+      <c r="K37" s="361" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="349">
+      <c r="L37" s="363">
         <v>1</v>
       </c>
       <c r="M37" s="115" t="s">
@@ -8610,18 +8612,18 @@
     </row>
     <row r="38" spans="2:21">
       <c r="B38" s="18"/>
-      <c r="C38" s="354"/>
-      <c r="D38" s="355"/>
-      <c r="E38" s="355"/>
-      <c r="F38" s="355"/>
-      <c r="G38" s="355"/>
-      <c r="H38" s="355"/>
-      <c r="I38" s="355"/>
-      <c r="J38" s="356"/>
-      <c r="K38" s="348" t="s">
+      <c r="C38" s="358"/>
+      <c r="D38" s="359"/>
+      <c r="E38" s="359"/>
+      <c r="F38" s="359"/>
+      <c r="G38" s="359"/>
+      <c r="H38" s="359"/>
+      <c r="I38" s="359"/>
+      <c r="J38" s="360"/>
+      <c r="K38" s="362" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="350"/>
+      <c r="L38" s="364"/>
       <c r="M38" s="117" t="s">
         <v>27</v>
       </c>
@@ -8658,11 +8660,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L8:AC8"/>
-    <mergeCell ref="L9:AC9"/>
     <mergeCell ref="C37:J38"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="L37:L38"/>
@@ -8672,6 +8669,11 @@
     <mergeCell ref="C35:J36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L8:AC8"/>
+    <mergeCell ref="L9:AC9"/>
     <mergeCell ref="C29:J30"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="L29:L30"/>
@@ -8720,26 +8722,26 @@
       <c r="J6" s="180"/>
       <c r="K6" s="180"/>
       <c r="L6" s="180"/>
-      <c r="M6" s="336">
+      <c r="M6" s="344">
         <v>2020</v>
       </c>
-      <c r="N6" s="336"/>
-      <c r="O6" s="336"/>
-      <c r="P6" s="336"/>
-      <c r="Q6" s="336"/>
-      <c r="R6" s="336"/>
-      <c r="S6" s="336"/>
-      <c r="T6" s="336"/>
-      <c r="U6" s="336"/>
-      <c r="V6" s="336"/>
-      <c r="W6" s="336"/>
-      <c r="X6" s="336"/>
-      <c r="Y6" s="336"/>
-      <c r="Z6" s="336"/>
-      <c r="AA6" s="336"/>
-      <c r="AB6" s="336"/>
-      <c r="AC6" s="336"/>
-      <c r="AD6" s="336"/>
+      <c r="N6" s="344"/>
+      <c r="O6" s="344"/>
+      <c r="P6" s="344"/>
+      <c r="Q6" s="344"/>
+      <c r="R6" s="344"/>
+      <c r="S6" s="344"/>
+      <c r="T6" s="344"/>
+      <c r="U6" s="344"/>
+      <c r="V6" s="344"/>
+      <c r="W6" s="344"/>
+      <c r="X6" s="344"/>
+      <c r="Y6" s="344"/>
+      <c r="Z6" s="344"/>
+      <c r="AA6" s="344"/>
+      <c r="AB6" s="344"/>
+      <c r="AC6" s="344"/>
+      <c r="AD6" s="344"/>
     </row>
     <row r="7" spans="4:30">
       <c r="D7" s="181"/>
@@ -8751,26 +8753,26 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="336">
+      <c r="M7" s="344">
         <v>6</v>
       </c>
-      <c r="N7" s="336"/>
-      <c r="O7" s="336"/>
-      <c r="P7" s="336"/>
-      <c r="Q7" s="336"/>
-      <c r="R7" s="336"/>
-      <c r="S7" s="336"/>
-      <c r="T7" s="336"/>
-      <c r="U7" s="336"/>
-      <c r="V7" s="336"/>
-      <c r="W7" s="336"/>
-      <c r="X7" s="336"/>
-      <c r="Y7" s="336"/>
-      <c r="Z7" s="336"/>
-      <c r="AA7" s="336"/>
-      <c r="AB7" s="336"/>
-      <c r="AC7" s="336"/>
-      <c r="AD7" s="336"/>
+      <c r="N7" s="344"/>
+      <c r="O7" s="344"/>
+      <c r="P7" s="344"/>
+      <c r="Q7" s="344"/>
+      <c r="R7" s="344"/>
+      <c r="S7" s="344"/>
+      <c r="T7" s="344"/>
+      <c r="U7" s="344"/>
+      <c r="V7" s="344"/>
+      <c r="W7" s="344"/>
+      <c r="X7" s="344"/>
+      <c r="Y7" s="344"/>
+      <c r="Z7" s="344"/>
+      <c r="AA7" s="344"/>
+      <c r="AB7" s="344"/>
+      <c r="AC7" s="344"/>
+      <c r="AD7" s="344"/>
     </row>
     <row r="8" spans="4:30">
       <c r="D8" s="9"/>
@@ -9162,10 +9164,10 @@
       <c r="K25" s="369" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="367" t="s">
+      <c r="L25" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="367" t="s">
+      <c r="M25" s="365" t="s">
         <v>22</v>
       </c>
       <c r="N25" s="196">
@@ -9191,8 +9193,8 @@
       <c r="I26" s="183"/>
       <c r="J26" s="183"/>
       <c r="K26" s="370"/>
-      <c r="L26" s="368"/>
-      <c r="M26" s="368"/>
+      <c r="L26" s="366"/>
+      <c r="M26" s="366"/>
       <c r="N26" s="199">
         <v>43994</v>
       </c>
@@ -9275,20 +9277,20 @@
     </row>
     <row r="29" spans="2:30">
       <c r="B29" s="208"/>
-      <c r="C29" s="358" t="s">
+      <c r="C29" s="367" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="352"/>
-      <c r="E29" s="352"/>
-      <c r="F29" s="352"/>
-      <c r="G29" s="352"/>
-      <c r="H29" s="352"/>
-      <c r="I29" s="352"/>
-      <c r="J29" s="353"/>
-      <c r="K29" s="347" t="s">
+      <c r="D29" s="356"/>
+      <c r="E29" s="356"/>
+      <c r="F29" s="356"/>
+      <c r="G29" s="356"/>
+      <c r="H29" s="356"/>
+      <c r="I29" s="356"/>
+      <c r="J29" s="357"/>
+      <c r="K29" s="361" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="357">
+      <c r="L29" s="368">
         <v>1</v>
       </c>
       <c r="M29" s="212" t="s">
@@ -9306,16 +9308,16 @@
     </row>
     <row r="30" spans="2:30">
       <c r="B30" s="208"/>
-      <c r="C30" s="355"/>
-      <c r="D30" s="355"/>
-      <c r="E30" s="355"/>
-      <c r="F30" s="355"/>
-      <c r="G30" s="355"/>
-      <c r="H30" s="355"/>
-      <c r="I30" s="355"/>
-      <c r="J30" s="356"/>
-      <c r="K30" s="348"/>
-      <c r="L30" s="348"/>
+      <c r="C30" s="359"/>
+      <c r="D30" s="359"/>
+      <c r="E30" s="359"/>
+      <c r="F30" s="359"/>
+      <c r="G30" s="359"/>
+      <c r="H30" s="359"/>
+      <c r="I30" s="359"/>
+      <c r="J30" s="360"/>
+      <c r="K30" s="362"/>
+      <c r="L30" s="362"/>
       <c r="M30" s="214" t="s">
         <v>27</v>
       </c>
@@ -9331,20 +9333,20 @@
     </row>
     <row r="31" spans="2:30">
       <c r="B31" s="208"/>
-      <c r="C31" s="358" t="s">
+      <c r="C31" s="367" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="352"/>
-      <c r="E31" s="352"/>
-      <c r="F31" s="352"/>
-      <c r="G31" s="352"/>
-      <c r="H31" s="352"/>
-      <c r="I31" s="352"/>
-      <c r="J31" s="353"/>
-      <c r="K31" s="347" t="s">
+      <c r="D31" s="356"/>
+      <c r="E31" s="356"/>
+      <c r="F31" s="356"/>
+      <c r="G31" s="356"/>
+      <c r="H31" s="356"/>
+      <c r="I31" s="356"/>
+      <c r="J31" s="357"/>
+      <c r="K31" s="361" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="357">
+      <c r="L31" s="368">
         <v>1</v>
       </c>
       <c r="M31" s="212" t="s">
@@ -9362,16 +9364,16 @@
     </row>
     <row r="32" spans="2:30">
       <c r="B32" s="208"/>
-      <c r="C32" s="355"/>
-      <c r="D32" s="355"/>
-      <c r="E32" s="355"/>
-      <c r="F32" s="355"/>
-      <c r="G32" s="355"/>
-      <c r="H32" s="355"/>
-      <c r="I32" s="355"/>
-      <c r="J32" s="356"/>
-      <c r="K32" s="348"/>
-      <c r="L32" s="348"/>
+      <c r="C32" s="359"/>
+      <c r="D32" s="359"/>
+      <c r="E32" s="359"/>
+      <c r="F32" s="359"/>
+      <c r="G32" s="359"/>
+      <c r="H32" s="359"/>
+      <c r="I32" s="359"/>
+      <c r="J32" s="360"/>
+      <c r="K32" s="362"/>
+      <c r="L32" s="362"/>
       <c r="M32" s="214" t="s">
         <v>27</v>
       </c>
@@ -9387,20 +9389,20 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="208"/>
-      <c r="C33" s="358" t="s">
+      <c r="C33" s="367" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="352"/>
-      <c r="E33" s="352"/>
-      <c r="F33" s="352"/>
-      <c r="G33" s="352"/>
-      <c r="H33" s="352"/>
-      <c r="I33" s="352"/>
-      <c r="J33" s="353"/>
-      <c r="K33" s="347" t="s">
+      <c r="D33" s="356"/>
+      <c r="E33" s="356"/>
+      <c r="F33" s="356"/>
+      <c r="G33" s="356"/>
+      <c r="H33" s="356"/>
+      <c r="I33" s="356"/>
+      <c r="J33" s="357"/>
+      <c r="K33" s="361" t="s">
         <v>78</v>
       </c>
-      <c r="L33" s="357">
+      <c r="L33" s="368">
         <v>1</v>
       </c>
       <c r="M33" s="212" t="s">
@@ -9418,16 +9420,16 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="208"/>
-      <c r="C34" s="355"/>
-      <c r="D34" s="355"/>
-      <c r="E34" s="355"/>
-      <c r="F34" s="355"/>
-      <c r="G34" s="355"/>
-      <c r="H34" s="355"/>
-      <c r="I34" s="355"/>
-      <c r="J34" s="356"/>
-      <c r="K34" s="348"/>
-      <c r="L34" s="348"/>
+      <c r="C34" s="359"/>
+      <c r="D34" s="359"/>
+      <c r="E34" s="359"/>
+      <c r="F34" s="359"/>
+      <c r="G34" s="359"/>
+      <c r="H34" s="359"/>
+      <c r="I34" s="359"/>
+      <c r="J34" s="360"/>
+      <c r="K34" s="362"/>
+      <c r="L34" s="362"/>
       <c r="M34" s="214" t="s">
         <v>27</v>
       </c>
@@ -9443,20 +9445,20 @@
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="208"/>
-      <c r="C35" s="358" t="s">
+      <c r="C35" s="367" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="352"/>
-      <c r="E35" s="352"/>
-      <c r="F35" s="352"/>
-      <c r="G35" s="352"/>
-      <c r="H35" s="352"/>
-      <c r="I35" s="352"/>
-      <c r="J35" s="353"/>
-      <c r="K35" s="347" t="s">
+      <c r="D35" s="356"/>
+      <c r="E35" s="356"/>
+      <c r="F35" s="356"/>
+      <c r="G35" s="356"/>
+      <c r="H35" s="356"/>
+      <c r="I35" s="356"/>
+      <c r="J35" s="357"/>
+      <c r="K35" s="361" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="357">
+      <c r="L35" s="368">
         <v>1</v>
       </c>
       <c r="M35" s="212" t="s">
@@ -9474,16 +9476,16 @@
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="208"/>
-      <c r="C36" s="355"/>
-      <c r="D36" s="355"/>
-      <c r="E36" s="355"/>
-      <c r="F36" s="355"/>
-      <c r="G36" s="355"/>
-      <c r="H36" s="355"/>
-      <c r="I36" s="355"/>
-      <c r="J36" s="356"/>
-      <c r="K36" s="348"/>
-      <c r="L36" s="348"/>
+      <c r="C36" s="359"/>
+      <c r="D36" s="359"/>
+      <c r="E36" s="359"/>
+      <c r="F36" s="359"/>
+      <c r="G36" s="359"/>
+      <c r="H36" s="359"/>
+      <c r="I36" s="359"/>
+      <c r="J36" s="360"/>
+      <c r="K36" s="362"/>
+      <c r="L36" s="362"/>
       <c r="M36" s="214" t="s">
         <v>27</v>
       </c>
@@ -9499,20 +9501,20 @@
     </row>
     <row r="37" spans="2:22">
       <c r="B37" s="208"/>
-      <c r="C37" s="358" t="s">
+      <c r="C37" s="367" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="352"/>
-      <c r="E37" s="352"/>
-      <c r="F37" s="352"/>
-      <c r="G37" s="352"/>
-      <c r="H37" s="352"/>
-      <c r="I37" s="352"/>
-      <c r="J37" s="353"/>
-      <c r="K37" s="347" t="s">
+      <c r="D37" s="356"/>
+      <c r="E37" s="356"/>
+      <c r="F37" s="356"/>
+      <c r="G37" s="356"/>
+      <c r="H37" s="356"/>
+      <c r="I37" s="356"/>
+      <c r="J37" s="357"/>
+      <c r="K37" s="361" t="s">
         <v>74</v>
       </c>
-      <c r="L37" s="357">
+      <c r="L37" s="368">
         <v>1</v>
       </c>
       <c r="M37" s="212" t="s">
@@ -9530,16 +9532,16 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="208"/>
-      <c r="C38" s="355"/>
-      <c r="D38" s="355"/>
-      <c r="E38" s="355"/>
-      <c r="F38" s="355"/>
-      <c r="G38" s="355"/>
-      <c r="H38" s="355"/>
-      <c r="I38" s="355"/>
-      <c r="J38" s="356"/>
-      <c r="K38" s="348"/>
-      <c r="L38" s="348"/>
+      <c r="C38" s="359"/>
+      <c r="D38" s="359"/>
+      <c r="E38" s="359"/>
+      <c r="F38" s="359"/>
+      <c r="G38" s="359"/>
+      <c r="H38" s="359"/>
+      <c r="I38" s="359"/>
+      <c r="J38" s="360"/>
+      <c r="K38" s="362"/>
+      <c r="L38" s="362"/>
       <c r="M38" s="214" t="s">
         <v>27</v>
       </c>
@@ -9555,20 +9557,20 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="208"/>
-      <c r="C39" s="358" t="s">
+      <c r="C39" s="367" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="352"/>
-      <c r="E39" s="352"/>
-      <c r="F39" s="352"/>
-      <c r="G39" s="352"/>
-      <c r="H39" s="352"/>
-      <c r="I39" s="352"/>
-      <c r="J39" s="353"/>
-      <c r="K39" s="347" t="s">
+      <c r="D39" s="356"/>
+      <c r="E39" s="356"/>
+      <c r="F39" s="356"/>
+      <c r="G39" s="356"/>
+      <c r="H39" s="356"/>
+      <c r="I39" s="356"/>
+      <c r="J39" s="357"/>
+      <c r="K39" s="361" t="s">
         <v>77</v>
       </c>
-      <c r="L39" s="357">
+      <c r="L39" s="368">
         <v>1</v>
       </c>
       <c r="M39" s="212" t="s">
@@ -9586,16 +9588,16 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" s="208"/>
-      <c r="C40" s="355"/>
-      <c r="D40" s="355"/>
-      <c r="E40" s="355"/>
-      <c r="F40" s="355"/>
-      <c r="G40" s="355"/>
-      <c r="H40" s="355"/>
-      <c r="I40" s="355"/>
-      <c r="J40" s="356"/>
-      <c r="K40" s="348"/>
-      <c r="L40" s="348"/>
+      <c r="C40" s="359"/>
+      <c r="D40" s="359"/>
+      <c r="E40" s="359"/>
+      <c r="F40" s="359"/>
+      <c r="G40" s="359"/>
+      <c r="H40" s="359"/>
+      <c r="I40" s="359"/>
+      <c r="J40" s="360"/>
+      <c r="K40" s="362"/>
+      <c r="L40" s="362"/>
       <c r="M40" s="214" t="s">
         <v>27</v>
       </c>
@@ -9611,20 +9613,20 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="208"/>
-      <c r="C41" s="358" t="s">
+      <c r="C41" s="367" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="352"/>
-      <c r="E41" s="352"/>
-      <c r="F41" s="352"/>
-      <c r="G41" s="352"/>
-      <c r="H41" s="352"/>
-      <c r="I41" s="352"/>
-      <c r="J41" s="353"/>
-      <c r="K41" s="347" t="s">
+      <c r="D41" s="356"/>
+      <c r="E41" s="356"/>
+      <c r="F41" s="356"/>
+      <c r="G41" s="356"/>
+      <c r="H41" s="356"/>
+      <c r="I41" s="356"/>
+      <c r="J41" s="357"/>
+      <c r="K41" s="361" t="s">
         <v>73</v>
       </c>
-      <c r="L41" s="357">
+      <c r="L41" s="368">
         <v>1</v>
       </c>
       <c r="M41" s="212" t="s">
@@ -9642,16 +9644,16 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="208"/>
-      <c r="C42" s="355"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="355"/>
-      <c r="F42" s="355"/>
-      <c r="G42" s="355"/>
-      <c r="H42" s="355"/>
-      <c r="I42" s="355"/>
-      <c r="J42" s="356"/>
-      <c r="K42" s="348"/>
-      <c r="L42" s="348"/>
+      <c r="C42" s="359"/>
+      <c r="D42" s="359"/>
+      <c r="E42" s="359"/>
+      <c r="F42" s="359"/>
+      <c r="G42" s="359"/>
+      <c r="H42" s="359"/>
+      <c r="I42" s="359"/>
+      <c r="J42" s="360"/>
+      <c r="K42" s="362"/>
+      <c r="L42" s="362"/>
       <c r="M42" s="214" t="s">
         <v>27</v>
       </c>
@@ -9667,20 +9669,20 @@
     </row>
     <row r="43" spans="2:22">
       <c r="B43" s="208"/>
-      <c r="C43" s="359" t="s">
+      <c r="C43" s="371" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="360"/>
-      <c r="E43" s="360"/>
-      <c r="F43" s="360"/>
-      <c r="G43" s="360"/>
-      <c r="H43" s="360"/>
-      <c r="I43" s="360"/>
-      <c r="J43" s="361"/>
-      <c r="K43" s="347" t="s">
+      <c r="D43" s="372"/>
+      <c r="E43" s="372"/>
+      <c r="F43" s="372"/>
+      <c r="G43" s="372"/>
+      <c r="H43" s="372"/>
+      <c r="I43" s="372"/>
+      <c r="J43" s="373"/>
+      <c r="K43" s="361" t="s">
         <v>93</v>
       </c>
-      <c r="L43" s="357">
+      <c r="L43" s="368">
         <v>1</v>
       </c>
       <c r="M43" s="212" t="s">
@@ -9698,16 +9700,16 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" s="208"/>
-      <c r="C44" s="362"/>
-      <c r="D44" s="363"/>
-      <c r="E44" s="363"/>
-      <c r="F44" s="363"/>
-      <c r="G44" s="363"/>
-      <c r="H44" s="363"/>
-      <c r="I44" s="363"/>
-      <c r="J44" s="364"/>
-      <c r="K44" s="366"/>
-      <c r="L44" s="348"/>
+      <c r="C44" s="374"/>
+      <c r="D44" s="375"/>
+      <c r="E44" s="375"/>
+      <c r="F44" s="375"/>
+      <c r="G44" s="375"/>
+      <c r="H44" s="375"/>
+      <c r="I44" s="375"/>
+      <c r="J44" s="376"/>
+      <c r="K44" s="378"/>
+      <c r="L44" s="362"/>
       <c r="M44" s="214" t="s">
         <v>27</v>
       </c>
@@ -9723,20 +9725,20 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="208"/>
-      <c r="C45" s="359" t="s">
+      <c r="C45" s="371" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="360"/>
-      <c r="E45" s="360"/>
-      <c r="F45" s="360"/>
-      <c r="G45" s="360"/>
-      <c r="H45" s="360"/>
-      <c r="I45" s="360"/>
-      <c r="J45" s="361"/>
-      <c r="K45" s="365" t="s">
+      <c r="D45" s="372"/>
+      <c r="E45" s="372"/>
+      <c r="F45" s="372"/>
+      <c r="G45" s="372"/>
+      <c r="H45" s="372"/>
+      <c r="I45" s="372"/>
+      <c r="J45" s="373"/>
+      <c r="K45" s="377" t="s">
         <v>77</v>
       </c>
-      <c r="L45" s="357">
+      <c r="L45" s="368">
         <v>1</v>
       </c>
       <c r="M45" s="212" t="s">
@@ -9754,16 +9756,16 @@
     </row>
     <row r="46" spans="2:22">
       <c r="B46" s="208"/>
-      <c r="C46" s="362"/>
-      <c r="D46" s="363"/>
-      <c r="E46" s="363"/>
-      <c r="F46" s="363"/>
-      <c r="G46" s="363"/>
-      <c r="H46" s="363"/>
-      <c r="I46" s="363"/>
-      <c r="J46" s="364"/>
-      <c r="K46" s="348"/>
-      <c r="L46" s="348"/>
+      <c r="C46" s="374"/>
+      <c r="D46" s="375"/>
+      <c r="E46" s="375"/>
+      <c r="F46" s="375"/>
+      <c r="G46" s="375"/>
+      <c r="H46" s="375"/>
+      <c r="I46" s="375"/>
+      <c r="J46" s="376"/>
+      <c r="K46" s="362"/>
+      <c r="L46" s="362"/>
       <c r="M46" s="214" t="s">
         <v>27</v>
       </c>
@@ -9779,20 +9781,20 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" s="208"/>
-      <c r="C47" s="358" t="s">
+      <c r="C47" s="367" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="352"/>
-      <c r="E47" s="352"/>
-      <c r="F47" s="352"/>
-      <c r="G47" s="352"/>
-      <c r="H47" s="352"/>
-      <c r="I47" s="352"/>
-      <c r="J47" s="353"/>
-      <c r="K47" s="347" t="s">
+      <c r="D47" s="356"/>
+      <c r="E47" s="356"/>
+      <c r="F47" s="356"/>
+      <c r="G47" s="356"/>
+      <c r="H47" s="356"/>
+      <c r="I47" s="356"/>
+      <c r="J47" s="357"/>
+      <c r="K47" s="361" t="s">
         <v>79</v>
       </c>
-      <c r="L47" s="357">
+      <c r="L47" s="368">
         <v>1</v>
       </c>
       <c r="M47" s="212" t="s">
@@ -9810,16 +9812,16 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="208"/>
-      <c r="C48" s="355"/>
-      <c r="D48" s="355"/>
-      <c r="E48" s="355"/>
-      <c r="F48" s="355"/>
-      <c r="G48" s="355"/>
-      <c r="H48" s="355"/>
-      <c r="I48" s="355"/>
-      <c r="J48" s="356"/>
-      <c r="K48" s="348"/>
-      <c r="L48" s="348"/>
+      <c r="C48" s="359"/>
+      <c r="D48" s="359"/>
+      <c r="E48" s="359"/>
+      <c r="F48" s="359"/>
+      <c r="G48" s="359"/>
+      <c r="H48" s="359"/>
+      <c r="I48" s="359"/>
+      <c r="J48" s="360"/>
+      <c r="K48" s="362"/>
+      <c r="L48" s="362"/>
       <c r="M48" s="214" t="s">
         <v>27</v>
       </c>
@@ -9883,20 +9885,20 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="208"/>
-      <c r="C51" s="358" t="s">
+      <c r="C51" s="367" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="352"/>
-      <c r="E51" s="352"/>
-      <c r="F51" s="352"/>
-      <c r="G51" s="352"/>
-      <c r="H51" s="352"/>
-      <c r="I51" s="352"/>
-      <c r="J51" s="353"/>
-      <c r="K51" s="347" t="s">
+      <c r="D51" s="356"/>
+      <c r="E51" s="356"/>
+      <c r="F51" s="356"/>
+      <c r="G51" s="356"/>
+      <c r="H51" s="356"/>
+      <c r="I51" s="356"/>
+      <c r="J51" s="357"/>
+      <c r="K51" s="361" t="s">
         <v>52</v>
       </c>
-      <c r="L51" s="357">
+      <c r="L51" s="368">
         <v>1</v>
       </c>
       <c r="M51" s="212" t="s">
@@ -9914,18 +9916,18 @@
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="208"/>
-      <c r="C52" s="355"/>
-      <c r="D52" s="355"/>
-      <c r="E52" s="355"/>
-      <c r="F52" s="355"/>
-      <c r="G52" s="355"/>
-      <c r="H52" s="355"/>
-      <c r="I52" s="355"/>
-      <c r="J52" s="356"/>
-      <c r="K52" s="348" t="s">
+      <c r="C52" s="359"/>
+      <c r="D52" s="359"/>
+      <c r="E52" s="359"/>
+      <c r="F52" s="359"/>
+      <c r="G52" s="359"/>
+      <c r="H52" s="359"/>
+      <c r="I52" s="359"/>
+      <c r="J52" s="360"/>
+      <c r="K52" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="L52" s="348"/>
+      <c r="L52" s="362"/>
       <c r="M52" s="214" t="s">
         <v>27</v>
       </c>
@@ -9941,20 +9943,20 @@
     </row>
     <row r="53" spans="2:22">
       <c r="B53" s="208"/>
-      <c r="C53" s="358" t="s">
+      <c r="C53" s="367" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="352"/>
-      <c r="E53" s="352"/>
-      <c r="F53" s="352"/>
-      <c r="G53" s="352"/>
-      <c r="H53" s="352"/>
-      <c r="I53" s="352"/>
-      <c r="J53" s="353"/>
-      <c r="K53" s="347" t="s">
+      <c r="D53" s="356"/>
+      <c r="E53" s="356"/>
+      <c r="F53" s="356"/>
+      <c r="G53" s="356"/>
+      <c r="H53" s="356"/>
+      <c r="I53" s="356"/>
+      <c r="J53" s="357"/>
+      <c r="K53" s="361" t="s">
         <v>52</v>
       </c>
-      <c r="L53" s="357">
+      <c r="L53" s="368">
         <v>1</v>
       </c>
       <c r="M53" s="212" t="s">
@@ -9972,18 +9974,18 @@
     </row>
     <row r="54" spans="2:22">
       <c r="B54" s="228"/>
-      <c r="C54" s="355"/>
-      <c r="D54" s="355"/>
-      <c r="E54" s="355"/>
-      <c r="F54" s="355"/>
-      <c r="G54" s="355"/>
-      <c r="H54" s="355"/>
-      <c r="I54" s="355"/>
-      <c r="J54" s="356"/>
-      <c r="K54" s="348" t="s">
+      <c r="C54" s="359"/>
+      <c r="D54" s="359"/>
+      <c r="E54" s="359"/>
+      <c r="F54" s="359"/>
+      <c r="G54" s="359"/>
+      <c r="H54" s="359"/>
+      <c r="I54" s="359"/>
+      <c r="J54" s="360"/>
+      <c r="K54" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="L54" s="348"/>
+      <c r="L54" s="362"/>
       <c r="M54" s="214" t="s">
         <v>27</v>
       </c>
@@ -9999,15 +10001,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="C47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="C41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="C43:J44"/>
+    <mergeCell ref="C45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
     <mergeCell ref="C53:J54"/>
     <mergeCell ref="K53:K54"/>
     <mergeCell ref="L53:L54"/>
@@ -10024,22 +10033,15 @@
     <mergeCell ref="C39:J40"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="C47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="C41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="C43:J44"/>
-    <mergeCell ref="C45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -10084,26 +10086,26 @@
       <c r="J8" s="180"/>
       <c r="K8" s="180"/>
       <c r="L8" s="180"/>
-      <c r="M8" s="336">
+      <c r="M8" s="344">
         <v>2020</v>
       </c>
-      <c r="N8" s="336"/>
-      <c r="O8" s="336"/>
-      <c r="P8" s="336"/>
-      <c r="Q8" s="336"/>
-      <c r="R8" s="336"/>
-      <c r="S8" s="336"/>
-      <c r="T8" s="336"/>
-      <c r="U8" s="336"/>
-      <c r="V8" s="336"/>
-      <c r="W8" s="336"/>
-      <c r="X8" s="336"/>
-      <c r="Y8" s="336"/>
-      <c r="Z8" s="336"/>
-      <c r="AA8" s="336"/>
-      <c r="AB8" s="336"/>
-      <c r="AC8" s="336"/>
-      <c r="AD8" s="336"/>
+      <c r="N8" s="344"/>
+      <c r="O8" s="344"/>
+      <c r="P8" s="344"/>
+      <c r="Q8" s="344"/>
+      <c r="R8" s="344"/>
+      <c r="S8" s="344"/>
+      <c r="T8" s="344"/>
+      <c r="U8" s="344"/>
+      <c r="V8" s="344"/>
+      <c r="W8" s="344"/>
+      <c r="X8" s="344"/>
+      <c r="Y8" s="344"/>
+      <c r="Z8" s="344"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="344"/>
+      <c r="AC8" s="344"/>
+      <c r="AD8" s="344"/>
     </row>
     <row r="9" spans="4:30">
       <c r="D9" s="181"/>
@@ -10115,26 +10117,26 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="336">
+      <c r="M9" s="344">
         <v>6</v>
       </c>
-      <c r="N9" s="336"/>
-      <c r="O9" s="336"/>
-      <c r="P9" s="336"/>
-      <c r="Q9" s="336"/>
-      <c r="R9" s="336"/>
-      <c r="S9" s="336"/>
-      <c r="T9" s="336"/>
-      <c r="U9" s="336"/>
-      <c r="V9" s="336"/>
-      <c r="W9" s="336"/>
-      <c r="X9" s="336"/>
-      <c r="Y9" s="336"/>
-      <c r="Z9" s="336"/>
-      <c r="AA9" s="336"/>
-      <c r="AB9" s="336"/>
-      <c r="AC9" s="336"/>
-      <c r="AD9" s="336"/>
+      <c r="N9" s="344"/>
+      <c r="O9" s="344"/>
+      <c r="P9" s="344"/>
+      <c r="Q9" s="344"/>
+      <c r="R9" s="344"/>
+      <c r="S9" s="344"/>
+      <c r="T9" s="344"/>
+      <c r="U9" s="344"/>
+      <c r="V9" s="344"/>
+      <c r="W9" s="344"/>
+      <c r="X9" s="344"/>
+      <c r="Y9" s="344"/>
+      <c r="Z9" s="344"/>
+      <c r="AA9" s="344"/>
+      <c r="AB9" s="344"/>
+      <c r="AC9" s="344"/>
+      <c r="AD9" s="344"/>
     </row>
     <row r="10" spans="4:30">
       <c r="D10" s="9"/>
@@ -10526,10 +10528,10 @@
       <c r="K25" s="369" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="367" t="s">
+      <c r="L25" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="367" t="s">
+      <c r="M25" s="365" t="s">
         <v>22</v>
       </c>
       <c r="N25" s="138">
@@ -10559,8 +10561,8 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="370"/>
-      <c r="L26" s="368"/>
-      <c r="M26" s="368"/>
+      <c r="L26" s="366"/>
+      <c r="M26" s="366"/>
       <c r="N26" s="141">
         <v>43999</v>
       </c>
@@ -10634,20 +10636,20 @@
     </row>
     <row r="28" spans="2:33">
       <c r="B28" s="18"/>
-      <c r="C28" s="358" t="s">
+      <c r="C28" s="367" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="352"/>
-      <c r="E28" s="352"/>
-      <c r="F28" s="352"/>
-      <c r="G28" s="352"/>
-      <c r="H28" s="352"/>
-      <c r="I28" s="352"/>
-      <c r="J28" s="353"/>
-      <c r="K28" s="347" t="s">
+      <c r="D28" s="356"/>
+      <c r="E28" s="356"/>
+      <c r="F28" s="356"/>
+      <c r="G28" s="356"/>
+      <c r="H28" s="356"/>
+      <c r="I28" s="356"/>
+      <c r="J28" s="357"/>
+      <c r="K28" s="361" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="357">
+      <c r="L28" s="368">
         <v>1</v>
       </c>
       <c r="M28" s="145" t="s">
@@ -10670,16 +10672,16 @@
     </row>
     <row r="29" spans="2:33">
       <c r="B29" s="18"/>
-      <c r="C29" s="355"/>
-      <c r="D29" s="355"/>
-      <c r="E29" s="355"/>
-      <c r="F29" s="355"/>
-      <c r="G29" s="355"/>
-      <c r="H29" s="355"/>
-      <c r="I29" s="355"/>
-      <c r="J29" s="356"/>
-      <c r="K29" s="348"/>
-      <c r="L29" s="348"/>
+      <c r="C29" s="359"/>
+      <c r="D29" s="359"/>
+      <c r="E29" s="359"/>
+      <c r="F29" s="359"/>
+      <c r="G29" s="359"/>
+      <c r="H29" s="359"/>
+      <c r="I29" s="359"/>
+      <c r="J29" s="360"/>
+      <c r="K29" s="362"/>
+      <c r="L29" s="362"/>
       <c r="M29" s="146" t="s">
         <v>27</v>
       </c>
@@ -10699,20 +10701,20 @@
     </row>
     <row r="30" spans="2:33">
       <c r="B30" s="18"/>
-      <c r="C30" s="358" t="s">
+      <c r="C30" s="367" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="352"/>
-      <c r="E30" s="352"/>
-      <c r="F30" s="352"/>
-      <c r="G30" s="352"/>
-      <c r="H30" s="352"/>
-      <c r="I30" s="352"/>
-      <c r="J30" s="353"/>
-      <c r="K30" s="347" t="s">
+      <c r="D30" s="356"/>
+      <c r="E30" s="356"/>
+      <c r="F30" s="356"/>
+      <c r="G30" s="356"/>
+      <c r="H30" s="356"/>
+      <c r="I30" s="356"/>
+      <c r="J30" s="357"/>
+      <c r="K30" s="361" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="357">
+      <c r="L30" s="368">
         <v>1</v>
       </c>
       <c r="M30" s="145" t="s">
@@ -10734,16 +10736,16 @@
     </row>
     <row r="31" spans="2:33">
       <c r="B31" s="18"/>
-      <c r="C31" s="355"/>
-      <c r="D31" s="355"/>
-      <c r="E31" s="355"/>
-      <c r="F31" s="355"/>
-      <c r="G31" s="355"/>
-      <c r="H31" s="355"/>
-      <c r="I31" s="355"/>
-      <c r="J31" s="356"/>
-      <c r="K31" s="348"/>
-      <c r="L31" s="348"/>
+      <c r="C31" s="359"/>
+      <c r="D31" s="359"/>
+      <c r="E31" s="359"/>
+      <c r="F31" s="359"/>
+      <c r="G31" s="359"/>
+      <c r="H31" s="359"/>
+      <c r="I31" s="359"/>
+      <c r="J31" s="360"/>
+      <c r="K31" s="362"/>
+      <c r="L31" s="362"/>
       <c r="M31" s="146" t="s">
         <v>27</v>
       </c>
@@ -10763,20 +10765,20 @@
     </row>
     <row r="32" spans="2:33">
       <c r="B32" s="18"/>
-      <c r="C32" s="358" t="s">
+      <c r="C32" s="367" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="352"/>
-      <c r="E32" s="352"/>
-      <c r="F32" s="352"/>
-      <c r="G32" s="352"/>
-      <c r="H32" s="352"/>
-      <c r="I32" s="352"/>
-      <c r="J32" s="353"/>
-      <c r="K32" s="347" t="s">
+      <c r="D32" s="356"/>
+      <c r="E32" s="356"/>
+      <c r="F32" s="356"/>
+      <c r="G32" s="356"/>
+      <c r="H32" s="356"/>
+      <c r="I32" s="356"/>
+      <c r="J32" s="357"/>
+      <c r="K32" s="361" t="s">
         <v>77</v>
       </c>
-      <c r="L32" s="357">
+      <c r="L32" s="368">
         <v>1</v>
       </c>
       <c r="M32" s="145" t="s">
@@ -10799,16 +10801,16 @@
     </row>
     <row r="33" spans="2:30">
       <c r="B33" s="18"/>
-      <c r="C33" s="355"/>
-      <c r="D33" s="355"/>
-      <c r="E33" s="355"/>
-      <c r="F33" s="355"/>
-      <c r="G33" s="355"/>
-      <c r="H33" s="355"/>
-      <c r="I33" s="355"/>
-      <c r="J33" s="356"/>
-      <c r="K33" s="348"/>
-      <c r="L33" s="348"/>
+      <c r="C33" s="359"/>
+      <c r="D33" s="359"/>
+      <c r="E33" s="359"/>
+      <c r="F33" s="359"/>
+      <c r="G33" s="359"/>
+      <c r="H33" s="359"/>
+      <c r="I33" s="359"/>
+      <c r="J33" s="360"/>
+      <c r="K33" s="362"/>
+      <c r="L33" s="362"/>
       <c r="M33" s="146" t="s">
         <v>27</v>
       </c>
@@ -10828,20 +10830,20 @@
     </row>
     <row r="34" spans="2:30">
       <c r="B34" s="18"/>
-      <c r="C34" s="359" t="s">
+      <c r="C34" s="371" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="360"/>
-      <c r="E34" s="360"/>
-      <c r="F34" s="360"/>
-      <c r="G34" s="360"/>
-      <c r="H34" s="360"/>
-      <c r="I34" s="360"/>
-      <c r="J34" s="361"/>
-      <c r="K34" s="347" t="s">
+      <c r="D34" s="372"/>
+      <c r="E34" s="372"/>
+      <c r="F34" s="372"/>
+      <c r="G34" s="372"/>
+      <c r="H34" s="372"/>
+      <c r="I34" s="372"/>
+      <c r="J34" s="373"/>
+      <c r="K34" s="361" t="s">
         <v>73</v>
       </c>
-      <c r="L34" s="357">
+      <c r="L34" s="368">
         <v>0</v>
       </c>
       <c r="M34" s="145" t="s">
@@ -10863,16 +10865,16 @@
     </row>
     <row r="35" spans="2:30">
       <c r="B35" s="18"/>
-      <c r="C35" s="362"/>
-      <c r="D35" s="363"/>
-      <c r="E35" s="363"/>
-      <c r="F35" s="363"/>
-      <c r="G35" s="363"/>
-      <c r="H35" s="363"/>
-      <c r="I35" s="363"/>
-      <c r="J35" s="364"/>
-      <c r="K35" s="348"/>
-      <c r="L35" s="371"/>
+      <c r="C35" s="374"/>
+      <c r="D35" s="375"/>
+      <c r="E35" s="375"/>
+      <c r="F35" s="375"/>
+      <c r="G35" s="375"/>
+      <c r="H35" s="375"/>
+      <c r="I35" s="375"/>
+      <c r="J35" s="376"/>
+      <c r="K35" s="362"/>
+      <c r="L35" s="379"/>
       <c r="M35" s="146" t="s">
         <v>27</v>
       </c>
@@ -10892,20 +10894,20 @@
     </row>
     <row r="36" spans="2:30">
       <c r="B36" s="18"/>
-      <c r="C36" s="359" t="s">
+      <c r="C36" s="371" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="360"/>
-      <c r="E36" s="360"/>
-      <c r="F36" s="360"/>
-      <c r="G36" s="360"/>
-      <c r="H36" s="360"/>
-      <c r="I36" s="360"/>
-      <c r="J36" s="361"/>
-      <c r="K36" s="347" t="s">
+      <c r="D36" s="372"/>
+      <c r="E36" s="372"/>
+      <c r="F36" s="372"/>
+      <c r="G36" s="372"/>
+      <c r="H36" s="372"/>
+      <c r="I36" s="372"/>
+      <c r="J36" s="373"/>
+      <c r="K36" s="361" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="357">
+      <c r="L36" s="368">
         <v>0.1</v>
       </c>
       <c r="M36" s="145" t="s">
@@ -10927,16 +10929,16 @@
     </row>
     <row r="37" spans="2:30">
       <c r="B37" s="18"/>
-      <c r="C37" s="362"/>
-      <c r="D37" s="363"/>
-      <c r="E37" s="363"/>
-      <c r="F37" s="363"/>
-      <c r="G37" s="363"/>
-      <c r="H37" s="363"/>
-      <c r="I37" s="363"/>
-      <c r="J37" s="364"/>
-      <c r="K37" s="348"/>
-      <c r="L37" s="371"/>
+      <c r="C37" s="374"/>
+      <c r="D37" s="375"/>
+      <c r="E37" s="375"/>
+      <c r="F37" s="375"/>
+      <c r="G37" s="375"/>
+      <c r="H37" s="375"/>
+      <c r="I37" s="375"/>
+      <c r="J37" s="376"/>
+      <c r="K37" s="362"/>
+      <c r="L37" s="379"/>
       <c r="M37" s="146" t="s">
         <v>27</v>
       </c>
@@ -10956,20 +10958,20 @@
     </row>
     <row r="38" spans="2:30">
       <c r="B38" s="18"/>
-      <c r="C38" s="358" t="s">
+      <c r="C38" s="367" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="352"/>
-      <c r="E38" s="352"/>
-      <c r="F38" s="352"/>
-      <c r="G38" s="352"/>
-      <c r="H38" s="352"/>
-      <c r="I38" s="352"/>
-      <c r="J38" s="353"/>
-      <c r="K38" s="365" t="s">
+      <c r="D38" s="356"/>
+      <c r="E38" s="356"/>
+      <c r="F38" s="356"/>
+      <c r="G38" s="356"/>
+      <c r="H38" s="356"/>
+      <c r="I38" s="356"/>
+      <c r="J38" s="357"/>
+      <c r="K38" s="377" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="357">
+      <c r="L38" s="368">
         <v>1</v>
       </c>
       <c r="M38" s="145" t="s">
@@ -10992,16 +10994,16 @@
     </row>
     <row r="39" spans="2:30">
       <c r="B39" s="18"/>
-      <c r="C39" s="355"/>
-      <c r="D39" s="355"/>
-      <c r="E39" s="355"/>
-      <c r="F39" s="355"/>
-      <c r="G39" s="355"/>
-      <c r="H39" s="355"/>
-      <c r="I39" s="355"/>
-      <c r="J39" s="356"/>
-      <c r="K39" s="348"/>
-      <c r="L39" s="348"/>
+      <c r="C39" s="359"/>
+      <c r="D39" s="359"/>
+      <c r="E39" s="359"/>
+      <c r="F39" s="359"/>
+      <c r="G39" s="359"/>
+      <c r="H39" s="359"/>
+      <c r="I39" s="359"/>
+      <c r="J39" s="360"/>
+      <c r="K39" s="362"/>
+      <c r="L39" s="362"/>
       <c r="M39" s="146" t="s">
         <v>27</v>
       </c>
@@ -11021,20 +11023,20 @@
     </row>
     <row r="40" spans="2:30">
       <c r="B40" s="18"/>
-      <c r="C40" s="358" t="s">
+      <c r="C40" s="367" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="352"/>
-      <c r="E40" s="352"/>
-      <c r="F40" s="352"/>
-      <c r="G40" s="352"/>
-      <c r="H40" s="352"/>
-      <c r="I40" s="352"/>
-      <c r="J40" s="353"/>
-      <c r="K40" s="347" t="s">
+      <c r="D40" s="356"/>
+      <c r="E40" s="356"/>
+      <c r="F40" s="356"/>
+      <c r="G40" s="356"/>
+      <c r="H40" s="356"/>
+      <c r="I40" s="356"/>
+      <c r="J40" s="357"/>
+      <c r="K40" s="361" t="s">
         <v>74</v>
       </c>
-      <c r="L40" s="357">
+      <c r="L40" s="368">
         <v>0</v>
       </c>
       <c r="M40" s="145" t="s">
@@ -11056,16 +11058,16 @@
     </row>
     <row r="41" spans="2:30">
       <c r="B41" s="18"/>
-      <c r="C41" s="355"/>
-      <c r="D41" s="355"/>
-      <c r="E41" s="355"/>
-      <c r="F41" s="355"/>
-      <c r="G41" s="355"/>
-      <c r="H41" s="355"/>
-      <c r="I41" s="355"/>
-      <c r="J41" s="356"/>
-      <c r="K41" s="366"/>
-      <c r="L41" s="348"/>
+      <c r="C41" s="359"/>
+      <c r="D41" s="359"/>
+      <c r="E41" s="359"/>
+      <c r="F41" s="359"/>
+      <c r="G41" s="359"/>
+      <c r="H41" s="359"/>
+      <c r="I41" s="359"/>
+      <c r="J41" s="360"/>
+      <c r="K41" s="378"/>
+      <c r="L41" s="362"/>
       <c r="M41" s="146" t="s">
         <v>27</v>
       </c>
@@ -11085,20 +11087,20 @@
     </row>
     <row r="42" spans="2:30">
       <c r="B42" s="18"/>
-      <c r="C42" s="358" t="s">
+      <c r="C42" s="367" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="352"/>
-      <c r="E42" s="352"/>
-      <c r="F42" s="352"/>
-      <c r="G42" s="352"/>
-      <c r="H42" s="352"/>
-      <c r="I42" s="352"/>
-      <c r="J42" s="353"/>
-      <c r="K42" s="347" t="s">
+      <c r="D42" s="356"/>
+      <c r="E42" s="356"/>
+      <c r="F42" s="356"/>
+      <c r="G42" s="356"/>
+      <c r="H42" s="356"/>
+      <c r="I42" s="356"/>
+      <c r="J42" s="357"/>
+      <c r="K42" s="361" t="s">
         <v>79</v>
       </c>
-      <c r="L42" s="357">
+      <c r="L42" s="368">
         <v>0.3</v>
       </c>
       <c r="M42" s="145" t="s">
@@ -11121,16 +11123,16 @@
     </row>
     <row r="43" spans="2:30">
       <c r="B43" s="18"/>
-      <c r="C43" s="355"/>
-      <c r="D43" s="355"/>
-      <c r="E43" s="355"/>
-      <c r="F43" s="355"/>
-      <c r="G43" s="355"/>
-      <c r="H43" s="355"/>
-      <c r="I43" s="355"/>
-      <c r="J43" s="356"/>
-      <c r="K43" s="348"/>
-      <c r="L43" s="348"/>
+      <c r="C43" s="359"/>
+      <c r="D43" s="359"/>
+      <c r="E43" s="359"/>
+      <c r="F43" s="359"/>
+      <c r="G43" s="359"/>
+      <c r="H43" s="359"/>
+      <c r="I43" s="359"/>
+      <c r="J43" s="360"/>
+      <c r="K43" s="362"/>
+      <c r="L43" s="362"/>
       <c r="M43" s="146" t="s">
         <v>27</v>
       </c>
@@ -11150,20 +11152,20 @@
     </row>
     <row r="44" spans="2:30">
       <c r="B44" s="18"/>
-      <c r="C44" s="358" t="s">
+      <c r="C44" s="367" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="352"/>
-      <c r="E44" s="352"/>
-      <c r="F44" s="352"/>
-      <c r="G44" s="352"/>
-      <c r="H44" s="352"/>
-      <c r="I44" s="352"/>
-      <c r="J44" s="353"/>
-      <c r="K44" s="347" t="s">
+      <c r="D44" s="356"/>
+      <c r="E44" s="356"/>
+      <c r="F44" s="356"/>
+      <c r="G44" s="356"/>
+      <c r="H44" s="356"/>
+      <c r="I44" s="356"/>
+      <c r="J44" s="357"/>
+      <c r="K44" s="361" t="s">
         <v>77</v>
       </c>
-      <c r="L44" s="357">
+      <c r="L44" s="368">
         <v>0.3</v>
       </c>
       <c r="M44" s="145" t="s">
@@ -11185,16 +11187,16 @@
     </row>
     <row r="45" spans="2:30">
       <c r="B45" s="18"/>
-      <c r="C45" s="355"/>
-      <c r="D45" s="355"/>
-      <c r="E45" s="355"/>
-      <c r="F45" s="355"/>
-      <c r="G45" s="355"/>
-      <c r="H45" s="355"/>
-      <c r="I45" s="355"/>
-      <c r="J45" s="356"/>
-      <c r="K45" s="348"/>
-      <c r="L45" s="348"/>
+      <c r="C45" s="359"/>
+      <c r="D45" s="359"/>
+      <c r="E45" s="359"/>
+      <c r="F45" s="359"/>
+      <c r="G45" s="359"/>
+      <c r="H45" s="359"/>
+      <c r="I45" s="359"/>
+      <c r="J45" s="360"/>
+      <c r="K45" s="362"/>
+      <c r="L45" s="362"/>
       <c r="M45" s="146" t="s">
         <v>27</v>
       </c>
@@ -11214,20 +11216,20 @@
     </row>
     <row r="46" spans="2:30">
       <c r="B46" s="18"/>
-      <c r="C46" s="358" t="s">
+      <c r="C46" s="367" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="352"/>
-      <c r="E46" s="352"/>
-      <c r="F46" s="352"/>
-      <c r="G46" s="352"/>
-      <c r="H46" s="352"/>
-      <c r="I46" s="352"/>
-      <c r="J46" s="353"/>
-      <c r="K46" s="347" t="s">
+      <c r="D46" s="356"/>
+      <c r="E46" s="356"/>
+      <c r="F46" s="356"/>
+      <c r="G46" s="356"/>
+      <c r="H46" s="356"/>
+      <c r="I46" s="356"/>
+      <c r="J46" s="357"/>
+      <c r="K46" s="361" t="s">
         <v>74</v>
       </c>
-      <c r="L46" s="357">
+      <c r="L46" s="368">
         <v>0.8</v>
       </c>
       <c r="M46" s="145" t="s">
@@ -11249,16 +11251,16 @@
     </row>
     <row r="47" spans="2:30">
       <c r="B47" s="18"/>
-      <c r="C47" s="355"/>
-      <c r="D47" s="355"/>
-      <c r="E47" s="355"/>
-      <c r="F47" s="355"/>
-      <c r="G47" s="355"/>
-      <c r="H47" s="355"/>
-      <c r="I47" s="355"/>
-      <c r="J47" s="356"/>
-      <c r="K47" s="348"/>
-      <c r="L47" s="371"/>
+      <c r="C47" s="359"/>
+      <c r="D47" s="359"/>
+      <c r="E47" s="359"/>
+      <c r="F47" s="359"/>
+      <c r="G47" s="359"/>
+      <c r="H47" s="359"/>
+      <c r="I47" s="359"/>
+      <c r="J47" s="360"/>
+      <c r="K47" s="362"/>
+      <c r="L47" s="379"/>
       <c r="M47" s="146" t="s">
         <v>27</v>
       </c>
@@ -11305,25 +11307,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C42:J43"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
     <mergeCell ref="M9:AD9"/>
     <mergeCell ref="M8:AD8"/>
     <mergeCell ref="C46:J47"/>
@@ -11340,6 +11323,25 @@
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="C38:J39"/>
     <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C42:J43"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -11357,7 +11359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8602A3-DB5D-4C4B-AC21-CA5EC153D48D}">
   <dimension ref="B5:AI76"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O64" sqref="O64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
   <cols>
@@ -11384,26 +11388,26 @@
       <c r="I7" s="180"/>
       <c r="J7" s="180"/>
       <c r="K7" s="180"/>
-      <c r="L7" s="336">
+      <c r="L7" s="344">
         <v>2020</v>
       </c>
-      <c r="M7" s="336"/>
-      <c r="N7" s="336"/>
-      <c r="O7" s="336"/>
-      <c r="P7" s="336"/>
-      <c r="Q7" s="336"/>
-      <c r="R7" s="336"/>
-      <c r="S7" s="336"/>
-      <c r="T7" s="336"/>
-      <c r="U7" s="336"/>
-      <c r="V7" s="336"/>
-      <c r="W7" s="336"/>
-      <c r="X7" s="336"/>
-      <c r="Y7" s="336"/>
-      <c r="Z7" s="336"/>
-      <c r="AA7" s="336"/>
-      <c r="AB7" s="336"/>
-      <c r="AC7" s="336"/>
+      <c r="M7" s="344"/>
+      <c r="N7" s="344"/>
+      <c r="O7" s="344"/>
+      <c r="P7" s="344"/>
+      <c r="Q7" s="344"/>
+      <c r="R7" s="344"/>
+      <c r="S7" s="344"/>
+      <c r="T7" s="344"/>
+      <c r="U7" s="344"/>
+      <c r="V7" s="344"/>
+      <c r="W7" s="344"/>
+      <c r="X7" s="344"/>
+      <c r="Y7" s="344"/>
+      <c r="Z7" s="344"/>
+      <c r="AA7" s="344"/>
+      <c r="AB7" s="344"/>
+      <c r="AC7" s="344"/>
     </row>
     <row r="8" spans="3:29">
       <c r="C8" s="181"/>
@@ -11415,26 +11419,26 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="336">
+      <c r="L8" s="344">
         <v>6</v>
       </c>
-      <c r="M8" s="336"/>
-      <c r="N8" s="336"/>
-      <c r="O8" s="336"/>
-      <c r="P8" s="336"/>
-      <c r="Q8" s="336"/>
-      <c r="R8" s="336"/>
-      <c r="S8" s="336"/>
-      <c r="T8" s="336"/>
-      <c r="U8" s="336"/>
-      <c r="V8" s="336"/>
-      <c r="W8" s="336"/>
-      <c r="X8" s="336"/>
-      <c r="Y8" s="336"/>
-      <c r="Z8" s="336"/>
-      <c r="AA8" s="336"/>
-      <c r="AB8" s="336"/>
-      <c r="AC8" s="336"/>
+      <c r="M8" s="344"/>
+      <c r="N8" s="344"/>
+      <c r="O8" s="344"/>
+      <c r="P8" s="344"/>
+      <c r="Q8" s="344"/>
+      <c r="R8" s="344"/>
+      <c r="S8" s="344"/>
+      <c r="T8" s="344"/>
+      <c r="U8" s="344"/>
+      <c r="V8" s="344"/>
+      <c r="W8" s="344"/>
+      <c r="X8" s="344"/>
+      <c r="Y8" s="344"/>
+      <c r="Z8" s="344"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="344"/>
+      <c r="AC8" s="344"/>
     </row>
     <row r="9" spans="3:29">
       <c r="C9" s="9"/>
@@ -11859,7 +11863,7 @@
       </c>
       <c r="O26" s="163"/>
       <c r="P26" s="163"/>
-      <c r="Q26" s="380"/>
+      <c r="Q26" s="336"/>
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="9"/>
@@ -11883,7 +11887,7 @@
       <c r="P27" s="314">
         <v>25</v>
       </c>
-      <c r="Q27" s="381">
+      <c r="Q27" s="337">
         <v>26</v>
       </c>
     </row>
@@ -11907,7 +11911,7 @@
       <c r="N28" s="229"/>
       <c r="O28" s="315"/>
       <c r="P28" s="315"/>
-      <c r="Q28" s="382"/>
+      <c r="Q28" s="338"/>
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="18"/>
@@ -11929,24 +11933,24 @@
       <c r="N29" s="125"/>
       <c r="O29" s="316"/>
       <c r="P29" s="316"/>
-      <c r="Q29" s="383"/>
+      <c r="Q29" s="339"/>
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="18"/>
-      <c r="C30" s="358" t="s">
+      <c r="C30" s="367" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="352"/>
-      <c r="E30" s="352"/>
-      <c r="F30" s="352"/>
-      <c r="G30" s="352"/>
-      <c r="H30" s="352"/>
-      <c r="I30" s="352"/>
-      <c r="J30" s="353"/>
-      <c r="K30" s="347" t="s">
+      <c r="D30" s="356"/>
+      <c r="E30" s="356"/>
+      <c r="F30" s="356"/>
+      <c r="G30" s="356"/>
+      <c r="H30" s="356"/>
+      <c r="I30" s="356"/>
+      <c r="J30" s="357"/>
+      <c r="K30" s="361" t="s">
         <v>73</v>
       </c>
-      <c r="L30" s="349">
+      <c r="L30" s="363">
         <v>0</v>
       </c>
       <c r="M30" s="115" t="s">
@@ -11955,44 +11959,44 @@
       <c r="N30" s="294"/>
       <c r="O30" s="296"/>
       <c r="P30" s="296"/>
-      <c r="Q30" s="384"/>
+      <c r="Q30" s="340"/>
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="18"/>
-      <c r="C31" s="355"/>
-      <c r="D31" s="355"/>
-      <c r="E31" s="355"/>
-      <c r="F31" s="355"/>
-      <c r="G31" s="355"/>
-      <c r="H31" s="355"/>
-      <c r="I31" s="355"/>
-      <c r="J31" s="356"/>
-      <c r="K31" s="348"/>
-      <c r="L31" s="350"/>
+      <c r="C31" s="359"/>
+      <c r="D31" s="359"/>
+      <c r="E31" s="359"/>
+      <c r="F31" s="359"/>
+      <c r="G31" s="359"/>
+      <c r="H31" s="359"/>
+      <c r="I31" s="359"/>
+      <c r="J31" s="360"/>
+      <c r="K31" s="362"/>
+      <c r="L31" s="364"/>
       <c r="M31" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N31" s="149"/>
-      <c r="O31" s="149"/>
+      <c r="O31" s="100"/>
       <c r="P31" s="149"/>
-      <c r="Q31" s="385"/>
+      <c r="Q31" s="341"/>
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="18"/>
-      <c r="C32" s="358" t="s">
+      <c r="C32" s="367" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="352"/>
-      <c r="E32" s="352"/>
-      <c r="F32" s="352"/>
-      <c r="G32" s="352"/>
-      <c r="H32" s="352"/>
-      <c r="I32" s="352"/>
-      <c r="J32" s="353"/>
-      <c r="K32" s="347" t="s">
+      <c r="D32" s="356"/>
+      <c r="E32" s="356"/>
+      <c r="F32" s="356"/>
+      <c r="G32" s="356"/>
+      <c r="H32" s="356"/>
+      <c r="I32" s="356"/>
+      <c r="J32" s="357"/>
+      <c r="K32" s="361" t="s">
         <v>74</v>
       </c>
-      <c r="L32" s="349">
+      <c r="L32" s="363">
         <v>0</v>
       </c>
       <c r="M32" s="115" t="s">
@@ -12001,44 +12005,44 @@
       <c r="N32" s="294"/>
       <c r="O32" s="296"/>
       <c r="P32" s="296"/>
-      <c r="Q32" s="384"/>
+      <c r="Q32" s="340"/>
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="18"/>
-      <c r="C33" s="355"/>
-      <c r="D33" s="355"/>
-      <c r="E33" s="355"/>
-      <c r="F33" s="355"/>
-      <c r="G33" s="355"/>
-      <c r="H33" s="355"/>
-      <c r="I33" s="355"/>
-      <c r="J33" s="356"/>
-      <c r="K33" s="348"/>
-      <c r="L33" s="350"/>
+      <c r="C33" s="359"/>
+      <c r="D33" s="359"/>
+      <c r="E33" s="359"/>
+      <c r="F33" s="359"/>
+      <c r="G33" s="359"/>
+      <c r="H33" s="359"/>
+      <c r="I33" s="359"/>
+      <c r="J33" s="360"/>
+      <c r="K33" s="362"/>
+      <c r="L33" s="364"/>
       <c r="M33" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N33" s="149"/>
-      <c r="O33" s="149"/>
+      <c r="O33" s="100"/>
       <c r="P33" s="149"/>
-      <c r="Q33" s="385"/>
+      <c r="Q33" s="341"/>
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="18"/>
-      <c r="C34" s="358" t="s">
+      <c r="C34" s="367" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="352"/>
-      <c r="E34" s="352"/>
-      <c r="F34" s="352"/>
-      <c r="G34" s="352"/>
-      <c r="H34" s="352"/>
-      <c r="I34" s="352"/>
-      <c r="J34" s="353"/>
-      <c r="K34" s="347" t="s">
+      <c r="D34" s="356"/>
+      <c r="E34" s="356"/>
+      <c r="F34" s="356"/>
+      <c r="G34" s="356"/>
+      <c r="H34" s="356"/>
+      <c r="I34" s="356"/>
+      <c r="J34" s="357"/>
+      <c r="K34" s="361" t="s">
         <v>78</v>
       </c>
-      <c r="L34" s="349">
+      <c r="L34" s="363">
         <v>0</v>
       </c>
       <c r="M34" s="115" t="s">
@@ -12047,44 +12051,44 @@
       <c r="N34" s="294"/>
       <c r="O34" s="296"/>
       <c r="P34" s="296"/>
-      <c r="Q34" s="384"/>
+      <c r="Q34" s="340"/>
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="18"/>
-      <c r="C35" s="355"/>
-      <c r="D35" s="355"/>
-      <c r="E35" s="355"/>
-      <c r="F35" s="355"/>
-      <c r="G35" s="355"/>
-      <c r="H35" s="355"/>
-      <c r="I35" s="355"/>
-      <c r="J35" s="356"/>
-      <c r="K35" s="348"/>
-      <c r="L35" s="350"/>
+      <c r="C35" s="359"/>
+      <c r="D35" s="359"/>
+      <c r="E35" s="359"/>
+      <c r="F35" s="359"/>
+      <c r="G35" s="359"/>
+      <c r="H35" s="359"/>
+      <c r="I35" s="359"/>
+      <c r="J35" s="360"/>
+      <c r="K35" s="362"/>
+      <c r="L35" s="364"/>
       <c r="M35" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N35" s="149"/>
-      <c r="O35" s="149"/>
+      <c r="O35" s="100"/>
       <c r="P35" s="149"/>
-      <c r="Q35" s="385"/>
+      <c r="Q35" s="341"/>
     </row>
     <row r="36" spans="2:20" ht="15.75" customHeight="1">
       <c r="B36" s="18"/>
-      <c r="C36" s="359" t="s">
+      <c r="C36" s="371" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="360"/>
-      <c r="E36" s="360"/>
-      <c r="F36" s="360"/>
-      <c r="G36" s="360"/>
-      <c r="H36" s="360"/>
-      <c r="I36" s="360"/>
-      <c r="J36" s="361"/>
-      <c r="K36" s="347" t="s">
+      <c r="D36" s="372"/>
+      <c r="E36" s="372"/>
+      <c r="F36" s="372"/>
+      <c r="G36" s="372"/>
+      <c r="H36" s="372"/>
+      <c r="I36" s="372"/>
+      <c r="J36" s="373"/>
+      <c r="K36" s="361" t="s">
         <v>74</v>
       </c>
-      <c r="L36" s="349">
+      <c r="L36" s="363">
         <v>0</v>
       </c>
       <c r="M36" s="115" t="s">
@@ -12093,44 +12097,44 @@
       <c r="N36" s="294"/>
       <c r="O36" s="296"/>
       <c r="P36" s="296"/>
-      <c r="Q36" s="384"/>
+      <c r="Q36" s="340"/>
     </row>
     <row r="37" spans="2:20">
       <c r="B37" s="18"/>
-      <c r="C37" s="362"/>
-      <c r="D37" s="363"/>
-      <c r="E37" s="363"/>
-      <c r="F37" s="363"/>
-      <c r="G37" s="363"/>
-      <c r="H37" s="363"/>
-      <c r="I37" s="363"/>
-      <c r="J37" s="364"/>
-      <c r="K37" s="348"/>
-      <c r="L37" s="350"/>
+      <c r="C37" s="374"/>
+      <c r="D37" s="375"/>
+      <c r="E37" s="375"/>
+      <c r="F37" s="375"/>
+      <c r="G37" s="375"/>
+      <c r="H37" s="375"/>
+      <c r="I37" s="375"/>
+      <c r="J37" s="376"/>
+      <c r="K37" s="362"/>
+      <c r="L37" s="364"/>
       <c r="M37" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N37" s="149"/>
-      <c r="O37" s="149"/>
+      <c r="O37" s="100"/>
       <c r="P37" s="149"/>
-      <c r="Q37" s="385"/>
+      <c r="Q37" s="341"/>
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="18"/>
-      <c r="C38" s="359" t="s">
+      <c r="C38" s="371" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="360"/>
-      <c r="E38" s="360"/>
-      <c r="F38" s="360"/>
-      <c r="G38" s="360"/>
-      <c r="H38" s="360"/>
-      <c r="I38" s="360"/>
-      <c r="J38" s="361"/>
-      <c r="K38" s="347" t="s">
+      <c r="D38" s="372"/>
+      <c r="E38" s="372"/>
+      <c r="F38" s="372"/>
+      <c r="G38" s="372"/>
+      <c r="H38" s="372"/>
+      <c r="I38" s="372"/>
+      <c r="J38" s="373"/>
+      <c r="K38" s="361" t="s">
         <v>89</v>
       </c>
-      <c r="L38" s="349">
+      <c r="L38" s="363">
         <v>0</v>
       </c>
       <c r="M38" s="115" t="s">
@@ -12139,44 +12143,44 @@
       <c r="N38" s="294"/>
       <c r="O38" s="296"/>
       <c r="P38" s="296"/>
-      <c r="Q38" s="384"/>
+      <c r="Q38" s="340"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="18"/>
-      <c r="C39" s="362"/>
-      <c r="D39" s="363"/>
-      <c r="E39" s="363"/>
-      <c r="F39" s="363"/>
-      <c r="G39" s="363"/>
-      <c r="H39" s="363"/>
-      <c r="I39" s="363"/>
-      <c r="J39" s="364"/>
-      <c r="K39" s="348"/>
-      <c r="L39" s="350"/>
+      <c r="C39" s="374"/>
+      <c r="D39" s="375"/>
+      <c r="E39" s="375"/>
+      <c r="F39" s="375"/>
+      <c r="G39" s="375"/>
+      <c r="H39" s="375"/>
+      <c r="I39" s="375"/>
+      <c r="J39" s="376"/>
+      <c r="K39" s="362"/>
+      <c r="L39" s="364"/>
       <c r="M39" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N39" s="149"/>
-      <c r="O39" s="149"/>
+      <c r="O39" s="100"/>
       <c r="P39" s="149"/>
-      <c r="Q39" s="385"/>
+      <c r="Q39" s="341"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="18"/>
-      <c r="C40" s="358" t="s">
+      <c r="C40" s="367" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="352"/>
-      <c r="E40" s="352"/>
-      <c r="F40" s="352"/>
-      <c r="G40" s="352"/>
-      <c r="H40" s="352"/>
-      <c r="I40" s="352"/>
-      <c r="J40" s="353"/>
-      <c r="K40" s="347" t="s">
+      <c r="D40" s="356"/>
+      <c r="E40" s="356"/>
+      <c r="F40" s="356"/>
+      <c r="G40" s="356"/>
+      <c r="H40" s="356"/>
+      <c r="I40" s="356"/>
+      <c r="J40" s="357"/>
+      <c r="K40" s="361" t="s">
         <v>77</v>
       </c>
-      <c r="L40" s="349">
+      <c r="L40" s="363">
         <v>0</v>
       </c>
       <c r="M40" s="115" t="s">
@@ -12185,50 +12189,50 @@
       <c r="N40" s="294"/>
       <c r="O40" s="296"/>
       <c r="P40" s="296"/>
-      <c r="Q40" s="384"/>
+      <c r="Q40" s="340"/>
       <c r="T40" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="18"/>
-      <c r="C41" s="355"/>
-      <c r="D41" s="355"/>
-      <c r="E41" s="355"/>
-      <c r="F41" s="355"/>
-      <c r="G41" s="355"/>
-      <c r="H41" s="355"/>
-      <c r="I41" s="355"/>
-      <c r="J41" s="356"/>
-      <c r="K41" s="348"/>
-      <c r="L41" s="350"/>
+      <c r="C41" s="359"/>
+      <c r="D41" s="359"/>
+      <c r="E41" s="359"/>
+      <c r="F41" s="359"/>
+      <c r="G41" s="359"/>
+      <c r="H41" s="359"/>
+      <c r="I41" s="359"/>
+      <c r="J41" s="360"/>
+      <c r="K41" s="362"/>
+      <c r="L41" s="364"/>
       <c r="M41" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N41" s="149"/>
-      <c r="O41" s="149"/>
+      <c r="O41" s="100"/>
       <c r="P41" s="149"/>
-      <c r="Q41" s="385"/>
+      <c r="Q41" s="341"/>
       <c r="T41" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="18"/>
-      <c r="C42" s="358" t="s">
+      <c r="C42" s="367" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="352"/>
-      <c r="E42" s="352"/>
-      <c r="F42" s="352"/>
-      <c r="G42" s="352"/>
-      <c r="H42" s="352"/>
-      <c r="I42" s="352"/>
-      <c r="J42" s="353"/>
-      <c r="K42" s="347" t="s">
+      <c r="D42" s="356"/>
+      <c r="E42" s="356"/>
+      <c r="F42" s="356"/>
+      <c r="G42" s="356"/>
+      <c r="H42" s="356"/>
+      <c r="I42" s="356"/>
+      <c r="J42" s="357"/>
+      <c r="K42" s="361" t="s">
         <v>73</v>
       </c>
-      <c r="L42" s="349">
+      <c r="L42" s="363">
         <v>0</v>
       </c>
       <c r="M42" s="115" t="s">
@@ -12237,47 +12241,47 @@
       <c r="N42" s="294"/>
       <c r="O42" s="296"/>
       <c r="P42" s="296"/>
-      <c r="Q42" s="384"/>
+      <c r="Q42" s="340"/>
       <c r="T42" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="18"/>
-      <c r="C43" s="355"/>
-      <c r="D43" s="355"/>
-      <c r="E43" s="355"/>
-      <c r="F43" s="355"/>
-      <c r="G43" s="355"/>
-      <c r="H43" s="355"/>
-      <c r="I43" s="355"/>
-      <c r="J43" s="356"/>
-      <c r="K43" s="348"/>
-      <c r="L43" s="350"/>
+      <c r="C43" s="359"/>
+      <c r="D43" s="359"/>
+      <c r="E43" s="359"/>
+      <c r="F43" s="359"/>
+      <c r="G43" s="359"/>
+      <c r="H43" s="359"/>
+      <c r="I43" s="359"/>
+      <c r="J43" s="360"/>
+      <c r="K43" s="362"/>
+      <c r="L43" s="364"/>
       <c r="M43" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N43" s="149"/>
-      <c r="O43" s="149"/>
+      <c r="O43" s="100"/>
       <c r="P43" s="149"/>
-      <c r="Q43" s="385"/>
+      <c r="Q43" s="341"/>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="18"/>
-      <c r="C44" s="358" t="s">
+      <c r="C44" s="367" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="352"/>
-      <c r="E44" s="352"/>
-      <c r="F44" s="352"/>
-      <c r="G44" s="352"/>
-      <c r="H44" s="352"/>
-      <c r="I44" s="352"/>
-      <c r="J44" s="353"/>
-      <c r="K44" s="347" t="s">
+      <c r="D44" s="356"/>
+      <c r="E44" s="356"/>
+      <c r="F44" s="356"/>
+      <c r="G44" s="356"/>
+      <c r="H44" s="356"/>
+      <c r="I44" s="356"/>
+      <c r="J44" s="357"/>
+      <c r="K44" s="361" t="s">
         <v>93</v>
       </c>
-      <c r="L44" s="349">
+      <c r="L44" s="363">
         <v>0</v>
       </c>
       <c r="M44" s="115" t="s">
@@ -12286,44 +12290,44 @@
       <c r="N44" s="294"/>
       <c r="O44" s="296"/>
       <c r="P44" s="296"/>
-      <c r="Q44" s="384"/>
+      <c r="Q44" s="340"/>
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="18"/>
-      <c r="C45" s="355"/>
-      <c r="D45" s="355"/>
-      <c r="E45" s="355"/>
-      <c r="F45" s="355"/>
-      <c r="G45" s="355"/>
-      <c r="H45" s="355"/>
-      <c r="I45" s="355"/>
-      <c r="J45" s="356"/>
-      <c r="K45" s="366"/>
-      <c r="L45" s="350"/>
+      <c r="C45" s="359"/>
+      <c r="D45" s="359"/>
+      <c r="E45" s="359"/>
+      <c r="F45" s="359"/>
+      <c r="G45" s="359"/>
+      <c r="H45" s="359"/>
+      <c r="I45" s="359"/>
+      <c r="J45" s="360"/>
+      <c r="K45" s="378"/>
+      <c r="L45" s="364"/>
       <c r="M45" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N45" s="317"/>
-      <c r="O45" s="317"/>
+      <c r="O45" s="100"/>
       <c r="P45" s="317"/>
-      <c r="Q45" s="386"/>
+      <c r="Q45" s="342"/>
     </row>
     <row r="46" spans="2:20">
       <c r="B46" s="18"/>
-      <c r="C46" s="358" t="s">
+      <c r="C46" s="367" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="352"/>
-      <c r="E46" s="352"/>
-      <c r="F46" s="352"/>
-      <c r="G46" s="352"/>
-      <c r="H46" s="352"/>
-      <c r="I46" s="352"/>
-      <c r="J46" s="353"/>
-      <c r="K46" s="365" t="s">
+      <c r="D46" s="356"/>
+      <c r="E46" s="356"/>
+      <c r="F46" s="356"/>
+      <c r="G46" s="356"/>
+      <c r="H46" s="356"/>
+      <c r="I46" s="356"/>
+      <c r="J46" s="357"/>
+      <c r="K46" s="377" t="s">
         <v>77</v>
       </c>
-      <c r="L46" s="349">
+      <c r="L46" s="363">
         <v>0</v>
       </c>
       <c r="M46" s="115" t="s">
@@ -12332,44 +12336,44 @@
       <c r="N46" s="294"/>
       <c r="O46" s="296"/>
       <c r="P46" s="296"/>
-      <c r="Q46" s="384"/>
+      <c r="Q46" s="340"/>
     </row>
     <row r="47" spans="2:20">
       <c r="B47" s="18"/>
-      <c r="C47" s="355"/>
-      <c r="D47" s="355"/>
-      <c r="E47" s="355"/>
-      <c r="F47" s="355"/>
-      <c r="G47" s="355"/>
-      <c r="H47" s="355"/>
-      <c r="I47" s="355"/>
-      <c r="J47" s="356"/>
-      <c r="K47" s="348"/>
-      <c r="L47" s="350"/>
+      <c r="C47" s="359"/>
+      <c r="D47" s="359"/>
+      <c r="E47" s="359"/>
+      <c r="F47" s="359"/>
+      <c r="G47" s="359"/>
+      <c r="H47" s="359"/>
+      <c r="I47" s="359"/>
+      <c r="J47" s="360"/>
+      <c r="K47" s="362"/>
+      <c r="L47" s="364"/>
       <c r="M47" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N47" s="318"/>
-      <c r="O47" s="318"/>
+      <c r="O47" s="100"/>
       <c r="P47" s="318"/>
-      <c r="Q47" s="387"/>
+      <c r="Q47" s="343"/>
     </row>
     <row r="48" spans="2:20">
       <c r="B48" s="18"/>
-      <c r="C48" s="358" t="s">
+      <c r="C48" s="367" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="352"/>
-      <c r="E48" s="352"/>
-      <c r="F48" s="352"/>
-      <c r="G48" s="352"/>
-      <c r="H48" s="352"/>
-      <c r="I48" s="352"/>
-      <c r="J48" s="353"/>
-      <c r="K48" s="347" t="s">
+      <c r="D48" s="356"/>
+      <c r="E48" s="356"/>
+      <c r="F48" s="356"/>
+      <c r="G48" s="356"/>
+      <c r="H48" s="356"/>
+      <c r="I48" s="356"/>
+      <c r="J48" s="357"/>
+      <c r="K48" s="361" t="s">
         <v>79</v>
       </c>
-      <c r="L48" s="349">
+      <c r="L48" s="363">
         <v>0</v>
       </c>
       <c r="M48" s="115" t="s">
@@ -12378,27 +12382,27 @@
       <c r="N48" s="294"/>
       <c r="O48" s="296"/>
       <c r="P48" s="296"/>
-      <c r="Q48" s="384"/>
+      <c r="Q48" s="340"/>
     </row>
     <row r="49" spans="2:25">
       <c r="B49" s="18"/>
-      <c r="C49" s="355"/>
-      <c r="D49" s="355"/>
-      <c r="E49" s="355"/>
-      <c r="F49" s="355"/>
-      <c r="G49" s="355"/>
-      <c r="H49" s="355"/>
-      <c r="I49" s="355"/>
-      <c r="J49" s="356"/>
-      <c r="K49" s="348"/>
-      <c r="L49" s="350"/>
+      <c r="C49" s="359"/>
+      <c r="D49" s="359"/>
+      <c r="E49" s="359"/>
+      <c r="F49" s="359"/>
+      <c r="G49" s="359"/>
+      <c r="H49" s="359"/>
+      <c r="I49" s="359"/>
+      <c r="J49" s="360"/>
+      <c r="K49" s="362"/>
+      <c r="L49" s="364"/>
       <c r="M49" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N49" s="149"/>
-      <c r="O49" s="149"/>
+      <c r="O49" s="100"/>
       <c r="P49" s="149"/>
-      <c r="Q49" s="385"/>
+      <c r="Q49" s="341"/>
     </row>
     <row r="50" spans="2:25">
       <c r="B50" s="18"/>
@@ -12416,7 +12420,7 @@
       <c r="N50" s="296"/>
       <c r="O50" s="296"/>
       <c r="P50" s="296"/>
-      <c r="Q50" s="384"/>
+      <c r="Q50" s="340"/>
     </row>
     <row r="51" spans="2:25">
       <c r="B51" s="18"/>
@@ -12438,24 +12442,24 @@
       <c r="N51" s="316"/>
       <c r="O51" s="316"/>
       <c r="P51" s="316"/>
-      <c r="Q51" s="383"/>
+      <c r="Q51" s="339"/>
     </row>
     <row r="52" spans="2:25">
       <c r="B52" s="18"/>
-      <c r="C52" s="358" t="s">
+      <c r="C52" s="367" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="352"/>
-      <c r="E52" s="352"/>
-      <c r="F52" s="352"/>
-      <c r="G52" s="352"/>
-      <c r="H52" s="352"/>
-      <c r="I52" s="352"/>
-      <c r="J52" s="353"/>
-      <c r="K52" s="347" t="s">
+      <c r="D52" s="356"/>
+      <c r="E52" s="356"/>
+      <c r="F52" s="356"/>
+      <c r="G52" s="356"/>
+      <c r="H52" s="356"/>
+      <c r="I52" s="356"/>
+      <c r="J52" s="357"/>
+      <c r="K52" s="361" t="s">
         <v>74</v>
       </c>
-      <c r="L52" s="349">
+      <c r="L52" s="363">
         <v>0</v>
       </c>
       <c r="M52" s="115" t="s">
@@ -12464,44 +12468,44 @@
       <c r="N52" s="294"/>
       <c r="O52" s="296"/>
       <c r="P52" s="296"/>
-      <c r="Q52" s="384"/>
+      <c r="Q52" s="340"/>
     </row>
     <row r="53" spans="2:25">
       <c r="B53" s="18"/>
-      <c r="C53" s="355"/>
-      <c r="D53" s="355"/>
-      <c r="E53" s="355"/>
-      <c r="F53" s="355"/>
-      <c r="G53" s="355"/>
-      <c r="H53" s="355"/>
-      <c r="I53" s="355"/>
-      <c r="J53" s="356"/>
-      <c r="K53" s="348"/>
-      <c r="L53" s="350"/>
+      <c r="C53" s="359"/>
+      <c r="D53" s="359"/>
+      <c r="E53" s="359"/>
+      <c r="F53" s="359"/>
+      <c r="G53" s="359"/>
+      <c r="H53" s="359"/>
+      <c r="I53" s="359"/>
+      <c r="J53" s="360"/>
+      <c r="K53" s="362"/>
+      <c r="L53" s="364"/>
       <c r="M53" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N53" s="149"/>
-      <c r="O53" s="149"/>
+      <c r="O53" s="100"/>
       <c r="P53" s="149"/>
-      <c r="Q53" s="385"/>
+      <c r="Q53" s="341"/>
     </row>
     <row r="54" spans="2:25">
       <c r="B54" s="18"/>
-      <c r="C54" s="358" t="s">
+      <c r="C54" s="367" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="352"/>
-      <c r="E54" s="352"/>
-      <c r="F54" s="352"/>
-      <c r="G54" s="352"/>
-      <c r="H54" s="352"/>
-      <c r="I54" s="352"/>
-      <c r="J54" s="353"/>
-      <c r="K54" s="347" t="s">
+      <c r="D54" s="356"/>
+      <c r="E54" s="356"/>
+      <c r="F54" s="356"/>
+      <c r="G54" s="356"/>
+      <c r="H54" s="356"/>
+      <c r="I54" s="356"/>
+      <c r="J54" s="357"/>
+      <c r="K54" s="361" t="s">
         <v>78</v>
       </c>
-      <c r="L54" s="349">
+      <c r="L54" s="363">
         <v>0</v>
       </c>
       <c r="M54" s="115" t="s">
@@ -12510,44 +12514,44 @@
       <c r="N54" s="294"/>
       <c r="O54" s="296"/>
       <c r="P54" s="296"/>
-      <c r="Q54" s="384"/>
+      <c r="Q54" s="340"/>
     </row>
     <row r="55" spans="2:25">
       <c r="B55" s="18"/>
-      <c r="C55" s="355"/>
-      <c r="D55" s="355"/>
-      <c r="E55" s="355"/>
-      <c r="F55" s="355"/>
-      <c r="G55" s="355"/>
-      <c r="H55" s="355"/>
-      <c r="I55" s="355"/>
-      <c r="J55" s="356"/>
-      <c r="K55" s="348"/>
-      <c r="L55" s="350"/>
+      <c r="C55" s="359"/>
+      <c r="D55" s="359"/>
+      <c r="E55" s="359"/>
+      <c r="F55" s="359"/>
+      <c r="G55" s="359"/>
+      <c r="H55" s="359"/>
+      <c r="I55" s="359"/>
+      <c r="J55" s="360"/>
+      <c r="K55" s="362"/>
+      <c r="L55" s="364"/>
       <c r="M55" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N55" s="149"/>
-      <c r="O55" s="149"/>
+      <c r="O55" s="100"/>
       <c r="P55" s="149"/>
-      <c r="Q55" s="385"/>
+      <c r="Q55" s="341"/>
     </row>
     <row r="56" spans="2:25">
       <c r="B56" s="18"/>
-      <c r="C56" s="358" t="s">
+      <c r="C56" s="367" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="352"/>
-      <c r="E56" s="352"/>
-      <c r="F56" s="352"/>
-      <c r="G56" s="352"/>
-      <c r="H56" s="352"/>
-      <c r="I56" s="352"/>
-      <c r="J56" s="353"/>
-      <c r="K56" s="347" t="s">
+      <c r="D56" s="356"/>
+      <c r="E56" s="356"/>
+      <c r="F56" s="356"/>
+      <c r="G56" s="356"/>
+      <c r="H56" s="356"/>
+      <c r="I56" s="356"/>
+      <c r="J56" s="357"/>
+      <c r="K56" s="361" t="s">
         <v>79</v>
       </c>
-      <c r="L56" s="349">
+      <c r="L56" s="363">
         <v>0</v>
       </c>
       <c r="M56" s="115" t="s">
@@ -12556,27 +12560,27 @@
       <c r="N56" s="294"/>
       <c r="O56" s="296"/>
       <c r="P56" s="296"/>
-      <c r="Q56" s="384"/>
+      <c r="Q56" s="340"/>
     </row>
     <row r="57" spans="2:25">
       <c r="B57" s="18"/>
-      <c r="C57" s="355"/>
-      <c r="D57" s="355"/>
-      <c r="E57" s="355"/>
-      <c r="F57" s="355"/>
-      <c r="G57" s="355"/>
-      <c r="H57" s="355"/>
-      <c r="I57" s="355"/>
-      <c r="J57" s="356"/>
-      <c r="K57" s="348"/>
-      <c r="L57" s="350"/>
+      <c r="C57" s="359"/>
+      <c r="D57" s="359"/>
+      <c r="E57" s="359"/>
+      <c r="F57" s="359"/>
+      <c r="G57" s="359"/>
+      <c r="H57" s="359"/>
+      <c r="I57" s="359"/>
+      <c r="J57" s="360"/>
+      <c r="K57" s="362"/>
+      <c r="L57" s="364"/>
       <c r="M57" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N57" s="149"/>
-      <c r="O57" s="149"/>
+      <c r="O57" s="100"/>
       <c r="P57" s="149"/>
-      <c r="Q57" s="385"/>
+      <c r="Q57" s="341"/>
       <c r="R57" s="259"/>
       <c r="S57" s="259"/>
       <c r="T57" s="259"/>
@@ -12588,20 +12592,20 @@
     </row>
     <row r="58" spans="2:25" ht="15.75" customHeight="1">
       <c r="B58" s="18"/>
-      <c r="C58" s="359" t="s">
+      <c r="C58" s="371" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="360"/>
-      <c r="E58" s="360"/>
-      <c r="F58" s="360"/>
-      <c r="G58" s="360"/>
-      <c r="H58" s="360"/>
-      <c r="I58" s="360"/>
-      <c r="J58" s="361"/>
-      <c r="K58" s="347" t="s">
+      <c r="D58" s="372"/>
+      <c r="E58" s="372"/>
+      <c r="F58" s="372"/>
+      <c r="G58" s="372"/>
+      <c r="H58" s="372"/>
+      <c r="I58" s="372"/>
+      <c r="J58" s="373"/>
+      <c r="K58" s="361" t="s">
         <v>106</v>
       </c>
-      <c r="L58" s="349">
+      <c r="L58" s="363">
         <v>0</v>
       </c>
       <c r="M58" s="115" t="s">
@@ -12610,7 +12614,7 @@
       <c r="N58" s="294"/>
       <c r="O58" s="296"/>
       <c r="P58" s="296"/>
-      <c r="Q58" s="384"/>
+      <c r="Q58" s="340"/>
       <c r="R58" s="259"/>
       <c r="S58" s="259"/>
       <c r="T58" s="259"/>
@@ -12622,23 +12626,23 @@
     </row>
     <row r="59" spans="2:25">
       <c r="B59" s="18"/>
-      <c r="C59" s="362"/>
-      <c r="D59" s="363"/>
-      <c r="E59" s="363"/>
-      <c r="F59" s="363"/>
-      <c r="G59" s="363"/>
-      <c r="H59" s="363"/>
-      <c r="I59" s="363"/>
-      <c r="J59" s="364"/>
-      <c r="K59" s="348"/>
-      <c r="L59" s="350"/>
+      <c r="C59" s="374"/>
+      <c r="D59" s="375"/>
+      <c r="E59" s="375"/>
+      <c r="F59" s="375"/>
+      <c r="G59" s="375"/>
+      <c r="H59" s="375"/>
+      <c r="I59" s="375"/>
+      <c r="J59" s="376"/>
+      <c r="K59" s="362"/>
+      <c r="L59" s="364"/>
       <c r="M59" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N59" s="149"/>
       <c r="O59" s="149"/>
       <c r="P59" s="149"/>
-      <c r="Q59" s="385"/>
+      <c r="Q59" s="341"/>
       <c r="R59" s="259"/>
       <c r="S59" s="259"/>
       <c r="T59" s="259"/>
@@ -12650,20 +12654,20 @@
     </row>
     <row r="60" spans="2:25">
       <c r="B60" s="18"/>
-      <c r="C60" s="359" t="s">
+      <c r="C60" s="371" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="360"/>
-      <c r="E60" s="360"/>
-      <c r="F60" s="360"/>
-      <c r="G60" s="360"/>
-      <c r="H60" s="360"/>
-      <c r="I60" s="360"/>
-      <c r="J60" s="361"/>
-      <c r="K60" s="347" t="s">
+      <c r="D60" s="372"/>
+      <c r="E60" s="372"/>
+      <c r="F60" s="372"/>
+      <c r="G60" s="372"/>
+      <c r="H60" s="372"/>
+      <c r="I60" s="372"/>
+      <c r="J60" s="373"/>
+      <c r="K60" s="361" t="s">
         <v>107</v>
       </c>
-      <c r="L60" s="349">
+      <c r="L60" s="363">
         <v>0</v>
       </c>
       <c r="M60" s="115" t="s">
@@ -12672,7 +12676,7 @@
       <c r="N60" s="294"/>
       <c r="O60" s="296"/>
       <c r="P60" s="296"/>
-      <c r="Q60" s="384"/>
+      <c r="Q60" s="340"/>
       <c r="R60" s="259"/>
       <c r="S60" s="259"/>
       <c r="T60" s="259"/>
@@ -12684,23 +12688,23 @@
     </row>
     <row r="61" spans="2:25">
       <c r="B61" s="18"/>
-      <c r="C61" s="362"/>
-      <c r="D61" s="363"/>
-      <c r="E61" s="363"/>
-      <c r="F61" s="363"/>
-      <c r="G61" s="363"/>
-      <c r="H61" s="363"/>
-      <c r="I61" s="363"/>
-      <c r="J61" s="364"/>
-      <c r="K61" s="348"/>
-      <c r="L61" s="350"/>
+      <c r="C61" s="374"/>
+      <c r="D61" s="375"/>
+      <c r="E61" s="375"/>
+      <c r="F61" s="375"/>
+      <c r="G61" s="375"/>
+      <c r="H61" s="375"/>
+      <c r="I61" s="375"/>
+      <c r="J61" s="376"/>
+      <c r="K61" s="362"/>
+      <c r="L61" s="364"/>
       <c r="M61" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N61" s="149"/>
       <c r="O61" s="149"/>
       <c r="P61" s="149"/>
-      <c r="Q61" s="385"/>
+      <c r="Q61" s="341"/>
       <c r="R61" s="259"/>
       <c r="S61" s="259"/>
       <c r="T61" s="259" t="s">
@@ -12714,20 +12718,20 @@
     </row>
     <row r="62" spans="2:25">
       <c r="B62" s="18"/>
-      <c r="C62" s="358" t="s">
+      <c r="C62" s="367" t="s">
         <v>98</v>
       </c>
-      <c r="D62" s="352"/>
-      <c r="E62" s="352"/>
-      <c r="F62" s="352"/>
-      <c r="G62" s="352"/>
-      <c r="H62" s="352"/>
-      <c r="I62" s="352"/>
-      <c r="J62" s="353"/>
-      <c r="K62" s="347" t="s">
+      <c r="D62" s="356"/>
+      <c r="E62" s="356"/>
+      <c r="F62" s="356"/>
+      <c r="G62" s="356"/>
+      <c r="H62" s="356"/>
+      <c r="I62" s="356"/>
+      <c r="J62" s="357"/>
+      <c r="K62" s="361" t="s">
         <v>74</v>
       </c>
-      <c r="L62" s="349">
+      <c r="L62" s="363">
         <v>0</v>
       </c>
       <c r="M62" s="115" t="s">
@@ -12736,7 +12740,7 @@
       <c r="N62" s="294"/>
       <c r="O62" s="296"/>
       <c r="P62" s="296"/>
-      <c r="Q62" s="384"/>
+      <c r="Q62" s="340"/>
       <c r="R62" s="259"/>
       <c r="S62" s="259"/>
       <c r="T62" s="259" t="s">
@@ -12750,23 +12754,23 @@
     </row>
     <row r="63" spans="2:25">
       <c r="B63" s="18"/>
-      <c r="C63" s="355"/>
-      <c r="D63" s="355"/>
-      <c r="E63" s="355"/>
-      <c r="F63" s="355"/>
-      <c r="G63" s="355"/>
-      <c r="H63" s="355"/>
-      <c r="I63" s="355"/>
-      <c r="J63" s="356"/>
-      <c r="K63" s="348"/>
-      <c r="L63" s="350"/>
+      <c r="C63" s="359"/>
+      <c r="D63" s="359"/>
+      <c r="E63" s="359"/>
+      <c r="F63" s="359"/>
+      <c r="G63" s="359"/>
+      <c r="H63" s="359"/>
+      <c r="I63" s="359"/>
+      <c r="J63" s="360"/>
+      <c r="K63" s="362"/>
+      <c r="L63" s="364"/>
       <c r="M63" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N63" s="149"/>
       <c r="O63" s="149"/>
       <c r="P63" s="149"/>
-      <c r="Q63" s="385"/>
+      <c r="Q63" s="341"/>
       <c r="R63" s="259"/>
       <c r="S63" s="259"/>
       <c r="T63" s="259" t="s">
@@ -12780,20 +12784,20 @@
     </row>
     <row r="64" spans="2:25">
       <c r="B64" s="18"/>
-      <c r="C64" s="358" t="s">
+      <c r="C64" s="367" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="352"/>
-      <c r="E64" s="352"/>
-      <c r="F64" s="352"/>
-      <c r="G64" s="352"/>
-      <c r="H64" s="352"/>
-      <c r="I64" s="352"/>
-      <c r="J64" s="353"/>
-      <c r="K64" s="347" t="s">
+      <c r="D64" s="356"/>
+      <c r="E64" s="356"/>
+      <c r="F64" s="356"/>
+      <c r="G64" s="356"/>
+      <c r="H64" s="356"/>
+      <c r="I64" s="356"/>
+      <c r="J64" s="357"/>
+      <c r="K64" s="361" t="s">
         <v>77</v>
       </c>
-      <c r="L64" s="349">
+      <c r="L64" s="363">
         <v>0</v>
       </c>
       <c r="M64" s="115" t="s">
@@ -12802,7 +12806,7 @@
       <c r="N64" s="294"/>
       <c r="O64" s="296"/>
       <c r="P64" s="296"/>
-      <c r="Q64" s="384"/>
+      <c r="Q64" s="340"/>
       <c r="R64" s="259"/>
       <c r="S64" s="259"/>
       <c r="T64" s="2" t="s">
@@ -12816,23 +12820,23 @@
     </row>
     <row r="65" spans="2:35">
       <c r="B65" s="18"/>
-      <c r="C65" s="355"/>
-      <c r="D65" s="355"/>
-      <c r="E65" s="355"/>
-      <c r="F65" s="355"/>
-      <c r="G65" s="355"/>
-      <c r="H65" s="355"/>
-      <c r="I65" s="355"/>
-      <c r="J65" s="356"/>
-      <c r="K65" s="366"/>
-      <c r="L65" s="350"/>
+      <c r="C65" s="359"/>
+      <c r="D65" s="359"/>
+      <c r="E65" s="359"/>
+      <c r="F65" s="359"/>
+      <c r="G65" s="359"/>
+      <c r="H65" s="359"/>
+      <c r="I65" s="359"/>
+      <c r="J65" s="360"/>
+      <c r="K65" s="378"/>
+      <c r="L65" s="364"/>
       <c r="M65" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N65" s="149"/>
       <c r="O65" s="149"/>
       <c r="P65" s="149"/>
-      <c r="Q65" s="385"/>
+      <c r="Q65" s="341"/>
       <c r="R65" s="259"/>
       <c r="S65" s="259"/>
       <c r="T65" s="259"/>
@@ -12844,20 +12848,20 @@
     </row>
     <row r="66" spans="2:35">
       <c r="B66" s="18"/>
-      <c r="C66" s="358" t="s">
+      <c r="C66" s="367" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="352"/>
-      <c r="E66" s="352"/>
-      <c r="F66" s="352"/>
-      <c r="G66" s="352"/>
-      <c r="H66" s="352"/>
-      <c r="I66" s="352"/>
-      <c r="J66" s="353"/>
-      <c r="K66" s="365" t="s">
+      <c r="D66" s="356"/>
+      <c r="E66" s="356"/>
+      <c r="F66" s="356"/>
+      <c r="G66" s="356"/>
+      <c r="H66" s="356"/>
+      <c r="I66" s="356"/>
+      <c r="J66" s="357"/>
+      <c r="K66" s="377" t="s">
         <v>77</v>
       </c>
-      <c r="L66" s="349">
+      <c r="L66" s="363">
         <v>0</v>
       </c>
       <c r="M66" s="115" t="s">
@@ -12866,7 +12870,7 @@
       <c r="N66" s="294"/>
       <c r="O66" s="296"/>
       <c r="P66" s="296"/>
-      <c r="Q66" s="384"/>
+      <c r="Q66" s="340"/>
       <c r="R66" s="259"/>
       <c r="S66" s="259"/>
       <c r="T66" s="259"/>
@@ -12878,23 +12882,23 @@
     </row>
     <row r="67" spans="2:35">
       <c r="B67" s="18"/>
-      <c r="C67" s="355"/>
-      <c r="D67" s="355"/>
-      <c r="E67" s="355"/>
-      <c r="F67" s="355"/>
-      <c r="G67" s="355"/>
-      <c r="H67" s="355"/>
-      <c r="I67" s="355"/>
-      <c r="J67" s="356"/>
-      <c r="K67" s="348"/>
-      <c r="L67" s="350"/>
+      <c r="C67" s="359"/>
+      <c r="D67" s="359"/>
+      <c r="E67" s="359"/>
+      <c r="F67" s="359"/>
+      <c r="G67" s="359"/>
+      <c r="H67" s="359"/>
+      <c r="I67" s="359"/>
+      <c r="J67" s="360"/>
+      <c r="K67" s="362"/>
+      <c r="L67" s="364"/>
       <c r="M67" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N67" s="317"/>
-      <c r="O67" s="317"/>
+      <c r="O67" s="100"/>
       <c r="P67" s="317"/>
-      <c r="Q67" s="386"/>
+      <c r="Q67" s="342"/>
       <c r="R67" s="259"/>
       <c r="S67" s="259"/>
       <c r="T67" s="259"/>
@@ -12906,20 +12910,20 @@
     </row>
     <row r="68" spans="2:35">
       <c r="B68" s="18"/>
-      <c r="C68" s="358" t="s">
+      <c r="C68" s="367" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="352"/>
-      <c r="E68" s="352"/>
-      <c r="F68" s="352"/>
-      <c r="G68" s="352"/>
-      <c r="H68" s="352"/>
-      <c r="I68" s="352"/>
-      <c r="J68" s="353"/>
-      <c r="K68" s="347" t="s">
+      <c r="D68" s="356"/>
+      <c r="E68" s="356"/>
+      <c r="F68" s="356"/>
+      <c r="G68" s="356"/>
+      <c r="H68" s="356"/>
+      <c r="I68" s="356"/>
+      <c r="J68" s="357"/>
+      <c r="K68" s="361" t="s">
         <v>73</v>
       </c>
-      <c r="L68" s="349">
+      <c r="L68" s="363">
         <v>0</v>
       </c>
       <c r="M68" s="115" t="s">
@@ -12928,7 +12932,7 @@
       <c r="N68" s="294"/>
       <c r="O68" s="296"/>
       <c r="P68" s="296"/>
-      <c r="Q68" s="384"/>
+      <c r="Q68" s="340"/>
       <c r="R68" s="259"/>
       <c r="S68" s="259"/>
       <c r="T68" s="259"/>
@@ -12940,23 +12944,23 @@
     </row>
     <row r="69" spans="2:35">
       <c r="B69" s="18"/>
-      <c r="C69" s="355"/>
-      <c r="D69" s="355"/>
-      <c r="E69" s="355"/>
-      <c r="F69" s="355"/>
-      <c r="G69" s="355"/>
-      <c r="H69" s="355"/>
-      <c r="I69" s="355"/>
-      <c r="J69" s="356"/>
-      <c r="K69" s="348"/>
-      <c r="L69" s="350"/>
+      <c r="C69" s="359"/>
+      <c r="D69" s="359"/>
+      <c r="E69" s="359"/>
+      <c r="F69" s="359"/>
+      <c r="G69" s="359"/>
+      <c r="H69" s="359"/>
+      <c r="I69" s="359"/>
+      <c r="J69" s="360"/>
+      <c r="K69" s="362"/>
+      <c r="L69" s="364"/>
       <c r="M69" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N69" s="318"/>
       <c r="O69" s="318"/>
       <c r="P69" s="318"/>
-      <c r="Q69" s="387"/>
+      <c r="Q69" s="343"/>
       <c r="R69" s="259"/>
       <c r="S69" s="259"/>
       <c r="T69" s="259"/>
@@ -12968,20 +12972,20 @@
     </row>
     <row r="70" spans="2:35">
       <c r="B70" s="18"/>
-      <c r="C70" s="358" t="s">
+      <c r="C70" s="367" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="352"/>
-      <c r="E70" s="352"/>
-      <c r="F70" s="352"/>
-      <c r="G70" s="352"/>
-      <c r="H70" s="352"/>
-      <c r="I70" s="352"/>
-      <c r="J70" s="353"/>
-      <c r="K70" s="347" t="s">
+      <c r="D70" s="356"/>
+      <c r="E70" s="356"/>
+      <c r="F70" s="356"/>
+      <c r="G70" s="356"/>
+      <c r="H70" s="356"/>
+      <c r="I70" s="356"/>
+      <c r="J70" s="357"/>
+      <c r="K70" s="361" t="s">
         <v>73</v>
       </c>
-      <c r="L70" s="349">
+      <c r="L70" s="363">
         <v>0</v>
       </c>
       <c r="M70" s="115" t="s">
@@ -12990,7 +12994,7 @@
       <c r="N70" s="294"/>
       <c r="O70" s="296"/>
       <c r="P70" s="296"/>
-      <c r="Q70" s="384"/>
+      <c r="Q70" s="340"/>
       <c r="R70" s="259"/>
       <c r="S70" s="259"/>
       <c r="T70" s="259"/>
@@ -13002,23 +13006,23 @@
     </row>
     <row r="71" spans="2:35">
       <c r="B71" s="18"/>
-      <c r="C71" s="355"/>
-      <c r="D71" s="355"/>
-      <c r="E71" s="355"/>
-      <c r="F71" s="355"/>
-      <c r="G71" s="355"/>
-      <c r="H71" s="355"/>
-      <c r="I71" s="355"/>
-      <c r="J71" s="356"/>
-      <c r="K71" s="348"/>
-      <c r="L71" s="350"/>
+      <c r="C71" s="359"/>
+      <c r="D71" s="359"/>
+      <c r="E71" s="359"/>
+      <c r="F71" s="359"/>
+      <c r="G71" s="359"/>
+      <c r="H71" s="359"/>
+      <c r="I71" s="359"/>
+      <c r="J71" s="360"/>
+      <c r="K71" s="362"/>
+      <c r="L71" s="364"/>
       <c r="M71" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N71" s="190"/>
-      <c r="O71" s="149"/>
+      <c r="O71" s="100"/>
       <c r="P71" s="149"/>
-      <c r="Q71" s="385"/>
+      <c r="Q71" s="341"/>
       <c r="R71" s="259"/>
       <c r="S71" s="259"/>
       <c r="T71" s="259"/>
@@ -13044,7 +13048,7 @@
       <c r="N72" s="191"/>
       <c r="O72" s="317"/>
       <c r="P72" s="317"/>
-      <c r="Q72" s="386"/>
+      <c r="Q72" s="342"/>
       <c r="R72" s="259"/>
       <c r="S72" s="259"/>
       <c r="T72" s="259"/>
@@ -13104,52 +13108,6 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="C36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="C38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="C48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="C46:J47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="C60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="C54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="C70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="C66:J67"/>
-    <mergeCell ref="C68:J69"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="K68:K69"/>
     <mergeCell ref="L8:AC8"/>
     <mergeCell ref="L7:AC7"/>
     <mergeCell ref="C52:J53"/>
@@ -13166,6 +13124,52 @@
     <mergeCell ref="L56:L57"/>
     <mergeCell ref="C58:J59"/>
     <mergeCell ref="K58:K59"/>
+    <mergeCell ref="C70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="C66:J67"/>
+    <mergeCell ref="C68:J69"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="C54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="C42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="C46:J47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="C38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="C36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -13211,26 +13215,26 @@
       <c r="I9" s="180"/>
       <c r="J9" s="180"/>
       <c r="K9" s="180"/>
-      <c r="L9" s="336">
+      <c r="L9" s="344">
         <v>2020</v>
       </c>
-      <c r="M9" s="336"/>
-      <c r="N9" s="336"/>
-      <c r="O9" s="336"/>
-      <c r="P9" s="336"/>
-      <c r="Q9" s="336"/>
-      <c r="R9" s="336"/>
-      <c r="S9" s="336"/>
-      <c r="T9" s="336"/>
-      <c r="U9" s="336"/>
-      <c r="V9" s="336"/>
-      <c r="W9" s="336"/>
-      <c r="X9" s="336"/>
-      <c r="Y9" s="336"/>
-      <c r="Z9" s="336"/>
-      <c r="AA9" s="336"/>
-      <c r="AB9" s="336"/>
-      <c r="AC9" s="336"/>
+      <c r="M9" s="344"/>
+      <c r="N9" s="344"/>
+      <c r="O9" s="344"/>
+      <c r="P9" s="344"/>
+      <c r="Q9" s="344"/>
+      <c r="R9" s="344"/>
+      <c r="S9" s="344"/>
+      <c r="T9" s="344"/>
+      <c r="U9" s="344"/>
+      <c r="V9" s="344"/>
+      <c r="W9" s="344"/>
+      <c r="X9" s="344"/>
+      <c r="Y9" s="344"/>
+      <c r="Z9" s="344"/>
+      <c r="AA9" s="344"/>
+      <c r="AB9" s="344"/>
+      <c r="AC9" s="344"/>
     </row>
     <row r="10" spans="3:29">
       <c r="C10" s="181"/>
@@ -13242,26 +13246,26 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="336">
+      <c r="L10" s="344">
         <v>6</v>
       </c>
-      <c r="M10" s="336"/>
-      <c r="N10" s="336"/>
-      <c r="O10" s="336"/>
-      <c r="P10" s="336"/>
-      <c r="Q10" s="336"/>
-      <c r="R10" s="336"/>
-      <c r="S10" s="336"/>
-      <c r="T10" s="336"/>
-      <c r="U10" s="336"/>
-      <c r="V10" s="336"/>
-      <c r="W10" s="336"/>
-      <c r="X10" s="336"/>
-      <c r="Y10" s="336"/>
-      <c r="Z10" s="336"/>
-      <c r="AA10" s="336"/>
-      <c r="AB10" s="336"/>
-      <c r="AC10" s="336"/>
+      <c r="M10" s="344"/>
+      <c r="N10" s="344"/>
+      <c r="O10" s="344"/>
+      <c r="P10" s="344"/>
+      <c r="Q10" s="344"/>
+      <c r="R10" s="344"/>
+      <c r="S10" s="344"/>
+      <c r="T10" s="344"/>
+      <c r="U10" s="344"/>
+      <c r="V10" s="344"/>
+      <c r="W10" s="344"/>
+      <c r="X10" s="344"/>
+      <c r="Y10" s="344"/>
+      <c r="Z10" s="344"/>
+      <c r="AA10" s="344"/>
+      <c r="AB10" s="344"/>
+      <c r="AC10" s="344"/>
     </row>
     <row r="11" spans="3:29">
       <c r="C11" s="9"/>
@@ -13774,20 +13778,20 @@
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="18"/>
-      <c r="C30" s="378" t="s">
+      <c r="C30" s="386" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="373"/>
-      <c r="E30" s="373"/>
-      <c r="F30" s="373"/>
-      <c r="G30" s="373"/>
-      <c r="H30" s="373"/>
-      <c r="I30" s="373"/>
-      <c r="J30" s="374"/>
-      <c r="K30" s="347" t="s">
+      <c r="D30" s="381"/>
+      <c r="E30" s="381"/>
+      <c r="F30" s="381"/>
+      <c r="G30" s="381"/>
+      <c r="H30" s="381"/>
+      <c r="I30" s="381"/>
+      <c r="J30" s="382"/>
+      <c r="K30" s="361" t="s">
         <v>52</v>
       </c>
-      <c r="L30" s="357">
+      <c r="L30" s="368">
         <v>0</v>
       </c>
       <c r="M30" s="115" t="s">
@@ -13805,16 +13809,16 @@
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="18"/>
-      <c r="C31" s="375"/>
-      <c r="D31" s="376"/>
-      <c r="E31" s="376"/>
-      <c r="F31" s="376"/>
-      <c r="G31" s="376"/>
-      <c r="H31" s="376"/>
-      <c r="I31" s="376"/>
-      <c r="J31" s="377"/>
-      <c r="K31" s="348"/>
-      <c r="L31" s="348"/>
+      <c r="C31" s="383"/>
+      <c r="D31" s="384"/>
+      <c r="E31" s="384"/>
+      <c r="F31" s="384"/>
+      <c r="G31" s="384"/>
+      <c r="H31" s="384"/>
+      <c r="I31" s="384"/>
+      <c r="J31" s="385"/>
+      <c r="K31" s="362"/>
+      <c r="L31" s="362"/>
       <c r="M31" s="117" t="s">
         <v>27</v>
       </c>
@@ -13851,20 +13855,20 @@
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="18"/>
-      <c r="C33" s="378" t="s">
+      <c r="C33" s="386" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="373"/>
-      <c r="E33" s="373"/>
-      <c r="F33" s="373"/>
-      <c r="G33" s="373"/>
-      <c r="H33" s="373"/>
-      <c r="I33" s="373"/>
-      <c r="J33" s="374"/>
-      <c r="K33" s="347" t="s">
+      <c r="D33" s="381"/>
+      <c r="E33" s="381"/>
+      <c r="F33" s="381"/>
+      <c r="G33" s="381"/>
+      <c r="H33" s="381"/>
+      <c r="I33" s="381"/>
+      <c r="J33" s="382"/>
+      <c r="K33" s="361" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="357">
+      <c r="L33" s="368">
         <v>0</v>
       </c>
       <c r="M33" s="115" t="s">
@@ -13882,16 +13886,16 @@
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="18"/>
-      <c r="C34" s="375"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="376"/>
-      <c r="F34" s="376"/>
-      <c r="G34" s="376"/>
-      <c r="H34" s="376"/>
-      <c r="I34" s="376"/>
-      <c r="J34" s="377"/>
-      <c r="K34" s="348"/>
-      <c r="L34" s="348"/>
+      <c r="C34" s="383"/>
+      <c r="D34" s="384"/>
+      <c r="E34" s="384"/>
+      <c r="F34" s="384"/>
+      <c r="G34" s="384"/>
+      <c r="H34" s="384"/>
+      <c r="I34" s="384"/>
+      <c r="J34" s="385"/>
+      <c r="K34" s="362"/>
+      <c r="L34" s="362"/>
       <c r="M34" s="117" t="s">
         <v>27</v>
       </c>
@@ -13904,20 +13908,20 @@
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="18"/>
-      <c r="C35" s="372" t="s">
+      <c r="C35" s="380" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
-      <c r="F35" s="373"/>
-      <c r="G35" s="373"/>
-      <c r="H35" s="373"/>
-      <c r="I35" s="373"/>
-      <c r="J35" s="374"/>
-      <c r="K35" s="347" t="s">
+      <c r="D35" s="381"/>
+      <c r="E35" s="381"/>
+      <c r="F35" s="381"/>
+      <c r="G35" s="381"/>
+      <c r="H35" s="381"/>
+      <c r="I35" s="381"/>
+      <c r="J35" s="382"/>
+      <c r="K35" s="361" t="s">
         <v>52</v>
       </c>
-      <c r="L35" s="357">
+      <c r="L35" s="368">
         <v>0</v>
       </c>
       <c r="M35" s="115" t="s">
@@ -13935,16 +13939,16 @@
     </row>
     <row r="36" spans="2:20">
       <c r="B36" s="18"/>
-      <c r="C36" s="375"/>
-      <c r="D36" s="376"/>
-      <c r="E36" s="376"/>
-      <c r="F36" s="376"/>
-      <c r="G36" s="376"/>
-      <c r="H36" s="376"/>
-      <c r="I36" s="376"/>
-      <c r="J36" s="377"/>
-      <c r="K36" s="348"/>
-      <c r="L36" s="348"/>
+      <c r="C36" s="383"/>
+      <c r="D36" s="384"/>
+      <c r="E36" s="384"/>
+      <c r="F36" s="384"/>
+      <c r="G36" s="384"/>
+      <c r="H36" s="384"/>
+      <c r="I36" s="384"/>
+      <c r="J36" s="385"/>
+      <c r="K36" s="362"/>
+      <c r="L36" s="362"/>
       <c r="M36" s="117" t="s">
         <v>27</v>
       </c>
@@ -14038,26 +14042,26 @@
       <c r="I8" s="180"/>
       <c r="J8" s="180"/>
       <c r="K8" s="180"/>
-      <c r="L8" s="336">
+      <c r="L8" s="344">
         <v>2020</v>
       </c>
-      <c r="M8" s="336"/>
-      <c r="N8" s="336"/>
-      <c r="O8" s="336"/>
-      <c r="P8" s="336"/>
-      <c r="Q8" s="336"/>
-      <c r="R8" s="336"/>
-      <c r="S8" s="336"/>
-      <c r="T8" s="336"/>
-      <c r="U8" s="336"/>
-      <c r="V8" s="336"/>
-      <c r="W8" s="336"/>
-      <c r="X8" s="336"/>
-      <c r="Y8" s="336"/>
-      <c r="Z8" s="336"/>
-      <c r="AA8" s="336"/>
-      <c r="AB8" s="336"/>
-      <c r="AC8" s="336"/>
+      <c r="M8" s="344"/>
+      <c r="N8" s="344"/>
+      <c r="O8" s="344"/>
+      <c r="P8" s="344"/>
+      <c r="Q8" s="344"/>
+      <c r="R8" s="344"/>
+      <c r="S8" s="344"/>
+      <c r="T8" s="344"/>
+      <c r="U8" s="344"/>
+      <c r="V8" s="344"/>
+      <c r="W8" s="344"/>
+      <c r="X8" s="344"/>
+      <c r="Y8" s="344"/>
+      <c r="Z8" s="344"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="344"/>
+      <c r="AC8" s="344"/>
     </row>
     <row r="9" spans="3:29">
       <c r="C9" s="181"/>
@@ -14069,26 +14073,26 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="336">
+      <c r="L9" s="344">
         <v>6</v>
       </c>
-      <c r="M9" s="336"/>
-      <c r="N9" s="336"/>
-      <c r="O9" s="336"/>
-      <c r="P9" s="336"/>
-      <c r="Q9" s="336"/>
-      <c r="R9" s="336"/>
-      <c r="S9" s="336"/>
-      <c r="T9" s="336"/>
-      <c r="U9" s="336"/>
-      <c r="V9" s="336"/>
-      <c r="W9" s="336"/>
-      <c r="X9" s="336"/>
-      <c r="Y9" s="336"/>
-      <c r="Z9" s="336"/>
-      <c r="AA9" s="336"/>
-      <c r="AB9" s="336"/>
-      <c r="AC9" s="336"/>
+      <c r="M9" s="344"/>
+      <c r="N9" s="344"/>
+      <c r="O9" s="344"/>
+      <c r="P9" s="344"/>
+      <c r="Q9" s="344"/>
+      <c r="R9" s="344"/>
+      <c r="S9" s="344"/>
+      <c r="T9" s="344"/>
+      <c r="U9" s="344"/>
+      <c r="V9" s="344"/>
+      <c r="W9" s="344"/>
+      <c r="X9" s="344"/>
+      <c r="Y9" s="344"/>
+      <c r="Z9" s="344"/>
+      <c r="AA9" s="344"/>
+      <c r="AB9" s="344"/>
+      <c r="AC9" s="344"/>
     </row>
     <row r="10" spans="3:29">
       <c r="C10" s="9"/>
@@ -14609,20 +14613,20 @@
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="18"/>
-      <c r="C29" s="379" t="s">
+      <c r="C29" s="387" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="352"/>
-      <c r="E29" s="352"/>
-      <c r="F29" s="352"/>
-      <c r="G29" s="352"/>
-      <c r="H29" s="352"/>
-      <c r="I29" s="352"/>
-      <c r="J29" s="353"/>
-      <c r="K29" s="347" t="s">
+      <c r="D29" s="356"/>
+      <c r="E29" s="356"/>
+      <c r="F29" s="356"/>
+      <c r="G29" s="356"/>
+      <c r="H29" s="356"/>
+      <c r="I29" s="356"/>
+      <c r="J29" s="357"/>
+      <c r="K29" s="361" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="357">
+      <c r="L29" s="368">
         <v>0</v>
       </c>
       <c r="M29" s="115" t="s">
@@ -14648,16 +14652,16 @@
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="18"/>
-      <c r="C30" s="354"/>
-      <c r="D30" s="355"/>
-      <c r="E30" s="355"/>
-      <c r="F30" s="355"/>
-      <c r="G30" s="355"/>
-      <c r="H30" s="355"/>
-      <c r="I30" s="355"/>
-      <c r="J30" s="356"/>
-      <c r="K30" s="348"/>
-      <c r="L30" s="348"/>
+      <c r="C30" s="358"/>
+      <c r="D30" s="359"/>
+      <c r="E30" s="359"/>
+      <c r="F30" s="359"/>
+      <c r="G30" s="359"/>
+      <c r="H30" s="359"/>
+      <c r="I30" s="359"/>
+      <c r="J30" s="360"/>
+      <c r="K30" s="362"/>
+      <c r="L30" s="362"/>
       <c r="M30" s="117" t="s">
         <v>27</v>
       </c>
@@ -14679,20 +14683,20 @@
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="18"/>
-      <c r="C31" s="351" t="s">
+      <c r="C31" s="355" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="352"/>
-      <c r="E31" s="352"/>
-      <c r="F31" s="352"/>
-      <c r="G31" s="352"/>
-      <c r="H31" s="352"/>
-      <c r="I31" s="352"/>
-      <c r="J31" s="353"/>
-      <c r="K31" s="347" t="s">
+      <c r="D31" s="356"/>
+      <c r="E31" s="356"/>
+      <c r="F31" s="356"/>
+      <c r="G31" s="356"/>
+      <c r="H31" s="356"/>
+      <c r="I31" s="356"/>
+      <c r="J31" s="357"/>
+      <c r="K31" s="361" t="s">
         <v>52</v>
       </c>
-      <c r="L31" s="357">
+      <c r="L31" s="368">
         <v>0</v>
       </c>
       <c r="M31" s="115" t="s">
@@ -14718,16 +14722,16 @@
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="18"/>
-      <c r="C32" s="354"/>
-      <c r="D32" s="355"/>
-      <c r="E32" s="355"/>
-      <c r="F32" s="355"/>
-      <c r="G32" s="355"/>
-      <c r="H32" s="355"/>
-      <c r="I32" s="355"/>
-      <c r="J32" s="356"/>
-      <c r="K32" s="348"/>
-      <c r="L32" s="348"/>
+      <c r="C32" s="358"/>
+      <c r="D32" s="359"/>
+      <c r="E32" s="359"/>
+      <c r="F32" s="359"/>
+      <c r="G32" s="359"/>
+      <c r="H32" s="359"/>
+      <c r="I32" s="359"/>
+      <c r="J32" s="360"/>
+      <c r="K32" s="362"/>
+      <c r="L32" s="362"/>
       <c r="M32" s="117" t="s">
         <v>27</v>
       </c>
@@ -14749,20 +14753,20 @@
     </row>
     <row r="33" spans="2:28">
       <c r="B33" s="18"/>
-      <c r="C33" s="351" t="s">
+      <c r="C33" s="355" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="352"/>
-      <c r="E33" s="352"/>
-      <c r="F33" s="352"/>
-      <c r="G33" s="352"/>
-      <c r="H33" s="352"/>
-      <c r="I33" s="352"/>
-      <c r="J33" s="353"/>
-      <c r="K33" s="347" t="s">
+      <c r="D33" s="356"/>
+      <c r="E33" s="356"/>
+      <c r="F33" s="356"/>
+      <c r="G33" s="356"/>
+      <c r="H33" s="356"/>
+      <c r="I33" s="356"/>
+      <c r="J33" s="357"/>
+      <c r="K33" s="361" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="357">
+      <c r="L33" s="368">
         <v>0</v>
       </c>
       <c r="M33" s="115" t="s">
@@ -14788,16 +14792,16 @@
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="18"/>
-      <c r="C34" s="354"/>
-      <c r="D34" s="355"/>
-      <c r="E34" s="355"/>
-      <c r="F34" s="355"/>
-      <c r="G34" s="355"/>
-      <c r="H34" s="355"/>
-      <c r="I34" s="355"/>
-      <c r="J34" s="356"/>
-      <c r="K34" s="348"/>
-      <c r="L34" s="348"/>
+      <c r="C34" s="358"/>
+      <c r="D34" s="359"/>
+      <c r="E34" s="359"/>
+      <c r="F34" s="359"/>
+      <c r="G34" s="359"/>
+      <c r="H34" s="359"/>
+      <c r="I34" s="359"/>
+      <c r="J34" s="360"/>
+      <c r="K34" s="362"/>
+      <c r="L34" s="362"/>
       <c r="M34" s="117" t="s">
         <v>27</v>
       </c>

--- a/Dグループ_スケジュール.xlsx
+++ b/Dグループ_スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\グループ開発　クローン\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8F7F7F-E360-4E5B-ACA8-CA0FBFDE94A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A676CBCC-8E6D-4BA0-A83A-581FF9D90AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="120">
   <si>
     <t>【グループ開発（マイルストーン）】</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -347,10 +347,6 @@
     <rPh sb="8" eb="10">
       <t>ヘンシュウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>8.ブラックジャック</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -948,7 +944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="108">
+  <borders count="109">
     <border>
       <left/>
       <right/>
@@ -2321,6 +2317,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2328,7 +2339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="388">
+  <cellXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -3219,9 +3230,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3327,9 +3335,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3357,9 +3362,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="108" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -3378,18 +3410,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3420,47 +3440,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="74" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="74" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="75" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3537,7 +3557,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s3131"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s3135"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4127,7 +4147,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s6200"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s6204"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4583,7 +4603,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s7222"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s7227"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4917,7 +4937,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s8245"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s8249"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5515,9 +5535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C3AED9-FED9-43A3-BF4F-D0851E0C8988}">
   <dimension ref="B2:AB15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="15.75"/>
   <cols>
@@ -5542,26 +5560,26 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="344">
+      <c r="K4" s="347">
         <v>2020</v>
       </c>
-      <c r="L4" s="344"/>
-      <c r="M4" s="344"/>
-      <c r="N4" s="344"/>
-      <c r="O4" s="344"/>
-      <c r="P4" s="344"/>
-      <c r="Q4" s="344"/>
-      <c r="R4" s="344"/>
-      <c r="S4" s="344"/>
-      <c r="T4" s="344"/>
-      <c r="U4" s="344"/>
-      <c r="V4" s="344"/>
-      <c r="W4" s="344"/>
-      <c r="X4" s="344"/>
-      <c r="Y4" s="344"/>
-      <c r="Z4" s="344"/>
-      <c r="AA4" s="344"/>
-      <c r="AB4" s="344"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
+      <c r="O4" s="347"/>
+      <c r="P4" s="347"/>
+      <c r="Q4" s="347"/>
+      <c r="R4" s="347"/>
+      <c r="S4" s="347"/>
+      <c r="T4" s="347"/>
+      <c r="U4" s="347"/>
+      <c r="V4" s="347"/>
+      <c r="W4" s="347"/>
+      <c r="X4" s="347"/>
+      <c r="Y4" s="347"/>
+      <c r="Z4" s="347"/>
+      <c r="AA4" s="347"/>
+      <c r="AB4" s="347"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="6"/>
@@ -5573,26 +5591,26 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="344">
+      <c r="K5" s="347">
         <v>6</v>
       </c>
-      <c r="L5" s="344"/>
-      <c r="M5" s="344"/>
-      <c r="N5" s="344"/>
-      <c r="O5" s="344"/>
-      <c r="P5" s="344"/>
-      <c r="Q5" s="344"/>
-      <c r="R5" s="344"/>
-      <c r="S5" s="344"/>
-      <c r="T5" s="344"/>
-      <c r="U5" s="344"/>
-      <c r="V5" s="344"/>
-      <c r="W5" s="344"/>
-      <c r="X5" s="344"/>
-      <c r="Y5" s="344"/>
-      <c r="Z5" s="344"/>
-      <c r="AA5" s="344"/>
-      <c r="AB5" s="344"/>
+      <c r="L5" s="347"/>
+      <c r="M5" s="347"/>
+      <c r="N5" s="347"/>
+      <c r="O5" s="347"/>
+      <c r="P5" s="347"/>
+      <c r="Q5" s="347"/>
+      <c r="R5" s="347"/>
+      <c r="S5" s="347"/>
+      <c r="T5" s="347"/>
+      <c r="U5" s="347"/>
+      <c r="V5" s="347"/>
+      <c r="W5" s="347"/>
+      <c r="X5" s="347"/>
+      <c r="Y5" s="347"/>
+      <c r="Z5" s="347"/>
+      <c r="AA5" s="347"/>
+      <c r="AB5" s="347"/>
     </row>
     <row r="6" spans="2:28">
       <c r="B6" s="9"/>
@@ -5706,7 +5724,7 @@
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="319"/>
+      <c r="K8" s="318"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="24"/>
@@ -5739,10 +5757,10 @@
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="319"/>
+      <c r="K9" s="318"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="319"/>
+      <c r="N9" s="318"/>
       <c r="O9" s="16"/>
       <c r="P9" s="24"/>
       <c r="Q9" s="16"/>
@@ -5775,7 +5793,7 @@
       <c r="K10" s="16"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="319"/>
+      <c r="N10" s="318"/>
       <c r="O10" s="16"/>
       <c r="P10" s="24"/>
       <c r="Q10" s="16"/>
@@ -5809,7 +5827,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="24"/>
-      <c r="O11" s="319"/>
+      <c r="O11" s="318"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
@@ -5843,12 +5861,12 @@
       <c r="M12" s="17"/>
       <c r="N12" s="24"/>
       <c r="O12" s="16"/>
-      <c r="P12" s="319"/>
-      <c r="Q12" s="319"/>
-      <c r="R12" s="319"/>
+      <c r="P12" s="318"/>
+      <c r="Q12" s="318"/>
+      <c r="R12" s="318"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
-      <c r="U12" s="319"/>
+      <c r="U12" s="318"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="16"/>
@@ -5882,7 +5900,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="16"/>
-      <c r="V13" s="319"/>
+      <c r="V13" s="318"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
@@ -5916,7 +5934,7 @@
       <c r="T14" s="17"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
-      <c r="W14" s="319"/>
+      <c r="W14" s="318"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="17"/>
@@ -5926,10 +5944,10 @@
     <row r="15" spans="2:28" ht="13.5" customHeight="1">
       <c r="B15" s="22"/>
       <c r="C15" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -5954,7 +5972,7 @@
       <c r="Y15" s="24"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
-      <c r="AB15" s="319"/>
+      <c r="AB15" s="318"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5969,9 +5987,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D88AC82-2031-4E69-AB30-833C3B0C9F32}">
-  <dimension ref="C5:AE63"/>
+  <dimension ref="C5:AE61"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="15.75"/>
   <cols>
@@ -6002,26 +6020,26 @@
       <c r="J7" s="180"/>
       <c r="K7" s="180"/>
       <c r="L7" s="180"/>
-      <c r="M7" s="344">
+      <c r="M7" s="347">
         <v>2020</v>
       </c>
-      <c r="N7" s="344"/>
-      <c r="O7" s="344"/>
-      <c r="P7" s="344"/>
-      <c r="Q7" s="344"/>
-      <c r="R7" s="344"/>
-      <c r="S7" s="344"/>
-      <c r="T7" s="344"/>
-      <c r="U7" s="344"/>
-      <c r="V7" s="344"/>
-      <c r="W7" s="344"/>
-      <c r="X7" s="344"/>
-      <c r="Y7" s="344"/>
-      <c r="Z7" s="344"/>
-      <c r="AA7" s="344"/>
-      <c r="AB7" s="344"/>
-      <c r="AC7" s="344"/>
-      <c r="AD7" s="344"/>
+      <c r="N7" s="347"/>
+      <c r="O7" s="347"/>
+      <c r="P7" s="347"/>
+      <c r="Q7" s="347"/>
+      <c r="R7" s="347"/>
+      <c r="S7" s="347"/>
+      <c r="T7" s="347"/>
+      <c r="U7" s="347"/>
+      <c r="V7" s="347"/>
+      <c r="W7" s="347"/>
+      <c r="X7" s="347"/>
+      <c r="Y7" s="347"/>
+      <c r="Z7" s="347"/>
+      <c r="AA7" s="347"/>
+      <c r="AB7" s="347"/>
+      <c r="AC7" s="347"/>
+      <c r="AD7" s="347"/>
     </row>
     <row r="8" spans="4:30" ht="13.5" customHeight="1">
       <c r="D8" s="181"/>
@@ -6033,26 +6051,26 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="344">
+      <c r="M8" s="347">
         <v>6</v>
       </c>
-      <c r="N8" s="344"/>
-      <c r="O8" s="344"/>
-      <c r="P8" s="344"/>
-      <c r="Q8" s="344"/>
-      <c r="R8" s="344"/>
-      <c r="S8" s="344"/>
-      <c r="T8" s="344"/>
-      <c r="U8" s="344"/>
-      <c r="V8" s="344"/>
-      <c r="W8" s="344"/>
-      <c r="X8" s="344"/>
-      <c r="Y8" s="344"/>
-      <c r="Z8" s="344"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="344"/>
-      <c r="AC8" s="344"/>
-      <c r="AD8" s="344"/>
+      <c r="N8" s="347"/>
+      <c r="O8" s="347"/>
+      <c r="P8" s="347"/>
+      <c r="Q8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="347"/>
+      <c r="T8" s="347"/>
+      <c r="U8" s="347"/>
+      <c r="V8" s="347"/>
+      <c r="W8" s="347"/>
+      <c r="X8" s="347"/>
+      <c r="Y8" s="347"/>
+      <c r="Z8" s="347"/>
+      <c r="AA8" s="347"/>
+      <c r="AB8" s="347"/>
+      <c r="AC8" s="347"/>
+      <c r="AD8" s="347"/>
     </row>
     <row r="9" spans="4:30" ht="13.5" customHeight="1">
       <c r="D9" s="9"/>
@@ -6166,7 +6184,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="319"/>
+      <c r="M11" s="318"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
       <c r="P11" s="24"/>
@@ -6199,10 +6217,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="319"/>
+      <c r="M12" s="318"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
-      <c r="P12" s="319"/>
+      <c r="P12" s="318"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="24"/>
       <c r="S12" s="16"/>
@@ -6235,7 +6253,7 @@
       <c r="M13" s="16"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
-      <c r="P13" s="319"/>
+      <c r="P13" s="318"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="24"/>
       <c r="S13" s="16"/>
@@ -6269,7 +6287,7 @@
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
       <c r="P14" s="24"/>
-      <c r="Q14" s="319"/>
+      <c r="Q14" s="318"/>
       <c r="R14" s="24"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
@@ -6303,12 +6321,12 @@
       <c r="O15" s="17"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="16"/>
-      <c r="R15" s="319"/>
-      <c r="S15" s="319"/>
-      <c r="T15" s="319"/>
+      <c r="R15" s="318"/>
+      <c r="S15" s="318"/>
+      <c r="T15" s="318"/>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
-      <c r="W15" s="319"/>
+      <c r="W15" s="318"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
@@ -6342,7 +6360,7 @@
       <c r="U16" s="17"/>
       <c r="V16" s="17"/>
       <c r="W16" s="16"/>
-      <c r="X16" s="319"/>
+      <c r="X16" s="318"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
@@ -6376,7 +6394,7 @@
       <c r="V17" s="17"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
-      <c r="Y17" s="319"/>
+      <c r="Y17" s="318"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="16"/>
       <c r="AB17" s="17"/>
@@ -6386,10 +6404,10 @@
     <row r="18" spans="3:31">
       <c r="D18" s="22"/>
       <c r="E18" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -6414,7 +6432,7 @@
       <c r="AA18" s="24"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
-      <c r="AD18" s="319"/>
+      <c r="AD18" s="318"/>
     </row>
     <row r="27" spans="3:31" ht="24">
       <c r="C27" s="25"/>
@@ -6638,7 +6656,7 @@
       <c r="N32" s="51"/>
       <c r="O32" s="50"/>
       <c r="P32" s="59"/>
-      <c r="Q32" s="320"/>
+      <c r="Q32" s="319"/>
       <c r="R32" s="92"/>
       <c r="S32" s="53"/>
       <c r="T32" s="53"/>
@@ -6673,7 +6691,7 @@
       <c r="N33" s="58"/>
       <c r="O33" s="58"/>
       <c r="P33" s="52"/>
-      <c r="Q33" s="321"/>
+      <c r="Q33" s="320"/>
       <c r="R33" s="93"/>
       <c r="S33" s="60"/>
       <c r="T33" s="60"/>
@@ -6702,17 +6720,17 @@
       <c r="J34" s="80"/>
       <c r="K34" s="80"/>
       <c r="L34" s="81"/>
-      <c r="M34" s="351" t="s">
-        <v>73</v>
-      </c>
-      <c r="N34" s="353">
+      <c r="M34" s="350" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" s="348">
         <v>1</v>
       </c>
       <c r="O34" s="62" t="s">
         <v>26</v>
       </c>
       <c r="P34" s="63"/>
-      <c r="Q34" s="322"/>
+      <c r="Q34" s="321"/>
       <c r="R34" s="94"/>
       <c r="S34" s="64"/>
       <c r="T34" s="64"/>
@@ -6739,13 +6757,13 @@
       <c r="J35" s="83"/>
       <c r="K35" s="83"/>
       <c r="L35" s="84"/>
-      <c r="M35" s="352"/>
-      <c r="N35" s="354"/>
+      <c r="M35" s="351"/>
+      <c r="N35" s="349"/>
       <c r="O35" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P35" s="335"/>
-      <c r="Q35" s="323"/>
+      <c r="P35" s="333"/>
+      <c r="Q35" s="322"/>
       <c r="R35" s="95"/>
       <c r="S35" s="67"/>
       <c r="T35" s="67"/>
@@ -6774,17 +6792,17 @@
       <c r="J36" s="80"/>
       <c r="K36" s="80"/>
       <c r="L36" s="81"/>
-      <c r="M36" s="351" t="s">
-        <v>74</v>
-      </c>
-      <c r="N36" s="353">
+      <c r="M36" s="350" t="s">
+        <v>73</v>
+      </c>
+      <c r="N36" s="348">
         <v>1</v>
       </c>
       <c r="O36" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P36" s="333"/>
-      <c r="Q36" s="322"/>
+      <c r="P36" s="332"/>
+      <c r="Q36" s="321"/>
       <c r="R36" s="94"/>
       <c r="S36" s="64"/>
       <c r="T36" s="64"/>
@@ -6811,13 +6829,13 @@
       <c r="J37" s="83"/>
       <c r="K37" s="83"/>
       <c r="L37" s="84"/>
-      <c r="M37" s="352"/>
-      <c r="N37" s="354"/>
+      <c r="M37" s="351"/>
+      <c r="N37" s="349"/>
       <c r="O37" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="331"/>
-      <c r="Q37" s="323"/>
+      <c r="P37" s="330"/>
+      <c r="Q37" s="322"/>
       <c r="R37" s="95"/>
       <c r="S37" s="67"/>
       <c r="T37" s="67"/>
@@ -6846,17 +6864,17 @@
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
       <c r="L38" s="81"/>
-      <c r="M38" s="351" t="s">
-        <v>76</v>
-      </c>
-      <c r="N38" s="353">
+      <c r="M38" s="350" t="s">
+        <v>75</v>
+      </c>
+      <c r="N38" s="348">
         <v>1</v>
       </c>
       <c r="O38" s="62" t="s">
         <v>26</v>
       </c>
       <c r="P38" s="63"/>
-      <c r="Q38" s="322"/>
+      <c r="Q38" s="321"/>
       <c r="R38" s="94"/>
       <c r="S38" s="64"/>
       <c r="T38" s="64"/>
@@ -6883,13 +6901,13 @@
       <c r="J39" s="83"/>
       <c r="K39" s="83"/>
       <c r="L39" s="84"/>
-      <c r="M39" s="352"/>
-      <c r="N39" s="354"/>
+      <c r="M39" s="351"/>
+      <c r="N39" s="349"/>
       <c r="O39" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P39" s="335"/>
-      <c r="Q39" s="323"/>
+      <c r="P39" s="333"/>
+      <c r="Q39" s="322"/>
       <c r="R39" s="95"/>
       <c r="S39" s="67"/>
       <c r="T39" s="67"/>
@@ -6918,17 +6936,17 @@
       <c r="J40" s="86"/>
       <c r="K40" s="86"/>
       <c r="L40" s="87"/>
-      <c r="M40" s="351" t="s">
-        <v>76</v>
-      </c>
-      <c r="N40" s="353">
+      <c r="M40" s="350" t="s">
+        <v>75</v>
+      </c>
+      <c r="N40" s="348">
         <v>1</v>
       </c>
       <c r="O40" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P40" s="332"/>
-      <c r="Q40" s="324"/>
+      <c r="P40" s="331"/>
+      <c r="Q40" s="323"/>
       <c r="R40" s="96"/>
       <c r="S40" s="88"/>
       <c r="T40" s="88"/>
@@ -6955,13 +6973,13 @@
       <c r="J41" s="86"/>
       <c r="K41" s="86"/>
       <c r="L41" s="87"/>
-      <c r="M41" s="352"/>
-      <c r="N41" s="354"/>
+      <c r="M41" s="351"/>
+      <c r="N41" s="349"/>
       <c r="O41" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P41" s="331"/>
-      <c r="Q41" s="324"/>
+      <c r="P41" s="330"/>
+      <c r="Q41" s="323"/>
       <c r="R41" s="96"/>
       <c r="S41" s="88"/>
       <c r="T41" s="88"/>
@@ -6990,17 +7008,17 @@
       <c r="J42" s="80"/>
       <c r="K42" s="80"/>
       <c r="L42" s="81"/>
-      <c r="M42" s="351" t="s">
-        <v>77</v>
-      </c>
-      <c r="N42" s="353">
+      <c r="M42" s="350" t="s">
+        <v>76</v>
+      </c>
+      <c r="N42" s="348">
         <v>1</v>
       </c>
       <c r="O42" s="62" t="s">
         <v>26</v>
       </c>
       <c r="P42" s="63"/>
-      <c r="Q42" s="322"/>
+      <c r="Q42" s="321"/>
       <c r="R42" s="94"/>
       <c r="S42" s="64"/>
       <c r="T42" s="64"/>
@@ -7027,13 +7045,13 @@
       <c r="J43" s="83"/>
       <c r="K43" s="83"/>
       <c r="L43" s="84"/>
-      <c r="M43" s="352"/>
-      <c r="N43" s="354"/>
+      <c r="M43" s="351"/>
+      <c r="N43" s="349"/>
       <c r="O43" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P43" s="335"/>
-      <c r="Q43" s="323"/>
+      <c r="P43" s="333"/>
+      <c r="Q43" s="322"/>
       <c r="R43" s="95"/>
       <c r="S43" s="67"/>
       <c r="T43" s="67"/>
@@ -7053,7 +7071,7 @@
       <c r="C44" s="25"/>
       <c r="D44" s="55"/>
       <c r="E44" s="79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" s="80"/>
       <c r="G44" s="80"/>
@@ -7062,17 +7080,17 @@
       <c r="J44" s="80"/>
       <c r="K44" s="80"/>
       <c r="L44" s="81"/>
-      <c r="M44" s="351" t="s">
-        <v>75</v>
-      </c>
-      <c r="N44" s="353">
+      <c r="M44" s="350" t="s">
+        <v>74</v>
+      </c>
+      <c r="N44" s="348">
         <v>1</v>
       </c>
       <c r="O44" s="62" t="s">
         <v>26</v>
       </c>
       <c r="P44" s="63"/>
-      <c r="Q44" s="322"/>
+      <c r="Q44" s="321"/>
       <c r="R44" s="94"/>
       <c r="S44" s="64"/>
       <c r="T44" s="64"/>
@@ -7099,13 +7117,13 @@
       <c r="J45" s="83"/>
       <c r="K45" s="83"/>
       <c r="L45" s="84"/>
-      <c r="M45" s="352"/>
-      <c r="N45" s="354"/>
+      <c r="M45" s="351"/>
+      <c r="N45" s="349"/>
       <c r="O45" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P45" s="335"/>
-      <c r="Q45" s="323"/>
+      <c r="P45" s="333"/>
+      <c r="Q45" s="322"/>
       <c r="R45" s="95"/>
       <c r="S45" s="67"/>
       <c r="T45" s="67"/>
@@ -7125,7 +7143,7 @@
       <c r="C46" s="25"/>
       <c r="D46" s="55"/>
       <c r="E46" s="79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F46" s="80"/>
       <c r="G46" s="80"/>
@@ -7134,15 +7152,15 @@
       <c r="J46" s="80"/>
       <c r="K46" s="80"/>
       <c r="L46" s="81"/>
-      <c r="M46" s="351"/>
-      <c r="N46" s="353">
-        <v>2</v>
+      <c r="M46" s="350"/>
+      <c r="N46" s="348">
+        <v>1</v>
       </c>
       <c r="O46" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P46" s="332"/>
-      <c r="Q46" s="324"/>
+      <c r="P46" s="331"/>
+      <c r="Q46" s="323"/>
       <c r="R46" s="96"/>
       <c r="S46" s="88"/>
       <c r="T46" s="88"/>
@@ -7169,13 +7187,13 @@
       <c r="J47" s="83"/>
       <c r="K47" s="83"/>
       <c r="L47" s="84"/>
-      <c r="M47" s="352"/>
-      <c r="N47" s="354"/>
+      <c r="M47" s="351"/>
+      <c r="N47" s="349"/>
       <c r="O47" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P47" s="331"/>
-      <c r="Q47" s="325"/>
+      <c r="P47" s="330"/>
+      <c r="Q47" s="324"/>
       <c r="R47" s="97"/>
       <c r="S47" s="77"/>
       <c r="T47" s="77"/>
@@ -7194,220 +7212,222 @@
     <row r="48" spans="3:31">
       <c r="C48" s="25"/>
       <c r="D48" s="55"/>
-      <c r="E48" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="351"/>
-      <c r="N48" s="353">
-        <v>3</v>
+      <c r="E48" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="M48" s="350"/>
+      <c r="N48" s="348">
+        <v>1</v>
       </c>
       <c r="O48" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P48" s="334"/>
-      <c r="Q48" s="324"/>
-      <c r="R48" s="96"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="88"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="88"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="88"/>
-      <c r="Y48" s="88"/>
-      <c r="Z48" s="88"/>
-      <c r="AA48" s="88"/>
-      <c r="AB48" s="88"/>
-      <c r="AC48" s="88"/>
-      <c r="AD48" s="89"/>
+      <c r="P48" s="332"/>
+      <c r="Q48" s="321"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="64"/>
+      <c r="T48" s="64"/>
+      <c r="U48" s="64"/>
+      <c r="V48" s="64"/>
+      <c r="W48" s="64"/>
+      <c r="X48" s="64"/>
+      <c r="Y48" s="64"/>
+      <c r="Z48" s="64"/>
+      <c r="AA48" s="64"/>
+      <c r="AB48" s="64"/>
+      <c r="AC48" s="64"/>
+      <c r="AD48" s="65"/>
       <c r="AE48" s="25"/>
     </row>
     <row r="49" spans="3:31">
       <c r="C49" s="25"/>
       <c r="D49" s="55"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="352"/>
-      <c r="N49" s="354"/>
+      <c r="M49" s="351"/>
+      <c r="N49" s="349"/>
       <c r="O49" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P49" s="335"/>
-      <c r="Q49" s="324"/>
-      <c r="R49" s="96"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="88"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="88"/>
-      <c r="Y49" s="88"/>
-      <c r="Z49" s="88"/>
-      <c r="AA49" s="88"/>
-      <c r="AB49" s="88"/>
-      <c r="AC49" s="88"/>
-      <c r="AD49" s="89"/>
+      <c r="P49" s="330"/>
+      <c r="Q49" s="322"/>
+      <c r="R49" s="95"/>
+      <c r="S49" s="67"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="67"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
+      <c r="X49" s="67"/>
+      <c r="Y49" s="67"/>
+      <c r="Z49" s="67"/>
+      <c r="AA49" s="67"/>
+      <c r="AB49" s="67"/>
+      <c r="AC49" s="67"/>
+      <c r="AD49" s="68"/>
       <c r="AE49" s="25"/>
     </row>
     <row r="50" spans="3:31">
       <c r="C50" s="25"/>
       <c r="D50" s="55"/>
-      <c r="E50" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="M50" s="351"/>
-      <c r="N50" s="353">
-        <v>4</v>
-      </c>
-      <c r="O50" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="P50" s="333"/>
-      <c r="Q50" s="322"/>
-      <c r="R50" s="94"/>
-      <c r="S50" s="64"/>
-      <c r="T50" s="64"/>
-      <c r="U50" s="64"/>
-      <c r="V50" s="64"/>
-      <c r="W50" s="64"/>
-      <c r="X50" s="64"/>
-      <c r="Y50" s="64"/>
-      <c r="Z50" s="64"/>
-      <c r="AA50" s="64"/>
-      <c r="AB50" s="64"/>
-      <c r="AC50" s="64"/>
-      <c r="AD50" s="65"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="327"/>
+      <c r="Q50" s="325"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="60"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="60"/>
+      <c r="AB50" s="60"/>
+      <c r="AC50" s="60"/>
+      <c r="AD50" s="61"/>
       <c r="AE50" s="25"/>
     </row>
     <row r="51" spans="3:31">
       <c r="C51" s="25"/>
       <c r="D51" s="55"/>
-      <c r="M51" s="352"/>
-      <c r="N51" s="354"/>
-      <c r="O51" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="P51" s="331"/>
-      <c r="Q51" s="323"/>
-      <c r="R51" s="95"/>
-      <c r="S51" s="67"/>
-      <c r="T51" s="67"/>
-      <c r="U51" s="67"/>
-      <c r="V51" s="67"/>
-      <c r="W51" s="67"/>
-      <c r="X51" s="67"/>
-      <c r="Y51" s="67"/>
-      <c r="Z51" s="67"/>
-      <c r="AA51" s="67"/>
-      <c r="AB51" s="67"/>
-      <c r="AC51" s="67"/>
-      <c r="AD51" s="68"/>
+      <c r="E51" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="325"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="60"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="60"/>
+      <c r="Y51" s="60"/>
+      <c r="Z51" s="60"/>
+      <c r="AA51" s="60"/>
+      <c r="AB51" s="60"/>
+      <c r="AC51" s="60"/>
+      <c r="AD51" s="61"/>
       <c r="AE51" s="25"/>
     </row>
     <row r="52" spans="3:31">
       <c r="C52" s="25"/>
       <c r="D52" s="55"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="328"/>
-      <c r="Q52" s="326"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="60"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="60"/>
-      <c r="V52" s="60"/>
-      <c r="W52" s="60"/>
-      <c r="X52" s="60"/>
-      <c r="Y52" s="60"/>
-      <c r="Z52" s="60"/>
-      <c r="AA52" s="60"/>
-      <c r="AB52" s="60"/>
-      <c r="AC52" s="60"/>
-      <c r="AD52" s="61"/>
+      <c r="E52" s="352" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="353"/>
+      <c r="G52" s="353"/>
+      <c r="H52" s="353"/>
+      <c r="I52" s="353"/>
+      <c r="J52" s="353"/>
+      <c r="K52" s="353"/>
+      <c r="L52" s="354"/>
+      <c r="M52" s="350" t="s">
+        <v>33</v>
+      </c>
+      <c r="N52" s="348">
+        <v>1</v>
+      </c>
+      <c r="O52" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="P52" s="331"/>
+      <c r="Q52" s="321"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="184"/>
+      <c r="T52" s="64"/>
+      <c r="U52" s="64"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
+      <c r="X52" s="64"/>
+      <c r="Y52" s="64"/>
+      <c r="Z52" s="64"/>
+      <c r="AA52" s="64"/>
+      <c r="AB52" s="64"/>
+      <c r="AC52" s="64"/>
+      <c r="AD52" s="65"/>
       <c r="AE52" s="25"/>
     </row>
     <row r="53" spans="3:31">
       <c r="C53" s="25"/>
       <c r="D53" s="55"/>
-      <c r="E53" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="326"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="60"/>
-      <c r="T53" s="60"/>
-      <c r="U53" s="60"/>
-      <c r="V53" s="60"/>
-      <c r="W53" s="60"/>
-      <c r="X53" s="60"/>
-      <c r="Y53" s="60"/>
-      <c r="Z53" s="60"/>
-      <c r="AA53" s="60"/>
-      <c r="AB53" s="60"/>
-      <c r="AC53" s="60"/>
-      <c r="AD53" s="61"/>
+      <c r="E53" s="355"/>
+      <c r="F53" s="356"/>
+      <c r="G53" s="356"/>
+      <c r="H53" s="356"/>
+      <c r="I53" s="356"/>
+      <c r="J53" s="356"/>
+      <c r="K53" s="356"/>
+      <c r="L53" s="357"/>
+      <c r="M53" s="351"/>
+      <c r="N53" s="349"/>
+      <c r="O53" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="P53" s="330"/>
+      <c r="Q53" s="322"/>
+      <c r="R53" s="95"/>
+      <c r="S53" s="185"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="67"/>
+      <c r="AD53" s="68"/>
       <c r="AE53" s="25"/>
     </row>
     <row r="54" spans="3:31">
       <c r="C54" s="25"/>
       <c r="D54" s="55"/>
-      <c r="E54" s="345" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="346"/>
-      <c r="G54" s="346"/>
-      <c r="H54" s="346"/>
-      <c r="I54" s="346"/>
-      <c r="J54" s="346"/>
-      <c r="K54" s="346"/>
-      <c r="L54" s="347"/>
-      <c r="M54" s="351" t="s">
+      <c r="E54" s="352" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="353"/>
+      <c r="G54" s="353"/>
+      <c r="H54" s="353"/>
+      <c r="I54" s="353"/>
+      <c r="J54" s="353"/>
+      <c r="K54" s="353"/>
+      <c r="L54" s="354"/>
+      <c r="M54" s="350" t="s">
         <v>33</v>
       </c>
-      <c r="N54" s="353">
+      <c r="N54" s="348">
         <v>1</v>
       </c>
       <c r="O54" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P54" s="332"/>
-      <c r="Q54" s="322"/>
+      <c r="P54" s="91"/>
+      <c r="Q54" s="321"/>
       <c r="R54" s="94"/>
-      <c r="S54" s="184"/>
+      <c r="S54" s="98"/>
       <c r="T54" s="64"/>
       <c r="U54" s="64"/>
       <c r="V54" s="64"/>
@@ -7424,23 +7444,23 @@
     <row r="55" spans="3:31">
       <c r="C55" s="25"/>
       <c r="D55" s="55"/>
-      <c r="E55" s="348"/>
-      <c r="F55" s="349"/>
-      <c r="G55" s="349"/>
-      <c r="H55" s="349"/>
-      <c r="I55" s="349"/>
-      <c r="J55" s="349"/>
-      <c r="K55" s="349"/>
-      <c r="L55" s="350"/>
-      <c r="M55" s="352"/>
-      <c r="N55" s="354"/>
+      <c r="E55" s="355"/>
+      <c r="F55" s="356"/>
+      <c r="G55" s="356"/>
+      <c r="H55" s="356"/>
+      <c r="I55" s="356"/>
+      <c r="J55" s="356"/>
+      <c r="K55" s="356"/>
+      <c r="L55" s="357"/>
+      <c r="M55" s="351"/>
+      <c r="N55" s="349"/>
       <c r="O55" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P55" s="331"/>
-      <c r="Q55" s="323"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="322"/>
       <c r="R55" s="95"/>
-      <c r="S55" s="185"/>
+      <c r="S55" s="28"/>
       <c r="T55" s="67"/>
       <c r="U55" s="67"/>
       <c r="V55" s="67"/>
@@ -7457,27 +7477,27 @@
     <row r="56" spans="3:31">
       <c r="C56" s="25"/>
       <c r="D56" s="55"/>
-      <c r="E56" s="345" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="346"/>
-      <c r="G56" s="346"/>
-      <c r="H56" s="346"/>
-      <c r="I56" s="346"/>
-      <c r="J56" s="346"/>
-      <c r="K56" s="346"/>
-      <c r="L56" s="347"/>
-      <c r="M56" s="351" t="s">
+      <c r="E56" s="352" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="353"/>
+      <c r="G56" s="353"/>
+      <c r="H56" s="353"/>
+      <c r="I56" s="353"/>
+      <c r="J56" s="353"/>
+      <c r="K56" s="353"/>
+      <c r="L56" s="354"/>
+      <c r="M56" s="350" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="353">
-        <v>2</v>
+      <c r="N56" s="348">
+        <v>1</v>
       </c>
       <c r="O56" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P56" s="91"/>
-      <c r="Q56" s="322"/>
+      <c r="P56" s="329"/>
+      <c r="Q56" s="321"/>
       <c r="R56" s="94"/>
       <c r="S56" s="98"/>
       <c r="T56" s="64"/>
@@ -7496,21 +7516,21 @@
     <row r="57" spans="3:31">
       <c r="C57" s="25"/>
       <c r="D57" s="55"/>
-      <c r="E57" s="348"/>
-      <c r="F57" s="349"/>
-      <c r="G57" s="349"/>
-      <c r="H57" s="349"/>
-      <c r="I57" s="349"/>
-      <c r="J57" s="349"/>
-      <c r="K57" s="349"/>
-      <c r="L57" s="350"/>
-      <c r="M57" s="352"/>
-      <c r="N57" s="354"/>
+      <c r="E57" s="355"/>
+      <c r="F57" s="356"/>
+      <c r="G57" s="356"/>
+      <c r="H57" s="356"/>
+      <c r="I57" s="356"/>
+      <c r="J57" s="356"/>
+      <c r="K57" s="356"/>
+      <c r="L57" s="357"/>
+      <c r="M57" s="351"/>
+      <c r="N57" s="349"/>
       <c r="O57" s="66" t="s">
         <v>27</v>
       </c>
       <c r="P57" s="71"/>
-      <c r="Q57" s="323"/>
+      <c r="Q57" s="322"/>
       <c r="R57" s="95"/>
       <c r="S57" s="28"/>
       <c r="T57" s="67"/>
@@ -7529,27 +7549,27 @@
     <row r="58" spans="3:31">
       <c r="C58" s="25"/>
       <c r="D58" s="55"/>
-      <c r="E58" s="345" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="346"/>
-      <c r="G58" s="346"/>
-      <c r="H58" s="346"/>
-      <c r="I58" s="346"/>
-      <c r="J58" s="346"/>
-      <c r="K58" s="346"/>
-      <c r="L58" s="347"/>
-      <c r="M58" s="351" t="s">
+      <c r="E58" s="352" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="353"/>
+      <c r="G58" s="353"/>
+      <c r="H58" s="353"/>
+      <c r="I58" s="353"/>
+      <c r="J58" s="353"/>
+      <c r="K58" s="353"/>
+      <c r="L58" s="354"/>
+      <c r="M58" s="350" t="s">
         <v>33</v>
       </c>
-      <c r="N58" s="353">
-        <v>3</v>
+      <c r="N58" s="348">
+        <v>1</v>
       </c>
       <c r="O58" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P58" s="330"/>
-      <c r="Q58" s="322"/>
+      <c r="P58" s="329"/>
+      <c r="Q58" s="321"/>
       <c r="R58" s="94"/>
       <c r="S58" s="98"/>
       <c r="T58" s="64"/>
@@ -7568,21 +7588,21 @@
     <row r="59" spans="3:31">
       <c r="C59" s="25"/>
       <c r="D59" s="55"/>
-      <c r="E59" s="348"/>
-      <c r="F59" s="349"/>
-      <c r="G59" s="349"/>
-      <c r="H59" s="349"/>
-      <c r="I59" s="349"/>
-      <c r="J59" s="349"/>
-      <c r="K59" s="349"/>
-      <c r="L59" s="350"/>
-      <c r="M59" s="352"/>
-      <c r="N59" s="354"/>
+      <c r="E59" s="355"/>
+      <c r="F59" s="356"/>
+      <c r="G59" s="356"/>
+      <c r="H59" s="356"/>
+      <c r="I59" s="356"/>
+      <c r="J59" s="356"/>
+      <c r="K59" s="356"/>
+      <c r="L59" s="357"/>
+      <c r="M59" s="351"/>
+      <c r="N59" s="349"/>
       <c r="O59" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="323"/>
+      <c r="P59" s="328"/>
+      <c r="Q59" s="322"/>
       <c r="R59" s="95"/>
       <c r="S59" s="28"/>
       <c r="T59" s="67"/>
@@ -7600,154 +7620,84 @@
     </row>
     <row r="60" spans="3:31">
       <c r="C60" s="25"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="345" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" s="346"/>
-      <c r="G60" s="346"/>
-      <c r="H60" s="346"/>
-      <c r="I60" s="346"/>
-      <c r="J60" s="346"/>
-      <c r="K60" s="346"/>
-      <c r="L60" s="347"/>
-      <c r="M60" s="351" t="s">
-        <v>33</v>
-      </c>
-      <c r="N60" s="353">
-        <v>4</v>
-      </c>
-      <c r="O60" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="P60" s="330"/>
-      <c r="Q60" s="322"/>
-      <c r="R60" s="94"/>
-      <c r="S60" s="98"/>
-      <c r="T60" s="64"/>
-      <c r="U60" s="64"/>
-      <c r="V60" s="64"/>
-      <c r="W60" s="64"/>
-      <c r="X60" s="64"/>
-      <c r="Y60" s="64"/>
-      <c r="Z60" s="64"/>
-      <c r="AA60" s="64"/>
-      <c r="AB60" s="64"/>
-      <c r="AC60" s="64"/>
-      <c r="AD60" s="65"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="75"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="75"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="326"/>
+      <c r="R60" s="77"/>
+      <c r="S60" s="77"/>
+      <c r="T60" s="77"/>
+      <c r="U60" s="77"/>
+      <c r="V60" s="77"/>
+      <c r="W60" s="77"/>
+      <c r="X60" s="77"/>
+      <c r="Y60" s="77"/>
+      <c r="Z60" s="77"/>
+      <c r="AA60" s="77"/>
+      <c r="AB60" s="77"/>
+      <c r="AC60" s="77"/>
+      <c r="AD60" s="78"/>
       <c r="AE60" s="25"/>
     </row>
     <row r="61" spans="3:31">
       <c r="C61" s="25"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="348"/>
-      <c r="F61" s="349"/>
-      <c r="G61" s="349"/>
-      <c r="H61" s="349"/>
-      <c r="I61" s="349"/>
-      <c r="J61" s="349"/>
-      <c r="K61" s="349"/>
-      <c r="L61" s="350"/>
-      <c r="M61" s="352"/>
-      <c r="N61" s="354"/>
-      <c r="O61" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="P61" s="329"/>
-      <c r="Q61" s="323"/>
-      <c r="R61" s="95"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="67"/>
-      <c r="U61" s="67"/>
-      <c r="V61" s="67"/>
-      <c r="W61" s="67"/>
-      <c r="X61" s="67"/>
-      <c r="Y61" s="67"/>
-      <c r="Z61" s="67"/>
-      <c r="AA61" s="67"/>
-      <c r="AB61" s="67"/>
-      <c r="AC61" s="67"/>
-      <c r="AD61" s="68"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+      <c r="AA61" s="25"/>
+      <c r="AB61" s="25"/>
+      <c r="AC61" s="25"/>
+      <c r="AD61" s="25"/>
       <c r="AE61" s="25"/>
     </row>
-    <row r="62" spans="3:31">
-      <c r="C62" s="25"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="74"/>
-      <c r="K62" s="74"/>
-      <c r="L62" s="74"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="76"/>
-      <c r="O62" s="75"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="327"/>
-      <c r="R62" s="77"/>
-      <c r="S62" s="77"/>
-      <c r="T62" s="77"/>
-      <c r="U62" s="77"/>
-      <c r="V62" s="77"/>
-      <c r="W62" s="77"/>
-      <c r="X62" s="77"/>
-      <c r="Y62" s="77"/>
-      <c r="Z62" s="77"/>
-      <c r="AA62" s="77"/>
-      <c r="AB62" s="77"/>
-      <c r="AC62" s="77"/>
-      <c r="AD62" s="78"/>
-      <c r="AE62" s="25"/>
-    </row>
-    <row r="63" spans="3:31">
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="25"/>
-      <c r="V63" s="25"/>
-      <c r="W63" s="25"/>
-      <c r="X63" s="25"/>
-      <c r="Y63" s="25"/>
-      <c r="Z63" s="25"/>
-      <c r="AA63" s="25"/>
-      <c r="AB63" s="25"/>
-      <c r="AC63" s="25"/>
-      <c r="AD63" s="25"/>
-      <c r="AE63" s="25"/>
-    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="N50:N51"/>
+  <mergeCells count="30">
+    <mergeCell ref="E58:L59"/>
+    <mergeCell ref="M58:M59"/>
     <mergeCell ref="N58:N59"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="E52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="E54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="E56:L57"/>
+    <mergeCell ref="M56:M57"/>
     <mergeCell ref="M7:AD7"/>
     <mergeCell ref="M8:AD8"/>
     <mergeCell ref="N34:N35"/>
     <mergeCell ref="N36:N37"/>
     <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="M50:M51"/>
     <mergeCell ref="M44:M45"/>
     <mergeCell ref="M46:M47"/>
     <mergeCell ref="M34:M35"/>
@@ -7755,17 +7705,13 @@
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="M38:M39"/>
     <mergeCell ref="M36:M37"/>
-    <mergeCell ref="E60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="E54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="E56:L57"/>
-    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N48:N49"/>
     <mergeCell ref="N56:N57"/>
-    <mergeCell ref="E58:L59"/>
-    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="N46:N47"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -7782,7 +7728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2365E3-520A-48C7-B347-EA5A0791AF41}">
   <dimension ref="B6:AC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
   <cols>
@@ -7809,26 +7755,26 @@
       <c r="I8" s="180"/>
       <c r="J8" s="180"/>
       <c r="K8" s="180"/>
-      <c r="L8" s="344">
+      <c r="L8" s="347">
         <v>2020</v>
       </c>
-      <c r="M8" s="344"/>
-      <c r="N8" s="344"/>
-      <c r="O8" s="344"/>
-      <c r="P8" s="344"/>
-      <c r="Q8" s="344"/>
-      <c r="R8" s="344"/>
-      <c r="S8" s="344"/>
-      <c r="T8" s="344"/>
-      <c r="U8" s="344"/>
-      <c r="V8" s="344"/>
-      <c r="W8" s="344"/>
-      <c r="X8" s="344"/>
-      <c r="Y8" s="344"/>
-      <c r="Z8" s="344"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="344"/>
-      <c r="AC8" s="344"/>
+      <c r="M8" s="347"/>
+      <c r="N8" s="347"/>
+      <c r="O8" s="347"/>
+      <c r="P8" s="347"/>
+      <c r="Q8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="347"/>
+      <c r="T8" s="347"/>
+      <c r="U8" s="347"/>
+      <c r="V8" s="347"/>
+      <c r="W8" s="347"/>
+      <c r="X8" s="347"/>
+      <c r="Y8" s="347"/>
+      <c r="Z8" s="347"/>
+      <c r="AA8" s="347"/>
+      <c r="AB8" s="347"/>
+      <c r="AC8" s="347"/>
     </row>
     <row r="9" spans="3:29">
       <c r="C9" s="181"/>
@@ -7840,26 +7786,26 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="344">
+      <c r="L9" s="347">
         <v>6</v>
       </c>
-      <c r="M9" s="344"/>
-      <c r="N9" s="344"/>
-      <c r="O9" s="344"/>
-      <c r="P9" s="344"/>
-      <c r="Q9" s="344"/>
-      <c r="R9" s="344"/>
-      <c r="S9" s="344"/>
-      <c r="T9" s="344"/>
-      <c r="U9" s="344"/>
-      <c r="V9" s="344"/>
-      <c r="W9" s="344"/>
-      <c r="X9" s="344"/>
-      <c r="Y9" s="344"/>
-      <c r="Z9" s="344"/>
-      <c r="AA9" s="344"/>
-      <c r="AB9" s="344"/>
-      <c r="AC9" s="344"/>
+      <c r="M9" s="347"/>
+      <c r="N9" s="347"/>
+      <c r="O9" s="347"/>
+      <c r="P9" s="347"/>
+      <c r="Q9" s="347"/>
+      <c r="R9" s="347"/>
+      <c r="S9" s="347"/>
+      <c r="T9" s="347"/>
+      <c r="U9" s="347"/>
+      <c r="V9" s="347"/>
+      <c r="W9" s="347"/>
+      <c r="X9" s="347"/>
+      <c r="Y9" s="347"/>
+      <c r="Z9" s="347"/>
+      <c r="AA9" s="347"/>
+      <c r="AB9" s="347"/>
+      <c r="AC9" s="347"/>
     </row>
     <row r="10" spans="3:29">
       <c r="C10" s="9"/>
@@ -7973,7 +7919,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="319"/>
+      <c r="L12" s="318"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="24"/>
@@ -8006,10 +7952,10 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="319"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="319"/>
+      <c r="O13" s="318"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="16"/>
@@ -8042,7 +7988,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="319"/>
+      <c r="O14" s="318"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="24"/>
       <c r="R14" s="16"/>
@@ -8076,7 +8022,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="24"/>
-      <c r="P15" s="319"/>
+      <c r="P15" s="318"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
@@ -8110,12 +8056,12 @@
       <c r="N16" s="17"/>
       <c r="O16" s="24"/>
       <c r="P16" s="16"/>
-      <c r="Q16" s="319"/>
-      <c r="R16" s="319"/>
-      <c r="S16" s="319"/>
+      <c r="Q16" s="318"/>
+      <c r="R16" s="318"/>
+      <c r="S16" s="318"/>
       <c r="T16" s="17"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="319"/>
+      <c r="V16" s="318"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
@@ -8149,7 +8095,7 @@
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
       <c r="V17" s="16"/>
-      <c r="W17" s="319"/>
+      <c r="W17" s="318"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
@@ -8183,7 +8129,7 @@
       <c r="U18" s="17"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
-      <c r="X18" s="319"/>
+      <c r="X18" s="318"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="17"/>
@@ -8193,10 +8139,10 @@
     <row r="19" spans="2:29">
       <c r="C19" s="22"/>
       <c r="D19" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
@@ -8221,7 +8167,7 @@
       <c r="Z19" s="24"/>
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
-      <c r="AC19" s="319"/>
+      <c r="AC19" s="318"/>
     </row>
     <row r="23" spans="2:29" ht="24">
       <c r="B23" s="1" t="s">
@@ -8360,20 +8306,20 @@
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="18"/>
-      <c r="C29" s="355" t="s">
+      <c r="C29" s="358" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="356"/>
-      <c r="E29" s="356"/>
-      <c r="F29" s="356"/>
-      <c r="G29" s="356"/>
-      <c r="H29" s="356"/>
-      <c r="I29" s="356"/>
-      <c r="J29" s="357"/>
-      <c r="K29" s="361" t="s">
+      <c r="D29" s="359"/>
+      <c r="E29" s="359"/>
+      <c r="F29" s="359"/>
+      <c r="G29" s="359"/>
+      <c r="H29" s="359"/>
+      <c r="I29" s="359"/>
+      <c r="J29" s="360"/>
+      <c r="K29" s="364" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="363">
+      <c r="L29" s="366">
         <v>1</v>
       </c>
       <c r="M29" s="115" t="s">
@@ -8390,16 +8336,16 @@
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="18"/>
-      <c r="C30" s="358"/>
-      <c r="D30" s="359"/>
-      <c r="E30" s="359"/>
-      <c r="F30" s="359"/>
-      <c r="G30" s="359"/>
-      <c r="H30" s="359"/>
-      <c r="I30" s="359"/>
-      <c r="J30" s="360"/>
-      <c r="K30" s="362"/>
-      <c r="L30" s="364"/>
+      <c r="C30" s="361"/>
+      <c r="D30" s="362"/>
+      <c r="E30" s="362"/>
+      <c r="F30" s="362"/>
+      <c r="G30" s="362"/>
+      <c r="H30" s="362"/>
+      <c r="I30" s="362"/>
+      <c r="J30" s="363"/>
+      <c r="K30" s="365"/>
+      <c r="L30" s="367"/>
       <c r="M30" s="117" t="s">
         <v>27</v>
       </c>
@@ -8414,20 +8360,20 @@
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="18"/>
-      <c r="C31" s="355" t="s">
+      <c r="C31" s="358" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="356"/>
-      <c r="E31" s="356"/>
-      <c r="F31" s="356"/>
-      <c r="G31" s="356"/>
-      <c r="H31" s="356"/>
-      <c r="I31" s="356"/>
-      <c r="J31" s="357"/>
-      <c r="K31" s="361" t="s">
+      <c r="D31" s="359"/>
+      <c r="E31" s="359"/>
+      <c r="F31" s="359"/>
+      <c r="G31" s="359"/>
+      <c r="H31" s="359"/>
+      <c r="I31" s="359"/>
+      <c r="J31" s="360"/>
+      <c r="K31" s="364" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="363">
+      <c r="L31" s="366">
         <v>1</v>
       </c>
       <c r="M31" s="115" t="s">
@@ -8444,18 +8390,18 @@
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="18"/>
-      <c r="C32" s="358"/>
-      <c r="D32" s="359"/>
-      <c r="E32" s="359"/>
-      <c r="F32" s="359"/>
-      <c r="G32" s="359"/>
-      <c r="H32" s="359"/>
-      <c r="I32" s="359"/>
-      <c r="J32" s="360"/>
-      <c r="K32" s="362" t="s">
+      <c r="C32" s="361"/>
+      <c r="D32" s="362"/>
+      <c r="E32" s="362"/>
+      <c r="F32" s="362"/>
+      <c r="G32" s="362"/>
+      <c r="H32" s="362"/>
+      <c r="I32" s="362"/>
+      <c r="J32" s="363"/>
+      <c r="K32" s="365" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="364"/>
+      <c r="L32" s="367"/>
       <c r="M32" s="117" t="s">
         <v>27</v>
       </c>
@@ -8470,20 +8416,20 @@
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="18"/>
-      <c r="C33" s="355" t="s">
+      <c r="C33" s="358" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="356"/>
-      <c r="E33" s="356"/>
-      <c r="F33" s="356"/>
-      <c r="G33" s="356"/>
-      <c r="H33" s="356"/>
-      <c r="I33" s="356"/>
-      <c r="J33" s="357"/>
-      <c r="K33" s="361" t="s">
+      <c r="D33" s="359"/>
+      <c r="E33" s="359"/>
+      <c r="F33" s="359"/>
+      <c r="G33" s="359"/>
+      <c r="H33" s="359"/>
+      <c r="I33" s="359"/>
+      <c r="J33" s="360"/>
+      <c r="K33" s="364" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="363">
+      <c r="L33" s="366">
         <v>1</v>
       </c>
       <c r="M33" s="115" t="s">
@@ -8500,18 +8446,18 @@
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="18"/>
-      <c r="C34" s="358"/>
-      <c r="D34" s="359"/>
-      <c r="E34" s="359"/>
-      <c r="F34" s="359"/>
-      <c r="G34" s="359"/>
-      <c r="H34" s="359"/>
-      <c r="I34" s="359"/>
-      <c r="J34" s="360"/>
-      <c r="K34" s="362" t="s">
+      <c r="C34" s="361"/>
+      <c r="D34" s="362"/>
+      <c r="E34" s="362"/>
+      <c r="F34" s="362"/>
+      <c r="G34" s="362"/>
+      <c r="H34" s="362"/>
+      <c r="I34" s="362"/>
+      <c r="J34" s="363"/>
+      <c r="K34" s="365" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="364"/>
+      <c r="L34" s="367"/>
       <c r="M34" s="117" t="s">
         <v>27</v>
       </c>
@@ -8526,20 +8472,20 @@
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="18"/>
-      <c r="C35" s="355" t="s">
+      <c r="C35" s="358" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="356"/>
-      <c r="E35" s="356"/>
-      <c r="F35" s="356"/>
-      <c r="G35" s="356"/>
-      <c r="H35" s="356"/>
-      <c r="I35" s="356"/>
-      <c r="J35" s="357"/>
-      <c r="K35" s="361" t="s">
+      <c r="D35" s="359"/>
+      <c r="E35" s="359"/>
+      <c r="F35" s="359"/>
+      <c r="G35" s="359"/>
+      <c r="H35" s="359"/>
+      <c r="I35" s="359"/>
+      <c r="J35" s="360"/>
+      <c r="K35" s="364" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="363">
+      <c r="L35" s="366">
         <v>1</v>
       </c>
       <c r="M35" s="115" t="s">
@@ -8556,18 +8502,18 @@
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="18"/>
-      <c r="C36" s="358"/>
-      <c r="D36" s="359"/>
-      <c r="E36" s="359"/>
-      <c r="F36" s="359"/>
-      <c r="G36" s="359"/>
-      <c r="H36" s="359"/>
-      <c r="I36" s="359"/>
-      <c r="J36" s="360"/>
-      <c r="K36" s="362" t="s">
+      <c r="C36" s="361"/>
+      <c r="D36" s="362"/>
+      <c r="E36" s="362"/>
+      <c r="F36" s="362"/>
+      <c r="G36" s="362"/>
+      <c r="H36" s="362"/>
+      <c r="I36" s="362"/>
+      <c r="J36" s="363"/>
+      <c r="K36" s="365" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="364"/>
+      <c r="L36" s="367"/>
       <c r="M36" s="117" t="s">
         <v>27</v>
       </c>
@@ -8582,20 +8528,20 @@
     </row>
     <row r="37" spans="2:21">
       <c r="B37" s="18"/>
-      <c r="C37" s="355" t="s">
+      <c r="C37" s="358" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="356"/>
-      <c r="E37" s="356"/>
-      <c r="F37" s="356"/>
-      <c r="G37" s="356"/>
-      <c r="H37" s="356"/>
-      <c r="I37" s="356"/>
-      <c r="J37" s="357"/>
-      <c r="K37" s="361" t="s">
+      <c r="D37" s="359"/>
+      <c r="E37" s="359"/>
+      <c r="F37" s="359"/>
+      <c r="G37" s="359"/>
+      <c r="H37" s="359"/>
+      <c r="I37" s="359"/>
+      <c r="J37" s="360"/>
+      <c r="K37" s="364" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="363">
+      <c r="L37" s="366">
         <v>1</v>
       </c>
       <c r="M37" s="115" t="s">
@@ -8612,18 +8558,18 @@
     </row>
     <row r="38" spans="2:21">
       <c r="B38" s="18"/>
-      <c r="C38" s="358"/>
-      <c r="D38" s="359"/>
-      <c r="E38" s="359"/>
-      <c r="F38" s="359"/>
-      <c r="G38" s="359"/>
-      <c r="H38" s="359"/>
-      <c r="I38" s="359"/>
-      <c r="J38" s="360"/>
-      <c r="K38" s="362" t="s">
+      <c r="C38" s="361"/>
+      <c r="D38" s="362"/>
+      <c r="E38" s="362"/>
+      <c r="F38" s="362"/>
+      <c r="G38" s="362"/>
+      <c r="H38" s="362"/>
+      <c r="I38" s="362"/>
+      <c r="J38" s="363"/>
+      <c r="K38" s="365" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="364"/>
+      <c r="L38" s="367"/>
       <c r="M38" s="117" t="s">
         <v>27</v>
       </c>
@@ -8660,6 +8606,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L8:AC8"/>
+    <mergeCell ref="L9:AC9"/>
+    <mergeCell ref="C29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
     <mergeCell ref="C37:J38"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="L37:L38"/>
@@ -8669,14 +8623,6 @@
     <mergeCell ref="C35:J36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L8:AC8"/>
-    <mergeCell ref="L9:AC9"/>
-    <mergeCell ref="C29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -8722,26 +8668,26 @@
       <c r="J6" s="180"/>
       <c r="K6" s="180"/>
       <c r="L6" s="180"/>
-      <c r="M6" s="344">
+      <c r="M6" s="347">
         <v>2020</v>
       </c>
-      <c r="N6" s="344"/>
-      <c r="O6" s="344"/>
-      <c r="P6" s="344"/>
-      <c r="Q6" s="344"/>
-      <c r="R6" s="344"/>
-      <c r="S6" s="344"/>
-      <c r="T6" s="344"/>
-      <c r="U6" s="344"/>
-      <c r="V6" s="344"/>
-      <c r="W6" s="344"/>
-      <c r="X6" s="344"/>
-      <c r="Y6" s="344"/>
-      <c r="Z6" s="344"/>
-      <c r="AA6" s="344"/>
-      <c r="AB6" s="344"/>
-      <c r="AC6" s="344"/>
-      <c r="AD6" s="344"/>
+      <c r="N6" s="347"/>
+      <c r="O6" s="347"/>
+      <c r="P6" s="347"/>
+      <c r="Q6" s="347"/>
+      <c r="R6" s="347"/>
+      <c r="S6" s="347"/>
+      <c r="T6" s="347"/>
+      <c r="U6" s="347"/>
+      <c r="V6" s="347"/>
+      <c r="W6" s="347"/>
+      <c r="X6" s="347"/>
+      <c r="Y6" s="347"/>
+      <c r="Z6" s="347"/>
+      <c r="AA6" s="347"/>
+      <c r="AB6" s="347"/>
+      <c r="AC6" s="347"/>
+      <c r="AD6" s="347"/>
     </row>
     <row r="7" spans="4:30">
       <c r="D7" s="181"/>
@@ -8753,26 +8699,26 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="344">
+      <c r="M7" s="347">
         <v>6</v>
       </c>
-      <c r="N7" s="344"/>
-      <c r="O7" s="344"/>
-      <c r="P7" s="344"/>
-      <c r="Q7" s="344"/>
-      <c r="R7" s="344"/>
-      <c r="S7" s="344"/>
-      <c r="T7" s="344"/>
-      <c r="U7" s="344"/>
-      <c r="V7" s="344"/>
-      <c r="W7" s="344"/>
-      <c r="X7" s="344"/>
-      <c r="Y7" s="344"/>
-      <c r="Z7" s="344"/>
-      <c r="AA7" s="344"/>
-      <c r="AB7" s="344"/>
-      <c r="AC7" s="344"/>
-      <c r="AD7" s="344"/>
+      <c r="N7" s="347"/>
+      <c r="O7" s="347"/>
+      <c r="P7" s="347"/>
+      <c r="Q7" s="347"/>
+      <c r="R7" s="347"/>
+      <c r="S7" s="347"/>
+      <c r="T7" s="347"/>
+      <c r="U7" s="347"/>
+      <c r="V7" s="347"/>
+      <c r="W7" s="347"/>
+      <c r="X7" s="347"/>
+      <c r="Y7" s="347"/>
+      <c r="Z7" s="347"/>
+      <c r="AA7" s="347"/>
+      <c r="AB7" s="347"/>
+      <c r="AC7" s="347"/>
+      <c r="AD7" s="347"/>
     </row>
     <row r="8" spans="4:30">
       <c r="D8" s="9"/>
@@ -8886,7 +8832,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="319"/>
+      <c r="M10" s="318"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
       <c r="P10" s="24"/>
@@ -8919,10 +8865,10 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="319"/>
+      <c r="M11" s="318"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
-      <c r="P11" s="319"/>
+      <c r="P11" s="318"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="24"/>
       <c r="S11" s="16"/>
@@ -8955,7 +8901,7 @@
       <c r="M12" s="16"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
-      <c r="P12" s="319"/>
+      <c r="P12" s="318"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="24"/>
       <c r="S12" s="16"/>
@@ -8989,7 +8935,7 @@
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="P13" s="24"/>
-      <c r="Q13" s="319"/>
+      <c r="Q13" s="318"/>
       <c r="R13" s="24"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
@@ -9023,12 +8969,12 @@
       <c r="O14" s="17"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="319"/>
-      <c r="S14" s="319"/>
-      <c r="T14" s="319"/>
+      <c r="R14" s="318"/>
+      <c r="S14" s="318"/>
+      <c r="T14" s="318"/>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
-      <c r="W14" s="319"/>
+      <c r="W14" s="318"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
@@ -9062,7 +9008,7 @@
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
       <c r="W15" s="16"/>
-      <c r="X15" s="319"/>
+      <c r="X15" s="318"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
@@ -9096,7 +9042,7 @@
       <c r="V16" s="17"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
-      <c r="Y16" s="319"/>
+      <c r="Y16" s="318"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
       <c r="AB16" s="17"/>
@@ -9106,10 +9052,10 @@
     <row r="17" spans="2:30">
       <c r="D17" s="22"/>
       <c r="E17" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
@@ -9134,7 +9080,7 @@
       <c r="AA17" s="24"/>
       <c r="AB17" s="17"/>
       <c r="AC17" s="17"/>
-      <c r="AD17" s="319"/>
+      <c r="AD17" s="318"/>
     </row>
     <row r="23" spans="2:30" ht="24">
       <c r="B23" s="1" t="s">
@@ -9161,13 +9107,13 @@
       <c r="H25" s="180"/>
       <c r="I25" s="180"/>
       <c r="J25" s="180"/>
-      <c r="K25" s="369" t="s">
+      <c r="K25" s="380" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="365" t="s">
+      <c r="L25" s="378" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="365" t="s">
+      <c r="M25" s="378" t="s">
         <v>22</v>
       </c>
       <c r="N25" s="196">
@@ -9192,9 +9138,9 @@
       <c r="H26" s="183"/>
       <c r="I26" s="183"/>
       <c r="J26" s="183"/>
-      <c r="K26" s="370"/>
-      <c r="L26" s="366"/>
-      <c r="M26" s="366"/>
+      <c r="K26" s="381"/>
+      <c r="L26" s="379"/>
+      <c r="M26" s="379"/>
       <c r="N26" s="199">
         <v>43994</v>
       </c>
@@ -9277,18 +9223,18 @@
     </row>
     <row r="29" spans="2:30">
       <c r="B29" s="208"/>
-      <c r="C29" s="367" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="356"/>
-      <c r="E29" s="356"/>
-      <c r="F29" s="356"/>
-      <c r="G29" s="356"/>
-      <c r="H29" s="356"/>
-      <c r="I29" s="356"/>
-      <c r="J29" s="357"/>
-      <c r="K29" s="361" t="s">
-        <v>73</v>
+      <c r="C29" s="369" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="359"/>
+      <c r="E29" s="359"/>
+      <c r="F29" s="359"/>
+      <c r="G29" s="359"/>
+      <c r="H29" s="359"/>
+      <c r="I29" s="359"/>
+      <c r="J29" s="360"/>
+      <c r="K29" s="364" t="s">
+        <v>72</v>
       </c>
       <c r="L29" s="368">
         <v>1</v>
@@ -9308,16 +9254,16 @@
     </row>
     <row r="30" spans="2:30">
       <c r="B30" s="208"/>
-      <c r="C30" s="359"/>
-      <c r="D30" s="359"/>
-      <c r="E30" s="359"/>
-      <c r="F30" s="359"/>
-      <c r="G30" s="359"/>
-      <c r="H30" s="359"/>
-      <c r="I30" s="359"/>
-      <c r="J30" s="360"/>
-      <c r="K30" s="362"/>
-      <c r="L30" s="362"/>
+      <c r="C30" s="362"/>
+      <c r="D30" s="362"/>
+      <c r="E30" s="362"/>
+      <c r="F30" s="362"/>
+      <c r="G30" s="362"/>
+      <c r="H30" s="362"/>
+      <c r="I30" s="362"/>
+      <c r="J30" s="363"/>
+      <c r="K30" s="365"/>
+      <c r="L30" s="365"/>
       <c r="M30" s="214" t="s">
         <v>27</v>
       </c>
@@ -9333,18 +9279,18 @@
     </row>
     <row r="31" spans="2:30">
       <c r="B31" s="208"/>
-      <c r="C31" s="367" t="s">
+      <c r="C31" s="369" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="356"/>
-      <c r="E31" s="356"/>
-      <c r="F31" s="356"/>
-      <c r="G31" s="356"/>
-      <c r="H31" s="356"/>
-      <c r="I31" s="356"/>
-      <c r="J31" s="357"/>
-      <c r="K31" s="361" t="s">
-        <v>74</v>
+      <c r="D31" s="359"/>
+      <c r="E31" s="359"/>
+      <c r="F31" s="359"/>
+      <c r="G31" s="359"/>
+      <c r="H31" s="359"/>
+      <c r="I31" s="359"/>
+      <c r="J31" s="360"/>
+      <c r="K31" s="364" t="s">
+        <v>73</v>
       </c>
       <c r="L31" s="368">
         <v>1</v>
@@ -9364,16 +9310,16 @@
     </row>
     <row r="32" spans="2:30">
       <c r="B32" s="208"/>
-      <c r="C32" s="359"/>
-      <c r="D32" s="359"/>
-      <c r="E32" s="359"/>
-      <c r="F32" s="359"/>
-      <c r="G32" s="359"/>
-      <c r="H32" s="359"/>
-      <c r="I32" s="359"/>
-      <c r="J32" s="360"/>
-      <c r="K32" s="362"/>
-      <c r="L32" s="362"/>
+      <c r="C32" s="362"/>
+      <c r="D32" s="362"/>
+      <c r="E32" s="362"/>
+      <c r="F32" s="362"/>
+      <c r="G32" s="362"/>
+      <c r="H32" s="362"/>
+      <c r="I32" s="362"/>
+      <c r="J32" s="363"/>
+      <c r="K32" s="365"/>
+      <c r="L32" s="365"/>
       <c r="M32" s="214" t="s">
         <v>27</v>
       </c>
@@ -9389,18 +9335,18 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="208"/>
-      <c r="C33" s="367" t="s">
+      <c r="C33" s="369" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="356"/>
-      <c r="E33" s="356"/>
-      <c r="F33" s="356"/>
-      <c r="G33" s="356"/>
-      <c r="H33" s="356"/>
-      <c r="I33" s="356"/>
-      <c r="J33" s="357"/>
-      <c r="K33" s="361" t="s">
-        <v>78</v>
+      <c r="D33" s="359"/>
+      <c r="E33" s="359"/>
+      <c r="F33" s="359"/>
+      <c r="G33" s="359"/>
+      <c r="H33" s="359"/>
+      <c r="I33" s="359"/>
+      <c r="J33" s="360"/>
+      <c r="K33" s="364" t="s">
+        <v>77</v>
       </c>
       <c r="L33" s="368">
         <v>1</v>
@@ -9420,16 +9366,16 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="208"/>
-      <c r="C34" s="359"/>
-      <c r="D34" s="359"/>
-      <c r="E34" s="359"/>
-      <c r="F34" s="359"/>
-      <c r="G34" s="359"/>
-      <c r="H34" s="359"/>
-      <c r="I34" s="359"/>
-      <c r="J34" s="360"/>
-      <c r="K34" s="362"/>
-      <c r="L34" s="362"/>
+      <c r="C34" s="362"/>
+      <c r="D34" s="362"/>
+      <c r="E34" s="362"/>
+      <c r="F34" s="362"/>
+      <c r="G34" s="362"/>
+      <c r="H34" s="362"/>
+      <c r="I34" s="362"/>
+      <c r="J34" s="363"/>
+      <c r="K34" s="365"/>
+      <c r="L34" s="365"/>
       <c r="M34" s="214" t="s">
         <v>27</v>
       </c>
@@ -9445,18 +9391,18 @@
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="208"/>
-      <c r="C35" s="367" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="356"/>
-      <c r="E35" s="356"/>
-      <c r="F35" s="356"/>
-      <c r="G35" s="356"/>
-      <c r="H35" s="356"/>
-      <c r="I35" s="356"/>
-      <c r="J35" s="357"/>
-      <c r="K35" s="361" t="s">
-        <v>89</v>
+      <c r="C35" s="369" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="359"/>
+      <c r="E35" s="359"/>
+      <c r="F35" s="359"/>
+      <c r="G35" s="359"/>
+      <c r="H35" s="359"/>
+      <c r="I35" s="359"/>
+      <c r="J35" s="360"/>
+      <c r="K35" s="364" t="s">
+        <v>88</v>
       </c>
       <c r="L35" s="368">
         <v>1</v>
@@ -9476,16 +9422,16 @@
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="208"/>
-      <c r="C36" s="359"/>
-      <c r="D36" s="359"/>
-      <c r="E36" s="359"/>
-      <c r="F36" s="359"/>
-      <c r="G36" s="359"/>
-      <c r="H36" s="359"/>
-      <c r="I36" s="359"/>
-      <c r="J36" s="360"/>
-      <c r="K36" s="362"/>
-      <c r="L36" s="362"/>
+      <c r="C36" s="362"/>
+      <c r="D36" s="362"/>
+      <c r="E36" s="362"/>
+      <c r="F36" s="362"/>
+      <c r="G36" s="362"/>
+      <c r="H36" s="362"/>
+      <c r="I36" s="362"/>
+      <c r="J36" s="363"/>
+      <c r="K36" s="365"/>
+      <c r="L36" s="365"/>
       <c r="M36" s="214" t="s">
         <v>27</v>
       </c>
@@ -9501,18 +9447,18 @@
     </row>
     <row r="37" spans="2:22">
       <c r="B37" s="208"/>
-      <c r="C37" s="367" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="356"/>
-      <c r="E37" s="356"/>
-      <c r="F37" s="356"/>
-      <c r="G37" s="356"/>
-      <c r="H37" s="356"/>
-      <c r="I37" s="356"/>
-      <c r="J37" s="357"/>
-      <c r="K37" s="361" t="s">
-        <v>74</v>
+      <c r="C37" s="369" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="359"/>
+      <c r="E37" s="359"/>
+      <c r="F37" s="359"/>
+      <c r="G37" s="359"/>
+      <c r="H37" s="359"/>
+      <c r="I37" s="359"/>
+      <c r="J37" s="360"/>
+      <c r="K37" s="364" t="s">
+        <v>73</v>
       </c>
       <c r="L37" s="368">
         <v>1</v>
@@ -9532,16 +9478,16 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="208"/>
-      <c r="C38" s="359"/>
-      <c r="D38" s="359"/>
-      <c r="E38" s="359"/>
-      <c r="F38" s="359"/>
-      <c r="G38" s="359"/>
-      <c r="H38" s="359"/>
-      <c r="I38" s="359"/>
-      <c r="J38" s="360"/>
-      <c r="K38" s="362"/>
-      <c r="L38" s="362"/>
+      <c r="C38" s="362"/>
+      <c r="D38" s="362"/>
+      <c r="E38" s="362"/>
+      <c r="F38" s="362"/>
+      <c r="G38" s="362"/>
+      <c r="H38" s="362"/>
+      <c r="I38" s="362"/>
+      <c r="J38" s="363"/>
+      <c r="K38" s="365"/>
+      <c r="L38" s="365"/>
       <c r="M38" s="214" t="s">
         <v>27</v>
       </c>
@@ -9557,18 +9503,18 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="208"/>
-      <c r="C39" s="367" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="356"/>
-      <c r="E39" s="356"/>
-      <c r="F39" s="356"/>
-      <c r="G39" s="356"/>
-      <c r="H39" s="356"/>
-      <c r="I39" s="356"/>
-      <c r="J39" s="357"/>
-      <c r="K39" s="361" t="s">
-        <v>77</v>
+      <c r="C39" s="369" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="359"/>
+      <c r="E39" s="359"/>
+      <c r="F39" s="359"/>
+      <c r="G39" s="359"/>
+      <c r="H39" s="359"/>
+      <c r="I39" s="359"/>
+      <c r="J39" s="360"/>
+      <c r="K39" s="364" t="s">
+        <v>76</v>
       </c>
       <c r="L39" s="368">
         <v>1</v>
@@ -9588,16 +9534,16 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" s="208"/>
-      <c r="C40" s="359"/>
-      <c r="D40" s="359"/>
-      <c r="E40" s="359"/>
-      <c r="F40" s="359"/>
-      <c r="G40" s="359"/>
-      <c r="H40" s="359"/>
-      <c r="I40" s="359"/>
-      <c r="J40" s="360"/>
-      <c r="K40" s="362"/>
-      <c r="L40" s="362"/>
+      <c r="C40" s="362"/>
+      <c r="D40" s="362"/>
+      <c r="E40" s="362"/>
+      <c r="F40" s="362"/>
+      <c r="G40" s="362"/>
+      <c r="H40" s="362"/>
+      <c r="I40" s="362"/>
+      <c r="J40" s="363"/>
+      <c r="K40" s="365"/>
+      <c r="L40" s="365"/>
       <c r="M40" s="214" t="s">
         <v>27</v>
       </c>
@@ -9613,18 +9559,18 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="208"/>
-      <c r="C41" s="367" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="356"/>
-      <c r="E41" s="356"/>
-      <c r="F41" s="356"/>
-      <c r="G41" s="356"/>
-      <c r="H41" s="356"/>
-      <c r="I41" s="356"/>
-      <c r="J41" s="357"/>
-      <c r="K41" s="361" t="s">
-        <v>73</v>
+      <c r="C41" s="369" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="359"/>
+      <c r="E41" s="359"/>
+      <c r="F41" s="359"/>
+      <c r="G41" s="359"/>
+      <c r="H41" s="359"/>
+      <c r="I41" s="359"/>
+      <c r="J41" s="360"/>
+      <c r="K41" s="364" t="s">
+        <v>72</v>
       </c>
       <c r="L41" s="368">
         <v>1</v>
@@ -9644,16 +9590,16 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="208"/>
-      <c r="C42" s="359"/>
-      <c r="D42" s="359"/>
-      <c r="E42" s="359"/>
-      <c r="F42" s="359"/>
-      <c r="G42" s="359"/>
-      <c r="H42" s="359"/>
-      <c r="I42" s="359"/>
-      <c r="J42" s="360"/>
-      <c r="K42" s="362"/>
-      <c r="L42" s="362"/>
+      <c r="C42" s="362"/>
+      <c r="D42" s="362"/>
+      <c r="E42" s="362"/>
+      <c r="F42" s="362"/>
+      <c r="G42" s="362"/>
+      <c r="H42" s="362"/>
+      <c r="I42" s="362"/>
+      <c r="J42" s="363"/>
+      <c r="K42" s="365"/>
+      <c r="L42" s="365"/>
       <c r="M42" s="214" t="s">
         <v>27</v>
       </c>
@@ -9669,18 +9615,18 @@
     </row>
     <row r="43" spans="2:22">
       <c r="B43" s="208"/>
-      <c r="C43" s="371" t="s">
+      <c r="C43" s="370" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="371"/>
+      <c r="E43" s="371"/>
+      <c r="F43" s="371"/>
+      <c r="G43" s="371"/>
+      <c r="H43" s="371"/>
+      <c r="I43" s="371"/>
+      <c r="J43" s="372"/>
+      <c r="K43" s="364" t="s">
         <v>92</v>
-      </c>
-      <c r="D43" s="372"/>
-      <c r="E43" s="372"/>
-      <c r="F43" s="372"/>
-      <c r="G43" s="372"/>
-      <c r="H43" s="372"/>
-      <c r="I43" s="372"/>
-      <c r="J43" s="373"/>
-      <c r="K43" s="361" t="s">
-        <v>93</v>
       </c>
       <c r="L43" s="368">
         <v>1</v>
@@ -9700,16 +9646,16 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" s="208"/>
-      <c r="C44" s="374"/>
-      <c r="D44" s="375"/>
-      <c r="E44" s="375"/>
-      <c r="F44" s="375"/>
-      <c r="G44" s="375"/>
-      <c r="H44" s="375"/>
-      <c r="I44" s="375"/>
-      <c r="J44" s="376"/>
-      <c r="K44" s="378"/>
-      <c r="L44" s="362"/>
+      <c r="C44" s="373"/>
+      <c r="D44" s="374"/>
+      <c r="E44" s="374"/>
+      <c r="F44" s="374"/>
+      <c r="G44" s="374"/>
+      <c r="H44" s="374"/>
+      <c r="I44" s="374"/>
+      <c r="J44" s="375"/>
+      <c r="K44" s="377"/>
+      <c r="L44" s="365"/>
       <c r="M44" s="214" t="s">
         <v>27</v>
       </c>
@@ -9725,18 +9671,18 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="208"/>
-      <c r="C45" s="371" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="372"/>
-      <c r="E45" s="372"/>
-      <c r="F45" s="372"/>
-      <c r="G45" s="372"/>
-      <c r="H45" s="372"/>
-      <c r="I45" s="372"/>
-      <c r="J45" s="373"/>
-      <c r="K45" s="377" t="s">
-        <v>77</v>
+      <c r="C45" s="370" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="371"/>
+      <c r="E45" s="371"/>
+      <c r="F45" s="371"/>
+      <c r="G45" s="371"/>
+      <c r="H45" s="371"/>
+      <c r="I45" s="371"/>
+      <c r="J45" s="372"/>
+      <c r="K45" s="376" t="s">
+        <v>76</v>
       </c>
       <c r="L45" s="368">
         <v>1</v>
@@ -9756,16 +9702,16 @@
     </row>
     <row r="46" spans="2:22">
       <c r="B46" s="208"/>
-      <c r="C46" s="374"/>
-      <c r="D46" s="375"/>
-      <c r="E46" s="375"/>
-      <c r="F46" s="375"/>
-      <c r="G46" s="375"/>
-      <c r="H46" s="375"/>
-      <c r="I46" s="375"/>
-      <c r="J46" s="376"/>
-      <c r="K46" s="362"/>
-      <c r="L46" s="362"/>
+      <c r="C46" s="373"/>
+      <c r="D46" s="374"/>
+      <c r="E46" s="374"/>
+      <c r="F46" s="374"/>
+      <c r="G46" s="374"/>
+      <c r="H46" s="374"/>
+      <c r="I46" s="374"/>
+      <c r="J46" s="375"/>
+      <c r="K46" s="365"/>
+      <c r="L46" s="365"/>
       <c r="M46" s="214" t="s">
         <v>27</v>
       </c>
@@ -9781,18 +9727,18 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" s="208"/>
-      <c r="C47" s="367" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="356"/>
-      <c r="E47" s="356"/>
-      <c r="F47" s="356"/>
-      <c r="G47" s="356"/>
-      <c r="H47" s="356"/>
-      <c r="I47" s="356"/>
-      <c r="J47" s="357"/>
-      <c r="K47" s="361" t="s">
-        <v>79</v>
+      <c r="C47" s="369" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="359"/>
+      <c r="E47" s="359"/>
+      <c r="F47" s="359"/>
+      <c r="G47" s="359"/>
+      <c r="H47" s="359"/>
+      <c r="I47" s="359"/>
+      <c r="J47" s="360"/>
+      <c r="K47" s="364" t="s">
+        <v>78</v>
       </c>
       <c r="L47" s="368">
         <v>1</v>
@@ -9812,16 +9758,16 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="208"/>
-      <c r="C48" s="359"/>
-      <c r="D48" s="359"/>
-      <c r="E48" s="359"/>
-      <c r="F48" s="359"/>
-      <c r="G48" s="359"/>
-      <c r="H48" s="359"/>
-      <c r="I48" s="359"/>
-      <c r="J48" s="360"/>
-      <c r="K48" s="362"/>
-      <c r="L48" s="362"/>
+      <c r="C48" s="362"/>
+      <c r="D48" s="362"/>
+      <c r="E48" s="362"/>
+      <c r="F48" s="362"/>
+      <c r="G48" s="362"/>
+      <c r="H48" s="362"/>
+      <c r="I48" s="362"/>
+      <c r="J48" s="363"/>
+      <c r="K48" s="365"/>
+      <c r="L48" s="365"/>
       <c r="M48" s="214" t="s">
         <v>27</v>
       </c>
@@ -9861,7 +9807,7 @@
     <row r="50" spans="2:22" ht="18.75">
       <c r="B50" s="208"/>
       <c r="C50" s="222" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D50" s="177"/>
       <c r="E50" s="177"/>
@@ -9885,17 +9831,17 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="208"/>
-      <c r="C51" s="367" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="356"/>
-      <c r="E51" s="356"/>
-      <c r="F51" s="356"/>
-      <c r="G51" s="356"/>
-      <c r="H51" s="356"/>
-      <c r="I51" s="356"/>
-      <c r="J51" s="357"/>
-      <c r="K51" s="361" t="s">
+      <c r="C51" s="369" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="359"/>
+      <c r="E51" s="359"/>
+      <c r="F51" s="359"/>
+      <c r="G51" s="359"/>
+      <c r="H51" s="359"/>
+      <c r="I51" s="359"/>
+      <c r="J51" s="360"/>
+      <c r="K51" s="364" t="s">
         <v>52</v>
       </c>
       <c r="L51" s="368">
@@ -9916,18 +9862,18 @@
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="208"/>
-      <c r="C52" s="359"/>
-      <c r="D52" s="359"/>
-      <c r="E52" s="359"/>
-      <c r="F52" s="359"/>
-      <c r="G52" s="359"/>
-      <c r="H52" s="359"/>
-      <c r="I52" s="359"/>
-      <c r="J52" s="360"/>
-      <c r="K52" s="362" t="s">
+      <c r="C52" s="362"/>
+      <c r="D52" s="362"/>
+      <c r="E52" s="362"/>
+      <c r="F52" s="362"/>
+      <c r="G52" s="362"/>
+      <c r="H52" s="362"/>
+      <c r="I52" s="362"/>
+      <c r="J52" s="363"/>
+      <c r="K52" s="365" t="s">
         <v>29</v>
       </c>
-      <c r="L52" s="362"/>
+      <c r="L52" s="365"/>
       <c r="M52" s="214" t="s">
         <v>27</v>
       </c>
@@ -9943,17 +9889,17 @@
     </row>
     <row r="53" spans="2:22">
       <c r="B53" s="208"/>
-      <c r="C53" s="367" t="s">
+      <c r="C53" s="369" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="356"/>
-      <c r="E53" s="356"/>
-      <c r="F53" s="356"/>
-      <c r="G53" s="356"/>
-      <c r="H53" s="356"/>
-      <c r="I53" s="356"/>
-      <c r="J53" s="357"/>
-      <c r="K53" s="361" t="s">
+      <c r="D53" s="359"/>
+      <c r="E53" s="359"/>
+      <c r="F53" s="359"/>
+      <c r="G53" s="359"/>
+      <c r="H53" s="359"/>
+      <c r="I53" s="359"/>
+      <c r="J53" s="360"/>
+      <c r="K53" s="364" t="s">
         <v>52</v>
       </c>
       <c r="L53" s="368">
@@ -9974,18 +9920,18 @@
     </row>
     <row r="54" spans="2:22">
       <c r="B54" s="228"/>
-      <c r="C54" s="359"/>
-      <c r="D54" s="359"/>
-      <c r="E54" s="359"/>
-      <c r="F54" s="359"/>
-      <c r="G54" s="359"/>
-      <c r="H54" s="359"/>
-      <c r="I54" s="359"/>
-      <c r="J54" s="360"/>
-      <c r="K54" s="362" t="s">
+      <c r="C54" s="362"/>
+      <c r="D54" s="362"/>
+      <c r="E54" s="362"/>
+      <c r="F54" s="362"/>
+      <c r="G54" s="362"/>
+      <c r="H54" s="362"/>
+      <c r="I54" s="362"/>
+      <c r="J54" s="363"/>
+      <c r="K54" s="365" t="s">
         <v>29</v>
       </c>
-      <c r="L54" s="362"/>
+      <c r="L54" s="365"/>
       <c r="M54" s="214" t="s">
         <v>27</v>
       </c>
@@ -10001,6 +9947,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="C53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="C35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="C37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="C51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="C39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
     <mergeCell ref="M7:AD7"/>
     <mergeCell ref="M6:AD6"/>
     <mergeCell ref="L43:L44"/>
@@ -10017,31 +9988,6 @@
     <mergeCell ref="C31:J32"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="L31:L32"/>
-    <mergeCell ref="C53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="C35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="C37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="C51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="C39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -10059,7 +10005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F374A825-0ACA-4ABA-B702-C96B0AEE07F8}">
   <dimension ref="B6:AG48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
   <cols>
@@ -10086,26 +10032,26 @@
       <c r="J8" s="180"/>
       <c r="K8" s="180"/>
       <c r="L8" s="180"/>
-      <c r="M8" s="344">
+      <c r="M8" s="347">
         <v>2020</v>
       </c>
-      <c r="N8" s="344"/>
-      <c r="O8" s="344"/>
-      <c r="P8" s="344"/>
-      <c r="Q8" s="344"/>
-      <c r="R8" s="344"/>
-      <c r="S8" s="344"/>
-      <c r="T8" s="344"/>
-      <c r="U8" s="344"/>
-      <c r="V8" s="344"/>
-      <c r="W8" s="344"/>
-      <c r="X8" s="344"/>
-      <c r="Y8" s="344"/>
-      <c r="Z8" s="344"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="344"/>
-      <c r="AC8" s="344"/>
-      <c r="AD8" s="344"/>
+      <c r="N8" s="347"/>
+      <c r="O8" s="347"/>
+      <c r="P8" s="347"/>
+      <c r="Q8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="347"/>
+      <c r="T8" s="347"/>
+      <c r="U8" s="347"/>
+      <c r="V8" s="347"/>
+      <c r="W8" s="347"/>
+      <c r="X8" s="347"/>
+      <c r="Y8" s="347"/>
+      <c r="Z8" s="347"/>
+      <c r="AA8" s="347"/>
+      <c r="AB8" s="347"/>
+      <c r="AC8" s="347"/>
+      <c r="AD8" s="347"/>
     </row>
     <row r="9" spans="4:30">
       <c r="D9" s="181"/>
@@ -10117,26 +10063,26 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="344">
+      <c r="M9" s="347">
         <v>6</v>
       </c>
-      <c r="N9" s="344"/>
-      <c r="O9" s="344"/>
-      <c r="P9" s="344"/>
-      <c r="Q9" s="344"/>
-      <c r="R9" s="344"/>
-      <c r="S9" s="344"/>
-      <c r="T9" s="344"/>
-      <c r="U9" s="344"/>
-      <c r="V9" s="344"/>
-      <c r="W9" s="344"/>
-      <c r="X9" s="344"/>
-      <c r="Y9" s="344"/>
-      <c r="Z9" s="344"/>
-      <c r="AA9" s="344"/>
-      <c r="AB9" s="344"/>
-      <c r="AC9" s="344"/>
-      <c r="AD9" s="344"/>
+      <c r="N9" s="347"/>
+      <c r="O9" s="347"/>
+      <c r="P9" s="347"/>
+      <c r="Q9" s="347"/>
+      <c r="R9" s="347"/>
+      <c r="S9" s="347"/>
+      <c r="T9" s="347"/>
+      <c r="U9" s="347"/>
+      <c r="V9" s="347"/>
+      <c r="W9" s="347"/>
+      <c r="X9" s="347"/>
+      <c r="Y9" s="347"/>
+      <c r="Z9" s="347"/>
+      <c r="AA9" s="347"/>
+      <c r="AB9" s="347"/>
+      <c r="AC9" s="347"/>
+      <c r="AD9" s="347"/>
     </row>
     <row r="10" spans="4:30">
       <c r="D10" s="9"/>
@@ -10250,7 +10196,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="319"/>
+      <c r="M12" s="318"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="P12" s="24"/>
@@ -10283,10 +10229,10 @@
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="319"/>
+      <c r="M13" s="318"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
-      <c r="P13" s="319"/>
+      <c r="P13" s="318"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="24"/>
       <c r="S13" s="16"/>
@@ -10319,7 +10265,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
-      <c r="P14" s="319"/>
+      <c r="P14" s="318"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="24"/>
       <c r="S14" s="16"/>
@@ -10353,7 +10299,7 @@
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="24"/>
-      <c r="Q15" s="319"/>
+      <c r="Q15" s="318"/>
       <c r="R15" s="24"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
@@ -10387,12 +10333,12 @@
       <c r="O16" s="17"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="16"/>
-      <c r="R16" s="319"/>
-      <c r="S16" s="319"/>
-      <c r="T16" s="319"/>
+      <c r="R16" s="318"/>
+      <c r="S16" s="318"/>
+      <c r="T16" s="318"/>
       <c r="U16" s="17"/>
       <c r="V16" s="17"/>
-      <c r="W16" s="319"/>
+      <c r="W16" s="318"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
@@ -10426,7 +10372,7 @@
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
       <c r="W17" s="16"/>
-      <c r="X17" s="319"/>
+      <c r="X17" s="318"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="16"/>
@@ -10460,7 +10406,7 @@
       <c r="V18" s="17"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
-      <c r="Y18" s="319"/>
+      <c r="Y18" s="318"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
       <c r="AB18" s="17"/>
@@ -10470,10 +10416,10 @@
     <row r="19" spans="2:33">
       <c r="D19" s="22"/>
       <c r="E19" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -10498,11 +10444,11 @@
       <c r="AA19" s="24"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
-      <c r="AD19" s="319"/>
+      <c r="AD19" s="318"/>
     </row>
     <row r="23" spans="2:33" ht="24">
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:33">
@@ -10525,13 +10471,13 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="369" t="s">
+      <c r="K25" s="380" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="365" t="s">
+      <c r="L25" s="378" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="365" t="s">
+      <c r="M25" s="378" t="s">
         <v>22</v>
       </c>
       <c r="N25" s="138">
@@ -10542,7 +10488,7 @@
       <c r="Q25" s="139"/>
       <c r="R25" s="139"/>
       <c r="S25" s="139"/>
-      <c r="T25" s="299"/>
+      <c r="T25" s="298"/>
       <c r="U25" s="139"/>
       <c r="V25" s="140"/>
       <c r="W25" s="198"/>
@@ -10560,9 +10506,9 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="370"/>
-      <c r="L26" s="366"/>
-      <c r="M26" s="366"/>
+      <c r="K26" s="381"/>
+      <c r="L26" s="379"/>
+      <c r="M26" s="379"/>
       <c r="N26" s="141">
         <v>43999</v>
       </c>
@@ -10581,7 +10527,7 @@
       <c r="S26" s="292">
         <v>44004</v>
       </c>
-      <c r="T26" s="300">
+      <c r="T26" s="299">
         <v>44005</v>
       </c>
       <c r="U26" s="141">
@@ -10608,7 +10554,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="150" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="142"/>
       <c r="E27" s="142"/>
@@ -10626,7 +10572,7 @@
       <c r="Q27" s="261"/>
       <c r="R27" s="261"/>
       <c r="S27" s="293"/>
-      <c r="T27" s="301"/>
+      <c r="T27" s="300"/>
       <c r="U27" s="229"/>
       <c r="V27" s="229"/>
       <c r="W27" s="229"/>
@@ -10636,18 +10582,18 @@
     </row>
     <row r="28" spans="2:33">
       <c r="B28" s="18"/>
-      <c r="C28" s="367" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="356"/>
-      <c r="E28" s="356"/>
-      <c r="F28" s="356"/>
-      <c r="G28" s="356"/>
-      <c r="H28" s="356"/>
-      <c r="I28" s="356"/>
-      <c r="J28" s="357"/>
-      <c r="K28" s="361" t="s">
-        <v>78</v>
+      <c r="C28" s="369" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="359"/>
+      <c r="E28" s="359"/>
+      <c r="F28" s="359"/>
+      <c r="G28" s="359"/>
+      <c r="H28" s="359"/>
+      <c r="I28" s="359"/>
+      <c r="J28" s="360"/>
+      <c r="K28" s="364" t="s">
+        <v>77</v>
       </c>
       <c r="L28" s="368">
         <v>1</v>
@@ -10661,7 +10607,7 @@
       <c r="Q28" s="262"/>
       <c r="R28" s="262"/>
       <c r="S28" s="296"/>
-      <c r="T28" s="302"/>
+      <c r="T28" s="301"/>
       <c r="U28" s="189"/>
       <c r="V28" s="189"/>
       <c r="W28" s="189"/>
@@ -10672,16 +10618,16 @@
     </row>
     <row r="29" spans="2:33">
       <c r="B29" s="18"/>
-      <c r="C29" s="359"/>
-      <c r="D29" s="359"/>
-      <c r="E29" s="359"/>
-      <c r="F29" s="359"/>
-      <c r="G29" s="359"/>
-      <c r="H29" s="359"/>
-      <c r="I29" s="359"/>
-      <c r="J29" s="360"/>
-      <c r="K29" s="362"/>
-      <c r="L29" s="362"/>
+      <c r="C29" s="362"/>
+      <c r="D29" s="362"/>
+      <c r="E29" s="362"/>
+      <c r="F29" s="362"/>
+      <c r="G29" s="362"/>
+      <c r="H29" s="362"/>
+      <c r="I29" s="362"/>
+      <c r="J29" s="363"/>
+      <c r="K29" s="365"/>
+      <c r="L29" s="365"/>
       <c r="M29" s="146" t="s">
         <v>27</v>
       </c>
@@ -10691,7 +10637,7 @@
       <c r="Q29" s="263"/>
       <c r="R29" s="263"/>
       <c r="S29" s="295"/>
-      <c r="T29" s="303"/>
+      <c r="T29" s="302"/>
       <c r="U29" s="190"/>
       <c r="V29" s="190"/>
       <c r="W29" s="190"/>
@@ -10701,18 +10647,18 @@
     </row>
     <row r="30" spans="2:33">
       <c r="B30" s="18"/>
-      <c r="C30" s="367" t="s">
+      <c r="C30" s="369" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="356"/>
-      <c r="E30" s="356"/>
-      <c r="F30" s="356"/>
-      <c r="G30" s="356"/>
-      <c r="H30" s="356"/>
-      <c r="I30" s="356"/>
-      <c r="J30" s="357"/>
-      <c r="K30" s="361" t="s">
-        <v>79</v>
+      <c r="D30" s="359"/>
+      <c r="E30" s="359"/>
+      <c r="F30" s="359"/>
+      <c r="G30" s="359"/>
+      <c r="H30" s="359"/>
+      <c r="I30" s="359"/>
+      <c r="J30" s="360"/>
+      <c r="K30" s="364" t="s">
+        <v>78</v>
       </c>
       <c r="L30" s="368">
         <v>1</v>
@@ -10726,7 +10672,7 @@
       <c r="Q30" s="264"/>
       <c r="R30" s="262"/>
       <c r="S30" s="296"/>
-      <c r="T30" s="302"/>
+      <c r="T30" s="301"/>
       <c r="U30" s="189"/>
       <c r="V30" s="189"/>
       <c r="W30" s="189"/>
@@ -10736,26 +10682,26 @@
     </row>
     <row r="31" spans="2:33">
       <c r="B31" s="18"/>
-      <c r="C31" s="359"/>
-      <c r="D31" s="359"/>
-      <c r="E31" s="359"/>
-      <c r="F31" s="359"/>
-      <c r="G31" s="359"/>
-      <c r="H31" s="359"/>
-      <c r="I31" s="359"/>
-      <c r="J31" s="360"/>
-      <c r="K31" s="362"/>
-      <c r="L31" s="362"/>
+      <c r="C31" s="362"/>
+      <c r="D31" s="362"/>
+      <c r="E31" s="362"/>
+      <c r="F31" s="362"/>
+      <c r="G31" s="362"/>
+      <c r="H31" s="362"/>
+      <c r="I31" s="362"/>
+      <c r="J31" s="363"/>
+      <c r="K31" s="365"/>
+      <c r="L31" s="365"/>
       <c r="M31" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="N31" s="312"/>
+      <c r="N31" s="311"/>
       <c r="O31" s="288"/>
-      <c r="P31" s="313"/>
+      <c r="P31" s="312"/>
       <c r="Q31" s="263"/>
       <c r="R31" s="263"/>
       <c r="S31" s="295"/>
-      <c r="T31" s="303"/>
+      <c r="T31" s="302"/>
       <c r="U31" s="190"/>
       <c r="V31" s="190"/>
       <c r="W31" s="190"/>
@@ -10765,18 +10711,18 @@
     </row>
     <row r="32" spans="2:33">
       <c r="B32" s="18"/>
-      <c r="C32" s="367" t="s">
+      <c r="C32" s="369" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="356"/>
-      <c r="E32" s="356"/>
-      <c r="F32" s="356"/>
-      <c r="G32" s="356"/>
-      <c r="H32" s="356"/>
-      <c r="I32" s="356"/>
-      <c r="J32" s="357"/>
-      <c r="K32" s="361" t="s">
-        <v>77</v>
+      <c r="D32" s="359"/>
+      <c r="E32" s="359"/>
+      <c r="F32" s="359"/>
+      <c r="G32" s="359"/>
+      <c r="H32" s="359"/>
+      <c r="I32" s="359"/>
+      <c r="J32" s="360"/>
+      <c r="K32" s="364" t="s">
+        <v>76</v>
       </c>
       <c r="L32" s="368">
         <v>1</v>
@@ -10790,7 +10736,7 @@
       <c r="Q32" s="264"/>
       <c r="R32" s="262"/>
       <c r="S32" s="296"/>
-      <c r="T32" s="302"/>
+      <c r="T32" s="301"/>
       <c r="U32" s="189"/>
       <c r="V32" s="189"/>
       <c r="W32" s="189"/>
@@ -10801,26 +10747,26 @@
     </row>
     <row r="33" spans="2:30">
       <c r="B33" s="18"/>
-      <c r="C33" s="359"/>
-      <c r="D33" s="359"/>
-      <c r="E33" s="359"/>
-      <c r="F33" s="359"/>
-      <c r="G33" s="359"/>
-      <c r="H33" s="359"/>
-      <c r="I33" s="359"/>
-      <c r="J33" s="360"/>
-      <c r="K33" s="362"/>
-      <c r="L33" s="362"/>
+      <c r="C33" s="362"/>
+      <c r="D33" s="362"/>
+      <c r="E33" s="362"/>
+      <c r="F33" s="362"/>
+      <c r="G33" s="362"/>
+      <c r="H33" s="362"/>
+      <c r="I33" s="362"/>
+      <c r="J33" s="363"/>
+      <c r="K33" s="365"/>
+      <c r="L33" s="365"/>
       <c r="M33" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="N33" s="312"/>
+      <c r="N33" s="311"/>
       <c r="O33" s="288"/>
-      <c r="P33" s="313"/>
+      <c r="P33" s="312"/>
       <c r="Q33" s="263"/>
       <c r="R33" s="263"/>
       <c r="S33" s="295"/>
-      <c r="T33" s="303"/>
+      <c r="T33" s="302"/>
       <c r="U33" s="190"/>
       <c r="V33" s="190"/>
       <c r="W33" s="190"/>
@@ -10830,18 +10776,18 @@
     </row>
     <row r="34" spans="2:30">
       <c r="B34" s="18"/>
-      <c r="C34" s="371" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="372"/>
-      <c r="E34" s="372"/>
-      <c r="F34" s="372"/>
-      <c r="G34" s="372"/>
-      <c r="H34" s="372"/>
-      <c r="I34" s="372"/>
-      <c r="J34" s="373"/>
-      <c r="K34" s="361" t="s">
-        <v>73</v>
+      <c r="C34" s="370" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="371"/>
+      <c r="E34" s="371"/>
+      <c r="F34" s="371"/>
+      <c r="G34" s="371"/>
+      <c r="H34" s="371"/>
+      <c r="I34" s="371"/>
+      <c r="J34" s="372"/>
+      <c r="K34" s="364" t="s">
+        <v>72</v>
       </c>
       <c r="L34" s="368">
         <v>0</v>
@@ -10853,9 +10799,9 @@
       <c r="O34" s="189"/>
       <c r="P34" s="189"/>
       <c r="Q34" s="262"/>
-      <c r="R34" s="311"/>
+      <c r="R34" s="310"/>
       <c r="S34" s="296"/>
-      <c r="T34" s="304"/>
+      <c r="T34" s="303"/>
       <c r="U34" s="189"/>
       <c r="V34" s="195"/>
       <c r="W34" s="195"/>
@@ -10865,16 +10811,16 @@
     </row>
     <row r="35" spans="2:30">
       <c r="B35" s="18"/>
-      <c r="C35" s="374"/>
-      <c r="D35" s="375"/>
-      <c r="E35" s="375"/>
-      <c r="F35" s="375"/>
-      <c r="G35" s="375"/>
-      <c r="H35" s="375"/>
-      <c r="I35" s="375"/>
-      <c r="J35" s="376"/>
-      <c r="K35" s="362"/>
-      <c r="L35" s="379"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="374"/>
+      <c r="E35" s="374"/>
+      <c r="F35" s="374"/>
+      <c r="G35" s="374"/>
+      <c r="H35" s="374"/>
+      <c r="I35" s="374"/>
+      <c r="J35" s="375"/>
+      <c r="K35" s="365"/>
+      <c r="L35" s="382"/>
       <c r="M35" s="146" t="s">
         <v>27</v>
       </c>
@@ -10884,7 +10830,7 @@
       <c r="Q35" s="264"/>
       <c r="R35" s="263"/>
       <c r="S35" s="295"/>
-      <c r="T35" s="303"/>
+      <c r="T35" s="302"/>
       <c r="U35" s="190"/>
       <c r="V35" s="190"/>
       <c r="W35" s="190"/>
@@ -10894,21 +10840,21 @@
     </row>
     <row r="36" spans="2:30">
       <c r="B36" s="18"/>
-      <c r="C36" s="371" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="372"/>
-      <c r="E36" s="372"/>
-      <c r="F36" s="372"/>
-      <c r="G36" s="372"/>
-      <c r="H36" s="372"/>
-      <c r="I36" s="372"/>
-      <c r="J36" s="373"/>
-      <c r="K36" s="361" t="s">
-        <v>73</v>
+      <c r="C36" s="370" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="371"/>
+      <c r="E36" s="371"/>
+      <c r="F36" s="371"/>
+      <c r="G36" s="371"/>
+      <c r="H36" s="371"/>
+      <c r="I36" s="371"/>
+      <c r="J36" s="372"/>
+      <c r="K36" s="364" t="s">
+        <v>72</v>
       </c>
       <c r="L36" s="368">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M36" s="145" t="s">
         <v>26</v>
@@ -10919,7 +10865,7 @@
       <c r="Q36" s="265"/>
       <c r="R36" s="262"/>
       <c r="S36" s="294"/>
-      <c r="T36" s="304"/>
+      <c r="T36" s="303"/>
       <c r="U36" s="189"/>
       <c r="V36" s="189"/>
       <c r="W36" s="189"/>
@@ -10929,47 +10875,47 @@
     </row>
     <row r="37" spans="2:30">
       <c r="B37" s="18"/>
-      <c r="C37" s="374"/>
-      <c r="D37" s="375"/>
-      <c r="E37" s="375"/>
-      <c r="F37" s="375"/>
-      <c r="G37" s="375"/>
-      <c r="H37" s="375"/>
-      <c r="I37" s="375"/>
-      <c r="J37" s="376"/>
-      <c r="K37" s="362"/>
-      <c r="L37" s="379"/>
+      <c r="C37" s="373"/>
+      <c r="D37" s="374"/>
+      <c r="E37" s="374"/>
+      <c r="F37" s="374"/>
+      <c r="G37" s="374"/>
+      <c r="H37" s="374"/>
+      <c r="I37" s="374"/>
+      <c r="J37" s="375"/>
+      <c r="K37" s="365"/>
+      <c r="L37" s="382"/>
       <c r="M37" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="N37" s="312"/>
+      <c r="N37" s="311"/>
       <c r="O37" s="288"/>
-      <c r="P37" s="313"/>
+      <c r="P37" s="312"/>
       <c r="Q37" s="264"/>
       <c r="R37" s="264"/>
-      <c r="S37" s="295"/>
-      <c r="T37" s="303"/>
-      <c r="U37" s="190"/>
-      <c r="V37" s="190"/>
-      <c r="W37" s="190"/>
+      <c r="S37" s="344"/>
+      <c r="T37" s="343"/>
+      <c r="U37" s="342"/>
+      <c r="V37" s="342"/>
+      <c r="W37" s="342"/>
       <c r="X37" s="157"/>
       <c r="Y37" s="157"/>
       <c r="Z37" s="190"/>
     </row>
     <row r="38" spans="2:30">
       <c r="B38" s="18"/>
-      <c r="C38" s="367" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="356"/>
-      <c r="E38" s="356"/>
-      <c r="F38" s="356"/>
-      <c r="G38" s="356"/>
-      <c r="H38" s="356"/>
-      <c r="I38" s="356"/>
-      <c r="J38" s="357"/>
-      <c r="K38" s="377" t="s">
-        <v>80</v>
+      <c r="C38" s="369" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="359"/>
+      <c r="E38" s="359"/>
+      <c r="F38" s="359"/>
+      <c r="G38" s="359"/>
+      <c r="H38" s="359"/>
+      <c r="I38" s="359"/>
+      <c r="J38" s="360"/>
+      <c r="K38" s="376" t="s">
+        <v>79</v>
       </c>
       <c r="L38" s="368">
         <v>1</v>
@@ -10983,7 +10929,7 @@
       <c r="Q38" s="262"/>
       <c r="R38" s="265"/>
       <c r="S38" s="294"/>
-      <c r="T38" s="304"/>
+      <c r="T38" s="303"/>
       <c r="U38" s="189"/>
       <c r="V38" s="189"/>
       <c r="W38" s="189"/>
@@ -10994,16 +10940,16 @@
     </row>
     <row r="39" spans="2:30">
       <c r="B39" s="18"/>
-      <c r="C39" s="359"/>
-      <c r="D39" s="359"/>
-      <c r="E39" s="359"/>
-      <c r="F39" s="359"/>
-      <c r="G39" s="359"/>
-      <c r="H39" s="359"/>
-      <c r="I39" s="359"/>
-      <c r="J39" s="360"/>
-      <c r="K39" s="362"/>
-      <c r="L39" s="362"/>
+      <c r="C39" s="362"/>
+      <c r="D39" s="362"/>
+      <c r="E39" s="362"/>
+      <c r="F39" s="362"/>
+      <c r="G39" s="362"/>
+      <c r="H39" s="362"/>
+      <c r="I39" s="362"/>
+      <c r="J39" s="363"/>
+      <c r="K39" s="365"/>
+      <c r="L39" s="365"/>
       <c r="M39" s="146" t="s">
         <v>27</v>
       </c>
@@ -11013,7 +10959,7 @@
       <c r="Q39" s="263"/>
       <c r="R39" s="263"/>
       <c r="S39" s="295"/>
-      <c r="T39" s="305"/>
+      <c r="T39" s="304"/>
       <c r="U39" s="190"/>
       <c r="V39" s="190"/>
       <c r="W39" s="190"/>
@@ -11023,18 +10969,18 @@
     </row>
     <row r="40" spans="2:30">
       <c r="B40" s="18"/>
-      <c r="C40" s="367" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="356"/>
-      <c r="E40" s="356"/>
-      <c r="F40" s="356"/>
-      <c r="G40" s="356"/>
-      <c r="H40" s="356"/>
-      <c r="I40" s="356"/>
-      <c r="J40" s="357"/>
-      <c r="K40" s="361" t="s">
-        <v>74</v>
+      <c r="C40" s="369" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="359"/>
+      <c r="E40" s="359"/>
+      <c r="F40" s="359"/>
+      <c r="G40" s="359"/>
+      <c r="H40" s="359"/>
+      <c r="I40" s="359"/>
+      <c r="J40" s="360"/>
+      <c r="K40" s="364" t="s">
+        <v>73</v>
       </c>
       <c r="L40" s="368">
         <v>0</v>
@@ -11045,10 +10991,10 @@
       <c r="N40" s="136"/>
       <c r="O40" s="189"/>
       <c r="P40" s="189"/>
-      <c r="Q40" s="311"/>
+      <c r="Q40" s="310"/>
       <c r="R40" s="264"/>
       <c r="S40" s="296"/>
-      <c r="T40" s="304"/>
+      <c r="T40" s="303"/>
       <c r="U40" s="189"/>
       <c r="V40" s="195"/>
       <c r="W40" s="195"/>
@@ -11058,16 +11004,16 @@
     </row>
     <row r="41" spans="2:30">
       <c r="B41" s="18"/>
-      <c r="C41" s="359"/>
-      <c r="D41" s="359"/>
-      <c r="E41" s="359"/>
-      <c r="F41" s="359"/>
-      <c r="G41" s="359"/>
-      <c r="H41" s="359"/>
-      <c r="I41" s="359"/>
-      <c r="J41" s="360"/>
-      <c r="K41" s="378"/>
-      <c r="L41" s="362"/>
+      <c r="C41" s="362"/>
+      <c r="D41" s="362"/>
+      <c r="E41" s="362"/>
+      <c r="F41" s="362"/>
+      <c r="G41" s="362"/>
+      <c r="H41" s="362"/>
+      <c r="I41" s="362"/>
+      <c r="J41" s="363"/>
+      <c r="K41" s="377"/>
+      <c r="L41" s="365"/>
       <c r="M41" s="146" t="s">
         <v>27</v>
       </c>
@@ -11077,7 +11023,7 @@
       <c r="Q41" s="263"/>
       <c r="R41" s="263"/>
       <c r="S41" s="295"/>
-      <c r="T41" s="303"/>
+      <c r="T41" s="302"/>
       <c r="U41" s="190"/>
       <c r="V41" s="190"/>
       <c r="W41" s="190"/>
@@ -11087,21 +11033,21 @@
     </row>
     <row r="42" spans="2:30">
       <c r="B42" s="18"/>
-      <c r="C42" s="367" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="356"/>
-      <c r="E42" s="356"/>
-      <c r="F42" s="356"/>
-      <c r="G42" s="356"/>
-      <c r="H42" s="356"/>
-      <c r="I42" s="356"/>
-      <c r="J42" s="357"/>
-      <c r="K42" s="361" t="s">
-        <v>79</v>
+      <c r="C42" s="369" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="359"/>
+      <c r="E42" s="359"/>
+      <c r="F42" s="359"/>
+      <c r="G42" s="359"/>
+      <c r="H42" s="359"/>
+      <c r="I42" s="359"/>
+      <c r="J42" s="360"/>
+      <c r="K42" s="364" t="s">
+        <v>78</v>
       </c>
       <c r="L42" s="368">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="M42" s="145" t="s">
         <v>26</v>
@@ -11111,8 +11057,8 @@
       <c r="P42" s="271"/>
       <c r="Q42" s="266"/>
       <c r="R42" s="267"/>
-      <c r="S42" s="310"/>
-      <c r="T42" s="304"/>
+      <c r="S42" s="309"/>
+      <c r="T42" s="303"/>
       <c r="U42" s="260"/>
       <c r="V42" s="260"/>
       <c r="W42" s="260"/>
@@ -11123,16 +11069,16 @@
     </row>
     <row r="43" spans="2:30">
       <c r="B43" s="18"/>
-      <c r="C43" s="359"/>
-      <c r="D43" s="359"/>
-      <c r="E43" s="359"/>
-      <c r="F43" s="359"/>
-      <c r="G43" s="359"/>
-      <c r="H43" s="359"/>
-      <c r="I43" s="359"/>
-      <c r="J43" s="360"/>
-      <c r="K43" s="362"/>
-      <c r="L43" s="362"/>
+      <c r="C43" s="362"/>
+      <c r="D43" s="362"/>
+      <c r="E43" s="362"/>
+      <c r="F43" s="362"/>
+      <c r="G43" s="362"/>
+      <c r="H43" s="362"/>
+      <c r="I43" s="362"/>
+      <c r="J43" s="363"/>
+      <c r="K43" s="365"/>
+      <c r="L43" s="365"/>
       <c r="M43" s="146" t="s">
         <v>27</v>
       </c>
@@ -11141,8 +11087,8 @@
       <c r="P43" s="290"/>
       <c r="Q43" s="268"/>
       <c r="R43" s="269"/>
-      <c r="S43" s="297"/>
-      <c r="T43" s="306"/>
+      <c r="S43" s="290"/>
+      <c r="T43" s="305"/>
       <c r="U43" s="191"/>
       <c r="V43" s="191"/>
       <c r="W43" s="191"/>
@@ -11152,21 +11098,21 @@
     </row>
     <row r="44" spans="2:30">
       <c r="B44" s="18"/>
-      <c r="C44" s="367" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="356"/>
-      <c r="E44" s="356"/>
-      <c r="F44" s="356"/>
-      <c r="G44" s="356"/>
-      <c r="H44" s="356"/>
-      <c r="I44" s="356"/>
-      <c r="J44" s="357"/>
-      <c r="K44" s="361" t="s">
-        <v>77</v>
+      <c r="C44" s="369" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="359"/>
+      <c r="E44" s="359"/>
+      <c r="F44" s="359"/>
+      <c r="G44" s="359"/>
+      <c r="H44" s="359"/>
+      <c r="I44" s="359"/>
+      <c r="J44" s="360"/>
+      <c r="K44" s="364" t="s">
+        <v>76</v>
       </c>
       <c r="L44" s="368">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="M44" s="145" t="s">
         <v>26</v>
@@ -11177,7 +11123,7 @@
       <c r="Q44" s="266"/>
       <c r="R44" s="267"/>
       <c r="S44" s="294"/>
-      <c r="T44" s="309"/>
+      <c r="T44" s="308"/>
       <c r="U44" s="260"/>
       <c r="V44" s="260"/>
       <c r="W44" s="260"/>
@@ -11187,16 +11133,16 @@
     </row>
     <row r="45" spans="2:30">
       <c r="B45" s="18"/>
-      <c r="C45" s="359"/>
-      <c r="D45" s="359"/>
-      <c r="E45" s="359"/>
-      <c r="F45" s="359"/>
-      <c r="G45" s="359"/>
-      <c r="H45" s="359"/>
-      <c r="I45" s="359"/>
-      <c r="J45" s="360"/>
-      <c r="K45" s="362"/>
-      <c r="L45" s="362"/>
+      <c r="C45" s="362"/>
+      <c r="D45" s="362"/>
+      <c r="E45" s="362"/>
+      <c r="F45" s="362"/>
+      <c r="G45" s="362"/>
+      <c r="H45" s="362"/>
+      <c r="I45" s="362"/>
+      <c r="J45" s="363"/>
+      <c r="K45" s="365"/>
+      <c r="L45" s="365"/>
       <c r="M45" s="146" t="s">
         <v>27</v>
       </c>
@@ -11205,8 +11151,8 @@
       <c r="P45" s="291"/>
       <c r="Q45" s="270"/>
       <c r="R45" s="264"/>
-      <c r="S45" s="298"/>
-      <c r="T45" s="307"/>
+      <c r="S45" s="290"/>
+      <c r="T45" s="306"/>
       <c r="U45" s="230"/>
       <c r="V45" s="230"/>
       <c r="W45" s="230"/>
@@ -11216,21 +11162,21 @@
     </row>
     <row r="46" spans="2:30">
       <c r="B46" s="18"/>
-      <c r="C46" s="367" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="356"/>
-      <c r="E46" s="356"/>
-      <c r="F46" s="356"/>
-      <c r="G46" s="356"/>
-      <c r="H46" s="356"/>
-      <c r="I46" s="356"/>
-      <c r="J46" s="357"/>
-      <c r="K46" s="361" t="s">
-        <v>74</v>
+      <c r="C46" s="369" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="359"/>
+      <c r="E46" s="359"/>
+      <c r="F46" s="359"/>
+      <c r="G46" s="359"/>
+      <c r="H46" s="359"/>
+      <c r="I46" s="359"/>
+      <c r="J46" s="360"/>
+      <c r="K46" s="364" t="s">
+        <v>73</v>
       </c>
       <c r="L46" s="368">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M46" s="145" t="s">
         <v>26</v>
@@ -11241,7 +11187,7 @@
       <c r="Q46" s="262"/>
       <c r="R46" s="262"/>
       <c r="S46" s="294"/>
-      <c r="T46" s="304"/>
+      <c r="T46" s="303"/>
       <c r="U46" s="189"/>
       <c r="V46" s="189"/>
       <c r="W46" s="189"/>
@@ -11251,16 +11197,16 @@
     </row>
     <row r="47" spans="2:30">
       <c r="B47" s="18"/>
-      <c r="C47" s="359"/>
-      <c r="D47" s="359"/>
-      <c r="E47" s="359"/>
-      <c r="F47" s="359"/>
-      <c r="G47" s="359"/>
-      <c r="H47" s="359"/>
-      <c r="I47" s="359"/>
-      <c r="J47" s="360"/>
-      <c r="K47" s="362"/>
-      <c r="L47" s="379"/>
+      <c r="C47" s="362"/>
+      <c r="D47" s="362"/>
+      <c r="E47" s="362"/>
+      <c r="F47" s="362"/>
+      <c r="G47" s="362"/>
+      <c r="H47" s="362"/>
+      <c r="I47" s="362"/>
+      <c r="J47" s="363"/>
+      <c r="K47" s="365"/>
+      <c r="L47" s="382"/>
       <c r="M47" s="146" t="s">
         <v>27</v>
       </c>
@@ -11269,8 +11215,8 @@
       <c r="P47" s="289"/>
       <c r="Q47" s="263"/>
       <c r="R47" s="269"/>
-      <c r="S47" s="149"/>
-      <c r="T47" s="308"/>
+      <c r="S47" s="290"/>
+      <c r="T47" s="307"/>
       <c r="U47" s="190"/>
       <c r="V47" s="190"/>
       <c r="W47" s="190"/>
@@ -11297,7 +11243,7 @@
       <c r="Q48" s="268"/>
       <c r="R48" s="268"/>
       <c r="S48" s="297"/>
-      <c r="T48" s="306"/>
+      <c r="T48" s="305"/>
       <c r="U48" s="191"/>
       <c r="V48" s="191"/>
       <c r="W48" s="191"/>
@@ -11307,6 +11253,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C42:J43"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
     <mergeCell ref="M9:AD9"/>
     <mergeCell ref="M8:AD8"/>
     <mergeCell ref="C46:J47"/>
@@ -11323,25 +11288,6 @@
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="C38:J39"/>
     <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C42:J43"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -11359,8 +11305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8602A3-DB5D-4C4B-AC21-CA5EC153D48D}">
   <dimension ref="B5:AI76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O64" sqref="O64"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70:L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
@@ -11388,26 +11334,26 @@
       <c r="I7" s="180"/>
       <c r="J7" s="180"/>
       <c r="K7" s="180"/>
-      <c r="L7" s="344">
+      <c r="L7" s="347">
         <v>2020</v>
       </c>
-      <c r="M7" s="344"/>
-      <c r="N7" s="344"/>
-      <c r="O7" s="344"/>
-      <c r="P7" s="344"/>
-      <c r="Q7" s="344"/>
-      <c r="R7" s="344"/>
-      <c r="S7" s="344"/>
-      <c r="T7" s="344"/>
-      <c r="U7" s="344"/>
-      <c r="V7" s="344"/>
-      <c r="W7" s="344"/>
-      <c r="X7" s="344"/>
-      <c r="Y7" s="344"/>
-      <c r="Z7" s="344"/>
-      <c r="AA7" s="344"/>
-      <c r="AB7" s="344"/>
-      <c r="AC7" s="344"/>
+      <c r="M7" s="347"/>
+      <c r="N7" s="347"/>
+      <c r="O7" s="347"/>
+      <c r="P7" s="347"/>
+      <c r="Q7" s="347"/>
+      <c r="R7" s="347"/>
+      <c r="S7" s="347"/>
+      <c r="T7" s="347"/>
+      <c r="U7" s="347"/>
+      <c r="V7" s="347"/>
+      <c r="W7" s="347"/>
+      <c r="X7" s="347"/>
+      <c r="Y7" s="347"/>
+      <c r="Z7" s="347"/>
+      <c r="AA7" s="347"/>
+      <c r="AB7" s="347"/>
+      <c r="AC7" s="347"/>
     </row>
     <row r="8" spans="3:29">
       <c r="C8" s="181"/>
@@ -11419,26 +11365,26 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="344">
+      <c r="L8" s="347">
         <v>6</v>
       </c>
-      <c r="M8" s="344"/>
-      <c r="N8" s="344"/>
-      <c r="O8" s="344"/>
-      <c r="P8" s="344"/>
-      <c r="Q8" s="344"/>
-      <c r="R8" s="344"/>
-      <c r="S8" s="344"/>
-      <c r="T8" s="344"/>
-      <c r="U8" s="344"/>
-      <c r="V8" s="344"/>
-      <c r="W8" s="344"/>
-      <c r="X8" s="344"/>
-      <c r="Y8" s="344"/>
-      <c r="Z8" s="344"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="344"/>
-      <c r="AC8" s="344"/>
+      <c r="M8" s="347"/>
+      <c r="N8" s="347"/>
+      <c r="O8" s="347"/>
+      <c r="P8" s="347"/>
+      <c r="Q8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="347"/>
+      <c r="T8" s="347"/>
+      <c r="U8" s="347"/>
+      <c r="V8" s="347"/>
+      <c r="W8" s="347"/>
+      <c r="X8" s="347"/>
+      <c r="Y8" s="347"/>
+      <c r="Z8" s="347"/>
+      <c r="AA8" s="347"/>
+      <c r="AB8" s="347"/>
+      <c r="AC8" s="347"/>
     </row>
     <row r="9" spans="3:29">
       <c r="C9" s="9"/>
@@ -11552,7 +11498,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="319"/>
+      <c r="L11" s="318"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="24"/>
@@ -11585,10 +11531,10 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="319"/>
+      <c r="L12" s="318"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="319"/>
+      <c r="O12" s="318"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="16"/>
@@ -11621,7 +11567,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="319"/>
+      <c r="O13" s="318"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="16"/>
@@ -11655,7 +11601,7 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
       <c r="O14" s="24"/>
-      <c r="P14" s="319"/>
+      <c r="P14" s="318"/>
       <c r="Q14" s="24"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
@@ -11689,12 +11635,12 @@
       <c r="N15" s="17"/>
       <c r="O15" s="24"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="319"/>
-      <c r="R15" s="319"/>
-      <c r="S15" s="319"/>
+      <c r="Q15" s="318"/>
+      <c r="R15" s="318"/>
+      <c r="S15" s="318"/>
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="319"/>
+      <c r="V15" s="318"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
@@ -11728,7 +11674,7 @@
       <c r="T16" s="17"/>
       <c r="U16" s="17"/>
       <c r="V16" s="16"/>
-      <c r="W16" s="319"/>
+      <c r="W16" s="318"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
@@ -11762,7 +11708,7 @@
       <c r="U17" s="17"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
-      <c r="X17" s="319"/>
+      <c r="X17" s="318"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="17"/>
@@ -11772,10 +11718,10 @@
     <row r="18" spans="2:29">
       <c r="C18" s="22"/>
       <c r="D18" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -11800,11 +11746,11 @@
       <c r="Z18" s="24"/>
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
-      <c r="AC18" s="319"/>
+      <c r="AC18" s="318"/>
     </row>
     <row r="23" spans="2:29" ht="24">
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:29">
@@ -11859,11 +11805,11 @@
         <v>22</v>
       </c>
       <c r="N26" s="163" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O26" s="163"/>
       <c r="P26" s="163"/>
-      <c r="Q26" s="336"/>
+      <c r="Q26" s="334"/>
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="9"/>
@@ -11881,13 +11827,13 @@
       <c r="N27" s="168">
         <v>23</v>
       </c>
-      <c r="O27" s="314">
+      <c r="O27" s="313">
         <v>24</v>
       </c>
-      <c r="P27" s="314">
+      <c r="P27" s="313">
         <v>25</v>
       </c>
-      <c r="Q27" s="337">
+      <c r="Q27" s="335">
         <v>26</v>
       </c>
     </row>
@@ -11909,9 +11855,9 @@
       <c r="L28" s="143"/>
       <c r="M28" s="143"/>
       <c r="N28" s="229"/>
-      <c r="O28" s="315"/>
-      <c r="P28" s="315"/>
-      <c r="Q28" s="338"/>
+      <c r="O28" s="314"/>
+      <c r="P28" s="314"/>
+      <c r="Q28" s="336"/>
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="18"/>
@@ -11919,7 +11865,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="111" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="111"/>
       <c r="F29" s="111"/>
@@ -11931,27 +11877,27 @@
       <c r="L29" s="166"/>
       <c r="M29" s="166"/>
       <c r="N29" s="125"/>
-      <c r="O29" s="316"/>
-      <c r="P29" s="316"/>
-      <c r="Q29" s="339"/>
+      <c r="O29" s="315"/>
+      <c r="P29" s="315"/>
+      <c r="Q29" s="337"/>
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="18"/>
-      <c r="C30" s="367" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="356"/>
-      <c r="E30" s="356"/>
-      <c r="F30" s="356"/>
-      <c r="G30" s="356"/>
-      <c r="H30" s="356"/>
-      <c r="I30" s="356"/>
-      <c r="J30" s="357"/>
-      <c r="K30" s="361" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30" s="363">
-        <v>0</v>
+      <c r="C30" s="369" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="359"/>
+      <c r="E30" s="359"/>
+      <c r="F30" s="359"/>
+      <c r="G30" s="359"/>
+      <c r="H30" s="359"/>
+      <c r="I30" s="359"/>
+      <c r="J30" s="360"/>
+      <c r="K30" s="364" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="366">
+        <v>1</v>
       </c>
       <c r="M30" s="115" t="s">
         <v>26</v>
@@ -11959,45 +11905,45 @@
       <c r="N30" s="294"/>
       <c r="O30" s="296"/>
       <c r="P30" s="296"/>
-      <c r="Q30" s="340"/>
+      <c r="Q30" s="338"/>
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="18"/>
-      <c r="C31" s="359"/>
-      <c r="D31" s="359"/>
-      <c r="E31" s="359"/>
-      <c r="F31" s="359"/>
-      <c r="G31" s="359"/>
-      <c r="H31" s="359"/>
-      <c r="I31" s="359"/>
-      <c r="J31" s="360"/>
-      <c r="K31" s="362"/>
-      <c r="L31" s="364"/>
+      <c r="C31" s="362"/>
+      <c r="D31" s="362"/>
+      <c r="E31" s="362"/>
+      <c r="F31" s="362"/>
+      <c r="G31" s="362"/>
+      <c r="H31" s="362"/>
+      <c r="I31" s="362"/>
+      <c r="J31" s="363"/>
+      <c r="K31" s="365"/>
+      <c r="L31" s="367"/>
       <c r="M31" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N31" s="149"/>
       <c r="O31" s="100"/>
       <c r="P31" s="149"/>
-      <c r="Q31" s="341"/>
+      <c r="Q31" s="339"/>
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="18"/>
-      <c r="C32" s="367" t="s">
+      <c r="C32" s="369" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="356"/>
-      <c r="E32" s="356"/>
-      <c r="F32" s="356"/>
-      <c r="G32" s="356"/>
-      <c r="H32" s="356"/>
-      <c r="I32" s="356"/>
-      <c r="J32" s="357"/>
-      <c r="K32" s="361" t="s">
-        <v>74</v>
-      </c>
-      <c r="L32" s="363">
-        <v>0</v>
+      <c r="D32" s="359"/>
+      <c r="E32" s="359"/>
+      <c r="F32" s="359"/>
+      <c r="G32" s="359"/>
+      <c r="H32" s="359"/>
+      <c r="I32" s="359"/>
+      <c r="J32" s="360"/>
+      <c r="K32" s="364" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="366">
+        <v>1</v>
       </c>
       <c r="M32" s="115" t="s">
         <v>26</v>
@@ -12005,45 +11951,45 @@
       <c r="N32" s="294"/>
       <c r="O32" s="296"/>
       <c r="P32" s="296"/>
-      <c r="Q32" s="340"/>
+      <c r="Q32" s="338"/>
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="18"/>
-      <c r="C33" s="359"/>
-      <c r="D33" s="359"/>
-      <c r="E33" s="359"/>
-      <c r="F33" s="359"/>
-      <c r="G33" s="359"/>
-      <c r="H33" s="359"/>
-      <c r="I33" s="359"/>
-      <c r="J33" s="360"/>
-      <c r="K33" s="362"/>
-      <c r="L33" s="364"/>
+      <c r="C33" s="362"/>
+      <c r="D33" s="362"/>
+      <c r="E33" s="362"/>
+      <c r="F33" s="362"/>
+      <c r="G33" s="362"/>
+      <c r="H33" s="362"/>
+      <c r="I33" s="362"/>
+      <c r="J33" s="363"/>
+      <c r="K33" s="365"/>
+      <c r="L33" s="367"/>
       <c r="M33" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N33" s="149"/>
       <c r="O33" s="100"/>
       <c r="P33" s="149"/>
-      <c r="Q33" s="341"/>
+      <c r="Q33" s="339"/>
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="18"/>
-      <c r="C34" s="367" t="s">
+      <c r="C34" s="369" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="356"/>
-      <c r="E34" s="356"/>
-      <c r="F34" s="356"/>
-      <c r="G34" s="356"/>
-      <c r="H34" s="356"/>
-      <c r="I34" s="356"/>
-      <c r="J34" s="357"/>
-      <c r="K34" s="361" t="s">
-        <v>78</v>
-      </c>
-      <c r="L34" s="363">
-        <v>0</v>
+      <c r="D34" s="359"/>
+      <c r="E34" s="359"/>
+      <c r="F34" s="359"/>
+      <c r="G34" s="359"/>
+      <c r="H34" s="359"/>
+      <c r="I34" s="359"/>
+      <c r="J34" s="360"/>
+      <c r="K34" s="364" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="366">
+        <v>1</v>
       </c>
       <c r="M34" s="115" t="s">
         <v>26</v>
@@ -12051,45 +11997,45 @@
       <c r="N34" s="294"/>
       <c r="O34" s="296"/>
       <c r="P34" s="296"/>
-      <c r="Q34" s="340"/>
+      <c r="Q34" s="338"/>
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="18"/>
-      <c r="C35" s="359"/>
-      <c r="D35" s="359"/>
-      <c r="E35" s="359"/>
-      <c r="F35" s="359"/>
-      <c r="G35" s="359"/>
-      <c r="H35" s="359"/>
-      <c r="I35" s="359"/>
-      <c r="J35" s="360"/>
-      <c r="K35" s="362"/>
-      <c r="L35" s="364"/>
+      <c r="C35" s="362"/>
+      <c r="D35" s="362"/>
+      <c r="E35" s="362"/>
+      <c r="F35" s="362"/>
+      <c r="G35" s="362"/>
+      <c r="H35" s="362"/>
+      <c r="I35" s="362"/>
+      <c r="J35" s="363"/>
+      <c r="K35" s="365"/>
+      <c r="L35" s="367"/>
       <c r="M35" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N35" s="149"/>
       <c r="O35" s="100"/>
       <c r="P35" s="149"/>
-      <c r="Q35" s="341"/>
+      <c r="Q35" s="339"/>
     </row>
     <row r="36" spans="2:20" ht="15.75" customHeight="1">
       <c r="B36" s="18"/>
-      <c r="C36" s="371" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="372"/>
-      <c r="E36" s="372"/>
-      <c r="F36" s="372"/>
-      <c r="G36" s="372"/>
-      <c r="H36" s="372"/>
-      <c r="I36" s="372"/>
-      <c r="J36" s="373"/>
-      <c r="K36" s="361" t="s">
-        <v>74</v>
-      </c>
-      <c r="L36" s="363">
-        <v>0</v>
+      <c r="C36" s="370" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="371"/>
+      <c r="E36" s="371"/>
+      <c r="F36" s="371"/>
+      <c r="G36" s="371"/>
+      <c r="H36" s="371"/>
+      <c r="I36" s="371"/>
+      <c r="J36" s="372"/>
+      <c r="K36" s="364" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="366">
+        <v>1</v>
       </c>
       <c r="M36" s="115" t="s">
         <v>26</v>
@@ -12097,45 +12043,45 @@
       <c r="N36" s="294"/>
       <c r="O36" s="296"/>
       <c r="P36" s="296"/>
-      <c r="Q36" s="340"/>
+      <c r="Q36" s="338"/>
     </row>
     <row r="37" spans="2:20">
       <c r="B37" s="18"/>
-      <c r="C37" s="374"/>
-      <c r="D37" s="375"/>
-      <c r="E37" s="375"/>
-      <c r="F37" s="375"/>
-      <c r="G37" s="375"/>
-      <c r="H37" s="375"/>
-      <c r="I37" s="375"/>
-      <c r="J37" s="376"/>
-      <c r="K37" s="362"/>
-      <c r="L37" s="364"/>
+      <c r="C37" s="373"/>
+      <c r="D37" s="374"/>
+      <c r="E37" s="374"/>
+      <c r="F37" s="374"/>
+      <c r="G37" s="374"/>
+      <c r="H37" s="374"/>
+      <c r="I37" s="374"/>
+      <c r="J37" s="375"/>
+      <c r="K37" s="365"/>
+      <c r="L37" s="367"/>
       <c r="M37" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N37" s="149"/>
       <c r="O37" s="100"/>
       <c r="P37" s="149"/>
-      <c r="Q37" s="341"/>
+      <c r="Q37" s="339"/>
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="18"/>
-      <c r="C38" s="371" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="372"/>
-      <c r="E38" s="372"/>
-      <c r="F38" s="372"/>
-      <c r="G38" s="372"/>
-      <c r="H38" s="372"/>
-      <c r="I38" s="372"/>
-      <c r="J38" s="373"/>
-      <c r="K38" s="361" t="s">
-        <v>89</v>
-      </c>
-      <c r="L38" s="363">
-        <v>0</v>
+      <c r="C38" s="370" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="371"/>
+      <c r="E38" s="371"/>
+      <c r="F38" s="371"/>
+      <c r="G38" s="371"/>
+      <c r="H38" s="371"/>
+      <c r="I38" s="371"/>
+      <c r="J38" s="372"/>
+      <c r="K38" s="364" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" s="366">
+        <v>1</v>
       </c>
       <c r="M38" s="115" t="s">
         <v>26</v>
@@ -12143,45 +12089,45 @@
       <c r="N38" s="294"/>
       <c r="O38" s="296"/>
       <c r="P38" s="296"/>
-      <c r="Q38" s="340"/>
+      <c r="Q38" s="338"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="18"/>
-      <c r="C39" s="374"/>
-      <c r="D39" s="375"/>
-      <c r="E39" s="375"/>
-      <c r="F39" s="375"/>
-      <c r="G39" s="375"/>
-      <c r="H39" s="375"/>
-      <c r="I39" s="375"/>
-      <c r="J39" s="376"/>
-      <c r="K39" s="362"/>
-      <c r="L39" s="364"/>
+      <c r="C39" s="373"/>
+      <c r="D39" s="374"/>
+      <c r="E39" s="374"/>
+      <c r="F39" s="374"/>
+      <c r="G39" s="374"/>
+      <c r="H39" s="374"/>
+      <c r="I39" s="374"/>
+      <c r="J39" s="375"/>
+      <c r="K39" s="365"/>
+      <c r="L39" s="367"/>
       <c r="M39" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N39" s="149"/>
       <c r="O39" s="100"/>
       <c r="P39" s="149"/>
-      <c r="Q39" s="341"/>
+      <c r="Q39" s="339"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="18"/>
-      <c r="C40" s="367" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="356"/>
-      <c r="E40" s="356"/>
-      <c r="F40" s="356"/>
-      <c r="G40" s="356"/>
-      <c r="H40" s="356"/>
-      <c r="I40" s="356"/>
-      <c r="J40" s="357"/>
-      <c r="K40" s="361" t="s">
-        <v>77</v>
-      </c>
-      <c r="L40" s="363">
-        <v>0</v>
+      <c r="C40" s="369" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="359"/>
+      <c r="E40" s="359"/>
+      <c r="F40" s="359"/>
+      <c r="G40" s="359"/>
+      <c r="H40" s="359"/>
+      <c r="I40" s="359"/>
+      <c r="J40" s="360"/>
+      <c r="K40" s="364" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="366">
+        <v>1</v>
       </c>
       <c r="M40" s="115" t="s">
         <v>26</v>
@@ -12189,51 +12135,51 @@
       <c r="N40" s="294"/>
       <c r="O40" s="296"/>
       <c r="P40" s="296"/>
-      <c r="Q40" s="340"/>
+      <c r="Q40" s="338"/>
       <c r="T40" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="18"/>
-      <c r="C41" s="359"/>
-      <c r="D41" s="359"/>
-      <c r="E41" s="359"/>
-      <c r="F41" s="359"/>
-      <c r="G41" s="359"/>
-      <c r="H41" s="359"/>
-      <c r="I41" s="359"/>
-      <c r="J41" s="360"/>
-      <c r="K41" s="362"/>
-      <c r="L41" s="364"/>
+      <c r="C41" s="362"/>
+      <c r="D41" s="362"/>
+      <c r="E41" s="362"/>
+      <c r="F41" s="362"/>
+      <c r="G41" s="362"/>
+      <c r="H41" s="362"/>
+      <c r="I41" s="362"/>
+      <c r="J41" s="363"/>
+      <c r="K41" s="365"/>
+      <c r="L41" s="367"/>
       <c r="M41" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N41" s="149"/>
       <c r="O41" s="100"/>
       <c r="P41" s="149"/>
-      <c r="Q41" s="341"/>
+      <c r="Q41" s="339"/>
       <c r="T41" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="18"/>
-      <c r="C42" s="367" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="356"/>
-      <c r="E42" s="356"/>
-      <c r="F42" s="356"/>
-      <c r="G42" s="356"/>
-      <c r="H42" s="356"/>
-      <c r="I42" s="356"/>
-      <c r="J42" s="357"/>
-      <c r="K42" s="361" t="s">
-        <v>73</v>
-      </c>
-      <c r="L42" s="363">
-        <v>0</v>
+      <c r="C42" s="369" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="359"/>
+      <c r="E42" s="359"/>
+      <c r="F42" s="359"/>
+      <c r="G42" s="359"/>
+      <c r="H42" s="359"/>
+      <c r="I42" s="359"/>
+      <c r="J42" s="360"/>
+      <c r="K42" s="364" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="366">
+        <v>1</v>
       </c>
       <c r="M42" s="115" t="s">
         <v>26</v>
@@ -12241,48 +12187,48 @@
       <c r="N42" s="294"/>
       <c r="O42" s="296"/>
       <c r="P42" s="296"/>
-      <c r="Q42" s="340"/>
+      <c r="Q42" s="338"/>
       <c r="T42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="18"/>
-      <c r="C43" s="359"/>
-      <c r="D43" s="359"/>
-      <c r="E43" s="359"/>
-      <c r="F43" s="359"/>
-      <c r="G43" s="359"/>
-      <c r="H43" s="359"/>
-      <c r="I43" s="359"/>
-      <c r="J43" s="360"/>
-      <c r="K43" s="362"/>
-      <c r="L43" s="364"/>
+      <c r="C43" s="362"/>
+      <c r="D43" s="362"/>
+      <c r="E43" s="362"/>
+      <c r="F43" s="362"/>
+      <c r="G43" s="362"/>
+      <c r="H43" s="362"/>
+      <c r="I43" s="362"/>
+      <c r="J43" s="363"/>
+      <c r="K43" s="365"/>
+      <c r="L43" s="367"/>
       <c r="M43" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N43" s="149"/>
       <c r="O43" s="100"/>
       <c r="P43" s="149"/>
-      <c r="Q43" s="341"/>
+      <c r="Q43" s="339"/>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="18"/>
-      <c r="C44" s="367" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="356"/>
-      <c r="E44" s="356"/>
-      <c r="F44" s="356"/>
-      <c r="G44" s="356"/>
-      <c r="H44" s="356"/>
-      <c r="I44" s="356"/>
-      <c r="J44" s="357"/>
-      <c r="K44" s="361" t="s">
-        <v>93</v>
-      </c>
-      <c r="L44" s="363">
-        <v>0</v>
+      <c r="C44" s="369" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="359"/>
+      <c r="E44" s="359"/>
+      <c r="F44" s="359"/>
+      <c r="G44" s="359"/>
+      <c r="H44" s="359"/>
+      <c r="I44" s="359"/>
+      <c r="J44" s="360"/>
+      <c r="K44" s="364" t="s">
+        <v>92</v>
+      </c>
+      <c r="L44" s="366">
+        <v>1</v>
       </c>
       <c r="M44" s="115" t="s">
         <v>26</v>
@@ -12290,45 +12236,45 @@
       <c r="N44" s="294"/>
       <c r="O44" s="296"/>
       <c r="P44" s="296"/>
-      <c r="Q44" s="340"/>
+      <c r="Q44" s="338"/>
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="18"/>
-      <c r="C45" s="359"/>
-      <c r="D45" s="359"/>
-      <c r="E45" s="359"/>
-      <c r="F45" s="359"/>
-      <c r="G45" s="359"/>
-      <c r="H45" s="359"/>
-      <c r="I45" s="359"/>
-      <c r="J45" s="360"/>
-      <c r="K45" s="378"/>
-      <c r="L45" s="364"/>
+      <c r="C45" s="362"/>
+      <c r="D45" s="362"/>
+      <c r="E45" s="362"/>
+      <c r="F45" s="362"/>
+      <c r="G45" s="362"/>
+      <c r="H45" s="362"/>
+      <c r="I45" s="362"/>
+      <c r="J45" s="363"/>
+      <c r="K45" s="377"/>
+      <c r="L45" s="367"/>
       <c r="M45" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="N45" s="317"/>
+      <c r="N45" s="316"/>
       <c r="O45" s="100"/>
-      <c r="P45" s="317"/>
-      <c r="Q45" s="342"/>
+      <c r="P45" s="316"/>
+      <c r="Q45" s="340"/>
     </row>
     <row r="46" spans="2:20">
       <c r="B46" s="18"/>
-      <c r="C46" s="367" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="356"/>
-      <c r="E46" s="356"/>
-      <c r="F46" s="356"/>
-      <c r="G46" s="356"/>
-      <c r="H46" s="356"/>
-      <c r="I46" s="356"/>
-      <c r="J46" s="357"/>
-      <c r="K46" s="377" t="s">
-        <v>77</v>
-      </c>
-      <c r="L46" s="363">
-        <v>0</v>
+      <c r="C46" s="369" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="359"/>
+      <c r="E46" s="359"/>
+      <c r="F46" s="359"/>
+      <c r="G46" s="359"/>
+      <c r="H46" s="359"/>
+      <c r="I46" s="359"/>
+      <c r="J46" s="360"/>
+      <c r="K46" s="376" t="s">
+        <v>76</v>
+      </c>
+      <c r="L46" s="366">
+        <v>1</v>
       </c>
       <c r="M46" s="115" t="s">
         <v>26</v>
@@ -12336,45 +12282,45 @@
       <c r="N46" s="294"/>
       <c r="O46" s="296"/>
       <c r="P46" s="296"/>
-      <c r="Q46" s="340"/>
+      <c r="Q46" s="338"/>
     </row>
     <row r="47" spans="2:20">
       <c r="B47" s="18"/>
-      <c r="C47" s="359"/>
-      <c r="D47" s="359"/>
-      <c r="E47" s="359"/>
-      <c r="F47" s="359"/>
-      <c r="G47" s="359"/>
-      <c r="H47" s="359"/>
-      <c r="I47" s="359"/>
-      <c r="J47" s="360"/>
-      <c r="K47" s="362"/>
-      <c r="L47" s="364"/>
+      <c r="C47" s="362"/>
+      <c r="D47" s="362"/>
+      <c r="E47" s="362"/>
+      <c r="F47" s="362"/>
+      <c r="G47" s="362"/>
+      <c r="H47" s="362"/>
+      <c r="I47" s="362"/>
+      <c r="J47" s="363"/>
+      <c r="K47" s="365"/>
+      <c r="L47" s="367"/>
       <c r="M47" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="N47" s="318"/>
+      <c r="N47" s="317"/>
       <c r="O47" s="100"/>
-      <c r="P47" s="318"/>
-      <c r="Q47" s="343"/>
+      <c r="P47" s="317"/>
+      <c r="Q47" s="341"/>
     </row>
     <row r="48" spans="2:20">
       <c r="B48" s="18"/>
-      <c r="C48" s="367" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="356"/>
-      <c r="E48" s="356"/>
-      <c r="F48" s="356"/>
-      <c r="G48" s="356"/>
-      <c r="H48" s="356"/>
-      <c r="I48" s="356"/>
-      <c r="J48" s="357"/>
-      <c r="K48" s="361" t="s">
-        <v>79</v>
-      </c>
-      <c r="L48" s="363">
-        <v>0</v>
+      <c r="C48" s="369" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="359"/>
+      <c r="E48" s="359"/>
+      <c r="F48" s="359"/>
+      <c r="G48" s="359"/>
+      <c r="H48" s="359"/>
+      <c r="I48" s="359"/>
+      <c r="J48" s="360"/>
+      <c r="K48" s="364" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48" s="366">
+        <v>1</v>
       </c>
       <c r="M48" s="115" t="s">
         <v>26</v>
@@ -12382,27 +12328,27 @@
       <c r="N48" s="294"/>
       <c r="O48" s="296"/>
       <c r="P48" s="296"/>
-      <c r="Q48" s="340"/>
+      <c r="Q48" s="338"/>
     </row>
     <row r="49" spans="2:25">
       <c r="B49" s="18"/>
-      <c r="C49" s="359"/>
-      <c r="D49" s="359"/>
-      <c r="E49" s="359"/>
-      <c r="F49" s="359"/>
-      <c r="G49" s="359"/>
-      <c r="H49" s="359"/>
-      <c r="I49" s="359"/>
-      <c r="J49" s="360"/>
-      <c r="K49" s="362"/>
-      <c r="L49" s="364"/>
+      <c r="C49" s="362"/>
+      <c r="D49" s="362"/>
+      <c r="E49" s="362"/>
+      <c r="F49" s="362"/>
+      <c r="G49" s="362"/>
+      <c r="H49" s="362"/>
+      <c r="I49" s="362"/>
+      <c r="J49" s="363"/>
+      <c r="K49" s="365"/>
+      <c r="L49" s="367"/>
       <c r="M49" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N49" s="149"/>
       <c r="O49" s="100"/>
       <c r="P49" s="149"/>
-      <c r="Q49" s="341"/>
+      <c r="Q49" s="339"/>
     </row>
     <row r="50" spans="2:25">
       <c r="B50" s="18"/>
@@ -12420,7 +12366,7 @@
       <c r="N50" s="296"/>
       <c r="O50" s="296"/>
       <c r="P50" s="296"/>
-      <c r="Q50" s="340"/>
+      <c r="Q50" s="338"/>
     </row>
     <row r="51" spans="2:25">
       <c r="B51" s="18"/>
@@ -12428,7 +12374,7 @@
         <v>30</v>
       </c>
       <c r="D51" s="167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E51" s="111"/>
       <c r="F51" s="111"/>
@@ -12439,28 +12385,28 @@
       <c r="K51" s="166"/>
       <c r="L51" s="166"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="316"/>
-      <c r="O51" s="316"/>
-      <c r="P51" s="316"/>
-      <c r="Q51" s="339"/>
+      <c r="N51" s="315"/>
+      <c r="O51" s="315"/>
+      <c r="P51" s="315"/>
+      <c r="Q51" s="337"/>
     </row>
     <row r="52" spans="2:25">
       <c r="B52" s="18"/>
-      <c r="C52" s="367" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="356"/>
-      <c r="E52" s="356"/>
-      <c r="F52" s="356"/>
-      <c r="G52" s="356"/>
-      <c r="H52" s="356"/>
-      <c r="I52" s="356"/>
-      <c r="J52" s="357"/>
-      <c r="K52" s="361" t="s">
-        <v>74</v>
-      </c>
-      <c r="L52" s="363">
-        <v>0</v>
+      <c r="C52" s="369" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="359"/>
+      <c r="E52" s="359"/>
+      <c r="F52" s="359"/>
+      <c r="G52" s="359"/>
+      <c r="H52" s="359"/>
+      <c r="I52" s="359"/>
+      <c r="J52" s="360"/>
+      <c r="K52" s="364" t="s">
+        <v>73</v>
+      </c>
+      <c r="L52" s="366">
+        <v>1</v>
       </c>
       <c r="M52" s="115" t="s">
         <v>26</v>
@@ -12468,45 +12414,45 @@
       <c r="N52" s="294"/>
       <c r="O52" s="296"/>
       <c r="P52" s="296"/>
-      <c r="Q52" s="340"/>
+      <c r="Q52" s="338"/>
     </row>
     <row r="53" spans="2:25">
       <c r="B53" s="18"/>
-      <c r="C53" s="359"/>
-      <c r="D53" s="359"/>
-      <c r="E53" s="359"/>
-      <c r="F53" s="359"/>
-      <c r="G53" s="359"/>
-      <c r="H53" s="359"/>
-      <c r="I53" s="359"/>
-      <c r="J53" s="360"/>
-      <c r="K53" s="362"/>
-      <c r="L53" s="364"/>
+      <c r="C53" s="362"/>
+      <c r="D53" s="362"/>
+      <c r="E53" s="362"/>
+      <c r="F53" s="362"/>
+      <c r="G53" s="362"/>
+      <c r="H53" s="362"/>
+      <c r="I53" s="362"/>
+      <c r="J53" s="363"/>
+      <c r="K53" s="365"/>
+      <c r="L53" s="367"/>
       <c r="M53" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N53" s="149"/>
       <c r="O53" s="100"/>
       <c r="P53" s="149"/>
-      <c r="Q53" s="341"/>
+      <c r="Q53" s="339"/>
     </row>
     <row r="54" spans="2:25">
       <c r="B54" s="18"/>
-      <c r="C54" s="367" t="s">
+      <c r="C54" s="369" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="356"/>
-      <c r="E54" s="356"/>
-      <c r="F54" s="356"/>
-      <c r="G54" s="356"/>
-      <c r="H54" s="356"/>
-      <c r="I54" s="356"/>
-      <c r="J54" s="357"/>
-      <c r="K54" s="361" t="s">
-        <v>78</v>
-      </c>
-      <c r="L54" s="363">
-        <v>0</v>
+      <c r="D54" s="359"/>
+      <c r="E54" s="359"/>
+      <c r="F54" s="359"/>
+      <c r="G54" s="359"/>
+      <c r="H54" s="359"/>
+      <c r="I54" s="359"/>
+      <c r="J54" s="360"/>
+      <c r="K54" s="364" t="s">
+        <v>77</v>
+      </c>
+      <c r="L54" s="366">
+        <v>1</v>
       </c>
       <c r="M54" s="115" t="s">
         <v>26</v>
@@ -12514,45 +12460,45 @@
       <c r="N54" s="294"/>
       <c r="O54" s="296"/>
       <c r="P54" s="296"/>
-      <c r="Q54" s="340"/>
+      <c r="Q54" s="338"/>
     </row>
     <row r="55" spans="2:25">
       <c r="B55" s="18"/>
-      <c r="C55" s="359"/>
-      <c r="D55" s="359"/>
-      <c r="E55" s="359"/>
-      <c r="F55" s="359"/>
-      <c r="G55" s="359"/>
-      <c r="H55" s="359"/>
-      <c r="I55" s="359"/>
-      <c r="J55" s="360"/>
-      <c r="K55" s="362"/>
-      <c r="L55" s="364"/>
+      <c r="C55" s="362"/>
+      <c r="D55" s="362"/>
+      <c r="E55" s="362"/>
+      <c r="F55" s="362"/>
+      <c r="G55" s="362"/>
+      <c r="H55" s="362"/>
+      <c r="I55" s="362"/>
+      <c r="J55" s="363"/>
+      <c r="K55" s="365"/>
+      <c r="L55" s="367"/>
       <c r="M55" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N55" s="149"/>
       <c r="O55" s="100"/>
       <c r="P55" s="149"/>
-      <c r="Q55" s="341"/>
+      <c r="Q55" s="339"/>
     </row>
     <row r="56" spans="2:25">
       <c r="B56" s="18"/>
-      <c r="C56" s="367" t="s">
+      <c r="C56" s="369" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="356"/>
-      <c r="E56" s="356"/>
-      <c r="F56" s="356"/>
-      <c r="G56" s="356"/>
-      <c r="H56" s="356"/>
-      <c r="I56" s="356"/>
-      <c r="J56" s="357"/>
-      <c r="K56" s="361" t="s">
-        <v>79</v>
-      </c>
-      <c r="L56" s="363">
-        <v>0</v>
+      <c r="D56" s="359"/>
+      <c r="E56" s="359"/>
+      <c r="F56" s="359"/>
+      <c r="G56" s="359"/>
+      <c r="H56" s="359"/>
+      <c r="I56" s="359"/>
+      <c r="J56" s="360"/>
+      <c r="K56" s="364" t="s">
+        <v>78</v>
+      </c>
+      <c r="L56" s="366">
+        <v>1</v>
       </c>
       <c r="M56" s="115" t="s">
         <v>26</v>
@@ -12560,27 +12506,27 @@
       <c r="N56" s="294"/>
       <c r="O56" s="296"/>
       <c r="P56" s="296"/>
-      <c r="Q56" s="340"/>
+      <c r="Q56" s="338"/>
     </row>
     <row r="57" spans="2:25">
       <c r="B57" s="18"/>
-      <c r="C57" s="359"/>
-      <c r="D57" s="359"/>
-      <c r="E57" s="359"/>
-      <c r="F57" s="359"/>
-      <c r="G57" s="359"/>
-      <c r="H57" s="359"/>
-      <c r="I57" s="359"/>
-      <c r="J57" s="360"/>
-      <c r="K57" s="362"/>
-      <c r="L57" s="364"/>
+      <c r="C57" s="362"/>
+      <c r="D57" s="362"/>
+      <c r="E57" s="362"/>
+      <c r="F57" s="362"/>
+      <c r="G57" s="362"/>
+      <c r="H57" s="362"/>
+      <c r="I57" s="362"/>
+      <c r="J57" s="363"/>
+      <c r="K57" s="365"/>
+      <c r="L57" s="367"/>
       <c r="M57" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N57" s="149"/>
       <c r="O57" s="100"/>
       <c r="P57" s="149"/>
-      <c r="Q57" s="341"/>
+      <c r="Q57" s="339"/>
       <c r="R57" s="259"/>
       <c r="S57" s="259"/>
       <c r="T57" s="259"/>
@@ -12592,20 +12538,20 @@
     </row>
     <row r="58" spans="2:25" ht="15.75" customHeight="1">
       <c r="B58" s="18"/>
-      <c r="C58" s="371" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" s="372"/>
-      <c r="E58" s="372"/>
-      <c r="F58" s="372"/>
-      <c r="G58" s="372"/>
-      <c r="H58" s="372"/>
-      <c r="I58" s="372"/>
-      <c r="J58" s="373"/>
-      <c r="K58" s="361" t="s">
-        <v>106</v>
-      </c>
-      <c r="L58" s="363">
+      <c r="C58" s="370" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="371"/>
+      <c r="E58" s="371"/>
+      <c r="F58" s="371"/>
+      <c r="G58" s="371"/>
+      <c r="H58" s="371"/>
+      <c r="I58" s="371"/>
+      <c r="J58" s="372"/>
+      <c r="K58" s="364" t="s">
+        <v>105</v>
+      </c>
+      <c r="L58" s="366">
         <v>0</v>
       </c>
       <c r="M58" s="115" t="s">
@@ -12614,7 +12560,7 @@
       <c r="N58" s="294"/>
       <c r="O58" s="296"/>
       <c r="P58" s="296"/>
-      <c r="Q58" s="340"/>
+      <c r="Q58" s="338"/>
       <c r="R58" s="259"/>
       <c r="S58" s="259"/>
       <c r="T58" s="259"/>
@@ -12626,23 +12572,23 @@
     </row>
     <row r="59" spans="2:25">
       <c r="B59" s="18"/>
-      <c r="C59" s="374"/>
-      <c r="D59" s="375"/>
-      <c r="E59" s="375"/>
-      <c r="F59" s="375"/>
-      <c r="G59" s="375"/>
-      <c r="H59" s="375"/>
-      <c r="I59" s="375"/>
-      <c r="J59" s="376"/>
-      <c r="K59" s="362"/>
-      <c r="L59" s="364"/>
+      <c r="C59" s="373"/>
+      <c r="D59" s="374"/>
+      <c r="E59" s="374"/>
+      <c r="F59" s="374"/>
+      <c r="G59" s="374"/>
+      <c r="H59" s="374"/>
+      <c r="I59" s="374"/>
+      <c r="J59" s="375"/>
+      <c r="K59" s="365"/>
+      <c r="L59" s="367"/>
       <c r="M59" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N59" s="149"/>
       <c r="O59" s="149"/>
       <c r="P59" s="149"/>
-      <c r="Q59" s="341"/>
+      <c r="Q59" s="339"/>
       <c r="R59" s="259"/>
       <c r="S59" s="259"/>
       <c r="T59" s="259"/>
@@ -12654,21 +12600,21 @@
     </row>
     <row r="60" spans="2:25">
       <c r="B60" s="18"/>
-      <c r="C60" s="371" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="372"/>
-      <c r="E60" s="372"/>
-      <c r="F60" s="372"/>
-      <c r="G60" s="372"/>
-      <c r="H60" s="372"/>
-      <c r="I60" s="372"/>
-      <c r="J60" s="373"/>
-      <c r="K60" s="361" t="s">
-        <v>107</v>
-      </c>
-      <c r="L60" s="363">
-        <v>0</v>
+      <c r="C60" s="370" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="371"/>
+      <c r="E60" s="371"/>
+      <c r="F60" s="371"/>
+      <c r="G60" s="371"/>
+      <c r="H60" s="371"/>
+      <c r="I60" s="371"/>
+      <c r="J60" s="372"/>
+      <c r="K60" s="364" t="s">
+        <v>106</v>
+      </c>
+      <c r="L60" s="366">
+        <v>1</v>
       </c>
       <c r="M60" s="115" t="s">
         <v>26</v>
@@ -12676,7 +12622,7 @@
       <c r="N60" s="294"/>
       <c r="O60" s="296"/>
       <c r="P60" s="296"/>
-      <c r="Q60" s="340"/>
+      <c r="Q60" s="338"/>
       <c r="R60" s="259"/>
       <c r="S60" s="259"/>
       <c r="T60" s="259"/>
@@ -12688,27 +12634,27 @@
     </row>
     <row r="61" spans="2:25">
       <c r="B61" s="18"/>
-      <c r="C61" s="374"/>
-      <c r="D61" s="375"/>
-      <c r="E61" s="375"/>
-      <c r="F61" s="375"/>
-      <c r="G61" s="375"/>
-      <c r="H61" s="375"/>
-      <c r="I61" s="375"/>
-      <c r="J61" s="376"/>
-      <c r="K61" s="362"/>
-      <c r="L61" s="364"/>
+      <c r="C61" s="373"/>
+      <c r="D61" s="374"/>
+      <c r="E61" s="374"/>
+      <c r="F61" s="374"/>
+      <c r="G61" s="374"/>
+      <c r="H61" s="374"/>
+      <c r="I61" s="374"/>
+      <c r="J61" s="375"/>
+      <c r="K61" s="365"/>
+      <c r="L61" s="367"/>
       <c r="M61" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N61" s="149"/>
       <c r="O61" s="149"/>
       <c r="P61" s="149"/>
-      <c r="Q61" s="341"/>
+      <c r="Q61" s="345"/>
       <c r="R61" s="259"/>
       <c r="S61" s="259"/>
       <c r="T61" s="259" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U61" s="259"/>
       <c r="V61" s="259"/>
@@ -12718,21 +12664,21 @@
     </row>
     <row r="62" spans="2:25">
       <c r="B62" s="18"/>
-      <c r="C62" s="367" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="356"/>
-      <c r="E62" s="356"/>
-      <c r="F62" s="356"/>
-      <c r="G62" s="356"/>
-      <c r="H62" s="356"/>
-      <c r="I62" s="356"/>
-      <c r="J62" s="357"/>
-      <c r="K62" s="361" t="s">
-        <v>74</v>
-      </c>
-      <c r="L62" s="363">
-        <v>0</v>
+      <c r="C62" s="369" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="359"/>
+      <c r="E62" s="359"/>
+      <c r="F62" s="359"/>
+      <c r="G62" s="359"/>
+      <c r="H62" s="359"/>
+      <c r="I62" s="359"/>
+      <c r="J62" s="360"/>
+      <c r="K62" s="364" t="s">
+        <v>73</v>
+      </c>
+      <c r="L62" s="366">
+        <v>1</v>
       </c>
       <c r="M62" s="115" t="s">
         <v>26</v>
@@ -12740,11 +12686,11 @@
       <c r="N62" s="294"/>
       <c r="O62" s="296"/>
       <c r="P62" s="296"/>
-      <c r="Q62" s="340"/>
+      <c r="Q62" s="338"/>
       <c r="R62" s="259"/>
       <c r="S62" s="259"/>
       <c r="T62" s="259" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U62" s="259"/>
       <c r="V62" s="259"/>
@@ -12754,27 +12700,27 @@
     </row>
     <row r="63" spans="2:25">
       <c r="B63" s="18"/>
-      <c r="C63" s="359"/>
-      <c r="D63" s="359"/>
-      <c r="E63" s="359"/>
-      <c r="F63" s="359"/>
-      <c r="G63" s="359"/>
-      <c r="H63" s="359"/>
-      <c r="I63" s="359"/>
-      <c r="J63" s="360"/>
-      <c r="K63" s="362"/>
-      <c r="L63" s="364"/>
+      <c r="C63" s="362"/>
+      <c r="D63" s="362"/>
+      <c r="E63" s="362"/>
+      <c r="F63" s="362"/>
+      <c r="G63" s="362"/>
+      <c r="H63" s="362"/>
+      <c r="I63" s="362"/>
+      <c r="J63" s="363"/>
+      <c r="K63" s="365"/>
+      <c r="L63" s="367"/>
       <c r="M63" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N63" s="149"/>
       <c r="O63" s="149"/>
-      <c r="P63" s="149"/>
-      <c r="Q63" s="341"/>
+      <c r="P63" s="342"/>
+      <c r="Q63" s="345"/>
       <c r="R63" s="259"/>
       <c r="S63" s="259"/>
       <c r="T63" s="259" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U63" s="259"/>
       <c r="V63" s="259"/>
@@ -12784,20 +12730,20 @@
     </row>
     <row r="64" spans="2:25">
       <c r="B64" s="18"/>
-      <c r="C64" s="367" t="s">
-        <v>103</v>
-      </c>
-      <c r="D64" s="356"/>
-      <c r="E64" s="356"/>
-      <c r="F64" s="356"/>
-      <c r="G64" s="356"/>
-      <c r="H64" s="356"/>
-      <c r="I64" s="356"/>
-      <c r="J64" s="357"/>
-      <c r="K64" s="361" t="s">
-        <v>77</v>
-      </c>
-      <c r="L64" s="363">
+      <c r="C64" s="369" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="359"/>
+      <c r="E64" s="359"/>
+      <c r="F64" s="359"/>
+      <c r="G64" s="359"/>
+      <c r="H64" s="359"/>
+      <c r="I64" s="359"/>
+      <c r="J64" s="360"/>
+      <c r="K64" s="364" t="s">
+        <v>76</v>
+      </c>
+      <c r="L64" s="366">
         <v>0</v>
       </c>
       <c r="M64" s="115" t="s">
@@ -12806,11 +12752,11 @@
       <c r="N64" s="294"/>
       <c r="O64" s="296"/>
       <c r="P64" s="296"/>
-      <c r="Q64" s="340"/>
+      <c r="Q64" s="338"/>
       <c r="R64" s="259"/>
       <c r="S64" s="259"/>
       <c r="T64" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U64" s="259"/>
       <c r="V64" s="259"/>
@@ -12820,23 +12766,23 @@
     </row>
     <row r="65" spans="2:35">
       <c r="B65" s="18"/>
-      <c r="C65" s="359"/>
-      <c r="D65" s="359"/>
-      <c r="E65" s="359"/>
-      <c r="F65" s="359"/>
-      <c r="G65" s="359"/>
-      <c r="H65" s="359"/>
-      <c r="I65" s="359"/>
-      <c r="J65" s="360"/>
-      <c r="K65" s="378"/>
-      <c r="L65" s="364"/>
+      <c r="C65" s="362"/>
+      <c r="D65" s="362"/>
+      <c r="E65" s="362"/>
+      <c r="F65" s="362"/>
+      <c r="G65" s="362"/>
+      <c r="H65" s="362"/>
+      <c r="I65" s="362"/>
+      <c r="J65" s="363"/>
+      <c r="K65" s="377"/>
+      <c r="L65" s="367"/>
       <c r="M65" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N65" s="149"/>
       <c r="O65" s="149"/>
       <c r="P65" s="149"/>
-      <c r="Q65" s="341"/>
+      <c r="Q65" s="339"/>
       <c r="R65" s="259"/>
       <c r="S65" s="259"/>
       <c r="T65" s="259"/>
@@ -12848,21 +12794,21 @@
     </row>
     <row r="66" spans="2:35">
       <c r="B66" s="18"/>
-      <c r="C66" s="367" t="s">
-        <v>104</v>
-      </c>
-      <c r="D66" s="356"/>
-      <c r="E66" s="356"/>
-      <c r="F66" s="356"/>
-      <c r="G66" s="356"/>
-      <c r="H66" s="356"/>
-      <c r="I66" s="356"/>
-      <c r="J66" s="357"/>
-      <c r="K66" s="377" t="s">
-        <v>77</v>
-      </c>
-      <c r="L66" s="363">
-        <v>0</v>
+      <c r="C66" s="369" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="359"/>
+      <c r="E66" s="359"/>
+      <c r="F66" s="359"/>
+      <c r="G66" s="359"/>
+      <c r="H66" s="359"/>
+      <c r="I66" s="359"/>
+      <c r="J66" s="360"/>
+      <c r="K66" s="376" t="s">
+        <v>76</v>
+      </c>
+      <c r="L66" s="366">
+        <v>1</v>
       </c>
       <c r="M66" s="115" t="s">
         <v>26</v>
@@ -12870,7 +12816,7 @@
       <c r="N66" s="294"/>
       <c r="O66" s="296"/>
       <c r="P66" s="296"/>
-      <c r="Q66" s="340"/>
+      <c r="Q66" s="338"/>
       <c r="R66" s="259"/>
       <c r="S66" s="259"/>
       <c r="T66" s="259"/>
@@ -12882,23 +12828,23 @@
     </row>
     <row r="67" spans="2:35">
       <c r="B67" s="18"/>
-      <c r="C67" s="359"/>
-      <c r="D67" s="359"/>
-      <c r="E67" s="359"/>
-      <c r="F67" s="359"/>
-      <c r="G67" s="359"/>
-      <c r="H67" s="359"/>
-      <c r="I67" s="359"/>
-      <c r="J67" s="360"/>
-      <c r="K67" s="362"/>
-      <c r="L67" s="364"/>
+      <c r="C67" s="362"/>
+      <c r="D67" s="362"/>
+      <c r="E67" s="362"/>
+      <c r="F67" s="362"/>
+      <c r="G67" s="362"/>
+      <c r="H67" s="362"/>
+      <c r="I67" s="362"/>
+      <c r="J67" s="363"/>
+      <c r="K67" s="365"/>
+      <c r="L67" s="367"/>
       <c r="M67" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="N67" s="317"/>
+      <c r="N67" s="316"/>
       <c r="O67" s="100"/>
-      <c r="P67" s="317"/>
-      <c r="Q67" s="342"/>
+      <c r="P67" s="316"/>
+      <c r="Q67" s="340"/>
       <c r="R67" s="259"/>
       <c r="S67" s="259"/>
       <c r="T67" s="259"/>
@@ -12910,21 +12856,21 @@
     </row>
     <row r="68" spans="2:35">
       <c r="B68" s="18"/>
-      <c r="C68" s="367" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" s="356"/>
-      <c r="E68" s="356"/>
-      <c r="F68" s="356"/>
-      <c r="G68" s="356"/>
-      <c r="H68" s="356"/>
-      <c r="I68" s="356"/>
-      <c r="J68" s="357"/>
-      <c r="K68" s="361" t="s">
-        <v>73</v>
-      </c>
-      <c r="L68" s="363">
-        <v>0</v>
+      <c r="C68" s="369" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="359"/>
+      <c r="E68" s="359"/>
+      <c r="F68" s="359"/>
+      <c r="G68" s="359"/>
+      <c r="H68" s="359"/>
+      <c r="I68" s="359"/>
+      <c r="J68" s="360"/>
+      <c r="K68" s="364" t="s">
+        <v>72</v>
+      </c>
+      <c r="L68" s="366">
+        <v>1</v>
       </c>
       <c r="M68" s="115" t="s">
         <v>26</v>
@@ -12932,7 +12878,7 @@
       <c r="N68" s="294"/>
       <c r="O68" s="296"/>
       <c r="P68" s="296"/>
-      <c r="Q68" s="340"/>
+      <c r="Q68" s="338"/>
       <c r="R68" s="259"/>
       <c r="S68" s="259"/>
       <c r="T68" s="259"/>
@@ -12944,23 +12890,23 @@
     </row>
     <row r="69" spans="2:35">
       <c r="B69" s="18"/>
-      <c r="C69" s="359"/>
-      <c r="D69" s="359"/>
-      <c r="E69" s="359"/>
-      <c r="F69" s="359"/>
-      <c r="G69" s="359"/>
-      <c r="H69" s="359"/>
-      <c r="I69" s="359"/>
-      <c r="J69" s="360"/>
-      <c r="K69" s="362"/>
-      <c r="L69" s="364"/>
+      <c r="C69" s="362"/>
+      <c r="D69" s="362"/>
+      <c r="E69" s="362"/>
+      <c r="F69" s="362"/>
+      <c r="G69" s="362"/>
+      <c r="H69" s="362"/>
+      <c r="I69" s="362"/>
+      <c r="J69" s="363"/>
+      <c r="K69" s="365"/>
+      <c r="L69" s="367"/>
       <c r="M69" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="N69" s="318"/>
-      <c r="O69" s="318"/>
-      <c r="P69" s="318"/>
-      <c r="Q69" s="343"/>
+      <c r="N69" s="317"/>
+      <c r="O69" s="317"/>
+      <c r="P69" s="100"/>
+      <c r="Q69" s="341"/>
       <c r="R69" s="259"/>
       <c r="S69" s="259"/>
       <c r="T69" s="259"/>
@@ -12972,21 +12918,21 @@
     </row>
     <row r="70" spans="2:35">
       <c r="B70" s="18"/>
-      <c r="C70" s="367" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70" s="356"/>
-      <c r="E70" s="356"/>
-      <c r="F70" s="356"/>
-      <c r="G70" s="356"/>
-      <c r="H70" s="356"/>
-      <c r="I70" s="356"/>
-      <c r="J70" s="357"/>
-      <c r="K70" s="361" t="s">
-        <v>73</v>
-      </c>
-      <c r="L70" s="363">
-        <v>0</v>
+      <c r="C70" s="369" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="359"/>
+      <c r="E70" s="359"/>
+      <c r="F70" s="359"/>
+      <c r="G70" s="359"/>
+      <c r="H70" s="359"/>
+      <c r="I70" s="359"/>
+      <c r="J70" s="360"/>
+      <c r="K70" s="364" t="s">
+        <v>72</v>
+      </c>
+      <c r="L70" s="366">
+        <v>1</v>
       </c>
       <c r="M70" s="115" t="s">
         <v>26</v>
@@ -12994,7 +12940,7 @@
       <c r="N70" s="294"/>
       <c r="O70" s="296"/>
       <c r="P70" s="296"/>
-      <c r="Q70" s="340"/>
+      <c r="Q70" s="338"/>
       <c r="R70" s="259"/>
       <c r="S70" s="259"/>
       <c r="T70" s="259"/>
@@ -13006,23 +12952,23 @@
     </row>
     <row r="71" spans="2:35">
       <c r="B71" s="18"/>
-      <c r="C71" s="359"/>
-      <c r="D71" s="359"/>
-      <c r="E71" s="359"/>
-      <c r="F71" s="359"/>
-      <c r="G71" s="359"/>
-      <c r="H71" s="359"/>
-      <c r="I71" s="359"/>
-      <c r="J71" s="360"/>
-      <c r="K71" s="362"/>
-      <c r="L71" s="364"/>
+      <c r="C71" s="362"/>
+      <c r="D71" s="362"/>
+      <c r="E71" s="362"/>
+      <c r="F71" s="362"/>
+      <c r="G71" s="362"/>
+      <c r="H71" s="362"/>
+      <c r="I71" s="362"/>
+      <c r="J71" s="363"/>
+      <c r="K71" s="365"/>
+      <c r="L71" s="367"/>
       <c r="M71" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N71" s="190"/>
       <c r="O71" s="100"/>
       <c r="P71" s="149"/>
-      <c r="Q71" s="341"/>
+      <c r="Q71" s="339"/>
       <c r="R71" s="259"/>
       <c r="S71" s="259"/>
       <c r="T71" s="259"/>
@@ -13046,9 +12992,9 @@
       <c r="L72" s="147"/>
       <c r="M72" s="22"/>
       <c r="N72" s="191"/>
-      <c r="O72" s="317"/>
-      <c r="P72" s="317"/>
-      <c r="Q72" s="342"/>
+      <c r="O72" s="316"/>
+      <c r="P72" s="316"/>
+      <c r="Q72" s="340"/>
       <c r="R72" s="259"/>
       <c r="S72" s="259"/>
       <c r="T72" s="259"/>
@@ -13108,6 +13054,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="C34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="C36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="C38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="C46:J47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="C54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="C70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="C66:J67"/>
+    <mergeCell ref="C68:J69"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K69"/>
     <mergeCell ref="L8:AC8"/>
     <mergeCell ref="L7:AC7"/>
     <mergeCell ref="C52:J53"/>
@@ -13124,52 +13116,6 @@
     <mergeCell ref="L56:L57"/>
     <mergeCell ref="C58:J59"/>
     <mergeCell ref="K58:K59"/>
-    <mergeCell ref="C70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="C66:J67"/>
-    <mergeCell ref="C68:J69"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="C60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="C54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="C42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="C48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="C46:J47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="C38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="C36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -13188,7 +13134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1E69AA-C7D0-4C51-9F8C-E89B9B560452}">
   <dimension ref="B7:AC38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
   <cols>
@@ -13215,26 +13161,26 @@
       <c r="I9" s="180"/>
       <c r="J9" s="180"/>
       <c r="K9" s="180"/>
-      <c r="L9" s="344">
+      <c r="L9" s="347">
         <v>2020</v>
       </c>
-      <c r="M9" s="344"/>
-      <c r="N9" s="344"/>
-      <c r="O9" s="344"/>
-      <c r="P9" s="344"/>
-      <c r="Q9" s="344"/>
-      <c r="R9" s="344"/>
-      <c r="S9" s="344"/>
-      <c r="T9" s="344"/>
-      <c r="U9" s="344"/>
-      <c r="V9" s="344"/>
-      <c r="W9" s="344"/>
-      <c r="X9" s="344"/>
-      <c r="Y9" s="344"/>
-      <c r="Z9" s="344"/>
-      <c r="AA9" s="344"/>
-      <c r="AB9" s="344"/>
-      <c r="AC9" s="344"/>
+      <c r="M9" s="347"/>
+      <c r="N9" s="347"/>
+      <c r="O9" s="347"/>
+      <c r="P9" s="347"/>
+      <c r="Q9" s="347"/>
+      <c r="R9" s="347"/>
+      <c r="S9" s="347"/>
+      <c r="T9" s="347"/>
+      <c r="U9" s="347"/>
+      <c r="V9" s="347"/>
+      <c r="W9" s="347"/>
+      <c r="X9" s="347"/>
+      <c r="Y9" s="347"/>
+      <c r="Z9" s="347"/>
+      <c r="AA9" s="347"/>
+      <c r="AB9" s="347"/>
+      <c r="AC9" s="347"/>
     </row>
     <row r="10" spans="3:29">
       <c r="C10" s="181"/>
@@ -13246,26 +13192,26 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="344">
+      <c r="L10" s="347">
         <v>6</v>
       </c>
-      <c r="M10" s="344"/>
-      <c r="N10" s="344"/>
-      <c r="O10" s="344"/>
-      <c r="P10" s="344"/>
-      <c r="Q10" s="344"/>
-      <c r="R10" s="344"/>
-      <c r="S10" s="344"/>
-      <c r="T10" s="344"/>
-      <c r="U10" s="344"/>
-      <c r="V10" s="344"/>
-      <c r="W10" s="344"/>
-      <c r="X10" s="344"/>
-      <c r="Y10" s="344"/>
-      <c r="Z10" s="344"/>
-      <c r="AA10" s="344"/>
-      <c r="AB10" s="344"/>
-      <c r="AC10" s="344"/>
+      <c r="M10" s="347"/>
+      <c r="N10" s="347"/>
+      <c r="O10" s="347"/>
+      <c r="P10" s="347"/>
+      <c r="Q10" s="347"/>
+      <c r="R10" s="347"/>
+      <c r="S10" s="347"/>
+      <c r="T10" s="347"/>
+      <c r="U10" s="347"/>
+      <c r="V10" s="347"/>
+      <c r="W10" s="347"/>
+      <c r="X10" s="347"/>
+      <c r="Y10" s="347"/>
+      <c r="Z10" s="347"/>
+      <c r="AA10" s="347"/>
+      <c r="AB10" s="347"/>
+      <c r="AC10" s="347"/>
     </row>
     <row r="11" spans="3:29">
       <c r="C11" s="9"/>
@@ -13379,7 +13325,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="319"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
       <c r="O13" s="24"/>
@@ -13412,10 +13358,10 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="319"/>
+      <c r="L14" s="318"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="319"/>
+      <c r="O14" s="318"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="24"/>
       <c r="R14" s="16"/>
@@ -13448,7 +13394,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="319"/>
+      <c r="O15" s="318"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="16"/>
@@ -13482,7 +13428,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="24"/>
-      <c r="P16" s="319"/>
+      <c r="P16" s="318"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
@@ -13516,12 +13462,12 @@
       <c r="N17" s="17"/>
       <c r="O17" s="24"/>
       <c r="P17" s="16"/>
-      <c r="Q17" s="319"/>
-      <c r="R17" s="319"/>
-      <c r="S17" s="319"/>
+      <c r="Q17" s="318"/>
+      <c r="R17" s="318"/>
+      <c r="S17" s="318"/>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
-      <c r="V17" s="319"/>
+      <c r="V17" s="318"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
@@ -13555,7 +13501,7 @@
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
       <c r="V18" s="16"/>
-      <c r="W18" s="319"/>
+      <c r="W18" s="318"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
@@ -13589,7 +13535,7 @@
       <c r="U19" s="17"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
-      <c r="X19" s="319"/>
+      <c r="X19" s="318"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
       <c r="AA19" s="17"/>
@@ -13599,10 +13545,10 @@
     <row r="20" spans="2:29">
       <c r="C20" s="22"/>
       <c r="D20" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
@@ -13627,11 +13573,11 @@
       <c r="Z20" s="24"/>
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
-      <c r="AC20" s="319"/>
+      <c r="AC20" s="318"/>
     </row>
     <row r="23" spans="2:29" ht="24">
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:29">
@@ -13660,13 +13606,15 @@
       <c r="L25" s="4"/>
       <c r="M25" s="3"/>
       <c r="N25" s="162" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="102"/>
       <c r="R25" s="102"/>
       <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
     </row>
     <row r="26" spans="2:29">
       <c r="B26" s="6"/>
@@ -13695,6 +13643,8 @@
       <c r="Q26" s="107"/>
       <c r="R26" s="107"/>
       <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="9"/>
@@ -13727,13 +13677,19 @@
       <c r="S27" s="164">
         <v>24</v>
       </c>
+      <c r="T27" s="164">
+        <v>25</v>
+      </c>
+      <c r="U27" s="164">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="2:29">
       <c r="B28" s="13">
         <v>8</v>
       </c>
       <c r="C28" s="110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="111"/>
       <c r="E28" s="111"/>
@@ -13751,6 +13707,8 @@
       <c r="Q28" s="278"/>
       <c r="R28" s="272"/>
       <c r="S28" s="272"/>
+      <c r="T28" s="272"/>
+      <c r="U28" s="272"/>
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="18"/>
@@ -13758,7 +13716,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="167" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="111"/>
       <c r="F29" s="111"/>
@@ -13775,24 +13733,26 @@
       <c r="Q29" s="278"/>
       <c r="R29" s="272"/>
       <c r="S29" s="272"/>
+      <c r="T29" s="272"/>
+      <c r="U29" s="272"/>
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="18"/>
-      <c r="C30" s="386" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="381"/>
-      <c r="E30" s="381"/>
-      <c r="F30" s="381"/>
-      <c r="G30" s="381"/>
-      <c r="H30" s="381"/>
-      <c r="I30" s="381"/>
-      <c r="J30" s="382"/>
-      <c r="K30" s="361" t="s">
+      <c r="C30" s="389" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="384"/>
+      <c r="E30" s="384"/>
+      <c r="F30" s="384"/>
+      <c r="G30" s="384"/>
+      <c r="H30" s="384"/>
+      <c r="I30" s="384"/>
+      <c r="J30" s="385"/>
+      <c r="K30" s="364" t="s">
         <v>52</v>
       </c>
       <c r="L30" s="368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="115" t="s">
         <v>26</v>
@@ -13803,22 +13763,24 @@
       <c r="Q30" s="279"/>
       <c r="R30" s="276"/>
       <c r="S30" s="282"/>
-      <c r="T30" s="2" t="s">
-        <v>111</v>
+      <c r="T30" s="276"/>
+      <c r="U30" s="276"/>
+      <c r="V30" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="18"/>
-      <c r="C31" s="383"/>
-      <c r="D31" s="384"/>
-      <c r="E31" s="384"/>
-      <c r="F31" s="384"/>
-      <c r="G31" s="384"/>
-      <c r="H31" s="384"/>
-      <c r="I31" s="384"/>
-      <c r="J31" s="385"/>
-      <c r="K31" s="362"/>
-      <c r="L31" s="362"/>
+      <c r="C31" s="386"/>
+      <c r="D31" s="387"/>
+      <c r="E31" s="387"/>
+      <c r="F31" s="387"/>
+      <c r="G31" s="387"/>
+      <c r="H31" s="387"/>
+      <c r="I31" s="387"/>
+      <c r="J31" s="388"/>
+      <c r="K31" s="365"/>
+      <c r="L31" s="365"/>
       <c r="M31" s="117" t="s">
         <v>27</v>
       </c>
@@ -13828,6 +13790,8 @@
       <c r="Q31" s="280"/>
       <c r="R31" s="277"/>
       <c r="S31" s="277"/>
+      <c r="T31" s="277"/>
+      <c r="U31" s="346"/>
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="18"/>
@@ -13835,7 +13799,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" s="111"/>
       <c r="F32" s="111"/>
@@ -13852,24 +13816,26 @@
       <c r="Q32" s="278"/>
       <c r="R32" s="272"/>
       <c r="S32" s="272"/>
-    </row>
-    <row r="33" spans="2:20">
+      <c r="T32" s="272"/>
+      <c r="U32" s="272"/>
+    </row>
+    <row r="33" spans="2:22">
       <c r="B33" s="18"/>
-      <c r="C33" s="386" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="381"/>
-      <c r="E33" s="381"/>
-      <c r="F33" s="381"/>
-      <c r="G33" s="381"/>
-      <c r="H33" s="381"/>
-      <c r="I33" s="381"/>
-      <c r="J33" s="382"/>
-      <c r="K33" s="361" t="s">
+      <c r="C33" s="389" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="384"/>
+      <c r="E33" s="384"/>
+      <c r="F33" s="384"/>
+      <c r="G33" s="384"/>
+      <c r="H33" s="384"/>
+      <c r="I33" s="384"/>
+      <c r="J33" s="385"/>
+      <c r="K33" s="364" t="s">
         <v>52</v>
       </c>
       <c r="L33" s="368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="115" t="s">
         <v>26</v>
@@ -13880,22 +13846,24 @@
       <c r="Q33" s="279"/>
       <c r="R33" s="276"/>
       <c r="S33" s="282"/>
-      <c r="T33" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20">
+      <c r="T33" s="276"/>
+      <c r="U33" s="276"/>
+      <c r="V33" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
       <c r="B34" s="18"/>
-      <c r="C34" s="383"/>
-      <c r="D34" s="384"/>
-      <c r="E34" s="384"/>
-      <c r="F34" s="384"/>
-      <c r="G34" s="384"/>
-      <c r="H34" s="384"/>
-      <c r="I34" s="384"/>
-      <c r="J34" s="385"/>
-      <c r="K34" s="362"/>
-      <c r="L34" s="362"/>
+      <c r="C34" s="386"/>
+      <c r="D34" s="387"/>
+      <c r="E34" s="387"/>
+      <c r="F34" s="387"/>
+      <c r="G34" s="387"/>
+      <c r="H34" s="387"/>
+      <c r="I34" s="387"/>
+      <c r="J34" s="388"/>
+      <c r="K34" s="365"/>
+      <c r="L34" s="365"/>
       <c r="M34" s="117" t="s">
         <v>27</v>
       </c>
@@ -13905,24 +13873,26 @@
       <c r="Q34" s="280"/>
       <c r="R34" s="277"/>
       <c r="S34" s="277"/>
-    </row>
-    <row r="35" spans="2:20">
+      <c r="T34" s="277"/>
+      <c r="U34" s="346"/>
+    </row>
+    <row r="35" spans="2:22">
       <c r="B35" s="18"/>
-      <c r="C35" s="380" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="381"/>
-      <c r="E35" s="381"/>
-      <c r="F35" s="381"/>
-      <c r="G35" s="381"/>
-      <c r="H35" s="381"/>
-      <c r="I35" s="381"/>
-      <c r="J35" s="382"/>
-      <c r="K35" s="361" t="s">
+      <c r="C35" s="383" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="384"/>
+      <c r="E35" s="384"/>
+      <c r="F35" s="384"/>
+      <c r="G35" s="384"/>
+      <c r="H35" s="384"/>
+      <c r="I35" s="384"/>
+      <c r="J35" s="385"/>
+      <c r="K35" s="364" t="s">
         <v>52</v>
       </c>
       <c r="L35" s="368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="115" t="s">
         <v>26</v>
@@ -13933,22 +13903,24 @@
       <c r="Q35" s="279"/>
       <c r="R35" s="276"/>
       <c r="S35" s="282"/>
-      <c r="T35" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20">
+      <c r="T35" s="276"/>
+      <c r="U35" s="276"/>
+      <c r="V35" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
       <c r="B36" s="18"/>
-      <c r="C36" s="383"/>
-      <c r="D36" s="384"/>
-      <c r="E36" s="384"/>
-      <c r="F36" s="384"/>
-      <c r="G36" s="384"/>
-      <c r="H36" s="384"/>
-      <c r="I36" s="384"/>
-      <c r="J36" s="385"/>
-      <c r="K36" s="362"/>
-      <c r="L36" s="362"/>
+      <c r="C36" s="386"/>
+      <c r="D36" s="387"/>
+      <c r="E36" s="387"/>
+      <c r="F36" s="387"/>
+      <c r="G36" s="387"/>
+      <c r="H36" s="387"/>
+      <c r="I36" s="387"/>
+      <c r="J36" s="388"/>
+      <c r="K36" s="365"/>
+      <c r="L36" s="365"/>
       <c r="M36" s="117" t="s">
         <v>27</v>
       </c>
@@ -13958,8 +13930,10 @@
       <c r="Q36" s="280"/>
       <c r="R36" s="277"/>
       <c r="S36" s="277"/>
-    </row>
-    <row r="37" spans="2:20">
+      <c r="T36" s="277"/>
+      <c r="U36" s="346"/>
+    </row>
+    <row r="37" spans="2:22">
       <c r="B37" s="22"/>
       <c r="C37" s="120"/>
       <c r="D37" s="121"/>
@@ -13978,10 +13952,12 @@
       <c r="Q37" s="281"/>
       <c r="R37" s="273"/>
       <c r="S37" s="273"/>
-    </row>
-    <row r="38" spans="2:20">
-      <c r="T38" s="2" t="s">
-        <v>113</v>
+      <c r="T37" s="273"/>
+      <c r="U37" s="273"/>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="Q38" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -14042,26 +14018,26 @@
       <c r="I8" s="180"/>
       <c r="J8" s="180"/>
       <c r="K8" s="180"/>
-      <c r="L8" s="344">
+      <c r="L8" s="347">
         <v>2020</v>
       </c>
-      <c r="M8" s="344"/>
-      <c r="N8" s="344"/>
-      <c r="O8" s="344"/>
-      <c r="P8" s="344"/>
-      <c r="Q8" s="344"/>
-      <c r="R8" s="344"/>
-      <c r="S8" s="344"/>
-      <c r="T8" s="344"/>
-      <c r="U8" s="344"/>
-      <c r="V8" s="344"/>
-      <c r="W8" s="344"/>
-      <c r="X8" s="344"/>
-      <c r="Y8" s="344"/>
-      <c r="Z8" s="344"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="344"/>
-      <c r="AC8" s="344"/>
+      <c r="M8" s="347"/>
+      <c r="N8" s="347"/>
+      <c r="O8" s="347"/>
+      <c r="P8" s="347"/>
+      <c r="Q8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="347"/>
+      <c r="T8" s="347"/>
+      <c r="U8" s="347"/>
+      <c r="V8" s="347"/>
+      <c r="W8" s="347"/>
+      <c r="X8" s="347"/>
+      <c r="Y8" s="347"/>
+      <c r="Z8" s="347"/>
+      <c r="AA8" s="347"/>
+      <c r="AB8" s="347"/>
+      <c r="AC8" s="347"/>
     </row>
     <row r="9" spans="3:29">
       <c r="C9" s="181"/>
@@ -14073,26 +14049,26 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="344">
+      <c r="L9" s="347">
         <v>6</v>
       </c>
-      <c r="M9" s="344"/>
-      <c r="N9" s="344"/>
-      <c r="O9" s="344"/>
-      <c r="P9" s="344"/>
-      <c r="Q9" s="344"/>
-      <c r="R9" s="344"/>
-      <c r="S9" s="344"/>
-      <c r="T9" s="344"/>
-      <c r="U9" s="344"/>
-      <c r="V9" s="344"/>
-      <c r="W9" s="344"/>
-      <c r="X9" s="344"/>
-      <c r="Y9" s="344"/>
-      <c r="Z9" s="344"/>
-      <c r="AA9" s="344"/>
-      <c r="AB9" s="344"/>
-      <c r="AC9" s="344"/>
+      <c r="M9" s="347"/>
+      <c r="N9" s="347"/>
+      <c r="O9" s="347"/>
+      <c r="P9" s="347"/>
+      <c r="Q9" s="347"/>
+      <c r="R9" s="347"/>
+      <c r="S9" s="347"/>
+      <c r="T9" s="347"/>
+      <c r="U9" s="347"/>
+      <c r="V9" s="347"/>
+      <c r="W9" s="347"/>
+      <c r="X9" s="347"/>
+      <c r="Y9" s="347"/>
+      <c r="Z9" s="347"/>
+      <c r="AA9" s="347"/>
+      <c r="AB9" s="347"/>
+      <c r="AC9" s="347"/>
     </row>
     <row r="10" spans="3:29">
       <c r="C10" s="9"/>
@@ -14206,7 +14182,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="319"/>
+      <c r="L12" s="318"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="24"/>
@@ -14239,10 +14215,10 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="319"/>
+      <c r="L13" s="318"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="319"/>
+      <c r="O13" s="318"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="16"/>
@@ -14275,7 +14251,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="319"/>
+      <c r="O14" s="318"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="24"/>
       <c r="R14" s="16"/>
@@ -14309,7 +14285,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="24"/>
-      <c r="P15" s="319"/>
+      <c r="P15" s="318"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
@@ -14343,12 +14319,12 @@
       <c r="N16" s="17"/>
       <c r="O16" s="24"/>
       <c r="P16" s="16"/>
-      <c r="Q16" s="319"/>
-      <c r="R16" s="319"/>
-      <c r="S16" s="319"/>
+      <c r="Q16" s="318"/>
+      <c r="R16" s="318"/>
+      <c r="S16" s="318"/>
       <c r="T16" s="17"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="319"/>
+      <c r="V16" s="318"/>
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
@@ -14382,7 +14358,7 @@
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
       <c r="V17" s="16"/>
-      <c r="W17" s="319"/>
+      <c r="W17" s="318"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
@@ -14416,7 +14392,7 @@
       <c r="U18" s="17"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
-      <c r="X18" s="319"/>
+      <c r="X18" s="318"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
       <c r="AA18" s="17"/>
@@ -14426,10 +14402,10 @@
     <row r="19" spans="2:29">
       <c r="C19" s="22"/>
       <c r="D19" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
@@ -14454,11 +14430,11 @@
       <c r="Z19" s="24"/>
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
-      <c r="AC19" s="319"/>
+      <c r="AC19" s="318"/>
     </row>
     <row r="23" spans="2:29" ht="24">
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:29">
@@ -14487,7 +14463,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="3"/>
       <c r="N25" s="173" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O25" s="173"/>
       <c r="P25" s="173"/>
@@ -14583,7 +14559,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="110" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="111"/>
       <c r="E28" s="111"/>
@@ -14613,17 +14589,17 @@
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="18"/>
-      <c r="C29" s="387" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="356"/>
-      <c r="E29" s="356"/>
-      <c r="F29" s="356"/>
-      <c r="G29" s="356"/>
-      <c r="H29" s="356"/>
-      <c r="I29" s="356"/>
-      <c r="J29" s="357"/>
-      <c r="K29" s="361" t="s">
+      <c r="C29" s="390" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="359"/>
+      <c r="E29" s="359"/>
+      <c r="F29" s="359"/>
+      <c r="G29" s="359"/>
+      <c r="H29" s="359"/>
+      <c r="I29" s="359"/>
+      <c r="J29" s="360"/>
+      <c r="K29" s="364" t="s">
         <v>52</v>
       </c>
       <c r="L29" s="368">
@@ -14637,7 +14613,7 @@
       <c r="P29" s="284"/>
       <c r="Q29" s="99"/>
       <c r="R29" s="171" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S29" s="171"/>
       <c r="T29" s="171"/>
@@ -14652,16 +14628,16 @@
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="18"/>
-      <c r="C30" s="358"/>
-      <c r="D30" s="359"/>
-      <c r="E30" s="359"/>
-      <c r="F30" s="359"/>
-      <c r="G30" s="359"/>
-      <c r="H30" s="359"/>
-      <c r="I30" s="359"/>
-      <c r="J30" s="360"/>
-      <c r="K30" s="362"/>
-      <c r="L30" s="362"/>
+      <c r="C30" s="361"/>
+      <c r="D30" s="362"/>
+      <c r="E30" s="362"/>
+      <c r="F30" s="362"/>
+      <c r="G30" s="362"/>
+      <c r="H30" s="362"/>
+      <c r="I30" s="362"/>
+      <c r="J30" s="363"/>
+      <c r="K30" s="365"/>
+      <c r="L30" s="365"/>
       <c r="M30" s="117" t="s">
         <v>27</v>
       </c>
@@ -14683,17 +14659,17 @@
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="18"/>
-      <c r="C31" s="355" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="356"/>
-      <c r="E31" s="356"/>
-      <c r="F31" s="356"/>
-      <c r="G31" s="356"/>
-      <c r="H31" s="356"/>
-      <c r="I31" s="356"/>
-      <c r="J31" s="357"/>
-      <c r="K31" s="361" t="s">
+      <c r="C31" s="358" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="359"/>
+      <c r="E31" s="359"/>
+      <c r="F31" s="359"/>
+      <c r="G31" s="359"/>
+      <c r="H31" s="359"/>
+      <c r="I31" s="359"/>
+      <c r="J31" s="360"/>
+      <c r="K31" s="364" t="s">
         <v>52</v>
       </c>
       <c r="L31" s="368">
@@ -14707,7 +14683,7 @@
       <c r="P31" s="284"/>
       <c r="Q31" s="99"/>
       <c r="R31" s="171" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S31" s="171"/>
       <c r="T31" s="171"/>
@@ -14722,16 +14698,16 @@
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="18"/>
-      <c r="C32" s="358"/>
-      <c r="D32" s="359"/>
-      <c r="E32" s="359"/>
-      <c r="F32" s="359"/>
-      <c r="G32" s="359"/>
-      <c r="H32" s="359"/>
-      <c r="I32" s="359"/>
-      <c r="J32" s="360"/>
-      <c r="K32" s="362"/>
-      <c r="L32" s="362"/>
+      <c r="C32" s="361"/>
+      <c r="D32" s="362"/>
+      <c r="E32" s="362"/>
+      <c r="F32" s="362"/>
+      <c r="G32" s="362"/>
+      <c r="H32" s="362"/>
+      <c r="I32" s="362"/>
+      <c r="J32" s="363"/>
+      <c r="K32" s="365"/>
+      <c r="L32" s="365"/>
       <c r="M32" s="117" t="s">
         <v>27</v>
       </c>
@@ -14753,17 +14729,17 @@
     </row>
     <row r="33" spans="2:28">
       <c r="B33" s="18"/>
-      <c r="C33" s="355" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="356"/>
-      <c r="E33" s="356"/>
-      <c r="F33" s="356"/>
-      <c r="G33" s="356"/>
-      <c r="H33" s="356"/>
-      <c r="I33" s="356"/>
-      <c r="J33" s="357"/>
-      <c r="K33" s="361" t="s">
+      <c r="C33" s="358" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="359"/>
+      <c r="E33" s="359"/>
+      <c r="F33" s="359"/>
+      <c r="G33" s="359"/>
+      <c r="H33" s="359"/>
+      <c r="I33" s="359"/>
+      <c r="J33" s="360"/>
+      <c r="K33" s="364" t="s">
         <v>52</v>
       </c>
       <c r="L33" s="368">
@@ -14777,7 +14753,7 @@
       <c r="P33" s="284"/>
       <c r="Q33" s="99"/>
       <c r="R33" s="171" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S33" s="171"/>
       <c r="T33" s="171"/>
@@ -14792,16 +14768,16 @@
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="18"/>
-      <c r="C34" s="358"/>
-      <c r="D34" s="359"/>
-      <c r="E34" s="359"/>
-      <c r="F34" s="359"/>
-      <c r="G34" s="359"/>
-      <c r="H34" s="359"/>
-      <c r="I34" s="359"/>
-      <c r="J34" s="360"/>
-      <c r="K34" s="362"/>
-      <c r="L34" s="362"/>
+      <c r="C34" s="361"/>
+      <c r="D34" s="362"/>
+      <c r="E34" s="362"/>
+      <c r="F34" s="362"/>
+      <c r="G34" s="362"/>
+      <c r="H34" s="362"/>
+      <c r="I34" s="362"/>
+      <c r="J34" s="363"/>
+      <c r="K34" s="365"/>
+      <c r="L34" s="365"/>
       <c r="M34" s="117" t="s">
         <v>27</v>
       </c>

--- a/Dグループ_スケジュール.xlsx
+++ b/Dグループ_スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\グループ開発　クローン\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A676CBCC-8E6D-4BA0-A83A-581FF9D90AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E1CA4D-EA9B-452C-B916-C4766BB249CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,16 @@
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル定義!$A$1:$AE$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">プログラミング!$A$1:$AE$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">マイルストーン!$A$1:$AC$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">基本設計!$A$1:$AE$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">詳細設計!$A$1:$AE$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">総合試験!$A$1:$AD$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">単体試験!$A$1:$AE$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">発表準備!$A$1:$AD$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="118">
   <si>
     <t>【グループ開発（マイルストーン）】</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -678,29 +688,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>※14時～17時半まで</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>※9時～11時まで</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>※11時～13時まで</t>
     <rPh sb="3" eb="4">
       <t>ジ</t>
@@ -2339,7 +2326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="391">
+  <cellXfs count="392">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -3375,6 +3362,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3557,7 +3547,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s3135"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s3138"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4147,7 +4137,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s6204"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s6207"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4603,7 +4593,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s7227"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s7230"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4937,7 +4927,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s8249"/>
+                  <a14:cameraTool cellRange="[1]マイルストーン!A1:AC19" spid="_x0000_s8253"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5535,7 +5525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C3AED9-FED9-43A3-BF4F-D0851E0C8988}">
   <dimension ref="B2:AB15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="15.75"/>
   <cols>
@@ -5560,26 +5550,26 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="347">
+      <c r="K4" s="348">
         <v>2020</v>
       </c>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
-      <c r="O4" s="347"/>
-      <c r="P4" s="347"/>
-      <c r="Q4" s="347"/>
-      <c r="R4" s="347"/>
-      <c r="S4" s="347"/>
-      <c r="T4" s="347"/>
-      <c r="U4" s="347"/>
-      <c r="V4" s="347"/>
-      <c r="W4" s="347"/>
-      <c r="X4" s="347"/>
-      <c r="Y4" s="347"/>
-      <c r="Z4" s="347"/>
-      <c r="AA4" s="347"/>
-      <c r="AB4" s="347"/>
+      <c r="L4" s="348"/>
+      <c r="M4" s="348"/>
+      <c r="N4" s="348"/>
+      <c r="O4" s="348"/>
+      <c r="P4" s="348"/>
+      <c r="Q4" s="348"/>
+      <c r="R4" s="348"/>
+      <c r="S4" s="348"/>
+      <c r="T4" s="348"/>
+      <c r="U4" s="348"/>
+      <c r="V4" s="348"/>
+      <c r="W4" s="348"/>
+      <c r="X4" s="348"/>
+      <c r="Y4" s="348"/>
+      <c r="Z4" s="348"/>
+      <c r="AA4" s="348"/>
+      <c r="AB4" s="348"/>
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="6"/>
@@ -5591,26 +5581,26 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="347">
+      <c r="K5" s="348">
         <v>6</v>
       </c>
-      <c r="L5" s="347"/>
-      <c r="M5" s="347"/>
-      <c r="N5" s="347"/>
-      <c r="O5" s="347"/>
-      <c r="P5" s="347"/>
-      <c r="Q5" s="347"/>
-      <c r="R5" s="347"/>
-      <c r="S5" s="347"/>
-      <c r="T5" s="347"/>
-      <c r="U5" s="347"/>
-      <c r="V5" s="347"/>
-      <c r="W5" s="347"/>
-      <c r="X5" s="347"/>
-      <c r="Y5" s="347"/>
-      <c r="Z5" s="347"/>
-      <c r="AA5" s="347"/>
-      <c r="AB5" s="347"/>
+      <c r="L5" s="348"/>
+      <c r="M5" s="348"/>
+      <c r="N5" s="348"/>
+      <c r="O5" s="348"/>
+      <c r="P5" s="348"/>
+      <c r="Q5" s="348"/>
+      <c r="R5" s="348"/>
+      <c r="S5" s="348"/>
+      <c r="T5" s="348"/>
+      <c r="U5" s="348"/>
+      <c r="V5" s="348"/>
+      <c r="W5" s="348"/>
+      <c r="X5" s="348"/>
+      <c r="Y5" s="348"/>
+      <c r="Z5" s="348"/>
+      <c r="AA5" s="348"/>
+      <c r="AB5" s="348"/>
     </row>
     <row r="6" spans="2:28">
       <c r="B6" s="9"/>
@@ -5981,7 +5971,10 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="29" max="18" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -5989,7 +5982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D88AC82-2031-4E69-AB30-833C3B0C9F32}">
   <dimension ref="C5:AE61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG44" sqref="AG44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="15.75"/>
   <cols>
@@ -6020,26 +6015,26 @@
       <c r="J7" s="180"/>
       <c r="K7" s="180"/>
       <c r="L7" s="180"/>
-      <c r="M7" s="347">
+      <c r="M7" s="348">
         <v>2020</v>
       </c>
-      <c r="N7" s="347"/>
-      <c r="O7" s="347"/>
-      <c r="P7" s="347"/>
-      <c r="Q7" s="347"/>
-      <c r="R7" s="347"/>
-      <c r="S7" s="347"/>
-      <c r="T7" s="347"/>
-      <c r="U7" s="347"/>
-      <c r="V7" s="347"/>
-      <c r="W7" s="347"/>
-      <c r="X7" s="347"/>
-      <c r="Y7" s="347"/>
-      <c r="Z7" s="347"/>
-      <c r="AA7" s="347"/>
-      <c r="AB7" s="347"/>
-      <c r="AC7" s="347"/>
-      <c r="AD7" s="347"/>
+      <c r="N7" s="348"/>
+      <c r="O7" s="348"/>
+      <c r="P7" s="348"/>
+      <c r="Q7" s="348"/>
+      <c r="R7" s="348"/>
+      <c r="S7" s="348"/>
+      <c r="T7" s="348"/>
+      <c r="U7" s="348"/>
+      <c r="V7" s="348"/>
+      <c r="W7" s="348"/>
+      <c r="X7" s="348"/>
+      <c r="Y7" s="348"/>
+      <c r="Z7" s="348"/>
+      <c r="AA7" s="348"/>
+      <c r="AB7" s="348"/>
+      <c r="AC7" s="348"/>
+      <c r="AD7" s="348"/>
     </row>
     <row r="8" spans="4:30" ht="13.5" customHeight="1">
       <c r="D8" s="181"/>
@@ -6051,26 +6046,26 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="347">
+      <c r="M8" s="348">
         <v>6</v>
       </c>
-      <c r="N8" s="347"/>
-      <c r="O8" s="347"/>
-      <c r="P8" s="347"/>
-      <c r="Q8" s="347"/>
-      <c r="R8" s="347"/>
-      <c r="S8" s="347"/>
-      <c r="T8" s="347"/>
-      <c r="U8" s="347"/>
-      <c r="V8" s="347"/>
-      <c r="W8" s="347"/>
-      <c r="X8" s="347"/>
-      <c r="Y8" s="347"/>
-      <c r="Z8" s="347"/>
-      <c r="AA8" s="347"/>
-      <c r="AB8" s="347"/>
-      <c r="AC8" s="347"/>
-      <c r="AD8" s="347"/>
+      <c r="N8" s="348"/>
+      <c r="O8" s="348"/>
+      <c r="P8" s="348"/>
+      <c r="Q8" s="348"/>
+      <c r="R8" s="348"/>
+      <c r="S8" s="348"/>
+      <c r="T8" s="348"/>
+      <c r="U8" s="348"/>
+      <c r="V8" s="348"/>
+      <c r="W8" s="348"/>
+      <c r="X8" s="348"/>
+      <c r="Y8" s="348"/>
+      <c r="Z8" s="348"/>
+      <c r="AA8" s="348"/>
+      <c r="AB8" s="348"/>
+      <c r="AC8" s="348"/>
+      <c r="AD8" s="348"/>
     </row>
     <row r="9" spans="4:30" ht="13.5" customHeight="1">
       <c r="D9" s="9"/>
@@ -6720,10 +6715,10 @@
       <c r="J34" s="80"/>
       <c r="K34" s="80"/>
       <c r="L34" s="81"/>
-      <c r="M34" s="350" t="s">
+      <c r="M34" s="351" t="s">
         <v>72</v>
       </c>
-      <c r="N34" s="348">
+      <c r="N34" s="349">
         <v>1</v>
       </c>
       <c r="O34" s="62" t="s">
@@ -6757,8 +6752,8 @@
       <c r="J35" s="83"/>
       <c r="K35" s="83"/>
       <c r="L35" s="84"/>
-      <c r="M35" s="351"/>
-      <c r="N35" s="349"/>
+      <c r="M35" s="352"/>
+      <c r="N35" s="350"/>
       <c r="O35" s="66" t="s">
         <v>27</v>
       </c>
@@ -6792,10 +6787,10 @@
       <c r="J36" s="80"/>
       <c r="K36" s="80"/>
       <c r="L36" s="81"/>
-      <c r="M36" s="350" t="s">
+      <c r="M36" s="351" t="s">
         <v>73</v>
       </c>
-      <c r="N36" s="348">
+      <c r="N36" s="349">
         <v>1</v>
       </c>
       <c r="O36" s="62" t="s">
@@ -6829,8 +6824,8 @@
       <c r="J37" s="83"/>
       <c r="K37" s="83"/>
       <c r="L37" s="84"/>
-      <c r="M37" s="351"/>
-      <c r="N37" s="349"/>
+      <c r="M37" s="352"/>
+      <c r="N37" s="350"/>
       <c r="O37" s="66" t="s">
         <v>27</v>
       </c>
@@ -6864,10 +6859,10 @@
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
       <c r="L38" s="81"/>
-      <c r="M38" s="350" t="s">
+      <c r="M38" s="351" t="s">
         <v>75</v>
       </c>
-      <c r="N38" s="348">
+      <c r="N38" s="349">
         <v>1</v>
       </c>
       <c r="O38" s="62" t="s">
@@ -6901,8 +6896,8 @@
       <c r="J39" s="83"/>
       <c r="K39" s="83"/>
       <c r="L39" s="84"/>
-      <c r="M39" s="351"/>
-      <c r="N39" s="349"/>
+      <c r="M39" s="352"/>
+      <c r="N39" s="350"/>
       <c r="O39" s="66" t="s">
         <v>27</v>
       </c>
@@ -6936,10 +6931,10 @@
       <c r="J40" s="86"/>
       <c r="K40" s="86"/>
       <c r="L40" s="87"/>
-      <c r="M40" s="350" t="s">
+      <c r="M40" s="351" t="s">
         <v>75</v>
       </c>
-      <c r="N40" s="348">
+      <c r="N40" s="349">
         <v>1</v>
       </c>
       <c r="O40" s="62" t="s">
@@ -6973,8 +6968,8 @@
       <c r="J41" s="86"/>
       <c r="K41" s="86"/>
       <c r="L41" s="87"/>
-      <c r="M41" s="351"/>
-      <c r="N41" s="349"/>
+      <c r="M41" s="352"/>
+      <c r="N41" s="350"/>
       <c r="O41" s="66" t="s">
         <v>27</v>
       </c>
@@ -7008,10 +7003,10 @@
       <c r="J42" s="80"/>
       <c r="K42" s="80"/>
       <c r="L42" s="81"/>
-      <c r="M42" s="350" t="s">
+      <c r="M42" s="351" t="s">
         <v>76</v>
       </c>
-      <c r="N42" s="348">
+      <c r="N42" s="349">
         <v>1</v>
       </c>
       <c r="O42" s="62" t="s">
@@ -7045,8 +7040,8 @@
       <c r="J43" s="83"/>
       <c r="K43" s="83"/>
       <c r="L43" s="84"/>
-      <c r="M43" s="351"/>
-      <c r="N43" s="349"/>
+      <c r="M43" s="352"/>
+      <c r="N43" s="350"/>
       <c r="O43" s="66" t="s">
         <v>27</v>
       </c>
@@ -7080,10 +7075,10 @@
       <c r="J44" s="80"/>
       <c r="K44" s="80"/>
       <c r="L44" s="81"/>
-      <c r="M44" s="350" t="s">
+      <c r="M44" s="351" t="s">
         <v>74</v>
       </c>
-      <c r="N44" s="348">
+      <c r="N44" s="349">
         <v>1</v>
       </c>
       <c r="O44" s="62" t="s">
@@ -7117,8 +7112,8 @@
       <c r="J45" s="83"/>
       <c r="K45" s="83"/>
       <c r="L45" s="84"/>
-      <c r="M45" s="351"/>
-      <c r="N45" s="349"/>
+      <c r="M45" s="352"/>
+      <c r="N45" s="350"/>
       <c r="O45" s="66" t="s">
         <v>27</v>
       </c>
@@ -7152,8 +7147,8 @@
       <c r="J46" s="80"/>
       <c r="K46" s="80"/>
       <c r="L46" s="81"/>
-      <c r="M46" s="350"/>
-      <c r="N46" s="348">
+      <c r="M46" s="351"/>
+      <c r="N46" s="349">
         <v>1</v>
       </c>
       <c r="O46" s="62" t="s">
@@ -7187,8 +7182,8 @@
       <c r="J47" s="83"/>
       <c r="K47" s="83"/>
       <c r="L47" s="84"/>
-      <c r="M47" s="351"/>
-      <c r="N47" s="349"/>
+      <c r="M47" s="352"/>
+      <c r="N47" s="350"/>
       <c r="O47" s="66" t="s">
         <v>27</v>
       </c>
@@ -7215,8 +7210,8 @@
       <c r="E48" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="M48" s="350"/>
-      <c r="N48" s="348">
+      <c r="M48" s="351"/>
+      <c r="N48" s="349">
         <v>1</v>
       </c>
       <c r="O48" s="62" t="s">
@@ -7242,8 +7237,8 @@
     <row r="49" spans="3:31">
       <c r="C49" s="25"/>
       <c r="D49" s="55"/>
-      <c r="M49" s="351"/>
-      <c r="N49" s="349"/>
+      <c r="M49" s="352"/>
+      <c r="N49" s="350"/>
       <c r="O49" s="66" t="s">
         <v>27</v>
       </c>
@@ -7333,20 +7328,20 @@
     <row r="52" spans="3:31">
       <c r="C52" s="25"/>
       <c r="D52" s="55"/>
-      <c r="E52" s="352" t="s">
+      <c r="E52" s="353" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="353"/>
-      <c r="G52" s="353"/>
-      <c r="H52" s="353"/>
-      <c r="I52" s="353"/>
-      <c r="J52" s="353"/>
-      <c r="K52" s="353"/>
-      <c r="L52" s="354"/>
-      <c r="M52" s="350" t="s">
+      <c r="F52" s="354"/>
+      <c r="G52" s="354"/>
+      <c r="H52" s="354"/>
+      <c r="I52" s="354"/>
+      <c r="J52" s="354"/>
+      <c r="K52" s="354"/>
+      <c r="L52" s="355"/>
+      <c r="M52" s="351" t="s">
         <v>33</v>
       </c>
-      <c r="N52" s="348">
+      <c r="N52" s="349">
         <v>1</v>
       </c>
       <c r="O52" s="62" t="s">
@@ -7372,16 +7367,16 @@
     <row r="53" spans="3:31">
       <c r="C53" s="25"/>
       <c r="D53" s="55"/>
-      <c r="E53" s="355"/>
-      <c r="F53" s="356"/>
-      <c r="G53" s="356"/>
-      <c r="H53" s="356"/>
-      <c r="I53" s="356"/>
-      <c r="J53" s="356"/>
-      <c r="K53" s="356"/>
-      <c r="L53" s="357"/>
-      <c r="M53" s="351"/>
-      <c r="N53" s="349"/>
+      <c r="E53" s="356"/>
+      <c r="F53" s="357"/>
+      <c r="G53" s="357"/>
+      <c r="H53" s="357"/>
+      <c r="I53" s="357"/>
+      <c r="J53" s="357"/>
+      <c r="K53" s="357"/>
+      <c r="L53" s="358"/>
+      <c r="M53" s="352"/>
+      <c r="N53" s="350"/>
       <c r="O53" s="66" t="s">
         <v>27</v>
       </c>
@@ -7405,20 +7400,20 @@
     <row r="54" spans="3:31">
       <c r="C54" s="25"/>
       <c r="D54" s="55"/>
-      <c r="E54" s="352" t="s">
+      <c r="E54" s="353" t="s">
         <v>34</v>
       </c>
-      <c r="F54" s="353"/>
-      <c r="G54" s="353"/>
-      <c r="H54" s="353"/>
-      <c r="I54" s="353"/>
-      <c r="J54" s="353"/>
-      <c r="K54" s="353"/>
-      <c r="L54" s="354"/>
-      <c r="M54" s="350" t="s">
+      <c r="F54" s="354"/>
+      <c r="G54" s="354"/>
+      <c r="H54" s="354"/>
+      <c r="I54" s="354"/>
+      <c r="J54" s="354"/>
+      <c r="K54" s="354"/>
+      <c r="L54" s="355"/>
+      <c r="M54" s="351" t="s">
         <v>33</v>
       </c>
-      <c r="N54" s="348">
+      <c r="N54" s="349">
         <v>1</v>
       </c>
       <c r="O54" s="62" t="s">
@@ -7444,16 +7439,16 @@
     <row r="55" spans="3:31">
       <c r="C55" s="25"/>
       <c r="D55" s="55"/>
-      <c r="E55" s="355"/>
-      <c r="F55" s="356"/>
-      <c r="G55" s="356"/>
-      <c r="H55" s="356"/>
-      <c r="I55" s="356"/>
-      <c r="J55" s="356"/>
-      <c r="K55" s="356"/>
-      <c r="L55" s="357"/>
-      <c r="M55" s="351"/>
-      <c r="N55" s="349"/>
+      <c r="E55" s="356"/>
+      <c r="F55" s="357"/>
+      <c r="G55" s="357"/>
+      <c r="H55" s="357"/>
+      <c r="I55" s="357"/>
+      <c r="J55" s="357"/>
+      <c r="K55" s="357"/>
+      <c r="L55" s="358"/>
+      <c r="M55" s="352"/>
+      <c r="N55" s="350"/>
       <c r="O55" s="66" t="s">
         <v>27</v>
       </c>
@@ -7477,20 +7472,20 @@
     <row r="56" spans="3:31">
       <c r="C56" s="25"/>
       <c r="D56" s="55"/>
-      <c r="E56" s="352" t="s">
+      <c r="E56" s="353" t="s">
         <v>35</v>
       </c>
-      <c r="F56" s="353"/>
-      <c r="G56" s="353"/>
-      <c r="H56" s="353"/>
-      <c r="I56" s="353"/>
-      <c r="J56" s="353"/>
-      <c r="K56" s="353"/>
-      <c r="L56" s="354"/>
-      <c r="M56" s="350" t="s">
+      <c r="F56" s="354"/>
+      <c r="G56" s="354"/>
+      <c r="H56" s="354"/>
+      <c r="I56" s="354"/>
+      <c r="J56" s="354"/>
+      <c r="K56" s="354"/>
+      <c r="L56" s="355"/>
+      <c r="M56" s="351" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="348">
+      <c r="N56" s="349">
         <v>1</v>
       </c>
       <c r="O56" s="62" t="s">
@@ -7516,16 +7511,16 @@
     <row r="57" spans="3:31">
       <c r="C57" s="25"/>
       <c r="D57" s="55"/>
-      <c r="E57" s="355"/>
-      <c r="F57" s="356"/>
-      <c r="G57" s="356"/>
-      <c r="H57" s="356"/>
-      <c r="I57" s="356"/>
-      <c r="J57" s="356"/>
-      <c r="K57" s="356"/>
-      <c r="L57" s="357"/>
-      <c r="M57" s="351"/>
-      <c r="N57" s="349"/>
+      <c r="E57" s="356"/>
+      <c r="F57" s="357"/>
+      <c r="G57" s="357"/>
+      <c r="H57" s="357"/>
+      <c r="I57" s="357"/>
+      <c r="J57" s="357"/>
+      <c r="K57" s="357"/>
+      <c r="L57" s="358"/>
+      <c r="M57" s="352"/>
+      <c r="N57" s="350"/>
       <c r="O57" s="66" t="s">
         <v>27</v>
       </c>
@@ -7549,20 +7544,20 @@
     <row r="58" spans="3:31">
       <c r="C58" s="25"/>
       <c r="D58" s="55"/>
-      <c r="E58" s="352" t="s">
+      <c r="E58" s="353" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="353"/>
-      <c r="G58" s="353"/>
-      <c r="H58" s="353"/>
-      <c r="I58" s="353"/>
-      <c r="J58" s="353"/>
-      <c r="K58" s="353"/>
-      <c r="L58" s="354"/>
-      <c r="M58" s="350" t="s">
+      <c r="F58" s="354"/>
+      <c r="G58" s="354"/>
+      <c r="H58" s="354"/>
+      <c r="I58" s="354"/>
+      <c r="J58" s="354"/>
+      <c r="K58" s="354"/>
+      <c r="L58" s="355"/>
+      <c r="M58" s="351" t="s">
         <v>33</v>
       </c>
-      <c r="N58" s="348">
+      <c r="N58" s="349">
         <v>1</v>
       </c>
       <c r="O58" s="62" t="s">
@@ -7588,16 +7583,16 @@
     <row r="59" spans="3:31">
       <c r="C59" s="25"/>
       <c r="D59" s="55"/>
-      <c r="E59" s="355"/>
-      <c r="F59" s="356"/>
-      <c r="G59" s="356"/>
-      <c r="H59" s="356"/>
-      <c r="I59" s="356"/>
-      <c r="J59" s="356"/>
-      <c r="K59" s="356"/>
-      <c r="L59" s="357"/>
-      <c r="M59" s="351"/>
-      <c r="N59" s="349"/>
+      <c r="E59" s="356"/>
+      <c r="F59" s="357"/>
+      <c r="G59" s="357"/>
+      <c r="H59" s="357"/>
+      <c r="I59" s="357"/>
+      <c r="J59" s="357"/>
+      <c r="K59" s="357"/>
+      <c r="L59" s="358"/>
+      <c r="M59" s="352"/>
+      <c r="N59" s="350"/>
       <c r="O59" s="66" t="s">
         <v>27</v>
       </c>
@@ -7682,6 +7677,10 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="N42:N43"/>
     <mergeCell ref="E58:L59"/>
     <mergeCell ref="M58:M59"/>
     <mergeCell ref="N58:N59"/>
@@ -7693,10 +7692,7 @@
     <mergeCell ref="N54:N55"/>
     <mergeCell ref="E56:L57"/>
     <mergeCell ref="M56:M57"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N56:N57"/>
     <mergeCell ref="M48:M49"/>
     <mergeCell ref="M44:M45"/>
     <mergeCell ref="M46:M47"/>
@@ -7705,13 +7701,12 @@
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="M38:M39"/>
     <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N42:N43"/>
     <mergeCell ref="N44:N45"/>
     <mergeCell ref="N46:N47"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N36:N37"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -7720,7 +7715,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="31" max="59" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -7728,7 +7726,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2365E3-520A-48C7-B347-EA5A0791AF41}">
   <dimension ref="B6:AC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X38" sqref="X38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
   <cols>
@@ -7755,26 +7755,26 @@
       <c r="I8" s="180"/>
       <c r="J8" s="180"/>
       <c r="K8" s="180"/>
-      <c r="L8" s="347">
+      <c r="L8" s="348">
         <v>2020</v>
       </c>
-      <c r="M8" s="347"/>
-      <c r="N8" s="347"/>
-      <c r="O8" s="347"/>
-      <c r="P8" s="347"/>
-      <c r="Q8" s="347"/>
-      <c r="R8" s="347"/>
-      <c r="S8" s="347"/>
-      <c r="T8" s="347"/>
-      <c r="U8" s="347"/>
-      <c r="V8" s="347"/>
-      <c r="W8" s="347"/>
-      <c r="X8" s="347"/>
-      <c r="Y8" s="347"/>
-      <c r="Z8" s="347"/>
-      <c r="AA8" s="347"/>
-      <c r="AB8" s="347"/>
-      <c r="AC8" s="347"/>
+      <c r="M8" s="348"/>
+      <c r="N8" s="348"/>
+      <c r="O8" s="348"/>
+      <c r="P8" s="348"/>
+      <c r="Q8" s="348"/>
+      <c r="R8" s="348"/>
+      <c r="S8" s="348"/>
+      <c r="T8" s="348"/>
+      <c r="U8" s="348"/>
+      <c r="V8" s="348"/>
+      <c r="W8" s="348"/>
+      <c r="X8" s="348"/>
+      <c r="Y8" s="348"/>
+      <c r="Z8" s="348"/>
+      <c r="AA8" s="348"/>
+      <c r="AB8" s="348"/>
+      <c r="AC8" s="348"/>
     </row>
     <row r="9" spans="3:29">
       <c r="C9" s="181"/>
@@ -7786,26 +7786,26 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="347">
+      <c r="L9" s="348">
         <v>6</v>
       </c>
-      <c r="M9" s="347"/>
-      <c r="N9" s="347"/>
-      <c r="O9" s="347"/>
-      <c r="P9" s="347"/>
-      <c r="Q9" s="347"/>
-      <c r="R9" s="347"/>
-      <c r="S9" s="347"/>
-      <c r="T9" s="347"/>
-      <c r="U9" s="347"/>
-      <c r="V9" s="347"/>
-      <c r="W9" s="347"/>
-      <c r="X9" s="347"/>
-      <c r="Y9" s="347"/>
-      <c r="Z9" s="347"/>
-      <c r="AA9" s="347"/>
-      <c r="AB9" s="347"/>
-      <c r="AC9" s="347"/>
+      <c r="M9" s="348"/>
+      <c r="N9" s="348"/>
+      <c r="O9" s="348"/>
+      <c r="P9" s="348"/>
+      <c r="Q9" s="348"/>
+      <c r="R9" s="348"/>
+      <c r="S9" s="348"/>
+      <c r="T9" s="348"/>
+      <c r="U9" s="348"/>
+      <c r="V9" s="348"/>
+      <c r="W9" s="348"/>
+      <c r="X9" s="348"/>
+      <c r="Y9" s="348"/>
+      <c r="Z9" s="348"/>
+      <c r="AA9" s="348"/>
+      <c r="AB9" s="348"/>
+      <c r="AC9" s="348"/>
     </row>
     <row r="10" spans="3:29">
       <c r="C10" s="9"/>
@@ -8306,20 +8306,20 @@
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="18"/>
-      <c r="C29" s="358" t="s">
+      <c r="C29" s="359" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="359"/>
-      <c r="E29" s="359"/>
-      <c r="F29" s="359"/>
-      <c r="G29" s="359"/>
-      <c r="H29" s="359"/>
-      <c r="I29" s="359"/>
-      <c r="J29" s="360"/>
-      <c r="K29" s="364" t="s">
+      <c r="D29" s="360"/>
+      <c r="E29" s="360"/>
+      <c r="F29" s="360"/>
+      <c r="G29" s="360"/>
+      <c r="H29" s="360"/>
+      <c r="I29" s="360"/>
+      <c r="J29" s="361"/>
+      <c r="K29" s="365" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="366">
+      <c r="L29" s="367">
         <v>1</v>
       </c>
       <c r="M29" s="115" t="s">
@@ -8336,16 +8336,16 @@
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="18"/>
-      <c r="C30" s="361"/>
-      <c r="D30" s="362"/>
-      <c r="E30" s="362"/>
-      <c r="F30" s="362"/>
-      <c r="G30" s="362"/>
-      <c r="H30" s="362"/>
-      <c r="I30" s="362"/>
-      <c r="J30" s="363"/>
-      <c r="K30" s="365"/>
-      <c r="L30" s="367"/>
+      <c r="C30" s="362"/>
+      <c r="D30" s="363"/>
+      <c r="E30" s="363"/>
+      <c r="F30" s="363"/>
+      <c r="G30" s="363"/>
+      <c r="H30" s="363"/>
+      <c r="I30" s="363"/>
+      <c r="J30" s="364"/>
+      <c r="K30" s="366"/>
+      <c r="L30" s="368"/>
       <c r="M30" s="117" t="s">
         <v>27</v>
       </c>
@@ -8360,20 +8360,20 @@
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="18"/>
-      <c r="C31" s="358" t="s">
+      <c r="C31" s="359" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="359"/>
-      <c r="E31" s="359"/>
-      <c r="F31" s="359"/>
-      <c r="G31" s="359"/>
-      <c r="H31" s="359"/>
-      <c r="I31" s="359"/>
-      <c r="J31" s="360"/>
-      <c r="K31" s="364" t="s">
+      <c r="D31" s="360"/>
+      <c r="E31" s="360"/>
+      <c r="F31" s="360"/>
+      <c r="G31" s="360"/>
+      <c r="H31" s="360"/>
+      <c r="I31" s="360"/>
+      <c r="J31" s="361"/>
+      <c r="K31" s="365" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="366">
+      <c r="L31" s="367">
         <v>1</v>
       </c>
       <c r="M31" s="115" t="s">
@@ -8390,18 +8390,18 @@
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="18"/>
-      <c r="C32" s="361"/>
-      <c r="D32" s="362"/>
-      <c r="E32" s="362"/>
-      <c r="F32" s="362"/>
-      <c r="G32" s="362"/>
-      <c r="H32" s="362"/>
-      <c r="I32" s="362"/>
-      <c r="J32" s="363"/>
-      <c r="K32" s="365" t="s">
+      <c r="C32" s="362"/>
+      <c r="D32" s="363"/>
+      <c r="E32" s="363"/>
+      <c r="F32" s="363"/>
+      <c r="G32" s="363"/>
+      <c r="H32" s="363"/>
+      <c r="I32" s="363"/>
+      <c r="J32" s="364"/>
+      <c r="K32" s="366" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="367"/>
+      <c r="L32" s="368"/>
       <c r="M32" s="117" t="s">
         <v>27</v>
       </c>
@@ -8416,20 +8416,20 @@
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="18"/>
-      <c r="C33" s="358" t="s">
+      <c r="C33" s="359" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="359"/>
-      <c r="E33" s="359"/>
-      <c r="F33" s="359"/>
-      <c r="G33" s="359"/>
-      <c r="H33" s="359"/>
-      <c r="I33" s="359"/>
-      <c r="J33" s="360"/>
-      <c r="K33" s="364" t="s">
+      <c r="D33" s="360"/>
+      <c r="E33" s="360"/>
+      <c r="F33" s="360"/>
+      <c r="G33" s="360"/>
+      <c r="H33" s="360"/>
+      <c r="I33" s="360"/>
+      <c r="J33" s="361"/>
+      <c r="K33" s="365" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="366">
+      <c r="L33" s="367">
         <v>1</v>
       </c>
       <c r="M33" s="115" t="s">
@@ -8446,18 +8446,18 @@
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="18"/>
-      <c r="C34" s="361"/>
-      <c r="D34" s="362"/>
-      <c r="E34" s="362"/>
-      <c r="F34" s="362"/>
-      <c r="G34" s="362"/>
-      <c r="H34" s="362"/>
-      <c r="I34" s="362"/>
-      <c r="J34" s="363"/>
-      <c r="K34" s="365" t="s">
+      <c r="C34" s="362"/>
+      <c r="D34" s="363"/>
+      <c r="E34" s="363"/>
+      <c r="F34" s="363"/>
+      <c r="G34" s="363"/>
+      <c r="H34" s="363"/>
+      <c r="I34" s="363"/>
+      <c r="J34" s="364"/>
+      <c r="K34" s="366" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="367"/>
+      <c r="L34" s="368"/>
       <c r="M34" s="117" t="s">
         <v>27</v>
       </c>
@@ -8472,20 +8472,20 @@
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="18"/>
-      <c r="C35" s="358" t="s">
+      <c r="C35" s="359" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="359"/>
-      <c r="E35" s="359"/>
-      <c r="F35" s="359"/>
-      <c r="G35" s="359"/>
-      <c r="H35" s="359"/>
-      <c r="I35" s="359"/>
-      <c r="J35" s="360"/>
-      <c r="K35" s="364" t="s">
+      <c r="D35" s="360"/>
+      <c r="E35" s="360"/>
+      <c r="F35" s="360"/>
+      <c r="G35" s="360"/>
+      <c r="H35" s="360"/>
+      <c r="I35" s="360"/>
+      <c r="J35" s="361"/>
+      <c r="K35" s="365" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="366">
+      <c r="L35" s="367">
         <v>1</v>
       </c>
       <c r="M35" s="115" t="s">
@@ -8502,18 +8502,18 @@
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="18"/>
-      <c r="C36" s="361"/>
-      <c r="D36" s="362"/>
-      <c r="E36" s="362"/>
-      <c r="F36" s="362"/>
-      <c r="G36" s="362"/>
-      <c r="H36" s="362"/>
-      <c r="I36" s="362"/>
-      <c r="J36" s="363"/>
-      <c r="K36" s="365" t="s">
+      <c r="C36" s="362"/>
+      <c r="D36" s="363"/>
+      <c r="E36" s="363"/>
+      <c r="F36" s="363"/>
+      <c r="G36" s="363"/>
+      <c r="H36" s="363"/>
+      <c r="I36" s="363"/>
+      <c r="J36" s="364"/>
+      <c r="K36" s="366" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="367"/>
+      <c r="L36" s="368"/>
       <c r="M36" s="117" t="s">
         <v>27</v>
       </c>
@@ -8528,20 +8528,20 @@
     </row>
     <row r="37" spans="2:21">
       <c r="B37" s="18"/>
-      <c r="C37" s="358" t="s">
+      <c r="C37" s="359" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="359"/>
-      <c r="E37" s="359"/>
-      <c r="F37" s="359"/>
-      <c r="G37" s="359"/>
-      <c r="H37" s="359"/>
-      <c r="I37" s="359"/>
-      <c r="J37" s="360"/>
-      <c r="K37" s="364" t="s">
+      <c r="D37" s="360"/>
+      <c r="E37" s="360"/>
+      <c r="F37" s="360"/>
+      <c r="G37" s="360"/>
+      <c r="H37" s="360"/>
+      <c r="I37" s="360"/>
+      <c r="J37" s="361"/>
+      <c r="K37" s="365" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="366">
+      <c r="L37" s="367">
         <v>1</v>
       </c>
       <c r="M37" s="115" t="s">
@@ -8558,18 +8558,18 @@
     </row>
     <row r="38" spans="2:21">
       <c r="B38" s="18"/>
-      <c r="C38" s="361"/>
-      <c r="D38" s="362"/>
-      <c r="E38" s="362"/>
-      <c r="F38" s="362"/>
-      <c r="G38" s="362"/>
-      <c r="H38" s="362"/>
-      <c r="I38" s="362"/>
-      <c r="J38" s="363"/>
-      <c r="K38" s="365" t="s">
+      <c r="C38" s="362"/>
+      <c r="D38" s="363"/>
+      <c r="E38" s="363"/>
+      <c r="F38" s="363"/>
+      <c r="G38" s="363"/>
+      <c r="H38" s="363"/>
+      <c r="I38" s="363"/>
+      <c r="J38" s="364"/>
+      <c r="K38" s="366" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="367"/>
+      <c r="L38" s="368"/>
       <c r="M38" s="117" t="s">
         <v>27</v>
       </c>
@@ -8631,9 +8631,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8641,7 +8641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40C8471-899E-4678-A7F2-CEE3CFECD3C8}">
   <dimension ref="B4:AD54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB50" sqref="AB50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
   <cols>
@@ -8668,26 +8670,26 @@
       <c r="J6" s="180"/>
       <c r="K6" s="180"/>
       <c r="L6" s="180"/>
-      <c r="M6" s="347">
+      <c r="M6" s="348">
         <v>2020</v>
       </c>
-      <c r="N6" s="347"/>
-      <c r="O6" s="347"/>
-      <c r="P6" s="347"/>
-      <c r="Q6" s="347"/>
-      <c r="R6" s="347"/>
-      <c r="S6" s="347"/>
-      <c r="T6" s="347"/>
-      <c r="U6" s="347"/>
-      <c r="V6" s="347"/>
-      <c r="W6" s="347"/>
-      <c r="X6" s="347"/>
-      <c r="Y6" s="347"/>
-      <c r="Z6" s="347"/>
-      <c r="AA6" s="347"/>
-      <c r="AB6" s="347"/>
-      <c r="AC6" s="347"/>
-      <c r="AD6" s="347"/>
+      <c r="N6" s="348"/>
+      <c r="O6" s="348"/>
+      <c r="P6" s="348"/>
+      <c r="Q6" s="348"/>
+      <c r="R6" s="348"/>
+      <c r="S6" s="348"/>
+      <c r="T6" s="348"/>
+      <c r="U6" s="348"/>
+      <c r="V6" s="348"/>
+      <c r="W6" s="348"/>
+      <c r="X6" s="348"/>
+      <c r="Y6" s="348"/>
+      <c r="Z6" s="348"/>
+      <c r="AA6" s="348"/>
+      <c r="AB6" s="348"/>
+      <c r="AC6" s="348"/>
+      <c r="AD6" s="348"/>
     </row>
     <row r="7" spans="4:30">
       <c r="D7" s="181"/>
@@ -8699,26 +8701,26 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="347">
+      <c r="M7" s="348">
         <v>6</v>
       </c>
-      <c r="N7" s="347"/>
-      <c r="O7" s="347"/>
-      <c r="P7" s="347"/>
-      <c r="Q7" s="347"/>
-      <c r="R7" s="347"/>
-      <c r="S7" s="347"/>
-      <c r="T7" s="347"/>
-      <c r="U7" s="347"/>
-      <c r="V7" s="347"/>
-      <c r="W7" s="347"/>
-      <c r="X7" s="347"/>
-      <c r="Y7" s="347"/>
-      <c r="Z7" s="347"/>
-      <c r="AA7" s="347"/>
-      <c r="AB7" s="347"/>
-      <c r="AC7" s="347"/>
-      <c r="AD7" s="347"/>
+      <c r="N7" s="348"/>
+      <c r="O7" s="348"/>
+      <c r="P7" s="348"/>
+      <c r="Q7" s="348"/>
+      <c r="R7" s="348"/>
+      <c r="S7" s="348"/>
+      <c r="T7" s="348"/>
+      <c r="U7" s="348"/>
+      <c r="V7" s="348"/>
+      <c r="W7" s="348"/>
+      <c r="X7" s="348"/>
+      <c r="Y7" s="348"/>
+      <c r="Z7" s="348"/>
+      <c r="AA7" s="348"/>
+      <c r="AB7" s="348"/>
+      <c r="AC7" s="348"/>
+      <c r="AD7" s="348"/>
     </row>
     <row r="8" spans="4:30">
       <c r="D8" s="9"/>
@@ -9107,13 +9109,13 @@
       <c r="H25" s="180"/>
       <c r="I25" s="180"/>
       <c r="J25" s="180"/>
-      <c r="K25" s="380" t="s">
+      <c r="K25" s="381" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="378" t="s">
+      <c r="L25" s="379" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="378" t="s">
+      <c r="M25" s="379" t="s">
         <v>22</v>
       </c>
       <c r="N25" s="196">
@@ -9138,9 +9140,9 @@
       <c r="H26" s="183"/>
       <c r="I26" s="183"/>
       <c r="J26" s="183"/>
-      <c r="K26" s="381"/>
-      <c r="L26" s="379"/>
-      <c r="M26" s="379"/>
+      <c r="K26" s="382"/>
+      <c r="L26" s="380"/>
+      <c r="M26" s="380"/>
       <c r="N26" s="199">
         <v>43994</v>
       </c>
@@ -9223,20 +9225,20 @@
     </row>
     <row r="29" spans="2:30">
       <c r="B29" s="208"/>
-      <c r="C29" s="369" t="s">
+      <c r="C29" s="370" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="359"/>
-      <c r="E29" s="359"/>
-      <c r="F29" s="359"/>
-      <c r="G29" s="359"/>
-      <c r="H29" s="359"/>
-      <c r="I29" s="359"/>
-      <c r="J29" s="360"/>
-      <c r="K29" s="364" t="s">
+      <c r="D29" s="360"/>
+      <c r="E29" s="360"/>
+      <c r="F29" s="360"/>
+      <c r="G29" s="360"/>
+      <c r="H29" s="360"/>
+      <c r="I29" s="360"/>
+      <c r="J29" s="361"/>
+      <c r="K29" s="365" t="s">
         <v>72</v>
       </c>
-      <c r="L29" s="368">
+      <c r="L29" s="369">
         <v>1</v>
       </c>
       <c r="M29" s="212" t="s">
@@ -9254,16 +9256,16 @@
     </row>
     <row r="30" spans="2:30">
       <c r="B30" s="208"/>
-      <c r="C30" s="362"/>
-      <c r="D30" s="362"/>
-      <c r="E30" s="362"/>
-      <c r="F30" s="362"/>
-      <c r="G30" s="362"/>
-      <c r="H30" s="362"/>
-      <c r="I30" s="362"/>
-      <c r="J30" s="363"/>
-      <c r="K30" s="365"/>
-      <c r="L30" s="365"/>
+      <c r="C30" s="363"/>
+      <c r="D30" s="363"/>
+      <c r="E30" s="363"/>
+      <c r="F30" s="363"/>
+      <c r="G30" s="363"/>
+      <c r="H30" s="363"/>
+      <c r="I30" s="363"/>
+      <c r="J30" s="364"/>
+      <c r="K30" s="366"/>
+      <c r="L30" s="366"/>
       <c r="M30" s="214" t="s">
         <v>27</v>
       </c>
@@ -9279,20 +9281,20 @@
     </row>
     <row r="31" spans="2:30">
       <c r="B31" s="208"/>
-      <c r="C31" s="369" t="s">
+      <c r="C31" s="370" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="359"/>
-      <c r="E31" s="359"/>
-      <c r="F31" s="359"/>
-      <c r="G31" s="359"/>
-      <c r="H31" s="359"/>
-      <c r="I31" s="359"/>
-      <c r="J31" s="360"/>
-      <c r="K31" s="364" t="s">
+      <c r="D31" s="360"/>
+      <c r="E31" s="360"/>
+      <c r="F31" s="360"/>
+      <c r="G31" s="360"/>
+      <c r="H31" s="360"/>
+      <c r="I31" s="360"/>
+      <c r="J31" s="361"/>
+      <c r="K31" s="365" t="s">
         <v>73</v>
       </c>
-      <c r="L31" s="368">
+      <c r="L31" s="369">
         <v>1</v>
       </c>
       <c r="M31" s="212" t="s">
@@ -9310,16 +9312,16 @@
     </row>
     <row r="32" spans="2:30">
       <c r="B32" s="208"/>
-      <c r="C32" s="362"/>
-      <c r="D32" s="362"/>
-      <c r="E32" s="362"/>
-      <c r="F32" s="362"/>
-      <c r="G32" s="362"/>
-      <c r="H32" s="362"/>
-      <c r="I32" s="362"/>
-      <c r="J32" s="363"/>
-      <c r="K32" s="365"/>
-      <c r="L32" s="365"/>
+      <c r="C32" s="363"/>
+      <c r="D32" s="363"/>
+      <c r="E32" s="363"/>
+      <c r="F32" s="363"/>
+      <c r="G32" s="363"/>
+      <c r="H32" s="363"/>
+      <c r="I32" s="363"/>
+      <c r="J32" s="364"/>
+      <c r="K32" s="366"/>
+      <c r="L32" s="366"/>
       <c r="M32" s="214" t="s">
         <v>27</v>
       </c>
@@ -9335,20 +9337,20 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="208"/>
-      <c r="C33" s="369" t="s">
+      <c r="C33" s="370" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="359"/>
-      <c r="E33" s="359"/>
-      <c r="F33" s="359"/>
-      <c r="G33" s="359"/>
-      <c r="H33" s="359"/>
-      <c r="I33" s="359"/>
-      <c r="J33" s="360"/>
-      <c r="K33" s="364" t="s">
+      <c r="D33" s="360"/>
+      <c r="E33" s="360"/>
+      <c r="F33" s="360"/>
+      <c r="G33" s="360"/>
+      <c r="H33" s="360"/>
+      <c r="I33" s="360"/>
+      <c r="J33" s="361"/>
+      <c r="K33" s="365" t="s">
         <v>77</v>
       </c>
-      <c r="L33" s="368">
+      <c r="L33" s="369">
         <v>1</v>
       </c>
       <c r="M33" s="212" t="s">
@@ -9366,16 +9368,16 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="208"/>
-      <c r="C34" s="362"/>
-      <c r="D34" s="362"/>
-      <c r="E34" s="362"/>
-      <c r="F34" s="362"/>
-      <c r="G34" s="362"/>
-      <c r="H34" s="362"/>
-      <c r="I34" s="362"/>
-      <c r="J34" s="363"/>
-      <c r="K34" s="365"/>
-      <c r="L34" s="365"/>
+      <c r="C34" s="363"/>
+      <c r="D34" s="363"/>
+      <c r="E34" s="363"/>
+      <c r="F34" s="363"/>
+      <c r="G34" s="363"/>
+      <c r="H34" s="363"/>
+      <c r="I34" s="363"/>
+      <c r="J34" s="364"/>
+      <c r="K34" s="366"/>
+      <c r="L34" s="366"/>
       <c r="M34" s="214" t="s">
         <v>27</v>
       </c>
@@ -9391,20 +9393,20 @@
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="208"/>
-      <c r="C35" s="369" t="s">
+      <c r="C35" s="370" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="359"/>
-      <c r="E35" s="359"/>
-      <c r="F35" s="359"/>
-      <c r="G35" s="359"/>
-      <c r="H35" s="359"/>
-      <c r="I35" s="359"/>
-      <c r="J35" s="360"/>
-      <c r="K35" s="364" t="s">
+      <c r="D35" s="360"/>
+      <c r="E35" s="360"/>
+      <c r="F35" s="360"/>
+      <c r="G35" s="360"/>
+      <c r="H35" s="360"/>
+      <c r="I35" s="360"/>
+      <c r="J35" s="361"/>
+      <c r="K35" s="365" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="368">
+      <c r="L35" s="369">
         <v>1</v>
       </c>
       <c r="M35" s="212" t="s">
@@ -9422,16 +9424,16 @@
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="208"/>
-      <c r="C36" s="362"/>
-      <c r="D36" s="362"/>
-      <c r="E36" s="362"/>
-      <c r="F36" s="362"/>
-      <c r="G36" s="362"/>
-      <c r="H36" s="362"/>
-      <c r="I36" s="362"/>
-      <c r="J36" s="363"/>
-      <c r="K36" s="365"/>
-      <c r="L36" s="365"/>
+      <c r="C36" s="363"/>
+      <c r="D36" s="363"/>
+      <c r="E36" s="363"/>
+      <c r="F36" s="363"/>
+      <c r="G36" s="363"/>
+      <c r="H36" s="363"/>
+      <c r="I36" s="363"/>
+      <c r="J36" s="364"/>
+      <c r="K36" s="366"/>
+      <c r="L36" s="366"/>
       <c r="M36" s="214" t="s">
         <v>27</v>
       </c>
@@ -9447,20 +9449,20 @@
     </row>
     <row r="37" spans="2:22">
       <c r="B37" s="208"/>
-      <c r="C37" s="369" t="s">
+      <c r="C37" s="370" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="359"/>
-      <c r="E37" s="359"/>
-      <c r="F37" s="359"/>
-      <c r="G37" s="359"/>
-      <c r="H37" s="359"/>
-      <c r="I37" s="359"/>
-      <c r="J37" s="360"/>
-      <c r="K37" s="364" t="s">
+      <c r="D37" s="360"/>
+      <c r="E37" s="360"/>
+      <c r="F37" s="360"/>
+      <c r="G37" s="360"/>
+      <c r="H37" s="360"/>
+      <c r="I37" s="360"/>
+      <c r="J37" s="361"/>
+      <c r="K37" s="365" t="s">
         <v>73</v>
       </c>
-      <c r="L37" s="368">
+      <c r="L37" s="369">
         <v>1</v>
       </c>
       <c r="M37" s="212" t="s">
@@ -9478,16 +9480,16 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="208"/>
-      <c r="C38" s="362"/>
-      <c r="D38" s="362"/>
-      <c r="E38" s="362"/>
-      <c r="F38" s="362"/>
-      <c r="G38" s="362"/>
-      <c r="H38" s="362"/>
-      <c r="I38" s="362"/>
-      <c r="J38" s="363"/>
-      <c r="K38" s="365"/>
-      <c r="L38" s="365"/>
+      <c r="C38" s="363"/>
+      <c r="D38" s="363"/>
+      <c r="E38" s="363"/>
+      <c r="F38" s="363"/>
+      <c r="G38" s="363"/>
+      <c r="H38" s="363"/>
+      <c r="I38" s="363"/>
+      <c r="J38" s="364"/>
+      <c r="K38" s="366"/>
+      <c r="L38" s="366"/>
       <c r="M38" s="214" t="s">
         <v>27</v>
       </c>
@@ -9503,20 +9505,20 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="208"/>
-      <c r="C39" s="369" t="s">
+      <c r="C39" s="370" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="359"/>
-      <c r="E39" s="359"/>
-      <c r="F39" s="359"/>
-      <c r="G39" s="359"/>
-      <c r="H39" s="359"/>
-      <c r="I39" s="359"/>
-      <c r="J39" s="360"/>
-      <c r="K39" s="364" t="s">
+      <c r="D39" s="360"/>
+      <c r="E39" s="360"/>
+      <c r="F39" s="360"/>
+      <c r="G39" s="360"/>
+      <c r="H39" s="360"/>
+      <c r="I39" s="360"/>
+      <c r="J39" s="361"/>
+      <c r="K39" s="365" t="s">
         <v>76</v>
       </c>
-      <c r="L39" s="368">
+      <c r="L39" s="369">
         <v>1</v>
       </c>
       <c r="M39" s="212" t="s">
@@ -9534,16 +9536,16 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" s="208"/>
-      <c r="C40" s="362"/>
-      <c r="D40" s="362"/>
-      <c r="E40" s="362"/>
-      <c r="F40" s="362"/>
-      <c r="G40" s="362"/>
-      <c r="H40" s="362"/>
-      <c r="I40" s="362"/>
-      <c r="J40" s="363"/>
-      <c r="K40" s="365"/>
-      <c r="L40" s="365"/>
+      <c r="C40" s="363"/>
+      <c r="D40" s="363"/>
+      <c r="E40" s="363"/>
+      <c r="F40" s="363"/>
+      <c r="G40" s="363"/>
+      <c r="H40" s="363"/>
+      <c r="I40" s="363"/>
+      <c r="J40" s="364"/>
+      <c r="K40" s="366"/>
+      <c r="L40" s="366"/>
       <c r="M40" s="214" t="s">
         <v>27</v>
       </c>
@@ -9559,20 +9561,20 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="208"/>
-      <c r="C41" s="369" t="s">
+      <c r="C41" s="370" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="359"/>
-      <c r="E41" s="359"/>
-      <c r="F41" s="359"/>
-      <c r="G41" s="359"/>
-      <c r="H41" s="359"/>
-      <c r="I41" s="359"/>
-      <c r="J41" s="360"/>
-      <c r="K41" s="364" t="s">
+      <c r="D41" s="360"/>
+      <c r="E41" s="360"/>
+      <c r="F41" s="360"/>
+      <c r="G41" s="360"/>
+      <c r="H41" s="360"/>
+      <c r="I41" s="360"/>
+      <c r="J41" s="361"/>
+      <c r="K41" s="365" t="s">
         <v>72</v>
       </c>
-      <c r="L41" s="368">
+      <c r="L41" s="369">
         <v>1</v>
       </c>
       <c r="M41" s="212" t="s">
@@ -9590,16 +9592,16 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="208"/>
-      <c r="C42" s="362"/>
-      <c r="D42" s="362"/>
-      <c r="E42" s="362"/>
-      <c r="F42" s="362"/>
-      <c r="G42" s="362"/>
-      <c r="H42" s="362"/>
-      <c r="I42" s="362"/>
-      <c r="J42" s="363"/>
-      <c r="K42" s="365"/>
-      <c r="L42" s="365"/>
+      <c r="C42" s="363"/>
+      <c r="D42" s="363"/>
+      <c r="E42" s="363"/>
+      <c r="F42" s="363"/>
+      <c r="G42" s="363"/>
+      <c r="H42" s="363"/>
+      <c r="I42" s="363"/>
+      <c r="J42" s="364"/>
+      <c r="K42" s="366"/>
+      <c r="L42" s="366"/>
       <c r="M42" s="214" t="s">
         <v>27</v>
       </c>
@@ -9615,20 +9617,20 @@
     </row>
     <row r="43" spans="2:22">
       <c r="B43" s="208"/>
-      <c r="C43" s="370" t="s">
+      <c r="C43" s="371" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="371"/>
-      <c r="E43" s="371"/>
-      <c r="F43" s="371"/>
-      <c r="G43" s="371"/>
-      <c r="H43" s="371"/>
-      <c r="I43" s="371"/>
-      <c r="J43" s="372"/>
-      <c r="K43" s="364" t="s">
+      <c r="D43" s="372"/>
+      <c r="E43" s="372"/>
+      <c r="F43" s="372"/>
+      <c r="G43" s="372"/>
+      <c r="H43" s="372"/>
+      <c r="I43" s="372"/>
+      <c r="J43" s="373"/>
+      <c r="K43" s="365" t="s">
         <v>92</v>
       </c>
-      <c r="L43" s="368">
+      <c r="L43" s="369">
         <v>1</v>
       </c>
       <c r="M43" s="212" t="s">
@@ -9646,16 +9648,16 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" s="208"/>
-      <c r="C44" s="373"/>
-      <c r="D44" s="374"/>
-      <c r="E44" s="374"/>
-      <c r="F44" s="374"/>
-      <c r="G44" s="374"/>
-      <c r="H44" s="374"/>
-      <c r="I44" s="374"/>
-      <c r="J44" s="375"/>
-      <c r="K44" s="377"/>
-      <c r="L44" s="365"/>
+      <c r="C44" s="374"/>
+      <c r="D44" s="375"/>
+      <c r="E44" s="375"/>
+      <c r="F44" s="375"/>
+      <c r="G44" s="375"/>
+      <c r="H44" s="375"/>
+      <c r="I44" s="375"/>
+      <c r="J44" s="376"/>
+      <c r="K44" s="378"/>
+      <c r="L44" s="366"/>
       <c r="M44" s="214" t="s">
         <v>27</v>
       </c>
@@ -9671,20 +9673,20 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="208"/>
-      <c r="C45" s="370" t="s">
+      <c r="C45" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="371"/>
-      <c r="E45" s="371"/>
-      <c r="F45" s="371"/>
-      <c r="G45" s="371"/>
-      <c r="H45" s="371"/>
-      <c r="I45" s="371"/>
-      <c r="J45" s="372"/>
-      <c r="K45" s="376" t="s">
+      <c r="D45" s="372"/>
+      <c r="E45" s="372"/>
+      <c r="F45" s="372"/>
+      <c r="G45" s="372"/>
+      <c r="H45" s="372"/>
+      <c r="I45" s="372"/>
+      <c r="J45" s="373"/>
+      <c r="K45" s="377" t="s">
         <v>76</v>
       </c>
-      <c r="L45" s="368">
+      <c r="L45" s="369">
         <v>1</v>
       </c>
       <c r="M45" s="212" t="s">
@@ -9702,16 +9704,16 @@
     </row>
     <row r="46" spans="2:22">
       <c r="B46" s="208"/>
-      <c r="C46" s="373"/>
-      <c r="D46" s="374"/>
-      <c r="E46" s="374"/>
-      <c r="F46" s="374"/>
-      <c r="G46" s="374"/>
-      <c r="H46" s="374"/>
-      <c r="I46" s="374"/>
-      <c r="J46" s="375"/>
-      <c r="K46" s="365"/>
-      <c r="L46" s="365"/>
+      <c r="C46" s="374"/>
+      <c r="D46" s="375"/>
+      <c r="E46" s="375"/>
+      <c r="F46" s="375"/>
+      <c r="G46" s="375"/>
+      <c r="H46" s="375"/>
+      <c r="I46" s="375"/>
+      <c r="J46" s="376"/>
+      <c r="K46" s="366"/>
+      <c r="L46" s="366"/>
       <c r="M46" s="214" t="s">
         <v>27</v>
       </c>
@@ -9727,20 +9729,20 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" s="208"/>
-      <c r="C47" s="369" t="s">
+      <c r="C47" s="370" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="359"/>
-      <c r="E47" s="359"/>
-      <c r="F47" s="359"/>
-      <c r="G47" s="359"/>
-      <c r="H47" s="359"/>
-      <c r="I47" s="359"/>
-      <c r="J47" s="360"/>
-      <c r="K47" s="364" t="s">
+      <c r="D47" s="360"/>
+      <c r="E47" s="360"/>
+      <c r="F47" s="360"/>
+      <c r="G47" s="360"/>
+      <c r="H47" s="360"/>
+      <c r="I47" s="360"/>
+      <c r="J47" s="361"/>
+      <c r="K47" s="365" t="s">
         <v>78</v>
       </c>
-      <c r="L47" s="368">
+      <c r="L47" s="369">
         <v>1</v>
       </c>
       <c r="M47" s="212" t="s">
@@ -9758,16 +9760,16 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="208"/>
-      <c r="C48" s="362"/>
-      <c r="D48" s="362"/>
-      <c r="E48" s="362"/>
-      <c r="F48" s="362"/>
-      <c r="G48" s="362"/>
-      <c r="H48" s="362"/>
-      <c r="I48" s="362"/>
-      <c r="J48" s="363"/>
-      <c r="K48" s="365"/>
-      <c r="L48" s="365"/>
+      <c r="C48" s="363"/>
+      <c r="D48" s="363"/>
+      <c r="E48" s="363"/>
+      <c r="F48" s="363"/>
+      <c r="G48" s="363"/>
+      <c r="H48" s="363"/>
+      <c r="I48" s="363"/>
+      <c r="J48" s="364"/>
+      <c r="K48" s="366"/>
+      <c r="L48" s="366"/>
       <c r="M48" s="214" t="s">
         <v>27</v>
       </c>
@@ -9831,20 +9833,20 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="208"/>
-      <c r="C51" s="369" t="s">
+      <c r="C51" s="370" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="359"/>
-      <c r="E51" s="359"/>
-      <c r="F51" s="359"/>
-      <c r="G51" s="359"/>
-      <c r="H51" s="359"/>
-      <c r="I51" s="359"/>
-      <c r="J51" s="360"/>
-      <c r="K51" s="364" t="s">
+      <c r="D51" s="360"/>
+      <c r="E51" s="360"/>
+      <c r="F51" s="360"/>
+      <c r="G51" s="360"/>
+      <c r="H51" s="360"/>
+      <c r="I51" s="360"/>
+      <c r="J51" s="361"/>
+      <c r="K51" s="365" t="s">
         <v>52</v>
       </c>
-      <c r="L51" s="368">
+      <c r="L51" s="369">
         <v>1</v>
       </c>
       <c r="M51" s="212" t="s">
@@ -9862,18 +9864,18 @@
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="208"/>
-      <c r="C52" s="362"/>
-      <c r="D52" s="362"/>
-      <c r="E52" s="362"/>
-      <c r="F52" s="362"/>
-      <c r="G52" s="362"/>
-      <c r="H52" s="362"/>
-      <c r="I52" s="362"/>
-      <c r="J52" s="363"/>
-      <c r="K52" s="365" t="s">
+      <c r="C52" s="363"/>
+      <c r="D52" s="363"/>
+      <c r="E52" s="363"/>
+      <c r="F52" s="363"/>
+      <c r="G52" s="363"/>
+      <c r="H52" s="363"/>
+      <c r="I52" s="363"/>
+      <c r="J52" s="364"/>
+      <c r="K52" s="366" t="s">
         <v>29</v>
       </c>
-      <c r="L52" s="365"/>
+      <c r="L52" s="366"/>
       <c r="M52" s="214" t="s">
         <v>27</v>
       </c>
@@ -9889,20 +9891,20 @@
     </row>
     <row r="53" spans="2:22">
       <c r="B53" s="208"/>
-      <c r="C53" s="369" t="s">
+      <c r="C53" s="370" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="359"/>
-      <c r="E53" s="359"/>
-      <c r="F53" s="359"/>
-      <c r="G53" s="359"/>
-      <c r="H53" s="359"/>
-      <c r="I53" s="359"/>
-      <c r="J53" s="360"/>
-      <c r="K53" s="364" t="s">
+      <c r="D53" s="360"/>
+      <c r="E53" s="360"/>
+      <c r="F53" s="360"/>
+      <c r="G53" s="360"/>
+      <c r="H53" s="360"/>
+      <c r="I53" s="360"/>
+      <c r="J53" s="361"/>
+      <c r="K53" s="365" t="s">
         <v>52</v>
       </c>
-      <c r="L53" s="368">
+      <c r="L53" s="369">
         <v>1</v>
       </c>
       <c r="M53" s="212" t="s">
@@ -9920,18 +9922,18 @@
     </row>
     <row r="54" spans="2:22">
       <c r="B54" s="228"/>
-      <c r="C54" s="362"/>
-      <c r="D54" s="362"/>
-      <c r="E54" s="362"/>
-      <c r="F54" s="362"/>
-      <c r="G54" s="362"/>
-      <c r="H54" s="362"/>
-      <c r="I54" s="362"/>
-      <c r="J54" s="363"/>
-      <c r="K54" s="365" t="s">
+      <c r="C54" s="363"/>
+      <c r="D54" s="363"/>
+      <c r="E54" s="363"/>
+      <c r="F54" s="363"/>
+      <c r="G54" s="363"/>
+      <c r="H54" s="363"/>
+      <c r="I54" s="363"/>
+      <c r="J54" s="364"/>
+      <c r="K54" s="366" t="s">
         <v>29</v>
       </c>
-      <c r="L54" s="365"/>
+      <c r="L54" s="366"/>
       <c r="M54" s="214" t="s">
         <v>27</v>
       </c>
@@ -9996,8 +9998,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10005,7 +10007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F374A825-0ACA-4ABA-B702-C96B0AEE07F8}">
   <dimension ref="B6:AG48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
   <cols>
@@ -10032,26 +10034,26 @@
       <c r="J8" s="180"/>
       <c r="K8" s="180"/>
       <c r="L8" s="180"/>
-      <c r="M8" s="347">
+      <c r="M8" s="348">
         <v>2020</v>
       </c>
-      <c r="N8" s="347"/>
-      <c r="O8" s="347"/>
-      <c r="P8" s="347"/>
-      <c r="Q8" s="347"/>
-      <c r="R8" s="347"/>
-      <c r="S8" s="347"/>
-      <c r="T8" s="347"/>
-      <c r="U8" s="347"/>
-      <c r="V8" s="347"/>
-      <c r="W8" s="347"/>
-      <c r="X8" s="347"/>
-      <c r="Y8" s="347"/>
-      <c r="Z8" s="347"/>
-      <c r="AA8" s="347"/>
-      <c r="AB8" s="347"/>
-      <c r="AC8" s="347"/>
-      <c r="AD8" s="347"/>
+      <c r="N8" s="348"/>
+      <c r="O8" s="348"/>
+      <c r="P8" s="348"/>
+      <c r="Q8" s="348"/>
+      <c r="R8" s="348"/>
+      <c r="S8" s="348"/>
+      <c r="T8" s="348"/>
+      <c r="U8" s="348"/>
+      <c r="V8" s="348"/>
+      <c r="W8" s="348"/>
+      <c r="X8" s="348"/>
+      <c r="Y8" s="348"/>
+      <c r="Z8" s="348"/>
+      <c r="AA8" s="348"/>
+      <c r="AB8" s="348"/>
+      <c r="AC8" s="348"/>
+      <c r="AD8" s="348"/>
     </row>
     <row r="9" spans="4:30">
       <c r="D9" s="181"/>
@@ -10063,26 +10065,26 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="347">
+      <c r="M9" s="348">
         <v>6</v>
       </c>
-      <c r="N9" s="347"/>
-      <c r="O9" s="347"/>
-      <c r="P9" s="347"/>
-      <c r="Q9" s="347"/>
-      <c r="R9" s="347"/>
-      <c r="S9" s="347"/>
-      <c r="T9" s="347"/>
-      <c r="U9" s="347"/>
-      <c r="V9" s="347"/>
-      <c r="W9" s="347"/>
-      <c r="X9" s="347"/>
-      <c r="Y9" s="347"/>
-      <c r="Z9" s="347"/>
-      <c r="AA9" s="347"/>
-      <c r="AB9" s="347"/>
-      <c r="AC9" s="347"/>
-      <c r="AD9" s="347"/>
+      <c r="N9" s="348"/>
+      <c r="O9" s="348"/>
+      <c r="P9" s="348"/>
+      <c r="Q9" s="348"/>
+      <c r="R9" s="348"/>
+      <c r="S9" s="348"/>
+      <c r="T9" s="348"/>
+      <c r="U9" s="348"/>
+      <c r="V9" s="348"/>
+      <c r="W9" s="348"/>
+      <c r="X9" s="348"/>
+      <c r="Y9" s="348"/>
+      <c r="Z9" s="348"/>
+      <c r="AA9" s="348"/>
+      <c r="AB9" s="348"/>
+      <c r="AC9" s="348"/>
+      <c r="AD9" s="348"/>
     </row>
     <row r="10" spans="4:30">
       <c r="D10" s="9"/>
@@ -10471,13 +10473,13 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="380" t="s">
+      <c r="K25" s="381" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="378" t="s">
+      <c r="L25" s="379" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="378" t="s">
+      <c r="M25" s="379" t="s">
         <v>22</v>
       </c>
       <c r="N25" s="138">
@@ -10506,9 +10508,9 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="381"/>
-      <c r="L26" s="379"/>
-      <c r="M26" s="379"/>
+      <c r="K26" s="382"/>
+      <c r="L26" s="380"/>
+      <c r="M26" s="380"/>
       <c r="N26" s="141">
         <v>43999</v>
       </c>
@@ -10582,20 +10584,20 @@
     </row>
     <row r="28" spans="2:33">
       <c r="B28" s="18"/>
-      <c r="C28" s="369" t="s">
+      <c r="C28" s="370" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="359"/>
-      <c r="E28" s="359"/>
-      <c r="F28" s="359"/>
-      <c r="G28" s="359"/>
-      <c r="H28" s="359"/>
-      <c r="I28" s="359"/>
-      <c r="J28" s="360"/>
-      <c r="K28" s="364" t="s">
+      <c r="D28" s="360"/>
+      <c r="E28" s="360"/>
+      <c r="F28" s="360"/>
+      <c r="G28" s="360"/>
+      <c r="H28" s="360"/>
+      <c r="I28" s="360"/>
+      <c r="J28" s="361"/>
+      <c r="K28" s="365" t="s">
         <v>77</v>
       </c>
-      <c r="L28" s="368">
+      <c r="L28" s="369">
         <v>1</v>
       </c>
       <c r="M28" s="145" t="s">
@@ -10618,16 +10620,16 @@
     </row>
     <row r="29" spans="2:33">
       <c r="B29" s="18"/>
-      <c r="C29" s="362"/>
-      <c r="D29" s="362"/>
-      <c r="E29" s="362"/>
-      <c r="F29" s="362"/>
-      <c r="G29" s="362"/>
-      <c r="H29" s="362"/>
-      <c r="I29" s="362"/>
-      <c r="J29" s="363"/>
-      <c r="K29" s="365"/>
-      <c r="L29" s="365"/>
+      <c r="C29" s="363"/>
+      <c r="D29" s="363"/>
+      <c r="E29" s="363"/>
+      <c r="F29" s="363"/>
+      <c r="G29" s="363"/>
+      <c r="H29" s="363"/>
+      <c r="I29" s="363"/>
+      <c r="J29" s="364"/>
+      <c r="K29" s="366"/>
+      <c r="L29" s="366"/>
       <c r="M29" s="146" t="s">
         <v>27</v>
       </c>
@@ -10647,20 +10649,20 @@
     </row>
     <row r="30" spans="2:33">
       <c r="B30" s="18"/>
-      <c r="C30" s="369" t="s">
+      <c r="C30" s="370" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="359"/>
-      <c r="E30" s="359"/>
-      <c r="F30" s="359"/>
-      <c r="G30" s="359"/>
-      <c r="H30" s="359"/>
-      <c r="I30" s="359"/>
-      <c r="J30" s="360"/>
-      <c r="K30" s="364" t="s">
+      <c r="D30" s="360"/>
+      <c r="E30" s="360"/>
+      <c r="F30" s="360"/>
+      <c r="G30" s="360"/>
+      <c r="H30" s="360"/>
+      <c r="I30" s="360"/>
+      <c r="J30" s="361"/>
+      <c r="K30" s="365" t="s">
         <v>78</v>
       </c>
-      <c r="L30" s="368">
+      <c r="L30" s="369">
         <v>1</v>
       </c>
       <c r="M30" s="145" t="s">
@@ -10682,16 +10684,16 @@
     </row>
     <row r="31" spans="2:33">
       <c r="B31" s="18"/>
-      <c r="C31" s="362"/>
-      <c r="D31" s="362"/>
-      <c r="E31" s="362"/>
-      <c r="F31" s="362"/>
-      <c r="G31" s="362"/>
-      <c r="H31" s="362"/>
-      <c r="I31" s="362"/>
-      <c r="J31" s="363"/>
-      <c r="K31" s="365"/>
-      <c r="L31" s="365"/>
+      <c r="C31" s="363"/>
+      <c r="D31" s="363"/>
+      <c r="E31" s="363"/>
+      <c r="F31" s="363"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="363"/>
+      <c r="J31" s="364"/>
+      <c r="K31" s="366"/>
+      <c r="L31" s="366"/>
       <c r="M31" s="146" t="s">
         <v>27</v>
       </c>
@@ -10711,20 +10713,20 @@
     </row>
     <row r="32" spans="2:33">
       <c r="B32" s="18"/>
-      <c r="C32" s="369" t="s">
+      <c r="C32" s="370" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="359"/>
-      <c r="E32" s="359"/>
-      <c r="F32" s="359"/>
-      <c r="G32" s="359"/>
-      <c r="H32" s="359"/>
-      <c r="I32" s="359"/>
-      <c r="J32" s="360"/>
-      <c r="K32" s="364" t="s">
+      <c r="D32" s="360"/>
+      <c r="E32" s="360"/>
+      <c r="F32" s="360"/>
+      <c r="G32" s="360"/>
+      <c r="H32" s="360"/>
+      <c r="I32" s="360"/>
+      <c r="J32" s="361"/>
+      <c r="K32" s="365" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="368">
+      <c r="L32" s="369">
         <v>1</v>
       </c>
       <c r="M32" s="145" t="s">
@@ -10747,16 +10749,16 @@
     </row>
     <row r="33" spans="2:30">
       <c r="B33" s="18"/>
-      <c r="C33" s="362"/>
-      <c r="D33" s="362"/>
-      <c r="E33" s="362"/>
-      <c r="F33" s="362"/>
-      <c r="G33" s="362"/>
-      <c r="H33" s="362"/>
-      <c r="I33" s="362"/>
-      <c r="J33" s="363"/>
-      <c r="K33" s="365"/>
-      <c r="L33" s="365"/>
+      <c r="C33" s="363"/>
+      <c r="D33" s="363"/>
+      <c r="E33" s="363"/>
+      <c r="F33" s="363"/>
+      <c r="G33" s="363"/>
+      <c r="H33" s="363"/>
+      <c r="I33" s="363"/>
+      <c r="J33" s="364"/>
+      <c r="K33" s="366"/>
+      <c r="L33" s="366"/>
       <c r="M33" s="146" t="s">
         <v>27</v>
       </c>
@@ -10776,20 +10778,20 @@
     </row>
     <row r="34" spans="2:30">
       <c r="B34" s="18"/>
-      <c r="C34" s="370" t="s">
+      <c r="C34" s="371" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="371"/>
-      <c r="E34" s="371"/>
-      <c r="F34" s="371"/>
-      <c r="G34" s="371"/>
-      <c r="H34" s="371"/>
-      <c r="I34" s="371"/>
-      <c r="J34" s="372"/>
-      <c r="K34" s="364" t="s">
+      <c r="D34" s="372"/>
+      <c r="E34" s="372"/>
+      <c r="F34" s="372"/>
+      <c r="G34" s="372"/>
+      <c r="H34" s="372"/>
+      <c r="I34" s="372"/>
+      <c r="J34" s="373"/>
+      <c r="K34" s="365" t="s">
         <v>72</v>
       </c>
-      <c r="L34" s="368">
+      <c r="L34" s="369">
         <v>0</v>
       </c>
       <c r="M34" s="145" t="s">
@@ -10811,16 +10813,16 @@
     </row>
     <row r="35" spans="2:30">
       <c r="B35" s="18"/>
-      <c r="C35" s="373"/>
-      <c r="D35" s="374"/>
-      <c r="E35" s="374"/>
-      <c r="F35" s="374"/>
-      <c r="G35" s="374"/>
-      <c r="H35" s="374"/>
-      <c r="I35" s="374"/>
-      <c r="J35" s="375"/>
-      <c r="K35" s="365"/>
-      <c r="L35" s="382"/>
+      <c r="C35" s="374"/>
+      <c r="D35" s="375"/>
+      <c r="E35" s="375"/>
+      <c r="F35" s="375"/>
+      <c r="G35" s="375"/>
+      <c r="H35" s="375"/>
+      <c r="I35" s="375"/>
+      <c r="J35" s="376"/>
+      <c r="K35" s="366"/>
+      <c r="L35" s="383"/>
       <c r="M35" s="146" t="s">
         <v>27</v>
       </c>
@@ -10840,20 +10842,20 @@
     </row>
     <row r="36" spans="2:30">
       <c r="B36" s="18"/>
-      <c r="C36" s="370" t="s">
+      <c r="C36" s="371" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="371"/>
-      <c r="E36" s="371"/>
-      <c r="F36" s="371"/>
-      <c r="G36" s="371"/>
-      <c r="H36" s="371"/>
-      <c r="I36" s="371"/>
-      <c r="J36" s="372"/>
-      <c r="K36" s="364" t="s">
+      <c r="D36" s="372"/>
+      <c r="E36" s="372"/>
+      <c r="F36" s="372"/>
+      <c r="G36" s="372"/>
+      <c r="H36" s="372"/>
+      <c r="I36" s="372"/>
+      <c r="J36" s="373"/>
+      <c r="K36" s="365" t="s">
         <v>72</v>
       </c>
-      <c r="L36" s="368">
+      <c r="L36" s="369">
         <v>1</v>
       </c>
       <c r="M36" s="145" t="s">
@@ -10875,16 +10877,16 @@
     </row>
     <row r="37" spans="2:30">
       <c r="B37" s="18"/>
-      <c r="C37" s="373"/>
-      <c r="D37" s="374"/>
-      <c r="E37" s="374"/>
-      <c r="F37" s="374"/>
-      <c r="G37" s="374"/>
-      <c r="H37" s="374"/>
-      <c r="I37" s="374"/>
-      <c r="J37" s="375"/>
-      <c r="K37" s="365"/>
-      <c r="L37" s="382"/>
+      <c r="C37" s="374"/>
+      <c r="D37" s="375"/>
+      <c r="E37" s="375"/>
+      <c r="F37" s="375"/>
+      <c r="G37" s="375"/>
+      <c r="H37" s="375"/>
+      <c r="I37" s="375"/>
+      <c r="J37" s="376"/>
+      <c r="K37" s="366"/>
+      <c r="L37" s="383"/>
       <c r="M37" s="146" t="s">
         <v>27</v>
       </c>
@@ -10904,20 +10906,20 @@
     </row>
     <row r="38" spans="2:30">
       <c r="B38" s="18"/>
-      <c r="C38" s="369" t="s">
+      <c r="C38" s="370" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="359"/>
-      <c r="E38" s="359"/>
-      <c r="F38" s="359"/>
-      <c r="G38" s="359"/>
-      <c r="H38" s="359"/>
-      <c r="I38" s="359"/>
-      <c r="J38" s="360"/>
-      <c r="K38" s="376" t="s">
+      <c r="D38" s="360"/>
+      <c r="E38" s="360"/>
+      <c r="F38" s="360"/>
+      <c r="G38" s="360"/>
+      <c r="H38" s="360"/>
+      <c r="I38" s="360"/>
+      <c r="J38" s="361"/>
+      <c r="K38" s="377" t="s">
         <v>79</v>
       </c>
-      <c r="L38" s="368">
+      <c r="L38" s="369">
         <v>1</v>
       </c>
       <c r="M38" s="145" t="s">
@@ -10940,16 +10942,16 @@
     </row>
     <row r="39" spans="2:30">
       <c r="B39" s="18"/>
-      <c r="C39" s="362"/>
-      <c r="D39" s="362"/>
-      <c r="E39" s="362"/>
-      <c r="F39" s="362"/>
-      <c r="G39" s="362"/>
-      <c r="H39" s="362"/>
-      <c r="I39" s="362"/>
-      <c r="J39" s="363"/>
-      <c r="K39" s="365"/>
-      <c r="L39" s="365"/>
+      <c r="C39" s="363"/>
+      <c r="D39" s="363"/>
+      <c r="E39" s="363"/>
+      <c r="F39" s="363"/>
+      <c r="G39" s="363"/>
+      <c r="H39" s="363"/>
+      <c r="I39" s="363"/>
+      <c r="J39" s="364"/>
+      <c r="K39" s="366"/>
+      <c r="L39" s="366"/>
       <c r="M39" s="146" t="s">
         <v>27</v>
       </c>
@@ -10969,20 +10971,20 @@
     </row>
     <row r="40" spans="2:30">
       <c r="B40" s="18"/>
-      <c r="C40" s="369" t="s">
+      <c r="C40" s="370" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="359"/>
-      <c r="E40" s="359"/>
-      <c r="F40" s="359"/>
-      <c r="G40" s="359"/>
-      <c r="H40" s="359"/>
-      <c r="I40" s="359"/>
-      <c r="J40" s="360"/>
-      <c r="K40" s="364" t="s">
+      <c r="D40" s="360"/>
+      <c r="E40" s="360"/>
+      <c r="F40" s="360"/>
+      <c r="G40" s="360"/>
+      <c r="H40" s="360"/>
+      <c r="I40" s="360"/>
+      <c r="J40" s="361"/>
+      <c r="K40" s="365" t="s">
         <v>73</v>
       </c>
-      <c r="L40" s="368">
+      <c r="L40" s="369">
         <v>0</v>
       </c>
       <c r="M40" s="145" t="s">
@@ -11004,16 +11006,16 @@
     </row>
     <row r="41" spans="2:30">
       <c r="B41" s="18"/>
-      <c r="C41" s="362"/>
-      <c r="D41" s="362"/>
-      <c r="E41" s="362"/>
-      <c r="F41" s="362"/>
-      <c r="G41" s="362"/>
-      <c r="H41" s="362"/>
-      <c r="I41" s="362"/>
-      <c r="J41" s="363"/>
-      <c r="K41" s="377"/>
-      <c r="L41" s="365"/>
+      <c r="C41" s="363"/>
+      <c r="D41" s="363"/>
+      <c r="E41" s="363"/>
+      <c r="F41" s="363"/>
+      <c r="G41" s="363"/>
+      <c r="H41" s="363"/>
+      <c r="I41" s="363"/>
+      <c r="J41" s="364"/>
+      <c r="K41" s="378"/>
+      <c r="L41" s="366"/>
       <c r="M41" s="146" t="s">
         <v>27</v>
       </c>
@@ -11033,20 +11035,20 @@
     </row>
     <row r="42" spans="2:30">
       <c r="B42" s="18"/>
-      <c r="C42" s="369" t="s">
+      <c r="C42" s="370" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="359"/>
-      <c r="E42" s="359"/>
-      <c r="F42" s="359"/>
-      <c r="G42" s="359"/>
-      <c r="H42" s="359"/>
-      <c r="I42" s="359"/>
-      <c r="J42" s="360"/>
-      <c r="K42" s="364" t="s">
+      <c r="D42" s="360"/>
+      <c r="E42" s="360"/>
+      <c r="F42" s="360"/>
+      <c r="G42" s="360"/>
+      <c r="H42" s="360"/>
+      <c r="I42" s="360"/>
+      <c r="J42" s="361"/>
+      <c r="K42" s="365" t="s">
         <v>78</v>
       </c>
-      <c r="L42" s="368">
+      <c r="L42" s="369">
         <v>1</v>
       </c>
       <c r="M42" s="145" t="s">
@@ -11069,16 +11071,16 @@
     </row>
     <row r="43" spans="2:30">
       <c r="B43" s="18"/>
-      <c r="C43" s="362"/>
-      <c r="D43" s="362"/>
-      <c r="E43" s="362"/>
-      <c r="F43" s="362"/>
-      <c r="G43" s="362"/>
-      <c r="H43" s="362"/>
-      <c r="I43" s="362"/>
-      <c r="J43" s="363"/>
-      <c r="K43" s="365"/>
-      <c r="L43" s="365"/>
+      <c r="C43" s="363"/>
+      <c r="D43" s="363"/>
+      <c r="E43" s="363"/>
+      <c r="F43" s="363"/>
+      <c r="G43" s="363"/>
+      <c r="H43" s="363"/>
+      <c r="I43" s="363"/>
+      <c r="J43" s="364"/>
+      <c r="K43" s="366"/>
+      <c r="L43" s="366"/>
       <c r="M43" s="146" t="s">
         <v>27</v>
       </c>
@@ -11098,20 +11100,20 @@
     </row>
     <row r="44" spans="2:30">
       <c r="B44" s="18"/>
-      <c r="C44" s="369" t="s">
+      <c r="C44" s="370" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="359"/>
-      <c r="E44" s="359"/>
-      <c r="F44" s="359"/>
-      <c r="G44" s="359"/>
-      <c r="H44" s="359"/>
-      <c r="I44" s="359"/>
-      <c r="J44" s="360"/>
-      <c r="K44" s="364" t="s">
+      <c r="D44" s="360"/>
+      <c r="E44" s="360"/>
+      <c r="F44" s="360"/>
+      <c r="G44" s="360"/>
+      <c r="H44" s="360"/>
+      <c r="I44" s="360"/>
+      <c r="J44" s="361"/>
+      <c r="K44" s="365" t="s">
         <v>76</v>
       </c>
-      <c r="L44" s="368">
+      <c r="L44" s="369">
         <v>1</v>
       </c>
       <c r="M44" s="145" t="s">
@@ -11133,16 +11135,16 @@
     </row>
     <row r="45" spans="2:30">
       <c r="B45" s="18"/>
-      <c r="C45" s="362"/>
-      <c r="D45" s="362"/>
-      <c r="E45" s="362"/>
-      <c r="F45" s="362"/>
-      <c r="G45" s="362"/>
-      <c r="H45" s="362"/>
-      <c r="I45" s="362"/>
-      <c r="J45" s="363"/>
-      <c r="K45" s="365"/>
-      <c r="L45" s="365"/>
+      <c r="C45" s="363"/>
+      <c r="D45" s="363"/>
+      <c r="E45" s="363"/>
+      <c r="F45" s="363"/>
+      <c r="G45" s="363"/>
+      <c r="H45" s="363"/>
+      <c r="I45" s="363"/>
+      <c r="J45" s="364"/>
+      <c r="K45" s="366"/>
+      <c r="L45" s="366"/>
       <c r="M45" s="146" t="s">
         <v>27</v>
       </c>
@@ -11162,20 +11164,20 @@
     </row>
     <row r="46" spans="2:30">
       <c r="B46" s="18"/>
-      <c r="C46" s="369" t="s">
+      <c r="C46" s="370" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="359"/>
-      <c r="E46" s="359"/>
-      <c r="F46" s="359"/>
-      <c r="G46" s="359"/>
-      <c r="H46" s="359"/>
-      <c r="I46" s="359"/>
-      <c r="J46" s="360"/>
-      <c r="K46" s="364" t="s">
+      <c r="D46" s="360"/>
+      <c r="E46" s="360"/>
+      <c r="F46" s="360"/>
+      <c r="G46" s="360"/>
+      <c r="H46" s="360"/>
+      <c r="I46" s="360"/>
+      <c r="J46" s="361"/>
+      <c r="K46" s="365" t="s">
         <v>73</v>
       </c>
-      <c r="L46" s="368">
+      <c r="L46" s="369">
         <v>1</v>
       </c>
       <c r="M46" s="145" t="s">
@@ -11197,16 +11199,16 @@
     </row>
     <row r="47" spans="2:30">
       <c r="B47" s="18"/>
-      <c r="C47" s="362"/>
-      <c r="D47" s="362"/>
-      <c r="E47" s="362"/>
-      <c r="F47" s="362"/>
-      <c r="G47" s="362"/>
-      <c r="H47" s="362"/>
-      <c r="I47" s="362"/>
-      <c r="J47" s="363"/>
-      <c r="K47" s="365"/>
-      <c r="L47" s="382"/>
+      <c r="C47" s="363"/>
+      <c r="D47" s="363"/>
+      <c r="E47" s="363"/>
+      <c r="F47" s="363"/>
+      <c r="G47" s="363"/>
+      <c r="H47" s="363"/>
+      <c r="I47" s="363"/>
+      <c r="J47" s="364"/>
+      <c r="K47" s="366"/>
+      <c r="L47" s="383"/>
       <c r="M47" s="146" t="s">
         <v>27</v>
       </c>
@@ -11296,7 +11298,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="31" max="47" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -11305,7 +11310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8602A3-DB5D-4C4B-AC21-CA5EC153D48D}">
   <dimension ref="B5:AI76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L70" sqref="L70:L71"/>
     </sheetView>
   </sheetViews>
@@ -11334,26 +11339,26 @@
       <c r="I7" s="180"/>
       <c r="J7" s="180"/>
       <c r="K7" s="180"/>
-      <c r="L7" s="347">
+      <c r="L7" s="348">
         <v>2020</v>
       </c>
-      <c r="M7" s="347"/>
-      <c r="N7" s="347"/>
-      <c r="O7" s="347"/>
-      <c r="P7" s="347"/>
-      <c r="Q7" s="347"/>
-      <c r="R7" s="347"/>
-      <c r="S7" s="347"/>
-      <c r="T7" s="347"/>
-      <c r="U7" s="347"/>
-      <c r="V7" s="347"/>
-      <c r="W7" s="347"/>
-      <c r="X7" s="347"/>
-      <c r="Y7" s="347"/>
-      <c r="Z7" s="347"/>
-      <c r="AA7" s="347"/>
-      <c r="AB7" s="347"/>
-      <c r="AC7" s="347"/>
+      <c r="M7" s="348"/>
+      <c r="N7" s="348"/>
+      <c r="O7" s="348"/>
+      <c r="P7" s="348"/>
+      <c r="Q7" s="348"/>
+      <c r="R7" s="348"/>
+      <c r="S7" s="348"/>
+      <c r="T7" s="348"/>
+      <c r="U7" s="348"/>
+      <c r="V7" s="348"/>
+      <c r="W7" s="348"/>
+      <c r="X7" s="348"/>
+      <c r="Y7" s="348"/>
+      <c r="Z7" s="348"/>
+      <c r="AA7" s="348"/>
+      <c r="AB7" s="348"/>
+      <c r="AC7" s="348"/>
     </row>
     <row r="8" spans="3:29">
       <c r="C8" s="181"/>
@@ -11365,26 +11370,26 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="347">
+      <c r="L8" s="348">
         <v>6</v>
       </c>
-      <c r="M8" s="347"/>
-      <c r="N8" s="347"/>
-      <c r="O8" s="347"/>
-      <c r="P8" s="347"/>
-      <c r="Q8" s="347"/>
-      <c r="R8" s="347"/>
-      <c r="S8" s="347"/>
-      <c r="T8" s="347"/>
-      <c r="U8" s="347"/>
-      <c r="V8" s="347"/>
-      <c r="W8" s="347"/>
-      <c r="X8" s="347"/>
-      <c r="Y8" s="347"/>
-      <c r="Z8" s="347"/>
-      <c r="AA8" s="347"/>
-      <c r="AB8" s="347"/>
-      <c r="AC8" s="347"/>
+      <c r="M8" s="348"/>
+      <c r="N8" s="348"/>
+      <c r="O8" s="348"/>
+      <c r="P8" s="348"/>
+      <c r="Q8" s="348"/>
+      <c r="R8" s="348"/>
+      <c r="S8" s="348"/>
+      <c r="T8" s="348"/>
+      <c r="U8" s="348"/>
+      <c r="V8" s="348"/>
+      <c r="W8" s="348"/>
+      <c r="X8" s="348"/>
+      <c r="Y8" s="348"/>
+      <c r="Z8" s="348"/>
+      <c r="AA8" s="348"/>
+      <c r="AB8" s="348"/>
+      <c r="AC8" s="348"/>
     </row>
     <row r="9" spans="3:29">
       <c r="C9" s="9"/>
@@ -11883,20 +11888,20 @@
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="18"/>
-      <c r="C30" s="369" t="s">
+      <c r="C30" s="370" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="359"/>
-      <c r="E30" s="359"/>
-      <c r="F30" s="359"/>
-      <c r="G30" s="359"/>
-      <c r="H30" s="359"/>
-      <c r="I30" s="359"/>
-      <c r="J30" s="360"/>
-      <c r="K30" s="364" t="s">
+      <c r="D30" s="360"/>
+      <c r="E30" s="360"/>
+      <c r="F30" s="360"/>
+      <c r="G30" s="360"/>
+      <c r="H30" s="360"/>
+      <c r="I30" s="360"/>
+      <c r="J30" s="361"/>
+      <c r="K30" s="365" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="366">
+      <c r="L30" s="367">
         <v>1</v>
       </c>
       <c r="M30" s="115" t="s">
@@ -11909,16 +11914,16 @@
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="18"/>
-      <c r="C31" s="362"/>
-      <c r="D31" s="362"/>
-      <c r="E31" s="362"/>
-      <c r="F31" s="362"/>
-      <c r="G31" s="362"/>
-      <c r="H31" s="362"/>
-      <c r="I31" s="362"/>
-      <c r="J31" s="363"/>
-      <c r="K31" s="365"/>
-      <c r="L31" s="367"/>
+      <c r="C31" s="363"/>
+      <c r="D31" s="363"/>
+      <c r="E31" s="363"/>
+      <c r="F31" s="363"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="363"/>
+      <c r="J31" s="364"/>
+      <c r="K31" s="366"/>
+      <c r="L31" s="368"/>
       <c r="M31" s="117" t="s">
         <v>27</v>
       </c>
@@ -11929,20 +11934,20 @@
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="18"/>
-      <c r="C32" s="369" t="s">
+      <c r="C32" s="370" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="359"/>
-      <c r="E32" s="359"/>
-      <c r="F32" s="359"/>
-      <c r="G32" s="359"/>
-      <c r="H32" s="359"/>
-      <c r="I32" s="359"/>
-      <c r="J32" s="360"/>
-      <c r="K32" s="364" t="s">
+      <c r="D32" s="360"/>
+      <c r="E32" s="360"/>
+      <c r="F32" s="360"/>
+      <c r="G32" s="360"/>
+      <c r="H32" s="360"/>
+      <c r="I32" s="360"/>
+      <c r="J32" s="361"/>
+      <c r="K32" s="365" t="s">
         <v>73</v>
       </c>
-      <c r="L32" s="366">
+      <c r="L32" s="367">
         <v>1</v>
       </c>
       <c r="M32" s="115" t="s">
@@ -11955,16 +11960,16 @@
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="18"/>
-      <c r="C33" s="362"/>
-      <c r="D33" s="362"/>
-      <c r="E33" s="362"/>
-      <c r="F33" s="362"/>
-      <c r="G33" s="362"/>
-      <c r="H33" s="362"/>
-      <c r="I33" s="362"/>
-      <c r="J33" s="363"/>
-      <c r="K33" s="365"/>
-      <c r="L33" s="367"/>
+      <c r="C33" s="363"/>
+      <c r="D33" s="363"/>
+      <c r="E33" s="363"/>
+      <c r="F33" s="363"/>
+      <c r="G33" s="363"/>
+      <c r="H33" s="363"/>
+      <c r="I33" s="363"/>
+      <c r="J33" s="364"/>
+      <c r="K33" s="366"/>
+      <c r="L33" s="368"/>
       <c r="M33" s="117" t="s">
         <v>27</v>
       </c>
@@ -11975,20 +11980,20 @@
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="18"/>
-      <c r="C34" s="369" t="s">
+      <c r="C34" s="370" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="359"/>
-      <c r="E34" s="359"/>
-      <c r="F34" s="359"/>
-      <c r="G34" s="359"/>
-      <c r="H34" s="359"/>
-      <c r="I34" s="359"/>
-      <c r="J34" s="360"/>
-      <c r="K34" s="364" t="s">
+      <c r="D34" s="360"/>
+      <c r="E34" s="360"/>
+      <c r="F34" s="360"/>
+      <c r="G34" s="360"/>
+      <c r="H34" s="360"/>
+      <c r="I34" s="360"/>
+      <c r="J34" s="361"/>
+      <c r="K34" s="365" t="s">
         <v>77</v>
       </c>
-      <c r="L34" s="366">
+      <c r="L34" s="367">
         <v>1</v>
       </c>
       <c r="M34" s="115" t="s">
@@ -12001,16 +12006,16 @@
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="18"/>
-      <c r="C35" s="362"/>
-      <c r="D35" s="362"/>
-      <c r="E35" s="362"/>
-      <c r="F35" s="362"/>
-      <c r="G35" s="362"/>
-      <c r="H35" s="362"/>
-      <c r="I35" s="362"/>
-      <c r="J35" s="363"/>
-      <c r="K35" s="365"/>
-      <c r="L35" s="367"/>
+      <c r="C35" s="363"/>
+      <c r="D35" s="363"/>
+      <c r="E35" s="363"/>
+      <c r="F35" s="363"/>
+      <c r="G35" s="363"/>
+      <c r="H35" s="363"/>
+      <c r="I35" s="363"/>
+      <c r="J35" s="364"/>
+      <c r="K35" s="366"/>
+      <c r="L35" s="368"/>
       <c r="M35" s="117" t="s">
         <v>27</v>
       </c>
@@ -12021,20 +12026,20 @@
     </row>
     <row r="36" spans="2:20" ht="15.75" customHeight="1">
       <c r="B36" s="18"/>
-      <c r="C36" s="370" t="s">
+      <c r="C36" s="371" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="371"/>
-      <c r="E36" s="371"/>
-      <c r="F36" s="371"/>
-      <c r="G36" s="371"/>
-      <c r="H36" s="371"/>
-      <c r="I36" s="371"/>
-      <c r="J36" s="372"/>
-      <c r="K36" s="364" t="s">
+      <c r="D36" s="372"/>
+      <c r="E36" s="372"/>
+      <c r="F36" s="372"/>
+      <c r="G36" s="372"/>
+      <c r="H36" s="372"/>
+      <c r="I36" s="372"/>
+      <c r="J36" s="373"/>
+      <c r="K36" s="365" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="366">
+      <c r="L36" s="367">
         <v>1</v>
       </c>
       <c r="M36" s="115" t="s">
@@ -12047,16 +12052,16 @@
     </row>
     <row r="37" spans="2:20">
       <c r="B37" s="18"/>
-      <c r="C37" s="373"/>
-      <c r="D37" s="374"/>
-      <c r="E37" s="374"/>
-      <c r="F37" s="374"/>
-      <c r="G37" s="374"/>
-      <c r="H37" s="374"/>
-      <c r="I37" s="374"/>
-      <c r="J37" s="375"/>
-      <c r="K37" s="365"/>
-      <c r="L37" s="367"/>
+      <c r="C37" s="374"/>
+      <c r="D37" s="375"/>
+      <c r="E37" s="375"/>
+      <c r="F37" s="375"/>
+      <c r="G37" s="375"/>
+      <c r="H37" s="375"/>
+      <c r="I37" s="375"/>
+      <c r="J37" s="376"/>
+      <c r="K37" s="366"/>
+      <c r="L37" s="368"/>
       <c r="M37" s="117" t="s">
         <v>27</v>
       </c>
@@ -12067,20 +12072,20 @@
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="18"/>
-      <c r="C38" s="370" t="s">
+      <c r="C38" s="371" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="371"/>
-      <c r="E38" s="371"/>
-      <c r="F38" s="371"/>
-      <c r="G38" s="371"/>
-      <c r="H38" s="371"/>
-      <c r="I38" s="371"/>
-      <c r="J38" s="372"/>
-      <c r="K38" s="364" t="s">
+      <c r="D38" s="372"/>
+      <c r="E38" s="372"/>
+      <c r="F38" s="372"/>
+      <c r="G38" s="372"/>
+      <c r="H38" s="372"/>
+      <c r="I38" s="372"/>
+      <c r="J38" s="373"/>
+      <c r="K38" s="365" t="s">
         <v>88</v>
       </c>
-      <c r="L38" s="366">
+      <c r="L38" s="367">
         <v>1</v>
       </c>
       <c r="M38" s="115" t="s">
@@ -12093,16 +12098,16 @@
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="18"/>
-      <c r="C39" s="373"/>
-      <c r="D39" s="374"/>
-      <c r="E39" s="374"/>
-      <c r="F39" s="374"/>
-      <c r="G39" s="374"/>
-      <c r="H39" s="374"/>
-      <c r="I39" s="374"/>
-      <c r="J39" s="375"/>
-      <c r="K39" s="365"/>
-      <c r="L39" s="367"/>
+      <c r="C39" s="374"/>
+      <c r="D39" s="375"/>
+      <c r="E39" s="375"/>
+      <c r="F39" s="375"/>
+      <c r="G39" s="375"/>
+      <c r="H39" s="375"/>
+      <c r="I39" s="375"/>
+      <c r="J39" s="376"/>
+      <c r="K39" s="366"/>
+      <c r="L39" s="368"/>
       <c r="M39" s="117" t="s">
         <v>27</v>
       </c>
@@ -12113,20 +12118,20 @@
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="18"/>
-      <c r="C40" s="369" t="s">
+      <c r="C40" s="370" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="359"/>
-      <c r="E40" s="359"/>
-      <c r="F40" s="359"/>
-      <c r="G40" s="359"/>
-      <c r="H40" s="359"/>
-      <c r="I40" s="359"/>
-      <c r="J40" s="360"/>
-      <c r="K40" s="364" t="s">
+      <c r="D40" s="360"/>
+      <c r="E40" s="360"/>
+      <c r="F40" s="360"/>
+      <c r="G40" s="360"/>
+      <c r="H40" s="360"/>
+      <c r="I40" s="360"/>
+      <c r="J40" s="361"/>
+      <c r="K40" s="365" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="366">
+      <c r="L40" s="367">
         <v>1</v>
       </c>
       <c r="M40" s="115" t="s">
@@ -12137,21 +12142,21 @@
       <c r="P40" s="296"/>
       <c r="Q40" s="338"/>
       <c r="T40" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="18"/>
-      <c r="C41" s="362"/>
-      <c r="D41" s="362"/>
-      <c r="E41" s="362"/>
-      <c r="F41" s="362"/>
-      <c r="G41" s="362"/>
-      <c r="H41" s="362"/>
-      <c r="I41" s="362"/>
-      <c r="J41" s="363"/>
-      <c r="K41" s="365"/>
-      <c r="L41" s="367"/>
+      <c r="C41" s="363"/>
+      <c r="D41" s="363"/>
+      <c r="E41" s="363"/>
+      <c r="F41" s="363"/>
+      <c r="G41" s="363"/>
+      <c r="H41" s="363"/>
+      <c r="I41" s="363"/>
+      <c r="J41" s="364"/>
+      <c r="K41" s="366"/>
+      <c r="L41" s="368"/>
       <c r="M41" s="117" t="s">
         <v>27</v>
       </c>
@@ -12160,25 +12165,25 @@
       <c r="P41" s="149"/>
       <c r="Q41" s="339"/>
       <c r="T41" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="18"/>
-      <c r="C42" s="369" t="s">
+      <c r="C42" s="370" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="359"/>
-      <c r="E42" s="359"/>
-      <c r="F42" s="359"/>
-      <c r="G42" s="359"/>
-      <c r="H42" s="359"/>
-      <c r="I42" s="359"/>
-      <c r="J42" s="360"/>
-      <c r="K42" s="364" t="s">
+      <c r="D42" s="360"/>
+      <c r="E42" s="360"/>
+      <c r="F42" s="360"/>
+      <c r="G42" s="360"/>
+      <c r="H42" s="360"/>
+      <c r="I42" s="360"/>
+      <c r="J42" s="361"/>
+      <c r="K42" s="365" t="s">
         <v>72</v>
       </c>
-      <c r="L42" s="366">
+      <c r="L42" s="367">
         <v>1</v>
       </c>
       <c r="M42" s="115" t="s">
@@ -12189,21 +12194,21 @@
       <c r="P42" s="296"/>
       <c r="Q42" s="338"/>
       <c r="T42" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="18"/>
-      <c r="C43" s="362"/>
-      <c r="D43" s="362"/>
-      <c r="E43" s="362"/>
-      <c r="F43" s="362"/>
-      <c r="G43" s="362"/>
-      <c r="H43" s="362"/>
-      <c r="I43" s="362"/>
-      <c r="J43" s="363"/>
-      <c r="K43" s="365"/>
-      <c r="L43" s="367"/>
+      <c r="C43" s="363"/>
+      <c r="D43" s="363"/>
+      <c r="E43" s="363"/>
+      <c r="F43" s="363"/>
+      <c r="G43" s="363"/>
+      <c r="H43" s="363"/>
+      <c r="I43" s="363"/>
+      <c r="J43" s="364"/>
+      <c r="K43" s="366"/>
+      <c r="L43" s="368"/>
       <c r="M43" s="117" t="s">
         <v>27</v>
       </c>
@@ -12214,20 +12219,20 @@
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="18"/>
-      <c r="C44" s="369" t="s">
+      <c r="C44" s="370" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="359"/>
-      <c r="E44" s="359"/>
-      <c r="F44" s="359"/>
-      <c r="G44" s="359"/>
-      <c r="H44" s="359"/>
-      <c r="I44" s="359"/>
-      <c r="J44" s="360"/>
-      <c r="K44" s="364" t="s">
+      <c r="D44" s="360"/>
+      <c r="E44" s="360"/>
+      <c r="F44" s="360"/>
+      <c r="G44" s="360"/>
+      <c r="H44" s="360"/>
+      <c r="I44" s="360"/>
+      <c r="J44" s="361"/>
+      <c r="K44" s="365" t="s">
         <v>92</v>
       </c>
-      <c r="L44" s="366">
+      <c r="L44" s="367">
         <v>1</v>
       </c>
       <c r="M44" s="115" t="s">
@@ -12240,16 +12245,16 @@
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="18"/>
-      <c r="C45" s="362"/>
-      <c r="D45" s="362"/>
-      <c r="E45" s="362"/>
-      <c r="F45" s="362"/>
-      <c r="G45" s="362"/>
-      <c r="H45" s="362"/>
-      <c r="I45" s="362"/>
-      <c r="J45" s="363"/>
-      <c r="K45" s="377"/>
-      <c r="L45" s="367"/>
+      <c r="C45" s="363"/>
+      <c r="D45" s="363"/>
+      <c r="E45" s="363"/>
+      <c r="F45" s="363"/>
+      <c r="G45" s="363"/>
+      <c r="H45" s="363"/>
+      <c r="I45" s="363"/>
+      <c r="J45" s="364"/>
+      <c r="K45" s="378"/>
+      <c r="L45" s="368"/>
       <c r="M45" s="117" t="s">
         <v>27</v>
       </c>
@@ -12260,20 +12265,20 @@
     </row>
     <row r="46" spans="2:20">
       <c r="B46" s="18"/>
-      <c r="C46" s="369" t="s">
+      <c r="C46" s="370" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="359"/>
-      <c r="E46" s="359"/>
-      <c r="F46" s="359"/>
-      <c r="G46" s="359"/>
-      <c r="H46" s="359"/>
-      <c r="I46" s="359"/>
-      <c r="J46" s="360"/>
-      <c r="K46" s="376" t="s">
+      <c r="D46" s="360"/>
+      <c r="E46" s="360"/>
+      <c r="F46" s="360"/>
+      <c r="G46" s="360"/>
+      <c r="H46" s="360"/>
+      <c r="I46" s="360"/>
+      <c r="J46" s="361"/>
+      <c r="K46" s="377" t="s">
         <v>76</v>
       </c>
-      <c r="L46" s="366">
+      <c r="L46" s="367">
         <v>1</v>
       </c>
       <c r="M46" s="115" t="s">
@@ -12286,16 +12291,16 @@
     </row>
     <row r="47" spans="2:20">
       <c r="B47" s="18"/>
-      <c r="C47" s="362"/>
-      <c r="D47" s="362"/>
-      <c r="E47" s="362"/>
-      <c r="F47" s="362"/>
-      <c r="G47" s="362"/>
-      <c r="H47" s="362"/>
-      <c r="I47" s="362"/>
-      <c r="J47" s="363"/>
-      <c r="K47" s="365"/>
-      <c r="L47" s="367"/>
+      <c r="C47" s="363"/>
+      <c r="D47" s="363"/>
+      <c r="E47" s="363"/>
+      <c r="F47" s="363"/>
+      <c r="G47" s="363"/>
+      <c r="H47" s="363"/>
+      <c r="I47" s="363"/>
+      <c r="J47" s="364"/>
+      <c r="K47" s="366"/>
+      <c r="L47" s="368"/>
       <c r="M47" s="117" t="s">
         <v>27</v>
       </c>
@@ -12306,20 +12311,20 @@
     </row>
     <row r="48" spans="2:20">
       <c r="B48" s="18"/>
-      <c r="C48" s="369" t="s">
+      <c r="C48" s="370" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="359"/>
-      <c r="E48" s="359"/>
-      <c r="F48" s="359"/>
-      <c r="G48" s="359"/>
-      <c r="H48" s="359"/>
-      <c r="I48" s="359"/>
-      <c r="J48" s="360"/>
-      <c r="K48" s="364" t="s">
+      <c r="D48" s="360"/>
+      <c r="E48" s="360"/>
+      <c r="F48" s="360"/>
+      <c r="G48" s="360"/>
+      <c r="H48" s="360"/>
+      <c r="I48" s="360"/>
+      <c r="J48" s="361"/>
+      <c r="K48" s="365" t="s">
         <v>78</v>
       </c>
-      <c r="L48" s="366">
+      <c r="L48" s="367">
         <v>1</v>
       </c>
       <c r="M48" s="115" t="s">
@@ -12332,16 +12337,16 @@
     </row>
     <row r="49" spans="2:25">
       <c r="B49" s="18"/>
-      <c r="C49" s="362"/>
-      <c r="D49" s="362"/>
-      <c r="E49" s="362"/>
-      <c r="F49" s="362"/>
-      <c r="G49" s="362"/>
-      <c r="H49" s="362"/>
-      <c r="I49" s="362"/>
-      <c r="J49" s="363"/>
-      <c r="K49" s="365"/>
-      <c r="L49" s="367"/>
+      <c r="C49" s="363"/>
+      <c r="D49" s="363"/>
+      <c r="E49" s="363"/>
+      <c r="F49" s="363"/>
+      <c r="G49" s="363"/>
+      <c r="H49" s="363"/>
+      <c r="I49" s="363"/>
+      <c r="J49" s="364"/>
+      <c r="K49" s="366"/>
+      <c r="L49" s="368"/>
       <c r="M49" s="117" t="s">
         <v>27</v>
       </c>
@@ -12392,20 +12397,20 @@
     </row>
     <row r="52" spans="2:25">
       <c r="B52" s="18"/>
-      <c r="C52" s="369" t="s">
+      <c r="C52" s="370" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="359"/>
-      <c r="E52" s="359"/>
-      <c r="F52" s="359"/>
-      <c r="G52" s="359"/>
-      <c r="H52" s="359"/>
-      <c r="I52" s="359"/>
-      <c r="J52" s="360"/>
-      <c r="K52" s="364" t="s">
+      <c r="D52" s="360"/>
+      <c r="E52" s="360"/>
+      <c r="F52" s="360"/>
+      <c r="G52" s="360"/>
+      <c r="H52" s="360"/>
+      <c r="I52" s="360"/>
+      <c r="J52" s="361"/>
+      <c r="K52" s="365" t="s">
         <v>73</v>
       </c>
-      <c r="L52" s="366">
+      <c r="L52" s="367">
         <v>1</v>
       </c>
       <c r="M52" s="115" t="s">
@@ -12418,16 +12423,16 @@
     </row>
     <row r="53" spans="2:25">
       <c r="B53" s="18"/>
-      <c r="C53" s="362"/>
-      <c r="D53" s="362"/>
-      <c r="E53" s="362"/>
-      <c r="F53" s="362"/>
-      <c r="G53" s="362"/>
-      <c r="H53" s="362"/>
-      <c r="I53" s="362"/>
-      <c r="J53" s="363"/>
-      <c r="K53" s="365"/>
-      <c r="L53" s="367"/>
+      <c r="C53" s="363"/>
+      <c r="D53" s="363"/>
+      <c r="E53" s="363"/>
+      <c r="F53" s="363"/>
+      <c r="G53" s="363"/>
+      <c r="H53" s="363"/>
+      <c r="I53" s="363"/>
+      <c r="J53" s="364"/>
+      <c r="K53" s="366"/>
+      <c r="L53" s="368"/>
       <c r="M53" s="117" t="s">
         <v>27</v>
       </c>
@@ -12438,20 +12443,20 @@
     </row>
     <row r="54" spans="2:25">
       <c r="B54" s="18"/>
-      <c r="C54" s="369" t="s">
+      <c r="C54" s="370" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="359"/>
-      <c r="E54" s="359"/>
-      <c r="F54" s="359"/>
-      <c r="G54" s="359"/>
-      <c r="H54" s="359"/>
-      <c r="I54" s="359"/>
-      <c r="J54" s="360"/>
-      <c r="K54" s="364" t="s">
+      <c r="D54" s="360"/>
+      <c r="E54" s="360"/>
+      <c r="F54" s="360"/>
+      <c r="G54" s="360"/>
+      <c r="H54" s="360"/>
+      <c r="I54" s="360"/>
+      <c r="J54" s="361"/>
+      <c r="K54" s="365" t="s">
         <v>77</v>
       </c>
-      <c r="L54" s="366">
+      <c r="L54" s="367">
         <v>1</v>
       </c>
       <c r="M54" s="115" t="s">
@@ -12464,16 +12469,16 @@
     </row>
     <row r="55" spans="2:25">
       <c r="B55" s="18"/>
-      <c r="C55" s="362"/>
-      <c r="D55" s="362"/>
-      <c r="E55" s="362"/>
-      <c r="F55" s="362"/>
-      <c r="G55" s="362"/>
-      <c r="H55" s="362"/>
-      <c r="I55" s="362"/>
-      <c r="J55" s="363"/>
-      <c r="K55" s="365"/>
-      <c r="L55" s="367"/>
+      <c r="C55" s="363"/>
+      <c r="D55" s="363"/>
+      <c r="E55" s="363"/>
+      <c r="F55" s="363"/>
+      <c r="G55" s="363"/>
+      <c r="H55" s="363"/>
+      <c r="I55" s="363"/>
+      <c r="J55" s="364"/>
+      <c r="K55" s="366"/>
+      <c r="L55" s="368"/>
       <c r="M55" s="117" t="s">
         <v>27</v>
       </c>
@@ -12484,20 +12489,20 @@
     </row>
     <row r="56" spans="2:25">
       <c r="B56" s="18"/>
-      <c r="C56" s="369" t="s">
+      <c r="C56" s="370" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="359"/>
-      <c r="E56" s="359"/>
-      <c r="F56" s="359"/>
-      <c r="G56" s="359"/>
-      <c r="H56" s="359"/>
-      <c r="I56" s="359"/>
-      <c r="J56" s="360"/>
-      <c r="K56" s="364" t="s">
+      <c r="D56" s="360"/>
+      <c r="E56" s="360"/>
+      <c r="F56" s="360"/>
+      <c r="G56" s="360"/>
+      <c r="H56" s="360"/>
+      <c r="I56" s="360"/>
+      <c r="J56" s="361"/>
+      <c r="K56" s="365" t="s">
         <v>78</v>
       </c>
-      <c r="L56" s="366">
+      <c r="L56" s="367">
         <v>1</v>
       </c>
       <c r="M56" s="115" t="s">
@@ -12510,16 +12515,16 @@
     </row>
     <row r="57" spans="2:25">
       <c r="B57" s="18"/>
-      <c r="C57" s="362"/>
-      <c r="D57" s="362"/>
-      <c r="E57" s="362"/>
-      <c r="F57" s="362"/>
-      <c r="G57" s="362"/>
-      <c r="H57" s="362"/>
-      <c r="I57" s="362"/>
-      <c r="J57" s="363"/>
-      <c r="K57" s="365"/>
-      <c r="L57" s="367"/>
+      <c r="C57" s="363"/>
+      <c r="D57" s="363"/>
+      <c r="E57" s="363"/>
+      <c r="F57" s="363"/>
+      <c r="G57" s="363"/>
+      <c r="H57" s="363"/>
+      <c r="I57" s="363"/>
+      <c r="J57" s="364"/>
+      <c r="K57" s="366"/>
+      <c r="L57" s="368"/>
       <c r="M57" s="117" t="s">
         <v>27</v>
       </c>
@@ -12538,20 +12543,20 @@
     </row>
     <row r="58" spans="2:25" ht="15.75" customHeight="1">
       <c r="B58" s="18"/>
-      <c r="C58" s="370" t="s">
+      <c r="C58" s="371" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="371"/>
-      <c r="E58" s="371"/>
-      <c r="F58" s="371"/>
-      <c r="G58" s="371"/>
-      <c r="H58" s="371"/>
-      <c r="I58" s="371"/>
-      <c r="J58" s="372"/>
-      <c r="K58" s="364" t="s">
+      <c r="D58" s="372"/>
+      <c r="E58" s="372"/>
+      <c r="F58" s="372"/>
+      <c r="G58" s="372"/>
+      <c r="H58" s="372"/>
+      <c r="I58" s="372"/>
+      <c r="J58" s="373"/>
+      <c r="K58" s="365" t="s">
         <v>105</v>
       </c>
-      <c r="L58" s="366">
+      <c r="L58" s="367">
         <v>0</v>
       </c>
       <c r="M58" s="115" t="s">
@@ -12572,16 +12577,16 @@
     </row>
     <row r="59" spans="2:25">
       <c r="B59" s="18"/>
-      <c r="C59" s="373"/>
-      <c r="D59" s="374"/>
-      <c r="E59" s="374"/>
-      <c r="F59" s="374"/>
-      <c r="G59" s="374"/>
-      <c r="H59" s="374"/>
-      <c r="I59" s="374"/>
-      <c r="J59" s="375"/>
-      <c r="K59" s="365"/>
-      <c r="L59" s="367"/>
+      <c r="C59" s="374"/>
+      <c r="D59" s="375"/>
+      <c r="E59" s="375"/>
+      <c r="F59" s="375"/>
+      <c r="G59" s="375"/>
+      <c r="H59" s="375"/>
+      <c r="I59" s="375"/>
+      <c r="J59" s="376"/>
+      <c r="K59" s="366"/>
+      <c r="L59" s="368"/>
       <c r="M59" s="117" t="s">
         <v>27</v>
       </c>
@@ -12600,20 +12605,20 @@
     </row>
     <row r="60" spans="2:25">
       <c r="B60" s="18"/>
-      <c r="C60" s="370" t="s">
+      <c r="C60" s="371" t="s">
         <v>101</v>
       </c>
-      <c r="D60" s="371"/>
-      <c r="E60" s="371"/>
-      <c r="F60" s="371"/>
-      <c r="G60" s="371"/>
-      <c r="H60" s="371"/>
-      <c r="I60" s="371"/>
-      <c r="J60" s="372"/>
-      <c r="K60" s="364" t="s">
+      <c r="D60" s="372"/>
+      <c r="E60" s="372"/>
+      <c r="F60" s="372"/>
+      <c r="G60" s="372"/>
+      <c r="H60" s="372"/>
+      <c r="I60" s="372"/>
+      <c r="J60" s="373"/>
+      <c r="K60" s="365" t="s">
         <v>106</v>
       </c>
-      <c r="L60" s="366">
+      <c r="L60" s="367">
         <v>1</v>
       </c>
       <c r="M60" s="115" t="s">
@@ -12634,16 +12639,16 @@
     </row>
     <row r="61" spans="2:25">
       <c r="B61" s="18"/>
-      <c r="C61" s="373"/>
-      <c r="D61" s="374"/>
-      <c r="E61" s="374"/>
-      <c r="F61" s="374"/>
-      <c r="G61" s="374"/>
-      <c r="H61" s="374"/>
-      <c r="I61" s="374"/>
-      <c r="J61" s="375"/>
-      <c r="K61" s="365"/>
-      <c r="L61" s="367"/>
+      <c r="C61" s="374"/>
+      <c r="D61" s="375"/>
+      <c r="E61" s="375"/>
+      <c r="F61" s="375"/>
+      <c r="G61" s="375"/>
+      <c r="H61" s="375"/>
+      <c r="I61" s="375"/>
+      <c r="J61" s="376"/>
+      <c r="K61" s="366"/>
+      <c r="L61" s="368"/>
       <c r="M61" s="117" t="s">
         <v>27</v>
       </c>
@@ -12654,7 +12659,7 @@
       <c r="R61" s="259"/>
       <c r="S61" s="259"/>
       <c r="T61" s="259" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U61" s="259"/>
       <c r="V61" s="259"/>
@@ -12664,20 +12669,20 @@
     </row>
     <row r="62" spans="2:25">
       <c r="B62" s="18"/>
-      <c r="C62" s="369" t="s">
+      <c r="C62" s="370" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="359"/>
-      <c r="E62" s="359"/>
-      <c r="F62" s="359"/>
-      <c r="G62" s="359"/>
-      <c r="H62" s="359"/>
-      <c r="I62" s="359"/>
-      <c r="J62" s="360"/>
-      <c r="K62" s="364" t="s">
+      <c r="D62" s="360"/>
+      <c r="E62" s="360"/>
+      <c r="F62" s="360"/>
+      <c r="G62" s="360"/>
+      <c r="H62" s="360"/>
+      <c r="I62" s="360"/>
+      <c r="J62" s="361"/>
+      <c r="K62" s="365" t="s">
         <v>73</v>
       </c>
-      <c r="L62" s="366">
+      <c r="L62" s="367">
         <v>1</v>
       </c>
       <c r="M62" s="115" t="s">
@@ -12690,7 +12695,7 @@
       <c r="R62" s="259"/>
       <c r="S62" s="259"/>
       <c r="T62" s="259" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U62" s="259"/>
       <c r="V62" s="259"/>
@@ -12700,16 +12705,16 @@
     </row>
     <row r="63" spans="2:25">
       <c r="B63" s="18"/>
-      <c r="C63" s="362"/>
-      <c r="D63" s="362"/>
-      <c r="E63" s="362"/>
-      <c r="F63" s="362"/>
-      <c r="G63" s="362"/>
-      <c r="H63" s="362"/>
-      <c r="I63" s="362"/>
-      <c r="J63" s="363"/>
-      <c r="K63" s="365"/>
-      <c r="L63" s="367"/>
+      <c r="C63" s="363"/>
+      <c r="D63" s="363"/>
+      <c r="E63" s="363"/>
+      <c r="F63" s="363"/>
+      <c r="G63" s="363"/>
+      <c r="H63" s="363"/>
+      <c r="I63" s="363"/>
+      <c r="J63" s="364"/>
+      <c r="K63" s="366"/>
+      <c r="L63" s="368"/>
       <c r="M63" s="117" t="s">
         <v>27</v>
       </c>
@@ -12720,7 +12725,7 @@
       <c r="R63" s="259"/>
       <c r="S63" s="259"/>
       <c r="T63" s="259" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U63" s="259"/>
       <c r="V63" s="259"/>
@@ -12730,20 +12735,20 @@
     </row>
     <row r="64" spans="2:25">
       <c r="B64" s="18"/>
-      <c r="C64" s="369" t="s">
+      <c r="C64" s="370" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="359"/>
-      <c r="E64" s="359"/>
-      <c r="F64" s="359"/>
-      <c r="G64" s="359"/>
-      <c r="H64" s="359"/>
-      <c r="I64" s="359"/>
-      <c r="J64" s="360"/>
-      <c r="K64" s="364" t="s">
+      <c r="D64" s="360"/>
+      <c r="E64" s="360"/>
+      <c r="F64" s="360"/>
+      <c r="G64" s="360"/>
+      <c r="H64" s="360"/>
+      <c r="I64" s="360"/>
+      <c r="J64" s="361"/>
+      <c r="K64" s="365" t="s">
         <v>76</v>
       </c>
-      <c r="L64" s="366">
+      <c r="L64" s="367">
         <v>0</v>
       </c>
       <c r="M64" s="115" t="s">
@@ -12756,7 +12761,7 @@
       <c r="R64" s="259"/>
       <c r="S64" s="259"/>
       <c r="T64" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U64" s="259"/>
       <c r="V64" s="259"/>
@@ -12766,16 +12771,16 @@
     </row>
     <row r="65" spans="2:35">
       <c r="B65" s="18"/>
-      <c r="C65" s="362"/>
-      <c r="D65" s="362"/>
-      <c r="E65" s="362"/>
-      <c r="F65" s="362"/>
-      <c r="G65" s="362"/>
-      <c r="H65" s="362"/>
-      <c r="I65" s="362"/>
-      <c r="J65" s="363"/>
-      <c r="K65" s="377"/>
-      <c r="L65" s="367"/>
+      <c r="C65" s="363"/>
+      <c r="D65" s="363"/>
+      <c r="E65" s="363"/>
+      <c r="F65" s="363"/>
+      <c r="G65" s="363"/>
+      <c r="H65" s="363"/>
+      <c r="I65" s="363"/>
+      <c r="J65" s="364"/>
+      <c r="K65" s="378"/>
+      <c r="L65" s="368"/>
       <c r="M65" s="117" t="s">
         <v>27</v>
       </c>
@@ -12794,20 +12799,20 @@
     </row>
     <row r="66" spans="2:35">
       <c r="B66" s="18"/>
-      <c r="C66" s="369" t="s">
+      <c r="C66" s="370" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="359"/>
-      <c r="E66" s="359"/>
-      <c r="F66" s="359"/>
-      <c r="G66" s="359"/>
-      <c r="H66" s="359"/>
-      <c r="I66" s="359"/>
-      <c r="J66" s="360"/>
-      <c r="K66" s="376" t="s">
+      <c r="D66" s="360"/>
+      <c r="E66" s="360"/>
+      <c r="F66" s="360"/>
+      <c r="G66" s="360"/>
+      <c r="H66" s="360"/>
+      <c r="I66" s="360"/>
+      <c r="J66" s="361"/>
+      <c r="K66" s="377" t="s">
         <v>76</v>
       </c>
-      <c r="L66" s="366">
+      <c r="L66" s="367">
         <v>1</v>
       </c>
       <c r="M66" s="115" t="s">
@@ -12828,16 +12833,16 @@
     </row>
     <row r="67" spans="2:35">
       <c r="B67" s="18"/>
-      <c r="C67" s="362"/>
-      <c r="D67" s="362"/>
-      <c r="E67" s="362"/>
-      <c r="F67" s="362"/>
-      <c r="G67" s="362"/>
-      <c r="H67" s="362"/>
-      <c r="I67" s="362"/>
-      <c r="J67" s="363"/>
-      <c r="K67" s="365"/>
-      <c r="L67" s="367"/>
+      <c r="C67" s="363"/>
+      <c r="D67" s="363"/>
+      <c r="E67" s="363"/>
+      <c r="F67" s="363"/>
+      <c r="G67" s="363"/>
+      <c r="H67" s="363"/>
+      <c r="I67" s="363"/>
+      <c r="J67" s="364"/>
+      <c r="K67" s="366"/>
+      <c r="L67" s="368"/>
       <c r="M67" s="117" t="s">
         <v>27</v>
       </c>
@@ -12856,20 +12861,20 @@
     </row>
     <row r="68" spans="2:35">
       <c r="B68" s="18"/>
-      <c r="C68" s="369" t="s">
+      <c r="C68" s="370" t="s">
         <v>104</v>
       </c>
-      <c r="D68" s="359"/>
-      <c r="E68" s="359"/>
-      <c r="F68" s="359"/>
-      <c r="G68" s="359"/>
-      <c r="H68" s="359"/>
-      <c r="I68" s="359"/>
-      <c r="J68" s="360"/>
-      <c r="K68" s="364" t="s">
+      <c r="D68" s="360"/>
+      <c r="E68" s="360"/>
+      <c r="F68" s="360"/>
+      <c r="G68" s="360"/>
+      <c r="H68" s="360"/>
+      <c r="I68" s="360"/>
+      <c r="J68" s="361"/>
+      <c r="K68" s="365" t="s">
         <v>72</v>
       </c>
-      <c r="L68" s="366">
+      <c r="L68" s="367">
         <v>1</v>
       </c>
       <c r="M68" s="115" t="s">
@@ -12890,16 +12895,16 @@
     </row>
     <row r="69" spans="2:35">
       <c r="B69" s="18"/>
-      <c r="C69" s="362"/>
-      <c r="D69" s="362"/>
-      <c r="E69" s="362"/>
-      <c r="F69" s="362"/>
-      <c r="G69" s="362"/>
-      <c r="H69" s="362"/>
-      <c r="I69" s="362"/>
-      <c r="J69" s="363"/>
-      <c r="K69" s="365"/>
-      <c r="L69" s="367"/>
+      <c r="C69" s="363"/>
+      <c r="D69" s="363"/>
+      <c r="E69" s="363"/>
+      <c r="F69" s="363"/>
+      <c r="G69" s="363"/>
+      <c r="H69" s="363"/>
+      <c r="I69" s="363"/>
+      <c r="J69" s="364"/>
+      <c r="K69" s="366"/>
+      <c r="L69" s="368"/>
       <c r="M69" s="117" t="s">
         <v>27</v>
       </c>
@@ -12918,20 +12923,20 @@
     </row>
     <row r="70" spans="2:35">
       <c r="B70" s="18"/>
-      <c r="C70" s="369" t="s">
+      <c r="C70" s="370" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="359"/>
-      <c r="E70" s="359"/>
-      <c r="F70" s="359"/>
-      <c r="G70" s="359"/>
-      <c r="H70" s="359"/>
-      <c r="I70" s="359"/>
-      <c r="J70" s="360"/>
-      <c r="K70" s="364" t="s">
+      <c r="D70" s="360"/>
+      <c r="E70" s="360"/>
+      <c r="F70" s="360"/>
+      <c r="G70" s="360"/>
+      <c r="H70" s="360"/>
+      <c r="I70" s="360"/>
+      <c r="J70" s="361"/>
+      <c r="K70" s="365" t="s">
         <v>72</v>
       </c>
-      <c r="L70" s="366">
+      <c r="L70" s="367">
         <v>1</v>
       </c>
       <c r="M70" s="115" t="s">
@@ -12952,16 +12957,16 @@
     </row>
     <row r="71" spans="2:35">
       <c r="B71" s="18"/>
-      <c r="C71" s="362"/>
-      <c r="D71" s="362"/>
-      <c r="E71" s="362"/>
-      <c r="F71" s="362"/>
-      <c r="G71" s="362"/>
-      <c r="H71" s="362"/>
-      <c r="I71" s="362"/>
-      <c r="J71" s="363"/>
-      <c r="K71" s="365"/>
-      <c r="L71" s="367"/>
+      <c r="C71" s="363"/>
+      <c r="D71" s="363"/>
+      <c r="E71" s="363"/>
+      <c r="F71" s="363"/>
+      <c r="G71" s="363"/>
+      <c r="H71" s="363"/>
+      <c r="I71" s="363"/>
+      <c r="J71" s="364"/>
+      <c r="K71" s="366"/>
+      <c r="L71" s="368"/>
       <c r="M71" s="117" t="s">
         <v>27</v>
       </c>
@@ -13124,7 +13129,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -13134,7 +13139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1E69AA-C7D0-4C51-9F8C-E89B9B560452}">
   <dimension ref="B7:AC38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
   <cols>
@@ -13161,26 +13168,26 @@
       <c r="I9" s="180"/>
       <c r="J9" s="180"/>
       <c r="K9" s="180"/>
-      <c r="L9" s="347">
+      <c r="L9" s="348">
         <v>2020</v>
       </c>
-      <c r="M9" s="347"/>
-      <c r="N9" s="347"/>
-      <c r="O9" s="347"/>
-      <c r="P9" s="347"/>
-      <c r="Q9" s="347"/>
-      <c r="R9" s="347"/>
-      <c r="S9" s="347"/>
-      <c r="T9" s="347"/>
-      <c r="U9" s="347"/>
-      <c r="V9" s="347"/>
-      <c r="W9" s="347"/>
-      <c r="X9" s="347"/>
-      <c r="Y9" s="347"/>
-      <c r="Z9" s="347"/>
-      <c r="AA9" s="347"/>
-      <c r="AB9" s="347"/>
-      <c r="AC9" s="347"/>
+      <c r="M9" s="348"/>
+      <c r="N9" s="348"/>
+      <c r="O9" s="348"/>
+      <c r="P9" s="348"/>
+      <c r="Q9" s="348"/>
+      <c r="R9" s="348"/>
+      <c r="S9" s="348"/>
+      <c r="T9" s="348"/>
+      <c r="U9" s="348"/>
+      <c r="V9" s="348"/>
+      <c r="W9" s="348"/>
+      <c r="X9" s="348"/>
+      <c r="Y9" s="348"/>
+      <c r="Z9" s="348"/>
+      <c r="AA9" s="348"/>
+      <c r="AB9" s="348"/>
+      <c r="AC9" s="348"/>
     </row>
     <row r="10" spans="3:29">
       <c r="C10" s="181"/>
@@ -13192,26 +13199,26 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="347">
+      <c r="L10" s="348">
         <v>6</v>
       </c>
-      <c r="M10" s="347"/>
-      <c r="N10" s="347"/>
-      <c r="O10" s="347"/>
-      <c r="P10" s="347"/>
-      <c r="Q10" s="347"/>
-      <c r="R10" s="347"/>
-      <c r="S10" s="347"/>
-      <c r="T10" s="347"/>
-      <c r="U10" s="347"/>
-      <c r="V10" s="347"/>
-      <c r="W10" s="347"/>
-      <c r="X10" s="347"/>
-      <c r="Y10" s="347"/>
-      <c r="Z10" s="347"/>
-      <c r="AA10" s="347"/>
-      <c r="AB10" s="347"/>
-      <c r="AC10" s="347"/>
+      <c r="M10" s="348"/>
+      <c r="N10" s="348"/>
+      <c r="O10" s="348"/>
+      <c r="P10" s="348"/>
+      <c r="Q10" s="348"/>
+      <c r="R10" s="348"/>
+      <c r="S10" s="348"/>
+      <c r="T10" s="348"/>
+      <c r="U10" s="348"/>
+      <c r="V10" s="348"/>
+      <c r="W10" s="348"/>
+      <c r="X10" s="348"/>
+      <c r="Y10" s="348"/>
+      <c r="Z10" s="348"/>
+      <c r="AA10" s="348"/>
+      <c r="AB10" s="348"/>
+      <c r="AC10" s="348"/>
     </row>
     <row r="11" spans="3:29">
       <c r="C11" s="9"/>
@@ -13738,20 +13745,20 @@
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="18"/>
-      <c r="C30" s="389" t="s">
+      <c r="C30" s="390" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="384"/>
-      <c r="E30" s="384"/>
-      <c r="F30" s="384"/>
-      <c r="G30" s="384"/>
-      <c r="H30" s="384"/>
-      <c r="I30" s="384"/>
-      <c r="J30" s="385"/>
-      <c r="K30" s="364" t="s">
+      <c r="D30" s="385"/>
+      <c r="E30" s="385"/>
+      <c r="F30" s="385"/>
+      <c r="G30" s="385"/>
+      <c r="H30" s="385"/>
+      <c r="I30" s="385"/>
+      <c r="J30" s="386"/>
+      <c r="K30" s="365" t="s">
         <v>52</v>
       </c>
-      <c r="L30" s="368">
+      <c r="L30" s="369">
         <v>1</v>
       </c>
       <c r="M30" s="115" t="s">
@@ -13766,21 +13773,21 @@
       <c r="T30" s="276"/>
       <c r="U30" s="276"/>
       <c r="V30" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="18"/>
-      <c r="C31" s="386"/>
-      <c r="D31" s="387"/>
-      <c r="E31" s="387"/>
-      <c r="F31" s="387"/>
-      <c r="G31" s="387"/>
-      <c r="H31" s="387"/>
-      <c r="I31" s="387"/>
-      <c r="J31" s="388"/>
-      <c r="K31" s="365"/>
-      <c r="L31" s="365"/>
+      <c r="C31" s="387"/>
+      <c r="D31" s="388"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="388"/>
+      <c r="G31" s="388"/>
+      <c r="H31" s="388"/>
+      <c r="I31" s="388"/>
+      <c r="J31" s="389"/>
+      <c r="K31" s="366"/>
+      <c r="L31" s="366"/>
       <c r="M31" s="117" t="s">
         <v>27</v>
       </c>
@@ -13821,20 +13828,20 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="18"/>
-      <c r="C33" s="389" t="s">
+      <c r="C33" s="390" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="384"/>
-      <c r="E33" s="384"/>
-      <c r="F33" s="384"/>
-      <c r="G33" s="384"/>
-      <c r="H33" s="384"/>
-      <c r="I33" s="384"/>
-      <c r="J33" s="385"/>
-      <c r="K33" s="364" t="s">
+      <c r="D33" s="385"/>
+      <c r="E33" s="385"/>
+      <c r="F33" s="385"/>
+      <c r="G33" s="385"/>
+      <c r="H33" s="385"/>
+      <c r="I33" s="385"/>
+      <c r="J33" s="386"/>
+      <c r="K33" s="365" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="368">
+      <c r="L33" s="369">
         <v>1</v>
       </c>
       <c r="M33" s="115" t="s">
@@ -13849,21 +13856,21 @@
       <c r="T33" s="276"/>
       <c r="U33" s="276"/>
       <c r="V33" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="18"/>
-      <c r="C34" s="386"/>
-      <c r="D34" s="387"/>
-      <c r="E34" s="387"/>
-      <c r="F34" s="387"/>
-      <c r="G34" s="387"/>
-      <c r="H34" s="387"/>
-      <c r="I34" s="387"/>
-      <c r="J34" s="388"/>
-      <c r="K34" s="365"/>
-      <c r="L34" s="365"/>
+      <c r="C34" s="387"/>
+      <c r="D34" s="388"/>
+      <c r="E34" s="388"/>
+      <c r="F34" s="388"/>
+      <c r="G34" s="388"/>
+      <c r="H34" s="388"/>
+      <c r="I34" s="388"/>
+      <c r="J34" s="389"/>
+      <c r="K34" s="366"/>
+      <c r="L34" s="366"/>
       <c r="M34" s="117" t="s">
         <v>27</v>
       </c>
@@ -13878,20 +13885,20 @@
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="18"/>
-      <c r="C35" s="383" t="s">
+      <c r="C35" s="384" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="384"/>
-      <c r="E35" s="384"/>
-      <c r="F35" s="384"/>
-      <c r="G35" s="384"/>
-      <c r="H35" s="384"/>
-      <c r="I35" s="384"/>
-      <c r="J35" s="385"/>
-      <c r="K35" s="364" t="s">
+      <c r="D35" s="385"/>
+      <c r="E35" s="385"/>
+      <c r="F35" s="385"/>
+      <c r="G35" s="385"/>
+      <c r="H35" s="385"/>
+      <c r="I35" s="385"/>
+      <c r="J35" s="386"/>
+      <c r="K35" s="365" t="s">
         <v>52</v>
       </c>
-      <c r="L35" s="368">
+      <c r="L35" s="369">
         <v>1</v>
       </c>
       <c r="M35" s="115" t="s">
@@ -13906,21 +13913,21 @@
       <c r="T35" s="276"/>
       <c r="U35" s="276"/>
       <c r="V35" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="18"/>
-      <c r="C36" s="386"/>
-      <c r="D36" s="387"/>
-      <c r="E36" s="387"/>
-      <c r="F36" s="387"/>
-      <c r="G36" s="387"/>
-      <c r="H36" s="387"/>
-      <c r="I36" s="387"/>
-      <c r="J36" s="388"/>
-      <c r="K36" s="365"/>
-      <c r="L36" s="365"/>
+      <c r="C36" s="387"/>
+      <c r="D36" s="388"/>
+      <c r="E36" s="388"/>
+      <c r="F36" s="388"/>
+      <c r="G36" s="388"/>
+      <c r="H36" s="388"/>
+      <c r="I36" s="388"/>
+      <c r="J36" s="389"/>
+      <c r="K36" s="366"/>
+      <c r="L36" s="366"/>
       <c r="M36" s="117" t="s">
         <v>27</v>
       </c>
@@ -13957,7 +13964,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="Q38" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -13981,9 +13988,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -13991,7 +13998,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A676D-58E7-4D90-97FA-C8AA44D86BEF}">
   <dimension ref="B6:AC35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="15.75"/>
   <cols>
@@ -14018,26 +14027,26 @@
       <c r="I8" s="180"/>
       <c r="J8" s="180"/>
       <c r="K8" s="180"/>
-      <c r="L8" s="347">
+      <c r="L8" s="348">
         <v>2020</v>
       </c>
-      <c r="M8" s="347"/>
-      <c r="N8" s="347"/>
-      <c r="O8" s="347"/>
-      <c r="P8" s="347"/>
-      <c r="Q8" s="347"/>
-      <c r="R8" s="347"/>
-      <c r="S8" s="347"/>
-      <c r="T8" s="347"/>
-      <c r="U8" s="347"/>
-      <c r="V8" s="347"/>
-      <c r="W8" s="347"/>
-      <c r="X8" s="347"/>
-      <c r="Y8" s="347"/>
-      <c r="Z8" s="347"/>
-      <c r="AA8" s="347"/>
-      <c r="AB8" s="347"/>
-      <c r="AC8" s="347"/>
+      <c r="M8" s="348"/>
+      <c r="N8" s="348"/>
+      <c r="O8" s="348"/>
+      <c r="P8" s="348"/>
+      <c r="Q8" s="348"/>
+      <c r="R8" s="348"/>
+      <c r="S8" s="348"/>
+      <c r="T8" s="348"/>
+      <c r="U8" s="348"/>
+      <c r="V8" s="348"/>
+      <c r="W8" s="348"/>
+      <c r="X8" s="348"/>
+      <c r="Y8" s="348"/>
+      <c r="Z8" s="348"/>
+      <c r="AA8" s="348"/>
+      <c r="AB8" s="348"/>
+      <c r="AC8" s="348"/>
     </row>
     <row r="9" spans="3:29">
       <c r="C9" s="181"/>
@@ -14049,26 +14058,26 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="347">
+      <c r="L9" s="348">
         <v>6</v>
       </c>
-      <c r="M9" s="347"/>
-      <c r="N9" s="347"/>
-      <c r="O9" s="347"/>
-      <c r="P9" s="347"/>
-      <c r="Q9" s="347"/>
-      <c r="R9" s="347"/>
-      <c r="S9" s="347"/>
-      <c r="T9" s="347"/>
-      <c r="U9" s="347"/>
-      <c r="V9" s="347"/>
-      <c r="W9" s="347"/>
-      <c r="X9" s="347"/>
-      <c r="Y9" s="347"/>
-      <c r="Z9" s="347"/>
-      <c r="AA9" s="347"/>
-      <c r="AB9" s="347"/>
-      <c r="AC9" s="347"/>
+      <c r="M9" s="348"/>
+      <c r="N9" s="348"/>
+      <c r="O9" s="348"/>
+      <c r="P9" s="348"/>
+      <c r="Q9" s="348"/>
+      <c r="R9" s="348"/>
+      <c r="S9" s="348"/>
+      <c r="T9" s="348"/>
+      <c r="U9" s="348"/>
+      <c r="V9" s="348"/>
+      <c r="W9" s="348"/>
+      <c r="X9" s="348"/>
+      <c r="Y9" s="348"/>
+      <c r="Z9" s="348"/>
+      <c r="AA9" s="348"/>
+      <c r="AB9" s="348"/>
+      <c r="AC9" s="348"/>
     </row>
     <row r="10" spans="3:29">
       <c r="C10" s="9"/>
@@ -14589,21 +14598,21 @@
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="18"/>
-      <c r="C29" s="390" t="s">
+      <c r="C29" s="391" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="359"/>
-      <c r="E29" s="359"/>
-      <c r="F29" s="359"/>
-      <c r="G29" s="359"/>
-      <c r="H29" s="359"/>
-      <c r="I29" s="359"/>
-      <c r="J29" s="360"/>
-      <c r="K29" s="364" t="s">
+      <c r="D29" s="360"/>
+      <c r="E29" s="360"/>
+      <c r="F29" s="360"/>
+      <c r="G29" s="360"/>
+      <c r="H29" s="360"/>
+      <c r="I29" s="360"/>
+      <c r="J29" s="361"/>
+      <c r="K29" s="365" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="368">
-        <v>0</v>
+      <c r="L29" s="369">
+        <v>1</v>
       </c>
       <c r="M29" s="115" t="s">
         <v>26</v>
@@ -14612,9 +14621,7 @@
       <c r="O29" s="284"/>
       <c r="P29" s="284"/>
       <c r="Q29" s="99"/>
-      <c r="R29" s="171" t="s">
-        <v>108</v>
-      </c>
+      <c r="R29" s="171"/>
       <c r="S29" s="171"/>
       <c r="T29" s="171"/>
       <c r="U29" s="171"/>
@@ -14628,23 +14635,23 @@
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="18"/>
-      <c r="C30" s="361"/>
-      <c r="D30" s="362"/>
-      <c r="E30" s="362"/>
-      <c r="F30" s="362"/>
-      <c r="G30" s="362"/>
-      <c r="H30" s="362"/>
-      <c r="I30" s="362"/>
-      <c r="J30" s="363"/>
-      <c r="K30" s="365"/>
-      <c r="L30" s="365"/>
+      <c r="C30" s="362"/>
+      <c r="D30" s="363"/>
+      <c r="E30" s="363"/>
+      <c r="F30" s="363"/>
+      <c r="G30" s="363"/>
+      <c r="H30" s="363"/>
+      <c r="I30" s="363"/>
+      <c r="J30" s="364"/>
+      <c r="K30" s="366"/>
+      <c r="L30" s="366"/>
       <c r="M30" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="176"/>
       <c r="O30" s="285"/>
       <c r="P30" s="285"/>
-      <c r="Q30" s="176"/>
+      <c r="Q30" s="347"/>
       <c r="R30" s="171"/>
       <c r="S30" s="171"/>
       <c r="T30" s="171"/>
@@ -14659,21 +14666,21 @@
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="18"/>
-      <c r="C31" s="358" t="s">
+      <c r="C31" s="359" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="359"/>
-      <c r="E31" s="359"/>
-      <c r="F31" s="359"/>
-      <c r="G31" s="359"/>
-      <c r="H31" s="359"/>
-      <c r="I31" s="359"/>
-      <c r="J31" s="360"/>
-      <c r="K31" s="364" t="s">
+      <c r="D31" s="360"/>
+      <c r="E31" s="360"/>
+      <c r="F31" s="360"/>
+      <c r="G31" s="360"/>
+      <c r="H31" s="360"/>
+      <c r="I31" s="360"/>
+      <c r="J31" s="361"/>
+      <c r="K31" s="365" t="s">
         <v>52</v>
       </c>
-      <c r="L31" s="368">
-        <v>0</v>
+      <c r="L31" s="369">
+        <v>1</v>
       </c>
       <c r="M31" s="115" t="s">
         <v>26</v>
@@ -14682,9 +14689,7 @@
       <c r="O31" s="284"/>
       <c r="P31" s="284"/>
       <c r="Q31" s="99"/>
-      <c r="R31" s="171" t="s">
-        <v>109</v>
-      </c>
+      <c r="R31" s="171"/>
       <c r="S31" s="171"/>
       <c r="T31" s="171"/>
       <c r="U31" s="171"/>
@@ -14698,23 +14703,23 @@
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="18"/>
-      <c r="C32" s="361"/>
-      <c r="D32" s="362"/>
-      <c r="E32" s="362"/>
-      <c r="F32" s="362"/>
-      <c r="G32" s="362"/>
-      <c r="H32" s="362"/>
-      <c r="I32" s="362"/>
-      <c r="J32" s="363"/>
-      <c r="K32" s="365"/>
-      <c r="L32" s="365"/>
+      <c r="C32" s="362"/>
+      <c r="D32" s="363"/>
+      <c r="E32" s="363"/>
+      <c r="F32" s="363"/>
+      <c r="G32" s="363"/>
+      <c r="H32" s="363"/>
+      <c r="I32" s="363"/>
+      <c r="J32" s="364"/>
+      <c r="K32" s="366"/>
+      <c r="L32" s="366"/>
       <c r="M32" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N32" s="176"/>
       <c r="O32" s="285"/>
       <c r="P32" s="285"/>
-      <c r="Q32" s="176"/>
+      <c r="Q32" s="347"/>
       <c r="R32" s="171"/>
       <c r="S32" s="171"/>
       <c r="T32" s="171"/>
@@ -14729,21 +14734,21 @@
     </row>
     <row r="33" spans="2:28">
       <c r="B33" s="18"/>
-      <c r="C33" s="358" t="s">
+      <c r="C33" s="359" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="359"/>
-      <c r="E33" s="359"/>
-      <c r="F33" s="359"/>
-      <c r="G33" s="359"/>
-      <c r="H33" s="359"/>
-      <c r="I33" s="359"/>
-      <c r="J33" s="360"/>
-      <c r="K33" s="364" t="s">
+      <c r="D33" s="360"/>
+      <c r="E33" s="360"/>
+      <c r="F33" s="360"/>
+      <c r="G33" s="360"/>
+      <c r="H33" s="360"/>
+      <c r="I33" s="360"/>
+      <c r="J33" s="361"/>
+      <c r="K33" s="365" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="368">
-        <v>0</v>
+      <c r="L33" s="369">
+        <v>1</v>
       </c>
       <c r="M33" s="115" t="s">
         <v>26</v>
@@ -14752,9 +14757,7 @@
       <c r="O33" s="284"/>
       <c r="P33" s="284"/>
       <c r="Q33" s="99"/>
-      <c r="R33" s="171" t="s">
-        <v>107</v>
-      </c>
+      <c r="R33" s="171"/>
       <c r="S33" s="171"/>
       <c r="T33" s="171"/>
       <c r="U33" s="171"/>
@@ -14768,23 +14771,23 @@
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="18"/>
-      <c r="C34" s="361"/>
-      <c r="D34" s="362"/>
-      <c r="E34" s="362"/>
-      <c r="F34" s="362"/>
-      <c r="G34" s="362"/>
-      <c r="H34" s="362"/>
-      <c r="I34" s="362"/>
-      <c r="J34" s="363"/>
-      <c r="K34" s="365"/>
-      <c r="L34" s="365"/>
+      <c r="C34" s="362"/>
+      <c r="D34" s="363"/>
+      <c r="E34" s="363"/>
+      <c r="F34" s="363"/>
+      <c r="G34" s="363"/>
+      <c r="H34" s="363"/>
+      <c r="I34" s="363"/>
+      <c r="J34" s="364"/>
+      <c r="K34" s="366"/>
+      <c r="L34" s="366"/>
       <c r="M34" s="117" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="176"/>
       <c r="O34" s="285"/>
       <c r="P34" s="285"/>
-      <c r="Q34" s="176"/>
+      <c r="Q34" s="347"/>
       <c r="R34" s="171"/>
       <c r="S34" s="171"/>
       <c r="T34" s="171"/>
@@ -14847,8 +14850,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>